--- a/Paper list.xlsx
+++ b/Paper list.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.PhD\6.RL Club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF83A61D-764C-4AEA-8CC6-58137D05419F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC3FCFB-9627-4AD0-89E2-9F26BBEA2028}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
   </bookViews>
   <sheets>
     <sheet name="DeepMind Papers" sheetId="1" r:id="rId1"/>
     <sheet name="Others" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DeepMind Papers'!$B$2:$F$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DeepMind Papers'!$B$3:$F$162</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="264">
   <si>
     <t>Title</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -860,6 +860,10 @@
   </si>
   <si>
     <t>Temporal difference variational auto-encoder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google DeepMind Paper list</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -867,7 +871,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -908,8 +912,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="24"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -928,8 +950,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -989,16 +1016,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1023,6 +1068,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1044,13 +1092,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="20% - 강조색5" xfId="1" builtinId="46"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1362,10 +1411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D0C1FB-3C2C-47C3-B0C0-A85F23F3B3BD}">
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C139" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1378,217 +1427,210 @@
     <col min="6" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:6" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+        <v>252</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+        <v>245</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="4"/>
+      <c r="B8" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+        <v>252</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+        <v>252</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="4"/>
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -1596,10 +1638,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>12</v>
@@ -1612,13 +1654,13 @@
         <v>3</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F18" s="4"/>
     </row>
@@ -1627,229 +1669,235 @@
       <c r="B19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="8"/>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="B20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="4"/>
+      <c r="B21" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="8"/>
+      <c r="C22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="B23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="11"/>
+        <v>252</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="4"/>
+      <c r="B28" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="8"/>
+      <c r="C29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="B30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+        <v>252</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="B33" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+        <v>252</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1857,84 +1905,78 @@
       <c r="B36" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="4"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D40" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="7" t="s">
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41" s="4"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
@@ -1942,13 +1984,13 @@
         <v>3</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F42" s="4"/>
     </row>
@@ -1957,42 +1999,42 @@
       <c r="B43" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="8"/>
+      <c r="C43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
+      <c r="B44" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F44" s="9"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="4"/>
+      <c r="B45" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
@@ -2000,10 +2042,10 @@
         <v>3</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>12</v>
@@ -2015,42 +2057,42 @@
       <c r="B47" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="8"/>
+      <c r="C47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
+      <c r="B48" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="4"/>
+      <c r="B49" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
@@ -2058,10 +2100,10 @@
         <v>3</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>12</v>
@@ -2070,23 +2112,27 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="7" t="s">
-        <v>250</v>
+      <c r="B51" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="6" t="s">
-        <v>251</v>
+      <c r="B52" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -2095,17 +2141,13 @@
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="6" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2113,182 +2155,182 @@
       <c r="B54" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="8"/>
+      <c r="C54" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
+      <c r="B55" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="8"/>
+        <v>248</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F57" s="9"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="8"/>
-    </row>
-    <row r="59" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F59" s="9"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="8"/>
-    </row>
-    <row r="61" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
+        <v>252</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="8"/>
-    </row>
-    <row r="64" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F64" s="9"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F65" s="8"/>
+        <v>252</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="F66" s="9"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
-      <c r="B67" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="4"/>
+      <c r="B67" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
@@ -2296,10 +2338,10 @@
         <v>3</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>12</v>
@@ -2312,13 +2354,13 @@
         <v>3</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="F69" s="4"/>
     </row>
@@ -2327,51 +2369,57 @@
       <c r="B70" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D71" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E70" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="8"/>
-    </row>
-    <row r="71" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
+      <c r="E71" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F71" s="9"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="8"/>
+        <v>252</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
+        <v>247</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F73" s="9"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2379,77 +2427,77 @@
       <c r="B74" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F74" s="11"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="F75" s="12"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="8"/>
+        <v>246</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="13"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
+        <v>247</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F77" s="9"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="8"/>
+        <v>246</v>
+      </c>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
+        <v>247</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F79" s="9"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2457,194 +2505,188 @@
       <c r="B80" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C80" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="8"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
+        <v>246</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F81" s="9"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="4"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="8"/>
+        <v>247</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="4"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
+      <c r="B84" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F84" s="9"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="4"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C86" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="8"/>
+      <c r="C86" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="4"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
-      <c r="B87" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
+      <c r="B87" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F87" s="9"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="4"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="8"/>
+        <v>246</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="4"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
-      <c r="B90" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
+      <c r="B90" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F90" s="9"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F91" s="8"/>
+        <v>248</v>
+      </c>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
+        <v>246</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="F92" s="9"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
-      <c r="B93" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F93" s="4"/>
+      <c r="B93" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
@@ -2652,13 +2694,13 @@
         <v>246</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F94" s="4"/>
     </row>
@@ -2667,76 +2709,76 @@
       <c r="B95" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C95" s="15" t="s">
-        <v>258</v>
+      <c r="C95" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>256</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="F95" s="4"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>126</v>
+      <c r="C96" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F96" s="4"/>
+      <c r="F96" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F97" s="8"/>
+        <v>246</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="4"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
-      <c r="B98" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
+      <c r="B98" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="F98" s="9"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
-      <c r="B99" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" s="4"/>
+      <c r="B99" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
@@ -2744,10 +2786,10 @@
         <v>246</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>12</v>
@@ -2759,44 +2801,44 @@
       <c r="B101" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C101" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>257</v>
-      </c>
+      <c r="C101" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="4"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
-      <c r="B102" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C102" s="14"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
+      <c r="B102" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
-      <c r="B103" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="4"/>
+      <c r="B103" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C103" s="15"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
@@ -2804,13 +2846,13 @@
         <v>246</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="F104" s="4"/>
     </row>
@@ -2820,13 +2862,13 @@
         <v>246</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="F105" s="4"/>
     </row>
@@ -2836,10 +2878,10 @@
         <v>246</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>12</v>
@@ -2851,110 +2893,110 @@
       <c r="B107" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="1"/>
+      <c r="B108" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C108" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D108" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E108" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F107" s="8"/>
-    </row>
-    <row r="108" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A108" s="1"/>
-      <c r="B108" s="7" t="s">
+      <c r="F108" s="9"/>
+    </row>
+    <row r="109" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A109" s="1"/>
+      <c r="B109" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="1"/>
-      <c r="B109" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F109" s="4"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C110" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F110" s="8"/>
+      <c r="C110" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F110" s="4"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
-      <c r="B111" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
+      <c r="B111" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="F111" s="9"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F112" s="8"/>
+        <v>248</v>
+      </c>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
+        <v>245</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="F113" s="9"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114" s="4"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
@@ -2962,13 +3004,13 @@
         <v>246</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="F115" s="4"/>
     </row>
@@ -2978,13 +3020,13 @@
         <v>246</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="F116" s="4"/>
     </row>
@@ -2994,10 +3036,10 @@
         <v>246</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>12</v>
@@ -3009,68 +3051,68 @@
       <c r="B118" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C118" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" s="8"/>
+      <c r="C118" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="4"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
-      <c r="B119" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
+      <c r="B119" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F119" s="9"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="8"/>
+        <v>248</v>
+      </c>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
+        <v>246</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F121" s="9"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
-      <c r="B122" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" s="4"/>
+      <c r="B122" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
@@ -3078,10 +3120,10 @@
         <v>246</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>12</v>
@@ -3094,13 +3136,13 @@
         <v>246</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F124" s="4"/>
     </row>
@@ -3110,13 +3152,13 @@
         <v>246</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F125" s="4"/>
     </row>
@@ -3126,10 +3168,10 @@
         <v>246</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>12</v>
@@ -3142,10 +3184,10 @@
         <v>246</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>12</v>
@@ -3157,53 +3199,53 @@
       <c r="B128" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C128" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" s="8"/>
+      <c r="C128" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="4"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
-      <c r="B129" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
+      <c r="B129" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F129" s="9"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
-      <c r="B130" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
+      <c r="B130" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="6" t="s">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -3212,13 +3254,13 @@
         <v>249</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="F132" s="4"/>
     </row>
@@ -3227,42 +3269,42 @@
       <c r="B133" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C133" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F133" s="8"/>
+      <c r="C133" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F133" s="4"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
-      <c r="B134" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
+      <c r="B134" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F134" s="9"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
-      <c r="B135" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F135" s="4"/>
+      <c r="B135" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
@@ -3270,57 +3312,57 @@
         <v>245</v>
       </c>
       <c r="C136" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F136" s="4"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="1"/>
+      <c r="B137" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="D137" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E136" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F136" s="4"/>
-    </row>
-    <row r="137" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A137" s="1"/>
-      <c r="B137" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F137" s="8"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E137" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="4"/>
+    </row>
+    <row r="138" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
+        <v>252</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="F138" s="9"/>
     </row>
-    <row r="139" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F139" s="4"/>
+        <v>248</v>
+      </c>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
     </row>
     <row r="140" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
@@ -3328,13 +3370,13 @@
         <v>252</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="F140" s="4"/>
     </row>
@@ -3344,13 +3386,13 @@
         <v>252</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="F141" s="4"/>
     </row>
@@ -3360,13 +3402,13 @@
         <v>252</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="F142" s="4"/>
     </row>
@@ -3376,40 +3418,46 @@
         <v>252</v>
       </c>
       <c r="C143" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" s="4"/>
+    </row>
+    <row r="144" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="D144" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E143" s="4" t="s">
+      <c r="E144" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F143" s="4"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="1"/>
-      <c r="B144" s="6" t="s">
+      <c r="F144" s="4"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="1"/>
+      <c r="B145" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C144" s="8" t="s">
+      <c r="C145" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="D145" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E144" s="8" t="s">
+      <c r="E145" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F144" s="8"/>
-    </row>
-    <row r="145" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A145" s="1"/>
-      <c r="B145" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
       <c r="F145" s="9"/>
     </row>
     <row r="146" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3417,48 +3465,40 @@
       <c r="B146" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C146" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F146" s="4"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
     </row>
     <row r="147" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C147" s="15" t="s">
-        <v>260</v>
+      <c r="C147" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>210</v>
+        <v>62</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F147" s="5" t="s">
-        <v>238</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F147" s="4"/>
     </row>
     <row r="148" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C148" s="15" t="s">
-        <v>261</v>
+      <c r="C148" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>238</v>
@@ -3469,58 +3509,60 @@
       <c r="B149" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C149" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A150" s="1"/>
+      <c r="B150" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C150" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="D150" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E149" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F149" s="4"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="1"/>
-      <c r="B150" s="6" t="s">
+      <c r="E150" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" s="4"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="1"/>
+      <c r="B151" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="C151" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D150" s="8" t="s">
+      <c r="D151" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="E150" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F150" s="8"/>
-    </row>
-    <row r="151" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A151" s="1"/>
-      <c r="B151" s="7" t="s">
+      <c r="E151" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" s="9"/>
+    </row>
+    <row r="152" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A152" s="1"/>
+      <c r="B152" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
-      <c r="F151" s="9"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="1"/>
-      <c r="B152" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F152" s="4"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
@@ -3528,13 +3570,13 @@
         <v>248</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="F153" s="4"/>
     </row>
@@ -3544,13 +3586,13 @@
         <v>248</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="F154" s="4"/>
     </row>
@@ -3560,10 +3602,10 @@
         <v>248</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>12</v>
@@ -3576,10 +3618,10 @@
         <v>248</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>12</v>
@@ -3592,10 +3634,10 @@
         <v>248</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>12</v>
@@ -3608,10 +3650,10 @@
         <v>248</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>12</v>
@@ -3624,10 +3666,10 @@
         <v>248</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>12</v>
@@ -3640,10 +3682,10 @@
         <v>248</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>12</v>
@@ -3656,199 +3698,219 @@
         <v>248</v>
       </c>
       <c r="C161" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" s="4"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="1"/>
+      <c r="B162" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C162" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D161" s="4" t="s">
+      <c r="D162" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E161" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F161" s="4"/>
+      <c r="E162" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F162" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:F161" xr:uid="{ABC93F77-279F-4F8B-B3FA-98A922B996FA}"/>
-  <mergeCells count="176">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="F118:F119"/>
+  <autoFilter ref="B3:F162" xr:uid="{ABC93F77-279F-4F8B-B3FA-98A922B996FA}"/>
+  <mergeCells count="177">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="F119:F120"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2:F2" r:id="rId1" display="Google DeepMind Paper list" xr:uid="{7A33D743-57A9-4C2E-B6FB-7446BA228AF4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Paper list.xlsx
+++ b/Paper list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.PhD\6.RL Club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC3FCFB-9627-4AD0-89E2-9F26BBEA2028}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC51CBE-2977-4C44-9139-DAF67F0F452A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
   </bookViews>
@@ -1071,6 +1071,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1080,19 +1083,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1414,7 +1414,7 @@
   <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1429,13 +1429,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -1475,52 +1475,52 @@
       <c r="B5" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9"/>
+      <c r="E5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9"/>
+      <c r="E7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1543,26 +1543,26 @@
       <c r="B10" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9"/>
+      <c r="E10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -1585,52 +1585,52 @@
       <c r="B13" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="9"/>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="9"/>
+      <c r="E15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -1685,26 +1685,26 @@
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="9"/>
+      <c r="E20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -1727,78 +1727,78 @@
       <c r="B23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="9"/>
+      <c r="E23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="9"/>
+      <c r="E25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="12"/>
+      <c r="E27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="13"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
@@ -1821,52 +1821,52 @@
       <c r="B30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="9"/>
+      <c r="E30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="9"/>
+      <c r="E32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
@@ -1889,52 +1889,52 @@
       <c r="B35" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="9"/>
+      <c r="E35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="9"/>
+      <c r="E37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
@@ -1957,26 +1957,26 @@
       <c r="B40" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
@@ -2015,26 +2015,26 @@
       <c r="B44" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="9"/>
+      <c r="E44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
@@ -2073,26 +2073,26 @@
       <c r="B48" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="9"/>
+      <c r="E48" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
@@ -2171,166 +2171,166 @@
       <c r="B55" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E55" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="9"/>
+      <c r="E55" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="10"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E57" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="9"/>
+      <c r="E57" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="9"/>
+      <c r="E59" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="10"/>
     </row>
     <row r="60" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="9"/>
+      <c r="E61" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="10"/>
     </row>
     <row r="62" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E64" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="9"/>
+      <c r="E64" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F66" s="9"/>
+      <c r="F66" s="10"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
@@ -2385,156 +2385,156 @@
       <c r="B71" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E71" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="9"/>
+      <c r="E71" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="10"/>
     </row>
     <row r="72" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E73" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="9"/>
+      <c r="E73" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="10"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F75" s="12"/>
+      <c r="F75" s="15"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="13"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="16"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E77" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="9"/>
+      <c r="E77" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="10"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E79" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="9"/>
+      <c r="E79" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="10"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E81" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="9"/>
+      <c r="E81" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="10"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
@@ -2557,26 +2557,26 @@
       <c r="B84" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E84" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="9"/>
+      <c r="E84" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="10"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
@@ -2599,26 +2599,26 @@
       <c r="B87" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D87" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E87" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="9"/>
+      <c r="E87" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="10"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
@@ -2641,52 +2641,52 @@
       <c r="B90" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E90" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="9"/>
+      <c r="E90" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="10"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E92" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F92" s="9"/>
+      <c r="F92" s="10"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
@@ -2759,26 +2759,26 @@
       <c r="B98" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D98" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F98" s="9"/>
+      <c r="F98" s="10"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
@@ -2817,16 +2817,16 @@
       <c r="B102" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C102" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D102" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E102" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="9" t="s">
+      <c r="E102" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="10" t="s">
         <v>257</v>
       </c>
     </row>
@@ -2835,10 +2835,10 @@
       <c r="B103" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C103" s="15"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
@@ -2909,26 +2909,26 @@
       <c r="B108" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E108" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F108" s="9"/>
+      <c r="F108" s="10"/>
     </row>
     <row r="109" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
@@ -2951,52 +2951,52 @@
       <c r="B111" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E111" s="9" t="s">
+      <c r="E111" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F111" s="9"/>
+      <c r="F111" s="10"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E113" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F113" s="9"/>
+      <c r="F113" s="10"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
@@ -3067,52 +3067,52 @@
       <c r="B119" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E119" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="9"/>
+      <c r="E119" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="10"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="D121" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E121" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" s="9"/>
+      <c r="E121" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="10"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
@@ -3215,26 +3215,26 @@
       <c r="B129" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="D129" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E129" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F129" s="9"/>
+      <c r="E129" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="10"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
@@ -3285,26 +3285,26 @@
       <c r="B134" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="C134" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="D134" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E134" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" s="9"/>
+      <c r="E134" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="10"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
@@ -3343,26 +3343,26 @@
       <c r="B138" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C138" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="D138" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E138" s="9" t="s">
+      <c r="E138" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F138" s="9"/>
+      <c r="F138" s="10"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
     </row>
     <row r="140" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
@@ -3449,26 +3449,26 @@
       <c r="B145" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C145" s="9" t="s">
+      <c r="C145" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D145" s="9" t="s">
+      <c r="D145" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="E145" s="9" t="s">
+      <c r="E145" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F145" s="9"/>
+      <c r="F145" s="10"/>
     </row>
     <row r="146" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
     </row>
     <row r="147" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
@@ -3543,26 +3543,26 @@
       <c r="B151" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C151" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D151" s="9" t="s">
+      <c r="D151" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="E151" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F151" s="9"/>
+      <c r="E151" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" s="10"/>
     </row>
     <row r="152" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
@@ -3727,6 +3727,159 @@
   </sheetData>
   <autoFilter ref="B3:F162" xr:uid="{ABC93F77-279F-4F8B-B3FA-98A922B996FA}"/>
   <mergeCells count="177">
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="D13:D14"/>
@@ -3751,159 +3904,6 @@
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="F119:F120"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/Paper list.xlsx
+++ b/Paper list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.PhD\6.RL Club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC51CBE-2977-4C44-9139-DAF67F0F452A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1C6237-EFE5-4DF5-A20B-B411248A0F6D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
   </bookViews>
   <sheets>
     <sheet name="DeepMind Papers" sheetId="1" r:id="rId1"/>
@@ -1071,9 +1071,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1083,16 +1080,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1413,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D0C1FB-3C2C-47C3-B0C0-A85F23F3B3BD}">
   <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1429,13 +1429,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -1475,52 +1475,52 @@
       <c r="B5" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="10"/>
+      <c r="E5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="10"/>
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1543,26 +1543,26 @@
       <c r="B10" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="10"/>
+      <c r="E10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -1585,52 +1585,52 @@
       <c r="B13" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="10"/>
+      <c r="E13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="10"/>
+      <c r="E15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -1685,26 +1685,26 @@
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="10"/>
+      <c r="E20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -1727,78 +1727,78 @@
       <c r="B23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="10"/>
+      <c r="E23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="10"/>
+      <c r="E25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="15"/>
+      <c r="E27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="16"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
@@ -1821,52 +1821,52 @@
       <c r="B30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="10"/>
+      <c r="E30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="10"/>
+      <c r="E32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
@@ -1889,52 +1889,52 @@
       <c r="B35" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="10"/>
+      <c r="E35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="10"/>
+      <c r="E37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
@@ -1957,26 +1957,26 @@
       <c r="B40" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="10"/>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
@@ -2015,26 +2015,26 @@
       <c r="B44" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="10"/>
+      <c r="E44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
@@ -2073,26 +2073,26 @@
       <c r="B48" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="10"/>
+      <c r="E48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
@@ -2171,166 +2171,166 @@
       <c r="B55" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="10"/>
+      <c r="E55" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="10"/>
+      <c r="E57" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="9"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="10"/>
+      <c r="E59" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="9"/>
     </row>
     <row r="60" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E61" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="10"/>
+      <c r="E61" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E64" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="10"/>
+      <c r="E64" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="9"/>
     </row>
     <row r="65" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F66" s="10"/>
+      <c r="F66" s="9"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
@@ -2385,156 +2385,156 @@
       <c r="B71" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E71" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="10"/>
+      <c r="E71" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="9"/>
     </row>
     <row r="72" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E73" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="10"/>
+      <c r="E73" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="9"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E75" s="10" t="s">
+      <c r="E75" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F75" s="15"/>
+      <c r="F75" s="12"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="16"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="13"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E77" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="10"/>
+      <c r="E77" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="9"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E79" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="10"/>
+      <c r="E79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="9"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E81" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="10"/>
+      <c r="E81" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="9"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
@@ -2557,26 +2557,26 @@
       <c r="B84" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E84" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="10"/>
+      <c r="E84" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="9"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
@@ -2599,26 +2599,26 @@
       <c r="B87" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E87" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="10"/>
+      <c r="E87" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="9"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
@@ -2641,52 +2641,52 @@
       <c r="B90" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D90" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E90" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="10"/>
+      <c r="E90" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="9"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E92" s="10" t="s">
+      <c r="E92" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F92" s="10"/>
+      <c r="F92" s="9"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
@@ -2759,26 +2759,26 @@
       <c r="B98" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D98" s="10" t="s">
+      <c r="D98" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E98" s="10" t="s">
+      <c r="E98" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F98" s="10"/>
+      <c r="F98" s="9"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
@@ -2817,16 +2817,16 @@
       <c r="B102" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="C102" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="D102" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E102" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="10" t="s">
+      <c r="E102" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="9" t="s">
         <v>257</v>
       </c>
     </row>
@@ -2835,10 +2835,10 @@
       <c r="B103" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C103" s="14"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
@@ -2909,26 +2909,26 @@
       <c r="B108" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D108" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="E108" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F108" s="10"/>
+      <c r="F108" s="9"/>
     </row>
     <row r="109" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
@@ -2951,52 +2951,52 @@
       <c r="B111" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E111" s="10" t="s">
+      <c r="E111" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F111" s="10"/>
+      <c r="F111" s="9"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C113" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D113" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E113" s="10" t="s">
+      <c r="E113" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F113" s="10"/>
+      <c r="F113" s="9"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
@@ -3067,52 +3067,52 @@
       <c r="B119" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="D119" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E119" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="10"/>
+      <c r="E119" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="9"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="D121" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E121" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" s="10"/>
+      <c r="E121" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="9"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
@@ -3215,26 +3215,26 @@
       <c r="B129" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C129" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D129" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E129" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F129" s="10"/>
+      <c r="E129" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="9"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
@@ -3285,26 +3285,26 @@
       <c r="B134" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C134" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D134" s="10" t="s">
+      <c r="D134" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E134" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" s="10"/>
+      <c r="E134" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="9"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="11"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
@@ -3343,26 +3343,26 @@
       <c r="B138" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="C138" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D138" s="10" t="s">
+      <c r="D138" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E138" s="10" t="s">
+      <c r="E138" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F138" s="10"/>
+      <c r="F138" s="9"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="11"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
     </row>
     <row r="140" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
@@ -3449,26 +3449,26 @@
       <c r="B145" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="C145" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D145" s="10" t="s">
+      <c r="D145" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E145" s="10" t="s">
+      <c r="E145" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F145" s="10"/>
+      <c r="F145" s="9"/>
     </row>
     <row r="146" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11"/>
-      <c r="F146" s="11"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
     </row>
     <row r="147" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
@@ -3543,26 +3543,26 @@
       <c r="B151" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C151" s="10" t="s">
+      <c r="C151" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D151" s="10" t="s">
+      <c r="D151" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="E151" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F151" s="10"/>
+      <c r="E151" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" s="9"/>
     </row>
     <row r="152" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
-      <c r="E152" s="11"/>
-      <c r="F152" s="11"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
@@ -3727,43 +3727,122 @@
   </sheetData>
   <autoFilter ref="B3:F162" xr:uid="{ABC93F77-279F-4F8B-B3FA-98A922B996FA}"/>
   <mergeCells count="177">
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="C108:C109"/>
     <mergeCell ref="E151:E152"/>
     <mergeCell ref="D151:D152"/>
     <mergeCell ref="C151:C152"/>
@@ -3788,122 +3867,43 @@
     <mergeCell ref="C138:C139"/>
     <mergeCell ref="E92:E93"/>
     <mergeCell ref="D92:D93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="F119:F120"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -3918,8 +3918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6C1E58-1F9C-4CD0-8E0F-01EEA3C6893B}">
   <dimension ref="B1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Paper list.xlsx
+++ b/Paper list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.PhD\6.RL Club\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taehwan/Documents/OneDrive - 고려대학교/0.PhD/5.RLRC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1C6237-EFE5-4DF5-A20B-B411248A0F6D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5111C2-2558-3A4F-9834-51939C4A13C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16420" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
   </bookViews>
   <sheets>
     <sheet name="DeepMind Papers" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="264">
   <si>
     <t>Title</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -871,7 +871,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1071,6 +1071,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1080,19 +1083,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1413,31 +1413,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D0C1FB-3C2C-47C3-B0C0-A85F23F3B3BD}">
   <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="0.875" customWidth="1"/>
+    <col min="1" max="1" width="0.83203125" customWidth="1"/>
     <col min="2" max="2" width="32" style="1" customWidth="1"/>
-    <col min="3" max="3" width="107.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+    <row r="1" spans="1:6" ht="4.5" customHeight="1"/>
+    <row r="2" spans="1:6" ht="37.5" customHeight="1">
+      <c r="B2" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="36" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -1470,59 +1470,59 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="36">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="18">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" ht="18">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="18">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
         <v>3</v>
@@ -1538,33 +1538,33 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="18">
       <c r="A11" s="1"/>
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
         <v>3</v>
@@ -1580,59 +1580,59 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="36">
       <c r="A13" s="1"/>
       <c r="B13" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="18">
       <c r="A14" s="1"/>
       <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" ht="36">
       <c r="A15" s="1"/>
       <c r="B15" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="18">
       <c r="A16" s="1"/>
       <c r="B16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="6" t="s">
         <v>3</v>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="6" t="s">
         <v>3</v>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1"/>
       <c r="B19" s="6" t="s">
         <v>3</v>
@@ -1680,33 +1680,33 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="18">
       <c r="A21" s="1"/>
       <c r="B21" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="6" t="s">
         <v>3</v>
@@ -1722,85 +1722,85 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1"/>
       <c r="B23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="18">
       <c r="A24" s="1"/>
       <c r="B24" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" ht="18">
       <c r="A25" s="1"/>
       <c r="B25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="E25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="36">
       <c r="A26" s="1"/>
       <c r="B26" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" ht="18">
       <c r="A27" s="1"/>
       <c r="B27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:6" ht="18">
       <c r="A28" s="1"/>
       <c r="B28" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="6" t="s">
         <v>3</v>
@@ -1816,59 +1816,59 @@
       </c>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="1"/>
       <c r="B30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="18">
       <c r="A31" s="1"/>
       <c r="B31" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" ht="36">
       <c r="A32" s="1"/>
       <c r="B32" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" ht="18">
       <c r="A33" s="1"/>
       <c r="B33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1"/>
       <c r="B34" s="6" t="s">
         <v>3</v>
@@ -1884,59 +1884,59 @@
       </c>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="36">
       <c r="A35" s="1"/>
       <c r="B35" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" ht="18">
       <c r="A36" s="1"/>
       <c r="B36" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6" ht="18">
       <c r="A37" s="1"/>
       <c r="B37" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="E37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" ht="36">
       <c r="A38" s="1"/>
       <c r="B38" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1"/>
       <c r="B39" s="6" t="s">
         <v>3</v>
@@ -1952,33 +1952,33 @@
       </c>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="1"/>
       <c r="B40" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" ht="36">
       <c r="A41" s="1"/>
       <c r="B41" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1"/>
       <c r="B42" s="6" t="s">
         <v>3</v>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="1"/>
       <c r="B43" s="6" t="s">
         <v>3</v>
@@ -2010,33 +2010,33 @@
       </c>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="1"/>
       <c r="B44" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="9"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" ht="18">
       <c r="A45" s="1"/>
       <c r="B45" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1"/>
       <c r="B46" s="6" t="s">
         <v>3</v>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="1"/>
       <c r="B47" s="6" t="s">
         <v>3</v>
@@ -2068,33 +2068,33 @@
       </c>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="1"/>
       <c r="B48" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="9"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E48" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" ht="18">
       <c r="A49" s="1"/>
       <c r="B49" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1"/>
       <c r="B50" s="6" t="s">
         <v>3</v>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="1"/>
       <c r="B51" s="6" t="s">
         <v>3</v>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="18">
       <c r="A52" s="1"/>
       <c r="B52" s="7" t="s">
         <v>250</v>
@@ -2138,7 +2138,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="1"/>
       <c r="B53" s="6" t="s">
         <v>251</v>
@@ -2150,7 +2150,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="1"/>
       <c r="B54" s="6" t="s">
         <v>3</v>
@@ -2166,173 +2166,173 @@
       </c>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="1"/>
       <c r="B55" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E55" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="9"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E55" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" ht="18">
       <c r="A56" s="1"/>
       <c r="B56" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+    </row>
+    <row r="57" spans="1:6" ht="18">
       <c r="A57" s="1"/>
       <c r="B57" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E57" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="9"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E57" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="1:6" ht="18">
       <c r="A58" s="1"/>
       <c r="B58" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+    </row>
+    <row r="59" spans="1:6" ht="18">
       <c r="A59" s="1"/>
       <c r="B59" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="9"/>
-    </row>
-    <row r="60" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="E59" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" ht="36">
       <c r="A60" s="1"/>
       <c r="B60" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+    </row>
+    <row r="61" spans="1:6" ht="18">
       <c r="A61" s="1"/>
       <c r="B61" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="9"/>
-    </row>
-    <row r="62" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="E61" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="1:6" ht="36">
       <c r="A62" s="1"/>
       <c r="B62" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+    </row>
+    <row r="63" spans="1:6" ht="18">
       <c r="A63" s="1"/>
       <c r="B63" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+    </row>
+    <row r="64" spans="1:6" ht="18">
       <c r="A64" s="1"/>
       <c r="B64" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E64" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="9"/>
-    </row>
-    <row r="65" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="E64" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:6" ht="36">
       <c r="A65" s="1"/>
       <c r="B65" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+    </row>
+    <row r="66" spans="1:6" ht="18">
       <c r="A66" s="1"/>
       <c r="B66" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F66" s="9"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:6" ht="18">
       <c r="A67" s="1"/>
       <c r="B67" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="6" t="s">
         <v>3</v>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="6" t="s">
         <v>3</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" s="1"/>
       <c r="B70" s="6" t="s">
         <v>3</v>
@@ -2380,163 +2380,163 @@
       </c>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="1"/>
       <c r="B71" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E71" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="9"/>
-    </row>
-    <row r="72" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="E71" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:6" ht="36">
       <c r="A72" s="1"/>
       <c r="B72" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+    </row>
+    <row r="73" spans="1:6" ht="18">
       <c r="A73" s="1"/>
       <c r="B73" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E73" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="9"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E73" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="1:6" ht="18">
       <c r="A74" s="1"/>
       <c r="B74" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+    </row>
+    <row r="75" spans="1:6" ht="18">
       <c r="A75" s="1"/>
       <c r="B75" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F75" s="12"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F75" s="15"/>
+    </row>
+    <row r="76" spans="1:6" ht="18">
       <c r="A76" s="1"/>
       <c r="B76" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="13"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="16"/>
+    </row>
+    <row r="77" spans="1:6" ht="18">
       <c r="A77" s="1"/>
       <c r="B77" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E77" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="9"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E77" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="1:6" ht="18">
       <c r="A78" s="1"/>
       <c r="B78" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+    </row>
+    <row r="79" spans="1:6" ht="18">
       <c r="A79" s="1"/>
       <c r="B79" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E79" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="9"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E79" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="1:6" ht="18">
       <c r="A80" s="1"/>
       <c r="B80" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+    </row>
+    <row r="81" spans="1:6" ht="18">
       <c r="A81" s="1"/>
       <c r="B81" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E81" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="9"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E81" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="10"/>
+    </row>
+    <row r="82" spans="1:6" ht="18">
       <c r="A82" s="1"/>
       <c r="B82" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1"/>
       <c r="B83" s="6" t="s">
         <v>247</v>
@@ -2552,33 +2552,33 @@
       </c>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" s="1"/>
       <c r="B84" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E84" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="9"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E84" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" spans="1:6" ht="18">
       <c r="A85" s="1"/>
       <c r="B85" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1"/>
       <c r="B86" s="6" t="s">
         <v>247</v>
@@ -2594,33 +2594,33 @@
       </c>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" s="1"/>
       <c r="B87" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D87" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E87" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="9"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E87" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="10"/>
+    </row>
+    <row r="88" spans="1:6" ht="18">
       <c r="A88" s="1"/>
       <c r="B88" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1"/>
       <c r="B89" s="6" t="s">
         <v>246</v>
@@ -2636,59 +2636,59 @@
       </c>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" s="1"/>
       <c r="B90" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E90" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="9"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E90" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="10"/>
+    </row>
+    <row r="91" spans="1:6" ht="18">
       <c r="A91" s="1"/>
       <c r="B91" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+    </row>
+    <row r="92" spans="1:6" ht="18">
       <c r="A92" s="1"/>
       <c r="B92" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E92" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F92" s="9"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F92" s="10"/>
+    </row>
+    <row r="93" spans="1:6" ht="18">
       <c r="A93" s="1"/>
       <c r="B93" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1"/>
       <c r="B94" s="6" t="s">
         <v>246</v>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95" s="1"/>
       <c r="B95" s="6" t="s">
         <v>246</v>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96" s="1"/>
       <c r="B96" s="6" t="s">
         <v>246</v>
@@ -2738,7 +2738,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97" s="1"/>
       <c r="B97" s="6" t="s">
         <v>246</v>
@@ -2754,33 +2754,33 @@
       </c>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6">
       <c r="A98" s="1"/>
       <c r="B98" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D98" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F98" s="9"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F98" s="10"/>
+    </row>
+    <row r="99" spans="1:6" ht="18">
       <c r="A99" s="1"/>
       <c r="B99" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1"/>
       <c r="B100" s="6" t="s">
         <v>246</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6">
       <c r="A101" s="1"/>
       <c r="B101" s="6" t="s">
         <v>246</v>
@@ -2812,35 +2812,35 @@
       </c>
       <c r="F101" s="4"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6">
       <c r="A102" s="1"/>
       <c r="B102" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C102" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D102" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E102" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="9" t="s">
+      <c r="E102" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="10" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="18">
       <c r="A103" s="1"/>
       <c r="B103" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C103" s="15"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C103" s="14"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1"/>
       <c r="B104" s="6" t="s">
         <v>246</v>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105" s="1"/>
       <c r="B105" s="6" t="s">
         <v>246</v>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106" s="1"/>
       <c r="B106" s="6" t="s">
         <v>246</v>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107" s="1"/>
       <c r="B107" s="6" t="s">
         <v>246</v>
@@ -2904,38 +2904,38 @@
       </c>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108" s="1"/>
       <c r="B108" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E108" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F108" s="9"/>
-    </row>
-    <row r="109" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="F108" s="10"/>
+    </row>
+    <row r="109" spans="1:6" ht="36">
       <c r="A109" s="1"/>
       <c r="B109" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="1"/>
       <c r="B110" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="8" t="s">
         <v>147</v>
       </c>
       <c r="D110" s="4" t="s">
@@ -2944,61 +2944,63 @@
       <c r="E110" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F110" s="4"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F110" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="1"/>
       <c r="B111" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E111" s="9" t="s">
+      <c r="E111" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F111" s="9"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F111" s="10"/>
+    </row>
+    <row r="112" spans="1:6" ht="18">
       <c r="A112" s="1"/>
       <c r="B112" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+    </row>
+    <row r="113" spans="1:6" ht="18">
       <c r="A113" s="1"/>
       <c r="B113" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E113" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F113" s="9"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F113" s="10"/>
+    </row>
+    <row r="114" spans="1:6" ht="18">
       <c r="A114" s="1"/>
       <c r="B114" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="1"/>
       <c r="B115" s="6" t="s">
         <v>246</v>
@@ -3014,7 +3016,7 @@
       </c>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6">
       <c r="A116" s="1"/>
       <c r="B116" s="6" t="s">
         <v>246</v>
@@ -3030,7 +3032,7 @@
       </c>
       <c r="F116" s="4"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117" s="1"/>
       <c r="B117" s="6" t="s">
         <v>246</v>
@@ -3046,7 +3048,7 @@
       </c>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6">
       <c r="A118" s="1"/>
       <c r="B118" s="6" t="s">
         <v>246</v>
@@ -3062,59 +3064,59 @@
       </c>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6">
       <c r="A119" s="1"/>
       <c r="B119" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E119" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="9"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E119" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="10"/>
+    </row>
+    <row r="120" spans="1:6" ht="18">
       <c r="A120" s="1"/>
       <c r="B120" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+    </row>
+    <row r="121" spans="1:6" ht="18">
       <c r="A121" s="1"/>
       <c r="B121" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="D121" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E121" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" s="9"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E121" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="10"/>
+    </row>
+    <row r="122" spans="1:6" ht="18">
       <c r="A122" s="1"/>
       <c r="B122" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="1"/>
       <c r="B123" s="6" t="s">
         <v>246</v>
@@ -3130,7 +3132,7 @@
       </c>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6">
       <c r="A124" s="1"/>
       <c r="B124" s="6" t="s">
         <v>246</v>
@@ -3146,7 +3148,7 @@
       </c>
       <c r="F124" s="4"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6">
       <c r="A125" s="1"/>
       <c r="B125" s="6" t="s">
         <v>246</v>
@@ -3162,7 +3164,7 @@
       </c>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6">
       <c r="A126" s="1"/>
       <c r="B126" s="6" t="s">
         <v>246</v>
@@ -3178,7 +3180,7 @@
       </c>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6">
       <c r="A127" s="1"/>
       <c r="B127" s="6" t="s">
         <v>246</v>
@@ -3194,7 +3196,7 @@
       </c>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6">
       <c r="A128" s="1"/>
       <c r="B128" s="6" t="s">
         <v>246</v>
@@ -3210,33 +3212,33 @@
       </c>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129" s="1"/>
       <c r="B129" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="D129" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E129" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F129" s="9"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E129" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="10"/>
+    </row>
+    <row r="130" spans="1:6" ht="18">
       <c r="A130" s="1"/>
       <c r="B130" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="1"/>
       <c r="B131" s="6" t="s">
         <v>180</v>
@@ -3248,7 +3250,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6">
       <c r="A132" s="1"/>
       <c r="B132" s="6" t="s">
         <v>249</v>
@@ -3264,7 +3266,7 @@
       </c>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6">
       <c r="A133" s="1"/>
       <c r="B133" s="6" t="s">
         <v>249</v>
@@ -3280,33 +3282,33 @@
       </c>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6">
       <c r="A134" s="1"/>
       <c r="B134" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="C134" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="D134" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E134" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" s="9"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E134" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="10"/>
+    </row>
+    <row r="135" spans="1:6" ht="18">
       <c r="A135" s="1"/>
       <c r="B135" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="1"/>
       <c r="B136" s="6" t="s">
         <v>245</v>
@@ -3322,7 +3324,7 @@
       </c>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6">
       <c r="A137" s="1"/>
       <c r="B137" s="6" t="s">
         <v>245</v>
@@ -3338,33 +3340,33 @@
       </c>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="36">
       <c r="A138" s="1"/>
       <c r="B138" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C138" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="D138" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E138" s="9" t="s">
+      <c r="E138" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F138" s="9"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F138" s="10"/>
+    </row>
+    <row r="139" spans="1:6" ht="18">
       <c r="A139" s="1"/>
       <c r="B139" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
-    </row>
-    <row r="140" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+    </row>
+    <row r="140" spans="1:6" ht="36">
       <c r="A140" s="1"/>
       <c r="B140" s="7" t="s">
         <v>252</v>
@@ -3380,12 +3382,12 @@
       </c>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="36">
       <c r="A141" s="1"/>
       <c r="B141" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" s="8" t="s">
         <v>199</v>
       </c>
       <c r="D141" s="4" t="s">
@@ -3394,9 +3396,11 @@
       <c r="E141" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F141" s="4"/>
-    </row>
-    <row r="142" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="F141" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="36">
       <c r="A142" s="1"/>
       <c r="B142" s="7" t="s">
         <v>252</v>
@@ -3412,7 +3416,7 @@
       </c>
       <c r="F142" s="4"/>
     </row>
-    <row r="143" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="36">
       <c r="A143" s="1"/>
       <c r="B143" s="7" t="s">
         <v>252</v>
@@ -3428,12 +3432,12 @@
       </c>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="36">
       <c r="A144" s="1"/>
       <c r="B144" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="8" t="s">
         <v>205</v>
       </c>
       <c r="D144" s="4" t="s">
@@ -3442,35 +3446,37 @@
       <c r="E144" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F144" s="4"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F144" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="1"/>
       <c r="B145" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C145" s="9" t="s">
+      <c r="C145" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D145" s="9" t="s">
+      <c r="D145" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="E145" s="9" t="s">
+      <c r="E145" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F145" s="9"/>
-    </row>
-    <row r="146" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="F145" s="10"/>
+    </row>
+    <row r="146" spans="1:6" ht="36">
       <c r="A146" s="1"/>
       <c r="B146" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-    </row>
-    <row r="147" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+    </row>
+    <row r="147" spans="1:6" ht="36">
       <c r="A147" s="1"/>
       <c r="B147" s="7" t="s">
         <v>252</v>
@@ -3486,7 +3492,7 @@
       </c>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" ht="36">
       <c r="A148" s="1"/>
       <c r="B148" s="7" t="s">
         <v>252</v>
@@ -3504,7 +3510,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="36">
       <c r="A149" s="1"/>
       <c r="B149" s="7" t="s">
         <v>252</v>
@@ -3522,7 +3528,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="36">
       <c r="A150" s="1"/>
       <c r="B150" s="7" t="s">
         <v>252</v>
@@ -3538,33 +3544,33 @@
       </c>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6">
       <c r="A151" s="1"/>
       <c r="B151" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C151" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D151" s="9" t="s">
+      <c r="D151" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="E151" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F151" s="9"/>
-    </row>
-    <row r="152" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="E151" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" s="10"/>
+    </row>
+    <row r="152" spans="1:6" ht="36">
       <c r="A152" s="1"/>
       <c r="B152" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="1"/>
       <c r="B153" s="6" t="s">
         <v>248</v>
@@ -3580,7 +3586,7 @@
       </c>
       <c r="F153" s="4"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6">
       <c r="A154" s="1"/>
       <c r="B154" s="6" t="s">
         <v>248</v>
@@ -3596,7 +3602,7 @@
       </c>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6">
       <c r="A155" s="1"/>
       <c r="B155" s="6" t="s">
         <v>248</v>
@@ -3612,7 +3618,7 @@
       </c>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6">
       <c r="A156" s="1"/>
       <c r="B156" s="6" t="s">
         <v>248</v>
@@ -3628,7 +3634,7 @@
       </c>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6">
       <c r="A157" s="1"/>
       <c r="B157" s="6" t="s">
         <v>248</v>
@@ -3644,7 +3650,7 @@
       </c>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6">
       <c r="A158" s="1"/>
       <c r="B158" s="6" t="s">
         <v>248</v>
@@ -3660,7 +3666,7 @@
       </c>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6">
       <c r="A159" s="1"/>
       <c r="B159" s="6" t="s">
         <v>248</v>
@@ -3676,7 +3682,7 @@
       </c>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6">
       <c r="A160" s="1"/>
       <c r="B160" s="6" t="s">
         <v>248</v>
@@ -3692,7 +3698,7 @@
       </c>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6">
       <c r="A161" s="1"/>
       <c r="B161" s="6" t="s">
         <v>248</v>
@@ -3708,7 +3714,7 @@
       </c>
       <c r="F161" s="4"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6">
       <c r="A162" s="1"/>
       <c r="B162" s="6" t="s">
         <v>248</v>
@@ -3727,6 +3733,159 @@
   </sheetData>
   <autoFilter ref="B3:F162" xr:uid="{ABC93F77-279F-4F8B-B3FA-98A922B996FA}"/>
   <mergeCells count="177">
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="D13:D14"/>
@@ -3751,159 +3910,6 @@
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="F119:F120"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -3918,22 +3924,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6C1E58-1F9C-4CD0-8E0F-01EEA3C6893B}">
   <dimension ref="B1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="0.875" customWidth="1"/>
+    <col min="1" max="1" width="0.83203125" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="90.75" customWidth="1"/>
+    <col min="3" max="3" width="90.6640625" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="5.25" customHeight="1"/>
+    <row r="2" spans="2:6" ht="20">
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
@@ -3950,7 +3956,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6">
       <c r="B3" s="4" t="s">
         <v>242</v>
       </c>
@@ -3967,7 +3973,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6">
       <c r="B4" s="4" t="s">
         <v>242</v>
       </c>

--- a/Paper list.xlsx
+++ b/Paper list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taehwan/Documents/OneDrive - 고려대학교/0.PhD/5.RLRC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5111C2-2558-3A4F-9834-51939C4A13C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17D8CE4-D537-B747-83D3-0BBB710B6220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16420" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
   </bookViews>
   <sheets>
     <sheet name="DeepMind Papers" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="266">
   <si>
     <t>Title</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -864,6 +864,14 @@
   </si>
   <si>
     <t>Google DeepMind Paper list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -871,7 +879,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -930,6 +938,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -956,7 +973,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1016,21 +1033,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1043,7 +1045,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1071,28 +1073,49 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1411,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D0C1FB-3C2C-47C3-B0C0-A85F23F3B3BD}">
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1425,19 +1448,21 @@
     <col min="4" max="4" width="50.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="4.5" customHeight="1"/>
-    <row r="2" spans="1:6" ht="37.5" customHeight="1">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="1:7" ht="4.5" customHeight="1"/>
+    <row r="2" spans="1:7" ht="37.5" customHeight="1">
+      <c r="B2" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="36" customHeight="1">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="36" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1453,8 +1478,11 @@
       <c r="F3" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -1469,60 +1497,65 @@
         <v>12</v>
       </c>
       <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="36">
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" ht="36">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" ht="18">
+      <c r="E5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" ht="18">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" ht="18">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" ht="18">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="18">
+      <c r="E7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" ht="18">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
         <v>3</v>
@@ -1537,34 +1570,37 @@
         <v>12</v>
       </c>
       <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="18">
+      <c r="E10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" ht="18">
       <c r="A11" s="1"/>
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
         <v>3</v>
@@ -1579,60 +1615,65 @@
         <v>12</v>
       </c>
       <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="36">
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7" ht="36">
       <c r="A13" s="1"/>
       <c r="B13" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" ht="18">
+      <c r="E13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:7" ht="18">
       <c r="A14" s="1"/>
       <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" ht="36">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" ht="36">
       <c r="A15" s="1"/>
       <c r="B15" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" ht="18">
+      <c r="E15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:7" ht="18">
       <c r="A16" s="1"/>
       <c r="B16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1"/>
       <c r="B17" s="6" t="s">
         <v>3</v>
@@ -1647,8 +1688,9 @@
         <v>12</v>
       </c>
       <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1"/>
       <c r="B18" s="6" t="s">
         <v>3</v>
@@ -1663,8 +1705,9 @@
         <v>12</v>
       </c>
       <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1"/>
       <c r="B19" s="6" t="s">
         <v>3</v>
@@ -1679,34 +1722,37 @@
         <v>25</v>
       </c>
       <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1"/>
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" ht="18">
+      <c r="E20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:7" ht="18">
       <c r="A21" s="1"/>
       <c r="B21" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1"/>
       <c r="B22" s="6" t="s">
         <v>3</v>
@@ -1721,86 +1767,93 @@
         <v>12</v>
       </c>
       <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1"/>
       <c r="B23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" ht="18">
+      <c r="E23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:7" ht="18">
       <c r="A24" s="1"/>
       <c r="B24" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6" ht="18">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" ht="18">
       <c r="A25" s="1"/>
       <c r="B25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" ht="36">
+      <c r="E25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" ht="36">
       <c r="A26" s="1"/>
       <c r="B26" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" ht="18">
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" ht="18">
       <c r="A27" s="1"/>
       <c r="B27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="15"/>
-    </row>
-    <row r="28" spans="1:6" ht="18">
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" ht="18">
       <c r="A28" s="1"/>
       <c r="B28" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="6" t="s">
         <v>3</v>
@@ -1815,60 +1868,65 @@
         <v>12</v>
       </c>
       <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" ht="18">
+      <c r="E30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" ht="18">
       <c r="A31" s="1"/>
       <c r="B31" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:6" ht="36">
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="1:7" ht="36">
       <c r="A32" s="1"/>
       <c r="B32" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" ht="18">
+      <c r="E32" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7" ht="18">
       <c r="A33" s="1"/>
       <c r="B33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1"/>
       <c r="B34" s="6" t="s">
         <v>3</v>
@@ -1883,60 +1941,65 @@
         <v>12</v>
       </c>
       <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" ht="36">
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="1:7" ht="36">
       <c r="A35" s="1"/>
       <c r="B35" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:6" ht="18">
+      <c r="E35" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7" ht="18">
       <c r="A36" s="1"/>
       <c r="B36" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="1:6" ht="18">
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="1:7" ht="18">
       <c r="A37" s="1"/>
       <c r="B37" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:6" ht="36">
+      <c r="E37" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="14"/>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" spans="1:7" ht="36">
       <c r="A38" s="1"/>
       <c r="B38" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="21"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="6" t="s">
         <v>3</v>
@@ -1951,34 +2014,37 @@
         <v>49</v>
       </c>
       <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="19"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1"/>
       <c r="B40" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" ht="36">
+      <c r="F40" s="14"/>
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" spans="1:7" ht="36">
       <c r="A41" s="1"/>
       <c r="B41" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="21"/>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1"/>
       <c r="B42" s="6" t="s">
         <v>3</v>
@@ -1993,8 +2059,9 @@
         <v>25</v>
       </c>
       <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1"/>
       <c r="B43" s="6" t="s">
         <v>3</v>
@@ -2009,34 +2076,37 @@
         <v>12</v>
       </c>
       <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" s="19"/>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1"/>
       <c r="B44" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="1:6" ht="18">
+      <c r="E44" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="1:7" ht="18">
       <c r="A45" s="1"/>
       <c r="B45" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="21"/>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1"/>
       <c r="B46" s="6" t="s">
         <v>3</v>
@@ -2051,8 +2121,9 @@
         <v>12</v>
       </c>
       <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" s="19"/>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1"/>
       <c r="B47" s="6" t="s">
         <v>3</v>
@@ -2067,34 +2138,37 @@
         <v>12</v>
       </c>
       <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" s="19"/>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1"/>
       <c r="B48" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" spans="1:6" ht="18">
+      <c r="E48" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="14"/>
+      <c r="G48" s="20"/>
+    </row>
+    <row r="49" spans="1:7" ht="18">
       <c r="A49" s="1"/>
       <c r="B49" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="21"/>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1"/>
       <c r="B50" s="6" t="s">
         <v>3</v>
@@ -2109,8 +2183,9 @@
         <v>12</v>
       </c>
       <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" s="19"/>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1"/>
       <c r="B51" s="6" t="s">
         <v>3</v>
@@ -2125,8 +2200,9 @@
         <v>12</v>
       </c>
       <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6" ht="18">
+      <c r="G51" s="19"/>
+    </row>
+    <row r="52" spans="1:7" ht="18">
       <c r="A52" s="1"/>
       <c r="B52" s="7" t="s">
         <v>250</v>
@@ -2137,8 +2213,9 @@
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" s="19"/>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1"/>
       <c r="B53" s="6" t="s">
         <v>251</v>
@@ -2149,8 +2226,9 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" s="19"/>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1"/>
       <c r="B54" s="6" t="s">
         <v>3</v>
@@ -2165,174 +2243,188 @@
         <v>25</v>
       </c>
       <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" s="19"/>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1"/>
       <c r="B55" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="10"/>
-    </row>
-    <row r="56" spans="1:6" ht="18">
+      <c r="E55" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="14"/>
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" spans="1:7" ht="18">
       <c r="A56" s="1"/>
       <c r="B56" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-    </row>
-    <row r="57" spans="1:6" ht="18">
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="21"/>
+    </row>
+    <row r="57" spans="1:7" ht="18">
       <c r="A57" s="1"/>
       <c r="B57" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="10"/>
-    </row>
-    <row r="58" spans="1:6" ht="18">
+      <c r="E57" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="14"/>
+      <c r="G57" s="20"/>
+    </row>
+    <row r="58" spans="1:7" ht="18">
       <c r="A58" s="1"/>
       <c r="B58" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-    </row>
-    <row r="59" spans="1:6" ht="18">
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="21"/>
+    </row>
+    <row r="59" spans="1:7" ht="18">
       <c r="A59" s="1"/>
       <c r="B59" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="10"/>
-    </row>
-    <row r="60" spans="1:6" ht="36">
+      <c r="E59" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="14"/>
+      <c r="G59" s="20"/>
+    </row>
+    <row r="60" spans="1:7" ht="36">
       <c r="A60" s="1"/>
       <c r="B60" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-    </row>
-    <row r="61" spans="1:6" ht="18">
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="21"/>
+    </row>
+    <row r="61" spans="1:7" ht="18">
       <c r="A61" s="1"/>
       <c r="B61" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E61" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="1:6" ht="36">
+      <c r="E61" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="14"/>
+      <c r="G61" s="20"/>
+    </row>
+    <row r="62" spans="1:7" ht="36">
       <c r="A62" s="1"/>
       <c r="B62" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-    </row>
-    <row r="63" spans="1:6" ht="18">
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="22"/>
+    </row>
+    <row r="63" spans="1:7" ht="18">
       <c r="A63" s="1"/>
       <c r="B63" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-    </row>
-    <row r="64" spans="1:6" ht="18">
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="21"/>
+    </row>
+    <row r="64" spans="1:7" ht="18">
       <c r="A64" s="1"/>
       <c r="B64" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E64" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="65" spans="1:6" ht="36">
+      <c r="E64" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="14"/>
+      <c r="G64" s="20"/>
+    </row>
+    <row r="65" spans="1:7" ht="36">
       <c r="A65" s="1"/>
       <c r="B65" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-    </row>
-    <row r="66" spans="1:6" ht="18">
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="21"/>
+    </row>
+    <row r="66" spans="1:7" ht="18">
       <c r="A66" s="1"/>
       <c r="B66" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F66" s="10"/>
-    </row>
-    <row r="67" spans="1:6" ht="18">
+      <c r="F66" s="14"/>
+      <c r="G66" s="20"/>
+    </row>
+    <row r="67" spans="1:7" ht="18">
       <c r="A67" s="1"/>
       <c r="B67" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="21"/>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1"/>
       <c r="B68" s="6" t="s">
         <v>3</v>
@@ -2347,8 +2439,9 @@
         <v>12</v>
       </c>
       <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" s="19"/>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1"/>
       <c r="B69" s="6" t="s">
         <v>3</v>
@@ -2363,8 +2456,9 @@
         <v>12</v>
       </c>
       <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69" s="19"/>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1"/>
       <c r="B70" s="6" t="s">
         <v>3</v>
@@ -2379,164 +2473,177 @@
         <v>91</v>
       </c>
       <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70" s="19"/>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1"/>
       <c r="B71" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E71" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="10"/>
-    </row>
-    <row r="72" spans="1:6" ht="36">
+      <c r="E71" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="14"/>
+      <c r="G71" s="20"/>
+    </row>
+    <row r="72" spans="1:7" ht="36">
       <c r="A72" s="1"/>
       <c r="B72" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-    </row>
-    <row r="73" spans="1:6" ht="18">
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="21"/>
+    </row>
+    <row r="73" spans="1:7" ht="18">
       <c r="A73" s="1"/>
       <c r="B73" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E73" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="10"/>
-    </row>
-    <row r="74" spans="1:6" ht="18">
+      <c r="E73" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="14"/>
+      <c r="G73" s="20"/>
+    </row>
+    <row r="74" spans="1:7" ht="18">
       <c r="A74" s="1"/>
       <c r="B74" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-    </row>
-    <row r="75" spans="1:6" ht="18">
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="21"/>
+    </row>
+    <row r="75" spans="1:7" ht="18">
       <c r="A75" s="1"/>
       <c r="B75" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E75" s="10" t="s">
+      <c r="E75" s="14" t="s">
         <v>98</v>
       </c>
       <c r="F75" s="15"/>
-    </row>
-    <row r="76" spans="1:6" ht="18">
+      <c r="G75" s="20"/>
+    </row>
+    <row r="76" spans="1:7" ht="18">
       <c r="A76" s="1"/>
       <c r="B76" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="16"/>
-    </row>
-    <row r="77" spans="1:6" ht="18">
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="21"/>
+    </row>
+    <row r="77" spans="1:7" ht="18">
       <c r="A77" s="1"/>
       <c r="B77" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E77" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="10"/>
-    </row>
-    <row r="78" spans="1:6" ht="18">
+      <c r="E77" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="14"/>
+      <c r="G77" s="20"/>
+    </row>
+    <row r="78" spans="1:7" ht="18">
       <c r="A78" s="1"/>
       <c r="B78" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-    </row>
-    <row r="79" spans="1:6" ht="18">
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="21"/>
+    </row>
+    <row r="79" spans="1:7" ht="18">
       <c r="A79" s="1"/>
       <c r="B79" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E79" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="10"/>
-    </row>
-    <row r="80" spans="1:6" ht="18">
+      <c r="E79" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="14"/>
+      <c r="G79" s="20"/>
+    </row>
+    <row r="80" spans="1:7" ht="18">
       <c r="A80" s="1"/>
       <c r="B80" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-    </row>
-    <row r="81" spans="1:6" ht="18">
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="21"/>
+    </row>
+    <row r="81" spans="1:7" ht="18">
       <c r="A81" s="1"/>
       <c r="B81" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E81" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="10"/>
-    </row>
-    <row r="82" spans="1:6" ht="18">
+      <c r="E81" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="14"/>
+      <c r="G81" s="20"/>
+    </row>
+    <row r="82" spans="1:7" ht="18">
       <c r="A82" s="1"/>
       <c r="B82" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="21"/>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1"/>
       <c r="B83" s="6" t="s">
         <v>247</v>
@@ -2551,34 +2658,37 @@
         <v>12</v>
       </c>
       <c r="F83" s="4"/>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83" s="19"/>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1"/>
       <c r="B84" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E84" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="10"/>
-    </row>
-    <row r="85" spans="1:6" ht="18">
+      <c r="E84" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="14"/>
+      <c r="G84" s="20"/>
+    </row>
+    <row r="85" spans="1:7" ht="18">
       <c r="A85" s="1"/>
       <c r="B85" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="21"/>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1"/>
       <c r="B86" s="6" t="s">
         <v>247</v>
@@ -2593,34 +2703,37 @@
         <v>12</v>
       </c>
       <c r="F86" s="4"/>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86" s="19"/>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1"/>
       <c r="B87" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E87" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="10"/>
-    </row>
-    <row r="88" spans="1:6" ht="18">
+      <c r="E87" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="14"/>
+      <c r="G87" s="20"/>
+    </row>
+    <row r="88" spans="1:7" ht="18">
       <c r="A88" s="1"/>
       <c r="B88" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="21"/>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1"/>
       <c r="B89" s="6" t="s">
         <v>246</v>
@@ -2635,60 +2748,65 @@
         <v>12</v>
       </c>
       <c r="F89" s="4"/>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89" s="19"/>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1"/>
       <c r="B90" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D90" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E90" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="10"/>
-    </row>
-    <row r="91" spans="1:6" ht="18">
+      <c r="E90" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="14"/>
+      <c r="G90" s="20"/>
+    </row>
+    <row r="91" spans="1:7" ht="18">
       <c r="A91" s="1"/>
       <c r="B91" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-    </row>
-    <row r="92" spans="1:6" ht="18">
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="21"/>
+    </row>
+    <row r="92" spans="1:7" ht="18">
       <c r="A92" s="1"/>
       <c r="B92" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E92" s="10" t="s">
+      <c r="E92" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F92" s="10"/>
-    </row>
-    <row r="93" spans="1:6" ht="18">
+      <c r="F92" s="14"/>
+      <c r="G92" s="20"/>
+    </row>
+    <row r="93" spans="1:7" ht="18">
       <c r="A93" s="1"/>
       <c r="B93" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="21"/>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1"/>
       <c r="B94" s="6" t="s">
         <v>246</v>
@@ -2703,8 +2821,9 @@
         <v>119</v>
       </c>
       <c r="F94" s="4"/>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94" s="19"/>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1"/>
       <c r="B95" s="6" t="s">
         <v>246</v>
@@ -2719,8 +2838,9 @@
         <v>124</v>
       </c>
       <c r="F95" s="4"/>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95" s="19"/>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1"/>
       <c r="B96" s="6" t="s">
         <v>246</v>
@@ -2737,8 +2857,11 @@
       <c r="F96" s="4" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96" s="19">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1"/>
       <c r="B97" s="6" t="s">
         <v>246</v>
@@ -2753,34 +2876,37 @@
         <v>12</v>
       </c>
       <c r="F97" s="4"/>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97" s="19"/>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1"/>
       <c r="B98" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D98" s="10" t="s">
+      <c r="D98" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E98" s="10" t="s">
+      <c r="E98" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F98" s="10"/>
-    </row>
-    <row r="99" spans="1:6" ht="18">
+      <c r="F98" s="14"/>
+      <c r="G98" s="20"/>
+    </row>
+    <row r="99" spans="1:7" ht="18">
       <c r="A99" s="1"/>
       <c r="B99" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="21"/>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1"/>
       <c r="B100" s="6" t="s">
         <v>246</v>
@@ -2795,8 +2921,9 @@
         <v>12</v>
       </c>
       <c r="F100" s="4"/>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100" s="19"/>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1"/>
       <c r="B101" s="6" t="s">
         <v>246</v>
@@ -2811,36 +2938,41 @@
         <v>12</v>
       </c>
       <c r="F101" s="4"/>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101" s="19"/>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1"/>
       <c r="B102" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="C102" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="D102" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="E102" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="10" t="s">
+      <c r="E102" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="14" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="18">
+      <c r="G102" s="19">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="18">
       <c r="A103" s="1"/>
       <c r="B103" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C103" s="14"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="C103" s="16"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="19"/>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1"/>
       <c r="B104" s="6" t="s">
         <v>246</v>
@@ -2855,8 +2987,9 @@
         <v>12</v>
       </c>
       <c r="F104" s="4"/>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104" s="19"/>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1"/>
       <c r="B105" s="6" t="s">
         <v>246</v>
@@ -2871,8 +3004,9 @@
         <v>140</v>
       </c>
       <c r="F105" s="4"/>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105" s="19"/>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1"/>
       <c r="B106" s="6" t="s">
         <v>246</v>
@@ -2887,8 +3021,9 @@
         <v>12</v>
       </c>
       <c r="F106" s="4"/>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106" s="19"/>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1"/>
       <c r="B107" s="6" t="s">
         <v>246</v>
@@ -2903,34 +3038,37 @@
         <v>12</v>
       </c>
       <c r="F107" s="4"/>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107" s="19"/>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1"/>
       <c r="B108" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D108" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="E108" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F108" s="10"/>
-    </row>
-    <row r="109" spans="1:6" ht="36">
+      <c r="F108" s="14"/>
+      <c r="G108" s="20"/>
+    </row>
+    <row r="109" spans="1:7" ht="36">
       <c r="A109" s="1"/>
       <c r="B109" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="21"/>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1"/>
       <c r="B110" s="6" t="s">
         <v>246</v>
@@ -2947,60 +3085,67 @@
       <c r="F110" s="4" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110" s="19">
+        <v>43735</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="1"/>
       <c r="B111" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E111" s="10" t="s">
+      <c r="E111" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F111" s="10"/>
-    </row>
-    <row r="112" spans="1:6" ht="18">
+      <c r="F111" s="14"/>
+      <c r="G111" s="20"/>
+    </row>
+    <row r="112" spans="1:7" ht="18">
       <c r="A112" s="1"/>
       <c r="B112" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-    </row>
-    <row r="113" spans="1:6" ht="18">
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="21"/>
+    </row>
+    <row r="113" spans="1:7" ht="18">
       <c r="A113" s="1"/>
       <c r="B113" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C113" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D113" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="E113" s="10" t="s">
+      <c r="E113" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F113" s="10"/>
-    </row>
-    <row r="114" spans="1:6" ht="18">
+      <c r="F113" s="14"/>
+      <c r="G113" s="20"/>
+    </row>
+    <row r="114" spans="1:7" ht="18">
       <c r="A114" s="1"/>
       <c r="B114" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="21"/>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="1"/>
       <c r="B115" s="6" t="s">
         <v>246</v>
@@ -3015,8 +3160,9 @@
         <v>12</v>
       </c>
       <c r="F115" s="4"/>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115" s="19"/>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="1"/>
       <c r="B116" s="6" t="s">
         <v>246</v>
@@ -3031,8 +3177,9 @@
         <v>130</v>
       </c>
       <c r="F116" s="4"/>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="G116" s="19"/>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="1"/>
       <c r="B117" s="6" t="s">
         <v>246</v>
@@ -3047,8 +3194,9 @@
         <v>12</v>
       </c>
       <c r="F117" s="4"/>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="G117" s="19"/>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="1"/>
       <c r="B118" s="6" t="s">
         <v>246</v>
@@ -3063,60 +3211,65 @@
         <v>12</v>
       </c>
       <c r="F118" s="4"/>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="G118" s="19"/>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="1"/>
       <c r="B119" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="D119" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="E119" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="10"/>
-    </row>
-    <row r="120" spans="1:6" ht="18">
+      <c r="E119" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="14"/>
+      <c r="G119" s="20"/>
+    </row>
+    <row r="120" spans="1:7" ht="18">
       <c r="A120" s="1"/>
       <c r="B120" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
-    </row>
-    <row r="121" spans="1:6" ht="18">
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="21"/>
+    </row>
+    <row r="121" spans="1:7" ht="18">
       <c r="A121" s="1"/>
       <c r="B121" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="D121" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="E121" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" s="10"/>
-    </row>
-    <row r="122" spans="1:6" ht="18">
+      <c r="E121" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="14"/>
+      <c r="G121" s="20"/>
+    </row>
+    <row r="122" spans="1:7" ht="18">
       <c r="A122" s="1"/>
       <c r="B122" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11"/>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="21"/>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="1"/>
       <c r="B123" s="6" t="s">
         <v>246</v>
@@ -3131,8 +3284,9 @@
         <v>12</v>
       </c>
       <c r="F123" s="4"/>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="G123" s="19"/>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="1"/>
       <c r="B124" s="6" t="s">
         <v>246</v>
@@ -3147,8 +3301,9 @@
         <v>12</v>
       </c>
       <c r="F124" s="4"/>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="G124" s="19"/>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="1"/>
       <c r="B125" s="6" t="s">
         <v>246</v>
@@ -3163,8 +3318,9 @@
         <v>25</v>
       </c>
       <c r="F125" s="4"/>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="G125" s="19"/>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="1"/>
       <c r="B126" s="6" t="s">
         <v>246</v>
@@ -3179,8 +3335,9 @@
         <v>12</v>
       </c>
       <c r="F126" s="4"/>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="G126" s="19"/>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="1"/>
       <c r="B127" s="6" t="s">
         <v>246</v>
@@ -3195,8 +3352,9 @@
         <v>12</v>
       </c>
       <c r="F127" s="4"/>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="G127" s="19"/>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="1"/>
       <c r="B128" s="6" t="s">
         <v>246</v>
@@ -3211,34 +3369,37 @@
         <v>12</v>
       </c>
       <c r="F128" s="4"/>
-    </row>
-    <row r="129" spans="1:6">
+      <c r="G128" s="19"/>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="1"/>
       <c r="B129" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C129" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D129" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="E129" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F129" s="10"/>
-    </row>
-    <row r="130" spans="1:6" ht="18">
+      <c r="E129" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="14"/>
+      <c r="G129" s="20"/>
+    </row>
+    <row r="130" spans="1:7" ht="18">
       <c r="A130" s="1"/>
       <c r="B130" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="21"/>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="1"/>
       <c r="B131" s="6" t="s">
         <v>180</v>
@@ -3249,8 +3410,9 @@
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="G131" s="19"/>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="1"/>
       <c r="B132" s="6" t="s">
         <v>249</v>
@@ -3265,8 +3427,9 @@
         <v>12</v>
       </c>
       <c r="F132" s="4"/>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="G132" s="19"/>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="1"/>
       <c r="B133" s="6" t="s">
         <v>249</v>
@@ -3281,34 +3444,37 @@
         <v>91</v>
       </c>
       <c r="F133" s="4"/>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="G133" s="19"/>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="1"/>
       <c r="B134" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C134" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="D134" s="10" t="s">
+      <c r="D134" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="E134" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" s="10"/>
-    </row>
-    <row r="135" spans="1:6" ht="18">
+      <c r="E134" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="14"/>
+      <c r="G134" s="20"/>
+    </row>
+    <row r="135" spans="1:7" ht="18">
       <c r="A135" s="1"/>
       <c r="B135" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="11"/>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c r="G135" s="21"/>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="1"/>
       <c r="B136" s="6" t="s">
         <v>245</v>
@@ -3323,8 +3489,9 @@
         <v>91</v>
       </c>
       <c r="F136" s="4"/>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="G136" s="19"/>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="1"/>
       <c r="B137" s="6" t="s">
         <v>245</v>
@@ -3339,34 +3506,37 @@
         <v>12</v>
       </c>
       <c r="F137" s="4"/>
-    </row>
-    <row r="138" spans="1:6" ht="36">
+      <c r="G137" s="19"/>
+    </row>
+    <row r="138" spans="1:7" ht="36">
       <c r="A138" s="1"/>
       <c r="B138" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="C138" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="D138" s="10" t="s">
+      <c r="D138" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="E138" s="10" t="s">
+      <c r="E138" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F138" s="10"/>
-    </row>
-    <row r="139" spans="1:6" ht="18">
+      <c r="F138" s="14"/>
+      <c r="G138" s="20"/>
+    </row>
+    <row r="139" spans="1:7" ht="18">
       <c r="A139" s="1"/>
       <c r="B139" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="11"/>
-    </row>
-    <row r="140" spans="1:6" ht="36">
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="21"/>
+    </row>
+    <row r="140" spans="1:7" ht="36">
       <c r="A140" s="1"/>
       <c r="B140" s="7" t="s">
         <v>252</v>
@@ -3381,8 +3551,9 @@
         <v>198</v>
       </c>
       <c r="F140" s="4"/>
-    </row>
-    <row r="141" spans="1:6" ht="36">
+      <c r="G140" s="19"/>
+    </row>
+    <row r="141" spans="1:7" ht="36">
       <c r="A141" s="1"/>
       <c r="B141" s="7" t="s">
         <v>252</v>
@@ -3399,8 +3570,11 @@
       <c r="F141" s="4" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="36">
+      <c r="G141" s="19">
+        <v>43735</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="36">
       <c r="A142" s="1"/>
       <c r="B142" s="7" t="s">
         <v>252</v>
@@ -3415,8 +3589,9 @@
         <v>198</v>
       </c>
       <c r="F142" s="4"/>
-    </row>
-    <row r="143" spans="1:6" ht="36">
+      <c r="G142" s="19"/>
+    </row>
+    <row r="143" spans="1:7" ht="36">
       <c r="A143" s="1"/>
       <c r="B143" s="7" t="s">
         <v>252</v>
@@ -3431,8 +3606,9 @@
         <v>12</v>
       </c>
       <c r="F143" s="4"/>
-    </row>
-    <row r="144" spans="1:6" ht="36">
+      <c r="G143" s="19"/>
+    </row>
+    <row r="144" spans="1:7" ht="36">
       <c r="A144" s="1"/>
       <c r="B144" s="7" t="s">
         <v>252</v>
@@ -3449,34 +3625,39 @@
       <c r="F144" s="4" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="G144" s="19">
+        <v>43735</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="1"/>
       <c r="B145" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="C145" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="D145" s="10" t="s">
+      <c r="D145" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="E145" s="10" t="s">
+      <c r="E145" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F145" s="10"/>
-    </row>
-    <row r="146" spans="1:6" ht="36">
+      <c r="F145" s="14"/>
+      <c r="G145" s="20"/>
+    </row>
+    <row r="146" spans="1:7" ht="36">
       <c r="A146" s="1"/>
       <c r="B146" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11"/>
-      <c r="F146" s="11"/>
-    </row>
-    <row r="147" spans="1:6" ht="36">
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="21"/>
+    </row>
+    <row r="147" spans="1:7" ht="36">
       <c r="A147" s="1"/>
       <c r="B147" s="7" t="s">
         <v>252</v>
@@ -3491,8 +3672,9 @@
         <v>49</v>
       </c>
       <c r="F147" s="4"/>
-    </row>
-    <row r="148" spans="1:6" ht="36">
+      <c r="G147" s="19"/>
+    </row>
+    <row r="148" spans="1:7" ht="36">
       <c r="A148" s="1"/>
       <c r="B148" s="7" t="s">
         <v>252</v>
@@ -3509,8 +3691,11 @@
       <c r="F148" s="5" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="36">
+      <c r="G148" s="19">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="36">
       <c r="A149" s="1"/>
       <c r="B149" s="7" t="s">
         <v>252</v>
@@ -3527,8 +3712,11 @@
       <c r="F149" s="5" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" ht="36">
+      <c r="G149" s="19">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="36">
       <c r="A150" s="1"/>
       <c r="B150" s="7" t="s">
         <v>252</v>
@@ -3543,34 +3731,37 @@
         <v>12</v>
       </c>
       <c r="F150" s="4"/>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="G150" s="19"/>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="1"/>
       <c r="B151" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C151" s="10" t="s">
+      <c r="C151" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="D151" s="10" t="s">
+      <c r="D151" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="E151" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F151" s="10"/>
-    </row>
-    <row r="152" spans="1:6" ht="36">
+      <c r="E151" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" s="14"/>
+      <c r="G151" s="20"/>
+    </row>
+    <row r="152" spans="1:7" ht="36">
       <c r="A152" s="1"/>
       <c r="B152" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
-      <c r="E152" s="11"/>
-      <c r="F152" s="11"/>
-    </row>
-    <row r="153" spans="1:6">
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="14"/>
+      <c r="F152" s="14"/>
+      <c r="G152" s="21"/>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" s="1"/>
       <c r="B153" s="6" t="s">
         <v>248</v>
@@ -3585,8 +3776,9 @@
         <v>12</v>
       </c>
       <c r="F153" s="4"/>
-    </row>
-    <row r="154" spans="1:6">
+      <c r="G153" s="19"/>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="1"/>
       <c r="B154" s="6" t="s">
         <v>248</v>
@@ -3601,8 +3793,9 @@
         <v>220</v>
       </c>
       <c r="F154" s="4"/>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="G154" s="19"/>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="1"/>
       <c r="B155" s="6" t="s">
         <v>248</v>
@@ -3617,8 +3810,9 @@
         <v>12</v>
       </c>
       <c r="F155" s="4"/>
-    </row>
-    <row r="156" spans="1:6">
+      <c r="G155" s="19"/>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" s="1"/>
       <c r="B156" s="6" t="s">
         <v>248</v>
@@ -3633,8 +3827,9 @@
         <v>12</v>
       </c>
       <c r="F156" s="4"/>
-    </row>
-    <row r="157" spans="1:6">
+      <c r="G156" s="19"/>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" s="1"/>
       <c r="B157" s="6" t="s">
         <v>248</v>
@@ -3649,8 +3844,9 @@
         <v>12</v>
       </c>
       <c r="F157" s="4"/>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="G157" s="19"/>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="1"/>
       <c r="B158" s="6" t="s">
         <v>248</v>
@@ -3665,8 +3861,9 @@
         <v>12</v>
       </c>
       <c r="F158" s="4"/>
-    </row>
-    <row r="159" spans="1:6">
+      <c r="G158" s="19"/>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="1"/>
       <c r="B159" s="6" t="s">
         <v>248</v>
@@ -3681,8 +3878,9 @@
         <v>12</v>
       </c>
       <c r="F159" s="4"/>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="G159" s="19"/>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="1"/>
       <c r="B160" s="6" t="s">
         <v>248</v>
@@ -3697,8 +3895,9 @@
         <v>12</v>
       </c>
       <c r="F160" s="4"/>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="G160" s="19"/>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" s="1"/>
       <c r="B161" s="6" t="s">
         <v>248</v>
@@ -3713,8 +3912,9 @@
         <v>12</v>
       </c>
       <c r="F161" s="4"/>
-    </row>
-    <row r="162" spans="1:6">
+      <c r="G161" s="19"/>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" s="1"/>
       <c r="B162" s="6" t="s">
         <v>248</v>
@@ -3729,47 +3929,170 @@
         <v>12</v>
       </c>
       <c r="F162" s="4"/>
+      <c r="G162" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:F162" xr:uid="{ABC93F77-279F-4F8B-B3FA-98A922B996FA}"/>
-  <mergeCells count="177">
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
+  <mergeCells count="220">
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="C108:C109"/>
     <mergeCell ref="E151:E152"/>
     <mergeCell ref="D151:D152"/>
     <mergeCell ref="C151:C152"/>
@@ -3794,122 +4117,43 @@
     <mergeCell ref="C138:C139"/>
     <mergeCell ref="E92:E93"/>
     <mergeCell ref="D92:D93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="F119:F120"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -3922,10 +4166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6C1E58-1F9C-4CD0-8E0F-01EEA3C6893B}">
-  <dimension ref="B1:F4"/>
+  <dimension ref="B1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -3936,10 +4180,11 @@
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="5.25" customHeight="1"/>
-    <row r="2" spans="2:6" ht="20">
+    <row r="1" spans="2:7" ht="5.25" customHeight="1"/>
+    <row r="2" spans="2:7" ht="20">
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
@@ -3955,8 +4200,11 @@
       <c r="F2" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="3" spans="2:6">
+      <c r="G2" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="4" t="s">
         <v>242</v>
       </c>
@@ -3972,8 +4220,11 @@
       <c r="F3" s="5" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="4" spans="2:6">
+      <c r="G3" s="11">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="4" t="s">
         <v>242</v>
       </c>
@@ -3988,6 +4239,9 @@
       </c>
       <c r="F4" s="4" t="s">
         <v>255</v>
+      </c>
+      <c r="G4" s="11">
+        <v>43728</v>
       </c>
     </row>
   </sheetData>

--- a/Paper list.xlsx
+++ b/Paper list.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taehwan/Documents/OneDrive - 고려대학교/0.PhD/5.RLRC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - KoreaUniv\0.PhD\5.RLRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17D8CE4-D537-B747-83D3-0BBB710B6220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{D17D8CE4-D537-B747-83D3-0BBB710B6220}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{BC574FD6-F9D8-4F81-920E-38D0F621EF9F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
   </bookViews>
   <sheets>
     <sheet name="DeepMind Papers" sheetId="1" r:id="rId1"/>
     <sheet name="Others" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DeepMind Papers'!$B$3:$F$162</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DeepMind Papers'!$B$3:$G$170</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,13 +35,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="274">
   <si>
     <t>Title</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meta-Learning with Warped Gradient Descent</t>
   </si>
   <si>
     <t>Sebastian Flennerhag, Andrei A. Rusu, et al</t>
@@ -863,15 +860,46 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Google DeepMind Paper list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Higher-order Comparisons of Sentence Encoder Representations</t>
+  </si>
+  <si>
+    <t>M Abdou, A Kulmizev, et al.</t>
+  </si>
+  <si>
+    <t>Deep Learning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discovery of Useful Questions as Auxiliary Tasks</t>
+  </si>
+  <si>
+    <t>Matteo Hessel, Zhongwen Xu, et al.</t>
+  </si>
+  <si>
+    <t>NeurIPS 2019</t>
+  </si>
+  <si>
+    <t>Reinforcement Learning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Theory &amp; Foundations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Safety</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meta-Learning with Warped Gradient Descent</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -879,7 +907,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -947,8 +975,30 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -970,6 +1020,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1034,7 +1089,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1044,8 +1099,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1082,11 +1140,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1103,9 +1161,6 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1115,12 +1170,28 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="20% - 강조색5" xfId="1" builtinId="46"/>
+    <cellStyle name="좋음" xfId="3" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
@@ -1434,92 +1505,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D0C1FB-3C2C-47C3-B0C0-A85F23F3B3BD}">
-  <dimension ref="A1:G162"/>
+  <dimension ref="B1:G170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="D165" sqref="D165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="0.83203125" customWidth="1"/>
-    <col min="2" max="2" width="32" style="1" customWidth="1"/>
-    <col min="3" max="3" width="107.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.75" customWidth="1"/>
+    <col min="2" max="2" width="30.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="82.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="50.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="4.5" customHeight="1"/>
-    <row r="2" spans="1:7" ht="37.5" customHeight="1">
-      <c r="B2" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="36" customHeight="1">
+    <row r="1" spans="2:7" ht="4.5" customHeight="1"/>
+    <row r="2" spans="2:7" ht="37.5" customHeight="1">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="2:7" s="3" customFormat="1" ht="36" customHeight="1">
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="2:7" ht="33">
+      <c r="B5" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:7" ht="36">
-      <c r="A5" s="1"/>
-      <c r="B5" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>4</v>
-      </c>
       <c r="E5" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="18">
-      <c r="A6" s="1"/>
+    <row r="6" spans="2:7">
       <c r="B6" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -1527,2419 +1593,2375 @@
       <c r="F6" s="14"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" ht="18">
-      <c r="A7" s="1"/>
+    <row r="7" spans="2:7">
       <c r="B7" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C7" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="E7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="1:7" ht="18">
-      <c r="A8" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="G7" s="19">
+        <v>43763</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="14"/>
+        <v>247</v>
+      </c>
+      <c r="C8" s="16"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>11</v>
-      </c>
       <c r="E10" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:7" ht="18">
-      <c r="A11" s="1"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="2:7" ht="33">
+      <c r="B13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="1:7" ht="36">
-      <c r="A13" s="1"/>
-      <c r="B13" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="D13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>16</v>
-      </c>
       <c r="E13" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="14"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" ht="18">
-      <c r="A14" s="1"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:7" ht="36">
-      <c r="A15" s="1"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="2:7" ht="33">
       <c r="B15" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>18</v>
-      </c>
       <c r="E15" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="14"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:7" ht="18">
-      <c r="A16" s="1"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1"/>
-      <c r="B18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1"/>
-      <c r="B19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1"/>
-      <c r="B20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>27</v>
-      </c>
       <c r="E20" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="14"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="1:7" ht="18">
-      <c r="A21" s="1"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1"/>
-      <c r="B23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="14" t="s">
+      <c r="D23" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>31</v>
-      </c>
       <c r="E23" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" s="14"/>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="1:7" ht="18">
-      <c r="A24" s="1"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25" spans="1:7" ht="18">
-      <c r="A25" s="1"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" s="14"/>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="1:7" ht="36">
-      <c r="A26" s="1"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="2:7" ht="33">
       <c r="B26" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="21"/>
-    </row>
-    <row r="27" spans="1:7" ht="18">
-      <c r="A27" s="1"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="E27" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:7" ht="18">
-      <c r="A28" s="1"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="21"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="19"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1"/>
-      <c r="B30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="14" t="s">
+      <c r="D30" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>38</v>
-      </c>
       <c r="E30" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="14"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="1:7" ht="18">
-      <c r="A31" s="1"/>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="2:7">
       <c r="B31" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
-      <c r="G31" s="21"/>
-    </row>
-    <row r="32" spans="1:7" ht="36">
-      <c r="A32" s="1"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="2:7" ht="33">
       <c r="B32" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C32" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>40</v>
-      </c>
       <c r="E32" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F32" s="14"/>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="1:7" ht="18">
-      <c r="A33" s="1"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
-      <c r="G33" s="21"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="2:7" ht="33">
+      <c r="B35" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" spans="1:7" ht="36">
-      <c r="A35" s="1"/>
-      <c r="B35" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C35" s="14" t="s">
+      <c r="D35" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>44</v>
-      </c>
       <c r="E35" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" s="14"/>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="1:7" ht="18">
-      <c r="A36" s="1"/>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
-      <c r="G36" s="21"/>
-    </row>
-    <row r="37" spans="1:7" ht="18">
-      <c r="A37" s="1"/>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>46</v>
-      </c>
       <c r="E37" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F37" s="14"/>
-      <c r="G37" s="20"/>
-    </row>
-    <row r="38" spans="1:7" ht="36">
-      <c r="A38" s="1"/>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="2:7" ht="33">
       <c r="B38" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
-      <c r="G38" s="21"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1"/>
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" spans="2:7">
       <c r="B39" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="4"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="19"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1"/>
-      <c r="B40" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="14" t="s">
+      <c r="D40" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>51</v>
-      </c>
       <c r="E40" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F40" s="14"/>
-      <c r="G40" s="20"/>
-    </row>
-    <row r="41" spans="1:7" ht="36">
-      <c r="A41" s="1"/>
+      <c r="G40" s="19"/>
+    </row>
+    <row r="41" spans="2:7" ht="33">
       <c r="B41" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
-      <c r="G41" s="21"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="1"/>
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" spans="2:7">
       <c r="B42" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="E42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="19"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="1"/>
-      <c r="B43" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="19"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="1"/>
-      <c r="B44" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="14" t="s">
+      <c r="D44" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="14" t="s">
-        <v>57</v>
-      </c>
       <c r="E44" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F44" s="14"/>
-      <c r="G44" s="20"/>
-    </row>
-    <row r="45" spans="1:7" ht="18">
-      <c r="A45" s="1"/>
+      <c r="G44" s="19"/>
+    </row>
+    <row r="45" spans="2:7">
       <c r="B45" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
-      <c r="G45" s="21"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1"/>
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" spans="2:7">
       <c r="B46" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="E46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="19"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="1"/>
-      <c r="B47" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="4" t="s">
+      <c r="E47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="1"/>
-      <c r="B48" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>61</v>
-      </c>
       <c r="E48" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F48" s="14"/>
-      <c r="G48" s="20"/>
-    </row>
-    <row r="49" spans="1:7" ht="18">
-      <c r="A49" s="1"/>
+      <c r="G48" s="19"/>
+    </row>
+    <row r="49" spans="2:7">
       <c r="B49" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
-      <c r="G49" s="21"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1"/>
+      <c r="G49" s="20"/>
+    </row>
+    <row r="50" spans="2:7">
       <c r="B50" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="19"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1"/>
-      <c r="B51" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="E51" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="19"/>
-    </row>
-    <row r="52" spans="1:7" ht="18">
-      <c r="A52" s="1"/>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="2:7">
       <c r="B52" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="19"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1"/>
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" spans="2:7">
       <c r="B53" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="19"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="1"/>
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" spans="2:7">
       <c r="B54" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="E54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="19"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="1"/>
-      <c r="B55" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="14" t="s">
+      <c r="D55" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D55" s="14" t="s">
-        <v>73</v>
-      </c>
       <c r="E55" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F55" s="14"/>
-      <c r="G55" s="20"/>
-    </row>
-    <row r="56" spans="1:7" ht="18">
-      <c r="A56" s="1"/>
+      <c r="G55" s="19"/>
+    </row>
+    <row r="56" spans="2:7">
       <c r="B56" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
-      <c r="G56" s="21"/>
-    </row>
-    <row r="57" spans="1:7" ht="18">
-      <c r="A57" s="1"/>
+      <c r="G56" s="20"/>
+    </row>
+    <row r="57" spans="2:7">
       <c r="B57" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="14" t="s">
-        <v>75</v>
-      </c>
       <c r="E57" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F57" s="14"/>
-      <c r="G57" s="20"/>
-    </row>
-    <row r="58" spans="1:7" ht="18">
-      <c r="A58" s="1"/>
+      <c r="G57" s="19"/>
+    </row>
+    <row r="58" spans="2:7">
       <c r="B58" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
-      <c r="G58" s="21"/>
-    </row>
-    <row r="59" spans="1:7" ht="18">
-      <c r="A59" s="1"/>
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59" spans="2:7">
       <c r="B59" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D59" s="14" t="s">
-        <v>77</v>
-      </c>
       <c r="E59" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F59" s="14"/>
-      <c r="G59" s="20"/>
-    </row>
-    <row r="60" spans="1:7" ht="36">
-      <c r="A60" s="1"/>
+      <c r="G59" s="19"/>
+    </row>
+    <row r="60" spans="2:7" ht="33">
       <c r="B60" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
-      <c r="G60" s="21"/>
-    </row>
-    <row r="61" spans="1:7" ht="18">
-      <c r="A61" s="1"/>
+      <c r="G60" s="20"/>
+    </row>
+    <row r="61" spans="2:7">
       <c r="B61" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="14" t="s">
-        <v>79</v>
-      </c>
       <c r="E61" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F61" s="14"/>
-      <c r="G61" s="20"/>
-    </row>
-    <row r="62" spans="1:7" ht="36">
-      <c r="A62" s="1"/>
+      <c r="G61" s="19"/>
+    </row>
+    <row r="62" spans="2:7" ht="33">
       <c r="B62" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
-      <c r="G62" s="22"/>
-    </row>
-    <row r="63" spans="1:7" ht="18">
-      <c r="A63" s="1"/>
+      <c r="G62" s="21"/>
+    </row>
+    <row r="63" spans="2:7">
       <c r="B63" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
-      <c r="G63" s="21"/>
-    </row>
-    <row r="64" spans="1:7" ht="18">
-      <c r="A64" s="1"/>
+      <c r="G63" s="20"/>
+    </row>
+    <row r="64" spans="2:7">
       <c r="B64" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="14" t="s">
-        <v>81</v>
-      </c>
       <c r="E64" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F64" s="14"/>
-      <c r="G64" s="20"/>
-    </row>
-    <row r="65" spans="1:7" ht="36">
-      <c r="A65" s="1"/>
+      <c r="G64" s="19"/>
+    </row>
+    <row r="65" spans="2:7" ht="33">
       <c r="B65" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
-      <c r="G65" s="21"/>
-    </row>
-    <row r="66" spans="1:7" ht="18">
-      <c r="A66" s="1"/>
+      <c r="G65" s="20"/>
+    </row>
+    <row r="66" spans="2:7">
       <c r="B66" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="E66" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E66" s="14" t="s">
-        <v>84</v>
-      </c>
       <c r="F66" s="14"/>
-      <c r="G66" s="20"/>
-    </row>
-    <row r="67" spans="1:7" ht="18">
-      <c r="A67" s="1"/>
+      <c r="G66" s="19"/>
+    </row>
+    <row r="67" spans="2:7">
       <c r="B67" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
-      <c r="G67" s="21"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="1"/>
+      <c r="G67" s="20"/>
+    </row>
+    <row r="68" spans="2:7">
       <c r="B68" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="E68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="19"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="1"/>
-      <c r="B69" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="E69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="19"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="1"/>
-      <c r="B70" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="E70" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="F70" s="4"/>
+      <c r="G70" s="12"/>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F70" s="4"/>
-      <c r="G70" s="19"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="1"/>
-      <c r="B71" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="14" t="s">
+      <c r="D71" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="14" t="s">
-        <v>93</v>
-      </c>
       <c r="E71" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F71" s="14"/>
-      <c r="G71" s="20"/>
-    </row>
-    <row r="72" spans="1:7" ht="36">
-      <c r="A72" s="1"/>
+      <c r="G71" s="19"/>
+    </row>
+    <row r="72" spans="2:7" ht="33">
       <c r="B72" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
-      <c r="G72" s="21"/>
-    </row>
-    <row r="73" spans="1:7" ht="18">
-      <c r="A73" s="1"/>
+      <c r="G72" s="20"/>
+    </row>
+    <row r="73" spans="2:7">
       <c r="B73" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C73" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D73" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D73" s="14" t="s">
-        <v>95</v>
-      </c>
       <c r="E73" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F73" s="14"/>
-      <c r="G73" s="20"/>
-    </row>
-    <row r="74" spans="1:7" ht="18">
-      <c r="A74" s="1"/>
+      <c r="G73" s="19"/>
+    </row>
+    <row r="74" spans="2:7">
       <c r="B74" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
-      <c r="G74" s="21"/>
-    </row>
-    <row r="75" spans="1:7" ht="18">
-      <c r="A75" s="1"/>
+      <c r="G74" s="20"/>
+    </row>
+    <row r="75" spans="2:7">
       <c r="B75" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="E75" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E75" s="14" t="s">
-        <v>98</v>
-      </c>
       <c r="F75" s="15"/>
-      <c r="G75" s="20"/>
-    </row>
-    <row r="76" spans="1:7" ht="18">
-      <c r="A76" s="1"/>
+      <c r="G75" s="19"/>
+    </row>
+    <row r="76" spans="2:7">
       <c r="B76" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
       <c r="F76" s="15"/>
-      <c r="G76" s="21"/>
-    </row>
-    <row r="77" spans="1:7" ht="18">
-      <c r="A77" s="1"/>
+      <c r="G76" s="20"/>
+    </row>
+    <row r="77" spans="2:7">
       <c r="B77" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C77" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D77" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D77" s="14" t="s">
-        <v>100</v>
-      </c>
       <c r="E77" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F77" s="14"/>
-      <c r="G77" s="20"/>
-    </row>
-    <row r="78" spans="1:7" ht="18">
-      <c r="A78" s="1"/>
+      <c r="G77" s="19"/>
+    </row>
+    <row r="78" spans="2:7">
       <c r="B78" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C78" s="14"/>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
-      <c r="G78" s="21"/>
-    </row>
-    <row r="79" spans="1:7" ht="18">
-      <c r="A79" s="1"/>
+      <c r="G78" s="20"/>
+    </row>
+    <row r="79" spans="2:7">
       <c r="B79" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C79" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D79" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D79" s="14" t="s">
-        <v>102</v>
-      </c>
       <c r="E79" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F79" s="14"/>
-      <c r="G79" s="20"/>
-    </row>
-    <row r="80" spans="1:7" ht="18">
-      <c r="A80" s="1"/>
+      <c r="G79" s="19"/>
+    </row>
+    <row r="80" spans="2:7">
       <c r="B80" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
-      <c r="G80" s="21"/>
-    </row>
-    <row r="81" spans="1:7" ht="18">
-      <c r="A81" s="1"/>
+      <c r="G80" s="20"/>
+    </row>
+    <row r="81" spans="2:7">
       <c r="B81" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="14"/>
+      <c r="G81" s="19"/>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="14"/>
-      <c r="G81" s="20"/>
-    </row>
-    <row r="82" spans="1:7" ht="18">
-      <c r="A82" s="1"/>
-      <c r="B82" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="C82" s="14"/>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
-      <c r="G82" s="21"/>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="1"/>
+      <c r="G82" s="20"/>
+    </row>
+    <row r="83" spans="2:7">
       <c r="B83" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="E83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="4"/>
+      <c r="G83" s="12"/>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C84" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E83" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="4"/>
-      <c r="G83" s="19"/>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="1"/>
-      <c r="B84" s="6" t="s">
+      <c r="D84" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="14"/>
+      <c r="G84" s="19"/>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="14"/>
-      <c r="G84" s="20"/>
-    </row>
-    <row r="85" spans="1:7" ht="18">
-      <c r="A85" s="1"/>
-      <c r="B85" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="C85" s="14"/>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
-      <c r="G85" s="21"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="1"/>
+      <c r="G85" s="20"/>
+    </row>
+    <row r="86" spans="2:7">
       <c r="B86" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C86" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="E86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="12"/>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C87" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E86" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="4"/>
-      <c r="G86" s="19"/>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="1"/>
-      <c r="B87" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C87" s="14" t="s">
+      <c r="D87" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D87" s="14" t="s">
-        <v>112</v>
-      </c>
       <c r="E87" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F87" s="14"/>
-      <c r="G87" s="20"/>
-    </row>
-    <row r="88" spans="1:7" ht="18">
-      <c r="A88" s="1"/>
+      <c r="G87" s="19"/>
+    </row>
+    <row r="88" spans="2:7">
       <c r="B88" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
-      <c r="G88" s="21"/>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="1"/>
+      <c r="G88" s="20"/>
+    </row>
+    <row r="89" spans="2:7">
       <c r="B89" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="E89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="4"/>
+      <c r="G89" s="12"/>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C90" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="4"/>
-      <c r="G89" s="19"/>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="1"/>
-      <c r="B90" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C90" s="14" t="s">
+      <c r="D90" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D90" s="14" t="s">
-        <v>116</v>
-      </c>
       <c r="E90" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F90" s="14"/>
-      <c r="G90" s="20"/>
-    </row>
-    <row r="91" spans="1:7" ht="18">
-      <c r="A91" s="1"/>
+      <c r="G90" s="19"/>
+    </row>
+    <row r="91" spans="2:7">
       <c r="B91" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C91" s="14"/>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
       <c r="F91" s="14"/>
-      <c r="G91" s="21"/>
-    </row>
-    <row r="92" spans="1:7" ht="18">
-      <c r="A92" s="1"/>
+      <c r="G91" s="20"/>
+    </row>
+    <row r="92" spans="2:7">
       <c r="B92" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C92" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D92" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="E92" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E92" s="14" t="s">
-        <v>119</v>
-      </c>
       <c r="F92" s="14"/>
-      <c r="G92" s="20"/>
-    </row>
-    <row r="93" spans="1:7" ht="18">
-      <c r="A93" s="1"/>
+      <c r="G92" s="19"/>
+    </row>
+    <row r="93" spans="2:7">
       <c r="B93" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="14"/>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
-      <c r="G93" s="21"/>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="1"/>
+      <c r="G93" s="20"/>
+    </row>
+    <row r="94" spans="2:7">
       <c r="B94" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C94" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="E94" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F94" s="4"/>
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E94" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F94" s="4"/>
-      <c r="G94" s="19"/>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="1"/>
-      <c r="B95" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C95" s="4" t="s">
+      <c r="D95" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="E95" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="F95" s="4"/>
+      <c r="G95" s="12"/>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F95" s="4"/>
-      <c r="G95" s="19"/>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="1"/>
-      <c r="B96" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D96" s="4" t="s">
+      <c r="E96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G96" s="12">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E96" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G96" s="19">
-        <v>43728</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="1"/>
-      <c r="B97" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C97" s="4" t="s">
+      <c r="D97" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="E97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="4"/>
+      <c r="G97" s="12"/>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C98" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E97" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" s="4"/>
-      <c r="G97" s="19"/>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="1"/>
-      <c r="B98" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C98" s="14" t="s">
+      <c r="D98" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="E98" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E98" s="14" t="s">
-        <v>130</v>
-      </c>
       <c r="F98" s="14"/>
-      <c r="G98" s="20"/>
-    </row>
-    <row r="99" spans="1:7" ht="18">
-      <c r="A99" s="1"/>
+      <c r="G98" s="19"/>
+    </row>
+    <row r="99" spans="2:7">
       <c r="B99" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C99" s="14"/>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
       <c r="F99" s="14"/>
-      <c r="G99" s="21"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="1"/>
+      <c r="G99" s="20"/>
+    </row>
+    <row r="100" spans="2:7">
       <c r="B100" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="E100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="4"/>
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E100" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="4"/>
-      <c r="G100" s="19"/>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="1"/>
-      <c r="B101" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C101" s="4" t="s">
+      <c r="D101" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="E101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="4"/>
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D102" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E101" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="4"/>
-      <c r="G101" s="19"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="1"/>
-      <c r="B102" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>135</v>
-      </c>
       <c r="E102" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="G102" s="19">
+        <v>256</v>
+      </c>
+      <c r="G102" s="12">
         <v>43728</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="18">
-      <c r="A103" s="1"/>
+    <row r="103" spans="2:7">
       <c r="B103" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C103" s="16"/>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
       <c r="F103" s="14"/>
-      <c r="G103" s="19"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="1"/>
+      <c r="G103" s="12"/>
+    </row>
+    <row r="104" spans="2:7">
       <c r="B104" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C104" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="E104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="4"/>
+      <c r="G104" s="12"/>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E104" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="4"/>
-      <c r="G104" s="19"/>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="1"/>
-      <c r="B105" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C105" s="4" t="s">
+      <c r="D105" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="E105" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="F105" s="4"/>
+      <c r="G105" s="12"/>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F105" s="4"/>
-      <c r="G105" s="19"/>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="1"/>
-      <c r="B106" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C106" s="4" t="s">
+      <c r="D106" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="E106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="4"/>
+      <c r="G106" s="12"/>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E106" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="4"/>
-      <c r="G106" s="19"/>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="1"/>
-      <c r="B107" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C107" s="4" t="s">
+      <c r="D107" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="E107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="4"/>
+      <c r="G107" s="12"/>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C108" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E107" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="4"/>
-      <c r="G107" s="19"/>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="1"/>
-      <c r="B108" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C108" s="14" t="s">
+      <c r="D108" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D108" s="14" t="s">
-        <v>146</v>
-      </c>
       <c r="E108" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F108" s="14"/>
-      <c r="G108" s="20"/>
-    </row>
-    <row r="109" spans="1:7" ht="36">
-      <c r="A109" s="1"/>
+      <c r="G108" s="19"/>
+    </row>
+    <row r="109" spans="2:7" ht="33">
       <c r="B109" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C109" s="14"/>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
-      <c r="G109" s="21"/>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="1"/>
+      <c r="G109" s="20"/>
+    </row>
+    <row r="110" spans="2:7">
       <c r="B110" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C110" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="E110" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G110" s="12">
+        <v>43735</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C111" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="E110" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G110" s="19">
-        <v>43735</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="1"/>
-      <c r="B111" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C111" s="14" t="s">
+      <c r="D111" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D111" s="14" t="s">
-        <v>150</v>
-      </c>
       <c r="E111" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F111" s="14"/>
-      <c r="G111" s="20"/>
-    </row>
-    <row r="112" spans="1:7" ht="18">
-      <c r="A112" s="1"/>
+      <c r="G111" s="19"/>
+    </row>
+    <row r="112" spans="2:7">
       <c r="B112" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C112" s="14"/>
       <c r="D112" s="14"/>
       <c r="E112" s="14"/>
       <c r="F112" s="14"/>
-      <c r="G112" s="21"/>
-    </row>
-    <row r="113" spans="1:7" ht="18">
-      <c r="A113" s="1"/>
+      <c r="G112" s="20"/>
+    </row>
+    <row r="113" spans="2:7">
       <c r="B113" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F113" s="14"/>
+      <c r="G113" s="19"/>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D113" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E113" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="F113" s="14"/>
-      <c r="G113" s="20"/>
-    </row>
-    <row r="114" spans="1:7" ht="18">
-      <c r="A114" s="1"/>
-      <c r="B114" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="C114" s="14"/>
       <c r="D114" s="14"/>
       <c r="E114" s="14"/>
       <c r="F114" s="14"/>
-      <c r="G114" s="21"/>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="1"/>
+      <c r="G114" s="20"/>
+    </row>
+    <row r="115" spans="2:7">
       <c r="B115" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C115" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D115" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="E115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="4"/>
+      <c r="G115" s="12"/>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E115" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F115" s="4"/>
-      <c r="G115" s="19"/>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="1"/>
-      <c r="B116" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C116" s="4" t="s">
+      <c r="D116" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="E116" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F116" s="4"/>
+      <c r="G116" s="12"/>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E116" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F116" s="4"/>
-      <c r="G116" s="19"/>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="1"/>
-      <c r="B117" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C117" s="4" t="s">
+      <c r="D117" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="E117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="4"/>
+      <c r="G117" s="12"/>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E117" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F117" s="4"/>
-      <c r="G117" s="19"/>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="1"/>
-      <c r="B118" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C118" s="4" t="s">
+      <c r="D118" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="E118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="4"/>
+      <c r="G118" s="12"/>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C119" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E118" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" s="4"/>
-      <c r="G118" s="19"/>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="1"/>
-      <c r="B119" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C119" s="14" t="s">
+      <c r="D119" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="D119" s="14" t="s">
-        <v>163</v>
-      </c>
       <c r="E119" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F119" s="14"/>
-      <c r="G119" s="20"/>
-    </row>
-    <row r="120" spans="1:7" ht="18">
-      <c r="A120" s="1"/>
+      <c r="G119" s="19"/>
+    </row>
+    <row r="120" spans="2:7">
       <c r="B120" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C120" s="14"/>
       <c r="D120" s="14"/>
       <c r="E120" s="14"/>
       <c r="F120" s="14"/>
-      <c r="G120" s="21"/>
-    </row>
-    <row r="121" spans="1:7" ht="18">
-      <c r="A121" s="1"/>
+      <c r="G120" s="20"/>
+    </row>
+    <row r="121" spans="2:7">
       <c r="B121" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C121" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D121" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D121" s="14" t="s">
-        <v>165</v>
-      </c>
       <c r="E121" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F121" s="14"/>
-      <c r="G121" s="20"/>
-    </row>
-    <row r="122" spans="1:7" ht="18">
-      <c r="A122" s="1"/>
+      <c r="G121" s="19"/>
+    </row>
+    <row r="122" spans="2:7">
       <c r="B122" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
       <c r="E122" s="14"/>
       <c r="F122" s="14"/>
-      <c r="G122" s="21"/>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="1"/>
+      <c r="G122" s="20"/>
+    </row>
+    <row r="123" spans="2:7">
       <c r="B123" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C123" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D123" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="E123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="4"/>
+      <c r="G123" s="12"/>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E123" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" s="4"/>
-      <c r="G123" s="19"/>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="1"/>
-      <c r="B124" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C124" s="4" t="s">
+      <c r="D124" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="E124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="4"/>
+      <c r="G124" s="12"/>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E124" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="4"/>
-      <c r="G124" s="19"/>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="1"/>
-      <c r="B125" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C125" s="4" t="s">
+      <c r="D125" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="E125" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F125" s="4"/>
+      <c r="G125" s="12"/>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E125" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F125" s="4"/>
-      <c r="G125" s="19"/>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="1"/>
-      <c r="B126" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C126" s="4" t="s">
+      <c r="D126" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="E126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="4"/>
+      <c r="G126" s="12"/>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E126" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="4"/>
-      <c r="G126" s="19"/>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="1"/>
-      <c r="B127" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C127" s="4" t="s">
+      <c r="D127" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="E127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="4"/>
+      <c r="G127" s="12"/>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E127" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" s="4"/>
-      <c r="G127" s="19"/>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="1"/>
-      <c r="B128" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C128" s="4" t="s">
+      <c r="D128" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="E128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="4"/>
+      <c r="G128" s="12"/>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C129" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="E128" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" s="4"/>
-      <c r="G128" s="19"/>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="1"/>
-      <c r="B129" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C129" s="14" t="s">
+      <c r="D129" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D129" s="14" t="s">
-        <v>179</v>
-      </c>
       <c r="E129" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F129" s="14"/>
-      <c r="G129" s="20"/>
-    </row>
-    <row r="130" spans="1:7" ht="18">
-      <c r="A130" s="1"/>
+      <c r="G129" s="19"/>
+    </row>
+    <row r="130" spans="2:7">
       <c r="B130" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C130" s="14"/>
       <c r="D130" s="14"/>
       <c r="E130" s="14"/>
       <c r="F130" s="14"/>
-      <c r="G130" s="21"/>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="1"/>
+      <c r="G130" s="20"/>
+    </row>
+    <row r="131" spans="2:7">
       <c r="B131" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
-      <c r="G131" s="19"/>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="1"/>
+      <c r="G131" s="12"/>
+    </row>
+    <row r="132" spans="2:7">
       <c r="B132" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C132" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D132" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="E132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="4"/>
+      <c r="G132" s="12"/>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="B133" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E132" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132" s="4"/>
-      <c r="G132" s="19"/>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="1"/>
-      <c r="B133" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C133" s="4" t="s">
+      <c r="D133" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="E133" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F133" s="4"/>
+      <c r="G133" s="12"/>
+    </row>
+    <row r="134" spans="2:7">
+      <c r="B134" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C134" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="E133" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F133" s="4"/>
-      <c r="G133" s="19"/>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="1"/>
-      <c r="B134" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C134" s="14" t="s">
+      <c r="D134" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="D134" s="14" t="s">
-        <v>187</v>
-      </c>
       <c r="E134" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F134" s="14"/>
-      <c r="G134" s="20"/>
-    </row>
-    <row r="135" spans="1:7" ht="18">
-      <c r="A135" s="1"/>
+      <c r="G134" s="19"/>
+    </row>
+    <row r="135" spans="2:7">
       <c r="B135" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C135" s="14"/>
       <c r="D135" s="14"/>
       <c r="E135" s="14"/>
       <c r="F135" s="14"/>
-      <c r="G135" s="21"/>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="1"/>
+      <c r="G135" s="20"/>
+    </row>
+    <row r="136" spans="2:7">
       <c r="B136" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C136" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D136" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="E136" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F136" s="4"/>
+      <c r="G136" s="12"/>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="B137" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E136" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F136" s="4"/>
-      <c r="G136" s="19"/>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="1"/>
-      <c r="B137" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C137" s="4" t="s">
+      <c r="D137" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="E137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="4"/>
+      <c r="G137" s="12"/>
+    </row>
+    <row r="138" spans="2:7" ht="33">
+      <c r="B138" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C138" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E137" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F137" s="4"/>
-      <c r="G137" s="19"/>
-    </row>
-    <row r="138" spans="1:7" ht="36">
-      <c r="A138" s="1"/>
-      <c r="B138" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C138" s="14" t="s">
+      <c r="D138" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="D138" s="14" t="s">
-        <v>195</v>
-      </c>
       <c r="E138" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F138" s="14"/>
-      <c r="G138" s="20"/>
-    </row>
-    <row r="139" spans="1:7" ht="18">
-      <c r="A139" s="1"/>
+      <c r="G138" s="19"/>
+    </row>
+    <row r="139" spans="2:7">
       <c r="B139" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C139" s="14"/>
       <c r="D139" s="14"/>
       <c r="E139" s="14"/>
       <c r="F139" s="14"/>
-      <c r="G139" s="21"/>
-    </row>
-    <row r="140" spans="1:7" ht="36">
-      <c r="A140" s="1"/>
+      <c r="G139" s="20"/>
+    </row>
+    <row r="140" spans="2:7" ht="33">
       <c r="B140" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C140" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="E140" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E140" s="4" t="s">
+      <c r="F140" s="4"/>
+      <c r="G140" s="12"/>
+    </row>
+    <row r="141" spans="2:7" ht="33">
+      <c r="B141" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C141" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F140" s="4"/>
-      <c r="G140" s="19"/>
-    </row>
-    <row r="141" spans="1:7" ht="36">
-      <c r="A141" s="1"/>
-      <c r="B141" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C141" s="8" t="s">
+      <c r="D141" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="E141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G141" s="12">
+        <v>43735</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" ht="33">
+      <c r="B142" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C142" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E141" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G141" s="19">
+      <c r="D142" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F142" s="4"/>
+      <c r="G142" s="12"/>
+    </row>
+    <row r="143" spans="2:7" ht="33">
+      <c r="B143" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="4"/>
+      <c r="G143" s="12"/>
+    </row>
+    <row r="144" spans="2:7" ht="33">
+      <c r="B144" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G144" s="12">
         <v>43735</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="36">
-      <c r="A142" s="1"/>
-      <c r="B142" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F142" s="4"/>
-      <c r="G142" s="19"/>
-    </row>
-    <row r="143" spans="1:7" ht="36">
-      <c r="A143" s="1"/>
-      <c r="B143" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F143" s="4"/>
-      <c r="G143" s="19"/>
-    </row>
-    <row r="144" spans="1:7" ht="36">
-      <c r="A144" s="1"/>
-      <c r="B144" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D144" s="4" t="s">
+    <row r="145" spans="2:7">
+      <c r="B145" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C145" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="E144" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G144" s="19">
-        <v>43735</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="1"/>
-      <c r="B145" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C145" s="14" t="s">
+      <c r="D145" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="D145" s="14" t="s">
-        <v>208</v>
-      </c>
       <c r="E145" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F145" s="14"/>
-      <c r="G145" s="20"/>
-    </row>
-    <row r="146" spans="1:7" ht="36">
-      <c r="A146" s="1"/>
+      <c r="G145" s="19"/>
+    </row>
+    <row r="146" spans="2:7" ht="33">
       <c r="B146" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C146" s="14"/>
       <c r="D146" s="14"/>
       <c r="E146" s="14"/>
       <c r="F146" s="14"/>
-      <c r="G146" s="21"/>
-    </row>
-    <row r="147" spans="1:7" ht="36">
-      <c r="A147" s="1"/>
+      <c r="G146" s="20"/>
+    </row>
+    <row r="147" spans="2:7" ht="33">
       <c r="B147" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C147" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F147" s="4"/>
+      <c r="G147" s="12"/>
+    </row>
+    <row r="148" spans="2:7" ht="33">
+      <c r="B148" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D148" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D147" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F147" s="4"/>
-      <c r="G147" s="19"/>
-    </row>
-    <row r="148" spans="1:7" ht="36">
-      <c r="A148" s="1"/>
-      <c r="B148" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C148" s="8" t="s">
+      <c r="E148" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G148" s="12">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" ht="33">
+      <c r="B149" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C149" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="D149" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E148" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G148" s="19">
+      <c r="E149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G149" s="12">
         <v>43728</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="36">
-      <c r="A149" s="1"/>
-      <c r="B149" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D149" s="4" t="s">
+    <row r="150" spans="2:7" ht="33">
+      <c r="B150" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C150" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E149" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G149" s="19">
-        <v>43728</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="36">
-      <c r="A150" s="1"/>
-      <c r="B150" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C150" s="4" t="s">
+      <c r="D150" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="E150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="4"/>
+      <c r="G150" s="12"/>
+    </row>
+    <row r="151" spans="2:7">
+      <c r="B151" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C151" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="E150" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F150" s="4"/>
-      <c r="G150" s="19"/>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="1"/>
-      <c r="B151" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C151" s="14" t="s">
+      <c r="D151" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="D151" s="14" t="s">
-        <v>215</v>
-      </c>
       <c r="E151" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F151" s="14"/>
-      <c r="G151" s="20"/>
-    </row>
-    <row r="152" spans="1:7" ht="36">
-      <c r="A152" s="1"/>
+      <c r="G151" s="19"/>
+    </row>
+    <row r="152" spans="2:7" ht="33">
       <c r="B152" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C152" s="14"/>
       <c r="D152" s="14"/>
       <c r="E152" s="14"/>
       <c r="F152" s="14"/>
-      <c r="G152" s="21"/>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="1"/>
+      <c r="G152" s="20"/>
+    </row>
+    <row r="153" spans="2:7">
       <c r="B153" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C153" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D153" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D153" s="4" t="s">
+      <c r="E153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="4"/>
+      <c r="G153" s="12"/>
+    </row>
+    <row r="154" spans="2:7">
+      <c r="B154" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C154" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E153" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F153" s="4"/>
-      <c r="G153" s="19"/>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="1"/>
-      <c r="B154" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C154" s="4" t="s">
+      <c r="D154" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D154" s="4" t="s">
+      <c r="E154" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E154" s="4" t="s">
+      <c r="F154" s="4"/>
+      <c r="G154" s="12"/>
+    </row>
+    <row r="155" spans="2:7">
+      <c r="B155" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C155" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F154" s="4"/>
-      <c r="G154" s="19"/>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="1"/>
-      <c r="B155" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C155" s="4" t="s">
+      <c r="D155" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D155" s="4" t="s">
+      <c r="E155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" s="4"/>
+      <c r="G155" s="12"/>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C156" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="E155" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F155" s="4"/>
-      <c r="G155" s="19"/>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="1"/>
-      <c r="B156" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C156" s="4" t="s">
+      <c r="D156" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D156" s="4" t="s">
+      <c r="E156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" s="4"/>
+      <c r="G156" s="12"/>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E156" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F156" s="4"/>
-      <c r="G156" s="19"/>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="1"/>
-      <c r="B157" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C157" s="4" t="s">
+      <c r="D157" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D157" s="4" t="s">
+      <c r="E157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="4"/>
+      <c r="G157" s="12"/>
+    </row>
+    <row r="158" spans="2:7">
+      <c r="B158" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C158" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E157" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F157" s="4"/>
-      <c r="G157" s="19"/>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="1"/>
-      <c r="B158" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C158" s="4" t="s">
+      <c r="D158" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D158" s="4" t="s">
+      <c r="E158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="4"/>
+      <c r="G158" s="12"/>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="B159" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C159" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E158" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F158" s="4"/>
-      <c r="G158" s="19"/>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="1"/>
-      <c r="B159" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C159" s="4" t="s">
+      <c r="D159" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="E159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="4"/>
+      <c r="G159" s="12"/>
+    </row>
+    <row r="160" spans="2:7">
+      <c r="B160" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C160" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E159" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F159" s="4"/>
-      <c r="G159" s="19"/>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="1"/>
-      <c r="B160" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C160" s="4" t="s">
+      <c r="D160" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D160" s="4" t="s">
+      <c r="E160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" s="4"/>
+      <c r="G160" s="12"/>
+    </row>
+    <row r="161" spans="2:7">
+      <c r="B161" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E160" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F160" s="4"/>
-      <c r="G160" s="19"/>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="1"/>
-      <c r="B161" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C161" s="4" t="s">
+      <c r="D161" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D161" s="4" t="s">
+      <c r="E161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" s="4"/>
+      <c r="G161" s="12"/>
+    </row>
+    <row r="162" spans="2:7">
+      <c r="B162" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C162" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E161" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F161" s="4"/>
-      <c r="G161" s="19"/>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="1"/>
-      <c r="B162" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C162" s="4" t="s">
+      <c r="D162" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D162" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="E162" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F162" s="4"/>
-      <c r="G162" s="19"/>
+      <c r="G162" s="12"/>
+    </row>
+    <row r="163" spans="2:7">
+      <c r="B163" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="C163" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="D163" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E163" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" s="24"/>
+      <c r="G163" s="25"/>
+    </row>
+    <row r="164" spans="2:7">
+      <c r="B164" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C164" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="D164" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="E164" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="F164" s="24"/>
+      <c r="G164" s="25"/>
+    </row>
+    <row r="165" spans="2:7">
+      <c r="B165" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C165" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="D165" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="E165" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" s="24"/>
+      <c r="G165" s="25"/>
+    </row>
+    <row r="166" spans="2:7">
+      <c r="B166" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="C166" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D166" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E166" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" s="26"/>
+      <c r="G166" s="27"/>
+    </row>
+    <row r="167" spans="2:7">
+      <c r="B167" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C167" s="26"/>
+      <c r="D167" s="26"/>
+      <c r="E167" s="26"/>
+      <c r="F167" s="26"/>
+      <c r="G167" s="27"/>
+    </row>
+    <row r="168" spans="2:7">
+      <c r="B168" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C168" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D168" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E168" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F168" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G168" s="27">
+        <v>43763</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7">
+      <c r="B169" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="C169" s="23"/>
+      <c r="D169" s="26"/>
+      <c r="E169" s="26"/>
+      <c r="F169" s="26"/>
+      <c r="G169" s="27"/>
+    </row>
+    <row r="170" spans="2:7">
+      <c r="B170" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C170" s="23"/>
+      <c r="D170" s="26"/>
+      <c r="E170" s="26"/>
+      <c r="F170" s="26"/>
+      <c r="G170" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:F162" xr:uid="{ABC93F77-279F-4F8B-B3FA-98A922B996FA}"/>
-  <mergeCells count="220">
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="G138:G139"/>
+  <autoFilter ref="B3:G170" xr:uid="{C1EE0C99-C2F8-4E13-983A-B3DCF9299796}"/>
+  <mergeCells count="230">
     <mergeCell ref="G145:G146"/>
     <mergeCell ref="G151:G152"/>
     <mergeCell ref="G79:G80"/>
@@ -3951,25 +3973,33 @@
     <mergeCell ref="G98:G99"/>
     <mergeCell ref="G108:G109"/>
     <mergeCell ref="G111:G112"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G55:G56"/>
     <mergeCell ref="G57:G58"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="G61:G63"/>
     <mergeCell ref="G64:G65"/>
     <mergeCell ref="G66:G67"/>
     <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B2:G2"/>
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="B2:G2"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="G10:G11"/>
@@ -3979,12 +4009,15 @@
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
@@ -3994,15 +4027,6 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C15:C16"/>
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="E61:E63"/>
@@ -4023,6 +4047,10 @@
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
     <mergeCell ref="E90:E91"/>
     <mergeCell ref="D90:D91"/>
     <mergeCell ref="C90:C91"/>
@@ -4154,13 +4182,20 @@
     <mergeCell ref="F111:F112"/>
     <mergeCell ref="F113:F114"/>
     <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G168:G170"/>
+    <mergeCell ref="F168:F170"/>
+    <mergeCell ref="E168:E170"/>
+    <mergeCell ref="D168:D170"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="G166:G167"/>
+    <mergeCell ref="F166:F167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="C166:C167"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2:F2" r:id="rId1" display="Google DeepMind Paper list" xr:uid="{7A33D743-57A9-4C2E-B6FB-7446BA228AF4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4172,53 +4207,53 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="0.83203125" customWidth="1"/>
+    <col min="1" max="1" width="0.875" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="90.6640625" customWidth="1"/>
+    <col min="3" max="3" width="90.625" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="5.25" customHeight="1"/>
-    <row r="2" spans="2:7" ht="20">
+    <row r="2" spans="2:7" ht="20.25">
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>240</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G3" s="11">
         <v>43728</v>
@@ -4226,19 +4261,19 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="G4" s="11">
         <v>43728</v>

--- a/Paper list.xlsx
+++ b/Paper list.xlsx
@@ -8,16 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - KoreaUniv\0.PhD\5.RLRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{D17D8CE4-D537-B747-83D3-0BBB710B6220}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{BC574FD6-F9D8-4F81-920E-38D0F621EF9F}"/>
+  <xr:revisionPtr revIDLastSave="336" documentId="6_{D17AB417-2265-4FB7-882A-29F92970DF89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{136A98DC-4E90-4B44-BF68-02399DA5E3E0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
   </bookViews>
   <sheets>
     <sheet name="DeepMind Papers" sheetId="1" r:id="rId1"/>
     <sheet name="Others" sheetId="2" r:id="rId2"/>
+    <sheet name="Statistics" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DeepMind Papers'!$B$3:$G$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DeepMind Papers'!$B$3:$G$214</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Statistics!$B$3:$B$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Statistics!$C$3:$C$8</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Statistics!$B$3:$B$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Statistics!$C$3:$C$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="350">
   <si>
     <t>Title</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -389,12 +394,6 @@
     <t>Marc Lanctot, Edward Lockhart, et al.</t>
   </si>
   <si>
-    <t>Reward Tampering Problems and Solutions in Reinforcement Learning: A Causal Influence Diagram Perspective</t>
-  </si>
-  <si>
-    <t>Tom Everitt, Marcus Hutter</t>
-  </si>
-  <si>
     <t>General non-linear Bellman equations</t>
   </si>
   <si>
@@ -587,9 +586,6 @@
     <t>Theophane Weber, Nicolas Heess, et al.</t>
   </si>
   <si>
-    <t>ENVIRONMENTS</t>
-  </si>
-  <si>
     <t>Hanabi Learning Environment</t>
   </si>
   <si>
@@ -785,11 +781,6 @@
   </si>
   <si>
     <t>Generating Diverse High-Fidelity Images with VQ-VAE-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNSUPERVISED LEARNING 
-&amp; GENERATIVE MODELS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -900,6 +891,355 @@
   </si>
   <si>
     <t>Meta-Learning with Warped Gradient Descent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achieving Verified Robustness to Symbol Substitutions via Interval Bound Propagation</t>
+  </si>
+  <si>
+    <t>EMNLP 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Po-Sen Huang, Robert Stanforth, et al. </t>
+  </si>
+  <si>
+    <t>Mogrifier LSTM</t>
+  </si>
+  <si>
+    <t>Gábor Melis, Tomas Kocisky, et al.</t>
+  </si>
+  <si>
+    <t>Chris Dyer, Gábor Melis, et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+A Mabona, Laura Rimell, et al. </t>
+  </si>
+  <si>
+    <t>Peter Toth, Danilo Jimenez Rezende, et al.</t>
+  </si>
+  <si>
+    <t>Lei Yu, Laurent Sartran, et al.</t>
+  </si>
+  <si>
+    <t>Mehrdad Farajtabar, N Azizan, et al.</t>
+  </si>
+  <si>
+    <t>Lingpeng Kong, Cyprien de Masson d'Autume, et al.</t>
+  </si>
+  <si>
+    <t>Sven Gowal, Jonathan Uesato, et al.</t>
+  </si>
+  <si>
+    <t>G Cideron, M Seurin, et al.</t>
+  </si>
+  <si>
+    <t>Albert Gu, Caglar Gülçehre, et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M Artetxe, Sebastian Ruder, et al. </t>
+  </si>
+  <si>
+    <t>Serkan Cabi, Sergio Gomez Colmenarejo, et al.</t>
+  </si>
+  <si>
+    <t>Authors</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-MPO: On-Policy Maximum a Posteriori Policy Optimization for Discrete and Continuous Control</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control &amp; Robotics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Francis Song, Abbas Abdolmaleki, et al.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imagined Value Gradients: Model-Based Policy Optimization with Transferable Latent Dynamics Models</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Byravan, Jost Tobias Springenberg, et al.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoRL 2019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modelling Generalized Forces with Reinforcement Learning for Sim-to-Real Transfer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rae Jeong, Jackie Kay, et al.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positive-Unlabeled Reward Learning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D Xu, Misha Denil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Behaviour Suite for Reinforcement Learning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ian Osband, Yotam Doron, et al.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward Tampering Problems and Solutions in Reinforcement Learning: A Causal Influence Diagram Perspective</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tom Everitt, Marcus Hutter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeurIPS 2019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Framework for Data-Driven Robotics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quinoa: A Q-function You Infer Normalized Over Actions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>On the Cross-lingual Transferability of Monolingual Representations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improving the Gating Mechanism of Recurrent Neural Networks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self-Educated Language Agent With Hindsight Experience Replay For Instruction Following</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Alternative Surrogate Loss for PGD-based Adversarial Testing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Mutual Information Maximization Perspective of Language Representation Learning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orthogonal Gradient Descent for Continual Learning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Putting Machine Translation in Context with the Noisy Channel Model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hamiltonian Generative Networks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neural Generative Rhetorical Structure Parsing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Critical Analysis of Biased Parsers in Unsupervised Parsing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor Critic with Differentially Private Critic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J Lebensold, W Hamilton, et al.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approximate Inference in Discrete Distributions with Monte Carlo Tree Search and Value Functions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lars Buesing, Nicolas Heess, et al.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adaptive Trade-Offs in Off-Policy Learning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mark Rowland, Will Dabney, et al.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Autonomous exploration for navigating in non-stationary CMPs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P Gajane, R Ortner, et al.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlphaStar: Grandmaster level in StarCraft II using multi-agent reinforcement learning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The AlphaStar team</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nature 2019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gradient-based Adaptive Markov Chain Monte Carlo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Michalis Titsias, P Dellaportas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed-Confidence Guarantees for Bayesian Best-Arm Identification</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X Shang, R de Heide, et al.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neural Execution of Graph Algorithms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Petar Veli</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>č</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kovi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ć</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, R Ying, et al.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICLR 2019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conditional Importance Sampling for Off-Policy Learning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mark Rowland, Anna Harutyunyan, et al.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Generalized Training Approach for Multiagent Learning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paul Muller, Shayegan Omidshafiei, et al.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Efron-Stein PAC-Bayesian Inequalities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I Kuzborskij, Csaba Szepesvári</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controllable Attention for Structured Layered Video Decomposition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jean-Baptiste Alayrac, Joao Carreira, et al.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equivariant Hamiltonian Flows</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Danilo Jimenez Rezende, Sébastien Racanière, et al.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jonas Degrave, Abbas Abdolmaleki, et al.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep RL Workshop NeurIPS 2019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이주원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박정호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neuroscience</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Papers of DeepMind</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -907,7 +1247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -949,24 +1289,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="24"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -997,8 +1319,33 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1019,16 +1366,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1052,26 +1394,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1081,29 +1412,90 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1128,9 +1520,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1146,54 +1535,80 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="20% - 강조색5" xfId="1" builtinId="46"/>
-    <cellStyle name="좋음" xfId="3" builtinId="26"/>
+    <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1206,6 +1621,916 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Paper</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Statistics!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Deep Learning</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Control &amp; Robotics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neuroscience</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safety</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Theory &amp; Foundations</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Unsupervised Learning 
+&amp; Generative Models</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Statistics!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9074-4962-ACCA-2545326326F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="445140144"/>
+        <c:axId val="456730000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="445140144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456730000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="456730000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445140144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867172E8-DD6D-4A50-B0FE-CB4B2DFC565B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1505,33 +2830,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D0C1FB-3C2C-47C3-B0C0-A85F23F3B3BD}">
-  <dimension ref="B1:G170"/>
+  <dimension ref="B1:G214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="0.75" customWidth="1"/>
-    <col min="2" max="2" width="30.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="82.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.625" customWidth="1"/>
+    <col min="2" max="2" width="23.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="50.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="4.5" customHeight="1"/>
-    <row r="2" spans="2:7" ht="37.5" customHeight="1">
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="2:7" s="3" customFormat="1" ht="36" customHeight="1">
+    <row r="1" spans="2:7" ht="5.25" customHeight="1"/>
+    <row r="2" spans="2:7" ht="38.25">
+      <c r="B2" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="2:7" s="3" customFormat="1" ht="20.25">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1539,75 +2866,75 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>188</v>
+        <v>286</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="12"/>
+      <c r="E4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="2:7" ht="33">
       <c r="B5" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="17"/>
+      <c r="E5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="18"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C7" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>256</v>
+      <c r="E7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>252</v>
       </c>
       <c r="G7" s="19">
         <v>43763</v>
@@ -1615,1312 +2942,1324 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="20"/>
+        <v>267</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="12"/>
+      <c r="E9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C10" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="14"/>
+      <c r="E10" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="20"/>
       <c r="G10" s="19"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="12"/>
+      <c r="E12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="2:7" ht="33">
       <c r="B13" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C13" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="14"/>
+      <c r="E13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="20"/>
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="2:7" ht="33">
       <c r="B15" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C15" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="14"/>
+      <c r="E15" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="20"/>
       <c r="G15" s="19"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="12"/>
+      <c r="E17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="12"/>
+      <c r="E18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="12"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="14"/>
+      <c r="E20" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="20"/>
       <c r="G20" s="19"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="20"/>
+        <v>244</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="12"/>
+      <c r="E22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="14"/>
+      <c r="E23" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="20"/>
       <c r="G23" s="19"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="20"/>
+        <v>244</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="D25" s="14" t="s">
+      <c r="C25" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="14"/>
+      <c r="E25" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="20"/>
       <c r="G25" s="19"/>
     </row>
     <row r="26" spans="2:7" ht="33">
       <c r="B26" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="20"/>
+        <v>247</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="19"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="15"/>
+      <c r="E27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="23"/>
       <c r="G27" s="19"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="20"/>
+        <v>240</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="12"/>
+      <c r="E29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="14"/>
+      <c r="E30" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="20"/>
       <c r="G30" s="19"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="20"/>
+        <v>266</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="19"/>
     </row>
     <row r="32" spans="2:7" ht="33">
       <c r="B32" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C32" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="14"/>
+      <c r="E32" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="20"/>
       <c r="G32" s="19"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="19"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="12"/>
+      <c r="E34" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="2:7" ht="33">
       <c r="B35" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C35" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="14"/>
+      <c r="E35" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="20"/>
       <c r="G35" s="19"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="19"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="14"/>
+      <c r="E37" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="20"/>
       <c r="G37" s="19"/>
     </row>
     <row r="38" spans="2:7" ht="33">
       <c r="B38" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="20"/>
+        <v>247</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="19"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="12"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="11"/>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="14"/>
+      <c r="F40" s="20"/>
       <c r="G40" s="19"/>
     </row>
     <row r="41" spans="2:7" ht="33">
       <c r="B41" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="20"/>
+        <v>247</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="19"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="12"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="12"/>
+      <c r="E43" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="G43" s="11"/>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="14"/>
+      <c r="E44" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="20"/>
       <c r="G44" s="19"/>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="20"/>
+        <v>241</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="19"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="12"/>
+      <c r="E46" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="G46" s="11"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="12"/>
+      <c r="E47" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="11"/>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="14"/>
+      <c r="E48" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="20"/>
       <c r="G48" s="19"/>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="20"/>
+        <v>244</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="19"/>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="12"/>
+      <c r="E50" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="14"/>
+      <c r="G50" s="11"/>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="12"/>
+      <c r="E51" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="14"/>
+      <c r="G51" s="11"/>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C52" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="12"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="11"/>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="12"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="11"/>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="12"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="11"/>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="14"/>
+      <c r="E55" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="20"/>
       <c r="G55" s="19"/>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="20"/>
+        <v>243</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="19"/>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="14"/>
+      <c r="E57" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="20"/>
       <c r="G57" s="19"/>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="20"/>
+        <v>243</v>
+      </c>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="19"/>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E59" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="14"/>
+      <c r="E59" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="20"/>
       <c r="G59" s="19"/>
     </row>
     <row r="60" spans="2:7" ht="33">
       <c r="B60" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="20"/>
+        <v>247</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="19"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="14"/>
+      <c r="E61" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="20"/>
       <c r="G61" s="19"/>
     </row>
     <row r="62" spans="2:7" ht="33">
       <c r="B62" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="21"/>
+        <v>247</v>
+      </c>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="19"/>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="20"/>
+        <v>244</v>
+      </c>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="19"/>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E64" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="14"/>
+      <c r="E64" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="20"/>
       <c r="G64" s="19"/>
     </row>
     <row r="65" spans="2:7" ht="33">
       <c r="B65" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="20"/>
+        <v>247</v>
+      </c>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="19"/>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D66" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E66" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F66" s="14"/>
+      <c r="F66" s="20"/>
       <c r="G66" s="19"/>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="20"/>
+        <v>243</v>
+      </c>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="19"/>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="12"/>
+      <c r="E68" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="14"/>
+      <c r="G68" s="11"/>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="12"/>
+      <c r="E69" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="14"/>
+      <c r="G69" s="11"/>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F70" s="4"/>
-      <c r="G70" s="12"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="11"/>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="14"/>
+      <c r="E71" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="20"/>
       <c r="G71" s="19"/>
     </row>
     <row r="72" spans="2:7" ht="33">
       <c r="B72" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="20"/>
+        <v>247</v>
+      </c>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="19"/>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C73" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C73" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E73" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="14"/>
+      <c r="E73" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="20"/>
       <c r="G73" s="19"/>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="19"/>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D75" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F75" s="15"/>
+      <c r="F75" s="23"/>
       <c r="G75" s="19"/>
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="20"/>
+        <v>241</v>
+      </c>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="19"/>
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C77" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C77" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D77" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E77" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="14"/>
+      <c r="E77" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="20"/>
       <c r="G77" s="19"/>
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="20"/>
+        <v>241</v>
+      </c>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="19"/>
     </row>
     <row r="79" spans="2:7">
       <c r="B79" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C79" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C79" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E79" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="14"/>
+      <c r="E79" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="20"/>
       <c r="G79" s="19"/>
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="20"/>
+        <v>241</v>
+      </c>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="19"/>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C81" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C81" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D81" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E81" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="14"/>
+      <c r="E81" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="20"/>
       <c r="G81" s="19"/>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="20"/>
+        <v>242</v>
+      </c>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="19"/>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C83" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C83" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E83" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="4"/>
-      <c r="G83" s="12"/>
+      <c r="E83" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="14"/>
+      <c r="G83" s="11"/>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C84" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C84" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="D84" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E84" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="14"/>
+      <c r="E84" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="20"/>
       <c r="G84" s="19"/>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="20"/>
+        <v>242</v>
+      </c>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="19"/>
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C86" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C86" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E86" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="4"/>
-      <c r="G86" s="12"/>
+      <c r="E86" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G86" s="11">
+        <v>43791</v>
+      </c>
     </row>
     <row r="87" spans="2:7">
       <c r="B87" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C87" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C87" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="D87" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E87" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="14"/>
+      <c r="E87" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="20"/>
       <c r="G87" s="19"/>
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="20"/>
+        <v>241</v>
+      </c>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="19"/>
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C89" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C89" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="4"/>
-      <c r="G89" s="12"/>
+      <c r="E89" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="14"/>
+      <c r="G89" s="11"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C90" s="14" t="s">
+      <c r="B90" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C90" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D90" s="14" t="s">
+      <c r="D90" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="E90" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="14"/>
+      <c r="E90" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F90" s="20"/>
       <c r="G90" s="19"/>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="20"/>
+        <v>243</v>
+      </c>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="19"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="7" t="s">
-        <v>245</v>
+      <c r="B92" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="C92" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E92" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D92" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="F92" s="14"/>
-      <c r="G92" s="19"/>
+      <c r="G92" s="11"/>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
+      <c r="B93" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>121</v>
+      </c>
       <c r="F93" s="14"/>
-      <c r="G93" s="20"/>
+      <c r="G93" s="11"/>
     </row>
     <row r="94" spans="2:7">
       <c r="B94" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F94" s="4"/>
-      <c r="G94" s="12"/>
+        <v>241</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G94" s="11">
+        <v>43728</v>
+      </c>
     </row>
     <row r="95" spans="2:7">
       <c r="B95" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E95" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C95" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F95" s="4"/>
-      <c r="G95" s="12"/>
+      <c r="D95" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="14"/>
+      <c r="G95" s="11"/>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G96" s="12">
-        <v>43728</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E96" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F96" s="20"/>
+      <c r="G96" s="19"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" s="4"/>
-      <c r="G97" s="12"/>
+      <c r="B97" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="19"/>
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>127</v>
+        <v>241</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F98" s="14"/>
-      <c r="G98" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="G98" s="11">
+        <v>43784</v>
+      </c>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
+      <c r="B99" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F99" s="14"/>
-      <c r="G99" s="20"/>
+      <c r="G99" s="11"/>
     </row>
     <row r="100" spans="2:7">
       <c r="B100" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="4"/>
-      <c r="G100" s="12"/>
+        <v>241</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D100" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E100" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="G100" s="11">
+        <v>43728</v>
+      </c>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="4"/>
-      <c r="G101" s="12"/>
+      <c r="B101" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C101" s="21"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="11"/>
     </row>
     <row r="102" spans="2:7">
       <c r="B102" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>258</v>
+        <v>241</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="D102" s="14" t="s">
         <v>134</v>
@@ -2928,278 +4267,274 @@
       <c r="E102" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="G102" s="12">
-        <v>43728</v>
-      </c>
+      <c r="F102" s="14"/>
+      <c r="G102" s="11"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C103" s="16"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
+      <c r="B103" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>137</v>
+      </c>
       <c r="F103" s="14"/>
-      <c r="G103" s="12"/>
+      <c r="G103" s="11"/>
     </row>
     <row r="104" spans="2:7">
       <c r="B104" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" s="4"/>
-      <c r="G104" s="12"/>
+        <v>241</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="14"/>
+      <c r="G104" s="11"/>
     </row>
     <row r="105" spans="2:7">
       <c r="B105" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F105" s="4"/>
-      <c r="G105" s="12"/>
+        <v>241</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="14"/>
+      <c r="G105" s="11"/>
     </row>
     <row r="106" spans="2:7">
       <c r="B106" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="4"/>
-      <c r="G106" s="12"/>
-    </row>
-    <row r="107" spans="2:7">
-      <c r="B107" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C107" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C106" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D106" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="E107" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="4"/>
-      <c r="G107" s="12"/>
+      <c r="E106" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F106" s="20"/>
+      <c r="G106" s="19"/>
+    </row>
+    <row r="107" spans="2:7" ht="33">
+      <c r="B107" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="19"/>
     </row>
     <row r="108" spans="2:7">
       <c r="B108" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C108" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C108" s="15" t="s">
         <v>144</v>
       </c>
       <c r="D108" s="14" t="s">
         <v>145</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F108" s="14"/>
-      <c r="G108" s="19"/>
-    </row>
-    <row r="109" spans="2:7" ht="33">
-      <c r="B109" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G108" s="11">
+        <v>43735</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D109" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E109" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F109" s="20"/>
+      <c r="G109" s="19"/>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="20"/>
-    </row>
-    <row r="110" spans="2:7">
-      <c r="B110" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G110" s="12">
-        <v>43735</v>
-      </c>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="19"/>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C111" s="14" t="s">
+      <c r="B111" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C111" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D111" s="14" t="s">
+      <c r="D111" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="E111" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F111" s="14"/>
+      <c r="E111" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F111" s="20"/>
       <c r="G111" s="19"/>
     </row>
     <row r="112" spans="2:7">
       <c r="B112" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="20"/>
+        <v>241</v>
+      </c>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="19"/>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="7" t="s">
-        <v>244</v>
+      <c r="B113" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="F113" s="14"/>
-      <c r="G113" s="19"/>
+      <c r="G113" s="11"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
+      <c r="B114" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="F114" s="14"/>
-      <c r="G114" s="20"/>
+      <c r="G114" s="11"/>
     </row>
     <row r="115" spans="2:7">
       <c r="B115" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F115" s="4"/>
-      <c r="G115" s="12"/>
+        <v>241</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="14"/>
+      <c r="G115" s="11"/>
     </row>
     <row r="116" spans="2:7">
       <c r="B116" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F116" s="4"/>
-      <c r="G116" s="12"/>
+        <v>241</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="14"/>
+      <c r="G116" s="11"/>
     </row>
     <row r="117" spans="2:7">
       <c r="B117" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="4"/>
-      <c r="G117" s="12"/>
+        <v>241</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D117" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E117" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="20"/>
+      <c r="G117" s="19"/>
     </row>
     <row r="118" spans="2:7">
-      <c r="B118" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="4"/>
-      <c r="G118" s="12"/>
+      <c r="B118" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C118" s="20"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="19"/>
     </row>
     <row r="119" spans="2:7">
-      <c r="B119" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C119" s="14" t="s">
+      <c r="B119" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C119" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="D119" s="14" t="s">
+      <c r="D119" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="E119" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="14"/>
+      <c r="E119" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="20"/>
       <c r="G119" s="19"/>
     </row>
     <row r="120" spans="2:7">
       <c r="B120" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="20"/>
+        <v>243</v>
+      </c>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="19"/>
     </row>
     <row r="121" spans="2:7">
-      <c r="B121" s="7" t="s">
-        <v>245</v>
+      <c r="B121" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="C121" s="14" t="s">
         <v>163</v>
@@ -3211,113 +4546,113 @@
         <v>11</v>
       </c>
       <c r="F121" s="14"/>
-      <c r="G121" s="19"/>
+      <c r="G121" s="11"/>
     </row>
     <row r="122" spans="2:7">
-      <c r="B122" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
+      <c r="B122" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F122" s="14"/>
-      <c r="G122" s="20"/>
+      <c r="G122" s="11"/>
     </row>
     <row r="123" spans="2:7">
       <c r="B123" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="4"/>
-      <c r="G123" s="12"/>
+        <v>241</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F123" s="14"/>
+      <c r="G123" s="11"/>
     </row>
     <row r="124" spans="2:7">
       <c r="B124" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="4"/>
-      <c r="G124" s="12"/>
+        <v>241</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="14"/>
+      <c r="G124" s="11"/>
     </row>
     <row r="125" spans="2:7">
       <c r="B125" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F125" s="4"/>
-      <c r="G125" s="12"/>
+        <v>241</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D125" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="14"/>
+      <c r="G125" s="11"/>
     </row>
     <row r="126" spans="2:7">
       <c r="B126" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="4"/>
-      <c r="G126" s="12"/>
+        <v>241</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="14"/>
+      <c r="G126" s="11"/>
     </row>
     <row r="127" spans="2:7">
       <c r="B127" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="4"/>
-      <c r="G127" s="12"/>
+        <v>241</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D127" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E127" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="20"/>
+      <c r="G127" s="19"/>
     </row>
     <row r="128" spans="2:7">
-      <c r="B128" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" s="4"/>
-      <c r="G128" s="12"/>
+      <c r="B128" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C128" s="20"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="19"/>
     </row>
     <row r="129" spans="2:7">
       <c r="B129" s="6" t="s">
@@ -3326,671 +4661,1480 @@
       <c r="C129" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D129" s="14" t="s">
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="11"/>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="B130" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C130" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="E129" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129" s="14"/>
-      <c r="G129" s="19"/>
-    </row>
-    <row r="130" spans="2:7">
-      <c r="B130" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
+      <c r="D130" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F130" s="14"/>
-      <c r="G130" s="20"/>
+      <c r="G130" s="11"/>
     </row>
     <row r="131" spans="2:7">
       <c r="B131" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C131" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C131" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="12"/>
+      <c r="D131" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F131" s="14"/>
+      <c r="G131" s="11"/>
     </row>
     <row r="132" spans="2:7">
       <c r="B132" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D132" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C132" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="E132" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="4"/>
-      <c r="G132" s="12"/>
+      <c r="D132" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E132" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="20"/>
+      <c r="G132" s="19"/>
     </row>
     <row r="133" spans="2:7">
-      <c r="B133" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F133" s="4"/>
-      <c r="G133" s="12"/>
+      <c r="B133" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C133" s="20"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="19"/>
     </row>
     <row r="134" spans="2:7">
       <c r="B134" s="6" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="F134" s="14"/>
-      <c r="G134" s="19"/>
+      <c r="G134" s="11"/>
     </row>
     <row r="135" spans="2:7">
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D135" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="14"/>
+      <c r="G135" s="11"/>
+    </row>
+    <row r="136" spans="2:7" ht="33">
+      <c r="B136" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="20"/>
-    </row>
-    <row r="136" spans="2:7">
-      <c r="B136" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D136" s="4" t="s">
+      <c r="C136" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="E136" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F136" s="4"/>
-      <c r="G136" s="12"/>
+      <c r="D136" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E136" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F136" s="20"/>
+      <c r="G136" s="19"/>
     </row>
     <row r="137" spans="2:7">
-      <c r="B137" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F137" s="4"/>
-      <c r="G137" s="12"/>
+      <c r="B137" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C137" s="20"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="19"/>
     </row>
     <row r="138" spans="2:7" ht="33">
       <c r="B138" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C138" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D138" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="D138" s="14" t="s">
+      <c r="E138" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="E138" s="14" t="s">
-        <v>83</v>
-      </c>
       <c r="F138" s="14"/>
-      <c r="G138" s="19"/>
-    </row>
-    <row r="139" spans="2:7">
+      <c r="G138" s="11"/>
+    </row>
+    <row r="139" spans="2:7" ht="33">
       <c r="B139" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="20"/>
+      <c r="C139" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="G139" s="11">
+        <v>43735</v>
+      </c>
     </row>
     <row r="140" spans="2:7" ht="33">
       <c r="B140" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E140" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C140" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F140" s="4"/>
-      <c r="G140" s="12"/>
+      <c r="D140" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F140" s="14"/>
+      <c r="G140" s="11"/>
     </row>
     <row r="141" spans="2:7" ht="33">
       <c r="B141" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D141" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C141" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E141" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G141" s="12">
-        <v>43735</v>
-      </c>
+      <c r="D141" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E141" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="14"/>
+      <c r="G141" s="11"/>
     </row>
     <row r="142" spans="2:7" ht="33">
       <c r="B142" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D142" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C142" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="E142" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F142" s="4"/>
-      <c r="G142" s="12"/>
-    </row>
-    <row r="143" spans="2:7" ht="33">
-      <c r="B143" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C143" s="4" t="s">
+      <c r="D142" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="E142" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="G142" s="11">
+        <v>43735</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="B143" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C143" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="E143" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F143" s="4"/>
-      <c r="G143" s="12"/>
+      <c r="D143" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E143" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F143" s="20"/>
+      <c r="G143" s="19"/>
     </row>
     <row r="144" spans="2:7" ht="33">
       <c r="B144" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D144" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C144" s="20"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="20"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="19"/>
+    </row>
+    <row r="145" spans="2:7" ht="33">
+      <c r="B145" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C145" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="E144" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G144" s="12">
-        <v>43735</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7">
-      <c r="B145" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C145" s="14" t="s">
-        <v>206</v>
-      </c>
       <c r="D145" s="14" t="s">
-        <v>207</v>
+        <v>61</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F145" s="14"/>
-      <c r="G145" s="19"/>
+      <c r="G145" s="11"/>
     </row>
     <row r="146" spans="2:7" ht="33">
       <c r="B146" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C146" s="14"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="20"/>
+        <v>247</v>
+      </c>
+      <c r="C146" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F146" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="G146" s="11">
+        <v>43728</v>
+      </c>
     </row>
     <row r="147" spans="2:7" ht="33">
       <c r="B147" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F147" s="4"/>
-      <c r="G147" s="12"/>
+        <v>247</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="G147" s="11">
+        <v>43728</v>
+      </c>
     </row>
     <row r="148" spans="2:7" ht="33">
       <c r="B148" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="D148" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D148" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="E148" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="G148" s="12">
-        <v>43728</v>
-      </c>
-    </row>
-    <row r="149" spans="2:7" ht="33">
-      <c r="B149" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D149" s="4" t="s">
+      <c r="E148" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" s="14"/>
+      <c r="G148" s="11"/>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="B149" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C149" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E149" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="G149" s="12">
-        <v>43728</v>
-      </c>
+      <c r="D149" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="E149" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="20"/>
+      <c r="G149" s="19"/>
     </row>
     <row r="150" spans="2:7" ht="33">
       <c r="B150" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F150" s="4"/>
-      <c r="G150" s="12"/>
+        <v>247</v>
+      </c>
+      <c r="C150" s="20"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="19"/>
     </row>
     <row r="151" spans="2:7">
       <c r="B151" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C151" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D151" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="D151" s="14" t="s">
+      <c r="E151" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="14"/>
+      <c r="G151" s="11"/>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="B152" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C152" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="E151" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F151" s="14"/>
-      <c r="G151" s="19"/>
-    </row>
-    <row r="152" spans="2:7" ht="33">
-      <c r="B152" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C152" s="14"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
+      <c r="D152" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>216</v>
+      </c>
       <c r="F152" s="14"/>
-      <c r="G152" s="20"/>
+      <c r="G152" s="11"/>
     </row>
     <row r="153" spans="2:7">
       <c r="B153" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" s="4"/>
-      <c r="G153" s="12"/>
+        <v>243</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D153" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E153" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="14"/>
+      <c r="G153" s="11"/>
     </row>
     <row r="154" spans="2:7">
       <c r="B154" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E154" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C154" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="F154" s="4"/>
-      <c r="G154" s="12"/>
+      <c r="D154" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E154" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="14"/>
+      <c r="G154" s="11"/>
     </row>
     <row r="155" spans="2:7">
       <c r="B155" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D155" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C155" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="E155" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F155" s="4"/>
-      <c r="G155" s="12"/>
+      <c r="D155" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" s="14"/>
+      <c r="G155" s="11"/>
     </row>
     <row r="156" spans="2:7">
       <c r="B156" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D156" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C156" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="E156" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" s="4"/>
-      <c r="G156" s="12"/>
+      <c r="D156" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" s="14"/>
+      <c r="G156" s="11"/>
     </row>
     <row r="157" spans="2:7">
       <c r="B157" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D157" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C157" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="E157" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" s="4"/>
-      <c r="G157" s="12"/>
+      <c r="D157" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="E157" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="14"/>
+      <c r="G157" s="11"/>
     </row>
     <row r="158" spans="2:7">
       <c r="B158" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D158" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C158" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="E158" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" s="4"/>
-      <c r="G158" s="12"/>
+      <c r="D158" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E158" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="14"/>
+      <c r="G158" s="11"/>
     </row>
     <row r="159" spans="2:7">
       <c r="B159" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D159" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C159" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="E159" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F159" s="4"/>
-      <c r="G159" s="12"/>
+      <c r="D159" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="14"/>
+      <c r="G159" s="11"/>
     </row>
     <row r="160" spans="2:7">
       <c r="B160" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D160" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="E160" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" s="14"/>
+      <c r="G160" s="11"/>
+    </row>
+    <row r="161" spans="2:7">
+      <c r="B161" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="E161" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" s="13"/>
+      <c r="G161" s="17"/>
+    </row>
+    <row r="162" spans="2:7">
+      <c r="B162" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E162" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="F162" s="13"/>
+      <c r="G162" s="17"/>
+    </row>
+    <row r="163" spans="2:7">
+      <c r="B163" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D163" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E163" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" s="13"/>
+      <c r="G163" s="17"/>
+    </row>
+    <row r="164" spans="2:7">
+      <c r="B164" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C164" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D164" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E164" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F164" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="G164" s="24">
+        <v>43763</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7">
+      <c r="B165" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C165" s="26"/>
+      <c r="D165" s="25"/>
+      <c r="E165" s="25"/>
+      <c r="F165" s="25"/>
+      <c r="G165" s="24"/>
+    </row>
+    <row r="166" spans="2:7">
+      <c r="B166" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C166" s="26"/>
+      <c r="D166" s="25"/>
+      <c r="E166" s="25"/>
+      <c r="F166" s="25"/>
+      <c r="G166" s="24"/>
+    </row>
+    <row r="167" spans="2:7">
+      <c r="B167" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="D167" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="E167" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="F167" s="20"/>
+      <c r="G167" s="19"/>
+    </row>
+    <row r="168" spans="2:7">
+      <c r="B168" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C168" s="20"/>
+      <c r="D168" s="27"/>
+      <c r="E168" s="20"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="19"/>
+    </row>
+    <row r="169" spans="2:7">
+      <c r="B169" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C169" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D169" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E169" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F169" s="14"/>
+      <c r="G169" s="11"/>
+    </row>
+    <row r="170" spans="2:7">
+      <c r="B170" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="D170" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="E170" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" s="20"/>
+      <c r="G170" s="19"/>
+    </row>
+    <row r="171" spans="2:7" ht="33">
+      <c r="B171" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C160" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F160" s="4"/>
-      <c r="G160" s="12"/>
-    </row>
-    <row r="161" spans="2:7">
-      <c r="B161" s="6" t="s">
+      <c r="C171" s="20"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="20"/>
+      <c r="F171" s="20"/>
+      <c r="G171" s="19"/>
+    </row>
+    <row r="172" spans="2:7">
+      <c r="B172" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C172" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="D172" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="E172" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="F172" s="20"/>
+      <c r="G172" s="19"/>
+    </row>
+    <row r="173" spans="2:7" ht="33">
+      <c r="B173" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C161" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F161" s="4"/>
-      <c r="G161" s="12"/>
-    </row>
-    <row r="162" spans="2:7">
-      <c r="B162" s="6" t="s">
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="19"/>
+    </row>
+    <row r="174" spans="2:7" ht="33">
+      <c r="B174" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C162" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F162" s="4"/>
-      <c r="G162" s="12"/>
-    </row>
-    <row r="163" spans="2:7">
-      <c r="B163" s="24" t="s">
+      <c r="C174" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="D174" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="E174" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" s="20"/>
+      <c r="G174" s="19"/>
+    </row>
+    <row r="175" spans="2:7">
+      <c r="B175" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C175" s="21"/>
+      <c r="D175" s="20"/>
+      <c r="E175" s="20"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="19"/>
+    </row>
+    <row r="176" spans="2:7">
+      <c r="B176" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C176" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D176" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="E176" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" s="14"/>
+      <c r="G176" s="11"/>
+    </row>
+    <row r="177" spans="2:7">
+      <c r="B177" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C177" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="D177" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="E177" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F177" s="14"/>
+      <c r="G177" s="11"/>
+    </row>
+    <row r="178" spans="2:7">
+      <c r="B178" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C178" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="D178" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="E178" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F178" s="14"/>
+      <c r="G178" s="11"/>
+    </row>
+    <row r="179" spans="2:7">
+      <c r="B179" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C179" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="D179" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="E179" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F179" s="20"/>
+      <c r="G179" s="19"/>
+    </row>
+    <row r="180" spans="2:7">
+      <c r="B180" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C180" s="20"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="19"/>
+    </row>
+    <row r="181" spans="2:7">
+      <c r="B181" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C181" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="D181" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="E181" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F181" s="14"/>
+      <c r="G181" s="11"/>
+    </row>
+    <row r="182" spans="2:7">
+      <c r="B182" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C182" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="D182" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="E182" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F182" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="G182" s="11">
+        <v>43791</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7">
+      <c r="B183" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C183" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="D183" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="E183" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F183" s="14"/>
+      <c r="G183" s="11"/>
+    </row>
+    <row r="184" spans="2:7">
+      <c r="B184" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C184" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="D184" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="E184" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="F184" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="G184" s="19">
+        <v>43791</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7">
+      <c r="B185" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C185" s="21"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="20"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="19"/>
+    </row>
+    <row r="186" spans="2:7">
+      <c r="B186" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C186" s="21"/>
+      <c r="D186" s="20"/>
+      <c r="E186" s="20"/>
+      <c r="F186" s="20"/>
+      <c r="G186" s="19"/>
+    </row>
+    <row r="187" spans="2:7">
+      <c r="B187" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C187" s="21"/>
+      <c r="D187" s="20"/>
+      <c r="E187" s="20"/>
+      <c r="F187" s="20"/>
+      <c r="G187" s="19"/>
+    </row>
+    <row r="188" spans="2:7">
+      <c r="B188" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C188" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D188" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="E188" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F188" s="14"/>
+      <c r="G188" s="11"/>
+    </row>
+    <row r="189" spans="2:7">
+      <c r="B189" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C189" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D189" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="E189" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F189" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="G189" s="11">
+        <v>43791</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7">
+      <c r="B190" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C190" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="D190" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="E190" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="F190" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="G190" s="19">
+        <v>43791</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7">
+      <c r="B191" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C163" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="D163" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E163" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F163" s="24"/>
-      <c r="G163" s="25"/>
-    </row>
-    <row r="164" spans="2:7">
-      <c r="B164" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="C164" s="24" t="s">
+      <c r="C191" s="21"/>
+      <c r="D191" s="20"/>
+      <c r="E191" s="20"/>
+      <c r="F191" s="20"/>
+      <c r="G191" s="19"/>
+    </row>
+    <row r="192" spans="2:7">
+      <c r="B192" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C192" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D192" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="E192" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F192" s="14"/>
+      <c r="G192" s="11"/>
+    </row>
+    <row r="193" spans="2:7">
+      <c r="B193" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C193" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="D193" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="E193" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F193" s="20"/>
+      <c r="G193" s="19"/>
+    </row>
+    <row r="194" spans="2:7" ht="33">
+      <c r="B194" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C194" s="20"/>
+      <c r="D194" s="20"/>
+      <c r="E194" s="20"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="19"/>
+    </row>
+    <row r="195" spans="2:7">
+      <c r="B195" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C195" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="D195" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E195" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F195" s="14"/>
+      <c r="G195" s="11"/>
+    </row>
+    <row r="196" spans="2:7">
+      <c r="B196" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="D164" s="24" t="s">
+      <c r="C196" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D196" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E196" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F196" s="20"/>
+      <c r="G196" s="19"/>
+    </row>
+    <row r="197" spans="2:7">
+      <c r="B197" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C197" s="20"/>
+      <c r="D197" s="20"/>
+      <c r="E197" s="20"/>
+      <c r="F197" s="20"/>
+      <c r="G197" s="19"/>
+    </row>
+    <row r="198" spans="2:7">
+      <c r="B198" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="E164" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="F164" s="24"/>
-      <c r="G164" s="25"/>
-    </row>
-    <row r="165" spans="2:7">
-      <c r="B165" s="24" t="s">
+      <c r="C198" s="20"/>
+      <c r="D198" s="20"/>
+      <c r="E198" s="20"/>
+      <c r="F198" s="20"/>
+      <c r="G198" s="19"/>
+    </row>
+    <row r="199" spans="2:7">
+      <c r="B199" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C199" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="D199" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="E199" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="F199" s="14"/>
+      <c r="G199" s="11"/>
+    </row>
+    <row r="200" spans="2:7">
+      <c r="B200" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C200" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="D200" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="E200" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F200" s="20"/>
+      <c r="G200" s="19"/>
+    </row>
+    <row r="201" spans="2:7">
+      <c r="B201" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C201" s="20"/>
+      <c r="D201" s="20"/>
+      <c r="E201" s="20"/>
+      <c r="F201" s="20"/>
+      <c r="G201" s="19"/>
+    </row>
+    <row r="202" spans="2:7">
+      <c r="B202" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C202" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="D202" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="E202" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F202" s="20"/>
+      <c r="G202" s="19"/>
+    </row>
+    <row r="203" spans="2:7">
+      <c r="B203" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C203" s="20"/>
+      <c r="D203" s="20"/>
+      <c r="E203" s="20"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="19"/>
+    </row>
+    <row r="204" spans="2:7">
+      <c r="B204" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C204" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="D204" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E204" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F204" s="20"/>
+      <c r="G204" s="19"/>
+    </row>
+    <row r="205" spans="2:7">
+      <c r="B205" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C205" s="20"/>
+      <c r="D205" s="20"/>
+      <c r="E205" s="20"/>
+      <c r="F205" s="20"/>
+      <c r="G205" s="19"/>
+    </row>
+    <row r="206" spans="2:7">
+      <c r="B206" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C206" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="D206" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E206" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="F206" s="14"/>
+      <c r="G206" s="11"/>
+    </row>
+    <row r="207" spans="2:7">
+      <c r="B207" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C207" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="D207" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="E207" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="F207" s="14"/>
+      <c r="G207" s="11"/>
+    </row>
+    <row r="208" spans="2:7">
+      <c r="B208" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C208" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="D208" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="E208" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F208" s="14"/>
+      <c r="G208" s="11"/>
+    </row>
+    <row r="209" spans="2:7">
+      <c r="B209" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C209" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D209" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="E209" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="F209" s="14"/>
+      <c r="G209" s="11"/>
+    </row>
+    <row r="210" spans="2:7">
+      <c r="B210" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C210" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="D210" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="E210" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F210" s="14"/>
+      <c r="G210" s="11"/>
+    </row>
+    <row r="211" spans="2:7">
+      <c r="B211" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C211" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="D211" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="E211" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F211" s="14"/>
+      <c r="G211" s="11"/>
+    </row>
+    <row r="212" spans="2:7">
+      <c r="B212" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C212" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="D212" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="E212" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F212" s="14"/>
+      <c r="G212" s="11"/>
+    </row>
+    <row r="213" spans="2:7" ht="33">
+      <c r="B213" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C165" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="D165" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="E165" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F165" s="24"/>
-      <c r="G165" s="25"/>
-    </row>
-    <row r="166" spans="2:7">
-      <c r="B166" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="C166" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D166" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="E166" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F166" s="26"/>
-      <c r="G166" s="27"/>
-    </row>
-    <row r="167" spans="2:7">
-      <c r="B167" s="24" t="s">
+      <c r="C213" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D213" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="E213" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F213" s="14"/>
+      <c r="G213" s="11"/>
+    </row>
+    <row r="214" spans="2:7" ht="33">
+      <c r="B214" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C167" s="26"/>
-      <c r="D167" s="26"/>
-      <c r="E167" s="26"/>
-      <c r="F167" s="26"/>
-      <c r="G167" s="27"/>
-    </row>
-    <row r="168" spans="2:7">
-      <c r="B168" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="C168" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D168" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="E168" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="F168" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="G168" s="27">
-        <v>43763</v>
-      </c>
-    </row>
-    <row r="169" spans="2:7">
-      <c r="B169" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="C169" s="23"/>
-      <c r="D169" s="26"/>
-      <c r="E169" s="26"/>
-      <c r="F169" s="26"/>
-      <c r="G169" s="27"/>
-    </row>
-    <row r="170" spans="2:7">
-      <c r="B170" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="C170" s="23"/>
-      <c r="D170" s="26"/>
-      <c r="E170" s="26"/>
-      <c r="F170" s="26"/>
-      <c r="G170" s="27"/>
+      <c r="C214" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="D214" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="E214" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F214" s="14"/>
+      <c r="G214" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:G170" xr:uid="{C1EE0C99-C2F8-4E13-983A-B3DCF9299796}"/>
-  <mergeCells count="230">
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="G138:G139"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G71:G72"/>
+  <autoFilter ref="B3:G214" xr:uid="{C1EE0C99-C2F8-4E13-983A-B3DCF9299796}"/>
+  <mergeCells count="280">
+    <mergeCell ref="C184:C187"/>
+    <mergeCell ref="D184:D187"/>
+    <mergeCell ref="E184:E187"/>
+    <mergeCell ref="F184:F187"/>
+    <mergeCell ref="G184:G187"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="G174:G175"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="G170:G171"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="G172:G173"/>
+    <mergeCell ref="G164:G166"/>
+    <mergeCell ref="F164:F166"/>
+    <mergeCell ref="E164:E166"/>
+    <mergeCell ref="D164:D166"/>
+    <mergeCell ref="C164:C166"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="B2:G2"/>
@@ -4017,181 +6161,64 @@
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G168:G170"/>
-    <mergeCell ref="F168:F170"/>
-    <mergeCell ref="E168:E170"/>
-    <mergeCell ref="D168:D170"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="G166:G167"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="G190:G191"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="G193:G194"/>
+    <mergeCell ref="G204:G205"/>
+    <mergeCell ref="G196:G198"/>
+    <mergeCell ref="F196:F198"/>
+    <mergeCell ref="E196:E198"/>
+    <mergeCell ref="D196:D198"/>
+    <mergeCell ref="C196:C198"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="F200:F201"/>
+    <mergeCell ref="G200:G201"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="G202:G203"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F204:F205"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4215,7 +6242,7 @@
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="5.25" customHeight="1"/>
@@ -4227,55 +6254,55 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>262</v>
+        <v>233</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="G3" s="11">
+        <v>234</v>
+      </c>
+      <c r="G3" s="10">
         <v>43728</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G4" s="11">
+        <v>250</v>
+      </c>
+      <c r="G4" s="10">
         <v>43728</v>
       </c>
     </row>
@@ -4284,4 +6311,89 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4BC76C-1F47-4CA9-80AD-987DBFB118FB}">
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="17.25" thickBot="1"/>
+    <row r="3" spans="2:3">
+      <c r="B3" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="30">
+        <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Deep Learning")</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="32">
+        <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Control &amp; Robotics")</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="32">
+        <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Neuroscience")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="32">
+        <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Safety")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="32">
+        <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Theory &amp; Foundations")</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="33">
+      <c r="B8" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="32">
+        <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Unsupervised Learning 
+&amp; Generative Models")</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="17.25" thickBot="1">
+      <c r="B9" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="C9" s="35">
+        <f>COUNTA('DeepMind Papers'!C4:C1048576)</f>
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Paper list.xlsx
+++ b/Paper list.xlsx
@@ -19,10 +19,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DeepMind Papers'!$B$3:$G$214</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Statistics!$B$3:$B$8</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Statistics!$C$3:$C$8</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Statistics!$B$3:$B$8</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Statistics!$C$3:$C$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1553,36 +1549,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1602,6 +1568,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2833,7 +2829,7 @@
   <dimension ref="B1:G214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -2849,14 +2845,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="5.25" customHeight="1"/>
     <row r="2" spans="2:7" ht="38.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>349</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="2:7" s="3" customFormat="1" ht="20.25">
       <c r="B3" s="2" t="s">
@@ -2898,45 +2894,45 @@
       <c r="B5" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="22"/>
+      <c r="E5" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="35"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="22"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="20" t="s">
+      <c r="E7" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="28">
         <v>43763</v>
       </c>
     </row>
@@ -2944,11 +2940,11 @@
       <c r="B8" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="19"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="6" t="s">
@@ -2970,27 +2966,27 @@
       <c r="B10" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
+      <c r="E10" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="6" t="s">
@@ -3012,53 +3008,53 @@
       <c r="B13" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="19"/>
+      <c r="E13" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="19"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="2:7" ht="33">
       <c r="B15" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="19"/>
+      <c r="E15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="19"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="6" t="s">
@@ -3112,27 +3108,27 @@
       <c r="B20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="19"/>
+      <c r="E20" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="19"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="6" t="s">
@@ -3154,79 +3150,79 @@
       <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="19"/>
+      <c r="E23" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="19"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="19"/>
+      <c r="E25" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
     </row>
     <row r="26" spans="2:7" ht="33">
       <c r="B26" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="19"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="19"/>
+      <c r="E27" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="28"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="19"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="28"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="6" t="s">
@@ -3248,53 +3244,53 @@
       <c r="B30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="19"/>
+      <c r="E30" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="19"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="28"/>
     </row>
     <row r="32" spans="2:7" ht="33">
       <c r="B32" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="19"/>
+      <c r="E32" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="27"/>
+      <c r="G32" s="28"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="19"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="28"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="6" t="s">
@@ -3316,53 +3312,53 @@
       <c r="B35" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="19"/>
+      <c r="E35" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="27"/>
+      <c r="G35" s="28"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="19"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="28"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="19"/>
+      <c r="E37" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="27"/>
+      <c r="G37" s="28"/>
     </row>
     <row r="38" spans="2:7" ht="33">
       <c r="B38" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="19"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="28"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="6" t="s">
@@ -3384,27 +3380,27 @@
       <c r="B40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="19"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="28"/>
     </row>
     <row r="41" spans="2:7" ht="33">
       <c r="B41" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="19"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="28"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="6" t="s">
@@ -3442,27 +3438,27 @@
       <c r="B44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="19"/>
+      <c r="E44" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="27"/>
+      <c r="G44" s="28"/>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="19"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="28"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="6" t="s">
@@ -3500,27 +3496,27 @@
       <c r="B48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="19"/>
+      <c r="E48" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="27"/>
+      <c r="G48" s="28"/>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="19"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="28"/>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="6" t="s">
@@ -3598,167 +3594,167 @@
       <c r="B55" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="20"/>
-      <c r="G55" s="19"/>
+      <c r="E55" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="27"/>
+      <c r="G55" s="28"/>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="19"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="28"/>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="20"/>
-      <c r="G57" s="19"/>
+      <c r="E57" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="27"/>
+      <c r="G57" s="28"/>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="19"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="28"/>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="E59" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="20"/>
-      <c r="G59" s="19"/>
+      <c r="E59" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="27"/>
+      <c r="G59" s="28"/>
     </row>
     <row r="60" spans="2:7" ht="33">
       <c r="B60" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="19"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="28"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="20"/>
-      <c r="G61" s="19"/>
+      <c r="E61" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="27"/>
+      <c r="G61" s="28"/>
     </row>
     <row r="62" spans="2:7" ht="33">
       <c r="B62" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="19"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="28"/>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="19"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="28"/>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D64" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E64" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="20"/>
-      <c r="G64" s="19"/>
+      <c r="E64" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="27"/>
+      <c r="G64" s="28"/>
     </row>
     <row r="65" spans="2:7" ht="33">
       <c r="B65" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="19"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="28"/>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D66" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E66" s="20" t="s">
+      <c r="E66" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F66" s="20"/>
-      <c r="G66" s="19"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="28"/>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="19"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="28"/>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="6" t="s">
@@ -3812,157 +3808,157 @@
       <c r="B71" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D71" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="20"/>
-      <c r="G71" s="19"/>
+      <c r="E71" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="27"/>
+      <c r="G71" s="28"/>
     </row>
     <row r="72" spans="2:7" ht="33">
       <c r="B72" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="19"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="28"/>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D73" s="20" t="s">
+      <c r="D73" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E73" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="20"/>
-      <c r="G73" s="19"/>
+      <c r="E73" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="27"/>
+      <c r="G73" s="28"/>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="19"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="28"/>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D75" s="20" t="s">
+      <c r="D75" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E75" s="20" t="s">
+      <c r="E75" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F75" s="23"/>
-      <c r="G75" s="19"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="28"/>
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="19"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="28"/>
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="20" t="s">
+      <c r="D77" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="E77" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="20"/>
-      <c r="G77" s="19"/>
+      <c r="E77" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="27"/>
+      <c r="G77" s="28"/>
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="19"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="28"/>
     </row>
     <row r="79" spans="2:7">
       <c r="B79" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D79" s="20" t="s">
+      <c r="D79" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E79" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="20"/>
-      <c r="G79" s="19"/>
+      <c r="E79" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="27"/>
+      <c r="G79" s="28"/>
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="19"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="28"/>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="20" t="s">
+      <c r="D81" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E81" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="20"/>
-      <c r="G81" s="19"/>
+      <c r="E81" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="27"/>
+      <c r="G81" s="28"/>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="19"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="28"/>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="6" t="s">
@@ -3984,27 +3980,27 @@
       <c r="B84" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D84" s="20" t="s">
+      <c r="D84" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="E84" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="20"/>
-      <c r="G84" s="19"/>
+      <c r="E84" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="27"/>
+      <c r="G84" s="28"/>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="19"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="28"/>
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="6" t="s">
@@ -4030,27 +4026,27 @@
       <c r="B87" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D87" s="20" t="s">
+      <c r="D87" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E87" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="20"/>
-      <c r="G87" s="19"/>
+      <c r="E87" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="27"/>
+      <c r="G87" s="28"/>
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="19"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="28"/>
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="6" t="s">
@@ -4072,27 +4068,27 @@
       <c r="B90" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D90" s="20" t="s">
+      <c r="D90" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="E90" s="20" t="s">
+      <c r="E90" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="F90" s="20"/>
-      <c r="G90" s="19"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="28"/>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="19"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="28"/>
     </row>
     <row r="92" spans="2:7">
       <c r="B92" s="6" t="s">
@@ -4166,27 +4162,27 @@
       <c r="B96" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="C96" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D96" s="20" t="s">
+      <c r="D96" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="E96" s="20" t="s">
+      <c r="E96" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="F96" s="20"/>
-      <c r="G96" s="19"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="28"/>
     </row>
     <row r="97" spans="2:7">
       <c r="B97" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="19"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="28"/>
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="6" t="s">
@@ -4228,16 +4224,16 @@
       <c r="B100" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C100" s="21" t="s">
+      <c r="C100" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="D100" s="20" t="s">
+      <c r="D100" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="E100" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="20" t="s">
+      <c r="E100" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="27" t="s">
         <v>252</v>
       </c>
       <c r="G100" s="11">
@@ -4248,10 +4244,10 @@
       <c r="B101" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C101" s="21"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="20"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
       <c r="G101" s="11"/>
     </row>
     <row r="102" spans="2:7">
@@ -4322,27 +4318,27 @@
       <c r="B106" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="C106" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D106" s="20" t="s">
+      <c r="D106" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="E106" s="20" t="s">
+      <c r="E106" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="F106" s="20"/>
-      <c r="G106" s="19"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="28"/>
     </row>
     <row r="107" spans="2:7" ht="33">
       <c r="B107" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="19"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="28"/>
     </row>
     <row r="108" spans="2:7">
       <c r="B108" s="6" t="s">
@@ -4368,53 +4364,53 @@
       <c r="B109" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C109" s="20" t="s">
+      <c r="C109" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="D109" s="20" t="s">
+      <c r="D109" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="E109" s="20" t="s">
+      <c r="E109" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="F109" s="20"/>
-      <c r="G109" s="19"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="28"/>
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C110" s="20"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="19"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="28"/>
     </row>
     <row r="111" spans="2:7">
       <c r="B111" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C111" s="20" t="s">
+      <c r="C111" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="D111" s="20" t="s">
+      <c r="D111" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="E111" s="20" t="s">
+      <c r="E111" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="F111" s="20"/>
-      <c r="G111" s="19"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="28"/>
     </row>
     <row r="112" spans="2:7">
       <c r="B112" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C112" s="20"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="19"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="28"/>
     </row>
     <row r="113" spans="2:7">
       <c r="B113" s="6" t="s">
@@ -4484,53 +4480,53 @@
       <c r="B117" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C117" s="20" t="s">
+      <c r="C117" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="D117" s="20" t="s">
+      <c r="D117" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="E117" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="20"/>
-      <c r="G117" s="19"/>
+      <c r="E117" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="27"/>
+      <c r="G117" s="28"/>
     </row>
     <row r="118" spans="2:7">
       <c r="B118" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C118" s="20"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="20"/>
-      <c r="G118" s="19"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="28"/>
     </row>
     <row r="119" spans="2:7">
       <c r="B119" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C119" s="20" t="s">
+      <c r="C119" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="D119" s="20" t="s">
+      <c r="D119" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="E119" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="20"/>
-      <c r="G119" s="19"/>
+      <c r="E119" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="27"/>
+      <c r="G119" s="28"/>
     </row>
     <row r="120" spans="2:7">
       <c r="B120" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C120" s="20"/>
-      <c r="D120" s="20"/>
-      <c r="E120" s="20"/>
-      <c r="F120" s="20"/>
-      <c r="G120" s="19"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="27"/>
+      <c r="G120" s="28"/>
     </row>
     <row r="121" spans="2:7">
       <c r="B121" s="6" t="s">
@@ -4632,27 +4628,27 @@
       <c r="B127" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C127" s="20" t="s">
+      <c r="C127" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="D127" s="20" t="s">
+      <c r="D127" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="E127" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="20"/>
-      <c r="G127" s="19"/>
+      <c r="E127" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="27"/>
+      <c r="G127" s="28"/>
     </row>
     <row r="128" spans="2:7">
       <c r="B128" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C128" s="20"/>
-      <c r="D128" s="20"/>
-      <c r="E128" s="20"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="19"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="28"/>
     </row>
     <row r="129" spans="2:7">
       <c r="B129" s="6" t="s">
@@ -4702,27 +4698,27 @@
       <c r="B132" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C132" s="20" t="s">
+      <c r="C132" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D132" s="20" t="s">
+      <c r="D132" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="E132" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="20"/>
-      <c r="G132" s="19"/>
+      <c r="E132" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="27"/>
+      <c r="G132" s="28"/>
     </row>
     <row r="133" spans="2:7">
       <c r="B133" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C133" s="20"/>
-      <c r="D133" s="20"/>
-      <c r="E133" s="20"/>
-      <c r="F133" s="20"/>
-      <c r="G133" s="19"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="27"/>
+      <c r="G133" s="28"/>
     </row>
     <row r="134" spans="2:7">
       <c r="B134" s="6" t="s">
@@ -4760,27 +4756,27 @@
       <c r="B136" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C136" s="20" t="s">
+      <c r="C136" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="D136" s="20" t="s">
+      <c r="D136" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="E136" s="20" t="s">
+      <c r="E136" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F136" s="20"/>
-      <c r="G136" s="19"/>
+      <c r="F136" s="27"/>
+      <c r="G136" s="28"/>
     </row>
     <row r="137" spans="2:7">
       <c r="B137" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C137" s="20"/>
-      <c r="D137" s="20"/>
-      <c r="E137" s="20"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="19"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="27"/>
+      <c r="E137" s="27"/>
+      <c r="F137" s="27"/>
+      <c r="G137" s="28"/>
     </row>
     <row r="138" spans="2:7" ht="33">
       <c r="B138" s="7" t="s">
@@ -4874,27 +4870,27 @@
       <c r="B143" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C143" s="20" t="s">
+      <c r="C143" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="D143" s="20" t="s">
+      <c r="D143" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="E143" s="20" t="s">
+      <c r="E143" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F143" s="20"/>
-      <c r="G143" s="19"/>
+      <c r="F143" s="27"/>
+      <c r="G143" s="28"/>
     </row>
     <row r="144" spans="2:7" ht="33">
       <c r="B144" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C144" s="20"/>
-      <c r="D144" s="20"/>
-      <c r="E144" s="20"/>
-      <c r="F144" s="20"/>
-      <c r="G144" s="19"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="27"/>
+      <c r="E144" s="27"/>
+      <c r="F144" s="27"/>
+      <c r="G144" s="28"/>
     </row>
     <row r="145" spans="2:7" ht="33">
       <c r="B145" s="7" t="s">
@@ -4972,27 +4968,27 @@
       <c r="B149" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C149" s="20" t="s">
+      <c r="C149" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="D149" s="20" t="s">
+      <c r="D149" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="E149" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="20"/>
-      <c r="G149" s="19"/>
+      <c r="E149" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="27"/>
+      <c r="G149" s="28"/>
     </row>
     <row r="150" spans="2:7" ht="33">
       <c r="B150" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C150" s="20"/>
-      <c r="D150" s="20"/>
-      <c r="E150" s="20"/>
-      <c r="F150" s="20"/>
-      <c r="G150" s="19"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27"/>
+      <c r="F150" s="27"/>
+      <c r="G150" s="28"/>
     </row>
     <row r="151" spans="2:7">
       <c r="B151" s="6" t="s">
@@ -5206,19 +5202,19 @@
       <c r="B164" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C164" s="26" t="s">
+      <c r="C164" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D164" s="25" t="s">
+      <c r="D164" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="E164" s="25" t="s">
+      <c r="E164" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="F164" s="25" t="s">
+      <c r="F164" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="G164" s="24">
+      <c r="G164" s="30">
         <v>43763</v>
       </c>
     </row>
@@ -5226,47 +5222,47 @@
       <c r="B165" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C165" s="26"/>
-      <c r="D165" s="25"/>
-      <c r="E165" s="25"/>
-      <c r="F165" s="25"/>
-      <c r="G165" s="24"/>
+      <c r="C165" s="32"/>
+      <c r="D165" s="31"/>
+      <c r="E165" s="31"/>
+      <c r="F165" s="31"/>
+      <c r="G165" s="30"/>
     </row>
     <row r="166" spans="2:7">
       <c r="B166" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="C166" s="26"/>
-      <c r="D166" s="25"/>
-      <c r="E166" s="25"/>
-      <c r="F166" s="25"/>
-      <c r="G166" s="24"/>
+      <c r="C166" s="32"/>
+      <c r="D166" s="31"/>
+      <c r="E166" s="31"/>
+      <c r="F166" s="31"/>
+      <c r="G166" s="30"/>
     </row>
     <row r="167" spans="2:7">
       <c r="B167" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C167" s="20" t="s">
+      <c r="C167" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="D167" s="27" t="s">
+      <c r="D167" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="E167" s="20" t="s">
+      <c r="E167" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="F167" s="20"/>
-      <c r="G167" s="19"/>
+      <c r="F167" s="27"/>
+      <c r="G167" s="28"/>
     </row>
     <row r="168" spans="2:7">
       <c r="B168" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C168" s="20"/>
-      <c r="D168" s="27"/>
-      <c r="E168" s="20"/>
-      <c r="F168" s="20"/>
-      <c r="G168" s="19"/>
+      <c r="C168" s="27"/>
+      <c r="D168" s="29"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="27"/>
+      <c r="G168" s="28"/>
     </row>
     <row r="169" spans="2:7">
       <c r="B169" s="14" t="s">
@@ -5288,79 +5284,79 @@
       <c r="B170" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C170" s="20" t="s">
+      <c r="C170" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D170" s="20" t="s">
+      <c r="D170" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="E170" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F170" s="20"/>
-      <c r="G170" s="19"/>
+      <c r="E170" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" s="27"/>
+      <c r="G170" s="28"/>
     </row>
     <row r="171" spans="2:7" ht="33">
       <c r="B171" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C171" s="20"/>
-      <c r="D171" s="20"/>
-      <c r="E171" s="20"/>
-      <c r="F171" s="20"/>
-      <c r="G171" s="19"/>
+      <c r="C171" s="27"/>
+      <c r="D171" s="27"/>
+      <c r="E171" s="27"/>
+      <c r="F171" s="27"/>
+      <c r="G171" s="28"/>
     </row>
     <row r="172" spans="2:7">
       <c r="B172" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="20" t="s">
+      <c r="C172" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D172" s="27" t="s">
+      <c r="D172" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="E172" s="20" t="s">
+      <c r="E172" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="F172" s="20"/>
-      <c r="G172" s="19"/>
+      <c r="F172" s="27"/>
+      <c r="G172" s="28"/>
     </row>
     <row r="173" spans="2:7" ht="33">
       <c r="B173" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C173" s="20"/>
-      <c r="D173" s="20"/>
-      <c r="E173" s="20"/>
-      <c r="F173" s="20"/>
-      <c r="G173" s="19"/>
+      <c r="C173" s="27"/>
+      <c r="D173" s="27"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="27"/>
+      <c r="G173" s="28"/>
     </row>
     <row r="174" spans="2:7" ht="33">
       <c r="B174" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C174" s="21" t="s">
+      <c r="C174" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="D174" s="20" t="s">
+      <c r="D174" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="E174" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F174" s="20"/>
-      <c r="G174" s="19"/>
+      <c r="E174" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" s="27"/>
+      <c r="G174" s="28"/>
     </row>
     <row r="175" spans="2:7">
       <c r="B175" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C175" s="21"/>
-      <c r="D175" s="20"/>
-      <c r="E175" s="20"/>
-      <c r="F175" s="20"/>
-      <c r="G175" s="19"/>
+      <c r="C175" s="26"/>
+      <c r="D175" s="27"/>
+      <c r="E175" s="27"/>
+      <c r="F175" s="27"/>
+      <c r="G175" s="28"/>
     </row>
     <row r="176" spans="2:7">
       <c r="B176" s="14" t="s">
@@ -5414,27 +5410,27 @@
       <c r="B179" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C179" s="20" t="s">
+      <c r="C179" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="D179" s="20" t="s">
+      <c r="D179" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="E179" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F179" s="20"/>
-      <c r="G179" s="19"/>
+      <c r="E179" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F179" s="27"/>
+      <c r="G179" s="28"/>
     </row>
     <row r="180" spans="2:7">
       <c r="B180" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C180" s="20"/>
-      <c r="D180" s="20"/>
-      <c r="E180" s="20"/>
-      <c r="F180" s="20"/>
-      <c r="G180" s="19"/>
+      <c r="C180" s="27"/>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="28"/>
     </row>
     <row r="181" spans="2:7">
       <c r="B181" s="14" t="s">
@@ -5492,19 +5488,19 @@
       <c r="B184" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C184" s="21" t="s">
+      <c r="C184" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="D184" s="20" t="s">
+      <c r="D184" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="E184" s="20" t="s">
+      <c r="E184" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="F184" s="20" t="s">
+      <c r="F184" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="G184" s="19">
+      <c r="G184" s="28">
         <v>43791</v>
       </c>
     </row>
@@ -5512,31 +5508,31 @@
       <c r="B185" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="C185" s="21"/>
-      <c r="D185" s="20"/>
-      <c r="E185" s="20"/>
-      <c r="F185" s="20"/>
-      <c r="G185" s="19"/>
+      <c r="C185" s="26"/>
+      <c r="D185" s="27"/>
+      <c r="E185" s="27"/>
+      <c r="F185" s="27"/>
+      <c r="G185" s="28"/>
     </row>
     <row r="186" spans="2:7">
       <c r="B186" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C186" s="21"/>
-      <c r="D186" s="20"/>
-      <c r="E186" s="20"/>
-      <c r="F186" s="20"/>
-      <c r="G186" s="19"/>
+      <c r="C186" s="26"/>
+      <c r="D186" s="27"/>
+      <c r="E186" s="27"/>
+      <c r="F186" s="27"/>
+      <c r="G186" s="28"/>
     </row>
     <row r="187" spans="2:7">
       <c r="B187" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C187" s="21"/>
-      <c r="D187" s="20"/>
-      <c r="E187" s="20"/>
-      <c r="F187" s="20"/>
-      <c r="G187" s="19"/>
+      <c r="C187" s="26"/>
+      <c r="D187" s="27"/>
+      <c r="E187" s="27"/>
+      <c r="F187" s="27"/>
+      <c r="G187" s="28"/>
     </row>
     <row r="188" spans="2:7">
       <c r="B188" s="14" t="s">
@@ -5578,19 +5574,19 @@
       <c r="B190" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="C190" s="21" t="s">
+      <c r="C190" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="D190" s="20" t="s">
+      <c r="D190" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="E190" s="20" t="s">
+      <c r="E190" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="F190" s="20" t="s">
+      <c r="F190" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="G190" s="19">
+      <c r="G190" s="28">
         <v>43791</v>
       </c>
     </row>
@@ -5598,11 +5594,11 @@
       <c r="B191" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C191" s="21"/>
-      <c r="D191" s="20"/>
-      <c r="E191" s="20"/>
-      <c r="F191" s="20"/>
-      <c r="G191" s="19"/>
+      <c r="C191" s="26"/>
+      <c r="D191" s="27"/>
+      <c r="E191" s="27"/>
+      <c r="F191" s="27"/>
+      <c r="G191" s="28"/>
     </row>
     <row r="192" spans="2:7">
       <c r="B192" s="14" t="s">
@@ -5624,27 +5620,27 @@
       <c r="B193" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="C193" s="20" t="s">
+      <c r="C193" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="D193" s="20" t="s">
+      <c r="D193" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="E193" s="20" t="s">
+      <c r="E193" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="F193" s="20"/>
-      <c r="G193" s="19"/>
+      <c r="F193" s="27"/>
+      <c r="G193" s="28"/>
     </row>
     <row r="194" spans="2:7" ht="33">
       <c r="B194" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C194" s="20"/>
-      <c r="D194" s="20"/>
-      <c r="E194" s="20"/>
-      <c r="F194" s="20"/>
-      <c r="G194" s="19"/>
+      <c r="C194" s="27"/>
+      <c r="D194" s="27"/>
+      <c r="E194" s="27"/>
+      <c r="F194" s="27"/>
+      <c r="G194" s="28"/>
     </row>
     <row r="195" spans="2:7">
       <c r="B195" s="14" t="s">
@@ -5666,37 +5662,37 @@
       <c r="B196" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C196" s="20" t="s">
+      <c r="C196" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="D196" s="20" t="s">
+      <c r="D196" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="E196" s="20" t="s">
+      <c r="E196" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="F196" s="20"/>
-      <c r="G196" s="19"/>
+      <c r="F196" s="27"/>
+      <c r="G196" s="28"/>
     </row>
     <row r="197" spans="2:7">
       <c r="B197" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C197" s="20"/>
-      <c r="D197" s="20"/>
-      <c r="E197" s="20"/>
-      <c r="F197" s="20"/>
-      <c r="G197" s="19"/>
+      <c r="C197" s="27"/>
+      <c r="D197" s="27"/>
+      <c r="E197" s="27"/>
+      <c r="F197" s="27"/>
+      <c r="G197" s="28"/>
     </row>
     <row r="198" spans="2:7">
       <c r="B198" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C198" s="20"/>
-      <c r="D198" s="20"/>
-      <c r="E198" s="20"/>
-      <c r="F198" s="20"/>
-      <c r="G198" s="19"/>
+      <c r="C198" s="27"/>
+      <c r="D198" s="27"/>
+      <c r="E198" s="27"/>
+      <c r="F198" s="27"/>
+      <c r="G198" s="28"/>
     </row>
     <row r="199" spans="2:7">
       <c r="B199" s="14" t="s">
@@ -5718,79 +5714,79 @@
       <c r="B200" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C200" s="20" t="s">
+      <c r="C200" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="D200" s="20" t="s">
+      <c r="D200" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="E200" s="20" t="s">
+      <c r="E200" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="F200" s="20"/>
-      <c r="G200" s="19"/>
+      <c r="F200" s="27"/>
+      <c r="G200" s="28"/>
     </row>
     <row r="201" spans="2:7">
       <c r="B201" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C201" s="20"/>
-      <c r="D201" s="20"/>
-      <c r="E201" s="20"/>
-      <c r="F201" s="20"/>
-      <c r="G201" s="19"/>
+      <c r="C201" s="27"/>
+      <c r="D201" s="27"/>
+      <c r="E201" s="27"/>
+      <c r="F201" s="27"/>
+      <c r="G201" s="28"/>
     </row>
     <row r="202" spans="2:7">
       <c r="B202" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C202" s="20" t="s">
+      <c r="C202" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="D202" s="20" t="s">
+      <c r="D202" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="E202" s="20" t="s">
+      <c r="E202" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="F202" s="20"/>
-      <c r="G202" s="19"/>
+      <c r="F202" s="27"/>
+      <c r="G202" s="28"/>
     </row>
     <row r="203" spans="2:7">
       <c r="B203" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C203" s="20"/>
-      <c r="D203" s="20"/>
-      <c r="E203" s="20"/>
-      <c r="F203" s="20"/>
-      <c r="G203" s="19"/>
+      <c r="C203" s="27"/>
+      <c r="D203" s="27"/>
+      <c r="E203" s="27"/>
+      <c r="F203" s="27"/>
+      <c r="G203" s="28"/>
     </row>
     <row r="204" spans="2:7">
       <c r="B204" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C204" s="20" t="s">
+      <c r="C204" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="D204" s="20" t="s">
+      <c r="D204" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="E204" s="20" t="s">
+      <c r="E204" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="F204" s="20"/>
-      <c r="G204" s="19"/>
+      <c r="F204" s="27"/>
+      <c r="G204" s="28"/>
     </row>
     <row r="205" spans="2:7">
       <c r="B205" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C205" s="20"/>
-      <c r="D205" s="20"/>
-      <c r="E205" s="20"/>
-      <c r="F205" s="20"/>
-      <c r="G205" s="19"/>
+      <c r="C205" s="27"/>
+      <c r="D205" s="27"/>
+      <c r="E205" s="27"/>
+      <c r="F205" s="27"/>
+      <c r="G205" s="28"/>
     </row>
     <row r="206" spans="2:7">
       <c r="B206" s="14" t="s">
@@ -5939,77 +5935,191 @@
   </sheetData>
   <autoFilter ref="B3:G214" xr:uid="{C1EE0C99-C2F8-4E13-983A-B3DCF9299796}"/>
   <mergeCells count="280">
-    <mergeCell ref="C184:C187"/>
-    <mergeCell ref="D184:D187"/>
-    <mergeCell ref="E184:E187"/>
-    <mergeCell ref="F184:F187"/>
-    <mergeCell ref="G184:G187"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="G174:G175"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="E179:E180"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="G179:G180"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="G170:G171"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="G172:G173"/>
-    <mergeCell ref="G164:G166"/>
-    <mergeCell ref="F164:F166"/>
-    <mergeCell ref="E164:E166"/>
-    <mergeCell ref="D164:D166"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G204:G205"/>
+    <mergeCell ref="G196:G198"/>
+    <mergeCell ref="F196:F198"/>
+    <mergeCell ref="E196:E198"/>
+    <mergeCell ref="D196:D198"/>
+    <mergeCell ref="C196:C198"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="F200:F201"/>
+    <mergeCell ref="G200:G201"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="G202:G203"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="G190:G191"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="G193:G194"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="C106:C107"/>
     <mergeCell ref="E149:E150"/>
     <mergeCell ref="D149:D150"/>
     <mergeCell ref="C149:C150"/>
@@ -6034,191 +6144,77 @@
     <mergeCell ref="C136:C137"/>
     <mergeCell ref="E90:E91"/>
     <mergeCell ref="D90:D91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="G190:G191"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="E193:E194"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="G193:G194"/>
-    <mergeCell ref="G204:G205"/>
-    <mergeCell ref="G196:G198"/>
-    <mergeCell ref="F196:F198"/>
-    <mergeCell ref="E196:E198"/>
-    <mergeCell ref="D196:D198"/>
-    <mergeCell ref="C196:C198"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="G200:G201"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="G202:G203"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G164:G166"/>
+    <mergeCell ref="F164:F166"/>
+    <mergeCell ref="E164:E166"/>
+    <mergeCell ref="D164:D166"/>
+    <mergeCell ref="C164:C166"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="G170:G171"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="G172:G173"/>
+    <mergeCell ref="C184:C187"/>
+    <mergeCell ref="D184:D187"/>
+    <mergeCell ref="E184:E187"/>
+    <mergeCell ref="F184:F187"/>
+    <mergeCell ref="G184:G187"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="G174:G175"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="G179:G180"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6328,65 +6324,65 @@
   <sheetData>
     <row r="2" spans="2:3" ht="17.25" thickBot="1"/>
     <row r="3" spans="2:3">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="20">
         <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Deep Learning")</f>
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="22">
         <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Control &amp; Robotics")</f>
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="22">
         <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Neuroscience")</f>
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="22">
         <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Safety")</f>
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="22">
         <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Theory &amp; Foundations")</f>
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="33">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="22">
         <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Unsupervised Learning 
 &amp; Generative Models")</f>
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="17.25" thickBot="1">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="24" t="s">
         <v>347</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="25">
         <f>COUNTA('DeepMind Papers'!C4:C1048576)</f>
         <v>150</v>
       </c>

--- a/Paper list.xlsx
+++ b/Paper list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - KoreaUniv\0.PhD\5.RLRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="336" documentId="6_{D17AB417-2265-4FB7-882A-29F92970DF89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{136A98DC-4E90-4B44-BF68-02399DA5E3E0}"/>
+  <xr:revisionPtr revIDLastSave="341" documentId="6_{D17AB417-2265-4FB7-882A-29F92970DF89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{754B2143-87A9-420E-9A8F-9636E9AEBD0D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
+    <workbookView xWindow="5025" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
   </bookViews>
   <sheets>
     <sheet name="DeepMind Papers" sheetId="1" r:id="rId1"/>
@@ -369,9 +369,6 @@
   </si>
   <si>
     <t>Dhruva Tirumala, H Noh, et al.</t>
-  </si>
-  <si>
-    <t>Simultaneously Learning Vision and Feature-based Control Policies for Real-world Ball-in-a-Cup</t>
   </si>
   <si>
     <t>Devin Schwab, Jost Tobias Springenberg, et al.</t>
@@ -1236,6 +1233,10 @@
   </si>
   <si>
     <t>Papers of DeepMind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simultaneously Learning Vision and Feature-based Control Policies for Real-world Ball-in-a-Cup</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1570,17 +1571,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1591,14 +1598,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2845,14 +2846,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="5.25" customHeight="1"/>
     <row r="2" spans="2:7" ht="38.25">
-      <c r="B2" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="B2" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="2:7" s="3" customFormat="1" ht="20.25">
       <c r="B3" s="2" t="s">
@@ -2862,16 +2863,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -2879,7 +2880,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>1</v>
@@ -2892,10 +2893,10 @@
     </row>
     <row r="5" spans="2:7" ht="33">
       <c r="B5" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>3</v>
@@ -2904,7 +2905,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="27"/>
-      <c r="G5" s="35"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="7" t="s">
@@ -2914,13 +2915,13 @@
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="35"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="27" t="s">
@@ -2930,21 +2931,21 @@
         <v>11</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="G7" s="28">
+        <v>251</v>
+      </c>
+      <c r="G7" s="26">
         <v>43763</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C8" s="26"/>
+        <v>266</v>
+      </c>
+      <c r="C8" s="28"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="6" t="s">
@@ -2964,7 +2965,7 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>9</v>
@@ -2976,7 +2977,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="7" t="s">
@@ -2986,7 +2987,7 @@
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="6" t="s">
@@ -3006,7 +3007,7 @@
     </row>
     <row r="13" spans="2:7" ht="33">
       <c r="B13" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>14</v>
@@ -3018,7 +3019,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="7" t="s">
@@ -3028,11 +3029,11 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="2:7" ht="33">
       <c r="B15" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>16</v>
@@ -3044,7 +3045,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="7" t="s">
@@ -3054,7 +3055,7 @@
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="6" t="s">
@@ -3118,17 +3119,17 @@
         <v>11</v>
       </c>
       <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="6" t="s">
@@ -3160,24 +3161,24 @@
         <v>11</v>
       </c>
       <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>31</v>
@@ -3186,17 +3187,17 @@
         <v>11</v>
       </c>
       <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="2:7" ht="33">
       <c r="B26" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="7" t="s">
@@ -3211,18 +3212,18 @@
       <c r="E27" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="28"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="28"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="6" t="s">
@@ -3254,21 +3255,21 @@
         <v>11</v>
       </c>
       <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
-      <c r="G31" s="28"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="2:7" ht="33">
       <c r="B32" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>38</v>
@@ -3280,7 +3281,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="7" t="s">
@@ -3290,7 +3291,7 @@
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
-      <c r="G33" s="28"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="6" t="s">
@@ -3310,7 +3311,7 @@
     </row>
     <row r="35" spans="2:7" ht="33">
       <c r="B35" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>42</v>
@@ -3322,7 +3323,7 @@
         <v>11</v>
       </c>
       <c r="F35" s="27"/>
-      <c r="G35" s="28"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="7" t="s">
@@ -3332,7 +3333,7 @@
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
-      <c r="G36" s="28"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="7" t="s">
@@ -3348,17 +3349,17 @@
         <v>11</v>
       </c>
       <c r="F37" s="27"/>
-      <c r="G37" s="28"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" spans="2:7" ht="33">
       <c r="B38" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="28"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="6" t="s">
@@ -3390,17 +3391,17 @@
         <v>24</v>
       </c>
       <c r="F40" s="27"/>
-      <c r="G40" s="28"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="2:7" ht="33">
       <c r="B41" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
       <c r="F41" s="27"/>
-      <c r="G41" s="28"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="6" t="s">
@@ -3448,17 +3449,17 @@
         <v>11</v>
       </c>
       <c r="F44" s="27"/>
-      <c r="G44" s="28"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="28"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="6" t="s">
@@ -3506,17 +3507,17 @@
         <v>11</v>
       </c>
       <c r="F48" s="27"/>
-      <c r="G48" s="28"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
       <c r="F49" s="27"/>
-      <c r="G49" s="28"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="6" t="s">
@@ -3552,7 +3553,7 @@
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>67</v>
@@ -3564,7 +3565,7 @@
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>68</v>
@@ -3604,17 +3605,17 @@
         <v>11</v>
       </c>
       <c r="F55" s="27"/>
-      <c r="G55" s="28"/>
+      <c r="G55" s="26"/>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="28"/>
+      <c r="G56" s="26"/>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="7" t="s">
@@ -3630,17 +3631,17 @@
         <v>11</v>
       </c>
       <c r="F57" s="27"/>
-      <c r="G57" s="28"/>
+      <c r="G57" s="26"/>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
       <c r="E58" s="27"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="28"/>
+      <c r="G58" s="26"/>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="7" t="s">
@@ -3656,17 +3657,17 @@
         <v>11</v>
       </c>
       <c r="F59" s="27"/>
-      <c r="G59" s="28"/>
+      <c r="G59" s="26"/>
     </row>
     <row r="60" spans="2:7" ht="33">
       <c r="B60" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
       <c r="E60" s="27"/>
       <c r="F60" s="27"/>
-      <c r="G60" s="28"/>
+      <c r="G60" s="26"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="7" t="s">
@@ -3682,27 +3683,27 @@
         <v>11</v>
       </c>
       <c r="F61" s="27"/>
-      <c r="G61" s="28"/>
+      <c r="G61" s="26"/>
     </row>
     <row r="62" spans="2:7" ht="33">
       <c r="B62" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
       <c r="E62" s="27"/>
       <c r="F62" s="27"/>
-      <c r="G62" s="28"/>
+      <c r="G62" s="26"/>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
-      <c r="G63" s="28"/>
+      <c r="G63" s="26"/>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="7" t="s">
@@ -3718,17 +3719,17 @@
         <v>11</v>
       </c>
       <c r="F64" s="27"/>
-      <c r="G64" s="28"/>
+      <c r="G64" s="26"/>
     </row>
     <row r="65" spans="2:7" ht="33">
       <c r="B65" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
       <c r="F65" s="27"/>
-      <c r="G65" s="28"/>
+      <c r="G65" s="26"/>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="7" t="s">
@@ -3744,17 +3745,17 @@
         <v>83</v>
       </c>
       <c r="F66" s="27"/>
-      <c r="G66" s="28"/>
+      <c r="G66" s="26"/>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
       <c r="F67" s="27"/>
-      <c r="G67" s="28"/>
+      <c r="G67" s="26"/>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="6" t="s">
@@ -3818,21 +3819,21 @@
         <v>11</v>
       </c>
       <c r="F71" s="27"/>
-      <c r="G71" s="28"/>
+      <c r="G71" s="26"/>
     </row>
     <row r="72" spans="2:7" ht="33">
       <c r="B72" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
       <c r="E72" s="27"/>
       <c r="F72" s="27"/>
-      <c r="G72" s="28"/>
+      <c r="G72" s="26"/>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C73" s="27" t="s">
         <v>93</v>
@@ -3844,7 +3845,7 @@
         <v>11</v>
       </c>
       <c r="F73" s="27"/>
-      <c r="G73" s="28"/>
+      <c r="G73" s="26"/>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="7" t="s">
@@ -3854,7 +3855,7 @@
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="27"/>
-      <c r="G74" s="28"/>
+      <c r="G74" s="26"/>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="7" t="s">
@@ -3869,22 +3870,22 @@
       <c r="E75" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F75" s="33"/>
-      <c r="G75" s="28"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="26"/>
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
       <c r="E76" s="27"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="28"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="26"/>
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C77" s="27" t="s">
         <v>98</v>
@@ -3896,21 +3897,21 @@
         <v>11</v>
       </c>
       <c r="F77" s="27"/>
-      <c r="G77" s="28"/>
+      <c r="G77" s="26"/>
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
       <c r="E78" s="27"/>
       <c r="F78" s="27"/>
-      <c r="G78" s="28"/>
+      <c r="G78" s="26"/>
     </row>
     <row r="79" spans="2:7">
       <c r="B79" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C79" s="27" t="s">
         <v>100</v>
@@ -3922,21 +3923,21 @@
         <v>11</v>
       </c>
       <c r="F79" s="27"/>
-      <c r="G79" s="28"/>
+      <c r="G79" s="26"/>
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
       <c r="E80" s="27"/>
       <c r="F80" s="27"/>
-      <c r="G80" s="28"/>
+      <c r="G80" s="26"/>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="27" t="s">
         <v>102</v>
@@ -3948,21 +3949,21 @@
         <v>11</v>
       </c>
       <c r="F81" s="27"/>
-      <c r="G81" s="28"/>
+      <c r="G81" s="26"/>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
       <c r="E82" s="27"/>
       <c r="F82" s="27"/>
-      <c r="G82" s="28"/>
+      <c r="G82" s="26"/>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>104</v>
@@ -3978,7 +3979,7 @@
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C84" s="27" t="s">
         <v>106</v>
@@ -3990,33 +3991,33 @@
         <v>11</v>
       </c>
       <c r="F84" s="27"/>
-      <c r="G84" s="28"/>
+      <c r="G84" s="26"/>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C85" s="27"/>
       <c r="D85" s="27"/>
       <c r="E85" s="27"/>
       <c r="F85" s="27"/>
-      <c r="G85" s="28"/>
+      <c r="G85" s="26"/>
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C86" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="D86" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D86" s="14" t="s">
-        <v>109</v>
-      </c>
       <c r="E86" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G86" s="11">
         <v>43791</v>
@@ -4024,39 +4025,39 @@
     </row>
     <row r="87" spans="2:7">
       <c r="B87" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C87" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D87" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D87" s="27" t="s">
-        <v>111</v>
-      </c>
       <c r="E87" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F87" s="27"/>
-      <c r="G87" s="28"/>
+      <c r="G87" s="26"/>
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C88" s="27"/>
       <c r="D88" s="27"/>
       <c r="E88" s="27"/>
       <c r="F88" s="27"/>
-      <c r="G88" s="28"/>
+      <c r="G88" s="26"/>
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C89" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>113</v>
       </c>
       <c r="E89" s="14" t="s">
         <v>11</v>
@@ -4066,77 +4067,77 @@
     </row>
     <row r="90" spans="2:7">
       <c r="B90" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C90" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D90" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D90" s="27" t="s">
+      <c r="E90" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="E90" s="27" t="s">
-        <v>116</v>
-      </c>
       <c r="F90" s="27"/>
-      <c r="G90" s="28"/>
+      <c r="G90" s="26"/>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C91" s="27"/>
       <c r="D91" s="27"/>
       <c r="E91" s="27"/>
       <c r="F91" s="27"/>
-      <c r="G91" s="28"/>
+      <c r="G91" s="26"/>
     </row>
     <row r="92" spans="2:7">
       <c r="B92" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C92" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D92" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D92" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E92" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F92" s="14"/>
       <c r="G92" s="11"/>
     </row>
     <row r="93" spans="2:7">
       <c r="B93" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C93" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D93" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="E93" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="E93" s="14" t="s">
-        <v>121</v>
       </c>
       <c r="F93" s="14"/>
       <c r="G93" s="11"/>
     </row>
     <row r="94" spans="2:7">
       <c r="B94" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E94" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G94" s="11">
         <v>43728</v>
@@ -4144,13 +4145,13 @@
     </row>
     <row r="95" spans="2:7">
       <c r="B95" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C95" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D95" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="D95" s="14" t="s">
-        <v>124</v>
       </c>
       <c r="E95" s="14" t="s">
         <v>11</v>
@@ -4160,45 +4161,45 @@
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C96" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D96" s="27" t="s">
+      <c r="E96" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="E96" s="27" t="s">
-        <v>127</v>
-      </c>
       <c r="F96" s="27"/>
-      <c r="G96" s="28"/>
+      <c r="G96" s="26"/>
     </row>
     <row r="97" spans="2:7">
       <c r="B97" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C97" s="27"/>
       <c r="D97" s="27"/>
       <c r="E97" s="27"/>
       <c r="F97" s="27"/>
-      <c r="G97" s="28"/>
+      <c r="G97" s="26"/>
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C98" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D98" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D98" s="14" t="s">
-        <v>129</v>
-      </c>
       <c r="E98" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G98" s="11">
         <v>43784</v>
@@ -4206,13 +4207,13 @@
     </row>
     <row r="99" spans="2:7">
       <c r="B99" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C99" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D99" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>131</v>
       </c>
       <c r="E99" s="14" t="s">
         <v>11</v>
@@ -4222,19 +4223,19 @@
     </row>
     <row r="100" spans="2:7">
       <c r="B100" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C100" s="26" t="s">
-        <v>254</v>
+        <v>240</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>253</v>
       </c>
       <c r="D100" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E100" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F100" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G100" s="11">
         <v>43728</v>
@@ -4242,9 +4243,9 @@
     </row>
     <row r="101" spans="2:7">
       <c r="B101" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C101" s="26"/>
+        <v>242</v>
+      </c>
+      <c r="C101" s="28"/>
       <c r="D101" s="27"/>
       <c r="E101" s="27"/>
       <c r="F101" s="27"/>
@@ -4252,13 +4253,13 @@
     </row>
     <row r="102" spans="2:7">
       <c r="B102" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C102" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D102" s="14" t="s">
         <v>133</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>134</v>
       </c>
       <c r="E102" s="14" t="s">
         <v>11</v>
@@ -4268,29 +4269,29 @@
     </row>
     <row r="103" spans="2:7">
       <c r="B103" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C103" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D103" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D103" s="14" t="s">
+      <c r="E103" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="E103" s="14" t="s">
-        <v>137</v>
       </c>
       <c r="F103" s="14"/>
       <c r="G103" s="11"/>
     </row>
     <row r="104" spans="2:7">
       <c r="B104" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C104" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D104" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="D104" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="E104" s="14" t="s">
         <v>11</v>
@@ -4300,13 +4301,13 @@
     </row>
     <row r="105" spans="2:7">
       <c r="B105" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C105" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D105" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>141</v>
       </c>
       <c r="E105" s="14" t="s">
         <v>11</v>
@@ -4316,45 +4317,45 @@
     </row>
     <row r="106" spans="2:7">
       <c r="B106" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C106" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D106" s="27" t="s">
         <v>142</v>
-      </c>
-      <c r="D106" s="27" t="s">
-        <v>143</v>
       </c>
       <c r="E106" s="27" t="s">
         <v>90</v>
       </c>
       <c r="F106" s="27"/>
-      <c r="G106" s="28"/>
+      <c r="G106" s="26"/>
     </row>
     <row r="107" spans="2:7" ht="33">
       <c r="B107" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C107" s="27"/>
       <c r="D107" s="27"/>
       <c r="E107" s="27"/>
       <c r="F107" s="27"/>
-      <c r="G107" s="28"/>
+      <c r="G107" s="26"/>
     </row>
     <row r="108" spans="2:7">
       <c r="B108" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C108" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D108" s="14" t="s">
         <v>144</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>145</v>
       </c>
       <c r="E108" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G108" s="11">
         <v>43735</v>
@@ -4362,65 +4363,65 @@
     </row>
     <row r="109" spans="2:7">
       <c r="B109" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C109" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D109" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="D109" s="27" t="s">
-        <v>147</v>
-      </c>
       <c r="E109" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F109" s="27"/>
-      <c r="G109" s="28"/>
+      <c r="G109" s="26"/>
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C110" s="27"/>
       <c r="D110" s="27"/>
       <c r="E110" s="27"/>
       <c r="F110" s="27"/>
-      <c r="G110" s="28"/>
+      <c r="G110" s="26"/>
     </row>
     <row r="111" spans="2:7">
       <c r="B111" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C111" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D111" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="D111" s="27" t="s">
+      <c r="E111" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="E111" s="27" t="s">
-        <v>150</v>
-      </c>
       <c r="F111" s="27"/>
-      <c r="G111" s="28"/>
+      <c r="G111" s="26"/>
     </row>
     <row r="112" spans="2:7">
       <c r="B112" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C112" s="27"/>
       <c r="D112" s="27"/>
       <c r="E112" s="27"/>
       <c r="F112" s="27"/>
-      <c r="G112" s="28"/>
+      <c r="G112" s="26"/>
     </row>
     <row r="113" spans="2:7">
       <c r="B113" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C113" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D113" s="14" t="s">
         <v>151</v>
-      </c>
-      <c r="D113" s="14" t="s">
-        <v>152</v>
       </c>
       <c r="E113" s="14" t="s">
         <v>11</v>
@@ -4430,29 +4431,29 @@
     </row>
     <row r="114" spans="2:7">
       <c r="B114" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C114" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D114" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D114" s="14" t="s">
-        <v>154</v>
-      </c>
       <c r="E114" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F114" s="14"/>
       <c r="G114" s="11"/>
     </row>
     <row r="115" spans="2:7">
       <c r="B115" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C115" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D115" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="D115" s="14" t="s">
-        <v>156</v>
       </c>
       <c r="E115" s="14" t="s">
         <v>11</v>
@@ -4462,13 +4463,13 @@
     </row>
     <row r="116" spans="2:7">
       <c r="B116" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C116" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D116" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="D116" s="14" t="s">
-        <v>158</v>
       </c>
       <c r="E116" s="14" t="s">
         <v>11</v>
@@ -4478,65 +4479,65 @@
     </row>
     <row r="117" spans="2:7">
       <c r="B117" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C117" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D117" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="D117" s="27" t="s">
-        <v>160</v>
-      </c>
       <c r="E117" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F117" s="27"/>
-      <c r="G117" s="28"/>
+      <c r="G117" s="26"/>
     </row>
     <row r="118" spans="2:7">
       <c r="B118" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C118" s="27"/>
       <c r="D118" s="27"/>
       <c r="E118" s="27"/>
       <c r="F118" s="27"/>
-      <c r="G118" s="28"/>
+      <c r="G118" s="26"/>
     </row>
     <row r="119" spans="2:7">
       <c r="B119" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C119" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D119" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="D119" s="27" t="s">
-        <v>162</v>
-      </c>
       <c r="E119" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F119" s="27"/>
-      <c r="G119" s="28"/>
+      <c r="G119" s="26"/>
     </row>
     <row r="120" spans="2:7">
       <c r="B120" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C120" s="27"/>
       <c r="D120" s="27"/>
       <c r="E120" s="27"/>
       <c r="F120" s="27"/>
-      <c r="G120" s="28"/>
+      <c r="G120" s="26"/>
     </row>
     <row r="121" spans="2:7">
       <c r="B121" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C121" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D121" s="14" t="s">
         <v>163</v>
-      </c>
-      <c r="D121" s="14" t="s">
-        <v>164</v>
       </c>
       <c r="E121" s="14" t="s">
         <v>11</v>
@@ -4546,13 +4547,13 @@
     </row>
     <row r="122" spans="2:7">
       <c r="B122" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C122" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D122" s="14" t="s">
         <v>165</v>
-      </c>
-      <c r="D122" s="14" t="s">
-        <v>166</v>
       </c>
       <c r="E122" s="14" t="s">
         <v>11</v>
@@ -4562,13 +4563,13 @@
     </row>
     <row r="123" spans="2:7">
       <c r="B123" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C123" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D123" s="14" t="s">
         <v>167</v>
-      </c>
-      <c r="D123" s="14" t="s">
-        <v>168</v>
       </c>
       <c r="E123" s="14" t="s">
         <v>24</v>
@@ -4578,13 +4579,13 @@
     </row>
     <row r="124" spans="2:7">
       <c r="B124" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C124" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D124" s="14" t="s">
         <v>169</v>
-      </c>
-      <c r="D124" s="14" t="s">
-        <v>170</v>
       </c>
       <c r="E124" s="14" t="s">
         <v>11</v>
@@ -4594,13 +4595,13 @@
     </row>
     <row r="125" spans="2:7">
       <c r="B125" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C125" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D125" s="14" t="s">
         <v>171</v>
-      </c>
-      <c r="D125" s="14" t="s">
-        <v>172</v>
       </c>
       <c r="E125" s="14" t="s">
         <v>11</v>
@@ -4610,13 +4611,13 @@
     </row>
     <row r="126" spans="2:7">
       <c r="B126" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C126" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D126" s="14" t="s">
         <v>173</v>
-      </c>
-      <c r="D126" s="14" t="s">
-        <v>174</v>
       </c>
       <c r="E126" s="14" t="s">
         <v>11</v>
@@ -4626,36 +4627,36 @@
     </row>
     <row r="127" spans="2:7">
       <c r="B127" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C127" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D127" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="D127" s="27" t="s">
-        <v>176</v>
-      </c>
       <c r="E127" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F127" s="27"/>
-      <c r="G127" s="28"/>
+      <c r="G127" s="26"/>
     </row>
     <row r="128" spans="2:7">
       <c r="B128" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C128" s="27"/>
       <c r="D128" s="27"/>
       <c r="E128" s="27"/>
       <c r="F128" s="27"/>
-      <c r="G128" s="28"/>
+      <c r="G128" s="26"/>
     </row>
     <row r="129" spans="2:7">
       <c r="B129" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
@@ -4664,13 +4665,13 @@
     </row>
     <row r="130" spans="2:7">
       <c r="B130" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C130" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D130" s="14" t="s">
         <v>178</v>
-      </c>
-      <c r="D130" s="14" t="s">
-        <v>179</v>
       </c>
       <c r="E130" s="14" t="s">
         <v>11</v>
@@ -4680,13 +4681,13 @@
     </row>
     <row r="131" spans="2:7">
       <c r="B131" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C131" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D131" s="14" t="s">
         <v>180</v>
-      </c>
-      <c r="D131" s="14" t="s">
-        <v>181</v>
       </c>
       <c r="E131" s="14" t="s">
         <v>90</v>
@@ -4696,39 +4697,39 @@
     </row>
     <row r="132" spans="2:7">
       <c r="B132" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C132" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D132" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D132" s="27" t="s">
-        <v>183</v>
-      </c>
       <c r="E132" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F132" s="27"/>
-      <c r="G132" s="28"/>
+      <c r="G132" s="26"/>
     </row>
     <row r="133" spans="2:7">
       <c r="B133" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C133" s="27"/>
       <c r="D133" s="27"/>
       <c r="E133" s="27"/>
       <c r="F133" s="27"/>
-      <c r="G133" s="28"/>
+      <c r="G133" s="26"/>
     </row>
     <row r="134" spans="2:7">
       <c r="B134" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C134" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D134" s="14" t="s">
         <v>186</v>
-      </c>
-      <c r="D134" s="14" t="s">
-        <v>187</v>
       </c>
       <c r="E134" s="14" t="s">
         <v>90</v>
@@ -4738,13 +4739,13 @@
     </row>
     <row r="135" spans="2:7">
       <c r="B135" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C135" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D135" s="14" t="s">
         <v>188</v>
-      </c>
-      <c r="D135" s="14" t="s">
-        <v>189</v>
       </c>
       <c r="E135" s="14" t="s">
         <v>11</v>
@@ -4754,61 +4755,61 @@
     </row>
     <row r="136" spans="2:7" ht="33">
       <c r="B136" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C136" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D136" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D136" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E136" s="27" t="s">
         <v>83</v>
       </c>
       <c r="F136" s="27"/>
-      <c r="G136" s="28"/>
+      <c r="G136" s="26"/>
     </row>
     <row r="137" spans="2:7">
       <c r="B137" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C137" s="27"/>
       <c r="D137" s="27"/>
       <c r="E137" s="27"/>
       <c r="F137" s="27"/>
-      <c r="G137" s="28"/>
+      <c r="G137" s="26"/>
     </row>
     <row r="138" spans="2:7" ht="33">
       <c r="B138" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C138" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D138" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="D138" s="14" t="s">
+      <c r="E138" s="14" t="s">
         <v>193</v>
-      </c>
-      <c r="E138" s="14" t="s">
-        <v>194</v>
       </c>
       <c r="F138" s="14"/>
       <c r="G138" s="11"/>
     </row>
     <row r="139" spans="2:7" ht="33">
       <c r="B139" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C139" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D139" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D139" s="14" t="s">
-        <v>196</v>
-      </c>
       <c r="E139" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G139" s="11">
         <v>43735</v>
@@ -4816,29 +4817,29 @@
     </row>
     <row r="140" spans="2:7" ht="33">
       <c r="B140" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C140" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D140" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="D140" s="14" t="s">
-        <v>198</v>
-      </c>
       <c r="E140" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F140" s="14"/>
       <c r="G140" s="11"/>
     </row>
     <row r="141" spans="2:7" ht="33">
       <c r="B141" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C141" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D141" s="14" t="s">
         <v>199</v>
-      </c>
-      <c r="D141" s="14" t="s">
-        <v>200</v>
       </c>
       <c r="E141" s="14" t="s">
         <v>11</v>
@@ -4848,19 +4849,19 @@
     </row>
     <row r="142" spans="2:7" ht="33">
       <c r="B142" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C142" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D142" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="D142" s="14" t="s">
-        <v>202</v>
       </c>
       <c r="E142" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G142" s="11">
         <v>43735</v>
@@ -4868,36 +4869,36 @@
     </row>
     <row r="143" spans="2:7">
       <c r="B143" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C143" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D143" s="27" t="s">
         <v>203</v>
-      </c>
-      <c r="D143" s="27" t="s">
-        <v>204</v>
       </c>
       <c r="E143" s="27" t="s">
         <v>24</v>
       </c>
       <c r="F143" s="27"/>
-      <c r="G143" s="28"/>
+      <c r="G143" s="26"/>
     </row>
     <row r="144" spans="2:7" ht="33">
       <c r="B144" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C144" s="27"/>
       <c r="D144" s="27"/>
       <c r="E144" s="27"/>
       <c r="F144" s="27"/>
-      <c r="G144" s="28"/>
+      <c r="G144" s="26"/>
     </row>
     <row r="145" spans="2:7" ht="33">
       <c r="B145" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D145" s="14" t="s">
         <v>61</v>
@@ -4910,19 +4911,19 @@
     </row>
     <row r="146" spans="2:7" ht="33">
       <c r="B146" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E146" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F146" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G146" s="11">
         <v>43728</v>
@@ -4930,19 +4931,19 @@
     </row>
     <row r="147" spans="2:7" ht="33">
       <c r="B147" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E147" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F147" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G147" s="11">
         <v>43728</v>
@@ -4950,13 +4951,13 @@
     </row>
     <row r="148" spans="2:7" ht="33">
       <c r="B148" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C148" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D148" s="14" t="s">
         <v>208</v>
-      </c>
-      <c r="D148" s="14" t="s">
-        <v>209</v>
       </c>
       <c r="E148" s="14" t="s">
         <v>11</v>
@@ -4966,39 +4967,39 @@
     </row>
     <row r="149" spans="2:7">
       <c r="B149" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C149" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="D149" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="D149" s="27" t="s">
-        <v>211</v>
-      </c>
       <c r="E149" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F149" s="27"/>
-      <c r="G149" s="28"/>
+      <c r="G149" s="26"/>
     </row>
     <row r="150" spans="2:7" ht="33">
       <c r="B150" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C150" s="27"/>
       <c r="D150" s="27"/>
       <c r="E150" s="27"/>
       <c r="F150" s="27"/>
-      <c r="G150" s="28"/>
+      <c r="G150" s="26"/>
     </row>
     <row r="151" spans="2:7">
       <c r="B151" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C151" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D151" s="14" t="s">
         <v>212</v>
-      </c>
-      <c r="D151" s="14" t="s">
-        <v>213</v>
       </c>
       <c r="E151" s="14" t="s">
         <v>11</v>
@@ -5008,29 +5009,29 @@
     </row>
     <row r="152" spans="2:7">
       <c r="B152" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C152" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D152" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="D152" s="14" t="s">
+      <c r="E152" s="14" t="s">
         <v>215</v>
-      </c>
-      <c r="E152" s="14" t="s">
-        <v>216</v>
       </c>
       <c r="F152" s="14"/>
       <c r="G152" s="11"/>
     </row>
     <row r="153" spans="2:7">
       <c r="B153" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C153" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="D153" s="14" t="s">
         <v>217</v>
-      </c>
-      <c r="D153" s="14" t="s">
-        <v>218</v>
       </c>
       <c r="E153" s="14" t="s">
         <v>11</v>
@@ -5040,13 +5041,13 @@
     </row>
     <row r="154" spans="2:7">
       <c r="B154" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C154" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D154" s="14" t="s">
         <v>219</v>
-      </c>
-      <c r="D154" s="14" t="s">
-        <v>220</v>
       </c>
       <c r="E154" s="14" t="s">
         <v>11</v>
@@ -5056,13 +5057,13 @@
     </row>
     <row r="155" spans="2:7">
       <c r="B155" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C155" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D155" s="14" t="s">
         <v>221</v>
-      </c>
-      <c r="D155" s="14" t="s">
-        <v>222</v>
       </c>
       <c r="E155" s="14" t="s">
         <v>11</v>
@@ -5072,13 +5073,13 @@
     </row>
     <row r="156" spans="2:7">
       <c r="B156" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C156" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D156" s="14" t="s">
         <v>223</v>
-      </c>
-      <c r="D156" s="14" t="s">
-        <v>224</v>
       </c>
       <c r="E156" s="14" t="s">
         <v>11</v>
@@ -5088,13 +5089,13 @@
     </row>
     <row r="157" spans="2:7">
       <c r="B157" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C157" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D157" s="14" t="s">
         <v>225</v>
-      </c>
-      <c r="D157" s="14" t="s">
-        <v>226</v>
       </c>
       <c r="E157" s="14" t="s">
         <v>11</v>
@@ -5104,13 +5105,13 @@
     </row>
     <row r="158" spans="2:7">
       <c r="B158" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C158" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D158" s="14" t="s">
         <v>227</v>
-      </c>
-      <c r="D158" s="14" t="s">
-        <v>228</v>
       </c>
       <c r="E158" s="14" t="s">
         <v>11</v>
@@ -5120,13 +5121,13 @@
     </row>
     <row r="159" spans="2:7">
       <c r="B159" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C159" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D159" s="14" t="s">
         <v>229</v>
-      </c>
-      <c r="D159" s="14" t="s">
-        <v>230</v>
       </c>
       <c r="E159" s="14" t="s">
         <v>11</v>
@@ -5136,13 +5137,13 @@
     </row>
     <row r="160" spans="2:7">
       <c r="B160" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C160" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D160" s="14" t="s">
         <v>231</v>
-      </c>
-      <c r="D160" s="14" t="s">
-        <v>232</v>
       </c>
       <c r="E160" s="14" t="s">
         <v>11</v>
@@ -5152,13 +5153,13 @@
     </row>
     <row r="161" spans="2:7">
       <c r="B161" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C161" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D161" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="D161" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="E161" s="13" t="s">
         <v>11</v>
@@ -5168,29 +5169,29 @@
     </row>
     <row r="162" spans="2:7">
       <c r="B162" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C162" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D162" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="D162" s="13" t="s">
+      <c r="E162" s="13" t="s">
         <v>264</v>
-      </c>
-      <c r="E162" s="13" t="s">
-        <v>265</v>
       </c>
       <c r="F162" s="13"/>
       <c r="G162" s="17"/>
     </row>
     <row r="163" spans="2:7">
       <c r="B163" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C163" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D163" s="13" t="s">
         <v>212</v>
-      </c>
-      <c r="D163" s="13" t="s">
-        <v>213</v>
       </c>
       <c r="E163" s="13" t="s">
         <v>11</v>
@@ -5200,79 +5201,79 @@
     </row>
     <row r="164" spans="2:7">
       <c r="B164" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="C164" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="C164" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D164" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="D164" s="31" t="s">
+      <c r="E164" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="E164" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="F164" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="G164" s="30">
+      <c r="F164" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="G164" s="32">
         <v>43763</v>
       </c>
     </row>
     <row r="165" spans="2:7">
       <c r="B165" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="C165" s="32"/>
-      <c r="D165" s="31"/>
-      <c r="E165" s="31"/>
-      <c r="F165" s="31"/>
-      <c r="G165" s="30"/>
+        <v>265</v>
+      </c>
+      <c r="C165" s="34"/>
+      <c r="D165" s="33"/>
+      <c r="E165" s="33"/>
+      <c r="F165" s="33"/>
+      <c r="G165" s="32"/>
     </row>
     <row r="166" spans="2:7">
       <c r="B166" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="C166" s="32"/>
-      <c r="D166" s="31"/>
-      <c r="E166" s="31"/>
-      <c r="F166" s="31"/>
-      <c r="G166" s="30"/>
+        <v>266</v>
+      </c>
+      <c r="C166" s="34"/>
+      <c r="D166" s="33"/>
+      <c r="E166" s="33"/>
+      <c r="F166" s="33"/>
+      <c r="G166" s="32"/>
     </row>
     <row r="167" spans="2:7">
       <c r="B167" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C167" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="D167" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="E167" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="D167" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="E167" s="27" t="s">
-        <v>271</v>
-      </c>
       <c r="F167" s="27"/>
-      <c r="G167" s="28"/>
+      <c r="G167" s="26"/>
     </row>
     <row r="168" spans="2:7">
       <c r="B168" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C168" s="27"/>
-      <c r="D168" s="29"/>
+      <c r="D168" s="35"/>
       <c r="E168" s="27"/>
       <c r="F168" s="27"/>
-      <c r="G168" s="28"/>
+      <c r="G168" s="26"/>
     </row>
     <row r="169" spans="2:7">
       <c r="B169" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C169" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D169" s="14" t="s">
         <v>273</v>
-      </c>
-      <c r="D169" s="14" t="s">
-        <v>274</v>
       </c>
       <c r="E169" s="14" t="s">
         <v>90</v>
@@ -5285,88 +5286,88 @@
         <v>2</v>
       </c>
       <c r="C170" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D170" s="27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E170" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F170" s="27"/>
-      <c r="G170" s="28"/>
+      <c r="G170" s="26"/>
     </row>
     <row r="171" spans="2:7" ht="33">
       <c r="B171" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C171" s="27"/>
       <c r="D171" s="27"/>
       <c r="E171" s="27"/>
       <c r="F171" s="27"/>
-      <c r="G171" s="28"/>
+      <c r="G171" s="26"/>
     </row>
     <row r="172" spans="2:7">
       <c r="B172" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C172" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="D172" s="29" t="s">
-        <v>276</v>
+        <v>311</v>
+      </c>
+      <c r="D172" s="35" t="s">
+        <v>275</v>
       </c>
       <c r="E172" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F172" s="27"/>
-      <c r="G172" s="28"/>
+      <c r="G172" s="26"/>
     </row>
     <row r="173" spans="2:7" ht="33">
       <c r="B173" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C173" s="27"/>
       <c r="D173" s="27"/>
       <c r="E173" s="27"/>
       <c r="F173" s="27"/>
-      <c r="G173" s="28"/>
+      <c r="G173" s="26"/>
     </row>
     <row r="174" spans="2:7" ht="33">
       <c r="B174" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="C174" s="26" t="s">
-        <v>311</v>
+        <v>246</v>
+      </c>
+      <c r="C174" s="28" t="s">
+        <v>310</v>
       </c>
       <c r="D174" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E174" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F174" s="27"/>
-      <c r="G174" s="28"/>
+      <c r="G174" s="26"/>
     </row>
     <row r="175" spans="2:7">
       <c r="B175" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C175" s="26"/>
+      <c r="C175" s="28"/>
       <c r="D175" s="27"/>
       <c r="E175" s="27"/>
       <c r="F175" s="27"/>
-      <c r="G175" s="28"/>
+      <c r="G175" s="26"/>
     </row>
     <row r="176" spans="2:7">
       <c r="B176" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D176" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E176" s="14" t="s">
         <v>11</v>
@@ -5379,10 +5380,10 @@
         <v>2</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E177" s="14" t="s">
         <v>11</v>
@@ -5395,10 +5396,10 @@
         <v>2</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E178" s="14" t="s">
         <v>11</v>
@@ -5411,36 +5412,36 @@
         <v>2</v>
       </c>
       <c r="C179" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D179" s="27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E179" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F179" s="27"/>
-      <c r="G179" s="28"/>
+      <c r="G179" s="26"/>
     </row>
     <row r="180" spans="2:7">
       <c r="B180" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C180" s="27"/>
       <c r="D180" s="27"/>
       <c r="E180" s="27"/>
       <c r="F180" s="27"/>
-      <c r="G180" s="28"/>
+      <c r="G180" s="26"/>
     </row>
     <row r="181" spans="2:7">
       <c r="B181" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E181" s="14" t="s">
         <v>11</v>
@@ -5453,16 +5454,16 @@
         <v>2</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E182" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F182" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G182" s="11">
         <v>43791</v>
@@ -5473,10 +5474,10 @@
         <v>2</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D183" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E183" s="14" t="s">
         <v>11</v>
@@ -5488,61 +5489,61 @@
       <c r="B184" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C184" s="26" t="s">
-        <v>303</v>
+      <c r="C184" s="28" t="s">
+        <v>302</v>
       </c>
       <c r="D184" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E184" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="E184" s="27" t="s">
-        <v>343</v>
-      </c>
       <c r="F184" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="G184" s="28">
+        <v>249</v>
+      </c>
+      <c r="G184" s="26">
         <v>43791</v>
       </c>
     </row>
     <row r="185" spans="2:7">
       <c r="B185" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C185" s="26"/>
+        <v>240</v>
+      </c>
+      <c r="C185" s="28"/>
       <c r="D185" s="27"/>
       <c r="E185" s="27"/>
       <c r="F185" s="27"/>
-      <c r="G185" s="28"/>
+      <c r="G185" s="26"/>
     </row>
     <row r="186" spans="2:7">
       <c r="B186" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="C186" s="26"/>
+        <v>242</v>
+      </c>
+      <c r="C186" s="28"/>
       <c r="D186" s="27"/>
       <c r="E186" s="27"/>
       <c r="F186" s="27"/>
-      <c r="G186" s="28"/>
+      <c r="G186" s="26"/>
     </row>
     <row r="187" spans="2:7">
       <c r="B187" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="C187" s="26"/>
+        <v>241</v>
+      </c>
+      <c r="C187" s="28"/>
       <c r="D187" s="27"/>
       <c r="E187" s="27"/>
       <c r="F187" s="27"/>
-      <c r="G187" s="28"/>
+      <c r="G187" s="26"/>
     </row>
     <row r="188" spans="2:7">
       <c r="B188" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D188" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E188" s="14" t="s">
         <v>11</v>
@@ -5552,19 +5553,19 @@
     </row>
     <row r="189" spans="2:7">
       <c r="B189" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C189" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="D189" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="C189" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="D189" s="14" t="s">
-        <v>289</v>
-      </c>
       <c r="E189" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F189" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G189" s="11">
         <v>43791</v>
@@ -5572,362 +5573,362 @@
     </row>
     <row r="190" spans="2:7">
       <c r="B190" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="C190" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="C190" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="D190" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="D190" s="27" t="s">
+      <c r="E190" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="E190" s="27" t="s">
-        <v>292</v>
-      </c>
       <c r="F190" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="G190" s="28">
+        <v>345</v>
+      </c>
+      <c r="G190" s="26">
         <v>43791</v>
       </c>
     </row>
     <row r="191" spans="2:7">
       <c r="B191" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C191" s="26"/>
+        <v>265</v>
+      </c>
+      <c r="C191" s="28"/>
       <c r="D191" s="27"/>
       <c r="E191" s="27"/>
       <c r="F191" s="27"/>
-      <c r="G191" s="28"/>
+      <c r="G191" s="26"/>
     </row>
     <row r="192" spans="2:7">
       <c r="B192" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C192" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="D192" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="D192" s="14" t="s">
-        <v>294</v>
-      </c>
       <c r="E192" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F192" s="14"/>
       <c r="G192" s="11"/>
     </row>
     <row r="193" spans="2:7">
       <c r="B193" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C193" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="D193" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="D193" s="27" t="s">
-        <v>296</v>
-      </c>
       <c r="E193" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F193" s="27"/>
-      <c r="G193" s="28"/>
+      <c r="G193" s="26"/>
     </row>
     <row r="194" spans="2:7" ht="33">
       <c r="B194" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C194" s="27"/>
       <c r="D194" s="27"/>
       <c r="E194" s="27"/>
       <c r="F194" s="27"/>
-      <c r="G194" s="28"/>
+      <c r="G194" s="26"/>
     </row>
     <row r="195" spans="2:7">
       <c r="B195" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C195" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D195" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="D195" s="14" t="s">
-        <v>298</v>
-      </c>
       <c r="E195" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F195" s="14"/>
       <c r="G195" s="11"/>
     </row>
     <row r="196" spans="2:7">
       <c r="B196" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C196" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="D196" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="D196" s="27" t="s">
-        <v>300</v>
-      </c>
       <c r="E196" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F196" s="27"/>
-      <c r="G196" s="28"/>
+      <c r="G196" s="26"/>
     </row>
     <row r="197" spans="2:7">
       <c r="B197" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C197" s="27"/>
       <c r="D197" s="27"/>
       <c r="E197" s="27"/>
       <c r="F197" s="27"/>
-      <c r="G197" s="28"/>
+      <c r="G197" s="26"/>
     </row>
     <row r="198" spans="2:7">
       <c r="B198" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C198" s="27"/>
       <c r="D198" s="27"/>
       <c r="E198" s="27"/>
       <c r="F198" s="27"/>
-      <c r="G198" s="28"/>
+      <c r="G198" s="26"/>
     </row>
     <row r="199" spans="2:7">
       <c r="B199" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C199" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D199" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="D199" s="14" t="s">
-        <v>315</v>
-      </c>
       <c r="E199" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F199" s="14"/>
       <c r="G199" s="11"/>
     </row>
     <row r="200" spans="2:7">
       <c r="B200" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C200" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="D200" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="D200" s="27" t="s">
-        <v>317</v>
-      </c>
       <c r="E200" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F200" s="27"/>
-      <c r="G200" s="28"/>
+      <c r="G200" s="26"/>
     </row>
     <row r="201" spans="2:7">
       <c r="B201" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C201" s="27"/>
       <c r="D201" s="27"/>
       <c r="E201" s="27"/>
       <c r="F201" s="27"/>
-      <c r="G201" s="28"/>
+      <c r="G201" s="26"/>
     </row>
     <row r="202" spans="2:7">
       <c r="B202" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C202" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="D202" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="D202" s="27" t="s">
-        <v>319</v>
-      </c>
       <c r="E202" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F202" s="27"/>
-      <c r="G202" s="28"/>
+      <c r="G202" s="26"/>
     </row>
     <row r="203" spans="2:7">
       <c r="B203" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C203" s="27"/>
       <c r="D203" s="27"/>
       <c r="E203" s="27"/>
       <c r="F203" s="27"/>
-      <c r="G203" s="28"/>
+      <c r="G203" s="26"/>
     </row>
     <row r="204" spans="2:7">
       <c r="B204" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C204" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="D204" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="D204" s="27" t="s">
-        <v>321</v>
-      </c>
       <c r="E204" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F204" s="27"/>
-      <c r="G204" s="28"/>
+      <c r="G204" s="26"/>
     </row>
     <row r="205" spans="2:7">
       <c r="B205" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C205" s="27"/>
       <c r="D205" s="27"/>
       <c r="E205" s="27"/>
       <c r="F205" s="27"/>
-      <c r="G205" s="28"/>
+      <c r="G205" s="26"/>
     </row>
     <row r="206" spans="2:7">
       <c r="B206" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C206" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="D206" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="D206" s="14" t="s">
+      <c r="E206" s="14" t="s">
         <v>323</v>
-      </c>
-      <c r="E206" s="14" t="s">
-        <v>324</v>
       </c>
       <c r="F206" s="14"/>
       <c r="G206" s="11"/>
     </row>
     <row r="207" spans="2:7">
       <c r="B207" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C207" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D207" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="D207" s="14" t="s">
-        <v>326</v>
-      </c>
       <c r="E207" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F207" s="14"/>
       <c r="G207" s="11"/>
     </row>
     <row r="208" spans="2:7">
       <c r="B208" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C208" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D208" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="D208" s="14" t="s">
-        <v>328</v>
-      </c>
       <c r="E208" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F208" s="14"/>
       <c r="G208" s="11"/>
     </row>
     <row r="209" spans="2:7">
       <c r="B209" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C209" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="D209" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="D209" s="14" t="s">
+      <c r="E209" s="14" t="s">
         <v>330</v>
-      </c>
-      <c r="E209" s="14" t="s">
-        <v>331</v>
       </c>
       <c r="F209" s="14"/>
       <c r="G209" s="11"/>
     </row>
     <row r="210" spans="2:7">
       <c r="B210" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C210" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="D210" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="D210" s="14" t="s">
-        <v>333</v>
-      </c>
       <c r="E210" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F210" s="14"/>
       <c r="G210" s="11"/>
     </row>
     <row r="211" spans="2:7">
       <c r="B211" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C211" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="D211" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="D211" s="14" t="s">
-        <v>335</v>
-      </c>
       <c r="E211" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F211" s="14"/>
       <c r="G211" s="11"/>
     </row>
     <row r="212" spans="2:7">
       <c r="B212" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C212" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="D212" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="D212" s="14" t="s">
-        <v>337</v>
-      </c>
       <c r="E212" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F212" s="14"/>
       <c r="G212" s="11"/>
     </row>
     <row r="213" spans="2:7" ht="33">
       <c r="B213" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C213" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="D213" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="D213" s="14" t="s">
-        <v>339</v>
-      </c>
       <c r="E213" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F213" s="14"/>
       <c r="G213" s="11"/>
     </row>
     <row r="214" spans="2:7" ht="33">
       <c r="B214" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C214" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="D214" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="D214" s="14" t="s">
-        <v>341</v>
-      </c>
       <c r="E214" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F214" s="14"/>
       <c r="G214" s="11"/>
@@ -5935,64 +5936,204 @@
   </sheetData>
   <autoFilter ref="B3:G214" xr:uid="{C1EE0C99-C2F8-4E13-983A-B3DCF9299796}"/>
   <mergeCells count="280">
-    <mergeCell ref="G204:G205"/>
-    <mergeCell ref="G196:G198"/>
-    <mergeCell ref="F196:F198"/>
-    <mergeCell ref="E196:E198"/>
-    <mergeCell ref="D196:D198"/>
-    <mergeCell ref="C196:C198"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="G200:G201"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="G202:G203"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="G190:G191"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="E193:E194"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="G193:G194"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="C184:C187"/>
+    <mergeCell ref="D184:D187"/>
+    <mergeCell ref="E184:E187"/>
+    <mergeCell ref="F184:F187"/>
+    <mergeCell ref="G184:G187"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="G174:G175"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="G170:G171"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="G172:G173"/>
+    <mergeCell ref="G164:G166"/>
+    <mergeCell ref="F164:F166"/>
+    <mergeCell ref="E164:E166"/>
+    <mergeCell ref="D164:D166"/>
+    <mergeCell ref="C164:C166"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="G23:G24"/>
@@ -6017,204 +6158,64 @@
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G164:G166"/>
-    <mergeCell ref="F164:F166"/>
-    <mergeCell ref="E164:E166"/>
-    <mergeCell ref="D164:D166"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="G170:G171"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="G172:G173"/>
-    <mergeCell ref="C184:C187"/>
-    <mergeCell ref="D184:D187"/>
-    <mergeCell ref="E184:E187"/>
-    <mergeCell ref="F184:F187"/>
-    <mergeCell ref="G184:G187"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="G174:G175"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="E179:E180"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="G190:G191"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="G193:G194"/>
+    <mergeCell ref="G204:G205"/>
+    <mergeCell ref="G196:G198"/>
+    <mergeCell ref="F196:F198"/>
+    <mergeCell ref="E196:E198"/>
+    <mergeCell ref="D196:D198"/>
+    <mergeCell ref="C196:C198"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="F200:F201"/>
+    <mergeCell ref="G200:G201"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="G202:G203"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F204:F205"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6250,33 +6251,33 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G3" s="10">
         <v>43728</v>
@@ -6284,19 +6285,19 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="G4" s="10">
         <v>43728</v>
@@ -6325,7 +6326,7 @@
     <row r="2" spans="2:3" ht="17.25" thickBot="1"/>
     <row r="3" spans="2:3">
       <c r="B3" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C3" s="20">
         <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Deep Learning")</f>
@@ -6334,7 +6335,7 @@
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" s="22">
         <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Control &amp; Robotics")</f>
@@ -6343,7 +6344,7 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C5" s="22">
         <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Neuroscience")</f>
@@ -6352,7 +6353,7 @@
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6" s="22">
         <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Safety")</f>
@@ -6361,7 +6362,7 @@
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C7" s="22">
         <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Theory &amp; Foundations")</f>
@@ -6370,7 +6371,7 @@
     </row>
     <row r="8" spans="2:3" ht="33">
       <c r="B8" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" s="22">
         <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Unsupervised Learning 
@@ -6380,7 +6381,7 @@
     </row>
     <row r="9" spans="2:3" ht="17.25" thickBot="1">
       <c r="B9" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTA('DeepMind Papers'!C4:C1048576)</f>

--- a/Paper list.xlsx
+++ b/Paper list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - KoreaUniv\0.PhD\5.RLRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="341" documentId="6_{D17AB417-2265-4FB7-882A-29F92970DF89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{754B2143-87A9-420E-9A8F-9636E9AEBD0D}"/>
+  <xr:revisionPtr revIDLastSave="386" documentId="6_{D17AB417-2265-4FB7-882A-29F92970DF89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{71BD4FE9-8740-455F-ADA7-EF1558CD4E74}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
   </bookViews>
   <sheets>
     <sheet name="DeepMind Papers" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="355">
   <si>
     <t>Title</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1237,6 +1237,23 @@
   </si>
   <si>
     <t>Simultaneously Learning Vision and Feature-based Control Policies for Real-world Ball-in-a-Cup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이충기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reducing Sentiment Bias in Language Models via Counterfactual Evaluation</t>
+  </si>
+  <si>
+    <t>Po-Sen Huang, H Zhang, et al.</t>
+  </si>
+  <si>
+    <t>Julian Schrittwieser, Ioannis Antonoglou, et al.</t>
+  </si>
+  <si>
+    <t>Mastering Atari, Go, Chess and Shogi by Planning with a Learned Model</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1367,7 +1384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1480,6 +1497,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1492,7 +1535,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1541,9 +1584,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1571,6 +1611,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1580,14 +1623,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1598,8 +1647,20 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1748,7 +1809,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14</c:v>
@@ -2827,10 +2888,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D0C1FB-3C2C-47C3-B0C0-A85F23F3B3BD}">
-  <dimension ref="B1:G214"/>
+  <dimension ref="B1:G217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -2846,14 +2908,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="5.25" customHeight="1"/>
     <row r="2" spans="2:7" ht="38.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="2:7" s="3" customFormat="1" ht="20.25">
       <c r="B3" s="2" t="s">
@@ -2888,52 +2950,52 @@
       <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="2:7" ht="33">
       <c r="B5" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="30"/>
+      <c r="E5" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="27" t="s">
+      <c r="E7" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="32">
         <v>43763</v>
       </c>
     </row>
@@ -2941,11 +3003,11 @@
       <c r="B8" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="26"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="6" t="s">
@@ -2960,34 +3022,34 @@
       <c r="E9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="26"/>
+      <c r="E10" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="26"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="6" t="s">
@@ -3002,60 +3064,60 @@
       <c r="E12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="2:7" ht="33">
       <c r="B13" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="26"/>
+      <c r="E13" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="26"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="2:7" ht="33">
       <c r="B15" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="26"/>
+      <c r="E15" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="26"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="6" t="s">
@@ -3070,7 +3132,7 @@
       <c r="E17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="2:7">
@@ -3086,7 +3148,7 @@
       <c r="E18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="14"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="2:7">
@@ -3102,34 +3164,34 @@
       <c r="E19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="26"/>
+      <c r="E20" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="26"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="6" t="s">
@@ -3144,86 +3206,86 @@
       <c r="E22" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="26"/>
+      <c r="E23" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="26"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="26"/>
+      <c r="E25" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="2:7" ht="33">
       <c r="B26" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="26"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="26"/>
+      <c r="E27" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="37"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="26"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="6" t="s">
@@ -3238,60 +3300,60 @@
       <c r="E29" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="14"/>
+      <c r="F29" s="27"/>
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="26"/>
+      <c r="E30" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="31"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="26"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
     </row>
     <row r="32" spans="2:7" ht="33">
       <c r="B32" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="26"/>
+      <c r="E32" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="31"/>
+      <c r="G32" s="32"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="26"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="6" t="s">
@@ -3306,60 +3368,60 @@
       <c r="E34" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="14"/>
+      <c r="F34" s="27"/>
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="2:7" ht="33">
       <c r="B35" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="26"/>
+      <c r="E35" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="26"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="26"/>
+      <c r="E37" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
     </row>
     <row r="38" spans="2:7" ht="33">
       <c r="B38" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="26"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="32"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="6" t="s">
@@ -3374,34 +3436,34 @@
       <c r="E39" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="14"/>
+      <c r="F39" s="27"/>
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="26"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="32"/>
     </row>
     <row r="41" spans="2:7" ht="33">
       <c r="B41" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="26"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="32"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="6" t="s">
@@ -3416,7 +3478,7 @@
       <c r="E42" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="14"/>
+      <c r="F42" s="27"/>
       <c r="G42" s="11"/>
     </row>
     <row r="43" spans="2:7">
@@ -3432,34 +3494,34 @@
       <c r="E43" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="14"/>
+      <c r="F43" s="27"/>
       <c r="G43" s="11"/>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="27"/>
-      <c r="G44" s="26"/>
+      <c r="E44" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="31"/>
+      <c r="G44" s="32"/>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="26"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="32"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="6" t="s">
@@ -3474,14 +3536,14 @@
       <c r="E46" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="14"/>
+      <c r="F46" s="27"/>
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="28" t="s">
         <v>66</v>
       </c>
       <c r="D47" s="14" t="s">
@@ -3490,34 +3552,38 @@
       <c r="E47" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="11"/>
+      <c r="F47" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="G47" s="11">
+        <v>43798</v>
+      </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="26"/>
+      <c r="E48" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="31"/>
+      <c r="G48" s="32"/>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="26"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="32"/>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="6" t="s">
@@ -3532,7 +3598,7 @@
       <c r="E50" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="14"/>
+      <c r="F50" s="27"/>
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="2:7">
@@ -3548,7 +3614,7 @@
       <c r="E51" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="14"/>
+      <c r="F51" s="27"/>
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="2:7">
@@ -3560,7 +3626,7 @@
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
+      <c r="F52" s="27"/>
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="2:7">
@@ -3572,7 +3638,7 @@
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
+      <c r="F53" s="27"/>
       <c r="G53" s="11"/>
     </row>
     <row r="54" spans="2:7">
@@ -3588,174 +3654,174 @@
       <c r="E54" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F54" s="14"/>
+      <c r="F54" s="27"/>
       <c r="G54" s="11"/>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="27"/>
-      <c r="G55" s="26"/>
+      <c r="E55" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="31"/>
+      <c r="G55" s="32"/>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="26"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="32"/>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="27"/>
-      <c r="G57" s="26"/>
+      <c r="E57" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="31"/>
+      <c r="G57" s="32"/>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="26"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="32"/>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E59" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="27"/>
-      <c r="G59" s="26"/>
+      <c r="E59" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="31"/>
+      <c r="G59" s="32"/>
     </row>
     <row r="60" spans="2:7" ht="33">
       <c r="B60" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="26"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="32"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="27"/>
-      <c r="G61" s="26"/>
+      <c r="E61" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="31"/>
+      <c r="G61" s="32"/>
     </row>
     <row r="62" spans="2:7" ht="33">
       <c r="B62" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="26"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="32"/>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="26"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="32"/>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="27" t="s">
+      <c r="D64" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="E64" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="27"/>
-      <c r="G64" s="26"/>
+      <c r="E64" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="31"/>
+      <c r="G64" s="32"/>
     </row>
     <row r="65" spans="2:7" ht="33">
       <c r="B65" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="26"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="32"/>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="27" t="s">
+      <c r="C66" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D66" s="27" t="s">
+      <c r="D66" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="E66" s="27" t="s">
+      <c r="E66" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="F66" s="27"/>
-      <c r="G66" s="26"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="32"/>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="26"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="32"/>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="6" t="s">
@@ -3770,7 +3836,7 @@
       <c r="E68" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="14"/>
+      <c r="F68" s="27"/>
       <c r="G68" s="11"/>
     </row>
     <row r="69" spans="2:7">
@@ -3786,7 +3852,7 @@
       <c r="E69" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F69" s="14"/>
+      <c r="F69" s="27"/>
       <c r="G69" s="11"/>
     </row>
     <row r="70" spans="2:7">
@@ -3802,164 +3868,164 @@
       <c r="E70" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F70" s="14"/>
+      <c r="F70" s="27"/>
       <c r="G70" s="11"/>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D71" s="27" t="s">
+      <c r="D71" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="27"/>
-      <c r="G71" s="26"/>
+      <c r="E71" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="31"/>
+      <c r="G71" s="32"/>
     </row>
     <row r="72" spans="2:7" ht="33">
       <c r="B72" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="26"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="32"/>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C73" s="27" t="s">
+      <c r="C73" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D73" s="27" t="s">
+      <c r="D73" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E73" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="27"/>
-      <c r="G73" s="26"/>
+      <c r="E73" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="31"/>
+      <c r="G73" s="32"/>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="26"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="32"/>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="27" t="s">
+      <c r="C75" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D75" s="27" t="s">
+      <c r="D75" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E75" s="27" t="s">
+      <c r="E75" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="F75" s="31"/>
-      <c r="G75" s="26"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="32"/>
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="26"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="32"/>
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="27" t="s">
+      <c r="D77" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="E77" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="27"/>
-      <c r="G77" s="26"/>
+      <c r="E77" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="31"/>
+      <c r="G77" s="32"/>
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="26"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="32"/>
     </row>
     <row r="79" spans="2:7">
       <c r="B79" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="D79" s="27" t="s">
+      <c r="D79" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="E79" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="27"/>
-      <c r="G79" s="26"/>
+      <c r="E79" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="31"/>
+      <c r="G79" s="32"/>
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="26"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="32"/>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="27" t="s">
+      <c r="C81" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="27" t="s">
+      <c r="D81" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E81" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="27"/>
-      <c r="G81" s="26"/>
+      <c r="E81" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="31"/>
+      <c r="G81" s="32"/>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="26"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="32"/>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="6" t="s">
@@ -3974,34 +4040,34 @@
       <c r="E83" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F83" s="14"/>
+      <c r="F83" s="27"/>
       <c r="G83" s="11"/>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="D84" s="27" t="s">
+      <c r="D84" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="E84" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="27"/>
-      <c r="G84" s="26"/>
+      <c r="E84" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="31"/>
+      <c r="G84" s="32"/>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="26"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="32"/>
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="6" t="s">
@@ -4016,7 +4082,7 @@
       <c r="E86" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="14" t="s">
+      <c r="F86" s="27" t="s">
         <v>250</v>
       </c>
       <c r="G86" s="11">
@@ -4027,27 +4093,27 @@
       <c r="B87" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C87" s="27" t="s">
+      <c r="C87" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="D87" s="27" t="s">
+      <c r="D87" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E87" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="27"/>
-      <c r="G87" s="26"/>
+      <c r="E87" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="31"/>
+      <c r="G87" s="32"/>
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="26"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="32"/>
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="6" t="s">
@@ -4062,34 +4128,34 @@
       <c r="E89" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F89" s="14"/>
+      <c r="F89" s="27"/>
       <c r="G89" s="11"/>
     </row>
     <row r="90" spans="2:7">
       <c r="B90" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C90" s="27" t="s">
+      <c r="C90" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="D90" s="27" t="s">
+      <c r="D90" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="E90" s="27" t="s">
+      <c r="E90" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="F90" s="27"/>
-      <c r="G90" s="26"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="32"/>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="26"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="32"/>
     </row>
     <row r="92" spans="2:7">
       <c r="B92" s="6" t="s">
@@ -4104,7 +4170,7 @@
       <c r="E92" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F92" s="14"/>
+      <c r="F92" s="27"/>
       <c r="G92" s="11"/>
     </row>
     <row r="93" spans="2:7">
@@ -4120,7 +4186,7 @@
       <c r="E93" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F93" s="14"/>
+      <c r="F93" s="27"/>
       <c r="G93" s="11"/>
     </row>
     <row r="94" spans="2:7">
@@ -4136,7 +4202,7 @@
       <c r="E94" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F94" s="14" t="s">
+      <c r="F94" s="27" t="s">
         <v>250</v>
       </c>
       <c r="G94" s="11">
@@ -4156,34 +4222,34 @@
       <c r="E95" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F95" s="14"/>
+      <c r="F95" s="27"/>
       <c r="G95" s="11"/>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C96" s="27" t="s">
+      <c r="C96" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="D96" s="27" t="s">
+      <c r="D96" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="E96" s="27" t="s">
+      <c r="E96" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="F96" s="27"/>
-      <c r="G96" s="26"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="32"/>
     </row>
     <row r="97" spans="2:7">
       <c r="B97" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="26"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="32"/>
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="6" t="s">
@@ -4198,11 +4264,11 @@
       <c r="E98" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="14" t="s">
+      <c r="F98" s="27" t="s">
         <v>251</v>
       </c>
       <c r="G98" s="11">
-        <v>43784</v>
+        <v>43791</v>
       </c>
     </row>
     <row r="99" spans="2:7">
@@ -4218,26 +4284,26 @@
       <c r="E99" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F99" s="14"/>
+      <c r="F99" s="27"/>
       <c r="G99" s="11"/>
     </row>
     <row r="100" spans="2:7">
       <c r="B100" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C100" s="28" t="s">
+      <c r="C100" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="D100" s="27" t="s">
+      <c r="D100" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="27" t="s">
+      <c r="E100" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="G100" s="11">
+      <c r="G100" s="40">
         <v>43728</v>
       </c>
     </row>
@@ -4245,17 +4311,17 @@
       <c r="B101" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C101" s="28"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="11"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="41"/>
     </row>
     <row r="102" spans="2:7">
       <c r="B102" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C102" s="25" t="s">
         <v>132</v>
       </c>
       <c r="D102" s="14" t="s">
@@ -4264,8 +4330,12 @@
       <c r="E102" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="14"/>
-      <c r="G102" s="11"/>
+      <c r="F102" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="G102" s="11">
+        <v>43798</v>
+      </c>
     </row>
     <row r="103" spans="2:7">
       <c r="B103" s="6" t="s">
@@ -4280,7 +4350,7 @@
       <c r="E103" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F103" s="14"/>
+      <c r="F103" s="27"/>
       <c r="G103" s="11"/>
     </row>
     <row r="104" spans="2:7">
@@ -4296,7 +4366,7 @@
       <c r="E104" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F104" s="14"/>
+      <c r="F104" s="27"/>
       <c r="G104" s="11"/>
     </row>
     <row r="105" spans="2:7">
@@ -4312,34 +4382,34 @@
       <c r="E105" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F105" s="14"/>
+      <c r="F105" s="27"/>
       <c r="G105" s="11"/>
     </row>
     <row r="106" spans="2:7">
       <c r="B106" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C106" s="27" t="s">
+      <c r="C106" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="D106" s="27" t="s">
+      <c r="D106" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="E106" s="27" t="s">
+      <c r="E106" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F106" s="27"/>
-      <c r="G106" s="26"/>
+      <c r="F106" s="31"/>
+      <c r="G106" s="32"/>
     </row>
     <row r="107" spans="2:7" ht="33">
       <c r="B107" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="26"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="31"/>
+      <c r="F107" s="31"/>
+      <c r="G107" s="32"/>
     </row>
     <row r="108" spans="2:7">
       <c r="B108" s="6" t="s">
@@ -4354,7 +4424,7 @@
       <c r="E108" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F108" s="14" t="s">
+      <c r="F108" s="27" t="s">
         <v>250</v>
       </c>
       <c r="G108" s="11">
@@ -4365,53 +4435,53 @@
       <c r="B109" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C109" s="27" t="s">
+      <c r="C109" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="D109" s="27" t="s">
+      <c r="D109" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="E109" s="27" t="s">
+      <c r="E109" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="F109" s="27"/>
-      <c r="G109" s="26"/>
+      <c r="F109" s="31"/>
+      <c r="G109" s="32"/>
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="26"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="31"/>
+      <c r="F110" s="31"/>
+      <c r="G110" s="32"/>
     </row>
     <row r="111" spans="2:7">
       <c r="B111" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C111" s="27" t="s">
+      <c r="C111" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="D111" s="27" t="s">
+      <c r="D111" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="E111" s="27" t="s">
+      <c r="E111" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="F111" s="27"/>
-      <c r="G111" s="26"/>
+      <c r="F111" s="31"/>
+      <c r="G111" s="32"/>
     </row>
     <row r="112" spans="2:7">
       <c r="B112" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="26"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="32"/>
     </row>
     <row r="113" spans="2:7">
       <c r="B113" s="6" t="s">
@@ -4426,7 +4496,7 @@
       <c r="E113" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F113" s="14"/>
+      <c r="F113" s="27"/>
       <c r="G113" s="11"/>
     </row>
     <row r="114" spans="2:7">
@@ -4442,7 +4512,7 @@
       <c r="E114" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F114" s="14"/>
+      <c r="F114" s="27"/>
       <c r="G114" s="11"/>
     </row>
     <row r="115" spans="2:7">
@@ -4458,7 +4528,7 @@
       <c r="E115" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F115" s="14"/>
+      <c r="F115" s="27"/>
       <c r="G115" s="11"/>
     </row>
     <row r="116" spans="2:7">
@@ -4474,60 +4544,60 @@
       <c r="E116" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F116" s="14"/>
+      <c r="F116" s="27"/>
       <c r="G116" s="11"/>
     </row>
     <row r="117" spans="2:7">
       <c r="B117" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C117" s="27" t="s">
+      <c r="C117" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="D117" s="27" t="s">
+      <c r="D117" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="E117" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="27"/>
-      <c r="G117" s="26"/>
+      <c r="E117" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="31"/>
+      <c r="G117" s="32"/>
     </row>
     <row r="118" spans="2:7">
       <c r="B118" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="26"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="31"/>
+      <c r="G118" s="32"/>
     </row>
     <row r="119" spans="2:7">
       <c r="B119" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C119" s="27" t="s">
+      <c r="C119" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="D119" s="27" t="s">
+      <c r="D119" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="E119" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="27"/>
-      <c r="G119" s="26"/>
+      <c r="E119" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="31"/>
+      <c r="G119" s="32"/>
     </row>
     <row r="120" spans="2:7">
       <c r="B120" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C120" s="27"/>
-      <c r="D120" s="27"/>
-      <c r="E120" s="27"/>
-      <c r="F120" s="27"/>
-      <c r="G120" s="26"/>
+      <c r="C120" s="31"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="31"/>
+      <c r="G120" s="32"/>
     </row>
     <row r="121" spans="2:7">
       <c r="B121" s="6" t="s">
@@ -4542,7 +4612,7 @@
       <c r="E121" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F121" s="14"/>
+      <c r="F121" s="27"/>
       <c r="G121" s="11"/>
     </row>
     <row r="122" spans="2:7">
@@ -4558,7 +4628,7 @@
       <c r="E122" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F122" s="14"/>
+      <c r="F122" s="27"/>
       <c r="G122" s="11"/>
     </row>
     <row r="123" spans="2:7">
@@ -4574,7 +4644,7 @@
       <c r="E123" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F123" s="14"/>
+      <c r="F123" s="27"/>
       <c r="G123" s="11"/>
     </row>
     <row r="124" spans="2:7">
@@ -4590,7 +4660,7 @@
       <c r="E124" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F124" s="14"/>
+      <c r="F124" s="27"/>
       <c r="G124" s="11"/>
     </row>
     <row r="125" spans="2:7">
@@ -4606,7 +4676,7 @@
       <c r="E125" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F125" s="14"/>
+      <c r="F125" s="27"/>
       <c r="G125" s="11"/>
     </row>
     <row r="126" spans="2:7">
@@ -4622,34 +4692,34 @@
       <c r="E126" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F126" s="14"/>
+      <c r="F126" s="27"/>
       <c r="G126" s="11"/>
     </row>
     <row r="127" spans="2:7">
       <c r="B127" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C127" s="27" t="s">
+      <c r="C127" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="D127" s="27" t="s">
+      <c r="D127" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="E127" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="27"/>
-      <c r="G127" s="26"/>
+      <c r="E127" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="31"/>
+      <c r="G127" s="32"/>
     </row>
     <row r="128" spans="2:7">
       <c r="B128" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C128" s="27"/>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="27"/>
-      <c r="G128" s="26"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="31"/>
+      <c r="G128" s="32"/>
     </row>
     <row r="129" spans="2:7">
       <c r="B129" s="6" t="s">
@@ -4660,7 +4730,7 @@
       </c>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
+      <c r="F129" s="27"/>
       <c r="G129" s="11"/>
     </row>
     <row r="130" spans="2:7">
@@ -4676,7 +4746,7 @@
       <c r="E130" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F130" s="14"/>
+      <c r="F130" s="27"/>
       <c r="G130" s="11"/>
     </row>
     <row r="131" spans="2:7">
@@ -4692,34 +4762,34 @@
       <c r="E131" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F131" s="14"/>
+      <c r="F131" s="27"/>
       <c r="G131" s="11"/>
     </row>
     <row r="132" spans="2:7">
       <c r="B132" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C132" s="27" t="s">
+      <c r="C132" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="D132" s="27" t="s">
+      <c r="D132" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="E132" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="27"/>
-      <c r="G132" s="26"/>
+      <c r="E132" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="31"/>
+      <c r="G132" s="32"/>
     </row>
     <row r="133" spans="2:7">
       <c r="B133" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C133" s="27"/>
-      <c r="D133" s="27"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27"/>
-      <c r="G133" s="26"/>
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="31"/>
+      <c r="G133" s="32"/>
     </row>
     <row r="134" spans="2:7">
       <c r="B134" s="6" t="s">
@@ -4734,7 +4804,7 @@
       <c r="E134" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F134" s="14"/>
+      <c r="F134" s="27"/>
       <c r="G134" s="11"/>
     </row>
     <row r="135" spans="2:7">
@@ -4750,34 +4820,34 @@
       <c r="E135" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F135" s="14"/>
+      <c r="F135" s="27"/>
       <c r="G135" s="11"/>
     </row>
     <row r="136" spans="2:7" ht="33">
       <c r="B136" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C136" s="27" t="s">
+      <c r="C136" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="D136" s="27" t="s">
+      <c r="D136" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="E136" s="27" t="s">
+      <c r="E136" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="F136" s="27"/>
-      <c r="G136" s="26"/>
+      <c r="F136" s="31"/>
+      <c r="G136" s="32"/>
     </row>
     <row r="137" spans="2:7">
       <c r="B137" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C137" s="27"/>
-      <c r="D137" s="27"/>
-      <c r="E137" s="27"/>
-      <c r="F137" s="27"/>
-      <c r="G137" s="26"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="31"/>
+      <c r="E137" s="31"/>
+      <c r="F137" s="31"/>
+      <c r="G137" s="32"/>
     </row>
     <row r="138" spans="2:7" ht="33">
       <c r="B138" s="7" t="s">
@@ -4792,7 +4862,7 @@
       <c r="E138" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F138" s="14"/>
+      <c r="F138" s="27"/>
       <c r="G138" s="11"/>
     </row>
     <row r="139" spans="2:7" ht="33">
@@ -4808,7 +4878,7 @@
       <c r="E139" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F139" s="14" t="s">
+      <c r="F139" s="27" t="s">
         <v>249</v>
       </c>
       <c r="G139" s="11">
@@ -4828,7 +4898,7 @@
       <c r="E140" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F140" s="14"/>
+      <c r="F140" s="27"/>
       <c r="G140" s="11"/>
     </row>
     <row r="141" spans="2:7" ht="33">
@@ -4844,7 +4914,7 @@
       <c r="E141" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F141" s="14"/>
+      <c r="F141" s="27"/>
       <c r="G141" s="11"/>
     </row>
     <row r="142" spans="2:7" ht="33">
@@ -4860,7 +4930,7 @@
       <c r="E142" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F142" s="14" t="s">
+      <c r="F142" s="27" t="s">
         <v>233</v>
       </c>
       <c r="G142" s="11">
@@ -4871,27 +4941,27 @@
       <c r="B143" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C143" s="27" t="s">
+      <c r="C143" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="D143" s="27" t="s">
+      <c r="D143" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E143" s="27" t="s">
+      <c r="E143" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F143" s="27"/>
-      <c r="G143" s="26"/>
+      <c r="F143" s="31"/>
+      <c r="G143" s="32"/>
     </row>
     <row r="144" spans="2:7" ht="33">
       <c r="B144" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C144" s="27"/>
-      <c r="D144" s="27"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27"/>
-      <c r="G144" s="26"/>
+      <c r="C144" s="31"/>
+      <c r="D144" s="31"/>
+      <c r="E144" s="31"/>
+      <c r="F144" s="31"/>
+      <c r="G144" s="32"/>
     </row>
     <row r="145" spans="2:7" ht="33">
       <c r="B145" s="7" t="s">
@@ -4906,7 +4976,7 @@
       <c r="E145" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F145" s="14"/>
+      <c r="F145" s="27"/>
       <c r="G145" s="11"/>
     </row>
     <row r="146" spans="2:7" ht="33">
@@ -4922,7 +4992,7 @@
       <c r="E146" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F146" s="16" t="s">
+      <c r="F146" s="29" t="s">
         <v>233</v>
       </c>
       <c r="G146" s="11">
@@ -4942,7 +5012,7 @@
       <c r="E147" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F147" s="16" t="s">
+      <c r="F147" s="29" t="s">
         <v>233</v>
       </c>
       <c r="G147" s="11">
@@ -4962,34 +5032,34 @@
       <c r="E148" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F148" s="14"/>
+      <c r="F148" s="27"/>
       <c r="G148" s="11"/>
     </row>
     <row r="149" spans="2:7">
       <c r="B149" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C149" s="27" t="s">
+      <c r="C149" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="D149" s="27" t="s">
+      <c r="D149" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="E149" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="27"/>
-      <c r="G149" s="26"/>
+      <c r="E149" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="31"/>
+      <c r="G149" s="32"/>
     </row>
     <row r="150" spans="2:7" ht="33">
       <c r="B150" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C150" s="27"/>
-      <c r="D150" s="27"/>
-      <c r="E150" s="27"/>
-      <c r="F150" s="27"/>
-      <c r="G150" s="26"/>
+      <c r="C150" s="31"/>
+      <c r="D150" s="31"/>
+      <c r="E150" s="31"/>
+      <c r="F150" s="31"/>
+      <c r="G150" s="32"/>
     </row>
     <row r="151" spans="2:7">
       <c r="B151" s="6" t="s">
@@ -5004,7 +5074,7 @@
       <c r="E151" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F151" s="14"/>
+      <c r="F151" s="27"/>
       <c r="G151" s="11"/>
     </row>
     <row r="152" spans="2:7">
@@ -5020,7 +5090,7 @@
       <c r="E152" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="F152" s="14"/>
+      <c r="F152" s="27"/>
       <c r="G152" s="11"/>
     </row>
     <row r="153" spans="2:7">
@@ -5036,7 +5106,7 @@
       <c r="E153" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F153" s="14"/>
+      <c r="F153" s="27"/>
       <c r="G153" s="11"/>
     </row>
     <row r="154" spans="2:7">
@@ -5052,7 +5122,7 @@
       <c r="E154" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F154" s="14"/>
+      <c r="F154" s="27"/>
       <c r="G154" s="11"/>
     </row>
     <row r="155" spans="2:7">
@@ -5068,7 +5138,7 @@
       <c r="E155" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F155" s="14"/>
+      <c r="F155" s="27"/>
       <c r="G155" s="11"/>
     </row>
     <row r="156" spans="2:7">
@@ -5084,7 +5154,7 @@
       <c r="E156" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F156" s="14"/>
+      <c r="F156" s="27"/>
       <c r="G156" s="11"/>
     </row>
     <row r="157" spans="2:7">
@@ -5100,7 +5170,7 @@
       <c r="E157" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F157" s="14"/>
+      <c r="F157" s="27"/>
       <c r="G157" s="11"/>
     </row>
     <row r="158" spans="2:7">
@@ -5116,7 +5186,7 @@
       <c r="E158" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F158" s="14"/>
+      <c r="F158" s="27"/>
       <c r="G158" s="11"/>
     </row>
     <row r="159" spans="2:7">
@@ -5132,7 +5202,7 @@
       <c r="E159" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F159" s="14"/>
+      <c r="F159" s="27"/>
       <c r="G159" s="11"/>
     </row>
     <row r="160" spans="2:7">
@@ -5148,7 +5218,7 @@
       <c r="E160" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F160" s="14"/>
+      <c r="F160" s="27"/>
       <c r="G160" s="11"/>
     </row>
     <row r="161" spans="2:7">
@@ -5165,7 +5235,7 @@
         <v>11</v>
       </c>
       <c r="F161" s="13"/>
-      <c r="G161" s="17"/>
+      <c r="G161" s="16"/>
     </row>
     <row r="162" spans="2:7">
       <c r="B162" s="13" t="s">
@@ -5181,7 +5251,7 @@
         <v>264</v>
       </c>
       <c r="F162" s="13"/>
-      <c r="G162" s="17"/>
+      <c r="G162" s="16"/>
     </row>
     <row r="163" spans="2:7">
       <c r="B163" s="13" t="s">
@@ -5197,25 +5267,25 @@
         <v>11</v>
       </c>
       <c r="F163" s="13"/>
-      <c r="G163" s="17"/>
+      <c r="G163" s="16"/>
     </row>
     <row r="164" spans="2:7">
       <c r="B164" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C164" s="34" t="s">
+      <c r="C164" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D164" s="33" t="s">
+      <c r="D164" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="E164" s="33" t="s">
+      <c r="E164" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="F164" s="33" t="s">
+      <c r="F164" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="G164" s="32">
+      <c r="G164" s="34">
         <v>43763</v>
       </c>
     </row>
@@ -5223,47 +5293,47 @@
       <c r="B165" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="C165" s="34"/>
-      <c r="D165" s="33"/>
-      <c r="E165" s="33"/>
-      <c r="F165" s="33"/>
-      <c r="G165" s="32"/>
+      <c r="C165" s="36"/>
+      <c r="D165" s="35"/>
+      <c r="E165" s="35"/>
+      <c r="F165" s="35"/>
+      <c r="G165" s="34"/>
     </row>
     <row r="166" spans="2:7">
       <c r="B166" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C166" s="34"/>
-      <c r="D166" s="33"/>
-      <c r="E166" s="33"/>
-      <c r="F166" s="33"/>
-      <c r="G166" s="32"/>
+      <c r="C166" s="36"/>
+      <c r="D166" s="35"/>
+      <c r="E166" s="35"/>
+      <c r="F166" s="35"/>
+      <c r="G166" s="34"/>
     </row>
     <row r="167" spans="2:7">
       <c r="B167" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C167" s="27" t="s">
+      <c r="C167" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="D167" s="35" t="s">
+      <c r="D167" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="E167" s="27" t="s">
+      <c r="E167" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="F167" s="27"/>
-      <c r="G167" s="26"/>
+      <c r="F167" s="31"/>
+      <c r="G167" s="32"/>
     </row>
     <row r="168" spans="2:7">
       <c r="B168" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C168" s="27"/>
-      <c r="D168" s="35"/>
-      <c r="E168" s="27"/>
-      <c r="F168" s="27"/>
-      <c r="G168" s="26"/>
+      <c r="C168" s="31"/>
+      <c r="D168" s="33"/>
+      <c r="E168" s="31"/>
+      <c r="F168" s="31"/>
+      <c r="G168" s="32"/>
     </row>
     <row r="169" spans="2:7">
       <c r="B169" s="14" t="s">
@@ -5278,86 +5348,90 @@
       <c r="E169" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F169" s="14"/>
+      <c r="F169" s="27"/>
       <c r="G169" s="11"/>
     </row>
     <row r="170" spans="2:7">
       <c r="B170" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C170" s="27" t="s">
+      <c r="C170" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="D170" s="27" t="s">
+      <c r="D170" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="E170" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F170" s="27"/>
-      <c r="G170" s="26"/>
+      <c r="E170" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" s="31"/>
+      <c r="G170" s="32"/>
     </row>
     <row r="171" spans="2:7" ht="33">
-      <c r="B171" s="18" t="s">
+      <c r="B171" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C171" s="27"/>
-      <c r="D171" s="27"/>
-      <c r="E171" s="27"/>
-      <c r="F171" s="27"/>
-      <c r="G171" s="26"/>
+      <c r="C171" s="31"/>
+      <c r="D171" s="31"/>
+      <c r="E171" s="31"/>
+      <c r="F171" s="31"/>
+      <c r="G171" s="32"/>
     </row>
     <row r="172" spans="2:7">
       <c r="B172" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="27" t="s">
+      <c r="C172" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="D172" s="35" t="s">
+      <c r="D172" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="E172" s="27" t="s">
+      <c r="E172" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="F172" s="27"/>
-      <c r="G172" s="26"/>
+      <c r="F172" s="31"/>
+      <c r="G172" s="32"/>
     </row>
     <row r="173" spans="2:7" ht="33">
-      <c r="B173" s="18" t="s">
+      <c r="B173" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C173" s="27"/>
-      <c r="D173" s="27"/>
-      <c r="E173" s="27"/>
-      <c r="F173" s="27"/>
-      <c r="G173" s="26"/>
+      <c r="C173" s="31"/>
+      <c r="D173" s="31"/>
+      <c r="E173" s="31"/>
+      <c r="F173" s="31"/>
+      <c r="G173" s="32"/>
     </row>
     <row r="174" spans="2:7" ht="33">
-      <c r="B174" s="18" t="s">
+      <c r="B174" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C174" s="28" t="s">
+      <c r="C174" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="D174" s="27" t="s">
+      <c r="D174" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="E174" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F174" s="27"/>
-      <c r="G174" s="26"/>
+      <c r="E174" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G174" s="32">
+        <v>43770</v>
+      </c>
     </row>
     <row r="175" spans="2:7">
       <c r="B175" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C175" s="28"/>
-      <c r="D175" s="27"/>
-      <c r="E175" s="27"/>
-      <c r="F175" s="27"/>
-      <c r="G175" s="26"/>
+      <c r="C175" s="30"/>
+      <c r="D175" s="31"/>
+      <c r="E175" s="31"/>
+      <c r="F175" s="31"/>
+      <c r="G175" s="32"/>
     </row>
     <row r="176" spans="2:7">
       <c r="B176" s="14" t="s">
@@ -5372,7 +5446,7 @@
       <c r="E176" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F176" s="14"/>
+      <c r="F176" s="27"/>
       <c r="G176" s="11"/>
     </row>
     <row r="177" spans="2:7">
@@ -5388,7 +5462,7 @@
       <c r="E177" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F177" s="14"/>
+      <c r="F177" s="27"/>
       <c r="G177" s="11"/>
     </row>
     <row r="178" spans="2:7">
@@ -5404,34 +5478,34 @@
       <c r="E178" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F178" s="14"/>
+      <c r="F178" s="27"/>
       <c r="G178" s="11"/>
     </row>
     <row r="179" spans="2:7">
       <c r="B179" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C179" s="27" t="s">
+      <c r="C179" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="D179" s="27" t="s">
+      <c r="D179" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="E179" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F179" s="27"/>
-      <c r="G179" s="26"/>
+      <c r="E179" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F179" s="31"/>
+      <c r="G179" s="32"/>
     </row>
     <row r="180" spans="2:7">
       <c r="B180" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C180" s="27"/>
-      <c r="D180" s="27"/>
-      <c r="E180" s="27"/>
-      <c r="F180" s="27"/>
-      <c r="G180" s="26"/>
+      <c r="C180" s="31"/>
+      <c r="D180" s="31"/>
+      <c r="E180" s="31"/>
+      <c r="F180" s="31"/>
+      <c r="G180" s="32"/>
     </row>
     <row r="181" spans="2:7">
       <c r="B181" s="14" t="s">
@@ -5446,7 +5520,7 @@
       <c r="E181" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F181" s="14"/>
+      <c r="F181" s="27"/>
       <c r="G181" s="11"/>
     </row>
     <row r="182" spans="2:7">
@@ -5462,7 +5536,7 @@
       <c r="E182" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F182" s="14" t="s">
+      <c r="F182" s="27" t="s">
         <v>344</v>
       </c>
       <c r="G182" s="11">
@@ -5476,32 +5550,32 @@
       <c r="C183" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="D183" s="18" t="s">
+      <c r="D183" s="17" t="s">
         <v>283</v>
       </c>
       <c r="E183" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F183" s="14"/>
+      <c r="F183" s="27"/>
       <c r="G183" s="11"/>
     </row>
     <row r="184" spans="2:7">
       <c r="B184" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C184" s="28" t="s">
+      <c r="C184" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="D184" s="27" t="s">
+      <c r="D184" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="E184" s="27" t="s">
+      <c r="E184" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="F184" s="27" t="s">
+      <c r="F184" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="G184" s="26">
+      <c r="G184" s="32">
         <v>43791</v>
       </c>
     </row>
@@ -5509,31 +5583,31 @@
       <c r="B185" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C185" s="28"/>
-      <c r="D185" s="27"/>
-      <c r="E185" s="27"/>
-      <c r="F185" s="27"/>
-      <c r="G185" s="26"/>
+      <c r="C185" s="30"/>
+      <c r="D185" s="31"/>
+      <c r="E185" s="31"/>
+      <c r="F185" s="31"/>
+      <c r="G185" s="32"/>
     </row>
     <row r="186" spans="2:7">
       <c r="B186" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C186" s="28"/>
-      <c r="D186" s="27"/>
-      <c r="E186" s="27"/>
-      <c r="F186" s="27"/>
-      <c r="G186" s="26"/>
+      <c r="C186" s="30"/>
+      <c r="D186" s="31"/>
+      <c r="E186" s="31"/>
+      <c r="F186" s="31"/>
+      <c r="G186" s="32"/>
     </row>
     <row r="187" spans="2:7">
       <c r="B187" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="C187" s="28"/>
-      <c r="D187" s="27"/>
-      <c r="E187" s="27"/>
-      <c r="F187" s="27"/>
-      <c r="G187" s="26"/>
+      <c r="C187" s="30"/>
+      <c r="D187" s="31"/>
+      <c r="E187" s="31"/>
+      <c r="F187" s="31"/>
+      <c r="G187" s="32"/>
     </row>
     <row r="188" spans="2:7">
       <c r="B188" s="14" t="s">
@@ -5548,7 +5622,7 @@
       <c r="E188" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F188" s="14"/>
+      <c r="F188" s="27"/>
       <c r="G188" s="11"/>
     </row>
     <row r="189" spans="2:7">
@@ -5564,7 +5638,7 @@
       <c r="E189" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F189" s="14" t="s">
+      <c r="F189" s="27" t="s">
         <v>343</v>
       </c>
       <c r="G189" s="11">
@@ -5575,19 +5649,19 @@
       <c r="B190" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="C190" s="28" t="s">
+      <c r="C190" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="D190" s="27" t="s">
+      <c r="D190" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="E190" s="27" t="s">
+      <c r="E190" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="F190" s="27" t="s">
+      <c r="F190" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="G190" s="26">
+      <c r="G190" s="32">
         <v>43791</v>
       </c>
     </row>
@@ -5595,11 +5669,11 @@
       <c r="B191" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C191" s="28"/>
-      <c r="D191" s="27"/>
-      <c r="E191" s="27"/>
-      <c r="F191" s="27"/>
-      <c r="G191" s="26"/>
+      <c r="C191" s="30"/>
+      <c r="D191" s="31"/>
+      <c r="E191" s="31"/>
+      <c r="F191" s="31"/>
+      <c r="G191" s="32"/>
     </row>
     <row r="192" spans="2:7">
       <c r="B192" s="14" t="s">
@@ -5614,34 +5688,34 @@
       <c r="E192" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F192" s="14"/>
+      <c r="F192" s="27"/>
       <c r="G192" s="11"/>
     </row>
     <row r="193" spans="2:7">
       <c r="B193" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="C193" s="27" t="s">
+      <c r="C193" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="D193" s="27" t="s">
+      <c r="D193" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="E193" s="27" t="s">
+      <c r="E193" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="F193" s="27"/>
-      <c r="G193" s="26"/>
+      <c r="F193" s="31"/>
+      <c r="G193" s="32"/>
     </row>
     <row r="194" spans="2:7" ht="33">
-      <c r="B194" s="18" t="s">
+      <c r="B194" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C194" s="27"/>
-      <c r="D194" s="27"/>
-      <c r="E194" s="27"/>
-      <c r="F194" s="27"/>
-      <c r="G194" s="26"/>
+      <c r="C194" s="31"/>
+      <c r="D194" s="31"/>
+      <c r="E194" s="31"/>
+      <c r="F194" s="31"/>
+      <c r="G194" s="32"/>
     </row>
     <row r="195" spans="2:7">
       <c r="B195" s="14" t="s">
@@ -5656,44 +5730,44 @@
       <c r="E195" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F195" s="14"/>
+      <c r="F195" s="27"/>
       <c r="G195" s="11"/>
     </row>
     <row r="196" spans="2:7">
       <c r="B196" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C196" s="27" t="s">
+      <c r="C196" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="D196" s="27" t="s">
+      <c r="D196" s="31" t="s">
         <v>299</v>
       </c>
-      <c r="E196" s="27" t="s">
+      <c r="E196" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="F196" s="27"/>
-      <c r="G196" s="26"/>
+      <c r="F196" s="31"/>
+      <c r="G196" s="32"/>
     </row>
     <row r="197" spans="2:7">
       <c r="B197" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C197" s="27"/>
-      <c r="D197" s="27"/>
-      <c r="E197" s="27"/>
-      <c r="F197" s="27"/>
-      <c r="G197" s="26"/>
+      <c r="C197" s="31"/>
+      <c r="D197" s="31"/>
+      <c r="E197" s="31"/>
+      <c r="F197" s="31"/>
+      <c r="G197" s="32"/>
     </row>
     <row r="198" spans="2:7">
       <c r="B198" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C198" s="27"/>
-      <c r="D198" s="27"/>
-      <c r="E198" s="27"/>
-      <c r="F198" s="27"/>
-      <c r="G198" s="26"/>
+      <c r="C198" s="31"/>
+      <c r="D198" s="31"/>
+      <c r="E198" s="31"/>
+      <c r="F198" s="31"/>
+      <c r="G198" s="32"/>
     </row>
     <row r="199" spans="2:7">
       <c r="B199" s="14" t="s">
@@ -5708,86 +5782,86 @@
       <c r="E199" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="F199" s="14"/>
+      <c r="F199" s="27"/>
       <c r="G199" s="11"/>
     </row>
     <row r="200" spans="2:7">
       <c r="B200" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C200" s="27" t="s">
+      <c r="C200" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="D200" s="27" t="s">
+      <c r="D200" s="31" t="s">
         <v>316</v>
       </c>
-      <c r="E200" s="27" t="s">
+      <c r="E200" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="F200" s="27"/>
-      <c r="G200" s="26"/>
+      <c r="F200" s="31"/>
+      <c r="G200" s="32"/>
     </row>
     <row r="201" spans="2:7">
       <c r="B201" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C201" s="27"/>
-      <c r="D201" s="27"/>
-      <c r="E201" s="27"/>
-      <c r="F201" s="27"/>
-      <c r="G201" s="26"/>
+      <c r="C201" s="31"/>
+      <c r="D201" s="31"/>
+      <c r="E201" s="31"/>
+      <c r="F201" s="31"/>
+      <c r="G201" s="32"/>
     </row>
     <row r="202" spans="2:7">
       <c r="B202" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C202" s="27" t="s">
+      <c r="C202" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="D202" s="27" t="s">
+      <c r="D202" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="E202" s="27" t="s">
+      <c r="E202" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="F202" s="27"/>
-      <c r="G202" s="26"/>
+      <c r="F202" s="31"/>
+      <c r="G202" s="32"/>
     </row>
     <row r="203" spans="2:7">
       <c r="B203" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C203" s="27"/>
-      <c r="D203" s="27"/>
-      <c r="E203" s="27"/>
-      <c r="F203" s="27"/>
-      <c r="G203" s="26"/>
+      <c r="C203" s="31"/>
+      <c r="D203" s="31"/>
+      <c r="E203" s="31"/>
+      <c r="F203" s="31"/>
+      <c r="G203" s="32"/>
     </row>
     <row r="204" spans="2:7">
       <c r="B204" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C204" s="27" t="s">
+      <c r="C204" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="D204" s="27" t="s">
+      <c r="D204" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="E204" s="27" t="s">
+      <c r="E204" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="F204" s="27"/>
-      <c r="G204" s="26"/>
+      <c r="F204" s="31"/>
+      <c r="G204" s="32"/>
     </row>
     <row r="205" spans="2:7">
       <c r="B205" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C205" s="27"/>
-      <c r="D205" s="27"/>
-      <c r="E205" s="27"/>
-      <c r="F205" s="27"/>
-      <c r="G205" s="26"/>
+      <c r="C205" s="31"/>
+      <c r="D205" s="31"/>
+      <c r="E205" s="31"/>
+      <c r="F205" s="31"/>
+      <c r="G205" s="32"/>
     </row>
     <row r="206" spans="2:7">
       <c r="B206" s="14" t="s">
@@ -5802,7 +5876,7 @@
       <c r="E206" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="F206" s="14"/>
+      <c r="F206" s="27"/>
       <c r="G206" s="11"/>
     </row>
     <row r="207" spans="2:7">
@@ -5818,7 +5892,7 @@
       <c r="E207" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="F207" s="14"/>
+      <c r="F207" s="27"/>
       <c r="G207" s="11"/>
     </row>
     <row r="208" spans="2:7">
@@ -5834,7 +5908,7 @@
       <c r="E208" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F208" s="14"/>
+      <c r="F208" s="27"/>
       <c r="G208" s="11"/>
     </row>
     <row r="209" spans="2:7">
@@ -5850,7 +5924,7 @@
       <c r="E209" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="F209" s="14"/>
+      <c r="F209" s="27"/>
       <c r="G209" s="11"/>
     </row>
     <row r="210" spans="2:7">
@@ -5866,7 +5940,7 @@
       <c r="E210" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F210" s="14"/>
+      <c r="F210" s="27"/>
       <c r="G210" s="11"/>
     </row>
     <row r="211" spans="2:7">
@@ -5882,7 +5956,7 @@
       <c r="E211" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F211" s="14"/>
+      <c r="F211" s="27"/>
       <c r="G211" s="11"/>
     </row>
     <row r="212" spans="2:7">
@@ -5898,11 +5972,11 @@
       <c r="E212" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F212" s="14"/>
+      <c r="F212" s="27"/>
       <c r="G212" s="11"/>
     </row>
     <row r="213" spans="2:7" ht="33">
-      <c r="B213" s="18" t="s">
+      <c r="B213" s="17" t="s">
         <v>246</v>
       </c>
       <c r="C213" s="14" t="s">
@@ -5914,11 +5988,11 @@
       <c r="E213" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F213" s="14"/>
+      <c r="F213" s="27"/>
       <c r="G213" s="11"/>
     </row>
     <row r="214" spans="2:7" ht="33">
-      <c r="B214" s="18" t="s">
+      <c r="B214" s="17" t="s">
         <v>246</v>
       </c>
       <c r="C214" s="14" t="s">
@@ -5930,83 +6004,249 @@
       <c r="E214" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F214" s="14"/>
+      <c r="F214" s="27"/>
       <c r="G214" s="11"/>
+    </row>
+    <row r="215" spans="2:7">
+      <c r="B215" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="C215" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="D215" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="E215" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F215" s="27"/>
+      <c r="G215" s="26"/>
+    </row>
+    <row r="216" spans="2:7">
+      <c r="B216" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="C216" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="D216" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="E216" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F216" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="G216" s="32">
+        <v>43798</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7">
+      <c r="B217" s="31"/>
+      <c r="C217" s="30"/>
+      <c r="D217" s="31"/>
+      <c r="E217" s="31"/>
+      <c r="F217" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="G217" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:G214" xr:uid="{C1EE0C99-C2F8-4E13-983A-B3DCF9299796}"/>
-  <mergeCells count="280">
-    <mergeCell ref="C184:C187"/>
-    <mergeCell ref="D184:D187"/>
-    <mergeCell ref="E184:E187"/>
-    <mergeCell ref="F184:F187"/>
-    <mergeCell ref="G184:G187"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="G174:G175"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="E179:E180"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="G179:G180"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="G170:G171"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="G172:G173"/>
-    <mergeCell ref="G164:G166"/>
-    <mergeCell ref="F164:F166"/>
-    <mergeCell ref="E164:E166"/>
-    <mergeCell ref="D164:D166"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
+  <mergeCells count="286">
+    <mergeCell ref="G216:G217"/>
+    <mergeCell ref="E216:E217"/>
+    <mergeCell ref="D216:D217"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="G204:G205"/>
+    <mergeCell ref="G196:G198"/>
+    <mergeCell ref="F196:F198"/>
+    <mergeCell ref="E196:E198"/>
+    <mergeCell ref="D196:D198"/>
+    <mergeCell ref="C196:C198"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="F200:F201"/>
+    <mergeCell ref="G200:G201"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="G202:G203"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="G190:G191"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="G193:G194"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="C106:C107"/>
     <mergeCell ref="E149:E150"/>
     <mergeCell ref="D149:D150"/>
     <mergeCell ref="C149:C150"/>
@@ -6031,195 +6271,81 @@
     <mergeCell ref="C136:C137"/>
     <mergeCell ref="E90:E91"/>
     <mergeCell ref="D90:D91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="G190:G191"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="E193:E194"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="G193:G194"/>
-    <mergeCell ref="G204:G205"/>
-    <mergeCell ref="G196:G198"/>
-    <mergeCell ref="F196:F198"/>
-    <mergeCell ref="E196:E198"/>
-    <mergeCell ref="D196:D198"/>
-    <mergeCell ref="C196:C198"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="G200:G201"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="G202:G203"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G164:G166"/>
+    <mergeCell ref="F164:F166"/>
+    <mergeCell ref="E164:E166"/>
+    <mergeCell ref="D164:D166"/>
+    <mergeCell ref="C164:C166"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="G170:G171"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="G172:G173"/>
+    <mergeCell ref="C184:C187"/>
+    <mergeCell ref="D184:D187"/>
+    <mergeCell ref="E184:E187"/>
+    <mergeCell ref="F184:F187"/>
+    <mergeCell ref="G184:G187"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="G174:G175"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="G179:G180"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6325,72 +6451,73 @@
   <sheetData>
     <row r="2" spans="2:3" ht="17.25" thickBot="1"/>
     <row r="3" spans="2:3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Deep Learning")</f>
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Control &amp; Robotics")</f>
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Neuroscience")</f>
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Safety")</f>
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Theory &amp; Foundations")</f>
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="33">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Unsupervised Learning 
 &amp; Generative Models")</f>
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="17.25" thickBot="1">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <f>COUNTA('DeepMind Papers'!C4:C1048576)</f>
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Paper list.xlsx
+++ b/Paper list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - KoreaUniv\0.PhD\5.RLRC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taehwan/Documents/OneDrive - 고려대학교/0.PhD/5.RLRC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="386" documentId="6_{D17AB417-2265-4FB7-882A-29F92970DF89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{71BD4FE9-8740-455F-ADA7-EF1558CD4E74}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A059512A-88AE-C748-A63D-D868337AC1FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
   </bookViews>
   <sheets>
     <sheet name="DeepMind Papers" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="363">
   <si>
     <t>Title</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -969,10 +969,6 @@
   </si>
   <si>
     <t>Rae Jeong, Jackie Kay, et al.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Positive-Unlabeled Reward Learning</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1129,7 +1125,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1150,7 +1146,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1255,6 +1251,33 @@
   <si>
     <t>Mastering Atari, Go, Chess and Shogi by Planning with a Learned Model</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태환</t>
+  </si>
+  <si>
+    <t>Generalization of Reinforcement Learners with Working and Episodic Memory</t>
+  </si>
+  <si>
+    <t>Meire Fortunato, Melissa Tan, et al.</t>
+  </si>
+  <si>
+    <t>박정호</t>
+  </si>
+  <si>
+    <t>Unlabeled</t>
+  </si>
+  <si>
+    <t>Multiagent Evaluation under Incomplete Information</t>
+  </si>
+  <si>
+    <t>Mark Rowland, Shayegan Omidshafiei, et al.</t>
+  </si>
+  <si>
+    <t>이주원</t>
+  </si>
+  <si>
+    <t>Positive-Unlabeled Reward Learning</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1288,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1273,14 +1296,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1289,7 +1312,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1297,7 +1320,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1306,7 +1329,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1314,21 +1337,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1344,7 +1367,7 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1353,7 +1376,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1535,7 +1558,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1635,8 +1658,29 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1647,26 +1691,14 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="20% - 강조색5" xfId="1" builtinId="46"/>
-    <cellStyle name="좋음" xfId="2" builtinId="26"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1684,7 +1716,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1751,7 +1783,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1889,7 +1921,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="456730000"/>
@@ -1948,7 +1980,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="445140144"/>
@@ -1996,7 +2028,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2592,7 +2624,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2888,28 +2920,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D0C1FB-3C2C-47C3-B0C0-A85F23F3B3BD}">
-  <dimension ref="B1:G217"/>
+  <dimension ref="B1:G219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15:D16"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C193" sqref="C193:C194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="0.625" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="94.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="50.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="5.25" customHeight="1"/>
-    <row r="2" spans="2:7" ht="38.25">
+    <row r="2" spans="2:7" ht="31">
       <c r="B2" s="38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -2917,7 +2949,7 @@
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
     </row>
-    <row r="3" spans="2:7" s="3" customFormat="1" ht="20.25">
+    <row r="3" spans="2:7" s="3" customFormat="1" ht="19">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2953,61 +2985,61 @@
       <c r="F4" s="27"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="2:7" ht="33">
+    <row r="5" spans="2:7" ht="32">
       <c r="B5" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="31"/>
+      <c r="E5" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="34"/>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" ht="16">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="39"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" ht="16">
       <c r="B7" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="31" t="s">
+      <c r="E7" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="33">
         <v>43763</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" ht="16">
       <c r="B8" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="6" t="s">
@@ -3029,27 +3061,27 @@
       <c r="B10" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="E10" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="33"/>
+    </row>
+    <row r="11" spans="2:7" ht="16">
       <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="6" t="s">
@@ -3067,57 +3099,57 @@
       <c r="F12" s="27"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="2:7" ht="33">
+    <row r="13" spans="2:7" ht="32">
       <c r="B13" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="E13" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="33"/>
+    </row>
+    <row r="14" spans="2:7" ht="16">
       <c r="B14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-    </row>
-    <row r="15" spans="2:7" ht="33">
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="33"/>
+    </row>
+    <row r="15" spans="2:7" ht="32">
       <c r="B15" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="E15" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="33"/>
+    </row>
+    <row r="16" spans="2:7" ht="16">
       <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="6" t="s">
@@ -3171,27 +3203,27 @@
       <c r="B20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="E20" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="33"/>
+    </row>
+    <row r="21" spans="2:7" ht="16">
       <c r="B21" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="33"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="6" t="s">
@@ -3213,79 +3245,79 @@
       <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-    </row>
-    <row r="24" spans="2:7">
+      <c r="E23" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="33"/>
+    </row>
+    <row r="24" spans="2:7" ht="16">
       <c r="B24" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
-    </row>
-    <row r="25" spans="2:7">
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="33"/>
+    </row>
+    <row r="25" spans="2:7" ht="16">
       <c r="B25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
-    </row>
-    <row r="26" spans="2:7" ht="33">
+      <c r="E25" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="33"/>
+    </row>
+    <row r="26" spans="2:7" ht="32">
       <c r="B26" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32"/>
-    </row>
-    <row r="27" spans="2:7">
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="33"/>
+    </row>
+    <row r="27" spans="2:7" ht="16">
       <c r="B27" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="32"/>
-    </row>
-    <row r="28" spans="2:7">
+      <c r="E27" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="40"/>
+      <c r="G27" s="33"/>
+    </row>
+    <row r="28" spans="2:7" ht="16">
       <c r="B28" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="32"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="33"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="6" t="s">
@@ -3307,53 +3339,53 @@
       <c r="B30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="32"/>
-    </row>
-    <row r="31" spans="2:7">
+      <c r="E30" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="34"/>
+      <c r="G30" s="33"/>
+    </row>
+    <row r="31" spans="2:7" ht="16">
       <c r="B31" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
-    </row>
-    <row r="32" spans="2:7" ht="33">
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="33"/>
+    </row>
+    <row r="32" spans="2:7" ht="32">
       <c r="B32" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32"/>
-    </row>
-    <row r="33" spans="2:7">
+      <c r="E32" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="34"/>
+      <c r="G32" s="33"/>
+    </row>
+    <row r="33" spans="2:7" ht="16">
       <c r="B33" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="33"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="6" t="s">
@@ -3371,57 +3403,57 @@
       <c r="F34" s="27"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="2:7" ht="33">
+    <row r="35" spans="2:7" ht="32">
       <c r="B35" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
-    </row>
-    <row r="36" spans="2:7">
+      <c r="E35" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="34"/>
+      <c r="G35" s="33"/>
+    </row>
+    <row r="36" spans="2:7" ht="16">
       <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-    </row>
-    <row r="37" spans="2:7">
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="33"/>
+    </row>
+    <row r="37" spans="2:7" ht="16">
       <c r="B37" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="32"/>
-    </row>
-    <row r="38" spans="2:7" ht="33">
+      <c r="E37" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="34"/>
+      <c r="G37" s="33"/>
+    </row>
+    <row r="38" spans="2:7" ht="32">
       <c r="B38" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="32"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="33"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="6" t="s">
@@ -3443,27 +3475,27 @@
       <c r="B40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
-    </row>
-    <row r="41" spans="2:7" ht="33">
+      <c r="F40" s="34"/>
+      <c r="G40" s="33"/>
+    </row>
+    <row r="41" spans="2:7" ht="32">
       <c r="B41" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="32"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="33"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="6" t="s">
@@ -3501,27 +3533,27 @@
       <c r="B44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="32"/>
-    </row>
-    <row r="45" spans="2:7">
+      <c r="E44" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="34"/>
+      <c r="G44" s="33"/>
+    </row>
+    <row r="45" spans="2:7" ht="16">
       <c r="B45" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="32"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="33"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="6" t="s">
@@ -3563,27 +3595,27 @@
       <c r="B48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="31"/>
-      <c r="G48" s="32"/>
-    </row>
-    <row r="49" spans="2:7">
+      <c r="E48" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="34"/>
+      <c r="G48" s="33"/>
+    </row>
+    <row r="49" spans="2:7" ht="16">
       <c r="B49" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="32"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="33"/>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="6" t="s">
@@ -3617,7 +3649,7 @@
       <c r="F51" s="27"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" ht="16">
       <c r="B52" s="7" t="s">
         <v>244</v>
       </c>
@@ -3661,167 +3693,167 @@
       <c r="B55" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="31"/>
-      <c r="G55" s="32"/>
-    </row>
-    <row r="56" spans="2:7">
+      <c r="E55" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="34"/>
+      <c r="G55" s="33"/>
+    </row>
+    <row r="56" spans="2:7" ht="16">
       <c r="B56" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="32"/>
-    </row>
-    <row r="57" spans="2:7">
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="33"/>
+    </row>
+    <row r="57" spans="2:7" ht="16">
       <c r="B57" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="31"/>
-      <c r="G57" s="32"/>
-    </row>
-    <row r="58" spans="2:7">
+      <c r="E57" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="34"/>
+      <c r="G57" s="33"/>
+    </row>
+    <row r="58" spans="2:7" ht="16">
       <c r="B58" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="32"/>
-    </row>
-    <row r="59" spans="2:7">
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="33"/>
+    </row>
+    <row r="59" spans="2:7" ht="16">
       <c r="B59" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E59" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="31"/>
-      <c r="G59" s="32"/>
-    </row>
-    <row r="60" spans="2:7" ht="33">
+      <c r="E59" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="34"/>
+      <c r="G59" s="33"/>
+    </row>
+    <row r="60" spans="2:7" ht="32">
       <c r="B60" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="32"/>
-    </row>
-    <row r="61" spans="2:7">
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="33"/>
+    </row>
+    <row r="61" spans="2:7" ht="16">
       <c r="B61" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="31"/>
-      <c r="G61" s="32"/>
-    </row>
-    <row r="62" spans="2:7" ht="33">
+      <c r="E61" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="34"/>
+      <c r="G61" s="33"/>
+    </row>
+    <row r="62" spans="2:7" ht="32">
       <c r="B62" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="32"/>
-    </row>
-    <row r="63" spans="2:7">
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="33"/>
+    </row>
+    <row r="63" spans="2:7" ht="16">
       <c r="B63" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="32"/>
-    </row>
-    <row r="64" spans="2:7">
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="33"/>
+    </row>
+    <row r="64" spans="2:7" ht="16">
       <c r="B64" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="D64" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="E64" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="31"/>
-      <c r="G64" s="32"/>
-    </row>
-    <row r="65" spans="2:7" ht="33">
+      <c r="E64" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="34"/>
+      <c r="G64" s="33"/>
+    </row>
+    <row r="65" spans="2:7" ht="32">
       <c r="B65" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="32"/>
-    </row>
-    <row r="66" spans="2:7">
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="33"/>
+    </row>
+    <row r="66" spans="2:7" ht="16">
       <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="C66" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D66" s="31" t="s">
+      <c r="D66" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="E66" s="31" t="s">
+      <c r="E66" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="F66" s="31"/>
-      <c r="G66" s="32"/>
-    </row>
-    <row r="67" spans="2:7">
+      <c r="F66" s="34"/>
+      <c r="G66" s="33"/>
+    </row>
+    <row r="67" spans="2:7" ht="16">
       <c r="B67" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="32"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="33"/>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="6" t="s">
@@ -3875,157 +3907,157 @@
       <c r="B71" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D71" s="31" t="s">
+      <c r="D71" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="31"/>
-      <c r="G71" s="32"/>
-    </row>
-    <row r="72" spans="2:7" ht="33">
+      <c r="E71" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="34"/>
+      <c r="G71" s="33"/>
+    </row>
+    <row r="72" spans="2:7" ht="32">
       <c r="B72" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="32"/>
-    </row>
-    <row r="73" spans="2:7">
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="33"/>
+    </row>
+    <row r="73" spans="2:7" ht="16">
       <c r="B73" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C73" s="31" t="s">
+      <c r="C73" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D73" s="31" t="s">
+      <c r="D73" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="E73" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="31"/>
-      <c r="G73" s="32"/>
-    </row>
-    <row r="74" spans="2:7">
+      <c r="E73" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="34"/>
+      <c r="G73" s="33"/>
+    </row>
+    <row r="74" spans="2:7" ht="16">
       <c r="B74" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="32"/>
-    </row>
-    <row r="75" spans="2:7">
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="33"/>
+    </row>
+    <row r="75" spans="2:7" ht="16">
       <c r="B75" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C75" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="D75" s="31" t="s">
+      <c r="D75" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="E75" s="31" t="s">
+      <c r="E75" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="F75" s="37"/>
-      <c r="G75" s="32"/>
-    </row>
-    <row r="76" spans="2:7">
+      <c r="F75" s="40"/>
+      <c r="G75" s="33"/>
+    </row>
+    <row r="76" spans="2:7" ht="16">
       <c r="B76" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="32"/>
-    </row>
-    <row r="77" spans="2:7">
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="33"/>
+    </row>
+    <row r="77" spans="2:7" ht="16">
       <c r="B77" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="C77" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="31" t="s">
+      <c r="D77" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E77" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="31"/>
-      <c r="G77" s="32"/>
-    </row>
-    <row r="78" spans="2:7">
+      <c r="E77" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="34"/>
+      <c r="G77" s="33"/>
+    </row>
+    <row r="78" spans="2:7" ht="16">
       <c r="B78" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="32"/>
-    </row>
-    <row r="79" spans="2:7">
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="33"/>
+    </row>
+    <row r="79" spans="2:7" ht="16">
       <c r="B79" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C79" s="31" t="s">
+      <c r="C79" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D79" s="31" t="s">
+      <c r="D79" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="E79" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="31"/>
-      <c r="G79" s="32"/>
-    </row>
-    <row r="80" spans="2:7">
+      <c r="E79" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="34"/>
+      <c r="G79" s="33"/>
+    </row>
+    <row r="80" spans="2:7" ht="16">
       <c r="B80" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="32"/>
-    </row>
-    <row r="81" spans="2:7">
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="33"/>
+    </row>
+    <row r="81" spans="2:7" ht="16">
       <c r="B81" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="C81" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="31" t="s">
+      <c r="D81" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="E81" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="31"/>
-      <c r="G81" s="32"/>
-    </row>
-    <row r="82" spans="2:7">
+      <c r="E81" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="34"/>
+      <c r="G81" s="33"/>
+    </row>
+    <row r="82" spans="2:7" ht="16">
       <c r="B82" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="32"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="33"/>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="6" t="s">
@@ -4047,34 +4079,34 @@
       <c r="B84" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C84" s="31" t="s">
+      <c r="C84" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="D84" s="31" t="s">
+      <c r="D84" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="E84" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="31"/>
-      <c r="G84" s="32"/>
-    </row>
-    <row r="85" spans="2:7">
+      <c r="E84" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="34"/>
+      <c r="G84" s="33"/>
+    </row>
+    <row r="85" spans="2:7" ht="16">
       <c r="B85" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="32"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="33"/>
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="6" t="s">
         <v>241</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>108</v>
@@ -4093,27 +4125,27 @@
       <c r="B87" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C87" s="31" t="s">
+      <c r="C87" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D87" s="31" t="s">
+      <c r="D87" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="E87" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="31"/>
-      <c r="G87" s="32"/>
-    </row>
-    <row r="88" spans="2:7">
+      <c r="E87" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="34"/>
+      <c r="G87" s="33"/>
+    </row>
+    <row r="88" spans="2:7" ht="16">
       <c r="B88" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="32"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="33"/>
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="6" t="s">
@@ -4131,31 +4163,31 @@
       <c r="F89" s="27"/>
       <c r="G89" s="11"/>
     </row>
-    <row r="90" spans="2:7">
+    <row r="90" spans="2:7" ht="16">
       <c r="B90" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C90" s="31" t="s">
+      <c r="C90" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="D90" s="31" t="s">
+      <c r="D90" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="E90" s="31" t="s">
+      <c r="E90" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="F90" s="31"/>
-      <c r="G90" s="32"/>
-    </row>
-    <row r="91" spans="2:7">
+      <c r="F90" s="34"/>
+      <c r="G90" s="33"/>
+    </row>
+    <row r="91" spans="2:7" ht="16">
       <c r="B91" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="32"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="33"/>
     </row>
     <row r="92" spans="2:7">
       <c r="B92" s="6" t="s">
@@ -4229,27 +4261,27 @@
       <c r="B96" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C96" s="31" t="s">
+      <c r="C96" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="D96" s="31" t="s">
+      <c r="D96" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="E96" s="31" t="s">
+      <c r="E96" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="F96" s="31"/>
-      <c r="G96" s="32"/>
-    </row>
-    <row r="97" spans="2:7">
+      <c r="F96" s="34"/>
+      <c r="G96" s="33"/>
+    </row>
+    <row r="97" spans="2:7" ht="16">
       <c r="B97" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="32"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="33"/>
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="6" t="s">
@@ -4291,31 +4323,31 @@
       <c r="B100" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C100" s="30" t="s">
+      <c r="C100" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="D100" s="31" t="s">
+      <c r="D100" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="31" t="s">
+      <c r="E100" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="G100" s="40">
+      <c r="G100" s="36">
         <v>43728</v>
       </c>
     </row>
-    <row r="101" spans="2:7">
+    <row r="101" spans="2:7" ht="16">
       <c r="B101" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C101" s="30"/>
-      <c r="D101" s="31"/>
-      <c r="E101" s="31"/>
-      <c r="F101" s="31"/>
-      <c r="G101" s="41"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="34"/>
+      <c r="G101" s="37"/>
     </row>
     <row r="102" spans="2:7">
       <c r="B102" s="6" t="s">
@@ -4331,7 +4363,7 @@
         <v>11</v>
       </c>
       <c r="F102" s="27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G102" s="11">
         <v>43798</v>
@@ -4389,27 +4421,27 @@
       <c r="B106" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C106" s="31" t="s">
+      <c r="C106" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="D106" s="31" t="s">
+      <c r="D106" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="E106" s="31" t="s">
+      <c r="E106" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="F106" s="31"/>
-      <c r="G106" s="32"/>
-    </row>
-    <row r="107" spans="2:7" ht="33">
+      <c r="F106" s="34"/>
+      <c r="G106" s="33"/>
+    </row>
+    <row r="107" spans="2:7" ht="32">
       <c r="B107" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="31"/>
-      <c r="F107" s="31"/>
-      <c r="G107" s="32"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="34"/>
+      <c r="F107" s="34"/>
+      <c r="G107" s="33"/>
     </row>
     <row r="108" spans="2:7">
       <c r="B108" s="6" t="s">
@@ -4435,53 +4467,53 @@
       <c r="B109" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C109" s="31" t="s">
+      <c r="C109" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="D109" s="31" t="s">
+      <c r="D109" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="E109" s="31" t="s">
+      <c r="E109" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="F109" s="31"/>
-      <c r="G109" s="32"/>
-    </row>
-    <row r="110" spans="2:7">
+      <c r="F109" s="34"/>
+      <c r="G109" s="33"/>
+    </row>
+    <row r="110" spans="2:7" ht="16">
       <c r="B110" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C110" s="31"/>
-      <c r="D110" s="31"/>
-      <c r="E110" s="31"/>
-      <c r="F110" s="31"/>
-      <c r="G110" s="32"/>
-    </row>
-    <row r="111" spans="2:7">
+      <c r="C110" s="34"/>
+      <c r="D110" s="34"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="33"/>
+    </row>
+    <row r="111" spans="2:7" ht="16">
       <c r="B111" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C111" s="31" t="s">
+      <c r="C111" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="D111" s="31" t="s">
+      <c r="D111" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="E111" s="31" t="s">
+      <c r="E111" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="F111" s="31"/>
-      <c r="G111" s="32"/>
-    </row>
-    <row r="112" spans="2:7">
+      <c r="F111" s="34"/>
+      <c r="G111" s="33"/>
+    </row>
+    <row r="112" spans="2:7" ht="16">
       <c r="B112" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C112" s="31"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="32"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="33"/>
     </row>
     <row r="113" spans="2:7">
       <c r="B113" s="6" t="s">
@@ -4551,53 +4583,53 @@
       <c r="B117" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C117" s="31" t="s">
+      <c r="C117" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="D117" s="31" t="s">
+      <c r="D117" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E117" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="31"/>
-      <c r="G117" s="32"/>
-    </row>
-    <row r="118" spans="2:7">
+      <c r="E117" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="34"/>
+      <c r="G117" s="33"/>
+    </row>
+    <row r="118" spans="2:7" ht="16">
       <c r="B118" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C118" s="31"/>
-      <c r="D118" s="31"/>
-      <c r="E118" s="31"/>
-      <c r="F118" s="31"/>
-      <c r="G118" s="32"/>
-    </row>
-    <row r="119" spans="2:7">
+      <c r="C118" s="34"/>
+      <c r="D118" s="34"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="34"/>
+      <c r="G118" s="33"/>
+    </row>
+    <row r="119" spans="2:7" ht="16">
       <c r="B119" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C119" s="31" t="s">
+      <c r="C119" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="D119" s="31" t="s">
+      <c r="D119" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="E119" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="31"/>
-      <c r="G119" s="32"/>
-    </row>
-    <row r="120" spans="2:7">
+      <c r="E119" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="34"/>
+      <c r="G119" s="33"/>
+    </row>
+    <row r="120" spans="2:7" ht="16">
       <c r="B120" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C120" s="31"/>
-      <c r="D120" s="31"/>
-      <c r="E120" s="31"/>
-      <c r="F120" s="31"/>
-      <c r="G120" s="32"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="34"/>
+      <c r="E120" s="34"/>
+      <c r="F120" s="34"/>
+      <c r="G120" s="33"/>
     </row>
     <row r="121" spans="2:7">
       <c r="B121" s="6" t="s">
@@ -4699,27 +4731,27 @@
       <c r="B127" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C127" s="31" t="s">
+      <c r="C127" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="D127" s="31" t="s">
+      <c r="D127" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="E127" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="31"/>
-      <c r="G127" s="32"/>
-    </row>
-    <row r="128" spans="2:7">
+      <c r="E127" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="34"/>
+      <c r="G127" s="33"/>
+    </row>
+    <row r="128" spans="2:7" ht="16">
       <c r="B128" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C128" s="31"/>
-      <c r="D128" s="31"/>
-      <c r="E128" s="31"/>
-      <c r="F128" s="31"/>
-      <c r="G128" s="32"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="34"/>
+      <c r="E128" s="34"/>
+      <c r="F128" s="34"/>
+      <c r="G128" s="33"/>
     </row>
     <row r="129" spans="2:7">
       <c r="B129" s="6" t="s">
@@ -4769,27 +4801,27 @@
       <c r="B132" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C132" s="31" t="s">
+      <c r="C132" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="D132" s="31" t="s">
+      <c r="D132" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="E132" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="31"/>
-      <c r="G132" s="32"/>
-    </row>
-    <row r="133" spans="2:7">
+      <c r="E132" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="34"/>
+      <c r="G132" s="33"/>
+    </row>
+    <row r="133" spans="2:7" ht="16">
       <c r="B133" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C133" s="31"/>
-      <c r="D133" s="31"/>
-      <c r="E133" s="31"/>
-      <c r="F133" s="31"/>
-      <c r="G133" s="32"/>
+      <c r="C133" s="34"/>
+      <c r="D133" s="34"/>
+      <c r="E133" s="34"/>
+      <c r="F133" s="34"/>
+      <c r="G133" s="33"/>
     </row>
     <row r="134" spans="2:7">
       <c r="B134" s="6" t="s">
@@ -4823,33 +4855,33 @@
       <c r="F135" s="27"/>
       <c r="G135" s="11"/>
     </row>
-    <row r="136" spans="2:7" ht="33">
+    <row r="136" spans="2:7" ht="32">
       <c r="B136" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C136" s="31" t="s">
+      <c r="C136" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="D136" s="31" t="s">
+      <c r="D136" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="E136" s="31" t="s">
+      <c r="E136" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="F136" s="31"/>
-      <c r="G136" s="32"/>
-    </row>
-    <row r="137" spans="2:7">
+      <c r="F136" s="34"/>
+      <c r="G136" s="33"/>
+    </row>
+    <row r="137" spans="2:7" ht="16">
       <c r="B137" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C137" s="31"/>
-      <c r="D137" s="31"/>
-      <c r="E137" s="31"/>
-      <c r="F137" s="31"/>
-      <c r="G137" s="32"/>
-    </row>
-    <row r="138" spans="2:7" ht="33">
+      <c r="C137" s="34"/>
+      <c r="D137" s="34"/>
+      <c r="E137" s="34"/>
+      <c r="F137" s="34"/>
+      <c r="G137" s="33"/>
+    </row>
+    <row r="138" spans="2:7" ht="32">
       <c r="B138" s="7" t="s">
         <v>246</v>
       </c>
@@ -4865,7 +4897,7 @@
       <c r="F138" s="27"/>
       <c r="G138" s="11"/>
     </row>
-    <row r="139" spans="2:7" ht="33">
+    <row r="139" spans="2:7" ht="32">
       <c r="B139" s="7" t="s">
         <v>246</v>
       </c>
@@ -4885,7 +4917,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="140" spans="2:7" ht="33">
+    <row r="140" spans="2:7" ht="32">
       <c r="B140" s="7" t="s">
         <v>246</v>
       </c>
@@ -4901,7 +4933,7 @@
       <c r="F140" s="27"/>
       <c r="G140" s="11"/>
     </row>
-    <row r="141" spans="2:7" ht="33">
+    <row r="141" spans="2:7" ht="32">
       <c r="B141" s="7" t="s">
         <v>246</v>
       </c>
@@ -4917,7 +4949,7 @@
       <c r="F141" s="27"/>
       <c r="G141" s="11"/>
     </row>
-    <row r="142" spans="2:7" ht="33">
+    <row r="142" spans="2:7" ht="32">
       <c r="B142" s="7" t="s">
         <v>246</v>
       </c>
@@ -4941,29 +4973,29 @@
       <c r="B143" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C143" s="31" t="s">
+      <c r="C143" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="D143" s="31" t="s">
+      <c r="D143" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="E143" s="31" t="s">
+      <c r="E143" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F143" s="31"/>
-      <c r="G143" s="32"/>
-    </row>
-    <row r="144" spans="2:7" ht="33">
+      <c r="F143" s="34"/>
+      <c r="G143" s="33"/>
+    </row>
+    <row r="144" spans="2:7" ht="32">
       <c r="B144" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C144" s="31"/>
-      <c r="D144" s="31"/>
-      <c r="E144" s="31"/>
-      <c r="F144" s="31"/>
-      <c r="G144" s="32"/>
-    </row>
-    <row r="145" spans="2:7" ht="33">
+      <c r="C144" s="34"/>
+      <c r="D144" s="34"/>
+      <c r="E144" s="34"/>
+      <c r="F144" s="34"/>
+      <c r="G144" s="33"/>
+    </row>
+    <row r="145" spans="2:7" ht="32">
       <c r="B145" s="7" t="s">
         <v>246</v>
       </c>
@@ -4979,7 +5011,7 @@
       <c r="F145" s="27"/>
       <c r="G145" s="11"/>
     </row>
-    <row r="146" spans="2:7" ht="33">
+    <row r="146" spans="2:7" ht="32">
       <c r="B146" s="7" t="s">
         <v>246</v>
       </c>
@@ -4999,7 +5031,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="147" spans="2:7" ht="33">
+    <row r="147" spans="2:7" ht="32">
       <c r="B147" s="7" t="s">
         <v>246</v>
       </c>
@@ -5019,7 +5051,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="148" spans="2:7" ht="33">
+    <row r="148" spans="2:7" ht="32">
       <c r="B148" s="7" t="s">
         <v>246</v>
       </c>
@@ -5039,27 +5071,27 @@
       <c r="B149" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C149" s="31" t="s">
+      <c r="C149" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="D149" s="31" t="s">
+      <c r="D149" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="E149" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="31"/>
-      <c r="G149" s="32"/>
-    </row>
-    <row r="150" spans="2:7" ht="33">
+      <c r="E149" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="34"/>
+      <c r="G149" s="33"/>
+    </row>
+    <row r="150" spans="2:7" ht="32">
       <c r="B150" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C150" s="31"/>
-      <c r="D150" s="31"/>
-      <c r="E150" s="31"/>
-      <c r="F150" s="31"/>
-      <c r="G150" s="32"/>
+      <c r="C150" s="34"/>
+      <c r="D150" s="34"/>
+      <c r="E150" s="34"/>
+      <c r="F150" s="34"/>
+      <c r="G150" s="33"/>
     </row>
     <row r="151" spans="2:7">
       <c r="B151" s="6" t="s">
@@ -5273,19 +5305,19 @@
       <c r="B164" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C164" s="36" t="s">
+      <c r="C164" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="D164" s="35" t="s">
+      <c r="D164" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="E164" s="35" t="s">
+      <c r="E164" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="F164" s="35" t="s">
+      <c r="F164" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="G164" s="34">
+      <c r="G164" s="41">
         <v>43763</v>
       </c>
     </row>
@@ -5293,47 +5325,47 @@
       <c r="B165" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="C165" s="36"/>
-      <c r="D165" s="35"/>
-      <c r="E165" s="35"/>
-      <c r="F165" s="35"/>
-      <c r="G165" s="34"/>
+      <c r="C165" s="43"/>
+      <c r="D165" s="42"/>
+      <c r="E165" s="42"/>
+      <c r="F165" s="42"/>
+      <c r="G165" s="41"/>
     </row>
     <row r="166" spans="2:7">
       <c r="B166" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C166" s="36"/>
-      <c r="D166" s="35"/>
-      <c r="E166" s="35"/>
-      <c r="F166" s="35"/>
-      <c r="G166" s="34"/>
+      <c r="C166" s="43"/>
+      <c r="D166" s="42"/>
+      <c r="E166" s="42"/>
+      <c r="F166" s="42"/>
+      <c r="G166" s="41"/>
     </row>
     <row r="167" spans="2:7">
       <c r="B167" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C167" s="31" t="s">
+      <c r="C167" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="D167" s="33" t="s">
+      <c r="D167" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="E167" s="31" t="s">
+      <c r="E167" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="F167" s="31"/>
-      <c r="G167" s="32"/>
+      <c r="F167" s="34"/>
+      <c r="G167" s="33"/>
     </row>
     <row r="168" spans="2:7">
       <c r="B168" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C168" s="31"/>
-      <c r="D168" s="33"/>
-      <c r="E168" s="31"/>
-      <c r="F168" s="31"/>
-      <c r="G168" s="32"/>
+      <c r="C168" s="34"/>
+      <c r="D168" s="44"/>
+      <c r="E168" s="34"/>
+      <c r="F168" s="34"/>
+      <c r="G168" s="33"/>
     </row>
     <row r="169" spans="2:7">
       <c r="B169" s="14" t="s">
@@ -5355,71 +5387,71 @@
       <c r="B170" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C170" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="D170" s="31" t="s">
+      <c r="C170" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="D170" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="E170" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F170" s="31"/>
-      <c r="G170" s="32"/>
-    </row>
-    <row r="171" spans="2:7" ht="33">
+      <c r="E170" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" s="34"/>
+      <c r="G170" s="33"/>
+    </row>
+    <row r="171" spans="2:7" ht="32">
       <c r="B171" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C171" s="31"/>
-      <c r="D171" s="31"/>
-      <c r="E171" s="31"/>
-      <c r="F171" s="31"/>
-      <c r="G171" s="32"/>
+      <c r="C171" s="34"/>
+      <c r="D171" s="34"/>
+      <c r="E171" s="34"/>
+      <c r="F171" s="34"/>
+      <c r="G171" s="33"/>
     </row>
     <row r="172" spans="2:7">
       <c r="B172" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="D172" s="33" t="s">
+      <c r="C172" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="D172" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="E172" s="31" t="s">
+      <c r="E172" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="F172" s="31"/>
-      <c r="G172" s="32"/>
-    </row>
-    <row r="173" spans="2:7" ht="33">
+      <c r="F172" s="34"/>
+      <c r="G172" s="33"/>
+    </row>
+    <row r="173" spans="2:7" ht="32">
       <c r="B173" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C173" s="31"/>
-      <c r="D173" s="31"/>
-      <c r="E173" s="31"/>
-      <c r="F173" s="31"/>
-      <c r="G173" s="32"/>
-    </row>
-    <row r="174" spans="2:7" ht="33">
+      <c r="C173" s="34"/>
+      <c r="D173" s="34"/>
+      <c r="E173" s="34"/>
+      <c r="F173" s="34"/>
+      <c r="G173" s="33"/>
+    </row>
+    <row r="174" spans="2:7" ht="32">
       <c r="B174" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C174" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="D174" s="31" t="s">
+      <c r="C174" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="D174" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="E174" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F174" s="31" t="s">
+      <c r="E174" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="G174" s="32">
+      <c r="G174" s="33">
         <v>43770</v>
       </c>
     </row>
@@ -5427,18 +5459,18 @@
       <c r="B175" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C175" s="30"/>
-      <c r="D175" s="31"/>
-      <c r="E175" s="31"/>
-      <c r="F175" s="31"/>
-      <c r="G175" s="32"/>
+      <c r="C175" s="35"/>
+      <c r="D175" s="34"/>
+      <c r="E175" s="34"/>
+      <c r="F175" s="34"/>
+      <c r="G175" s="33"/>
     </row>
     <row r="176" spans="2:7">
       <c r="B176" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D176" s="14" t="s">
         <v>277</v>
@@ -5454,7 +5486,7 @@
         <v>2</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D177" s="14" t="s">
         <v>278</v>
@@ -5470,7 +5502,7 @@
         <v>2</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D178" s="14" t="s">
         <v>279</v>
@@ -5485,34 +5517,34 @@
       <c r="B179" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C179" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="D179" s="31" t="s">
+      <c r="C179" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="D179" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="E179" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F179" s="31"/>
-      <c r="G179" s="32"/>
+      <c r="E179" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F179" s="34"/>
+      <c r="G179" s="33"/>
     </row>
     <row r="180" spans="2:7">
       <c r="B180" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C180" s="31"/>
-      <c r="D180" s="31"/>
-      <c r="E180" s="31"/>
-      <c r="F180" s="31"/>
-      <c r="G180" s="32"/>
+      <c r="C180" s="34"/>
+      <c r="D180" s="34"/>
+      <c r="E180" s="34"/>
+      <c r="F180" s="34"/>
+      <c r="G180" s="33"/>
     </row>
     <row r="181" spans="2:7">
       <c r="B181" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D181" s="14" t="s">
         <v>281</v>
@@ -5528,7 +5560,7 @@
         <v>2</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D182" s="14" t="s">
         <v>282</v>
@@ -5537,18 +5569,18 @@
         <v>11</v>
       </c>
       <c r="F182" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G182" s="11">
         <v>43791</v>
       </c>
     </row>
-    <row r="183" spans="2:7">
+    <row r="183" spans="2:7" ht="16">
       <c r="B183" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D183" s="17" t="s">
         <v>283</v>
@@ -5563,19 +5595,19 @@
       <c r="B184" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C184" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="D184" s="31" t="s">
+      <c r="C184" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="D184" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="E184" s="34" t="s">
         <v>341</v>
       </c>
-      <c r="E184" s="31" t="s">
-        <v>342</v>
-      </c>
-      <c r="F184" s="31" t="s">
+      <c r="F184" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="G184" s="32">
+      <c r="G184" s="33">
         <v>43791</v>
       </c>
     </row>
@@ -5583,38 +5615,38 @@
       <c r="B185" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C185" s="30"/>
-      <c r="D185" s="31"/>
-      <c r="E185" s="31"/>
-      <c r="F185" s="31"/>
-      <c r="G185" s="32"/>
+      <c r="C185" s="35"/>
+      <c r="D185" s="34"/>
+      <c r="E185" s="34"/>
+      <c r="F185" s="34"/>
+      <c r="G185" s="33"/>
     </row>
     <row r="186" spans="2:7">
       <c r="B186" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C186" s="30"/>
-      <c r="D186" s="31"/>
-      <c r="E186" s="31"/>
-      <c r="F186" s="31"/>
-      <c r="G186" s="32"/>
+      <c r="C186" s="35"/>
+      <c r="D186" s="34"/>
+      <c r="E186" s="34"/>
+      <c r="F186" s="34"/>
+      <c r="G186" s="33"/>
     </row>
     <row r="187" spans="2:7">
       <c r="B187" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="C187" s="30"/>
-      <c r="D187" s="31"/>
-      <c r="E187" s="31"/>
-      <c r="F187" s="31"/>
-      <c r="G187" s="32"/>
+      <c r="C187" s="35"/>
+      <c r="D187" s="34"/>
+      <c r="E187" s="34"/>
+      <c r="F187" s="34"/>
+      <c r="G187" s="33"/>
     </row>
     <row r="188" spans="2:7">
       <c r="B188" s="14" t="s">
         <v>241</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D188" s="14" t="s">
         <v>284</v>
@@ -5639,7 +5671,7 @@
         <v>120</v>
       </c>
       <c r="F189" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G189" s="11">
         <v>43791</v>
@@ -5649,19 +5681,19 @@
       <c r="B190" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="C190" s="30" t="s">
+      <c r="C190" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="D190" s="31" t="s">
+      <c r="D190" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="E190" s="31" t="s">
+      <c r="E190" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="F190" s="31" t="s">
-        <v>345</v>
-      </c>
-      <c r="G190" s="32">
+      <c r="F190" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="G190" s="33">
         <v>43791</v>
       </c>
     </row>
@@ -5669,11 +5701,11 @@
       <c r="B191" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C191" s="30"/>
-      <c r="D191" s="31"/>
-      <c r="E191" s="31"/>
-      <c r="F191" s="31"/>
-      <c r="G191" s="32"/>
+      <c r="C191" s="35"/>
+      <c r="D191" s="34"/>
+      <c r="E191" s="34"/>
+      <c r="F191" s="34"/>
+      <c r="G191" s="33"/>
     </row>
     <row r="192" spans="2:7">
       <c r="B192" s="14" t="s">
@@ -5695,37 +5727,41 @@
       <c r="B193" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="C193" s="31" t="s">
+      <c r="C193" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="D193" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="D193" s="31" t="s">
-        <v>295</v>
-      </c>
-      <c r="E193" s="31" t="s">
+      <c r="E193" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F193" s="31"/>
-      <c r="G193" s="32"/>
-    </row>
-    <row r="194" spans="2:7" ht="33">
+      <c r="F193" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="G193" s="33">
+        <v>43805</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" ht="32">
       <c r="B194" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C194" s="31"/>
-      <c r="D194" s="31"/>
-      <c r="E194" s="31"/>
-      <c r="F194" s="31"/>
-      <c r="G194" s="32"/>
+      <c r="C194" s="35"/>
+      <c r="D194" s="34"/>
+      <c r="E194" s="34"/>
+      <c r="F194" s="34"/>
+      <c r="G194" s="33"/>
     </row>
     <row r="195" spans="2:7">
       <c r="B195" s="14" t="s">
         <v>265</v>
       </c>
       <c r="C195" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D195" s="14" t="s">
         <v>296</v>
-      </c>
-      <c r="D195" s="14" t="s">
-        <v>297</v>
       </c>
       <c r="E195" s="14" t="s">
         <v>120</v>
@@ -5737,50 +5773,50 @@
       <c r="B196" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C196" s="31" t="s">
+      <c r="C196" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="D196" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="D196" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="E196" s="31" t="s">
+      <c r="E196" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F196" s="31"/>
-      <c r="G196" s="32"/>
+      <c r="F196" s="34"/>
+      <c r="G196" s="33"/>
     </row>
     <row r="197" spans="2:7">
       <c r="B197" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C197" s="31"/>
-      <c r="D197" s="31"/>
-      <c r="E197" s="31"/>
-      <c r="F197" s="31"/>
-      <c r="G197" s="32"/>
+      <c r="C197" s="34"/>
+      <c r="D197" s="34"/>
+      <c r="E197" s="34"/>
+      <c r="F197" s="34"/>
+      <c r="G197" s="33"/>
     </row>
     <row r="198" spans="2:7">
       <c r="B198" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C198" s="31"/>
-      <c r="D198" s="31"/>
-      <c r="E198" s="31"/>
-      <c r="F198" s="31"/>
-      <c r="G198" s="32"/>
+      <c r="C198" s="34"/>
+      <c r="D198" s="34"/>
+      <c r="E198" s="34"/>
+      <c r="F198" s="34"/>
+      <c r="G198" s="33"/>
     </row>
     <row r="199" spans="2:7">
       <c r="B199" s="14" t="s">
         <v>265</v>
       </c>
       <c r="C199" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D199" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="D199" s="14" t="s">
-        <v>314</v>
-      </c>
       <c r="E199" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F199" s="27"/>
       <c r="G199" s="11"/>
@@ -5789,92 +5825,92 @@
       <c r="B200" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C200" s="31" t="s">
+      <c r="C200" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="D200" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="D200" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="E200" s="31" t="s">
+      <c r="E200" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F200" s="31"/>
-      <c r="G200" s="32"/>
+      <c r="F200" s="34"/>
+      <c r="G200" s="33"/>
     </row>
     <row r="201" spans="2:7">
       <c r="B201" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C201" s="31"/>
-      <c r="D201" s="31"/>
-      <c r="E201" s="31"/>
-      <c r="F201" s="31"/>
-      <c r="G201" s="32"/>
+      <c r="C201" s="34"/>
+      <c r="D201" s="34"/>
+      <c r="E201" s="34"/>
+      <c r="F201" s="34"/>
+      <c r="G201" s="33"/>
     </row>
     <row r="202" spans="2:7">
       <c r="B202" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C202" s="31" t="s">
+      <c r="C202" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="D202" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="D202" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="E202" s="31" t="s">
+      <c r="E202" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F202" s="31"/>
-      <c r="G202" s="32"/>
+      <c r="F202" s="34"/>
+      <c r="G202" s="33"/>
     </row>
     <row r="203" spans="2:7">
       <c r="B203" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C203" s="31"/>
-      <c r="D203" s="31"/>
-      <c r="E203" s="31"/>
-      <c r="F203" s="31"/>
-      <c r="G203" s="32"/>
+      <c r="C203" s="34"/>
+      <c r="D203" s="34"/>
+      <c r="E203" s="34"/>
+      <c r="F203" s="34"/>
+      <c r="G203" s="33"/>
     </row>
     <row r="204" spans="2:7">
       <c r="B204" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C204" s="31" t="s">
+      <c r="C204" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="D204" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="D204" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="E204" s="31" t="s">
+      <c r="E204" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F204" s="31"/>
-      <c r="G204" s="32"/>
+      <c r="F204" s="34"/>
+      <c r="G204" s="33"/>
     </row>
     <row r="205" spans="2:7">
       <c r="B205" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C205" s="31"/>
-      <c r="D205" s="31"/>
-      <c r="E205" s="31"/>
-      <c r="F205" s="31"/>
-      <c r="G205" s="32"/>
+      <c r="C205" s="34"/>
+      <c r="D205" s="34"/>
+      <c r="E205" s="34"/>
+      <c r="F205" s="34"/>
+      <c r="G205" s="33"/>
     </row>
     <row r="206" spans="2:7">
       <c r="B206" s="14" t="s">
         <v>265</v>
       </c>
       <c r="C206" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="D206" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="D206" s="14" t="s">
+      <c r="E206" s="14" t="s">
         <v>322</v>
-      </c>
-      <c r="E206" s="14" t="s">
-        <v>323</v>
       </c>
       <c r="F206" s="27"/>
       <c r="G206" s="11"/>
@@ -5884,13 +5920,13 @@
         <v>266</v>
       </c>
       <c r="C207" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="D207" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="D207" s="14" t="s">
-        <v>325</v>
-      </c>
       <c r="E207" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F207" s="27"/>
       <c r="G207" s="11"/>
@@ -5900,10 +5936,10 @@
         <v>266</v>
       </c>
       <c r="C208" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="D208" s="14" t="s">
         <v>326</v>
-      </c>
-      <c r="D208" s="14" t="s">
-        <v>327</v>
       </c>
       <c r="E208" s="14" t="s">
         <v>120</v>
@@ -5911,18 +5947,18 @@
       <c r="F208" s="27"/>
       <c r="G208" s="11"/>
     </row>
-    <row r="209" spans="2:7">
+    <row r="209" spans="2:7" ht="17">
       <c r="B209" s="14" t="s">
         <v>266</v>
       </c>
       <c r="C209" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="D209" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="D209" s="14" t="s">
+      <c r="E209" s="14" t="s">
         <v>329</v>
-      </c>
-      <c r="E209" s="14" t="s">
-        <v>330</v>
       </c>
       <c r="F209" s="27"/>
       <c r="G209" s="11"/>
@@ -5932,10 +5968,10 @@
         <v>266</v>
       </c>
       <c r="C210" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D210" s="14" t="s">
         <v>331</v>
-      </c>
-      <c r="D210" s="14" t="s">
-        <v>332</v>
       </c>
       <c r="E210" s="14" t="s">
         <v>120</v>
@@ -5948,10 +5984,10 @@
         <v>266</v>
       </c>
       <c r="C211" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="D211" s="14" t="s">
         <v>333</v>
-      </c>
-      <c r="D211" s="14" t="s">
-        <v>334</v>
       </c>
       <c r="E211" s="14" t="s">
         <v>120</v>
@@ -5964,10 +6000,10 @@
         <v>266</v>
       </c>
       <c r="C212" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="D212" s="14" t="s">
         <v>335</v>
-      </c>
-      <c r="D212" s="14" t="s">
-        <v>336</v>
       </c>
       <c r="E212" s="14" t="s">
         <v>120</v>
@@ -5975,15 +6011,15 @@
       <c r="F212" s="27"/>
       <c r="G212" s="11"/>
     </row>
-    <row r="213" spans="2:7" ht="33">
+    <row r="213" spans="2:7" ht="32">
       <c r="B213" s="17" t="s">
         <v>246</v>
       </c>
       <c r="C213" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="D213" s="14" t="s">
         <v>337</v>
-      </c>
-      <c r="D213" s="14" t="s">
-        <v>338</v>
       </c>
       <c r="E213" s="14" t="s">
         <v>120</v>
@@ -5991,15 +6027,15 @@
       <c r="F213" s="27"/>
       <c r="G213" s="11"/>
     </row>
-    <row r="214" spans="2:7" ht="33">
+    <row r="214" spans="2:7" ht="32">
       <c r="B214" s="17" t="s">
         <v>246</v>
       </c>
       <c r="C214" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D214" s="14" t="s">
         <v>339</v>
-      </c>
-      <c r="D214" s="14" t="s">
-        <v>340</v>
       </c>
       <c r="E214" s="14" t="s">
         <v>120</v>
@@ -6012,10 +6048,10 @@
         <v>261</v>
       </c>
       <c r="C215" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="D215" s="27" t="s">
         <v>351</v>
-      </c>
-      <c r="D215" s="27" t="s">
-        <v>352</v>
       </c>
       <c r="E215" s="27" t="s">
         <v>120</v>
@@ -6024,38 +6060,340 @@
       <c r="G215" s="26"/>
     </row>
     <row r="216" spans="2:7">
-      <c r="B216" s="31" t="s">
+      <c r="B216" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="C216" s="30" t="s">
-        <v>354</v>
-      </c>
-      <c r="D216" s="31" t="s">
+      <c r="C216" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="E216" s="31" t="s">
+      <c r="D216" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="E216" s="34" t="s">
         <v>120</v>
       </c>
       <c r="F216" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="G216" s="32">
+      <c r="G216" s="33">
         <v>43798</v>
       </c>
     </row>
     <row r="217" spans="2:7">
-      <c r="B217" s="31"/>
-      <c r="C217" s="30"/>
-      <c r="D217" s="31"/>
-      <c r="E217" s="31"/>
+      <c r="B217" s="34"/>
+      <c r="C217" s="35"/>
+      <c r="D217" s="34"/>
+      <c r="E217" s="34"/>
       <c r="F217" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="G217" s="32"/>
+        <v>342</v>
+      </c>
+      <c r="G217" s="33"/>
+    </row>
+    <row r="218" spans="2:7">
+      <c r="B218" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="C218" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="D218" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="E218" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="F218" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="G218" s="32">
+        <v>43805</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7">
+      <c r="B219" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="C219" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="D219" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="E219" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="F219" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="G219" s="32">
+        <v>43805</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B3:G214" xr:uid="{C1EE0C99-C2F8-4E13-983A-B3DCF9299796}"/>
   <mergeCells count="286">
+    <mergeCell ref="C184:C187"/>
+    <mergeCell ref="D184:D187"/>
+    <mergeCell ref="E184:E187"/>
+    <mergeCell ref="F184:F187"/>
+    <mergeCell ref="G184:G187"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="G174:G175"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="G170:G171"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="G172:G173"/>
+    <mergeCell ref="G164:G166"/>
+    <mergeCell ref="F164:F166"/>
+    <mergeCell ref="E164:E166"/>
+    <mergeCell ref="D164:D166"/>
+    <mergeCell ref="C164:C166"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="G190:G191"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="G193:G194"/>
     <mergeCell ref="G216:G217"/>
     <mergeCell ref="E216:E217"/>
     <mergeCell ref="D216:D217"/>
@@ -6080,268 +6418,6 @@
     <mergeCell ref="C204:C205"/>
     <mergeCell ref="D204:D205"/>
     <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="G190:G191"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="E193:E194"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="G193:G194"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G164:G166"/>
-    <mergeCell ref="F164:F166"/>
-    <mergeCell ref="E164:E166"/>
-    <mergeCell ref="D164:D166"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="G170:G171"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="G172:G173"/>
-    <mergeCell ref="C184:C187"/>
-    <mergeCell ref="D184:D187"/>
-    <mergeCell ref="E184:E187"/>
-    <mergeCell ref="F184:F187"/>
-    <mergeCell ref="G184:G187"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="G174:G175"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="E179:E180"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="G179:G180"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6357,19 +6433,19 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="0.875" customWidth="1"/>
+    <col min="1" max="1" width="0.83203125" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="90.625" customWidth="1"/>
+    <col min="3" max="3" width="90.6640625" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="5.25" customHeight="1"/>
-    <row r="2" spans="2:7" ht="20.25">
+    <row r="2" spans="2:7" ht="19">
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
@@ -6444,12 +6520,12 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:3" ht="16" thickBot="1"/>
     <row r="3" spans="2:3">
       <c r="B3" s="18" t="s">
         <v>261</v>
@@ -6470,7 +6546,7 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C5" s="21">
         <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Neuroscience")</f>
@@ -6495,7 +6571,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="33">
+    <row r="8" spans="2:3" ht="32">
       <c r="B8" s="22" t="s">
         <v>246</v>
       </c>
@@ -6505,13 +6581,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="17.25" thickBot="1">
+    <row r="9" spans="2:3" ht="16" thickBot="1">
       <c r="B9" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C9" s="24">
         <f>COUNTA('DeepMind Papers'!C4:C1048576)</f>
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Paper list.xlsx
+++ b/Paper list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taehwan/Documents/OneDrive - 고려대학교/0.PhD/5.RLRC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - KoreaUniv\0.PhD\5.RLRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A059512A-88AE-C748-A63D-D868337AC1FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{8B02BCE2-9722-4FD5-A6EE-AFFF1C0C4646}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
   </bookViews>
   <sheets>
     <sheet name="DeepMind Papers" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="363">
   <si>
     <t>Title</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1125,7 +1125,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1146,7 +1146,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1284,11 +1284,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1296,14 +1296,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1312,7 +1312,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1320,7 +1320,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1329,7 +1329,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1337,21 +1337,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1367,7 +1367,7 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1376,7 +1376,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1558,7 +1558,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1658,29 +1658,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1691,14 +1682,26 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - 강조색5" xfId="1" builtinId="46"/>
+    <cellStyle name="좋음" xfId="2" builtinId="26"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1716,7 +1719,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1783,7 +1786,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ko-KR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1921,7 +1924,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="456730000"/>
@@ -1980,7 +1983,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="445140144"/>
@@ -2028,7 +2031,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ko-KR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2624,7 +2627,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2922,34 +2925,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D0C1FB-3C2C-47C3-B0C0-A85F23F3B3BD}">
   <dimension ref="B1:G219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C193" sqref="C193:C194"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="94.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.625" customWidth="1"/>
+    <col min="2" max="2" width="23.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="50.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="5.25" customHeight="1"/>
-    <row r="2" spans="2:7" ht="31">
-      <c r="B2" s="38" t="s">
+    <row r="1" spans="2:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-    </row>
-    <row r="3" spans="2:7" s="3" customFormat="1" ht="19">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+    </row>
+    <row r="3" spans="2:7" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2969,7 +2972,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -2985,63 +2988,63 @@
       <c r="F4" s="27"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="2:7" ht="32">
+    <row r="5" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="39"/>
-    </row>
-    <row r="6" spans="2:7" ht="16">
+      <c r="E5" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="43"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="39"/>
-    </row>
-    <row r="7" spans="2:7" ht="16">
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="43"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="34" t="s">
+      <c r="E7" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="36">
         <v>43763</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="16">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="33"/>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
@@ -3057,33 +3060,33 @@
       <c r="F9" s="27"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" spans="2:7" ht="16">
+      <c r="E10" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
@@ -3099,59 +3102,59 @@
       <c r="F12" s="27"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="2:7" ht="32">
+    <row r="13" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="33"/>
-    </row>
-    <row r="14" spans="2:7" ht="16">
+      <c r="E13" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="33"/>
-    </row>
-    <row r="15" spans="2:7" ht="32">
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="33"/>
-    </row>
-    <row r="16" spans="2:7" ht="16">
+      <c r="E15" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
@@ -3167,11 +3170,11 @@
       <c r="F17" s="27"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="33" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -3180,10 +3183,14 @@
       <c r="E18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="F18" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="G18" s="11">
+        <v>43805</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
@@ -3199,33 +3206,33 @@
       <c r="F19" s="27"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="33"/>
-    </row>
-    <row r="21" spans="2:7" ht="16">
+      <c r="E20" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="33"/>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
         <v>2</v>
       </c>
@@ -3241,85 +3248,85 @@
       <c r="F22" s="27"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="33"/>
-    </row>
-    <row r="24" spans="2:7" ht="16">
+      <c r="E23" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="33"/>
-    </row>
-    <row r="25" spans="2:7" ht="16">
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="33"/>
-    </row>
-    <row r="26" spans="2:7" ht="32">
+      <c r="E25" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="33"/>
-    </row>
-    <row r="27" spans="2:7" ht="16">
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="33"/>
-    </row>
-    <row r="28" spans="2:7" ht="16">
+      <c r="E27" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="41"/>
+      <c r="G27" s="36"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="33"/>
-    </row>
-    <row r="29" spans="2:7">
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="36"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>2</v>
       </c>
@@ -3335,59 +3342,59 @@
       <c r="F29" s="27"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="34"/>
-      <c r="G30" s="33"/>
-    </row>
-    <row r="31" spans="2:7" ht="16">
+      <c r="E30" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="33"/>
-    </row>
-    <row r="32" spans="2:7" ht="32">
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+    </row>
+    <row r="32" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="33"/>
-    </row>
-    <row r="33" spans="2:7" ht="16">
+      <c r="E32" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="33"/>
-    </row>
-    <row r="34" spans="2:7">
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="36"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
         <v>2</v>
       </c>
@@ -3403,59 +3410,59 @@
       <c r="F34" s="27"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="2:7" ht="32">
+    <row r="35" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="33"/>
-    </row>
-    <row r="36" spans="2:7" ht="16">
+      <c r="E35" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="35"/>
+      <c r="G35" s="36"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="33"/>
-    </row>
-    <row r="37" spans="2:7" ht="16">
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="36"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="33"/>
-    </row>
-    <row r="38" spans="2:7" ht="32">
+      <c r="E37" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="35"/>
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="33"/>
-    </row>
-    <row r="39" spans="2:7">
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="36"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
         <v>2</v>
       </c>
@@ -3471,33 +3478,33 @@
       <c r="F39" s="27"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="34"/>
-      <c r="G40" s="33"/>
-    </row>
-    <row r="41" spans="2:7" ht="32">
+      <c r="F40" s="35"/>
+      <c r="G40" s="36"/>
+    </row>
+    <row r="41" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="33"/>
-    </row>
-    <row r="42" spans="2:7">
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
         <v>2</v>
       </c>
@@ -3513,7 +3520,7 @@
       <c r="F42" s="27"/>
       <c r="G42" s="11"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
         <v>2</v>
       </c>
@@ -3529,33 +3536,33 @@
       <c r="F43" s="27"/>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="34" t="s">
+      <c r="D44" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="33"/>
-    </row>
-    <row r="45" spans="2:7" ht="16">
+      <c r="E44" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="35"/>
+      <c r="G44" s="36"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="33"/>
-    </row>
-    <row r="46" spans="2:7">
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="36"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="6" t="s">
         <v>2</v>
       </c>
@@ -3571,7 +3578,7 @@
       <c r="F46" s="27"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="6" t="s">
         <v>2</v>
       </c>
@@ -3591,33 +3598,33 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="34"/>
-      <c r="G48" s="33"/>
-    </row>
-    <row r="49" spans="2:7" ht="16">
+      <c r="E48" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="35"/>
+      <c r="G48" s="36"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="33"/>
-    </row>
-    <row r="50" spans="2:7">
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="36"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="6" t="s">
         <v>2</v>
       </c>
@@ -3633,7 +3640,7 @@
       <c r="F50" s="27"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="6" t="s">
         <v>2</v>
       </c>
@@ -3649,7 +3656,7 @@
       <c r="F51" s="27"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="2:7" ht="16">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>244</v>
       </c>
@@ -3661,7 +3668,7 @@
       <c r="F52" s="27"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="6" t="s">
         <v>245</v>
       </c>
@@ -3673,7 +3680,7 @@
       <c r="F53" s="27"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="6" t="s">
         <v>2</v>
       </c>
@@ -3689,173 +3696,173 @@
       <c r="F54" s="27"/>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="34" t="s">
+      <c r="D55" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="34"/>
-      <c r="G55" s="33"/>
-    </row>
-    <row r="56" spans="2:7" ht="16">
+      <c r="E55" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="35"/>
+      <c r="G55" s="36"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="33"/>
-    </row>
-    <row r="57" spans="2:7" ht="16">
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="36"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="34" t="s">
+      <c r="D57" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="34"/>
-      <c r="G57" s="33"/>
-    </row>
-    <row r="58" spans="2:7" ht="16">
+      <c r="E57" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="35"/>
+      <c r="G57" s="36"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="33"/>
-    </row>
-    <row r="59" spans="2:7" ht="16">
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="36"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="34" t="s">
+      <c r="D59" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="E59" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="34"/>
-      <c r="G59" s="33"/>
-    </row>
-    <row r="60" spans="2:7" ht="32">
+      <c r="E59" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="35"/>
+      <c r="G59" s="36"/>
+    </row>
+    <row r="60" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="33"/>
-    </row>
-    <row r="61" spans="2:7" ht="16">
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="36"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="34" t="s">
+      <c r="D61" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="34"/>
-      <c r="G61" s="33"/>
-    </row>
-    <row r="62" spans="2:7" ht="32">
+      <c r="E61" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="35"/>
+      <c r="G61" s="36"/>
+    </row>
+    <row r="62" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="33"/>
-    </row>
-    <row r="63" spans="2:7" ht="16">
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="36"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="33"/>
-    </row>
-    <row r="64" spans="2:7" ht="16">
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="36"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="34" t="s">
+      <c r="D64" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="E64" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="34"/>
-      <c r="G64" s="33"/>
-    </row>
-    <row r="65" spans="2:7" ht="32">
+      <c r="E64" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="35"/>
+      <c r="G64" s="36"/>
+    </row>
+    <row r="65" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="33"/>
-    </row>
-    <row r="66" spans="2:7" ht="16">
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="36"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="D66" s="34" t="s">
+      <c r="D66" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E66" s="34" t="s">
+      <c r="E66" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="F66" s="34"/>
-      <c r="G66" s="33"/>
-    </row>
-    <row r="67" spans="2:7" ht="16">
+      <c r="F66" s="35"/>
+      <c r="G66" s="36"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="33"/>
-    </row>
-    <row r="68" spans="2:7">
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="36"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
         <v>2</v>
       </c>
@@ -3871,7 +3878,7 @@
       <c r="F68" s="27"/>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="6" t="s">
         <v>2</v>
       </c>
@@ -3887,7 +3894,7 @@
       <c r="F69" s="27"/>
       <c r="G69" s="11"/>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="6" t="s">
         <v>2</v>
       </c>
@@ -3903,163 +3910,163 @@
       <c r="F70" s="27"/>
       <c r="G70" s="11"/>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C71" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="D71" s="34" t="s">
+      <c r="D71" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="34"/>
-      <c r="G71" s="33"/>
-    </row>
-    <row r="72" spans="2:7" ht="32">
+      <c r="E71" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="35"/>
+      <c r="G71" s="36"/>
+    </row>
+    <row r="72" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="33"/>
-    </row>
-    <row r="73" spans="2:7" ht="16">
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="36"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C73" s="34" t="s">
+      <c r="C73" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D73" s="34" t="s">
+      <c r="D73" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="E73" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="34"/>
-      <c r="G73" s="33"/>
-    </row>
-    <row r="74" spans="2:7" ht="16">
+      <c r="E73" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="35"/>
+      <c r="G73" s="36"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="33"/>
-    </row>
-    <row r="75" spans="2:7" ht="16">
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="36"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="34" t="s">
+      <c r="C75" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D75" s="34" t="s">
+      <c r="D75" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="E75" s="34" t="s">
+      <c r="E75" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F75" s="40"/>
-      <c r="G75" s="33"/>
-    </row>
-    <row r="76" spans="2:7" ht="16">
+      <c r="F75" s="41"/>
+      <c r="G75" s="36"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="33"/>
-    </row>
-    <row r="77" spans="2:7" ht="16">
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="36"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C77" s="34" t="s">
+      <c r="C77" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="34" t="s">
+      <c r="D77" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="E77" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="34"/>
-      <c r="G77" s="33"/>
-    </row>
-    <row r="78" spans="2:7" ht="16">
+      <c r="E77" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="35"/>
+      <c r="G77" s="36"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="33"/>
-    </row>
-    <row r="79" spans="2:7" ht="16">
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="36"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C79" s="34" t="s">
+      <c r="C79" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D79" s="34" t="s">
+      <c r="D79" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="E79" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="34"/>
-      <c r="G79" s="33"/>
-    </row>
-    <row r="80" spans="2:7" ht="16">
+      <c r="E79" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="35"/>
+      <c r="G79" s="36"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="33"/>
-    </row>
-    <row r="81" spans="2:7" ht="16">
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="36"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="34" t="s">
+      <c r="C81" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="34" t="s">
+      <c r="D81" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E81" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="34"/>
-      <c r="G81" s="33"/>
-    </row>
-    <row r="82" spans="2:7" ht="16">
+      <c r="E81" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="35"/>
+      <c r="G81" s="36"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="33"/>
-    </row>
-    <row r="83" spans="2:7">
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="36"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="6" t="s">
         <v>241</v>
       </c>
@@ -4075,33 +4082,33 @@
       <c r="F83" s="27"/>
       <c r="G83" s="11"/>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C84" s="34" t="s">
+      <c r="C84" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D84" s="34" t="s">
+      <c r="D84" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="E84" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="34"/>
-      <c r="G84" s="33"/>
-    </row>
-    <row r="85" spans="2:7" ht="16">
+      <c r="E84" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="35"/>
+      <c r="G84" s="36"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="33"/>
-    </row>
-    <row r="86" spans="2:7">
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="36"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="6" t="s">
         <v>241</v>
       </c>
@@ -4121,33 +4128,33 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C87" s="34" t="s">
+      <c r="C87" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D87" s="34" t="s">
+      <c r="D87" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="E87" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="34"/>
-      <c r="G87" s="33"/>
-    </row>
-    <row r="88" spans="2:7" ht="16">
+      <c r="E87" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="35"/>
+      <c r="G87" s="36"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="33"/>
-    </row>
-    <row r="89" spans="2:7">
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="36"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="6" t="s">
         <v>240</v>
       </c>
@@ -4163,33 +4170,33 @@
       <c r="F89" s="27"/>
       <c r="G89" s="11"/>
     </row>
-    <row r="90" spans="2:7" ht="16">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C90" s="34" t="s">
+      <c r="C90" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="D90" s="34" t="s">
+      <c r="D90" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="E90" s="34" t="s">
+      <c r="E90" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="F90" s="34"/>
-      <c r="G90" s="33"/>
-    </row>
-    <row r="91" spans="2:7" ht="16">
+      <c r="F90" s="35"/>
+      <c r="G90" s="36"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="33"/>
-    </row>
-    <row r="92" spans="2:7">
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="36"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="6" t="s">
         <v>240</v>
       </c>
@@ -4205,7 +4212,7 @@
       <c r="F92" s="27"/>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="6" t="s">
         <v>240</v>
       </c>
@@ -4221,7 +4228,7 @@
       <c r="F93" s="27"/>
       <c r="G93" s="11"/>
     </row>
-    <row r="94" spans="2:7">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="6" t="s">
         <v>240</v>
       </c>
@@ -4241,7 +4248,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="6" t="s">
         <v>240</v>
       </c>
@@ -4257,33 +4264,33 @@
       <c r="F95" s="27"/>
       <c r="G95" s="11"/>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C96" s="34" t="s">
+      <c r="C96" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D96" s="34" t="s">
+      <c r="D96" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="E96" s="34" t="s">
+      <c r="E96" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="F96" s="34"/>
-      <c r="G96" s="33"/>
-    </row>
-    <row r="97" spans="2:7" ht="16">
+      <c r="F96" s="35"/>
+      <c r="G96" s="36"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C97" s="34"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="33"/>
-    </row>
-    <row r="98" spans="2:7">
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="36"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="6" t="s">
         <v>240</v>
       </c>
@@ -4303,7 +4310,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="99" spans="2:7">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="6" t="s">
         <v>240</v>
       </c>
@@ -4319,37 +4326,37 @@
       <c r="F99" s="27"/>
       <c r="G99" s="11"/>
     </row>
-    <row r="100" spans="2:7">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C100" s="35" t="s">
+      <c r="C100" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="D100" s="34" t="s">
+      <c r="D100" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="34" t="s">
+      <c r="E100" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="G100" s="36">
+      <c r="G100" s="44">
         <v>43728</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="16">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C101" s="35"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="34"/>
-      <c r="G101" s="37"/>
-    </row>
-    <row r="102" spans="2:7">
+      <c r="C101" s="34"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="45"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="6" t="s">
         <v>240</v>
       </c>
@@ -4369,7 +4376,7 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="103" spans="2:7">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="6" t="s">
         <v>240</v>
       </c>
@@ -4385,7 +4392,7 @@
       <c r="F103" s="27"/>
       <c r="G103" s="11"/>
     </row>
-    <row r="104" spans="2:7">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" s="6" t="s">
         <v>240</v>
       </c>
@@ -4401,7 +4408,7 @@
       <c r="F104" s="27"/>
       <c r="G104" s="11"/>
     </row>
-    <row r="105" spans="2:7">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" s="6" t="s">
         <v>240</v>
       </c>
@@ -4417,33 +4424,33 @@
       <c r="F105" s="27"/>
       <c r="G105" s="11"/>
     </row>
-    <row r="106" spans="2:7">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C106" s="34" t="s">
+      <c r="C106" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="D106" s="34" t="s">
+      <c r="D106" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E106" s="34" t="s">
+      <c r="E106" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="F106" s="34"/>
-      <c r="G106" s="33"/>
-    </row>
-    <row r="107" spans="2:7" ht="32">
+      <c r="F106" s="35"/>
+      <c r="G106" s="36"/>
+    </row>
+    <row r="107" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="34"/>
-      <c r="G107" s="33"/>
-    </row>
-    <row r="108" spans="2:7">
+      <c r="C107" s="35"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="35"/>
+      <c r="F107" s="35"/>
+      <c r="G107" s="36"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" s="6" t="s">
         <v>240</v>
       </c>
@@ -4463,59 +4470,59 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="109" spans="2:7">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C109" s="34" t="s">
+      <c r="C109" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="D109" s="34" t="s">
+      <c r="D109" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="E109" s="34" t="s">
+      <c r="E109" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="F109" s="34"/>
-      <c r="G109" s="33"/>
-    </row>
-    <row r="110" spans="2:7" ht="16">
+      <c r="F109" s="35"/>
+      <c r="G109" s="36"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C110" s="34"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="34"/>
-      <c r="G110" s="33"/>
-    </row>
-    <row r="111" spans="2:7" ht="16">
+      <c r="C110" s="35"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="35"/>
+      <c r="F110" s="35"/>
+      <c r="G110" s="36"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C111" s="34" t="s">
+      <c r="C111" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="D111" s="34" t="s">
+      <c r="D111" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="E111" s="34" t="s">
+      <c r="E111" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="F111" s="34"/>
-      <c r="G111" s="33"/>
-    </row>
-    <row r="112" spans="2:7" ht="16">
+      <c r="F111" s="35"/>
+      <c r="G111" s="36"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="34"/>
-      <c r="F112" s="34"/>
-      <c r="G112" s="33"/>
-    </row>
-    <row r="113" spans="2:7">
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="36"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="6" t="s">
         <v>240</v>
       </c>
@@ -4531,7 +4538,7 @@
       <c r="F113" s="27"/>
       <c r="G113" s="11"/>
     </row>
-    <row r="114" spans="2:7">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="6" t="s">
         <v>240</v>
       </c>
@@ -4547,7 +4554,7 @@
       <c r="F114" s="27"/>
       <c r="G114" s="11"/>
     </row>
-    <row r="115" spans="2:7">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="6" t="s">
         <v>240</v>
       </c>
@@ -4563,7 +4570,7 @@
       <c r="F115" s="27"/>
       <c r="G115" s="11"/>
     </row>
-    <row r="116" spans="2:7">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="6" t="s">
         <v>240</v>
       </c>
@@ -4579,59 +4586,59 @@
       <c r="F116" s="27"/>
       <c r="G116" s="11"/>
     </row>
-    <row r="117" spans="2:7">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C117" s="34" t="s">
+      <c r="C117" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="D117" s="34" t="s">
+      <c r="D117" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="E117" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="34"/>
-      <c r="G117" s="33"/>
-    </row>
-    <row r="118" spans="2:7" ht="16">
+      <c r="E117" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="35"/>
+      <c r="G117" s="36"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C118" s="34"/>
-      <c r="D118" s="34"/>
-      <c r="E118" s="34"/>
-      <c r="F118" s="34"/>
-      <c r="G118" s="33"/>
-    </row>
-    <row r="119" spans="2:7" ht="16">
+      <c r="C118" s="35"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="35"/>
+      <c r="F118" s="35"/>
+      <c r="G118" s="36"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C119" s="34" t="s">
+      <c r="C119" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="D119" s="34" t="s">
+      <c r="D119" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="E119" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="34"/>
-      <c r="G119" s="33"/>
-    </row>
-    <row r="120" spans="2:7" ht="16">
+      <c r="E119" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="35"/>
+      <c r="G119" s="36"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C120" s="34"/>
-      <c r="D120" s="34"/>
-      <c r="E120" s="34"/>
-      <c r="F120" s="34"/>
-      <c r="G120" s="33"/>
-    </row>
-    <row r="121" spans="2:7">
+      <c r="C120" s="35"/>
+      <c r="D120" s="35"/>
+      <c r="E120" s="35"/>
+      <c r="F120" s="35"/>
+      <c r="G120" s="36"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="6" t="s">
         <v>240</v>
       </c>
@@ -4647,7 +4654,7 @@
       <c r="F121" s="27"/>
       <c r="G121" s="11"/>
     </row>
-    <row r="122" spans="2:7">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="6" t="s">
         <v>240</v>
       </c>
@@ -4663,7 +4670,7 @@
       <c r="F122" s="27"/>
       <c r="G122" s="11"/>
     </row>
-    <row r="123" spans="2:7">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" s="6" t="s">
         <v>240</v>
       </c>
@@ -4679,7 +4686,7 @@
       <c r="F123" s="27"/>
       <c r="G123" s="11"/>
     </row>
-    <row r="124" spans="2:7">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124" s="6" t="s">
         <v>240</v>
       </c>
@@ -4695,7 +4702,7 @@
       <c r="F124" s="27"/>
       <c r="G124" s="11"/>
     </row>
-    <row r="125" spans="2:7">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="6" t="s">
         <v>240</v>
       </c>
@@ -4711,7 +4718,7 @@
       <c r="F125" s="27"/>
       <c r="G125" s="11"/>
     </row>
-    <row r="126" spans="2:7">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126" s="6" t="s">
         <v>240</v>
       </c>
@@ -4727,33 +4734,33 @@
       <c r="F126" s="27"/>
       <c r="G126" s="11"/>
     </row>
-    <row r="127" spans="2:7">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C127" s="34" t="s">
+      <c r="C127" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="D127" s="34" t="s">
+      <c r="D127" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="E127" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="34"/>
-      <c r="G127" s="33"/>
-    </row>
-    <row r="128" spans="2:7" ht="16">
+      <c r="E127" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="35"/>
+      <c r="G127" s="36"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C128" s="34"/>
-      <c r="D128" s="34"/>
-      <c r="E128" s="34"/>
-      <c r="F128" s="34"/>
-      <c r="G128" s="33"/>
-    </row>
-    <row r="129" spans="2:7">
+      <c r="C128" s="35"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="35"/>
+      <c r="F128" s="35"/>
+      <c r="G128" s="36"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129" s="6" t="s">
         <v>244</v>
       </c>
@@ -4765,7 +4772,7 @@
       <c r="F129" s="27"/>
       <c r="G129" s="11"/>
     </row>
-    <row r="130" spans="2:7">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B130" s="6" t="s">
         <v>243</v>
       </c>
@@ -4781,7 +4788,7 @@
       <c r="F130" s="27"/>
       <c r="G130" s="11"/>
     </row>
-    <row r="131" spans="2:7">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B131" s="6" t="s">
         <v>243</v>
       </c>
@@ -4797,33 +4804,33 @@
       <c r="F131" s="27"/>
       <c r="G131" s="11"/>
     </row>
-    <row r="132" spans="2:7">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B132" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C132" s="34" t="s">
+      <c r="C132" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="D132" s="34" t="s">
+      <c r="D132" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="E132" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="34"/>
-      <c r="G132" s="33"/>
-    </row>
-    <row r="133" spans="2:7" ht="16">
+      <c r="E132" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="35"/>
+      <c r="G132" s="36"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B133" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C133" s="34"/>
-      <c r="D133" s="34"/>
-      <c r="E133" s="34"/>
-      <c r="F133" s="34"/>
-      <c r="G133" s="33"/>
-    </row>
-    <row r="134" spans="2:7">
+      <c r="C133" s="35"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="35"/>
+      <c r="F133" s="35"/>
+      <c r="G133" s="36"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B134" s="6" t="s">
         <v>239</v>
       </c>
@@ -4839,7 +4846,7 @@
       <c r="F134" s="27"/>
       <c r="G134" s="11"/>
     </row>
-    <row r="135" spans="2:7">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B135" s="6" t="s">
         <v>239</v>
       </c>
@@ -4855,33 +4862,33 @@
       <c r="F135" s="27"/>
       <c r="G135" s="11"/>
     </row>
-    <row r="136" spans="2:7" ht="32">
+    <row r="136" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B136" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C136" s="34" t="s">
+      <c r="C136" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="D136" s="34" t="s">
+      <c r="D136" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="E136" s="34" t="s">
+      <c r="E136" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="F136" s="34"/>
-      <c r="G136" s="33"/>
-    </row>
-    <row r="137" spans="2:7" ht="16">
+      <c r="F136" s="35"/>
+      <c r="G136" s="36"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B137" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C137" s="34"/>
-      <c r="D137" s="34"/>
-      <c r="E137" s="34"/>
-      <c r="F137" s="34"/>
-      <c r="G137" s="33"/>
-    </row>
-    <row r="138" spans="2:7" ht="32">
+      <c r="C137" s="35"/>
+      <c r="D137" s="35"/>
+      <c r="E137" s="35"/>
+      <c r="F137" s="35"/>
+      <c r="G137" s="36"/>
+    </row>
+    <row r="138" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B138" s="7" t="s">
         <v>246</v>
       </c>
@@ -4897,7 +4904,7 @@
       <c r="F138" s="27"/>
       <c r="G138" s="11"/>
     </row>
-    <row r="139" spans="2:7" ht="32">
+    <row r="139" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
         <v>246</v>
       </c>
@@ -4917,7 +4924,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="140" spans="2:7" ht="32">
+    <row r="140" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B140" s="7" t="s">
         <v>246</v>
       </c>
@@ -4933,7 +4940,7 @@
       <c r="F140" s="27"/>
       <c r="G140" s="11"/>
     </row>
-    <row r="141" spans="2:7" ht="32">
+    <row r="141" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B141" s="7" t="s">
         <v>246</v>
       </c>
@@ -4949,7 +4956,7 @@
       <c r="F141" s="27"/>
       <c r="G141" s="11"/>
     </row>
-    <row r="142" spans="2:7" ht="32">
+    <row r="142" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B142" s="7" t="s">
         <v>246</v>
       </c>
@@ -4969,33 +4976,33 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="143" spans="2:7">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B143" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C143" s="34" t="s">
+      <c r="C143" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="D143" s="34" t="s">
+      <c r="D143" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="E143" s="34" t="s">
+      <c r="E143" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F143" s="34"/>
-      <c r="G143" s="33"/>
-    </row>
-    <row r="144" spans="2:7" ht="32">
+      <c r="F143" s="35"/>
+      <c r="G143" s="36"/>
+    </row>
+    <row r="144" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B144" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C144" s="34"/>
-      <c r="D144" s="34"/>
-      <c r="E144" s="34"/>
-      <c r="F144" s="34"/>
-      <c r="G144" s="33"/>
-    </row>
-    <row r="145" spans="2:7" ht="32">
+      <c r="C144" s="35"/>
+      <c r="D144" s="35"/>
+      <c r="E144" s="35"/>
+      <c r="F144" s="35"/>
+      <c r="G144" s="36"/>
+    </row>
+    <row r="145" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B145" s="7" t="s">
         <v>246</v>
       </c>
@@ -5011,7 +5018,7 @@
       <c r="F145" s="27"/>
       <c r="G145" s="11"/>
     </row>
-    <row r="146" spans="2:7" ht="32">
+    <row r="146" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B146" s="7" t="s">
         <v>246</v>
       </c>
@@ -5031,7 +5038,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="147" spans="2:7" ht="32">
+    <row r="147" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B147" s="7" t="s">
         <v>246</v>
       </c>
@@ -5051,7 +5058,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="148" spans="2:7" ht="32">
+    <row r="148" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B148" s="7" t="s">
         <v>246</v>
       </c>
@@ -5067,33 +5074,33 @@
       <c r="F148" s="27"/>
       <c r="G148" s="11"/>
     </row>
-    <row r="149" spans="2:7">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C149" s="34" t="s">
+      <c r="C149" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="D149" s="34" t="s">
+      <c r="D149" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="E149" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="34"/>
-      <c r="G149" s="33"/>
-    </row>
-    <row r="150" spans="2:7" ht="32">
+      <c r="E149" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="35"/>
+      <c r="G149" s="36"/>
+    </row>
+    <row r="150" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B150" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C150" s="34"/>
-      <c r="D150" s="34"/>
-      <c r="E150" s="34"/>
-      <c r="F150" s="34"/>
-      <c r="G150" s="33"/>
-    </row>
-    <row r="151" spans="2:7">
+      <c r="C150" s="35"/>
+      <c r="D150" s="35"/>
+      <c r="E150" s="35"/>
+      <c r="F150" s="35"/>
+      <c r="G150" s="36"/>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B151" s="6" t="s">
         <v>242</v>
       </c>
@@ -5109,7 +5116,7 @@
       <c r="F151" s="27"/>
       <c r="G151" s="11"/>
     </row>
-    <row r="152" spans="2:7">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B152" s="6" t="s">
         <v>242</v>
       </c>
@@ -5125,7 +5132,7 @@
       <c r="F152" s="27"/>
       <c r="G152" s="11"/>
     </row>
-    <row r="153" spans="2:7">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B153" s="6" t="s">
         <v>242</v>
       </c>
@@ -5141,7 +5148,7 @@
       <c r="F153" s="27"/>
       <c r="G153" s="11"/>
     </row>
-    <row r="154" spans="2:7">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B154" s="6" t="s">
         <v>242</v>
       </c>
@@ -5157,7 +5164,7 @@
       <c r="F154" s="27"/>
       <c r="G154" s="11"/>
     </row>
-    <row r="155" spans="2:7">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B155" s="6" t="s">
         <v>242</v>
       </c>
@@ -5173,7 +5180,7 @@
       <c r="F155" s="27"/>
       <c r="G155" s="11"/>
     </row>
-    <row r="156" spans="2:7">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B156" s="6" t="s">
         <v>242</v>
       </c>
@@ -5189,7 +5196,7 @@
       <c r="F156" s="27"/>
       <c r="G156" s="11"/>
     </row>
-    <row r="157" spans="2:7">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B157" s="6" t="s">
         <v>242</v>
       </c>
@@ -5205,7 +5212,7 @@
       <c r="F157" s="27"/>
       <c r="G157" s="11"/>
     </row>
-    <row r="158" spans="2:7">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B158" s="6" t="s">
         <v>242</v>
       </c>
@@ -5221,7 +5228,7 @@
       <c r="F158" s="27"/>
       <c r="G158" s="11"/>
     </row>
-    <row r="159" spans="2:7">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B159" s="6" t="s">
         <v>242</v>
       </c>
@@ -5237,7 +5244,7 @@
       <c r="F159" s="27"/>
       <c r="G159" s="11"/>
     </row>
-    <row r="160" spans="2:7">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B160" s="6" t="s">
         <v>242</v>
       </c>
@@ -5253,7 +5260,7 @@
       <c r="F160" s="27"/>
       <c r="G160" s="11"/>
     </row>
-    <row r="161" spans="2:7">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B161" s="13" t="s">
         <v>261</v>
       </c>
@@ -5269,7 +5276,7 @@
       <c r="F161" s="13"/>
       <c r="G161" s="16"/>
     </row>
-    <row r="162" spans="2:7">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B162" s="13" t="s">
         <v>240</v>
       </c>
@@ -5285,7 +5292,7 @@
       <c r="F162" s="13"/>
       <c r="G162" s="16"/>
     </row>
-    <row r="163" spans="2:7">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B163" s="13" t="s">
         <v>242</v>
       </c>
@@ -5301,73 +5308,73 @@
       <c r="F163" s="13"/>
       <c r="G163" s="16"/>
     </row>
-    <row r="164" spans="2:7">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B164" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C164" s="43" t="s">
+      <c r="C164" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="D164" s="42" t="s">
+      <c r="D164" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="E164" s="42" t="s">
+      <c r="E164" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F164" s="42" t="s">
+      <c r="F164" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="G164" s="41">
+      <c r="G164" s="38">
         <v>43763</v>
       </c>
     </row>
-    <row r="165" spans="2:7">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B165" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="C165" s="43"/>
-      <c r="D165" s="42"/>
-      <c r="E165" s="42"/>
-      <c r="F165" s="42"/>
-      <c r="G165" s="41"/>
-    </row>
-    <row r="166" spans="2:7">
+      <c r="C165" s="40"/>
+      <c r="D165" s="39"/>
+      <c r="E165" s="39"/>
+      <c r="F165" s="39"/>
+      <c r="G165" s="38"/>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B166" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C166" s="43"/>
-      <c r="D166" s="42"/>
-      <c r="E166" s="42"/>
-      <c r="F166" s="42"/>
-      <c r="G166" s="41"/>
-    </row>
-    <row r="167" spans="2:7">
+      <c r="C166" s="40"/>
+      <c r="D166" s="39"/>
+      <c r="E166" s="39"/>
+      <c r="F166" s="39"/>
+      <c r="G166" s="38"/>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B167" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C167" s="34" t="s">
+      <c r="C167" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="D167" s="44" t="s">
+      <c r="D167" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="E167" s="34" t="s">
+      <c r="E167" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="F167" s="34"/>
-      <c r="G167" s="33"/>
-    </row>
-    <row r="168" spans="2:7">
+      <c r="F167" s="35"/>
+      <c r="G167" s="36"/>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B168" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C168" s="34"/>
-      <c r="D168" s="44"/>
-      <c r="E168" s="34"/>
-      <c r="F168" s="34"/>
-      <c r="G168" s="33"/>
-    </row>
-    <row r="169" spans="2:7">
+      <c r="C168" s="35"/>
+      <c r="D168" s="37"/>
+      <c r="E168" s="35"/>
+      <c r="F168" s="35"/>
+      <c r="G168" s="36"/>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B169" s="14" t="s">
         <v>2</v>
       </c>
@@ -5383,89 +5390,89 @@
       <c r="F169" s="27"/>
       <c r="G169" s="11"/>
     </row>
-    <row r="170" spans="2:7">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B170" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C170" s="34" t="s">
+      <c r="C170" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="D170" s="34" t="s">
+      <c r="D170" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="E170" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F170" s="34"/>
-      <c r="G170" s="33"/>
-    </row>
-    <row r="171" spans="2:7" ht="32">
+      <c r="E170" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" s="35"/>
+      <c r="G170" s="36"/>
+    </row>
+    <row r="171" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B171" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C171" s="34"/>
-      <c r="D171" s="34"/>
-      <c r="E171" s="34"/>
-      <c r="F171" s="34"/>
-      <c r="G171" s="33"/>
-    </row>
-    <row r="172" spans="2:7">
+      <c r="C171" s="35"/>
+      <c r="D171" s="35"/>
+      <c r="E171" s="35"/>
+      <c r="F171" s="35"/>
+      <c r="G171" s="36"/>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B172" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="34" t="s">
+      <c r="C172" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="D172" s="44" t="s">
+      <c r="D172" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="E172" s="34" t="s">
+      <c r="E172" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="F172" s="34"/>
-      <c r="G172" s="33"/>
-    </row>
-    <row r="173" spans="2:7" ht="32">
+      <c r="F172" s="35"/>
+      <c r="G172" s="36"/>
+    </row>
+    <row r="173" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B173" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C173" s="34"/>
-      <c r="D173" s="34"/>
-      <c r="E173" s="34"/>
-      <c r="F173" s="34"/>
-      <c r="G173" s="33"/>
-    </row>
-    <row r="174" spans="2:7" ht="32">
+      <c r="C173" s="35"/>
+      <c r="D173" s="35"/>
+      <c r="E173" s="35"/>
+      <c r="F173" s="35"/>
+      <c r="G173" s="36"/>
+    </row>
+    <row r="174" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B174" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C174" s="35" t="s">
+      <c r="C174" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="D174" s="34" t="s">
+      <c r="D174" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="E174" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F174" s="34" t="s">
+      <c r="E174" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="G174" s="33">
+      <c r="G174" s="36">
         <v>43770</v>
       </c>
     </row>
-    <row r="175" spans="2:7">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B175" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C175" s="35"/>
-      <c r="D175" s="34"/>
-      <c r="E175" s="34"/>
-      <c r="F175" s="34"/>
-      <c r="G175" s="33"/>
-    </row>
-    <row r="176" spans="2:7">
+      <c r="C175" s="34"/>
+      <c r="D175" s="35"/>
+      <c r="E175" s="35"/>
+      <c r="F175" s="35"/>
+      <c r="G175" s="36"/>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B176" s="14" t="s">
         <v>2</v>
       </c>
@@ -5481,7 +5488,7 @@
       <c r="F176" s="27"/>
       <c r="G176" s="11"/>
     </row>
-    <row r="177" spans="2:7">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B177" s="14" t="s">
         <v>2</v>
       </c>
@@ -5497,7 +5504,7 @@
       <c r="F177" s="27"/>
       <c r="G177" s="11"/>
     </row>
-    <row r="178" spans="2:7">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B178" s="14" t="s">
         <v>2</v>
       </c>
@@ -5513,33 +5520,33 @@
       <c r="F178" s="27"/>
       <c r="G178" s="11"/>
     </row>
-    <row r="179" spans="2:7">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B179" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C179" s="34" t="s">
+      <c r="C179" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="D179" s="34" t="s">
+      <c r="D179" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="E179" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F179" s="34"/>
-      <c r="G179" s="33"/>
-    </row>
-    <row r="180" spans="2:7">
+      <c r="E179" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F179" s="35"/>
+      <c r="G179" s="36"/>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B180" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C180" s="34"/>
-      <c r="D180" s="34"/>
-      <c r="E180" s="34"/>
-      <c r="F180" s="34"/>
-      <c r="G180" s="33"/>
-    </row>
-    <row r="181" spans="2:7">
+      <c r="C180" s="35"/>
+      <c r="D180" s="35"/>
+      <c r="E180" s="35"/>
+      <c r="F180" s="35"/>
+      <c r="G180" s="36"/>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B181" s="14" t="s">
         <v>2</v>
       </c>
@@ -5555,7 +5562,7 @@
       <c r="F181" s="27"/>
       <c r="G181" s="11"/>
     </row>
-    <row r="182" spans="2:7">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B182" s="14" t="s">
         <v>2</v>
       </c>
@@ -5575,7 +5582,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="183" spans="2:7" ht="16">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B183" s="14" t="s">
         <v>2</v>
       </c>
@@ -5591,57 +5598,57 @@
       <c r="F183" s="27"/>
       <c r="G183" s="11"/>
     </row>
-    <row r="184" spans="2:7">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B184" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C184" s="35" t="s">
+      <c r="C184" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="D184" s="34" t="s">
+      <c r="D184" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="E184" s="34" t="s">
+      <c r="E184" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="F184" s="34" t="s">
+      <c r="F184" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="G184" s="33">
+      <c r="G184" s="36">
         <v>43791</v>
       </c>
     </row>
-    <row r="185" spans="2:7">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B185" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C185" s="35"/>
-      <c r="D185" s="34"/>
-      <c r="E185" s="34"/>
-      <c r="F185" s="34"/>
-      <c r="G185" s="33"/>
-    </row>
-    <row r="186" spans="2:7">
+      <c r="C185" s="34"/>
+      <c r="D185" s="35"/>
+      <c r="E185" s="35"/>
+      <c r="F185" s="35"/>
+      <c r="G185" s="36"/>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B186" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C186" s="35"/>
-      <c r="D186" s="34"/>
-      <c r="E186" s="34"/>
-      <c r="F186" s="34"/>
-      <c r="G186" s="33"/>
-    </row>
-    <row r="187" spans="2:7">
+      <c r="C186" s="34"/>
+      <c r="D186" s="35"/>
+      <c r="E186" s="35"/>
+      <c r="F186" s="35"/>
+      <c r="G186" s="36"/>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B187" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="C187" s="35"/>
-      <c r="D187" s="34"/>
-      <c r="E187" s="34"/>
-      <c r="F187" s="34"/>
-      <c r="G187" s="33"/>
-    </row>
-    <row r="188" spans="2:7">
+      <c r="C187" s="34"/>
+      <c r="D187" s="35"/>
+      <c r="E187" s="35"/>
+      <c r="F187" s="35"/>
+      <c r="G187" s="36"/>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B188" s="14" t="s">
         <v>241</v>
       </c>
@@ -5657,7 +5664,7 @@
       <c r="F188" s="27"/>
       <c r="G188" s="11"/>
     </row>
-    <row r="189" spans="2:7">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B189" s="14" t="s">
         <v>287</v>
       </c>
@@ -5677,37 +5684,37 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="190" spans="2:7">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B190" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="C190" s="35" t="s">
+      <c r="C190" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="D190" s="34" t="s">
+      <c r="D190" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="E190" s="34" t="s">
+      <c r="E190" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="F190" s="34" t="s">
+      <c r="F190" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="G190" s="33">
+      <c r="G190" s="36">
         <v>43791</v>
       </c>
     </row>
-    <row r="191" spans="2:7">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B191" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C191" s="35"/>
-      <c r="D191" s="34"/>
-      <c r="E191" s="34"/>
-      <c r="F191" s="34"/>
-      <c r="G191" s="33"/>
-    </row>
-    <row r="192" spans="2:7">
+      <c r="C191" s="34"/>
+      <c r="D191" s="35"/>
+      <c r="E191" s="35"/>
+      <c r="F191" s="35"/>
+      <c r="G191" s="36"/>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B192" s="14" t="s">
         <v>287</v>
       </c>
@@ -5723,37 +5730,37 @@
       <c r="F192" s="27"/>
       <c r="G192" s="11"/>
     </row>
-    <row r="193" spans="2:7">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B193" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="C193" s="35" t="s">
+      <c r="C193" s="34" t="s">
         <v>362</v>
       </c>
-      <c r="D193" s="34" t="s">
+      <c r="D193" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="E193" s="34" t="s">
+      <c r="E193" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="F193" s="34" t="s">
+      <c r="F193" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="G193" s="33">
+      <c r="G193" s="36">
         <v>43805</v>
       </c>
     </row>
-    <row r="194" spans="2:7" ht="32">
+    <row r="194" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B194" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C194" s="35"/>
-      <c r="D194" s="34"/>
-      <c r="E194" s="34"/>
-      <c r="F194" s="34"/>
-      <c r="G194" s="33"/>
-    </row>
-    <row r="195" spans="2:7">
+      <c r="C194" s="34"/>
+      <c r="D194" s="35"/>
+      <c r="E194" s="35"/>
+      <c r="F194" s="35"/>
+      <c r="G194" s="36"/>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B195" s="14" t="s">
         <v>265</v>
       </c>
@@ -5769,43 +5776,43 @@
       <c r="F195" s="27"/>
       <c r="G195" s="11"/>
     </row>
-    <row r="196" spans="2:7">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B196" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C196" s="34" t="s">
+      <c r="C196" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="D196" s="34" t="s">
+      <c r="D196" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="E196" s="34" t="s">
+      <c r="E196" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="F196" s="34"/>
-      <c r="G196" s="33"/>
-    </row>
-    <row r="197" spans="2:7">
+      <c r="F196" s="35"/>
+      <c r="G196" s="36"/>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B197" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C197" s="34"/>
-      <c r="D197" s="34"/>
-      <c r="E197" s="34"/>
-      <c r="F197" s="34"/>
-      <c r="G197" s="33"/>
-    </row>
-    <row r="198" spans="2:7">
+      <c r="C197" s="35"/>
+      <c r="D197" s="35"/>
+      <c r="E197" s="35"/>
+      <c r="F197" s="35"/>
+      <c r="G197" s="36"/>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B198" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C198" s="34"/>
-      <c r="D198" s="34"/>
-      <c r="E198" s="34"/>
-      <c r="F198" s="34"/>
-      <c r="G198" s="33"/>
-    </row>
-    <row r="199" spans="2:7">
+      <c r="C198" s="35"/>
+      <c r="D198" s="35"/>
+      <c r="E198" s="35"/>
+      <c r="F198" s="35"/>
+      <c r="G198" s="36"/>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B199" s="14" t="s">
         <v>265</v>
       </c>
@@ -5821,85 +5828,85 @@
       <c r="F199" s="27"/>
       <c r="G199" s="11"/>
     </row>
-    <row r="200" spans="2:7">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B200" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C200" s="34" t="s">
+      <c r="C200" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="D200" s="34" t="s">
+      <c r="D200" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="E200" s="34" t="s">
+      <c r="E200" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="F200" s="34"/>
-      <c r="G200" s="33"/>
-    </row>
-    <row r="201" spans="2:7">
+      <c r="F200" s="35"/>
+      <c r="G200" s="36"/>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B201" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C201" s="34"/>
-      <c r="D201" s="34"/>
-      <c r="E201" s="34"/>
-      <c r="F201" s="34"/>
-      <c r="G201" s="33"/>
-    </row>
-    <row r="202" spans="2:7">
+      <c r="C201" s="35"/>
+      <c r="D201" s="35"/>
+      <c r="E201" s="35"/>
+      <c r="F201" s="35"/>
+      <c r="G201" s="36"/>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B202" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C202" s="34" t="s">
+      <c r="C202" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="D202" s="34" t="s">
+      <c r="D202" s="35" t="s">
         <v>317</v>
       </c>
-      <c r="E202" s="34" t="s">
+      <c r="E202" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="F202" s="34"/>
-      <c r="G202" s="33"/>
-    </row>
-    <row r="203" spans="2:7">
+      <c r="F202" s="35"/>
+      <c r="G202" s="36"/>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B203" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C203" s="34"/>
-      <c r="D203" s="34"/>
-      <c r="E203" s="34"/>
-      <c r="F203" s="34"/>
-      <c r="G203" s="33"/>
-    </row>
-    <row r="204" spans="2:7">
+      <c r="C203" s="35"/>
+      <c r="D203" s="35"/>
+      <c r="E203" s="35"/>
+      <c r="F203" s="35"/>
+      <c r="G203" s="36"/>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B204" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C204" s="34" t="s">
+      <c r="C204" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="D204" s="34" t="s">
+      <c r="D204" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="E204" s="34" t="s">
+      <c r="E204" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="F204" s="34"/>
-      <c r="G204" s="33"/>
-    </row>
-    <row r="205" spans="2:7">
+      <c r="F204" s="35"/>
+      <c r="G204" s="36"/>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B205" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C205" s="34"/>
-      <c r="D205" s="34"/>
-      <c r="E205" s="34"/>
-      <c r="F205" s="34"/>
-      <c r="G205" s="33"/>
-    </row>
-    <row r="206" spans="2:7">
+      <c r="C205" s="35"/>
+      <c r="D205" s="35"/>
+      <c r="E205" s="35"/>
+      <c r="F205" s="35"/>
+      <c r="G205" s="36"/>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B206" s="14" t="s">
         <v>265</v>
       </c>
@@ -5915,7 +5922,7 @@
       <c r="F206" s="27"/>
       <c r="G206" s="11"/>
     </row>
-    <row r="207" spans="2:7">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B207" s="14" t="s">
         <v>266</v>
       </c>
@@ -5931,7 +5938,7 @@
       <c r="F207" s="27"/>
       <c r="G207" s="11"/>
     </row>
-    <row r="208" spans="2:7">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B208" s="14" t="s">
         <v>266</v>
       </c>
@@ -5947,7 +5954,7 @@
       <c r="F208" s="27"/>
       <c r="G208" s="11"/>
     </row>
-    <row r="209" spans="2:7" ht="17">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B209" s="14" t="s">
         <v>266</v>
       </c>
@@ -5963,7 +5970,7 @@
       <c r="F209" s="27"/>
       <c r="G209" s="11"/>
     </row>
-    <row r="210" spans="2:7">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B210" s="14" t="s">
         <v>266</v>
       </c>
@@ -5979,7 +5986,7 @@
       <c r="F210" s="27"/>
       <c r="G210" s="11"/>
     </row>
-    <row r="211" spans="2:7">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B211" s="14" t="s">
         <v>266</v>
       </c>
@@ -5995,7 +6002,7 @@
       <c r="F211" s="27"/>
       <c r="G211" s="11"/>
     </row>
-    <row r="212" spans="2:7">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B212" s="14" t="s">
         <v>266</v>
       </c>
@@ -6011,7 +6018,7 @@
       <c r="F212" s="27"/>
       <c r="G212" s="11"/>
     </row>
-    <row r="213" spans="2:7" ht="32">
+    <row r="213" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B213" s="17" t="s">
         <v>246</v>
       </c>
@@ -6027,7 +6034,7 @@
       <c r="F213" s="27"/>
       <c r="G213" s="11"/>
     </row>
-    <row r="214" spans="2:7" ht="32">
+    <row r="214" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B214" s="17" t="s">
         <v>246</v>
       </c>
@@ -6043,7 +6050,7 @@
       <c r="F214" s="27"/>
       <c r="G214" s="11"/>
     </row>
-    <row r="215" spans="2:7">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B215" s="27" t="s">
         <v>261</v>
       </c>
@@ -6059,37 +6066,37 @@
       <c r="F215" s="27"/>
       <c r="G215" s="26"/>
     </row>
-    <row r="216" spans="2:7">
-      <c r="B216" s="34" t="s">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B216" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="C216" s="35" t="s">
+      <c r="C216" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="D216" s="34" t="s">
+      <c r="D216" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="E216" s="34" t="s">
+      <c r="E216" s="35" t="s">
         <v>120</v>
       </c>
       <c r="F216" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="G216" s="33">
+      <c r="G216" s="36">
         <v>43798</v>
       </c>
     </row>
-    <row r="217" spans="2:7">
-      <c r="B217" s="34"/>
-      <c r="C217" s="35"/>
-      <c r="D217" s="34"/>
-      <c r="E217" s="34"/>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B217" s="35"/>
+      <c r="C217" s="34"/>
+      <c r="D217" s="35"/>
+      <c r="E217" s="35"/>
       <c r="F217" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="G217" s="33"/>
-    </row>
-    <row r="218" spans="2:7">
+      <c r="G217" s="36"/>
+    </row>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B218" s="31" t="s">
         <v>358</v>
       </c>
@@ -6109,7 +6116,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="219" spans="2:7">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B219" s="31" t="s">
         <v>358</v>
       </c>
@@ -6132,77 +6139,197 @@
   </sheetData>
   <autoFilter ref="B3:G214" xr:uid="{C1EE0C99-C2F8-4E13-983A-B3DCF9299796}"/>
   <mergeCells count="286">
-    <mergeCell ref="C184:C187"/>
-    <mergeCell ref="D184:D187"/>
-    <mergeCell ref="E184:E187"/>
-    <mergeCell ref="F184:F187"/>
-    <mergeCell ref="G184:G187"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="G174:G175"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="E179:E180"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="G179:G180"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="G170:G171"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="G172:G173"/>
-    <mergeCell ref="G164:G166"/>
-    <mergeCell ref="F164:F166"/>
-    <mergeCell ref="E164:E166"/>
-    <mergeCell ref="D164:D166"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G216:G217"/>
+    <mergeCell ref="E216:E217"/>
+    <mergeCell ref="D216:D217"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="G204:G205"/>
+    <mergeCell ref="G196:G198"/>
+    <mergeCell ref="F196:F198"/>
+    <mergeCell ref="E196:E198"/>
+    <mergeCell ref="D196:D198"/>
+    <mergeCell ref="C196:C198"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="F200:F201"/>
+    <mergeCell ref="G200:G201"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="G202:G203"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="G190:G191"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="G193:G194"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="C106:C107"/>
     <mergeCell ref="E149:E150"/>
     <mergeCell ref="D149:D150"/>
     <mergeCell ref="C149:C150"/>
@@ -6227,197 +6354,77 @@
     <mergeCell ref="C136:C137"/>
     <mergeCell ref="E90:E91"/>
     <mergeCell ref="D90:D91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="G190:G191"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="E193:E194"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="G193:G194"/>
-    <mergeCell ref="G216:G217"/>
-    <mergeCell ref="E216:E217"/>
-    <mergeCell ref="D216:D217"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="B216:B217"/>
-    <mergeCell ref="G204:G205"/>
-    <mergeCell ref="G196:G198"/>
-    <mergeCell ref="F196:F198"/>
-    <mergeCell ref="E196:E198"/>
-    <mergeCell ref="D196:D198"/>
-    <mergeCell ref="C196:C198"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="G200:G201"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="G202:G203"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G164:G166"/>
+    <mergeCell ref="F164:F166"/>
+    <mergeCell ref="E164:E166"/>
+    <mergeCell ref="D164:D166"/>
+    <mergeCell ref="C164:C166"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="G170:G171"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="G172:G173"/>
+    <mergeCell ref="C184:C187"/>
+    <mergeCell ref="D184:D187"/>
+    <mergeCell ref="E184:E187"/>
+    <mergeCell ref="F184:F187"/>
+    <mergeCell ref="G184:G187"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="G174:G175"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="G179:G180"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6433,19 +6440,19 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.83203125" customWidth="1"/>
+    <col min="1" max="1" width="0.875" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="90.6640625" customWidth="1"/>
+    <col min="3" max="3" width="90.625" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="5.25" customHeight="1"/>
-    <row r="2" spans="2:7" ht="19">
+    <row r="1" spans="2:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
@@ -6465,7 +6472,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>237</v>
       </c>
@@ -6485,7 +6492,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>237</v>
       </c>
@@ -6520,13 +6527,13 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="16" thickBot="1"/>
-    <row r="3" spans="2:3">
+    <row r="2" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>261</v>
       </c>
@@ -6535,7 +6542,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>241</v>
       </c>
@@ -6544,7 +6551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="20" t="s">
         <v>346</v>
       </c>
@@ -6553,7 +6560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
         <v>243</v>
       </c>
@@ -6562,7 +6569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="20" t="s">
         <v>242</v>
       </c>
@@ -6571,7 +6578,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="32">
+    <row r="8" spans="2:3" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="22" t="s">
         <v>246</v>
       </c>
@@ -6581,7 +6588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="16" thickBot="1">
+    <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="23" t="s">
         <v>345</v>
       </c>

--- a/Paper list.xlsx
+++ b/Paper list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - KoreaUniv\0.PhD\5.RLRC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taehwan/Documents/OneDrive - 고려대학교/0.PhD/5.RLRC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{8B02BCE2-9722-4FD5-A6EE-AFFF1C0C4646}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BA0645-C599-1449-BB78-2D971F82D001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
   </bookViews>
   <sheets>
     <sheet name="DeepMind Papers" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Statistics" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DeepMind Papers'!$B$3:$G$214</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DeepMind Papers'!$B$3:$G$219</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="361">
   <si>
     <t>Title</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1125,7 +1125,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1146,7 +1146,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1253,18 +1253,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>김태환</t>
-  </si>
-  <si>
     <t>Generalization of Reinforcement Learners with Working and Episodic Memory</t>
   </si>
   <si>
     <t>Meire Fortunato, Melissa Tan, et al.</t>
   </si>
   <si>
-    <t>박정호</t>
-  </si>
-  <si>
     <t>Unlabeled</t>
   </si>
   <si>
@@ -1274,21 +1268,21 @@
     <t>Mark Rowland, Shayegan Omidshafiei, et al.</t>
   </si>
   <si>
-    <t>이주원</t>
-  </si>
-  <si>
     <t>Positive-Unlabeled Reward Learning</t>
+  </si>
+  <si>
+    <t>고강원</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1296,14 +1290,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1312,7 +1306,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1320,7 +1314,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1329,7 +1323,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1337,21 +1331,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1367,7 +1361,7 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1376,7 +1370,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1558,7 +1552,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1649,9 +1643,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1664,14 +1655,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1682,26 +1691,14 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="20% - 강조색5" xfId="1" builtinId="46"/>
-    <cellStyle name="좋음" xfId="2" builtinId="26"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1719,7 +1716,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1786,7 +1783,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1924,7 +1921,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="456730000"/>
@@ -1983,7 +1980,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="445140144"/>
@@ -2031,7 +2028,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2627,7 +2624,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2925,34 +2922,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D0C1FB-3C2C-47C3-B0C0-A85F23F3B3BD}">
   <dimension ref="B1:G219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C193" sqref="C193:C194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="0.625" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="94.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="50.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="38.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+    <row r="1" spans="2:7" ht="5.25" customHeight="1"/>
+    <row r="2" spans="2:7" ht="31">
+      <c r="B2" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-    </row>
-    <row r="3" spans="2:7" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+    </row>
+    <row r="3" spans="2:7" s="3" customFormat="1" ht="19">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2972,7 +2969,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -2988,63 +2985,63 @@
       <c r="F4" s="27"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="32">
       <c r="B5" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="43"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="41"/>
+    </row>
+    <row r="6" spans="2:7" ht="16">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="43"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="41"/>
+    </row>
+    <row r="7" spans="2:7" ht="16">
       <c r="B7" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="35" t="s">
+      <c r="E7" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="35">
         <v>43763</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="16">
       <c r="B8" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="37"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
@@ -3060,33 +3057,33 @@
       <c r="F9" s="27"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7">
       <c r="B10" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="35"/>
+    </row>
+    <row r="11" spans="2:7" ht="16">
       <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="35"/>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
@@ -3102,59 +3099,59 @@
       <c r="F12" s="27"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="32">
       <c r="B13" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E13" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="35"/>
+    </row>
+    <row r="14" spans="2:7" ht="16">
       <c r="B14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="15" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="35"/>
+    </row>
+    <row r="15" spans="2:7" ht="32">
       <c r="B15" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E15" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="35"/>
+    </row>
+    <row r="16" spans="2:7" ht="16">
       <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
@@ -3170,11 +3167,11 @@
       <c r="F17" s="27"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7">
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="32" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -3187,10 +3184,10 @@
         <v>249</v>
       </c>
       <c r="G18" s="11">
-        <v>43805</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
@@ -3206,33 +3203,33 @@
       <c r="F19" s="27"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E20" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="36"/>
+      <c r="G20" s="35"/>
+    </row>
+    <row r="21" spans="2:7" ht="16">
       <c r="B21" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="35"/>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="6" t="s">
         <v>2</v>
       </c>
@@ -3248,85 +3245,85 @@
       <c r="F22" s="27"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="36"/>
+      <c r="G23" s="35"/>
+    </row>
+    <row r="24" spans="2:7" ht="16">
       <c r="B24" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="35"/>
+    </row>
+    <row r="25" spans="2:7" ht="16">
       <c r="B25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-    </row>
-    <row r="26" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="E25" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="36"/>
+      <c r="G25" s="35"/>
+    </row>
+    <row r="26" spans="2:7" ht="32">
       <c r="B26" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="35"/>
+    </row>
+    <row r="27" spans="2:7" ht="16">
       <c r="B27" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="36"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E27" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="42"/>
+      <c r="G27" s="35"/>
+    </row>
+    <row r="28" spans="2:7" ht="16">
       <c r="B28" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="36"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="35"/>
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29" s="6" t="s">
         <v>2</v>
       </c>
@@ -3342,59 +3339,59 @@
       <c r="F29" s="27"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7">
       <c r="B30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E30" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="36"/>
+      <c r="G30" s="35"/>
+    </row>
+    <row r="31" spans="2:7" ht="16">
       <c r="B31" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-    </row>
-    <row r="32" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="35"/>
+    </row>
+    <row r="32" spans="2:7" ht="32">
       <c r="B32" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E32" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="36"/>
+      <c r="G32" s="35"/>
+    </row>
+    <row r="33" spans="2:7" ht="16">
       <c r="B33" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="35"/>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" s="6" t="s">
         <v>2</v>
       </c>
@@ -3410,59 +3407,59 @@
       <c r="F34" s="27"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" ht="32">
       <c r="B35" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E35" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="36"/>
+      <c r="G35" s="35"/>
+    </row>
+    <row r="36" spans="2:7" ht="16">
       <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="35"/>
+    </row>
+    <row r="37" spans="2:7" ht="16">
       <c r="B37" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="36"/>
-    </row>
-    <row r="38" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="E37" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="36"/>
+      <c r="G37" s="35"/>
+    </row>
+    <row r="38" spans="2:7" ht="32">
       <c r="B38" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="35"/>
+    </row>
+    <row r="39" spans="2:7">
       <c r="B39" s="6" t="s">
         <v>2</v>
       </c>
@@ -3478,33 +3475,33 @@
       <c r="F39" s="27"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7">
       <c r="B40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="36"/>
-    </row>
-    <row r="41" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="F40" s="36"/>
+      <c r="G40" s="35"/>
+    </row>
+    <row r="41" spans="2:7" ht="32">
       <c r="B41" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="35"/>
+    </row>
+    <row r="42" spans="2:7">
       <c r="B42" s="6" t="s">
         <v>2</v>
       </c>
@@ -3520,7 +3517,7 @@
       <c r="F42" s="27"/>
       <c r="G42" s="11"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7">
       <c r="B43" s="6" t="s">
         <v>2</v>
       </c>
@@ -3536,33 +3533,33 @@
       <c r="F43" s="27"/>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7">
       <c r="B44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E44" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="36"/>
+      <c r="G44" s="35"/>
+    </row>
+    <row r="45" spans="2:7" ht="16">
       <c r="B45" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="36"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="35"/>
+    </row>
+    <row r="46" spans="2:7">
       <c r="B46" s="6" t="s">
         <v>2</v>
       </c>
@@ -3578,7 +3575,7 @@
       <c r="F46" s="27"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7">
       <c r="B47" s="6" t="s">
         <v>2</v>
       </c>
@@ -3598,33 +3595,33 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7">
       <c r="B48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="36"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E48" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="36"/>
+      <c r="G48" s="35"/>
+    </row>
+    <row r="49" spans="2:7" ht="16">
       <c r="B49" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="36"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="35"/>
+    </row>
+    <row r="50" spans="2:7">
       <c r="B50" s="6" t="s">
         <v>2</v>
       </c>
@@ -3640,7 +3637,7 @@
       <c r="F50" s="27"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7">
       <c r="B51" s="6" t="s">
         <v>2</v>
       </c>
@@ -3656,7 +3653,7 @@
       <c r="F51" s="27"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" ht="16">
       <c r="B52" s="7" t="s">
         <v>244</v>
       </c>
@@ -3668,7 +3665,7 @@
       <c r="F52" s="27"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7">
       <c r="B53" s="6" t="s">
         <v>245</v>
       </c>
@@ -3680,7 +3677,7 @@
       <c r="F53" s="27"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7">
       <c r="B54" s="6" t="s">
         <v>2</v>
       </c>
@@ -3696,173 +3693,173 @@
       <c r="F54" s="27"/>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7">
       <c r="B55" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="35" t="s">
+      <c r="D55" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="35"/>
-      <c r="G55" s="36"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E55" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="36"/>
+      <c r="G55" s="35"/>
+    </row>
+    <row r="56" spans="2:7" ht="16">
       <c r="B56" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="36"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="35"/>
+    </row>
+    <row r="57" spans="2:7" ht="16">
       <c r="B57" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="35"/>
-      <c r="G57" s="36"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E57" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="36"/>
+      <c r="G57" s="35"/>
+    </row>
+    <row r="58" spans="2:7" ht="16">
       <c r="B58" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="36"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="35"/>
+    </row>
+    <row r="59" spans="2:7" ht="16">
       <c r="B59" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="35" t="s">
+      <c r="D59" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="E59" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="35"/>
-      <c r="G59" s="36"/>
-    </row>
-    <row r="60" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="E59" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="36"/>
+      <c r="G59" s="35"/>
+    </row>
+    <row r="60" spans="2:7" ht="32">
       <c r="B60" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="36"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="35"/>
+    </row>
+    <row r="61" spans="2:7" ht="16">
       <c r="B61" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="35" t="s">
+      <c r="D61" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="35"/>
-      <c r="G61" s="36"/>
-    </row>
-    <row r="62" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="E61" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="36"/>
+      <c r="G61" s="35"/>
+    </row>
+    <row r="62" spans="2:7" ht="32">
       <c r="B62" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="36"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="35"/>
+    </row>
+    <row r="63" spans="2:7" ht="16">
       <c r="B63" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="36"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="35"/>
+    </row>
+    <row r="64" spans="2:7" ht="16">
       <c r="B64" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="35" t="s">
+      <c r="D64" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E64" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="35"/>
-      <c r="G64" s="36"/>
-    </row>
-    <row r="65" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="E64" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="36"/>
+      <c r="G64" s="35"/>
+    </row>
+    <row r="65" spans="2:7" ht="32">
       <c r="B65" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="36"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="35"/>
+    </row>
+    <row r="66" spans="2:7" ht="16">
       <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="C66" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E66" s="35" t="s">
+      <c r="E66" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="F66" s="35"/>
-      <c r="G66" s="36"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F66" s="36"/>
+      <c r="G66" s="35"/>
+    </row>
+    <row r="67" spans="2:7" ht="16">
       <c r="B67" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="36"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="35"/>
+    </row>
+    <row r="68" spans="2:7">
       <c r="B68" s="6" t="s">
         <v>2</v>
       </c>
@@ -3878,7 +3875,7 @@
       <c r="F68" s="27"/>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7">
       <c r="B69" s="6" t="s">
         <v>2</v>
       </c>
@@ -3894,7 +3891,7 @@
       <c r="F69" s="27"/>
       <c r="G69" s="11"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7">
       <c r="B70" s="6" t="s">
         <v>2</v>
       </c>
@@ -3910,163 +3907,163 @@
       <c r="F70" s="27"/>
       <c r="G70" s="11"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7">
       <c r="B71" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="D71" s="35" t="s">
+      <c r="D71" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="35"/>
-      <c r="G71" s="36"/>
-    </row>
-    <row r="72" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="E71" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="36"/>
+      <c r="G71" s="35"/>
+    </row>
+    <row r="72" spans="2:7" ht="32">
       <c r="B72" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="36"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="35"/>
+    </row>
+    <row r="73" spans="2:7" ht="16">
       <c r="B73" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D73" s="35" t="s">
+      <c r="D73" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="E73" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="35"/>
-      <c r="G73" s="36"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E73" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="36"/>
+      <c r="G73" s="35"/>
+    </row>
+    <row r="74" spans="2:7" ht="16">
       <c r="B74" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="36"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="35"/>
+    </row>
+    <row r="75" spans="2:7" ht="16">
       <c r="B75" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D75" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E75" s="35" t="s">
+      <c r="E75" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="F75" s="41"/>
-      <c r="G75" s="36"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F75" s="42"/>
+      <c r="G75" s="35"/>
+    </row>
+    <row r="76" spans="2:7" ht="16">
       <c r="B76" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="36"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="35"/>
+    </row>
+    <row r="77" spans="2:7" ht="16">
       <c r="B77" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C77" s="35" t="s">
+      <c r="C77" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="35" t="s">
+      <c r="D77" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="E77" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="35"/>
-      <c r="G77" s="36"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E77" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="36"/>
+      <c r="G77" s="35"/>
+    </row>
+    <row r="78" spans="2:7" ht="16">
       <c r="B78" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="36"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="35"/>
+    </row>
+    <row r="79" spans="2:7" ht="16">
       <c r="B79" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C79" s="35" t="s">
+      <c r="C79" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D79" s="35" t="s">
+      <c r="D79" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="E79" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="35"/>
-      <c r="G79" s="36"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E79" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="36"/>
+      <c r="G79" s="35"/>
+    </row>
+    <row r="80" spans="2:7" ht="16">
       <c r="B80" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="36"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="35"/>
+    </row>
+    <row r="81" spans="2:7" ht="16">
       <c r="B81" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="35" t="s">
+      <c r="C81" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="35" t="s">
+      <c r="D81" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="E81" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="35"/>
-      <c r="G81" s="36"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E81" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="36"/>
+      <c r="G81" s="35"/>
+    </row>
+    <row r="82" spans="2:7" ht="16">
       <c r="B82" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="36"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="35"/>
+    </row>
+    <row r="83" spans="2:7">
       <c r="B83" s="6" t="s">
         <v>241</v>
       </c>
@@ -4082,33 +4079,33 @@
       <c r="F83" s="27"/>
       <c r="G83" s="11"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:7">
       <c r="B84" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C84" s="35" t="s">
+      <c r="C84" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D84" s="35" t="s">
+      <c r="D84" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="E84" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="35"/>
-      <c r="G84" s="36"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E84" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="36"/>
+      <c r="G84" s="35"/>
+    </row>
+    <row r="85" spans="2:7" ht="16">
       <c r="B85" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="36"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="35"/>
+    </row>
+    <row r="86" spans="2:7">
       <c r="B86" s="6" t="s">
         <v>241</v>
       </c>
@@ -4128,33 +4125,33 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:7">
       <c r="B87" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C87" s="35" t="s">
+      <c r="C87" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="D87" s="35" t="s">
+      <c r="D87" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E87" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="35"/>
-      <c r="G87" s="36"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E87" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="36"/>
+      <c r="G87" s="35"/>
+    </row>
+    <row r="88" spans="2:7" ht="16">
       <c r="B88" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="36"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="35"/>
+    </row>
+    <row r="89" spans="2:7">
       <c r="B89" s="6" t="s">
         <v>240</v>
       </c>
@@ -4170,33 +4167,33 @@
       <c r="F89" s="27"/>
       <c r="G89" s="11"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:7" ht="16">
       <c r="B90" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C90" s="35" t="s">
+      <c r="C90" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D90" s="35" t="s">
+      <c r="D90" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="E90" s="35" t="s">
+      <c r="E90" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="F90" s="35"/>
-      <c r="G90" s="36"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F90" s="36"/>
+      <c r="G90" s="35"/>
+    </row>
+    <row r="91" spans="2:7" ht="16">
       <c r="B91" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="36"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="35"/>
+    </row>
+    <row r="92" spans="2:7">
       <c r="B92" s="6" t="s">
         <v>240</v>
       </c>
@@ -4212,7 +4209,7 @@
       <c r="F92" s="27"/>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:7">
       <c r="B93" s="6" t="s">
         <v>240</v>
       </c>
@@ -4228,7 +4225,7 @@
       <c r="F93" s="27"/>
       <c r="G93" s="11"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:7">
       <c r="B94" s="6" t="s">
         <v>240</v>
       </c>
@@ -4248,7 +4245,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:7">
       <c r="B95" s="6" t="s">
         <v>240</v>
       </c>
@@ -4264,33 +4261,33 @@
       <c r="F95" s="27"/>
       <c r="G95" s="11"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:7">
       <c r="B96" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C96" s="35" t="s">
+      <c r="C96" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D96" s="35" t="s">
+      <c r="D96" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E96" s="35" t="s">
+      <c r="E96" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="F96" s="35"/>
-      <c r="G96" s="36"/>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F96" s="36"/>
+      <c r="G96" s="35"/>
+    </row>
+    <row r="97" spans="2:7" ht="16">
       <c r="B97" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="36"/>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="35"/>
+    </row>
+    <row r="98" spans="2:7">
       <c r="B98" s="6" t="s">
         <v>240</v>
       </c>
@@ -4310,7 +4307,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:7">
       <c r="B99" s="6" t="s">
         <v>240</v>
       </c>
@@ -4326,37 +4323,37 @@
       <c r="F99" s="27"/>
       <c r="G99" s="11"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:7">
       <c r="B100" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C100" s="34" t="s">
+      <c r="C100" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="D100" s="35" t="s">
+      <c r="D100" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="35" t="s">
+      <c r="E100" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="G100" s="44">
+      <c r="G100" s="38">
         <v>43728</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:7" ht="16">
       <c r="B101" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C101" s="34"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="45"/>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C101" s="37"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="39"/>
+    </row>
+    <row r="102" spans="2:7">
       <c r="B102" s="6" t="s">
         <v>240</v>
       </c>
@@ -4376,7 +4373,7 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:7">
       <c r="B103" s="6" t="s">
         <v>240</v>
       </c>
@@ -4392,7 +4389,7 @@
       <c r="F103" s="27"/>
       <c r="G103" s="11"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:7">
       <c r="B104" s="6" t="s">
         <v>240</v>
       </c>
@@ -4408,7 +4405,7 @@
       <c r="F104" s="27"/>
       <c r="G104" s="11"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:7">
       <c r="B105" s="6" t="s">
         <v>240</v>
       </c>
@@ -4424,33 +4421,33 @@
       <c r="F105" s="27"/>
       <c r="G105" s="11"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:7">
       <c r="B106" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C106" s="35" t="s">
+      <c r="C106" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="D106" s="35" t="s">
+      <c r="D106" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="E106" s="35" t="s">
+      <c r="E106" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="F106" s="35"/>
-      <c r="G106" s="36"/>
-    </row>
-    <row r="107" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="F106" s="36"/>
+      <c r="G106" s="35"/>
+    </row>
+    <row r="107" spans="2:7" ht="32">
       <c r="B107" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C107" s="35"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="35"/>
-      <c r="F107" s="35"/>
-      <c r="G107" s="36"/>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="36"/>
+      <c r="G107" s="35"/>
+    </row>
+    <row r="108" spans="2:7">
       <c r="B108" s="6" t="s">
         <v>240</v>
       </c>
@@ -4470,59 +4467,59 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:7">
       <c r="B109" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C109" s="35" t="s">
+      <c r="C109" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="D109" s="35" t="s">
+      <c r="D109" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="E109" s="35" t="s">
+      <c r="E109" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="F109" s="35"/>
-      <c r="G109" s="36"/>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F109" s="36"/>
+      <c r="G109" s="35"/>
+    </row>
+    <row r="110" spans="2:7" ht="16">
       <c r="B110" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C110" s="35"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="35"/>
-      <c r="F110" s="35"/>
-      <c r="G110" s="36"/>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C110" s="36"/>
+      <c r="D110" s="36"/>
+      <c r="E110" s="36"/>
+      <c r="F110" s="36"/>
+      <c r="G110" s="35"/>
+    </row>
+    <row r="111" spans="2:7" ht="16">
       <c r="B111" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C111" s="35" t="s">
+      <c r="C111" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="D111" s="35" t="s">
+      <c r="D111" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="E111" s="35" t="s">
+      <c r="E111" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="F111" s="35"/>
-      <c r="G111" s="36"/>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F111" s="36"/>
+      <c r="G111" s="35"/>
+    </row>
+    <row r="112" spans="2:7" ht="16">
       <c r="B112" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="35"/>
-      <c r="F112" s="35"/>
-      <c r="G112" s="36"/>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="35"/>
+    </row>
+    <row r="113" spans="2:7">
       <c r="B113" s="6" t="s">
         <v>240</v>
       </c>
@@ -4538,7 +4535,7 @@
       <c r="F113" s="27"/>
       <c r="G113" s="11"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:7">
       <c r="B114" s="6" t="s">
         <v>240</v>
       </c>
@@ -4554,7 +4551,7 @@
       <c r="F114" s="27"/>
       <c r="G114" s="11"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:7">
       <c r="B115" s="6" t="s">
         <v>240</v>
       </c>
@@ -4570,7 +4567,7 @@
       <c r="F115" s="27"/>
       <c r="G115" s="11"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:7">
       <c r="B116" s="6" t="s">
         <v>240</v>
       </c>
@@ -4586,59 +4583,59 @@
       <c r="F116" s="27"/>
       <c r="G116" s="11"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:7">
       <c r="B117" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C117" s="35" t="s">
+      <c r="C117" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D117" s="35" t="s">
+      <c r="D117" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="E117" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="35"/>
-      <c r="G117" s="36"/>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E117" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="36"/>
+      <c r="G117" s="35"/>
+    </row>
+    <row r="118" spans="2:7" ht="16">
       <c r="B118" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C118" s="35"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="35"/>
-      <c r="F118" s="35"/>
-      <c r="G118" s="36"/>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C118" s="36"/>
+      <c r="D118" s="36"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="36"/>
+      <c r="G118" s="35"/>
+    </row>
+    <row r="119" spans="2:7" ht="16">
       <c r="B119" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C119" s="35" t="s">
+      <c r="C119" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="D119" s="35" t="s">
+      <c r="D119" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="E119" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="35"/>
-      <c r="G119" s="36"/>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E119" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="36"/>
+      <c r="G119" s="35"/>
+    </row>
+    <row r="120" spans="2:7" ht="16">
       <c r="B120" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C120" s="35"/>
-      <c r="D120" s="35"/>
-      <c r="E120" s="35"/>
-      <c r="F120" s="35"/>
-      <c r="G120" s="36"/>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C120" s="36"/>
+      <c r="D120" s="36"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="36"/>
+      <c r="G120" s="35"/>
+    </row>
+    <row r="121" spans="2:7">
       <c r="B121" s="6" t="s">
         <v>240</v>
       </c>
@@ -4654,7 +4651,7 @@
       <c r="F121" s="27"/>
       <c r="G121" s="11"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:7">
       <c r="B122" s="6" t="s">
         <v>240</v>
       </c>
@@ -4670,7 +4667,7 @@
       <c r="F122" s="27"/>
       <c r="G122" s="11"/>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:7">
       <c r="B123" s="6" t="s">
         <v>240</v>
       </c>
@@ -4686,7 +4683,7 @@
       <c r="F123" s="27"/>
       <c r="G123" s="11"/>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:7">
       <c r="B124" s="6" t="s">
         <v>240</v>
       </c>
@@ -4702,7 +4699,7 @@
       <c r="F124" s="27"/>
       <c r="G124" s="11"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:7">
       <c r="B125" s="6" t="s">
         <v>240</v>
       </c>
@@ -4718,7 +4715,7 @@
       <c r="F125" s="27"/>
       <c r="G125" s="11"/>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:7">
       <c r="B126" s="6" t="s">
         <v>240</v>
       </c>
@@ -4734,33 +4731,33 @@
       <c r="F126" s="27"/>
       <c r="G126" s="11"/>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:7">
       <c r="B127" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C127" s="35" t="s">
+      <c r="C127" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="D127" s="35" t="s">
+      <c r="D127" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="E127" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="35"/>
-      <c r="G127" s="36"/>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E127" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="36"/>
+      <c r="G127" s="35"/>
+    </row>
+    <row r="128" spans="2:7" ht="16">
       <c r="B128" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C128" s="35"/>
-      <c r="D128" s="35"/>
-      <c r="E128" s="35"/>
-      <c r="F128" s="35"/>
-      <c r="G128" s="36"/>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C128" s="36"/>
+      <c r="D128" s="36"/>
+      <c r="E128" s="36"/>
+      <c r="F128" s="36"/>
+      <c r="G128" s="35"/>
+    </row>
+    <row r="129" spans="2:7">
       <c r="B129" s="6" t="s">
         <v>244</v>
       </c>
@@ -4772,7 +4769,7 @@
       <c r="F129" s="27"/>
       <c r="G129" s="11"/>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:7">
       <c r="B130" s="6" t="s">
         <v>243</v>
       </c>
@@ -4788,7 +4785,7 @@
       <c r="F130" s="27"/>
       <c r="G130" s="11"/>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:7">
       <c r="B131" s="6" t="s">
         <v>243</v>
       </c>
@@ -4804,33 +4801,33 @@
       <c r="F131" s="27"/>
       <c r="G131" s="11"/>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:7">
       <c r="B132" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C132" s="35" t="s">
+      <c r="C132" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="D132" s="35" t="s">
+      <c r="D132" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="E132" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="35"/>
-      <c r="G132" s="36"/>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E132" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="36"/>
+      <c r="G132" s="35"/>
+    </row>
+    <row r="133" spans="2:7" ht="16">
       <c r="B133" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C133" s="35"/>
-      <c r="D133" s="35"/>
-      <c r="E133" s="35"/>
-      <c r="F133" s="35"/>
-      <c r="G133" s="36"/>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C133" s="36"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="36"/>
+      <c r="G133" s="35"/>
+    </row>
+    <row r="134" spans="2:7">
       <c r="B134" s="6" t="s">
         <v>239</v>
       </c>
@@ -4846,7 +4843,7 @@
       <c r="F134" s="27"/>
       <c r="G134" s="11"/>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:7">
       <c r="B135" s="6" t="s">
         <v>239</v>
       </c>
@@ -4862,33 +4859,33 @@
       <c r="F135" s="27"/>
       <c r="G135" s="11"/>
     </row>
-    <row r="136" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:7" ht="32">
       <c r="B136" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C136" s="35" t="s">
+      <c r="C136" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="D136" s="35" t="s">
+      <c r="D136" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="E136" s="35" t="s">
+      <c r="E136" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="F136" s="35"/>
-      <c r="G136" s="36"/>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F136" s="36"/>
+      <c r="G136" s="35"/>
+    </row>
+    <row r="137" spans="2:7" ht="16">
       <c r="B137" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C137" s="35"/>
-      <c r="D137" s="35"/>
-      <c r="E137" s="35"/>
-      <c r="F137" s="35"/>
-      <c r="G137" s="36"/>
-    </row>
-    <row r="138" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="C137" s="36"/>
+      <c r="D137" s="36"/>
+      <c r="E137" s="36"/>
+      <c r="F137" s="36"/>
+      <c r="G137" s="35"/>
+    </row>
+    <row r="138" spans="2:7" ht="32">
       <c r="B138" s="7" t="s">
         <v>246</v>
       </c>
@@ -4904,7 +4901,7 @@
       <c r="F138" s="27"/>
       <c r="G138" s="11"/>
     </row>
-    <row r="139" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:7" ht="32">
       <c r="B139" s="7" t="s">
         <v>246</v>
       </c>
@@ -4924,7 +4921,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="140" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:7" ht="32">
       <c r="B140" s="7" t="s">
         <v>246</v>
       </c>
@@ -4940,7 +4937,7 @@
       <c r="F140" s="27"/>
       <c r="G140" s="11"/>
     </row>
-    <row r="141" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:7" ht="32">
       <c r="B141" s="7" t="s">
         <v>246</v>
       </c>
@@ -4956,7 +4953,7 @@
       <c r="F141" s="27"/>
       <c r="G141" s="11"/>
     </row>
-    <row r="142" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:7" ht="32">
       <c r="B142" s="7" t="s">
         <v>246</v>
       </c>
@@ -4976,33 +4973,33 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:7">
       <c r="B143" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C143" s="35" t="s">
+      <c r="C143" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="D143" s="35" t="s">
+      <c r="D143" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="E143" s="35" t="s">
+      <c r="E143" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F143" s="35"/>
-      <c r="G143" s="36"/>
-    </row>
-    <row r="144" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="F143" s="36"/>
+      <c r="G143" s="35"/>
+    </row>
+    <row r="144" spans="2:7" ht="32">
       <c r="B144" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C144" s="35"/>
-      <c r="D144" s="35"/>
-      <c r="E144" s="35"/>
-      <c r="F144" s="35"/>
-      <c r="G144" s="36"/>
-    </row>
-    <row r="145" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="C144" s="36"/>
+      <c r="D144" s="36"/>
+      <c r="E144" s="36"/>
+      <c r="F144" s="36"/>
+      <c r="G144" s="35"/>
+    </row>
+    <row r="145" spans="2:7" ht="32">
       <c r="B145" s="7" t="s">
         <v>246</v>
       </c>
@@ -5018,7 +5015,7 @@
       <c r="F145" s="27"/>
       <c r="G145" s="11"/>
     </row>
-    <row r="146" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:7" ht="32">
       <c r="B146" s="7" t="s">
         <v>246</v>
       </c>
@@ -5038,7 +5035,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="147" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:7" ht="32">
       <c r="B147" s="7" t="s">
         <v>246</v>
       </c>
@@ -5058,7 +5055,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="148" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:7" ht="32">
       <c r="B148" s="7" t="s">
         <v>246</v>
       </c>
@@ -5074,33 +5071,33 @@
       <c r="F148" s="27"/>
       <c r="G148" s="11"/>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:7">
       <c r="B149" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C149" s="35" t="s">
+      <c r="C149" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="D149" s="35" t="s">
+      <c r="D149" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="E149" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="35"/>
-      <c r="G149" s="36"/>
-    </row>
-    <row r="150" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="E149" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="36"/>
+      <c r="G149" s="35"/>
+    </row>
+    <row r="150" spans="2:7" ht="32">
       <c r="B150" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C150" s="35"/>
-      <c r="D150" s="35"/>
-      <c r="E150" s="35"/>
-      <c r="F150" s="35"/>
-      <c r="G150" s="36"/>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C150" s="36"/>
+      <c r="D150" s="36"/>
+      <c r="E150" s="36"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="35"/>
+    </row>
+    <row r="151" spans="2:7">
       <c r="B151" s="6" t="s">
         <v>242</v>
       </c>
@@ -5116,7 +5113,7 @@
       <c r="F151" s="27"/>
       <c r="G151" s="11"/>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:7">
       <c r="B152" s="6" t="s">
         <v>242</v>
       </c>
@@ -5132,7 +5129,7 @@
       <c r="F152" s="27"/>
       <c r="G152" s="11"/>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:7">
       <c r="B153" s="6" t="s">
         <v>242</v>
       </c>
@@ -5148,7 +5145,7 @@
       <c r="F153" s="27"/>
       <c r="G153" s="11"/>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:7">
       <c r="B154" s="6" t="s">
         <v>242</v>
       </c>
@@ -5164,7 +5161,7 @@
       <c r="F154" s="27"/>
       <c r="G154" s="11"/>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:7">
       <c r="B155" s="6" t="s">
         <v>242</v>
       </c>
@@ -5180,7 +5177,7 @@
       <c r="F155" s="27"/>
       <c r="G155" s="11"/>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:7">
       <c r="B156" s="6" t="s">
         <v>242</v>
       </c>
@@ -5196,7 +5193,7 @@
       <c r="F156" s="27"/>
       <c r="G156" s="11"/>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:7">
       <c r="B157" s="6" t="s">
         <v>242</v>
       </c>
@@ -5212,7 +5209,7 @@
       <c r="F157" s="27"/>
       <c r="G157" s="11"/>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:7">
       <c r="B158" s="6" t="s">
         <v>242</v>
       </c>
@@ -5228,7 +5225,7 @@
       <c r="F158" s="27"/>
       <c r="G158" s="11"/>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:7">
       <c r="B159" s="6" t="s">
         <v>242</v>
       </c>
@@ -5244,7 +5241,7 @@
       <c r="F159" s="27"/>
       <c r="G159" s="11"/>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:7">
       <c r="B160" s="6" t="s">
         <v>242</v>
       </c>
@@ -5260,7 +5257,7 @@
       <c r="F160" s="27"/>
       <c r="G160" s="11"/>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:7">
       <c r="B161" s="13" t="s">
         <v>261</v>
       </c>
@@ -5276,7 +5273,7 @@
       <c r="F161" s="13"/>
       <c r="G161" s="16"/>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:7">
       <c r="B162" s="13" t="s">
         <v>240</v>
       </c>
@@ -5292,7 +5289,7 @@
       <c r="F162" s="13"/>
       <c r="G162" s="16"/>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:7">
       <c r="B163" s="13" t="s">
         <v>242</v>
       </c>
@@ -5308,73 +5305,73 @@
       <c r="F163" s="13"/>
       <c r="G163" s="16"/>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:7">
       <c r="B164" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C164" s="40" t="s">
+      <c r="C164" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="D164" s="39" t="s">
+      <c r="D164" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="E164" s="39" t="s">
+      <c r="E164" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="F164" s="39" t="s">
+      <c r="F164" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="G164" s="38">
+      <c r="G164" s="43">
         <v>43763</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:7">
       <c r="B165" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="C165" s="40"/>
-      <c r="D165" s="39"/>
-      <c r="E165" s="39"/>
-      <c r="F165" s="39"/>
-      <c r="G165" s="38"/>
-    </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C165" s="45"/>
+      <c r="D165" s="44"/>
+      <c r="E165" s="44"/>
+      <c r="F165" s="44"/>
+      <c r="G165" s="43"/>
+    </row>
+    <row r="166" spans="2:7">
       <c r="B166" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C166" s="40"/>
-      <c r="D166" s="39"/>
-      <c r="E166" s="39"/>
-      <c r="F166" s="39"/>
-      <c r="G166" s="38"/>
-    </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C166" s="45"/>
+      <c r="D166" s="44"/>
+      <c r="E166" s="44"/>
+      <c r="F166" s="44"/>
+      <c r="G166" s="43"/>
+    </row>
+    <row r="167" spans="2:7">
       <c r="B167" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C167" s="35" t="s">
+      <c r="C167" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="D167" s="37" t="s">
+      <c r="D167" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="E167" s="35" t="s">
+      <c r="E167" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="F167" s="35"/>
-      <c r="G167" s="36"/>
-    </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F167" s="36"/>
+      <c r="G167" s="35"/>
+    </row>
+    <row r="168" spans="2:7">
       <c r="B168" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C168" s="35"/>
-      <c r="D168" s="37"/>
-      <c r="E168" s="35"/>
-      <c r="F168" s="35"/>
-      <c r="G168" s="36"/>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C168" s="36"/>
+      <c r="D168" s="46"/>
+      <c r="E168" s="36"/>
+      <c r="F168" s="36"/>
+      <c r="G168" s="35"/>
+    </row>
+    <row r="169" spans="2:7">
       <c r="B169" s="14" t="s">
         <v>2</v>
       </c>
@@ -5390,89 +5387,89 @@
       <c r="F169" s="27"/>
       <c r="G169" s="11"/>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:7">
       <c r="B170" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C170" s="35" t="s">
+      <c r="C170" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="D170" s="35" t="s">
+      <c r="D170" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="E170" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F170" s="35"/>
-      <c r="G170" s="36"/>
-    </row>
-    <row r="171" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="E170" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" s="36"/>
+      <c r="G170" s="35"/>
+    </row>
+    <row r="171" spans="2:7" ht="32">
       <c r="B171" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C171" s="35"/>
-      <c r="D171" s="35"/>
-      <c r="E171" s="35"/>
-      <c r="F171" s="35"/>
-      <c r="G171" s="36"/>
-    </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C171" s="36"/>
+      <c r="D171" s="36"/>
+      <c r="E171" s="36"/>
+      <c r="F171" s="36"/>
+      <c r="G171" s="35"/>
+    </row>
+    <row r="172" spans="2:7">
       <c r="B172" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="35" t="s">
+      <c r="C172" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="D172" s="37" t="s">
+      <c r="D172" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="E172" s="35" t="s">
+      <c r="E172" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="F172" s="35"/>
-      <c r="G172" s="36"/>
-    </row>
-    <row r="173" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="F172" s="36"/>
+      <c r="G172" s="35"/>
+    </row>
+    <row r="173" spans="2:7" ht="32">
       <c r="B173" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C173" s="35"/>
-      <c r="D173" s="35"/>
-      <c r="E173" s="35"/>
-      <c r="F173" s="35"/>
-      <c r="G173" s="36"/>
-    </row>
-    <row r="174" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="C173" s="36"/>
+      <c r="D173" s="36"/>
+      <c r="E173" s="36"/>
+      <c r="F173" s="36"/>
+      <c r="G173" s="35"/>
+    </row>
+    <row r="174" spans="2:7" ht="32">
       <c r="B174" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C174" s="34" t="s">
+      <c r="C174" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="D174" s="35" t="s">
+      <c r="D174" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="E174" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F174" s="35" t="s">
+      <c r="E174" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="G174" s="36">
+      <c r="G174" s="35">
         <v>43770</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:7">
       <c r="B175" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C175" s="34"/>
-      <c r="D175" s="35"/>
-      <c r="E175" s="35"/>
-      <c r="F175" s="35"/>
-      <c r="G175" s="36"/>
-    </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C175" s="37"/>
+      <c r="D175" s="36"/>
+      <c r="E175" s="36"/>
+      <c r="F175" s="36"/>
+      <c r="G175" s="35"/>
+    </row>
+    <row r="176" spans="2:7">
       <c r="B176" s="14" t="s">
         <v>2</v>
       </c>
@@ -5488,7 +5485,7 @@
       <c r="F176" s="27"/>
       <c r="G176" s="11"/>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:7">
       <c r="B177" s="14" t="s">
         <v>2</v>
       </c>
@@ -5504,7 +5501,7 @@
       <c r="F177" s="27"/>
       <c r="G177" s="11"/>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:7">
       <c r="B178" s="14" t="s">
         <v>2</v>
       </c>
@@ -5520,33 +5517,33 @@
       <c r="F178" s="27"/>
       <c r="G178" s="11"/>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:7">
       <c r="B179" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C179" s="35" t="s">
+      <c r="C179" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="D179" s="35" t="s">
+      <c r="D179" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="E179" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F179" s="35"/>
-      <c r="G179" s="36"/>
-    </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E179" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F179" s="36"/>
+      <c r="G179" s="35"/>
+    </row>
+    <row r="180" spans="2:7">
       <c r="B180" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C180" s="35"/>
-      <c r="D180" s="35"/>
-      <c r="E180" s="35"/>
-      <c r="F180" s="35"/>
-      <c r="G180" s="36"/>
-    </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C180" s="36"/>
+      <c r="D180" s="36"/>
+      <c r="E180" s="36"/>
+      <c r="F180" s="36"/>
+      <c r="G180" s="35"/>
+    </row>
+    <row r="181" spans="2:7">
       <c r="B181" s="14" t="s">
         <v>2</v>
       </c>
@@ -5562,7 +5559,7 @@
       <c r="F181" s="27"/>
       <c r="G181" s="11"/>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:7">
       <c r="B182" s="14" t="s">
         <v>2</v>
       </c>
@@ -5582,7 +5579,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:7" ht="16">
       <c r="B183" s="14" t="s">
         <v>2</v>
       </c>
@@ -5598,57 +5595,57 @@
       <c r="F183" s="27"/>
       <c r="G183" s="11"/>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:7">
       <c r="B184" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C184" s="34" t="s">
+      <c r="C184" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="D184" s="35" t="s">
+      <c r="D184" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="E184" s="35" t="s">
+      <c r="E184" s="36" t="s">
         <v>341</v>
       </c>
-      <c r="F184" s="35" t="s">
+      <c r="F184" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="G184" s="36">
+      <c r="G184" s="35">
         <v>43791</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:7">
       <c r="B185" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C185" s="34"/>
-      <c r="D185" s="35"/>
-      <c r="E185" s="35"/>
-      <c r="F185" s="35"/>
-      <c r="G185" s="36"/>
-    </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C185" s="37"/>
+      <c r="D185" s="36"/>
+      <c r="E185" s="36"/>
+      <c r="F185" s="36"/>
+      <c r="G185" s="35"/>
+    </row>
+    <row r="186" spans="2:7">
       <c r="B186" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C186" s="34"/>
-      <c r="D186" s="35"/>
-      <c r="E186" s="35"/>
-      <c r="F186" s="35"/>
-      <c r="G186" s="36"/>
-    </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C186" s="37"/>
+      <c r="D186" s="36"/>
+      <c r="E186" s="36"/>
+      <c r="F186" s="36"/>
+      <c r="G186" s="35"/>
+    </row>
+    <row r="187" spans="2:7">
       <c r="B187" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="C187" s="34"/>
-      <c r="D187" s="35"/>
-      <c r="E187" s="35"/>
-      <c r="F187" s="35"/>
-      <c r="G187" s="36"/>
-    </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C187" s="37"/>
+      <c r="D187" s="36"/>
+      <c r="E187" s="36"/>
+      <c r="F187" s="36"/>
+      <c r="G187" s="35"/>
+    </row>
+    <row r="188" spans="2:7">
       <c r="B188" s="14" t="s">
         <v>241</v>
       </c>
@@ -5664,7 +5661,7 @@
       <c r="F188" s="27"/>
       <c r="G188" s="11"/>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:7">
       <c r="B189" s="14" t="s">
         <v>287</v>
       </c>
@@ -5684,37 +5681,37 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:7">
       <c r="B190" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="C190" s="34" t="s">
+      <c r="C190" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="D190" s="35" t="s">
+      <c r="D190" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="E190" s="35" t="s">
+      <c r="E190" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="F190" s="35" t="s">
+      <c r="F190" s="36" t="s">
         <v>344</v>
       </c>
-      <c r="G190" s="36">
+      <c r="G190" s="35">
         <v>43791</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:7">
       <c r="B191" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C191" s="34"/>
-      <c r="D191" s="35"/>
-      <c r="E191" s="35"/>
-      <c r="F191" s="35"/>
-      <c r="G191" s="36"/>
-    </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C191" s="37"/>
+      <c r="D191" s="36"/>
+      <c r="E191" s="36"/>
+      <c r="F191" s="36"/>
+      <c r="G191" s="35"/>
+    </row>
+    <row r="192" spans="2:7">
       <c r="B192" s="14" t="s">
         <v>287</v>
       </c>
@@ -5730,37 +5727,33 @@
       <c r="F192" s="27"/>
       <c r="G192" s="11"/>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:7">
       <c r="B193" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="C193" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="D193" s="35" t="s">
+      <c r="C193" s="42" t="s">
+        <v>359</v>
+      </c>
+      <c r="D193" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="E193" s="35" t="s">
+      <c r="E193" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="F193" s="35" t="s">
-        <v>354</v>
-      </c>
-      <c r="G193" s="36">
-        <v>43805</v>
-      </c>
-    </row>
-    <row r="194" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="F193" s="36"/>
+      <c r="G193" s="35"/>
+    </row>
+    <row r="194" spans="2:7" ht="32">
       <c r="B194" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C194" s="34"/>
-      <c r="D194" s="35"/>
-      <c r="E194" s="35"/>
-      <c r="F194" s="35"/>
-      <c r="G194" s="36"/>
-    </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C194" s="37"/>
+      <c r="D194" s="36"/>
+      <c r="E194" s="36"/>
+      <c r="F194" s="36"/>
+      <c r="G194" s="35"/>
+    </row>
+    <row r="195" spans="2:7">
       <c r="B195" s="14" t="s">
         <v>265</v>
       </c>
@@ -5776,43 +5769,43 @@
       <c r="F195" s="27"/>
       <c r="G195" s="11"/>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:7">
       <c r="B196" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C196" s="35" t="s">
+      <c r="C196" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="D196" s="35" t="s">
+      <c r="D196" s="36" t="s">
         <v>298</v>
       </c>
-      <c r="E196" s="35" t="s">
+      <c r="E196" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="F196" s="35"/>
-      <c r="G196" s="36"/>
-    </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F196" s="36"/>
+      <c r="G196" s="35"/>
+    </row>
+    <row r="197" spans="2:7">
       <c r="B197" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C197" s="35"/>
-      <c r="D197" s="35"/>
-      <c r="E197" s="35"/>
-      <c r="F197" s="35"/>
-      <c r="G197" s="36"/>
-    </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C197" s="36"/>
+      <c r="D197" s="36"/>
+      <c r="E197" s="36"/>
+      <c r="F197" s="36"/>
+      <c r="G197" s="35"/>
+    </row>
+    <row r="198" spans="2:7">
       <c r="B198" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C198" s="35"/>
-      <c r="D198" s="35"/>
-      <c r="E198" s="35"/>
-      <c r="F198" s="35"/>
-      <c r="G198" s="36"/>
-    </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C198" s="36"/>
+      <c r="D198" s="36"/>
+      <c r="E198" s="36"/>
+      <c r="F198" s="36"/>
+      <c r="G198" s="35"/>
+    </row>
+    <row r="199" spans="2:7">
       <c r="B199" s="14" t="s">
         <v>265</v>
       </c>
@@ -5828,89 +5821,89 @@
       <c r="F199" s="27"/>
       <c r="G199" s="11"/>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:7">
       <c r="B200" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C200" s="35" t="s">
+      <c r="C200" s="36" t="s">
         <v>314</v>
       </c>
-      <c r="D200" s="35" t="s">
+      <c r="D200" s="36" t="s">
         <v>315</v>
       </c>
-      <c r="E200" s="35" t="s">
+      <c r="E200" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="F200" s="35"/>
-      <c r="G200" s="36"/>
-    </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F200" s="36"/>
+      <c r="G200" s="35"/>
+    </row>
+    <row r="201" spans="2:7">
       <c r="B201" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C201" s="35"/>
-      <c r="D201" s="35"/>
-      <c r="E201" s="35"/>
-      <c r="F201" s="35"/>
-      <c r="G201" s="36"/>
-    </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C201" s="36"/>
+      <c r="D201" s="36"/>
+      <c r="E201" s="36"/>
+      <c r="F201" s="36"/>
+      <c r="G201" s="35"/>
+    </row>
+    <row r="202" spans="2:7">
       <c r="B202" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C202" s="35" t="s">
+      <c r="C202" s="36" t="s">
         <v>316</v>
       </c>
-      <c r="D202" s="35" t="s">
+      <c r="D202" s="36" t="s">
         <v>317</v>
       </c>
-      <c r="E202" s="35" t="s">
+      <c r="E202" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="F202" s="35"/>
-      <c r="G202" s="36"/>
-    </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F202" s="36"/>
+      <c r="G202" s="35"/>
+    </row>
+    <row r="203" spans="2:7">
       <c r="B203" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C203" s="35"/>
-      <c r="D203" s="35"/>
-      <c r="E203" s="35"/>
-      <c r="F203" s="35"/>
-      <c r="G203" s="36"/>
-    </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C203" s="36"/>
+      <c r="D203" s="36"/>
+      <c r="E203" s="36"/>
+      <c r="F203" s="36"/>
+      <c r="G203" s="35"/>
+    </row>
+    <row r="204" spans="2:7">
       <c r="B204" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C204" s="35" t="s">
+      <c r="C204" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="D204" s="35" t="s">
+      <c r="D204" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="E204" s="35" t="s">
+      <c r="E204" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="F204" s="35"/>
-      <c r="G204" s="36"/>
-    </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F204" s="36"/>
+      <c r="G204" s="35"/>
+    </row>
+    <row r="205" spans="2:7">
       <c r="B205" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C205" s="35"/>
-      <c r="D205" s="35"/>
-      <c r="E205" s="35"/>
-      <c r="F205" s="35"/>
-      <c r="G205" s="36"/>
-    </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C205" s="36"/>
+      <c r="D205" s="36"/>
+      <c r="E205" s="36"/>
+      <c r="F205" s="36"/>
+      <c r="G205" s="35"/>
+    </row>
+    <row r="206" spans="2:7">
       <c r="B206" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C206" s="14" t="s">
+      <c r="C206" s="33" t="s">
         <v>320</v>
       </c>
       <c r="D206" s="14" t="s">
@@ -5919,10 +5912,14 @@
       <c r="E206" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="F206" s="27"/>
-      <c r="G206" s="11"/>
-    </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F206" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="G206" s="11">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7">
       <c r="B207" s="14" t="s">
         <v>266</v>
       </c>
@@ -5938,7 +5935,7 @@
       <c r="F207" s="27"/>
       <c r="G207" s="11"/>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:7">
       <c r="B208" s="14" t="s">
         <v>266</v>
       </c>
@@ -5954,7 +5951,7 @@
       <c r="F208" s="27"/>
       <c r="G208" s="11"/>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:7" ht="17">
       <c r="B209" s="14" t="s">
         <v>266</v>
       </c>
@@ -5970,7 +5967,7 @@
       <c r="F209" s="27"/>
       <c r="G209" s="11"/>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:7">
       <c r="B210" s="14" t="s">
         <v>266</v>
       </c>
@@ -5986,7 +5983,7 @@
       <c r="F210" s="27"/>
       <c r="G210" s="11"/>
     </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:7">
       <c r="B211" s="14" t="s">
         <v>266</v>
       </c>
@@ -6002,7 +5999,7 @@
       <c r="F211" s="27"/>
       <c r="G211" s="11"/>
     </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:7">
       <c r="B212" s="14" t="s">
         <v>266</v>
       </c>
@@ -6018,7 +6015,7 @@
       <c r="F212" s="27"/>
       <c r="G212" s="11"/>
     </row>
-    <row r="213" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:7" ht="32">
       <c r="B213" s="17" t="s">
         <v>246</v>
       </c>
@@ -6034,7 +6031,7 @@
       <c r="F213" s="27"/>
       <c r="G213" s="11"/>
     </row>
-    <row r="214" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:7" ht="32">
       <c r="B214" s="17" t="s">
         <v>246</v>
       </c>
@@ -6050,7 +6047,7 @@
       <c r="F214" s="27"/>
       <c r="G214" s="11"/>
     </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:7">
       <c r="B215" s="27" t="s">
         <v>261</v>
       </c>
@@ -6066,79 +6063,333 @@
       <c r="F215" s="27"/>
       <c r="G215" s="26"/>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B216" s="35" t="s">
+    <row r="216" spans="2:7">
+      <c r="B216" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="C216" s="34" t="s">
+      <c r="C216" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="D216" s="35" t="s">
+      <c r="D216" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="E216" s="35" t="s">
+      <c r="E216" s="36" t="s">
         <v>120</v>
       </c>
       <c r="F216" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="G216" s="36">
+      <c r="G216" s="35">
         <v>43798</v>
       </c>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B217" s="35"/>
-      <c r="C217" s="34"/>
-      <c r="D217" s="35"/>
-      <c r="E217" s="35"/>
+    <row r="217" spans="2:7">
+      <c r="B217" s="36"/>
+      <c r="C217" s="37"/>
+      <c r="D217" s="36"/>
+      <c r="E217" s="36"/>
       <c r="F217" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="G217" s="36"/>
-    </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B218" s="31" t="s">
+      <c r="G217" s="35"/>
+    </row>
+    <row r="218" spans="2:7">
+      <c r="B218" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="C218" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="D218" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="E218" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="F218" s="30"/>
+      <c r="G218" s="31"/>
+    </row>
+    <row r="219" spans="2:7">
+      <c r="B219" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="C219" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="D219" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="C218" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="D218" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="E218" s="31" t="s">
+      <c r="E219" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="F218" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="G218" s="32">
-        <v>43805</v>
-      </c>
-    </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B219" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="C219" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="D219" s="31" t="s">
-        <v>360</v>
-      </c>
-      <c r="E219" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="F219" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="G219" s="32">
-        <v>43805</v>
-      </c>
+      <c r="F219" s="30"/>
+      <c r="G219" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:G214" xr:uid="{C1EE0C99-C2F8-4E13-983A-B3DCF9299796}"/>
+  <autoFilter ref="B3:G219" xr:uid="{C1EE0C99-C2F8-4E13-983A-B3DCF9299796}"/>
   <mergeCells count="286">
+    <mergeCell ref="C184:C187"/>
+    <mergeCell ref="D184:D187"/>
+    <mergeCell ref="E184:E187"/>
+    <mergeCell ref="F184:F187"/>
+    <mergeCell ref="G184:G187"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="G174:G175"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="G170:G171"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="G172:G173"/>
+    <mergeCell ref="G164:G166"/>
+    <mergeCell ref="F164:F166"/>
+    <mergeCell ref="E164:E166"/>
+    <mergeCell ref="D164:D166"/>
+    <mergeCell ref="C164:C166"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="G190:G191"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="G193:G194"/>
     <mergeCell ref="G216:G217"/>
     <mergeCell ref="E216:E217"/>
     <mergeCell ref="D216:D217"/>
@@ -6163,268 +6414,6 @@
     <mergeCell ref="C204:C205"/>
     <mergeCell ref="D204:D205"/>
     <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="G190:G191"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="E193:E194"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="G193:G194"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G164:G166"/>
-    <mergeCell ref="F164:F166"/>
-    <mergeCell ref="E164:E166"/>
-    <mergeCell ref="D164:D166"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="G170:G171"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="G172:G173"/>
-    <mergeCell ref="C184:C187"/>
-    <mergeCell ref="D184:D187"/>
-    <mergeCell ref="E184:E187"/>
-    <mergeCell ref="F184:F187"/>
-    <mergeCell ref="G184:G187"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="G174:G175"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="E179:E180"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="G179:G180"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6440,19 +6429,19 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="0.875" customWidth="1"/>
+    <col min="1" max="1" width="0.83203125" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="90.625" customWidth="1"/>
+    <col min="3" max="3" width="90.6640625" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="5.25" customHeight="1"/>
+    <row r="2" spans="2:7" ht="19">
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
@@ -6472,7 +6461,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7">
       <c r="B3" s="4" t="s">
         <v>237</v>
       </c>
@@ -6492,7 +6481,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7">
       <c r="B4" s="4" t="s">
         <v>237</v>
       </c>
@@ -6527,13 +6516,13 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="16" thickBot="1"/>
+    <row r="3" spans="2:3">
       <c r="B3" s="18" t="s">
         <v>261</v>
       </c>
@@ -6542,7 +6531,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3">
       <c r="B4" s="20" t="s">
         <v>241</v>
       </c>
@@ -6551,7 +6540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3">
       <c r="B5" s="20" t="s">
         <v>346</v>
       </c>
@@ -6560,7 +6549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3">
       <c r="B6" s="20" t="s">
         <v>243</v>
       </c>
@@ -6569,7 +6558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3">
       <c r="B7" s="20" t="s">
         <v>242</v>
       </c>
@@ -6578,7 +6567,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" ht="32">
       <c r="B8" s="22" t="s">
         <v>246</v>
       </c>
@@ -6588,7 +6577,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" ht="16" thickBot="1">
       <c r="B9" s="23" t="s">
         <v>345</v>
       </c>

--- a/Paper list.xlsx
+++ b/Paper list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taehwan/Documents/OneDrive - 고려대학교/0.PhD/5.RLRC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BA0645-C599-1449-BB78-2D971F82D001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9147900-944C-4346-9C1F-428CA3D9C6A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
   </bookViews>
@@ -1271,7 +1271,7 @@
     <t>Positive-Unlabeled Reward Learning</t>
   </si>
   <si>
-    <t>고강원</t>
+    <t>고광원</t>
   </si>
 </sst>
 </file>
@@ -1658,29 +1658,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1691,8 +1679,20 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2922,9 +2922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D0C1FB-3C2C-47C3-B0C0-A85F23F3B3BD}">
   <dimension ref="B1:G219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C193" sqref="C193:C194"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F207" sqref="F207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2940,14 +2940,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="5.25" customHeight="1"/>
     <row r="2" spans="2:7" ht="31">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="43" t="s">
         <v>347</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="2:7" s="3" customFormat="1" ht="19">
       <c r="B3" s="2" t="s">
@@ -2999,7 +2999,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="36"/>
-      <c r="G5" s="41"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="2:7" ht="16">
       <c r="B6" s="7" t="s">
@@ -3009,13 +3009,13 @@
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
-      <c r="G6" s="41"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="2:7" ht="16">
       <c r="B7" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="35" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="36" t="s">
@@ -3027,7 +3027,7 @@
       <c r="F7" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="37">
         <v>43763</v>
       </c>
     </row>
@@ -3035,11 +3035,11 @@
       <c r="B8" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
       <c r="F8" s="36"/>
-      <c r="G8" s="35"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="6" t="s">
@@ -3071,7 +3071,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="36"/>
-      <c r="G10" s="35"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="2:7" ht="16">
       <c r="B11" s="7" t="s">
@@ -3081,7 +3081,7 @@
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
-      <c r="G11" s="35"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="6" t="s">
@@ -3113,7 +3113,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="36"/>
-      <c r="G13" s="35"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="2:7" ht="16">
       <c r="B14" s="7" t="s">
@@ -3123,7 +3123,7 @@
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
-      <c r="G14" s="35"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="2:7" ht="32">
       <c r="B15" s="7" t="s">
@@ -3139,7 +3139,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="36"/>
-      <c r="G15" s="35"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="2:7" ht="16">
       <c r="B16" s="7" t="s">
@@ -3149,7 +3149,7 @@
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
       <c r="F16" s="36"/>
-      <c r="G16" s="35"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="6" t="s">
@@ -3217,7 +3217,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="36"/>
-      <c r="G20" s="35"/>
+      <c r="G20" s="37"/>
     </row>
     <row r="21" spans="2:7" ht="16">
       <c r="B21" s="7" t="s">
@@ -3227,7 +3227,7 @@
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
-      <c r="G21" s="35"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="6" t="s">
@@ -3259,7 +3259,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="36"/>
-      <c r="G23" s="35"/>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" spans="2:7" ht="16">
       <c r="B24" s="7" t="s">
@@ -3269,7 +3269,7 @@
       <c r="D24" s="36"/>
       <c r="E24" s="36"/>
       <c r="F24" s="36"/>
-      <c r="G24" s="35"/>
+      <c r="G24" s="37"/>
     </row>
     <row r="25" spans="2:7" ht="16">
       <c r="B25" s="7" t="s">
@@ -3285,7 +3285,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="36"/>
-      <c r="G25" s="35"/>
+      <c r="G25" s="37"/>
     </row>
     <row r="26" spans="2:7" ht="32">
       <c r="B26" s="7" t="s">
@@ -3295,7 +3295,7 @@
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
-      <c r="G26" s="35"/>
+      <c r="G26" s="37"/>
     </row>
     <row r="27" spans="2:7" ht="16">
       <c r="B27" s="7" t="s">
@@ -3311,7 +3311,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="42"/>
-      <c r="G27" s="35"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="2:7" ht="16">
       <c r="B28" s="7" t="s">
@@ -3321,7 +3321,7 @@
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
       <c r="F28" s="42"/>
-      <c r="G28" s="35"/>
+      <c r="G28" s="37"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="6" t="s">
@@ -3353,7 +3353,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="36"/>
-      <c r="G30" s="35"/>
+      <c r="G30" s="37"/>
     </row>
     <row r="31" spans="2:7" ht="16">
       <c r="B31" s="7" t="s">
@@ -3363,7 +3363,7 @@
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
-      <c r="G31" s="35"/>
+      <c r="G31" s="37"/>
     </row>
     <row r="32" spans="2:7" ht="32">
       <c r="B32" s="7" t="s">
@@ -3379,7 +3379,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="36"/>
-      <c r="G32" s="35"/>
+      <c r="G32" s="37"/>
     </row>
     <row r="33" spans="2:7" ht="16">
       <c r="B33" s="7" t="s">
@@ -3389,7 +3389,7 @@
       <c r="D33" s="36"/>
       <c r="E33" s="36"/>
       <c r="F33" s="36"/>
-      <c r="G33" s="35"/>
+      <c r="G33" s="37"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="6" t="s">
@@ -3421,7 +3421,7 @@
         <v>11</v>
       </c>
       <c r="F35" s="36"/>
-      <c r="G35" s="35"/>
+      <c r="G35" s="37"/>
     </row>
     <row r="36" spans="2:7" ht="16">
       <c r="B36" s="7" t="s">
@@ -3431,7 +3431,7 @@
       <c r="D36" s="36"/>
       <c r="E36" s="36"/>
       <c r="F36" s="36"/>
-      <c r="G36" s="35"/>
+      <c r="G36" s="37"/>
     </row>
     <row r="37" spans="2:7" ht="16">
       <c r="B37" s="7" t="s">
@@ -3447,7 +3447,7 @@
         <v>11</v>
       </c>
       <c r="F37" s="36"/>
-      <c r="G37" s="35"/>
+      <c r="G37" s="37"/>
     </row>
     <row r="38" spans="2:7" ht="32">
       <c r="B38" s="7" t="s">
@@ -3457,7 +3457,7 @@
       <c r="D38" s="36"/>
       <c r="E38" s="36"/>
       <c r="F38" s="36"/>
-      <c r="G38" s="35"/>
+      <c r="G38" s="37"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="6" t="s">
@@ -3489,7 +3489,7 @@
         <v>24</v>
       </c>
       <c r="F40" s="36"/>
-      <c r="G40" s="35"/>
+      <c r="G40" s="37"/>
     </row>
     <row r="41" spans="2:7" ht="32">
       <c r="B41" s="7" t="s">
@@ -3499,7 +3499,7 @@
       <c r="D41" s="36"/>
       <c r="E41" s="36"/>
       <c r="F41" s="36"/>
-      <c r="G41" s="35"/>
+      <c r="G41" s="37"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="6" t="s">
@@ -3547,7 +3547,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="36"/>
-      <c r="G44" s="35"/>
+      <c r="G44" s="37"/>
     </row>
     <row r="45" spans="2:7" ht="16">
       <c r="B45" s="7" t="s">
@@ -3557,7 +3557,7 @@
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
       <c r="F45" s="36"/>
-      <c r="G45" s="35"/>
+      <c r="G45" s="37"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="6" t="s">
@@ -3609,7 +3609,7 @@
         <v>11</v>
       </c>
       <c r="F48" s="36"/>
-      <c r="G48" s="35"/>
+      <c r="G48" s="37"/>
     </row>
     <row r="49" spans="2:7" ht="16">
       <c r="B49" s="7" t="s">
@@ -3619,7 +3619,7 @@
       <c r="D49" s="36"/>
       <c r="E49" s="36"/>
       <c r="F49" s="36"/>
-      <c r="G49" s="35"/>
+      <c r="G49" s="37"/>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="6" t="s">
@@ -3707,7 +3707,7 @@
         <v>11</v>
       </c>
       <c r="F55" s="36"/>
-      <c r="G55" s="35"/>
+      <c r="G55" s="37"/>
     </row>
     <row r="56" spans="2:7" ht="16">
       <c r="B56" s="7" t="s">
@@ -3717,7 +3717,7 @@
       <c r="D56" s="36"/>
       <c r="E56" s="36"/>
       <c r="F56" s="36"/>
-      <c r="G56" s="35"/>
+      <c r="G56" s="37"/>
     </row>
     <row r="57" spans="2:7" ht="16">
       <c r="B57" s="7" t="s">
@@ -3733,7 +3733,7 @@
         <v>11</v>
       </c>
       <c r="F57" s="36"/>
-      <c r="G57" s="35"/>
+      <c r="G57" s="37"/>
     </row>
     <row r="58" spans="2:7" ht="16">
       <c r="B58" s="7" t="s">
@@ -3743,7 +3743,7 @@
       <c r="D58" s="36"/>
       <c r="E58" s="36"/>
       <c r="F58" s="36"/>
-      <c r="G58" s="35"/>
+      <c r="G58" s="37"/>
     </row>
     <row r="59" spans="2:7" ht="16">
       <c r="B59" s="7" t="s">
@@ -3759,7 +3759,7 @@
         <v>11</v>
       </c>
       <c r="F59" s="36"/>
-      <c r="G59" s="35"/>
+      <c r="G59" s="37"/>
     </row>
     <row r="60" spans="2:7" ht="32">
       <c r="B60" s="7" t="s">
@@ -3769,7 +3769,7 @@
       <c r="D60" s="36"/>
       <c r="E60" s="36"/>
       <c r="F60" s="36"/>
-      <c r="G60" s="35"/>
+      <c r="G60" s="37"/>
     </row>
     <row r="61" spans="2:7" ht="16">
       <c r="B61" s="7" t="s">
@@ -3785,7 +3785,7 @@
         <v>11</v>
       </c>
       <c r="F61" s="36"/>
-      <c r="G61" s="35"/>
+      <c r="G61" s="37"/>
     </row>
     <row r="62" spans="2:7" ht="32">
       <c r="B62" s="7" t="s">
@@ -3795,7 +3795,7 @@
       <c r="D62" s="36"/>
       <c r="E62" s="36"/>
       <c r="F62" s="36"/>
-      <c r="G62" s="35"/>
+      <c r="G62" s="37"/>
     </row>
     <row r="63" spans="2:7" ht="16">
       <c r="B63" s="7" t="s">
@@ -3805,7 +3805,7 @@
       <c r="D63" s="36"/>
       <c r="E63" s="36"/>
       <c r="F63" s="36"/>
-      <c r="G63" s="35"/>
+      <c r="G63" s="37"/>
     </row>
     <row r="64" spans="2:7" ht="16">
       <c r="B64" s="7" t="s">
@@ -3821,7 +3821,7 @@
         <v>11</v>
       </c>
       <c r="F64" s="36"/>
-      <c r="G64" s="35"/>
+      <c r="G64" s="37"/>
     </row>
     <row r="65" spans="2:7" ht="32">
       <c r="B65" s="7" t="s">
@@ -3831,7 +3831,7 @@
       <c r="D65" s="36"/>
       <c r="E65" s="36"/>
       <c r="F65" s="36"/>
-      <c r="G65" s="35"/>
+      <c r="G65" s="37"/>
     </row>
     <row r="66" spans="2:7" ht="16">
       <c r="B66" s="7" t="s">
@@ -3847,7 +3847,7 @@
         <v>83</v>
       </c>
       <c r="F66" s="36"/>
-      <c r="G66" s="35"/>
+      <c r="G66" s="37"/>
     </row>
     <row r="67" spans="2:7" ht="16">
       <c r="B67" s="7" t="s">
@@ -3857,7 +3857,7 @@
       <c r="D67" s="36"/>
       <c r="E67" s="36"/>
       <c r="F67" s="36"/>
-      <c r="G67" s="35"/>
+      <c r="G67" s="37"/>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="6" t="s">
@@ -3921,7 +3921,7 @@
         <v>11</v>
       </c>
       <c r="F71" s="36"/>
-      <c r="G71" s="35"/>
+      <c r="G71" s="37"/>
     </row>
     <row r="72" spans="2:7" ht="32">
       <c r="B72" s="7" t="s">
@@ -3931,7 +3931,7 @@
       <c r="D72" s="36"/>
       <c r="E72" s="36"/>
       <c r="F72" s="36"/>
-      <c r="G72" s="35"/>
+      <c r="G72" s="37"/>
     </row>
     <row r="73" spans="2:7" ht="16">
       <c r="B73" s="7" t="s">
@@ -3947,7 +3947,7 @@
         <v>11</v>
       </c>
       <c r="F73" s="36"/>
-      <c r="G73" s="35"/>
+      <c r="G73" s="37"/>
     </row>
     <row r="74" spans="2:7" ht="16">
       <c r="B74" s="7" t="s">
@@ -3957,7 +3957,7 @@
       <c r="D74" s="36"/>
       <c r="E74" s="36"/>
       <c r="F74" s="36"/>
-      <c r="G74" s="35"/>
+      <c r="G74" s="37"/>
     </row>
     <row r="75" spans="2:7" ht="16">
       <c r="B75" s="7" t="s">
@@ -3973,7 +3973,7 @@
         <v>97</v>
       </c>
       <c r="F75" s="42"/>
-      <c r="G75" s="35"/>
+      <c r="G75" s="37"/>
     </row>
     <row r="76" spans="2:7" ht="16">
       <c r="B76" s="7" t="s">
@@ -3983,7 +3983,7 @@
       <c r="D76" s="36"/>
       <c r="E76" s="36"/>
       <c r="F76" s="42"/>
-      <c r="G76" s="35"/>
+      <c r="G76" s="37"/>
     </row>
     <row r="77" spans="2:7" ht="16">
       <c r="B77" s="7" t="s">
@@ -3999,7 +3999,7 @@
         <v>11</v>
       </c>
       <c r="F77" s="36"/>
-      <c r="G77" s="35"/>
+      <c r="G77" s="37"/>
     </row>
     <row r="78" spans="2:7" ht="16">
       <c r="B78" s="7" t="s">
@@ -4009,7 +4009,7 @@
       <c r="D78" s="36"/>
       <c r="E78" s="36"/>
       <c r="F78" s="36"/>
-      <c r="G78" s="35"/>
+      <c r="G78" s="37"/>
     </row>
     <row r="79" spans="2:7" ht="16">
       <c r="B79" s="7" t="s">
@@ -4025,7 +4025,7 @@
         <v>11</v>
       </c>
       <c r="F79" s="36"/>
-      <c r="G79" s="35"/>
+      <c r="G79" s="37"/>
     </row>
     <row r="80" spans="2:7" ht="16">
       <c r="B80" s="7" t="s">
@@ -4035,7 +4035,7 @@
       <c r="D80" s="36"/>
       <c r="E80" s="36"/>
       <c r="F80" s="36"/>
-      <c r="G80" s="35"/>
+      <c r="G80" s="37"/>
     </row>
     <row r="81" spans="2:7" ht="16">
       <c r="B81" s="7" t="s">
@@ -4051,7 +4051,7 @@
         <v>11</v>
       </c>
       <c r="F81" s="36"/>
-      <c r="G81" s="35"/>
+      <c r="G81" s="37"/>
     </row>
     <row r="82" spans="2:7" ht="16">
       <c r="B82" s="7" t="s">
@@ -4061,7 +4061,7 @@
       <c r="D82" s="36"/>
       <c r="E82" s="36"/>
       <c r="F82" s="36"/>
-      <c r="G82" s="35"/>
+      <c r="G82" s="37"/>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="6" t="s">
@@ -4093,7 +4093,7 @@
         <v>11</v>
       </c>
       <c r="F84" s="36"/>
-      <c r="G84" s="35"/>
+      <c r="G84" s="37"/>
     </row>
     <row r="85" spans="2:7" ht="16">
       <c r="B85" s="7" t="s">
@@ -4103,7 +4103,7 @@
       <c r="D85" s="36"/>
       <c r="E85" s="36"/>
       <c r="F85" s="36"/>
-      <c r="G85" s="35"/>
+      <c r="G85" s="37"/>
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="6" t="s">
@@ -4139,7 +4139,7 @@
         <v>11</v>
       </c>
       <c r="F87" s="36"/>
-      <c r="G87" s="35"/>
+      <c r="G87" s="37"/>
     </row>
     <row r="88" spans="2:7" ht="16">
       <c r="B88" s="7" t="s">
@@ -4149,7 +4149,7 @@
       <c r="D88" s="36"/>
       <c r="E88" s="36"/>
       <c r="F88" s="36"/>
-      <c r="G88" s="35"/>
+      <c r="G88" s="37"/>
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="6" t="s">
@@ -4181,7 +4181,7 @@
         <v>115</v>
       </c>
       <c r="F90" s="36"/>
-      <c r="G90" s="35"/>
+      <c r="G90" s="37"/>
     </row>
     <row r="91" spans="2:7" ht="16">
       <c r="B91" s="7" t="s">
@@ -4191,7 +4191,7 @@
       <c r="D91" s="36"/>
       <c r="E91" s="36"/>
       <c r="F91" s="36"/>
-      <c r="G91" s="35"/>
+      <c r="G91" s="37"/>
     </row>
     <row r="92" spans="2:7">
       <c r="B92" s="6" t="s">
@@ -4275,7 +4275,7 @@
         <v>126</v>
       </c>
       <c r="F96" s="36"/>
-      <c r="G96" s="35"/>
+      <c r="G96" s="37"/>
     </row>
     <row r="97" spans="2:7" ht="16">
       <c r="B97" s="7" t="s">
@@ -4285,7 +4285,7 @@
       <c r="D97" s="36"/>
       <c r="E97" s="36"/>
       <c r="F97" s="36"/>
-      <c r="G97" s="35"/>
+      <c r="G97" s="37"/>
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="6" t="s">
@@ -4327,7 +4327,7 @@
       <c r="B100" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C100" s="37" t="s">
+      <c r="C100" s="35" t="s">
         <v>253</v>
       </c>
       <c r="D100" s="36" t="s">
@@ -4339,7 +4339,7 @@
       <c r="F100" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="G100" s="38">
+      <c r="G100" s="45">
         <v>43728</v>
       </c>
     </row>
@@ -4347,11 +4347,11 @@
       <c r="B101" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C101" s="37"/>
+      <c r="C101" s="35"/>
       <c r="D101" s="36"/>
       <c r="E101" s="36"/>
       <c r="F101" s="36"/>
-      <c r="G101" s="39"/>
+      <c r="G101" s="46"/>
     </row>
     <row r="102" spans="2:7">
       <c r="B102" s="6" t="s">
@@ -4435,7 +4435,7 @@
         <v>90</v>
       </c>
       <c r="F106" s="36"/>
-      <c r="G106" s="35"/>
+      <c r="G106" s="37"/>
     </row>
     <row r="107" spans="2:7" ht="32">
       <c r="B107" s="7" t="s">
@@ -4445,7 +4445,7 @@
       <c r="D107" s="36"/>
       <c r="E107" s="36"/>
       <c r="F107" s="36"/>
-      <c r="G107" s="35"/>
+      <c r="G107" s="37"/>
     </row>
     <row r="108" spans="2:7">
       <c r="B108" s="6" t="s">
@@ -4481,7 +4481,7 @@
         <v>115</v>
       </c>
       <c r="F109" s="36"/>
-      <c r="G109" s="35"/>
+      <c r="G109" s="37"/>
     </row>
     <row r="110" spans="2:7" ht="16">
       <c r="B110" s="7" t="s">
@@ -4491,7 +4491,7 @@
       <c r="D110" s="36"/>
       <c r="E110" s="36"/>
       <c r="F110" s="36"/>
-      <c r="G110" s="35"/>
+      <c r="G110" s="37"/>
     </row>
     <row r="111" spans="2:7" ht="16">
       <c r="B111" s="7" t="s">
@@ -4507,7 +4507,7 @@
         <v>149</v>
       </c>
       <c r="F111" s="36"/>
-      <c r="G111" s="35"/>
+      <c r="G111" s="37"/>
     </row>
     <row r="112" spans="2:7" ht="16">
       <c r="B112" s="7" t="s">
@@ -4517,7 +4517,7 @@
       <c r="D112" s="36"/>
       <c r="E112" s="36"/>
       <c r="F112" s="36"/>
-      <c r="G112" s="35"/>
+      <c r="G112" s="37"/>
     </row>
     <row r="113" spans="2:7">
       <c r="B113" s="6" t="s">
@@ -4597,7 +4597,7 @@
         <v>11</v>
       </c>
       <c r="F117" s="36"/>
-      <c r="G117" s="35"/>
+      <c r="G117" s="37"/>
     </row>
     <row r="118" spans="2:7" ht="16">
       <c r="B118" s="7" t="s">
@@ -4607,7 +4607,7 @@
       <c r="D118" s="36"/>
       <c r="E118" s="36"/>
       <c r="F118" s="36"/>
-      <c r="G118" s="35"/>
+      <c r="G118" s="37"/>
     </row>
     <row r="119" spans="2:7" ht="16">
       <c r="B119" s="7" t="s">
@@ -4623,7 +4623,7 @@
         <v>11</v>
       </c>
       <c r="F119" s="36"/>
-      <c r="G119" s="35"/>
+      <c r="G119" s="37"/>
     </row>
     <row r="120" spans="2:7" ht="16">
       <c r="B120" s="7" t="s">
@@ -4633,7 +4633,7 @@
       <c r="D120" s="36"/>
       <c r="E120" s="36"/>
       <c r="F120" s="36"/>
-      <c r="G120" s="35"/>
+      <c r="G120" s="37"/>
     </row>
     <row r="121" spans="2:7">
       <c r="B121" s="6" t="s">
@@ -4745,7 +4745,7 @@
         <v>11</v>
       </c>
       <c r="F127" s="36"/>
-      <c r="G127" s="35"/>
+      <c r="G127" s="37"/>
     </row>
     <row r="128" spans="2:7" ht="16">
       <c r="B128" s="7" t="s">
@@ -4755,7 +4755,7 @@
       <c r="D128" s="36"/>
       <c r="E128" s="36"/>
       <c r="F128" s="36"/>
-      <c r="G128" s="35"/>
+      <c r="G128" s="37"/>
     </row>
     <row r="129" spans="2:7">
       <c r="B129" s="6" t="s">
@@ -4815,7 +4815,7 @@
         <v>11</v>
       </c>
       <c r="F132" s="36"/>
-      <c r="G132" s="35"/>
+      <c r="G132" s="37"/>
     </row>
     <row r="133" spans="2:7" ht="16">
       <c r="B133" s="7" t="s">
@@ -4825,7 +4825,7 @@
       <c r="D133" s="36"/>
       <c r="E133" s="36"/>
       <c r="F133" s="36"/>
-      <c r="G133" s="35"/>
+      <c r="G133" s="37"/>
     </row>
     <row r="134" spans="2:7">
       <c r="B134" s="6" t="s">
@@ -4873,7 +4873,7 @@
         <v>83</v>
       </c>
       <c r="F136" s="36"/>
-      <c r="G136" s="35"/>
+      <c r="G136" s="37"/>
     </row>
     <row r="137" spans="2:7" ht="16">
       <c r="B137" s="7" t="s">
@@ -4883,7 +4883,7 @@
       <c r="D137" s="36"/>
       <c r="E137" s="36"/>
       <c r="F137" s="36"/>
-      <c r="G137" s="35"/>
+      <c r="G137" s="37"/>
     </row>
     <row r="138" spans="2:7" ht="32">
       <c r="B138" s="7" t="s">
@@ -4987,7 +4987,7 @@
         <v>24</v>
       </c>
       <c r="F143" s="36"/>
-      <c r="G143" s="35"/>
+      <c r="G143" s="37"/>
     </row>
     <row r="144" spans="2:7" ht="32">
       <c r="B144" s="7" t="s">
@@ -4997,7 +4997,7 @@
       <c r="D144" s="36"/>
       <c r="E144" s="36"/>
       <c r="F144" s="36"/>
-      <c r="G144" s="35"/>
+      <c r="G144" s="37"/>
     </row>
     <row r="145" spans="2:7" ht="32">
       <c r="B145" s="7" t="s">
@@ -5085,7 +5085,7 @@
         <v>11</v>
       </c>
       <c r="F149" s="36"/>
-      <c r="G149" s="35"/>
+      <c r="G149" s="37"/>
     </row>
     <row r="150" spans="2:7" ht="32">
       <c r="B150" s="7" t="s">
@@ -5095,7 +5095,7 @@
       <c r="D150" s="36"/>
       <c r="E150" s="36"/>
       <c r="F150" s="36"/>
-      <c r="G150" s="35"/>
+      <c r="G150" s="37"/>
     </row>
     <row r="151" spans="2:7">
       <c r="B151" s="6" t="s">
@@ -5309,19 +5309,19 @@
       <c r="B164" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C164" s="45" t="s">
+      <c r="C164" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="D164" s="44" t="s">
+      <c r="D164" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="E164" s="44" t="s">
+      <c r="E164" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="F164" s="44" t="s">
+      <c r="F164" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="G164" s="43">
+      <c r="G164" s="39">
         <v>43763</v>
       </c>
     </row>
@@ -5329,21 +5329,21 @@
       <c r="B165" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="C165" s="45"/>
-      <c r="D165" s="44"/>
-      <c r="E165" s="44"/>
-      <c r="F165" s="44"/>
-      <c r="G165" s="43"/>
+      <c r="C165" s="41"/>
+      <c r="D165" s="40"/>
+      <c r="E165" s="40"/>
+      <c r="F165" s="40"/>
+      <c r="G165" s="39"/>
     </row>
     <row r="166" spans="2:7">
       <c r="B166" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C166" s="45"/>
-      <c r="D166" s="44"/>
-      <c r="E166" s="44"/>
-      <c r="F166" s="44"/>
-      <c r="G166" s="43"/>
+      <c r="C166" s="41"/>
+      <c r="D166" s="40"/>
+      <c r="E166" s="40"/>
+      <c r="F166" s="40"/>
+      <c r="G166" s="39"/>
     </row>
     <row r="167" spans="2:7">
       <c r="B167" s="14" t="s">
@@ -5352,24 +5352,24 @@
       <c r="C167" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="D167" s="46" t="s">
+      <c r="D167" s="38" t="s">
         <v>271</v>
       </c>
       <c r="E167" s="36" t="s">
         <v>270</v>
       </c>
       <c r="F167" s="36"/>
-      <c r="G167" s="35"/>
+      <c r="G167" s="37"/>
     </row>
     <row r="168" spans="2:7">
       <c r="B168" s="14" t="s">
         <v>243</v>
       </c>
       <c r="C168" s="36"/>
-      <c r="D168" s="46"/>
+      <c r="D168" s="38"/>
       <c r="E168" s="36"/>
       <c r="F168" s="36"/>
-      <c r="G168" s="35"/>
+      <c r="G168" s="37"/>
     </row>
     <row r="169" spans="2:7">
       <c r="B169" s="14" t="s">
@@ -5401,7 +5401,7 @@
         <v>11</v>
       </c>
       <c r="F170" s="36"/>
-      <c r="G170" s="35"/>
+      <c r="G170" s="37"/>
     </row>
     <row r="171" spans="2:7" ht="32">
       <c r="B171" s="17" t="s">
@@ -5411,7 +5411,7 @@
       <c r="D171" s="36"/>
       <c r="E171" s="36"/>
       <c r="F171" s="36"/>
-      <c r="G171" s="35"/>
+      <c r="G171" s="37"/>
     </row>
     <row r="172" spans="2:7">
       <c r="B172" s="14" t="s">
@@ -5420,14 +5420,14 @@
       <c r="C172" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="D172" s="46" t="s">
+      <c r="D172" s="38" t="s">
         <v>275</v>
       </c>
       <c r="E172" s="36" t="s">
         <v>270</v>
       </c>
       <c r="F172" s="36"/>
-      <c r="G172" s="35"/>
+      <c r="G172" s="37"/>
     </row>
     <row r="173" spans="2:7" ht="32">
       <c r="B173" s="17" t="s">
@@ -5437,13 +5437,13 @@
       <c r="D173" s="36"/>
       <c r="E173" s="36"/>
       <c r="F173" s="36"/>
-      <c r="G173" s="35"/>
+      <c r="G173" s="37"/>
     </row>
     <row r="174" spans="2:7" ht="32">
       <c r="B174" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C174" s="37" t="s">
+      <c r="C174" s="35" t="s">
         <v>309</v>
       </c>
       <c r="D174" s="36" t="s">
@@ -5455,7 +5455,7 @@
       <c r="F174" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="G174" s="35">
+      <c r="G174" s="37">
         <v>43770</v>
       </c>
     </row>
@@ -5463,11 +5463,11 @@
       <c r="B175" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C175" s="37"/>
+      <c r="C175" s="35"/>
       <c r="D175" s="36"/>
       <c r="E175" s="36"/>
       <c r="F175" s="36"/>
-      <c r="G175" s="35"/>
+      <c r="G175" s="37"/>
     </row>
     <row r="176" spans="2:7">
       <c r="B176" s="14" t="s">
@@ -5531,7 +5531,7 @@
         <v>11</v>
       </c>
       <c r="F179" s="36"/>
-      <c r="G179" s="35"/>
+      <c r="G179" s="37"/>
     </row>
     <row r="180" spans="2:7">
       <c r="B180" s="14" t="s">
@@ -5541,7 +5541,7 @@
       <c r="D180" s="36"/>
       <c r="E180" s="36"/>
       <c r="F180" s="36"/>
-      <c r="G180" s="35"/>
+      <c r="G180" s="37"/>
     </row>
     <row r="181" spans="2:7">
       <c r="B181" s="14" t="s">
@@ -5599,7 +5599,7 @@
       <c r="B184" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C184" s="37" t="s">
+      <c r="C184" s="35" t="s">
         <v>301</v>
       </c>
       <c r="D184" s="36" t="s">
@@ -5611,7 +5611,7 @@
       <c r="F184" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="G184" s="35">
+      <c r="G184" s="37">
         <v>43791</v>
       </c>
     </row>
@@ -5619,31 +5619,31 @@
       <c r="B185" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C185" s="37"/>
+      <c r="C185" s="35"/>
       <c r="D185" s="36"/>
       <c r="E185" s="36"/>
       <c r="F185" s="36"/>
-      <c r="G185" s="35"/>
+      <c r="G185" s="37"/>
     </row>
     <row r="186" spans="2:7">
       <c r="B186" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C186" s="37"/>
+      <c r="C186" s="35"/>
       <c r="D186" s="36"/>
       <c r="E186" s="36"/>
       <c r="F186" s="36"/>
-      <c r="G186" s="35"/>
+      <c r="G186" s="37"/>
     </row>
     <row r="187" spans="2:7">
       <c r="B187" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="C187" s="37"/>
+      <c r="C187" s="35"/>
       <c r="D187" s="36"/>
       <c r="E187" s="36"/>
       <c r="F187" s="36"/>
-      <c r="G187" s="35"/>
+      <c r="G187" s="37"/>
     </row>
     <row r="188" spans="2:7">
       <c r="B188" s="14" t="s">
@@ -5685,7 +5685,7 @@
       <c r="B190" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="C190" s="37" t="s">
+      <c r="C190" s="35" t="s">
         <v>289</v>
       </c>
       <c r="D190" s="36" t="s">
@@ -5697,7 +5697,7 @@
       <c r="F190" s="36" t="s">
         <v>344</v>
       </c>
-      <c r="G190" s="35">
+      <c r="G190" s="37">
         <v>43791</v>
       </c>
     </row>
@@ -5705,11 +5705,11 @@
       <c r="B191" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C191" s="37"/>
+      <c r="C191" s="35"/>
       <c r="D191" s="36"/>
       <c r="E191" s="36"/>
       <c r="F191" s="36"/>
-      <c r="G191" s="35"/>
+      <c r="G191" s="37"/>
     </row>
     <row r="192" spans="2:7">
       <c r="B192" s="14" t="s">
@@ -5741,17 +5741,17 @@
         <v>120</v>
       </c>
       <c r="F193" s="36"/>
-      <c r="G193" s="35"/>
+      <c r="G193" s="37"/>
     </row>
     <row r="194" spans="2:7" ht="32">
       <c r="B194" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C194" s="37"/>
+      <c r="C194" s="35"/>
       <c r="D194" s="36"/>
       <c r="E194" s="36"/>
       <c r="F194" s="36"/>
-      <c r="G194" s="35"/>
+      <c r="G194" s="37"/>
     </row>
     <row r="195" spans="2:7">
       <c r="B195" s="14" t="s">
@@ -5783,7 +5783,7 @@
         <v>120</v>
       </c>
       <c r="F196" s="36"/>
-      <c r="G196" s="35"/>
+      <c r="G196" s="37"/>
     </row>
     <row r="197" spans="2:7">
       <c r="B197" s="14" t="s">
@@ -5793,7 +5793,7 @@
       <c r="D197" s="36"/>
       <c r="E197" s="36"/>
       <c r="F197" s="36"/>
-      <c r="G197" s="35"/>
+      <c r="G197" s="37"/>
     </row>
     <row r="198" spans="2:7">
       <c r="B198" s="14" t="s">
@@ -5803,7 +5803,7 @@
       <c r="D198" s="36"/>
       <c r="E198" s="36"/>
       <c r="F198" s="36"/>
-      <c r="G198" s="35"/>
+      <c r="G198" s="37"/>
     </row>
     <row r="199" spans="2:7">
       <c r="B199" s="14" t="s">
@@ -5835,7 +5835,7 @@
         <v>120</v>
       </c>
       <c r="F200" s="36"/>
-      <c r="G200" s="35"/>
+      <c r="G200" s="37"/>
     </row>
     <row r="201" spans="2:7">
       <c r="B201" s="14" t="s">
@@ -5845,7 +5845,7 @@
       <c r="D201" s="36"/>
       <c r="E201" s="36"/>
       <c r="F201" s="36"/>
-      <c r="G201" s="35"/>
+      <c r="G201" s="37"/>
     </row>
     <row r="202" spans="2:7">
       <c r="B202" s="14" t="s">
@@ -5861,7 +5861,7 @@
         <v>120</v>
       </c>
       <c r="F202" s="36"/>
-      <c r="G202" s="35"/>
+      <c r="G202" s="37"/>
     </row>
     <row r="203" spans="2:7">
       <c r="B203" s="14" t="s">
@@ -5871,7 +5871,7 @@
       <c r="D203" s="36"/>
       <c r="E203" s="36"/>
       <c r="F203" s="36"/>
-      <c r="G203" s="35"/>
+      <c r="G203" s="37"/>
     </row>
     <row r="204" spans="2:7">
       <c r="B204" s="14" t="s">
@@ -5887,7 +5887,7 @@
         <v>120</v>
       </c>
       <c r="F204" s="36"/>
-      <c r="G204" s="35"/>
+      <c r="G204" s="37"/>
     </row>
     <row r="205" spans="2:7">
       <c r="B205" s="14" t="s">
@@ -5897,7 +5897,7 @@
       <c r="D205" s="36"/>
       <c r="E205" s="36"/>
       <c r="F205" s="36"/>
-      <c r="G205" s="35"/>
+      <c r="G205" s="37"/>
     </row>
     <row r="206" spans="2:7">
       <c r="B206" s="14" t="s">
@@ -6067,7 +6067,7 @@
       <c r="B216" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="C216" s="37" t="s">
+      <c r="C216" s="35" t="s">
         <v>353</v>
       </c>
       <c r="D216" s="36" t="s">
@@ -6079,19 +6079,19 @@
       <c r="F216" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="G216" s="35">
+      <c r="G216" s="37">
         <v>43798</v>
       </c>
     </row>
     <row r="217" spans="2:7">
       <c r="B217" s="36"/>
-      <c r="C217" s="37"/>
+      <c r="C217" s="35"/>
       <c r="D217" s="36"/>
       <c r="E217" s="36"/>
       <c r="F217" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="G217" s="35"/>
+      <c r="G217" s="37"/>
     </row>
     <row r="218" spans="2:7">
       <c r="B218" s="30" t="s">
@@ -6128,77 +6128,197 @@
   </sheetData>
   <autoFilter ref="B3:G219" xr:uid="{C1EE0C99-C2F8-4E13-983A-B3DCF9299796}"/>
   <mergeCells count="286">
-    <mergeCell ref="C184:C187"/>
-    <mergeCell ref="D184:D187"/>
-    <mergeCell ref="E184:E187"/>
-    <mergeCell ref="F184:F187"/>
-    <mergeCell ref="G184:G187"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="G174:G175"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="E179:E180"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="G179:G180"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="G170:G171"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="G172:G173"/>
-    <mergeCell ref="G164:G166"/>
-    <mergeCell ref="F164:F166"/>
-    <mergeCell ref="E164:E166"/>
-    <mergeCell ref="D164:D166"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G216:G217"/>
+    <mergeCell ref="E216:E217"/>
+    <mergeCell ref="D216:D217"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="G204:G205"/>
+    <mergeCell ref="G196:G198"/>
+    <mergeCell ref="F196:F198"/>
+    <mergeCell ref="E196:E198"/>
+    <mergeCell ref="D196:D198"/>
+    <mergeCell ref="C196:C198"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="F200:F201"/>
+    <mergeCell ref="G200:G201"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="G202:G203"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="G190:G191"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="G193:G194"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="C106:C107"/>
     <mergeCell ref="E149:E150"/>
     <mergeCell ref="D149:D150"/>
     <mergeCell ref="C149:C150"/>
@@ -6223,197 +6343,77 @@
     <mergeCell ref="C136:C137"/>
     <mergeCell ref="E90:E91"/>
     <mergeCell ref="D90:D91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="G190:G191"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="E193:E194"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="G193:G194"/>
-    <mergeCell ref="G216:G217"/>
-    <mergeCell ref="E216:E217"/>
-    <mergeCell ref="D216:D217"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="B216:B217"/>
-    <mergeCell ref="G204:G205"/>
-    <mergeCell ref="G196:G198"/>
-    <mergeCell ref="F196:F198"/>
-    <mergeCell ref="E196:E198"/>
-    <mergeCell ref="D196:D198"/>
-    <mergeCell ref="C196:C198"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="G200:G201"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="G202:G203"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G164:G166"/>
+    <mergeCell ref="F164:F166"/>
+    <mergeCell ref="E164:E166"/>
+    <mergeCell ref="D164:D166"/>
+    <mergeCell ref="C164:C166"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="G170:G171"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="G172:G173"/>
+    <mergeCell ref="C184:C187"/>
+    <mergeCell ref="D184:D187"/>
+    <mergeCell ref="E184:E187"/>
+    <mergeCell ref="F184:F187"/>
+    <mergeCell ref="G184:G187"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="G174:G175"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="G179:G180"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Paper list.xlsx
+++ b/Paper list.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taehwan/Documents/OneDrive - 고려대학교/0.PhD/5.RLRC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - KoreaUniv\0.PhD\5.RLRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9147900-944C-4346-9C1F-428CA3D9C6A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="521" documentId="13_ncr:1_{C2C6DA6B-6ED7-8941-921E-4497C5B89435}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{36D37B45-1783-4357-9D2C-859A9EB0DEB2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
   </bookViews>
   <sheets>
-    <sheet name="DeepMind Papers" sheetId="1" r:id="rId1"/>
+    <sheet name="DeepMind Papers" sheetId="4" r:id="rId1"/>
     <sheet name="Others" sheetId="2" r:id="rId2"/>
     <sheet name="Statistics" sheetId="3" r:id="rId3"/>
+    <sheet name="DeepMind Papers with categories" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DeepMind Papers'!$B$3:$G$219</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DeepMind Papers'!$B$3:$F$212</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'DeepMind Papers with categories'!$B$3:$G$219</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="489">
   <si>
     <t>Title</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1125,7 +1127,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1146,7 +1148,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1273,16 +1275,411 @@
   <si>
     <t>고광원</t>
   </si>
+  <si>
+    <t>이충기</t>
+  </si>
+  <si>
+    <t>오승상</t>
+  </si>
+  <si>
+    <t>Papers of DeepMind</t>
+  </si>
+  <si>
+    <t>Normalizing Flows for Probabilistic Modeling and Inference</t>
+  </si>
+  <si>
+    <t>George Papamakarios, Eric Nalisnick, et al.</t>
+  </si>
+  <si>
+    <t>Information bottleneck through variational glasses</t>
+  </si>
+  <si>
+    <t>S Voloshynovskiy, M Kondah, et al.</t>
+  </si>
+  <si>
+    <t>MetaFun: Meta-Learning with Iterative Functional Updates</t>
+  </si>
+  <si>
+    <t>J Xu, J-F Ton, et al.</t>
+  </si>
+  <si>
+    <t>AugMix: A Simple Data Processing Method to Improve Robustness and Uncertainty</t>
+  </si>
+  <si>
+    <t>Dan Hendrycks, N Mu, et al.</t>
+  </si>
+  <si>
+    <t>Deep Ensembles: A Loss Landscape Perspective</t>
+  </si>
+  <si>
+    <t>S Fort, Huiyi Hu, et al.</t>
+  </si>
+  <si>
+    <t>Combining Q-Learning and Search with Amortized Value Estimates</t>
+  </si>
+  <si>
+    <t>Jess Hamrick, Victor Bapst, et al.</t>
+  </si>
+  <si>
+    <t>Towards Robust Image Classification Using Sequential Attention Models</t>
+  </si>
+  <si>
+    <t>Daniel Zoran, M Chrzanowski, et al.</t>
+  </si>
+  <si>
+    <t>Dream to Control: Learning Behaviors by Latent Imagination</t>
+  </si>
+  <si>
+    <t>Danijar Hafner, Timothy Lillicrap, et al.</t>
+  </si>
+  <si>
+    <t>LOGAN: Latent Optimisation for Generative Adversarial Networks</t>
+  </si>
+  <si>
+    <t>Yan Wu, Jeff Donahue, et al.</t>
+  </si>
+  <si>
+    <t>Option-critic in cooperative multi-agent systems</t>
+  </si>
+  <si>
+    <t>J Chakravorty, N Ward, et al.</t>
+  </si>
+  <si>
+    <t>Disentangled Cumulants Help Successor Representations Transfer to New Tasks</t>
+  </si>
+  <si>
+    <t>Christopher Grimm, Irina Higgins, et al.</t>
+  </si>
+  <si>
+    <t>Deep Neuroethology of a Virtual Rodent</t>
+  </si>
+  <si>
+    <t>Josh Merel, D Aldarondo, et al.</t>
+  </si>
+  <si>
+    <t>Attention Privileged Reinforcement Learning For Domain Transfer</t>
+  </si>
+  <si>
+    <t>S Salter, Dushyant Rao, et al.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning with Good Feature Representations in Bandits and in RL with a Generative Model</t>
+  </si>
+  <si>
+    <t>Tor Lattimore, Csaba Szepesvári</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improved Exploration through Latent Trajectory Optimization in Deep Deterministic Policy Gradient</t>
+  </si>
+  <si>
+    <t>K Luck, Mel Vecerik, et al.</t>
+  </si>
+  <si>
+    <t>Compressive Transformers for Long-Range Sequence Modelling</t>
+  </si>
+  <si>
+    <t>Jack Rae, Anna Potapenko, et al.</t>
+  </si>
+  <si>
+    <t>Object-oriented state editing for HRL</t>
+  </si>
+  <si>
+    <t>Victor Bapst, Alvaro Sanchez-Gonzalez, et al.</t>
+  </si>
+  <si>
+    <t>Victor Bapst, Alvaro Sanchez-Gonzalez, et al.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning Transferable Graph Exploration</t>
+  </si>
+  <si>
+    <t>H Dai, Yujia Li, et al.</t>
+  </si>
+  <si>
+    <t>Sparse Orthogonal Variational Inference for Gaussian Processes</t>
+  </si>
+  <si>
+    <t>J Shi, Michalis Titsias, et al.</t>
+  </si>
+  <si>
+    <t>Self-Supervised Sim-to-Real Adaptation for Visual Robotic Manipulation</t>
+  </si>
+  <si>
+    <t>Rae Jeong, Yusuf Aytar, et al.</t>
+  </si>
+  <si>
+    <t>Adaptive Exploration in Linear Contextual Bandit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B Hao, Tor Lattimore, et al. </t>
+  </si>
+  <si>
+    <t>Restoring ancient text using deep learning: a case study on Greek epigraphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yannis Assael, Thea Sommerschield, et al. </t>
+  </si>
+  <si>
+    <t>Reusable neural skill embeddings for vision-guided whole body movement and object manipulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josh Merel, Saran Tunyasuvunakool, et al. </t>
+  </si>
+  <si>
+    <t>Stabilizing Transformers for Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Emilio Parisotto, Francis Song, et al.</t>
+  </si>
+  <si>
+    <t>Meta-Learning Deep Energy-Based Memory Models</t>
+  </si>
+  <si>
+    <t>Sergey Bartunov, Jack Rae, et al.</t>
+  </si>
+  <si>
+    <t>Making sense of sensory input</t>
+  </si>
+  <si>
+    <t>Richard Evans, J Hernández-Orallo, et al.</t>
+  </si>
+  <si>
+    <t>CLEVRER: CoLlision Events for Video REpresentation and Reasoning</t>
+  </si>
+  <si>
+    <t>K Yi, Chuang Gan, et al.</t>
+  </si>
+  <si>
+    <t>Unsupervised Doodling and Painting with Improved SPIRAL</t>
+  </si>
+  <si>
+    <t>John Mellor, E Park, et al.</t>
+  </si>
+  <si>
+    <t>Task-Relevant Adversarial Imitation Learning</t>
+  </si>
+  <si>
+    <t>K Żolna, Scott Reed, et al.</t>
+  </si>
+  <si>
+    <t>Deep RL Workshop NeurIPS 2019</t>
+  </si>
+  <si>
+    <t>Augmenting learning using symmetry in a biologically-inspired domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S Mishra, Abbas Abdolmaleki, et al. </t>
+  </si>
+  <si>
+    <t>Emergent Systematic Generalization in a Situated Agent</t>
+  </si>
+  <si>
+    <t>Felix Hill, A K Lampinen, et al.</t>
+  </si>
+  <si>
+    <t>Gated Linear Networks</t>
+  </si>
+  <si>
+    <t>Joel Veness, Tor Lattimore, et al.</t>
+  </si>
+  <si>
+    <t>Hamiltonian Graph Networks with ODE Integrators</t>
+  </si>
+  <si>
+    <t>Alvaro Sanchez-Gonzalez, Victor Bapst, et al.</t>
+  </si>
+  <si>
+    <t>Automated Curricula Through Setter-Solver Interactions</t>
+  </si>
+  <si>
+    <t>Sébastien Racanière, A K Lampinen, et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Mabona, Laura Rimell, et al. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning Symbolic Physics with Graph Networks</t>
+  </si>
+  <si>
+    <t>M Cranmer, R Xu, et al.</t>
+  </si>
+  <si>
+    <t>Making Efficient Use of Demonstrations to Solve Hard Exploration Problems</t>
+  </si>
+  <si>
+    <t>Caglar Gülçehre, Tom Le Paine, et al.</t>
+  </si>
+  <si>
+    <t>Mogrifier LSTM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A clinically applicable approach to continuous prediction of future acute kidney injury</t>
+  </si>
+  <si>
+    <t>Nenad Tomasev, Xavier Glorot, et al.</t>
+  </si>
+  <si>
+    <t>Alistair Connell, Hugh Montgomery, et al.</t>
+  </si>
+  <si>
+    <t>Nature Medicine 2019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluation of a digitally-enabled care pathway for acute kidney injury management in hospital emergency admissions</t>
+  </si>
+  <si>
+    <t>Wasserstein Fair Classification</t>
+  </si>
+  <si>
+    <t>Ray Jiang, Aldo Pacchiano, et al.</t>
+  </si>
+  <si>
+    <t>A Short Note on the Kinetics-700 Human Action Dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joao Carreira, Eric Noland, et al. </t>
+  </si>
+  <si>
+    <t>Implementation of a Digitally Enabled Care Pathway (Part 1): Impact on Clinical Outcomes and Associated Health Care Costs</t>
+  </si>
+  <si>
+    <t>Alistair Connell, R Raine, et al.</t>
+  </si>
+  <si>
+    <t>JMIR 2019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Causal Bayesian Networks Viewpoint on Fairness</t>
+  </si>
+  <si>
+    <t>Silvia Chiappa, William Isaac</t>
+  </si>
+  <si>
+    <t>Cross-View Policy Learning for Street Navigation</t>
+  </si>
+  <si>
+    <t>Ang Li, Huiyi Hu, et al.</t>
+  </si>
+  <si>
+    <t>ICCV 2019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detecting Out-of-Distribution Inputs to Deep Generative Models Using a Test for Typicality</t>
+  </si>
+  <si>
+    <t>Hamiltonian descent for composite objectives</t>
+  </si>
+  <si>
+    <t>Brendan O'Donoghue, Christopher Maddison</t>
+  </si>
+  <si>
+    <t>Options as responses: Grounding behavioural hierarchies in multi-agent RL</t>
+  </si>
+  <si>
+    <t>Alexander Vezhnevets, Yuhai Wu, et al.</t>
+  </si>
+  <si>
+    <t>Learning Dynamic Polynomial Proofs</t>
+  </si>
+  <si>
+    <t>Alhussein Fawzi, Mateusz Malinowski, et al.</t>
+  </si>
+  <si>
+    <t>Episodic Memory in Lifelong Language Learning</t>
+  </si>
+  <si>
+    <t>Cyprien de Masson d'Autume, Sebastian Ruder, et al.</t>
+  </si>
+  <si>
+    <t>Neural Replicator Dynamics</t>
+  </si>
+  <si>
+    <t>Shayegan Omidshafiei, Daniel Hennes, et al.</t>
+  </si>
+  <si>
+    <t>Object Discovery with a Copy-Pasting GAN</t>
+  </si>
+  <si>
+    <t>Relja Arandjelović, Andrew Zisserman</t>
+  </si>
+  <si>
+    <t>An Explicitly Relational Neural Network Architecture</t>
+  </si>
+  <si>
+    <t>Murray Shanahan, Kyriacos Nikiforou, et al.</t>
+  </si>
+  <si>
+    <t>Action Assembly: Sparse Imitation Learning for Text Based Games with Combinatorial Action Spaces</t>
+  </si>
+  <si>
+    <t>C Tessler, T Zahavy, et al.</t>
+  </si>
+  <si>
+    <t>Structured agents for physical construction</t>
+  </si>
+  <si>
+    <t>Learning Gentle Object Manipulation with Curiosity-Driven Deep Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Sandy Huang, Martina Zambelli, et al.</t>
+  </si>
+  <si>
+    <t>The StreetLearn Environment and Dataset</t>
+  </si>
+  <si>
+    <t>Piotr Mirowski, Andras Gyorgy, et al.</t>
+  </si>
+  <si>
+    <t>A Generalized Framework for Population Based Training</t>
+  </si>
+  <si>
+    <t>Ang Li, Ola Spyra, et al.</t>
+  </si>
+  <si>
+    <t>TF-Replicator: Distributed Machine Learning for Researchers</t>
+  </si>
+  <si>
+    <t>Peter Buchlovsky, David Budden, et al.</t>
+  </si>
+  <si>
+    <t>Learning and Evaluating General Linguistic Intelligence</t>
+  </si>
+  <si>
+    <t>Dani Yogatama, Cyprien de Masson d'Autume, et al.</t>
+  </si>
+  <si>
+    <t>Spatial Broadcast Decoder: A Simple Architecture for Learning Disentangled Representations in VAEs</t>
+  </si>
+  <si>
+    <t>Iterative Budgeted Exponential Search</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>General non-linear Bellman equations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오승상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1290,14 +1687,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1306,7 +1703,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1314,7 +1711,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1323,7 +1720,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1331,21 +1728,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1361,7 +1758,7 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1370,7 +1767,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1401,7 +1798,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1540,6 +1937,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1552,7 +1979,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1664,6 +2091,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1694,11 +2139,65 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - 강조색5" xfId="1" builtinId="46"/>
+    <cellStyle name="좋음" xfId="2" builtinId="26"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1716,7 +2215,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1783,7 +2282,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ko-KR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1921,7 +2420,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="456730000"/>
@@ -1980,7 +2479,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="445140144"/>
@@ -2028,7 +2527,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ko-KR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2624,7 +3123,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2919,37 +3418,3083 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07006F96-BC39-4686-922A-D19435B5E7B3}">
+  <dimension ref="B1:F211"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="0.625" customWidth="1"/>
+    <col min="2" max="2" width="94.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
+    </row>
+    <row r="3" spans="2:6" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B3" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="58"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="58"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="63" t="s">
+        <v>368</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="58">
+        <v>43826</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="58"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="58"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="63" t="s">
+        <v>374</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="F9" s="58">
+        <v>43826</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="58"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="58"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="58"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="58"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="63" t="s">
+        <v>384</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="F14" s="58">
+        <v>43819</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>387</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="58"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="58"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" s="60">
+        <v>43798</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="61"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="F18" s="62"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="58"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="58"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="58"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="63" t="s">
+        <v>350</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="F22" s="58">
+        <v>43819</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="63" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="F23" s="58">
+        <v>43791</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="58"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="64" t="s">
+        <v>359</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="36"/>
+      <c r="F25" s="58"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="E26" s="36"/>
+      <c r="F26" s="58"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="E27" s="36"/>
+      <c r="F27" s="58"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="63" t="s">
+        <v>320</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="F28" s="58">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="64" t="s">
+        <v>354</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="E29" s="36"/>
+      <c r="F29" s="58"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="E30" s="36"/>
+      <c r="F30" s="58"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="36"/>
+      <c r="F31" s="58"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="36"/>
+      <c r="F32" s="58"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="36"/>
+      <c r="F33" s="58"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="36"/>
+      <c r="F34" s="58"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="E35" s="36"/>
+      <c r="F35" s="58"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="F36" s="58">
+        <v>43791</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="36"/>
+      <c r="F37" s="58"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="36"/>
+      <c r="F38" s="58"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="36"/>
+      <c r="F39" s="58"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40" s="36"/>
+      <c r="F40" s="58"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="36"/>
+      <c r="F41" s="58"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="36"/>
+      <c r="F42" s="58"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="36"/>
+      <c r="F43" s="58"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="36"/>
+      <c r="F44" s="58"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="36"/>
+      <c r="F45" s="58"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="36"/>
+      <c r="F46" s="58"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" s="36"/>
+      <c r="F47" s="58"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="36"/>
+      <c r="F48" s="58"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="36"/>
+      <c r="F49" s="58"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="E50" s="36"/>
+      <c r="F50" s="58"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="36"/>
+      <c r="F51" s="58"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="F52" s="58">
+        <v>43791</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="36"/>
+      <c r="F53" s="58"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="36"/>
+      <c r="F54" s="58"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" s="36"/>
+      <c r="F55" s="58"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="36"/>
+      <c r="F56" s="58"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="E57" s="36"/>
+      <c r="F57" s="58"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="36"/>
+      <c r="F58" s="58"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="D59" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="36"/>
+      <c r="F59" s="58"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" s="36"/>
+      <c r="F60" s="58"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="D61" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="F61" s="58">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="D62" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" s="36"/>
+      <c r="F62" s="58"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E63" s="36"/>
+      <c r="F63" s="58"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E64" s="36"/>
+      <c r="F64" s="58"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="D65" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E65" s="36"/>
+      <c r="F65" s="58"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="D66" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E66" s="36"/>
+      <c r="F66" s="58"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E67" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="F67" s="58">
+        <v>43791</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="D68" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="36"/>
+      <c r="F68" s="58"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C69" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="D69" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="E69" s="36"/>
+      <c r="F69" s="58"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="D70" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="36"/>
+      <c r="F70" s="58"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="D71" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="E71" s="36"/>
+      <c r="F71" s="58"/>
+    </row>
+    <row r="72" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="65" t="s">
+        <v>262</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="F72" s="66"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="D73" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E73" s="36"/>
+      <c r="F73" s="58"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="D74" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="E74" s="36"/>
+      <c r="F74" s="58"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="D75" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E75" s="36"/>
+      <c r="F75" s="58"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C76" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="D76" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="E76" s="36"/>
+      <c r="F76" s="58"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77" s="65" t="s">
+        <v>259</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="13"/>
+      <c r="F77" s="66"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C78" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="36"/>
+      <c r="F78" s="58"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D79" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="F79" s="58">
+        <v>43819</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="C80" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="D80" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E80" s="36"/>
+      <c r="F80" s="58"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="D81" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E81" s="36"/>
+      <c r="F81" s="58"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B82" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="C82" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="D82" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="E82" s="36"/>
+      <c r="F82" s="58"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B83" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="C83" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="D83" s="36" t="s">
+        <v>443</v>
+      </c>
+      <c r="E83" s="36"/>
+      <c r="F83" s="58"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84" s="65" t="s">
+        <v>486</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="13"/>
+      <c r="F84" s="66"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B85" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="C85" s="36" t="s">
+        <v>446</v>
+      </c>
+      <c r="D85" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E85" s="36"/>
+      <c r="F85" s="58"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B86" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C86" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="36"/>
+      <c r="F86" s="67"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B87" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D87" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="36"/>
+      <c r="F87" s="58"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B88" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="C88" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="D88" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E88" s="36"/>
+      <c r="F88" s="58"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B89" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="C89" s="36" t="s">
+        <v>450</v>
+      </c>
+      <c r="D89" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="E89" s="36"/>
+      <c r="F89" s="58"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B90" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="F90" s="58">
+        <v>43763</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B91" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="C91" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="D91" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E91" s="36"/>
+      <c r="F91" s="58"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B92" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="36"/>
+      <c r="F92" s="58"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B93" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C93" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D93" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="E93" s="36"/>
+      <c r="F93" s="58"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B94" s="68" t="s">
+        <v>487</v>
+      </c>
+      <c r="C94" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D94" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="E94" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="F94" s="66">
+        <v>43763</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B95" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E95" s="36"/>
+      <c r="F95" s="58"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B96" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C96" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D96" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E96" s="36"/>
+      <c r="F96" s="58"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B97" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="36"/>
+      <c r="F97" s="58"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B98" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="36"/>
+      <c r="F98" s="58"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B99" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="36"/>
+      <c r="F99" s="58"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B100" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D100" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="36"/>
+      <c r="F100" s="58"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B101" s="63" t="s">
+        <v>252</v>
+      </c>
+      <c r="C101" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D101" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="F101" s="58">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B102" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C102" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D102" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E102" s="36"/>
+      <c r="F102" s="58"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B103" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C103" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="D103" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="E103" s="36"/>
+      <c r="F103" s="58"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B104" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D104" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="36"/>
+      <c r="F104" s="58"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B105" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="C105" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="D105" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="F105" s="58">
+        <v>43735</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B106" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C106" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D106" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="E106" s="36"/>
+      <c r="F106" s="58"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B107" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="36"/>
+      <c r="F107" s="58"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B108" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C108" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D108" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="F108" s="58">
+        <v>43791</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B109" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C109" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D109" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="36"/>
+      <c r="F109" s="58"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B110" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="F110" s="58">
+        <v>43826</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B111" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C111" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="D111" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="E111" s="36"/>
+      <c r="F111" s="58"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B112" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C112" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D112" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="36"/>
+      <c r="F112" s="58"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B113" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="C113" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="D113" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="E113" s="36"/>
+      <c r="F113" s="58"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B114" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="F114" s="58">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B115" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="C115" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D115" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="F115" s="58">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B116" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" s="36"/>
+      <c r="F116" s="58"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B117" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C117" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="D117" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="36"/>
+      <c r="F117" s="58"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B118" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="C118" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D118" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E118" s="36"/>
+      <c r="F118" s="58"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B119" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C119" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="36"/>
+      <c r="F119" s="58"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B120" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="36"/>
+      <c r="F120" s="58"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B121" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C121" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D121" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="36"/>
+      <c r="F121" s="58"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B122" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C122" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D122" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="F122" s="58">
+        <v>43798</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B123" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="C123" s="36" t="s">
+        <v>459</v>
+      </c>
+      <c r="D123" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E123" s="36"/>
+      <c r="F123" s="58"/>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B124" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="C124" s="36" t="s">
+        <v>461</v>
+      </c>
+      <c r="D124" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E124" s="36"/>
+      <c r="F124" s="58"/>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B125" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="C125" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="D125" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E125" s="36"/>
+      <c r="F125" s="58"/>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B126" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="C126" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="D126" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E126" s="36"/>
+      <c r="F126" s="58"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B127" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C127" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D127" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="36"/>
+      <c r="F127" s="58"/>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B128" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="C128" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="D128" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E128" s="36"/>
+      <c r="F128" s="58"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B129" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C129" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D129" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="36"/>
+      <c r="F129" s="58"/>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B130" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C130" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D130" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="36"/>
+      <c r="F130" s="58"/>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B131" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C131" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D131" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="38"/>
+      <c r="F131" s="58"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B132" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C132" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D132" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="36"/>
+      <c r="F132" s="58"/>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B133" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D133" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="36"/>
+      <c r="F133" s="58"/>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B134" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C134" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D134" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="36"/>
+      <c r="F134" s="58"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B135" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C135" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="D135" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="36"/>
+      <c r="F135" s="58"/>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B136" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C136" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D136" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="36"/>
+      <c r="F136" s="58"/>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B137" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C137" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D137" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="36"/>
+      <c r="F137" s="58"/>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B138" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="C138" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="D138" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E138" s="36"/>
+      <c r="F138" s="58"/>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B139" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C139" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D139" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="36"/>
+      <c r="F139" s="58"/>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B140" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="C140" s="36" t="s">
+        <v>471</v>
+      </c>
+      <c r="D140" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E140" s="36"/>
+      <c r="F140" s="58"/>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B141" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C141" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D141" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="36"/>
+      <c r="F141" s="58"/>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B142" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="C142" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="D142" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E142" s="36"/>
+      <c r="F142" s="58"/>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B143" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C143" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D143" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E143" s="36"/>
+      <c r="F143" s="58"/>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B144" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="C144" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="D144" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E144" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="F144" s="58">
+        <v>43735</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B145" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C145" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D145" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="E145" s="36"/>
+      <c r="F145" s="58"/>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B146" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C146" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D146" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E146" s="36"/>
+      <c r="F146" s="58"/>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B147" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C147" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D147" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E147" s="36"/>
+      <c r="F147" s="58"/>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B148" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="C148" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="D148" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E148" s="36"/>
+      <c r="F148" s="58"/>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B149" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C149" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D149" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E149" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="F149" s="58">
+        <v>43819</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B150" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C150" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D150" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E150" s="36"/>
+      <c r="F150" s="58"/>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B151" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C151" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D151" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" s="36"/>
+      <c r="F151" s="58"/>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B152" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C152" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="D152" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152" s="36"/>
+      <c r="F152" s="58"/>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B153" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C153" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D153" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E153" s="36"/>
+      <c r="F153" s="58"/>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B154" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C154" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D154" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" s="36"/>
+      <c r="F154" s="58"/>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B155" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C155" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D155" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E155" s="36"/>
+      <c r="F155" s="58"/>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B156" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C156" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D156" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" s="36"/>
+      <c r="F156" s="58"/>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B157" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C157" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D157" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" s="36"/>
+      <c r="F157" s="58"/>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B158" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C158" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D158" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="F158" s="58">
+        <v>43798</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B159" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C159" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D159" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="36"/>
+      <c r="F159" s="58"/>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B160" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="C160" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D160" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E160" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="F160" s="58">
+        <v>43735</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B161" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C161" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D161" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" s="36"/>
+      <c r="F161" s="58"/>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B162" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C162" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D162" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E162" s="36"/>
+      <c r="F162" s="58"/>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B163" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C163" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="D163" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="36"/>
+      <c r="F163" s="58"/>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B164" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C164" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D164" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" s="36"/>
+      <c r="F164" s="58"/>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B165" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C165" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D165" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E165" s="36"/>
+      <c r="F165" s="58"/>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B166" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C166" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D166" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E166" s="36"/>
+      <c r="F166" s="58"/>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B167" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C167" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D167" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" s="36"/>
+      <c r="F167" s="58"/>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B168" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C168" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D168" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E168" s="36"/>
+      <c r="F168" s="58"/>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B169" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C169" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D169" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169" s="36"/>
+      <c r="F169" s="58"/>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B170" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C170" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="D170" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E170" s="36"/>
+      <c r="F170" s="58"/>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B171" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="C171" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="D171" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E171" s="36"/>
+      <c r="F171" s="58"/>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B172" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C172" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D172" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" s="36"/>
+      <c r="F172" s="58"/>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B173" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C173" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D173" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" s="36"/>
+      <c r="F173" s="58"/>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B174" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C174" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D174" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="E174" s="36"/>
+      <c r="F174" s="58"/>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B175" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C175" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D175" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175" s="36"/>
+      <c r="F175" s="58"/>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B176" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C176" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D176" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E176" s="36"/>
+      <c r="F176" s="58"/>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B177" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="C177" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="D177" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E177" s="36"/>
+      <c r="F177" s="58"/>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B178" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="C178" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="D178" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E178" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="F178" s="58">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B179" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C179" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D179" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179" s="36"/>
+      <c r="F179" s="58"/>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B180" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C180" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D180" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" s="36"/>
+      <c r="F180" s="58"/>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B181" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C181" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D181" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181" s="36"/>
+      <c r="F181" s="58"/>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B182" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C182" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D182" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" s="36"/>
+      <c r="F182" s="58"/>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B183" s="63" t="s">
+        <v>348</v>
+      </c>
+      <c r="C183" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D183" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="F183" s="58">
+        <v>43791</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B184" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C184" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D184" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" s="36"/>
+      <c r="F184" s="58"/>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B185" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C185" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D185" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185" s="36"/>
+      <c r="F185" s="58"/>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B186" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C186" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D186" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E186" s="36"/>
+      <c r="F186" s="58"/>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B187" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C187" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D187" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E187" s="36"/>
+      <c r="F187" s="58"/>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B188" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C188" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D188" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E188" s="36"/>
+      <c r="F188" s="58"/>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B189" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C189" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D189" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E189" s="36"/>
+      <c r="F189" s="58"/>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B190" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="C190" s="36" t="s">
+        <v>480</v>
+      </c>
+      <c r="D190" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E190" s="36"/>
+      <c r="F190" s="58"/>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B191" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C191" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D191" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191" s="36"/>
+      <c r="F191" s="58"/>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B192" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C192" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="D192" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E192" s="36"/>
+      <c r="F192" s="58"/>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B193" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C193" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="D193" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E193" s="36"/>
+      <c r="F193" s="58"/>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B194" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="C194" s="36" t="s">
+        <v>482</v>
+      </c>
+      <c r="D194" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E194" s="36"/>
+      <c r="F194" s="58"/>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B195" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C195" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D195" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E195" s="36"/>
+      <c r="F195" s="58"/>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B196" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="C196" s="36" t="s">
+        <v>484</v>
+      </c>
+      <c r="D196" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E196" s="36"/>
+      <c r="F196" s="58"/>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B197" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C197" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D197" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E197" s="36"/>
+      <c r="F197" s="58"/>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B198" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C198" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D198" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E198" s="36"/>
+      <c r="F198" s="58"/>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B199" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C199" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D199" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E199" s="36"/>
+      <c r="F199" s="58"/>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B200" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C200" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D200" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E200" s="36"/>
+      <c r="F200" s="58"/>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B201" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C201" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D201" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E201" s="36"/>
+      <c r="F201" s="58"/>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B202" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C202" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D202" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E202" s="36"/>
+      <c r="F202" s="58"/>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B203" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C203" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D203" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E203" s="36"/>
+      <c r="F203" s="58"/>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B204" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C204" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D204" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E204" s="36"/>
+      <c r="F204" s="58"/>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B205" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="C205" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D205" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E205" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="F205" s="58">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B206" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="C206" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="D206" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E206" s="36"/>
+      <c r="F206" s="58"/>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B207" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C207" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="D207" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E207" s="36"/>
+      <c r="F207" s="58"/>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B208" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C208" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="D208" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E208" s="36"/>
+      <c r="F208" s="58"/>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B209" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C209" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D209" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E209" s="36"/>
+      <c r="F209" s="58"/>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B210" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C210" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D210" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E210" s="36"/>
+      <c r="F210" s="58"/>
+    </row>
+    <row r="211" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B211" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C211" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="D211" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211" s="69"/>
+      <c r="F211" s="70"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B3:F212" xr:uid="{C1EE0C99-C2F8-4E13-983A-B3DCF9299796}"/>
+  <mergeCells count="5">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6C1E58-1F9C-4CD0-8E0F-01EEA3C6893B}">
+  <dimension ref="B1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="0.875" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="90.625" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" s="10">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" s="10">
+        <v>43728</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4BC76C-1F47-4CA9-80AD-987DBFB118FB}">
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="19">
+        <f>COUNTIF('DeepMind Papers with categories'!$B$4:$B$1048576, "Deep Learning")</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="21">
+        <f>COUNTIF('DeepMind Papers with categories'!$B$4:$B$1048576, "Control &amp; Robotics")</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" s="21">
+        <f>COUNTIF('DeepMind Papers with categories'!$B$4:$B$1048576, "Neuroscience")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="21">
+        <f>COUNTIF('DeepMind Papers with categories'!$B$4:$B$1048576, "Safety")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="21">
+        <f>COUNTIF('DeepMind Papers with categories'!$B$4:$B$1048576, "Theory &amp; Foundations")</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="21">
+        <f>COUNTIF('DeepMind Papers with categories'!$B$4:$B$1048576, "Unsupervised Learning 
+&amp; Generative Models")</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="C9" s="24">
+        <f>COUNTA('DeepMind Papers with categories'!C4:C1048576)</f>
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D0C1FB-3C2C-47C3-B0C0-A85F23F3B3BD}">
   <dimension ref="B1:G219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F207" sqref="F207"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="94.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.625" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="50.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="5.25" customHeight="1"/>
-    <row r="2" spans="2:7" ht="31">
-      <c r="B2" s="43" t="s">
+    <row r="1" spans="2:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="49" t="s">
         <v>347</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-    </row>
-    <row r="3" spans="2:7" s="3" customFormat="1" ht="19">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+    </row>
+    <row r="3" spans="2:7" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2969,7 +6514,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -2985,63 +6530,63 @@
       <c r="F4" s="27"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="2:7" ht="32">
+    <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="44"/>
-    </row>
-    <row r="6" spans="2:7" ht="16">
+      <c r="E5" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="50"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="44"/>
-    </row>
-    <row r="7" spans="2:7" ht="16">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="50"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="E7" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="43">
         <v>43763</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="16">
+    <row r="8" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="C8" s="37"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
@@ -3057,33 +6602,33 @@
       <c r="F9" s="27"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
-    </row>
-    <row r="11" spans="2:7" ht="16">
+      <c r="E10" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
@@ -3099,59 +6644,59 @@
       <c r="F12" s="27"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="2:7" ht="32">
+    <row r="13" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
-    </row>
-    <row r="14" spans="2:7" ht="16">
+      <c r="E13" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
-    </row>
-    <row r="15" spans="2:7" ht="32">
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
+    </row>
+    <row r="15" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="2:7" ht="16">
+      <c r="E15" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
@@ -3167,7 +6712,7 @@
       <c r="F17" s="27"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
@@ -3187,7 +6732,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
@@ -3203,33 +6748,33 @@
       <c r="F19" s="27"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
-    </row>
-    <row r="21" spans="2:7" ht="16">
+      <c r="E20" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
         <v>2</v>
       </c>
@@ -3245,85 +6790,85 @@
       <c r="F22" s="27"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
-    </row>
-    <row r="24" spans="2:7" ht="16">
+      <c r="E23" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
-    </row>
-    <row r="25" spans="2:7" ht="16">
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37"/>
-    </row>
-    <row r="26" spans="2:7" ht="32">
+      <c r="E25" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
+    </row>
+    <row r="26" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37"/>
-    </row>
-    <row r="27" spans="2:7" ht="16">
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="37"/>
-    </row>
-    <row r="28" spans="2:7" ht="16">
+      <c r="E27" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="48"/>
+      <c r="G27" s="43"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="37"/>
-    </row>
-    <row r="29" spans="2:7">
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="43"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>2</v>
       </c>
@@ -3339,59 +6884,59 @@
       <c r="F29" s="27"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="37"/>
-    </row>
-    <row r="31" spans="2:7" ht="16">
+      <c r="E30" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
+    </row>
+    <row r="31" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="37"/>
-    </row>
-    <row r="32" spans="2:7" ht="32">
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="43"/>
+    </row>
+    <row r="32" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37"/>
-    </row>
-    <row r="33" spans="2:7" ht="16">
+      <c r="E32" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="42"/>
+      <c r="G32" s="43"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="37"/>
-    </row>
-    <row r="34" spans="2:7">
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
         <v>2</v>
       </c>
@@ -3407,59 +6952,59 @@
       <c r="F34" s="27"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="2:7" ht="32">
+    <row r="35" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="37"/>
-    </row>
-    <row r="36" spans="2:7" ht="16">
+      <c r="E35" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="42"/>
+      <c r="G35" s="43"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="37"/>
-    </row>
-    <row r="37" spans="2:7" ht="16">
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="43"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="36"/>
-      <c r="G37" s="37"/>
-    </row>
-    <row r="38" spans="2:7" ht="32">
+      <c r="E37" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="42"/>
+      <c r="G37" s="43"/>
+    </row>
+    <row r="38" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="37"/>
-    </row>
-    <row r="39" spans="2:7">
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="43"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
         <v>2</v>
       </c>
@@ -3475,37 +7020,37 @@
       <c r="F39" s="27"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="36"/>
-      <c r="G40" s="37"/>
-    </row>
-    <row r="41" spans="2:7" ht="32">
+      <c r="F40" s="42"/>
+      <c r="G40" s="43"/>
+    </row>
+    <row r="41" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="37"/>
-    </row>
-    <row r="42" spans="2:7">
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="43"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="35" t="s">
         <v>51</v>
       </c>
       <c r="D42" s="14" t="s">
@@ -3514,10 +7059,14 @@
       <c r="E42" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="27"/>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" spans="2:7">
+      <c r="F42" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="G42" s="11">
+        <v>43819</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
         <v>2</v>
       </c>
@@ -3533,33 +7082,33 @@
       <c r="F43" s="27"/>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="36"/>
-      <c r="G44" s="37"/>
-    </row>
-    <row r="45" spans="2:7" ht="16">
+      <c r="E44" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="42"/>
+      <c r="G44" s="43"/>
+    </row>
+    <row r="45" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="37"/>
-    </row>
-    <row r="46" spans="2:7">
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="43"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="6" t="s">
         <v>2</v>
       </c>
@@ -3575,7 +7124,7 @@
       <c r="F46" s="27"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="6" t="s">
         <v>2</v>
       </c>
@@ -3595,33 +7144,33 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="D48" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="36"/>
-      <c r="G48" s="37"/>
-    </row>
-    <row r="49" spans="2:7" ht="16">
+      <c r="E48" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="42"/>
+      <c r="G48" s="43"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="37"/>
-    </row>
-    <row r="50" spans="2:7">
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="43"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="6" t="s">
         <v>2</v>
       </c>
@@ -3637,7 +7186,7 @@
       <c r="F50" s="27"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="6" t="s">
         <v>2</v>
       </c>
@@ -3653,7 +7202,7 @@
       <c r="F51" s="27"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="2:7" ht="16">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>244</v>
       </c>
@@ -3665,7 +7214,7 @@
       <c r="F52" s="27"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="6" t="s">
         <v>245</v>
       </c>
@@ -3677,7 +7226,7 @@
       <c r="F53" s="27"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="6" t="s">
         <v>2</v>
       </c>
@@ -3693,173 +7242,173 @@
       <c r="F54" s="27"/>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="36" t="s">
+      <c r="C55" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="36" t="s">
+      <c r="D55" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="36"/>
-      <c r="G55" s="37"/>
-    </row>
-    <row r="56" spans="2:7" ht="16">
+      <c r="E55" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="42"/>
+      <c r="G55" s="43"/>
+    </row>
+    <row r="56" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="37"/>
-    </row>
-    <row r="57" spans="2:7" ht="16">
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="43"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="36" t="s">
+      <c r="D57" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="36"/>
-      <c r="G57" s="37"/>
-    </row>
-    <row r="58" spans="2:7" ht="16">
+      <c r="E57" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="42"/>
+      <c r="G57" s="43"/>
+    </row>
+    <row r="58" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="37"/>
-    </row>
-    <row r="59" spans="2:7" ht="16">
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="43"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C59" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="36" t="s">
+      <c r="D59" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E59" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="36"/>
-      <c r="G59" s="37"/>
-    </row>
-    <row r="60" spans="2:7" ht="32">
+      <c r="E59" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="42"/>
+      <c r="G59" s="43"/>
+    </row>
+    <row r="60" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="37"/>
-    </row>
-    <row r="61" spans="2:7" ht="16">
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="43"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="36" t="s">
+      <c r="D61" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="36"/>
-      <c r="G61" s="37"/>
-    </row>
-    <row r="62" spans="2:7" ht="32">
+      <c r="E61" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="42"/>
+      <c r="G61" s="43"/>
+    </row>
+    <row r="62" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="37"/>
-    </row>
-    <row r="63" spans="2:7" ht="16">
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="43"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="37"/>
-    </row>
-    <row r="64" spans="2:7" ht="16">
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="43"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="36" t="s">
+      <c r="C64" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="36" t="s">
+      <c r="D64" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="E64" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="36"/>
-      <c r="G64" s="37"/>
-    </row>
-    <row r="65" spans="2:7" ht="32">
+      <c r="E64" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="42"/>
+      <c r="G64" s="43"/>
+    </row>
+    <row r="65" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="37"/>
-    </row>
-    <row r="66" spans="2:7" ht="16">
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="43"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="D66" s="36" t="s">
+      <c r="D66" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="E66" s="36" t="s">
+      <c r="E66" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="F66" s="36"/>
-      <c r="G66" s="37"/>
-    </row>
-    <row r="67" spans="2:7" ht="16">
+      <c r="F66" s="42"/>
+      <c r="G66" s="43"/>
+    </row>
+    <row r="67" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="37"/>
-    </row>
-    <row r="68" spans="2:7">
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="43"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
         <v>2</v>
       </c>
@@ -3875,7 +7424,7 @@
       <c r="F68" s="27"/>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="6" t="s">
         <v>2</v>
       </c>
@@ -3891,7 +7440,7 @@
       <c r="F69" s="27"/>
       <c r="G69" s="11"/>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="6" t="s">
         <v>2</v>
       </c>
@@ -3907,163 +7456,163 @@
       <c r="F70" s="27"/>
       <c r="G70" s="11"/>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="D71" s="36" t="s">
+      <c r="D71" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="36"/>
-      <c r="G71" s="37"/>
-    </row>
-    <row r="72" spans="2:7" ht="32">
+      <c r="E71" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="42"/>
+      <c r="G71" s="43"/>
+    </row>
+    <row r="72" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="37"/>
-    </row>
-    <row r="73" spans="2:7" ht="16">
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="43"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="D73" s="36" t="s">
+      <c r="D73" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="E73" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="36"/>
-      <c r="G73" s="37"/>
-    </row>
-    <row r="74" spans="2:7" ht="16">
+      <c r="E73" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="42"/>
+      <c r="G73" s="43"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="37"/>
-    </row>
-    <row r="75" spans="2:7" ht="16">
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="43"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D75" s="36" t="s">
+      <c r="D75" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="E75" s="36" t="s">
+      <c r="E75" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="F75" s="42"/>
-      <c r="G75" s="37"/>
-    </row>
-    <row r="76" spans="2:7" ht="16">
+      <c r="F75" s="48"/>
+      <c r="G75" s="43"/>
+    </row>
+    <row r="76" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="37"/>
-    </row>
-    <row r="77" spans="2:7" ht="16">
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="43"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="36" t="s">
+      <c r="D77" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="E77" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="36"/>
-      <c r="G77" s="37"/>
-    </row>
-    <row r="78" spans="2:7" ht="16">
+      <c r="E77" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="42"/>
+      <c r="G77" s="43"/>
+    </row>
+    <row r="78" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="37"/>
-    </row>
-    <row r="79" spans="2:7" ht="16">
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="43"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="D79" s="36" t="s">
+      <c r="D79" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="E79" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="36"/>
-      <c r="G79" s="37"/>
-    </row>
-    <row r="80" spans="2:7" ht="16">
+      <c r="E79" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="42"/>
+      <c r="G79" s="43"/>
+    </row>
+    <row r="80" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B80" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="37"/>
-    </row>
-    <row r="81" spans="2:7" ht="16">
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="43"/>
+    </row>
+    <row r="81" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="36" t="s">
+      <c r="C81" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="36" t="s">
+      <c r="D81" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="E81" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="36"/>
-      <c r="G81" s="37"/>
-    </row>
-    <row r="82" spans="2:7" ht="16">
+      <c r="E81" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="42"/>
+      <c r="G81" s="43"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="37"/>
-    </row>
-    <row r="83" spans="2:7">
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="43"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="6" t="s">
         <v>241</v>
       </c>
@@ -4079,33 +7628,33 @@
       <c r="F83" s="27"/>
       <c r="G83" s="11"/>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="D84" s="36" t="s">
+      <c r="D84" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="E84" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="36"/>
-      <c r="G84" s="37"/>
-    </row>
-    <row r="85" spans="2:7" ht="16">
+      <c r="E84" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="42"/>
+      <c r="G84" s="43"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="37"/>
-    </row>
-    <row r="86" spans="2:7">
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="43"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="6" t="s">
         <v>241</v>
       </c>
@@ -4125,37 +7674,37 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C87" s="36" t="s">
+      <c r="C87" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="D87" s="36" t="s">
+      <c r="D87" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E87" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="36"/>
-      <c r="G87" s="37"/>
-    </row>
-    <row r="88" spans="2:7" ht="16">
+      <c r="E87" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="42"/>
+      <c r="G87" s="43"/>
+    </row>
+    <row r="88" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C88" s="36"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="37"/>
-    </row>
-    <row r="89" spans="2:7">
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="43"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="35" t="s">
         <v>111</v>
       </c>
       <c r="D89" s="14" t="s">
@@ -4164,36 +7713,40 @@
       <c r="E89" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F89" s="27"/>
-      <c r="G89" s="11"/>
-    </row>
-    <row r="90" spans="2:7" ht="16">
+      <c r="F89" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="G89" s="11">
+        <v>43819</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C90" s="36" t="s">
+      <c r="C90" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="D90" s="36" t="s">
+      <c r="D90" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="E90" s="36" t="s">
+      <c r="E90" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="F90" s="36"/>
-      <c r="G90" s="37"/>
-    </row>
-    <row r="91" spans="2:7" ht="16">
+      <c r="F90" s="42"/>
+      <c r="G90" s="43"/>
+    </row>
+    <row r="91" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="37"/>
-    </row>
-    <row r="92" spans="2:7">
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="43"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="6" t="s">
         <v>240</v>
       </c>
@@ -4209,7 +7762,7 @@
       <c r="F92" s="27"/>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="6" t="s">
         <v>240</v>
       </c>
@@ -4225,7 +7778,7 @@
       <c r="F93" s="27"/>
       <c r="G93" s="11"/>
     </row>
-    <row r="94" spans="2:7">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="6" t="s">
         <v>240</v>
       </c>
@@ -4245,7 +7798,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="6" t="s">
         <v>240</v>
       </c>
@@ -4261,33 +7814,33 @@
       <c r="F95" s="27"/>
       <c r="G95" s="11"/>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C96" s="36" t="s">
+      <c r="C96" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="D96" s="36" t="s">
+      <c r="D96" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="E96" s="36" t="s">
+      <c r="E96" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="F96" s="36"/>
-      <c r="G96" s="37"/>
-    </row>
-    <row r="97" spans="2:7" ht="16">
+      <c r="F96" s="42"/>
+      <c r="G96" s="43"/>
+    </row>
+    <row r="97" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C97" s="36"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="37"/>
-    </row>
-    <row r="98" spans="2:7">
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="43"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="6" t="s">
         <v>240</v>
       </c>
@@ -4307,7 +7860,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="99" spans="2:7">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="6" t="s">
         <v>240</v>
       </c>
@@ -4323,37 +7876,37 @@
       <c r="F99" s="27"/>
       <c r="G99" s="11"/>
     </row>
-    <row r="100" spans="2:7">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C100" s="35" t="s">
+      <c r="C100" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="D100" s="36" t="s">
+      <c r="D100" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="36" t="s">
+      <c r="E100" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="G100" s="45">
+      <c r="G100" s="51">
         <v>43728</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="16">
+    <row r="101" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C101" s="35"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="46"/>
-    </row>
-    <row r="102" spans="2:7">
+      <c r="C101" s="41"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
+      <c r="G101" s="52"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="6" t="s">
         <v>240</v>
       </c>
@@ -4373,7 +7926,7 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="103" spans="2:7">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="6" t="s">
         <v>240</v>
       </c>
@@ -4389,7 +7942,7 @@
       <c r="F103" s="27"/>
       <c r="G103" s="11"/>
     </row>
-    <row r="104" spans="2:7">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" s="6" t="s">
         <v>240</v>
       </c>
@@ -4405,7 +7958,7 @@
       <c r="F104" s="27"/>
       <c r="G104" s="11"/>
     </row>
-    <row r="105" spans="2:7">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" s="6" t="s">
         <v>240</v>
       </c>
@@ -4421,33 +7974,33 @@
       <c r="F105" s="27"/>
       <c r="G105" s="11"/>
     </row>
-    <row r="106" spans="2:7">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C106" s="36" t="s">
+      <c r="C106" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="D106" s="36" t="s">
+      <c r="D106" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="E106" s="36" t="s">
+      <c r="E106" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="F106" s="36"/>
-      <c r="G106" s="37"/>
-    </row>
-    <row r="107" spans="2:7" ht="32">
+      <c r="F106" s="42"/>
+      <c r="G106" s="43"/>
+    </row>
+    <row r="107" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C107" s="36"/>
-      <c r="D107" s="36"/>
-      <c r="E107" s="36"/>
-      <c r="F107" s="36"/>
-      <c r="G107" s="37"/>
-    </row>
-    <row r="108" spans="2:7">
+      <c r="C107" s="42"/>
+      <c r="D107" s="42"/>
+      <c r="E107" s="42"/>
+      <c r="F107" s="42"/>
+      <c r="G107" s="43"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" s="6" t="s">
         <v>240</v>
       </c>
@@ -4467,59 +8020,59 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="109" spans="2:7">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C109" s="36" t="s">
+      <c r="C109" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="D109" s="36" t="s">
+      <c r="D109" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="E109" s="36" t="s">
+      <c r="E109" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="F109" s="36"/>
-      <c r="G109" s="37"/>
-    </row>
-    <row r="110" spans="2:7" ht="16">
+      <c r="F109" s="42"/>
+      <c r="G109" s="43"/>
+    </row>
+    <row r="110" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B110" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C110" s="36"/>
-      <c r="D110" s="36"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="37"/>
-    </row>
-    <row r="111" spans="2:7" ht="16">
+      <c r="C110" s="42"/>
+      <c r="D110" s="42"/>
+      <c r="E110" s="42"/>
+      <c r="F110" s="42"/>
+      <c r="G110" s="43"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C111" s="36" t="s">
+      <c r="C111" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="D111" s="36" t="s">
+      <c r="D111" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="E111" s="36" t="s">
+      <c r="E111" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="F111" s="36"/>
-      <c r="G111" s="37"/>
-    </row>
-    <row r="112" spans="2:7" ht="16">
+      <c r="F111" s="42"/>
+      <c r="G111" s="43"/>
+    </row>
+    <row r="112" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C112" s="36"/>
-      <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="36"/>
-      <c r="G112" s="37"/>
-    </row>
-    <row r="113" spans="2:7">
+      <c r="C112" s="42"/>
+      <c r="D112" s="42"/>
+      <c r="E112" s="42"/>
+      <c r="F112" s="42"/>
+      <c r="G112" s="43"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="6" t="s">
         <v>240</v>
       </c>
@@ -4535,7 +8088,7 @@
       <c r="F113" s="27"/>
       <c r="G113" s="11"/>
     </row>
-    <row r="114" spans="2:7">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="6" t="s">
         <v>240</v>
       </c>
@@ -4551,7 +8104,7 @@
       <c r="F114" s="27"/>
       <c r="G114" s="11"/>
     </row>
-    <row r="115" spans="2:7">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="6" t="s">
         <v>240</v>
       </c>
@@ -4567,7 +8120,7 @@
       <c r="F115" s="27"/>
       <c r="G115" s="11"/>
     </row>
-    <row r="116" spans="2:7">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="6" t="s">
         <v>240</v>
       </c>
@@ -4583,59 +8136,59 @@
       <c r="F116" s="27"/>
       <c r="G116" s="11"/>
     </row>
-    <row r="117" spans="2:7">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C117" s="36" t="s">
+      <c r="C117" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="D117" s="36" t="s">
+      <c r="D117" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="E117" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="36"/>
-      <c r="G117" s="37"/>
-    </row>
-    <row r="118" spans="2:7" ht="16">
+      <c r="E117" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="42"/>
+      <c r="G117" s="43"/>
+    </row>
+    <row r="118" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C118" s="36"/>
-      <c r="D118" s="36"/>
-      <c r="E118" s="36"/>
-      <c r="F118" s="36"/>
-      <c r="G118" s="37"/>
-    </row>
-    <row r="119" spans="2:7" ht="16">
+      <c r="C118" s="42"/>
+      <c r="D118" s="42"/>
+      <c r="E118" s="42"/>
+      <c r="F118" s="42"/>
+      <c r="G118" s="43"/>
+    </row>
+    <row r="119" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C119" s="36" t="s">
+      <c r="C119" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="D119" s="36" t="s">
+      <c r="D119" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="E119" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="36"/>
-      <c r="G119" s="37"/>
-    </row>
-    <row r="120" spans="2:7" ht="16">
+      <c r="E119" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="42"/>
+      <c r="G119" s="43"/>
+    </row>
+    <row r="120" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B120" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C120" s="36"/>
-      <c r="D120" s="36"/>
-      <c r="E120" s="36"/>
-      <c r="F120" s="36"/>
-      <c r="G120" s="37"/>
-    </row>
-    <row r="121" spans="2:7">
+      <c r="C120" s="42"/>
+      <c r="D120" s="42"/>
+      <c r="E120" s="42"/>
+      <c r="F120" s="42"/>
+      <c r="G120" s="43"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="6" t="s">
         <v>240</v>
       </c>
@@ -4651,7 +8204,7 @@
       <c r="F121" s="27"/>
       <c r="G121" s="11"/>
     </row>
-    <row r="122" spans="2:7">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="6" t="s">
         <v>240</v>
       </c>
@@ -4667,7 +8220,7 @@
       <c r="F122" s="27"/>
       <c r="G122" s="11"/>
     </row>
-    <row r="123" spans="2:7">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" s="6" t="s">
         <v>240</v>
       </c>
@@ -4683,7 +8236,7 @@
       <c r="F123" s="27"/>
       <c r="G123" s="11"/>
     </row>
-    <row r="124" spans="2:7">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124" s="6" t="s">
         <v>240</v>
       </c>
@@ -4699,7 +8252,7 @@
       <c r="F124" s="27"/>
       <c r="G124" s="11"/>
     </row>
-    <row r="125" spans="2:7">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="6" t="s">
         <v>240</v>
       </c>
@@ -4715,7 +8268,7 @@
       <c r="F125" s="27"/>
       <c r="G125" s="11"/>
     </row>
-    <row r="126" spans="2:7">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126" s="6" t="s">
         <v>240</v>
       </c>
@@ -4731,33 +8284,33 @@
       <c r="F126" s="27"/>
       <c r="G126" s="11"/>
     </row>
-    <row r="127" spans="2:7">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C127" s="36" t="s">
+      <c r="C127" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="D127" s="36" t="s">
+      <c r="D127" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="E127" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="36"/>
-      <c r="G127" s="37"/>
-    </row>
-    <row r="128" spans="2:7" ht="16">
+      <c r="E127" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="42"/>
+      <c r="G127" s="43"/>
+    </row>
+    <row r="128" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B128" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C128" s="36"/>
-      <c r="D128" s="36"/>
-      <c r="E128" s="36"/>
-      <c r="F128" s="36"/>
-      <c r="G128" s="37"/>
-    </row>
-    <row r="129" spans="2:7">
+      <c r="C128" s="42"/>
+      <c r="D128" s="42"/>
+      <c r="E128" s="42"/>
+      <c r="F128" s="42"/>
+      <c r="G128" s="43"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129" s="6" t="s">
         <v>244</v>
       </c>
@@ -4769,7 +8322,7 @@
       <c r="F129" s="27"/>
       <c r="G129" s="11"/>
     </row>
-    <row r="130" spans="2:7">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B130" s="6" t="s">
         <v>243</v>
       </c>
@@ -4785,7 +8338,7 @@
       <c r="F130" s="27"/>
       <c r="G130" s="11"/>
     </row>
-    <row r="131" spans="2:7">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B131" s="6" t="s">
         <v>243</v>
       </c>
@@ -4801,33 +8354,33 @@
       <c r="F131" s="27"/>
       <c r="G131" s="11"/>
     </row>
-    <row r="132" spans="2:7">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B132" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C132" s="36" t="s">
+      <c r="C132" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="D132" s="36" t="s">
+      <c r="D132" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="E132" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="36"/>
-      <c r="G132" s="37"/>
-    </row>
-    <row r="133" spans="2:7" ht="16">
+      <c r="E132" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="42"/>
+      <c r="G132" s="43"/>
+    </row>
+    <row r="133" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B133" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C133" s="36"/>
-      <c r="D133" s="36"/>
-      <c r="E133" s="36"/>
-      <c r="F133" s="36"/>
-      <c r="G133" s="37"/>
-    </row>
-    <row r="134" spans="2:7">
+      <c r="C133" s="42"/>
+      <c r="D133" s="42"/>
+      <c r="E133" s="42"/>
+      <c r="F133" s="42"/>
+      <c r="G133" s="43"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B134" s="6" t="s">
         <v>239</v>
       </c>
@@ -4843,7 +8396,7 @@
       <c r="F134" s="27"/>
       <c r="G134" s="11"/>
     </row>
-    <row r="135" spans="2:7">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B135" s="6" t="s">
         <v>239</v>
       </c>
@@ -4859,33 +8412,33 @@
       <c r="F135" s="27"/>
       <c r="G135" s="11"/>
     </row>
-    <row r="136" spans="2:7" ht="32">
+    <row r="136" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B136" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C136" s="36" t="s">
+      <c r="C136" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="D136" s="36" t="s">
+      <c r="D136" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="E136" s="36" t="s">
+      <c r="E136" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="F136" s="36"/>
-      <c r="G136" s="37"/>
-    </row>
-    <row r="137" spans="2:7" ht="16">
+      <c r="F136" s="42"/>
+      <c r="G136" s="43"/>
+    </row>
+    <row r="137" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B137" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C137" s="36"/>
-      <c r="D137" s="36"/>
-      <c r="E137" s="36"/>
-      <c r="F137" s="36"/>
-      <c r="G137" s="37"/>
-    </row>
-    <row r="138" spans="2:7" ht="32">
+      <c r="C137" s="42"/>
+      <c r="D137" s="42"/>
+      <c r="E137" s="42"/>
+      <c r="F137" s="42"/>
+      <c r="G137" s="43"/>
+    </row>
+    <row r="138" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B138" s="7" t="s">
         <v>246</v>
       </c>
@@ -4901,7 +8454,7 @@
       <c r="F138" s="27"/>
       <c r="G138" s="11"/>
     </row>
-    <row r="139" spans="2:7" ht="32">
+    <row r="139" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
         <v>246</v>
       </c>
@@ -4921,7 +8474,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="140" spans="2:7" ht="32">
+    <row r="140" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B140" s="7" t="s">
         <v>246</v>
       </c>
@@ -4937,7 +8490,7 @@
       <c r="F140" s="27"/>
       <c r="G140" s="11"/>
     </row>
-    <row r="141" spans="2:7" ht="32">
+    <row r="141" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B141" s="7" t="s">
         <v>246</v>
       </c>
@@ -4953,7 +8506,7 @@
       <c r="F141" s="27"/>
       <c r="G141" s="11"/>
     </row>
-    <row r="142" spans="2:7" ht="32">
+    <row r="142" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B142" s="7" t="s">
         <v>246</v>
       </c>
@@ -4973,33 +8526,33 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="143" spans="2:7">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B143" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C143" s="36" t="s">
+      <c r="C143" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="D143" s="36" t="s">
+      <c r="D143" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="E143" s="36" t="s">
+      <c r="E143" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="F143" s="36"/>
-      <c r="G143" s="37"/>
-    </row>
-    <row r="144" spans="2:7" ht="32">
+      <c r="F143" s="42"/>
+      <c r="G143" s="43"/>
+    </row>
+    <row r="144" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B144" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C144" s="36"/>
-      <c r="D144" s="36"/>
-      <c r="E144" s="36"/>
-      <c r="F144" s="36"/>
-      <c r="G144" s="37"/>
-    </row>
-    <row r="145" spans="2:7" ht="32">
+      <c r="C144" s="42"/>
+      <c r="D144" s="42"/>
+      <c r="E144" s="42"/>
+      <c r="F144" s="42"/>
+      <c r="G144" s="43"/>
+    </row>
+    <row r="145" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B145" s="7" t="s">
         <v>246</v>
       </c>
@@ -5015,7 +8568,7 @@
       <c r="F145" s="27"/>
       <c r="G145" s="11"/>
     </row>
-    <row r="146" spans="2:7" ht="32">
+    <row r="146" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B146" s="7" t="s">
         <v>246</v>
       </c>
@@ -5035,7 +8588,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="147" spans="2:7" ht="32">
+    <row r="147" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B147" s="7" t="s">
         <v>246</v>
       </c>
@@ -5055,7 +8608,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="148" spans="2:7" ht="32">
+    <row r="148" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B148" s="7" t="s">
         <v>246</v>
       </c>
@@ -5071,33 +8624,33 @@
       <c r="F148" s="27"/>
       <c r="G148" s="11"/>
     </row>
-    <row r="149" spans="2:7">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C149" s="36" t="s">
+      <c r="C149" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="D149" s="36" t="s">
+      <c r="D149" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="E149" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="36"/>
-      <c r="G149" s="37"/>
-    </row>
-    <row r="150" spans="2:7" ht="32">
+      <c r="E149" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="42"/>
+      <c r="G149" s="43"/>
+    </row>
+    <row r="150" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B150" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C150" s="36"/>
-      <c r="D150" s="36"/>
-      <c r="E150" s="36"/>
-      <c r="F150" s="36"/>
-      <c r="G150" s="37"/>
-    </row>
-    <row r="151" spans="2:7">
+      <c r="C150" s="42"/>
+      <c r="D150" s="42"/>
+      <c r="E150" s="42"/>
+      <c r="F150" s="42"/>
+      <c r="G150" s="43"/>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B151" s="6" t="s">
         <v>242</v>
       </c>
@@ -5113,7 +8666,7 @@
       <c r="F151" s="27"/>
       <c r="G151" s="11"/>
     </row>
-    <row r="152" spans="2:7">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B152" s="6" t="s">
         <v>242</v>
       </c>
@@ -5129,7 +8682,7 @@
       <c r="F152" s="27"/>
       <c r="G152" s="11"/>
     </row>
-    <row r="153" spans="2:7">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B153" s="6" t="s">
         <v>242</v>
       </c>
@@ -5145,7 +8698,7 @@
       <c r="F153" s="27"/>
       <c r="G153" s="11"/>
     </row>
-    <row r="154" spans="2:7">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B154" s="6" t="s">
         <v>242</v>
       </c>
@@ -5161,7 +8714,7 @@
       <c r="F154" s="27"/>
       <c r="G154" s="11"/>
     </row>
-    <row r="155" spans="2:7">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B155" s="6" t="s">
         <v>242</v>
       </c>
@@ -5177,7 +8730,7 @@
       <c r="F155" s="27"/>
       <c r="G155" s="11"/>
     </row>
-    <row r="156" spans="2:7">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B156" s="6" t="s">
         <v>242</v>
       </c>
@@ -5193,7 +8746,7 @@
       <c r="F156" s="27"/>
       <c r="G156" s="11"/>
     </row>
-    <row r="157" spans="2:7">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B157" s="6" t="s">
         <v>242</v>
       </c>
@@ -5209,7 +8762,7 @@
       <c r="F157" s="27"/>
       <c r="G157" s="11"/>
     </row>
-    <row r="158" spans="2:7">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B158" s="6" t="s">
         <v>242</v>
       </c>
@@ -5225,7 +8778,7 @@
       <c r="F158" s="27"/>
       <c r="G158" s="11"/>
     </row>
-    <row r="159" spans="2:7">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B159" s="6" t="s">
         <v>242</v>
       </c>
@@ -5241,7 +8794,7 @@
       <c r="F159" s="27"/>
       <c r="G159" s="11"/>
     </row>
-    <row r="160" spans="2:7">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B160" s="6" t="s">
         <v>242</v>
       </c>
@@ -5257,7 +8810,7 @@
       <c r="F160" s="27"/>
       <c r="G160" s="11"/>
     </row>
-    <row r="161" spans="2:7">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B161" s="13" t="s">
         <v>261</v>
       </c>
@@ -5273,7 +8826,7 @@
       <c r="F161" s="13"/>
       <c r="G161" s="16"/>
     </row>
-    <row r="162" spans="2:7">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B162" s="13" t="s">
         <v>240</v>
       </c>
@@ -5289,7 +8842,7 @@
       <c r="F162" s="13"/>
       <c r="G162" s="16"/>
     </row>
-    <row r="163" spans="2:7">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B163" s="13" t="s">
         <v>242</v>
       </c>
@@ -5305,73 +8858,73 @@
       <c r="F163" s="13"/>
       <c r="G163" s="16"/>
     </row>
-    <row r="164" spans="2:7">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B164" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C164" s="41" t="s">
+      <c r="C164" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="D164" s="40" t="s">
+      <c r="D164" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="E164" s="40" t="s">
+      <c r="E164" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="F164" s="40" t="s">
+      <c r="F164" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="G164" s="39">
+      <c r="G164" s="45">
         <v>43763</v>
       </c>
     </row>
-    <row r="165" spans="2:7">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B165" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="C165" s="41"/>
-      <c r="D165" s="40"/>
-      <c r="E165" s="40"/>
-      <c r="F165" s="40"/>
-      <c r="G165" s="39"/>
-    </row>
-    <row r="166" spans="2:7">
+      <c r="C165" s="47"/>
+      <c r="D165" s="46"/>
+      <c r="E165" s="46"/>
+      <c r="F165" s="46"/>
+      <c r="G165" s="45"/>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B166" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C166" s="41"/>
-      <c r="D166" s="40"/>
-      <c r="E166" s="40"/>
-      <c r="F166" s="40"/>
-      <c r="G166" s="39"/>
-    </row>
-    <row r="167" spans="2:7">
+      <c r="C166" s="47"/>
+      <c r="D166" s="46"/>
+      <c r="E166" s="46"/>
+      <c r="F166" s="46"/>
+      <c r="G166" s="45"/>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B167" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C167" s="36" t="s">
+      <c r="C167" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="D167" s="38" t="s">
+      <c r="D167" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="E167" s="36" t="s">
+      <c r="E167" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="F167" s="36"/>
-      <c r="G167" s="37"/>
-    </row>
-    <row r="168" spans="2:7">
+      <c r="F167" s="42"/>
+      <c r="G167" s="43"/>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B168" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C168" s="36"/>
-      <c r="D168" s="38"/>
-      <c r="E168" s="36"/>
-      <c r="F168" s="36"/>
-      <c r="G168" s="37"/>
-    </row>
-    <row r="169" spans="2:7">
+      <c r="C168" s="42"/>
+      <c r="D168" s="44"/>
+      <c r="E168" s="42"/>
+      <c r="F168" s="42"/>
+      <c r="G168" s="43"/>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B169" s="14" t="s">
         <v>2</v>
       </c>
@@ -5387,89 +8940,89 @@
       <c r="F169" s="27"/>
       <c r="G169" s="11"/>
     </row>
-    <row r="170" spans="2:7">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B170" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C170" s="36" t="s">
+      <c r="C170" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="D170" s="36" t="s">
+      <c r="D170" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="E170" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F170" s="36"/>
-      <c r="G170" s="37"/>
-    </row>
-    <row r="171" spans="2:7" ht="32">
+      <c r="E170" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" s="42"/>
+      <c r="G170" s="43"/>
+    </row>
+    <row r="171" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B171" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C171" s="36"/>
-      <c r="D171" s="36"/>
-      <c r="E171" s="36"/>
-      <c r="F171" s="36"/>
-      <c r="G171" s="37"/>
-    </row>
-    <row r="172" spans="2:7">
+      <c r="C171" s="42"/>
+      <c r="D171" s="42"/>
+      <c r="E171" s="42"/>
+      <c r="F171" s="42"/>
+      <c r="G171" s="43"/>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B172" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="36" t="s">
+      <c r="C172" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="D172" s="38" t="s">
+      <c r="D172" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="E172" s="36" t="s">
+      <c r="E172" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="F172" s="36"/>
-      <c r="G172" s="37"/>
-    </row>
-    <row r="173" spans="2:7" ht="32">
+      <c r="F172" s="42"/>
+      <c r="G172" s="43"/>
+    </row>
+    <row r="173" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B173" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C173" s="36"/>
-      <c r="D173" s="36"/>
-      <c r="E173" s="36"/>
-      <c r="F173" s="36"/>
-      <c r="G173" s="37"/>
-    </row>
-    <row r="174" spans="2:7" ht="32">
+      <c r="C173" s="42"/>
+      <c r="D173" s="42"/>
+      <c r="E173" s="42"/>
+      <c r="F173" s="42"/>
+      <c r="G173" s="43"/>
+    </row>
+    <row r="174" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B174" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C174" s="35" t="s">
+      <c r="C174" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="D174" s="36" t="s">
+      <c r="D174" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="E174" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F174" s="36" t="s">
+      <c r="E174" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="G174" s="37">
+      <c r="G174" s="43">
         <v>43770</v>
       </c>
     </row>
-    <row r="175" spans="2:7">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B175" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C175" s="35"/>
-      <c r="D175" s="36"/>
-      <c r="E175" s="36"/>
-      <c r="F175" s="36"/>
-      <c r="G175" s="37"/>
-    </row>
-    <row r="176" spans="2:7">
+      <c r="C175" s="41"/>
+      <c r="D175" s="42"/>
+      <c r="E175" s="42"/>
+      <c r="F175" s="42"/>
+      <c r="G175" s="43"/>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B176" s="14" t="s">
         <v>2</v>
       </c>
@@ -5485,7 +9038,7 @@
       <c r="F176" s="27"/>
       <c r="G176" s="11"/>
     </row>
-    <row r="177" spans="2:7">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B177" s="14" t="s">
         <v>2</v>
       </c>
@@ -5501,7 +9054,7 @@
       <c r="F177" s="27"/>
       <c r="G177" s="11"/>
     </row>
-    <row r="178" spans="2:7">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B178" s="14" t="s">
         <v>2</v>
       </c>
@@ -5517,33 +9070,33 @@
       <c r="F178" s="27"/>
       <c r="G178" s="11"/>
     </row>
-    <row r="179" spans="2:7">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B179" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C179" s="36" t="s">
+      <c r="C179" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="D179" s="36" t="s">
+      <c r="D179" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="E179" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F179" s="36"/>
-      <c r="G179" s="37"/>
-    </row>
-    <row r="180" spans="2:7">
+      <c r="E179" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F179" s="42"/>
+      <c r="G179" s="43"/>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B180" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C180" s="36"/>
-      <c r="D180" s="36"/>
-      <c r="E180" s="36"/>
-      <c r="F180" s="36"/>
-      <c r="G180" s="37"/>
-    </row>
-    <row r="181" spans="2:7">
+      <c r="C180" s="42"/>
+      <c r="D180" s="42"/>
+      <c r="E180" s="42"/>
+      <c r="F180" s="42"/>
+      <c r="G180" s="43"/>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B181" s="14" t="s">
         <v>2</v>
       </c>
@@ -5559,7 +9112,7 @@
       <c r="F181" s="27"/>
       <c r="G181" s="11"/>
     </row>
-    <row r="182" spans="2:7">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B182" s="14" t="s">
         <v>2</v>
       </c>
@@ -5579,7 +9132,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="183" spans="2:7" ht="16">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B183" s="14" t="s">
         <v>2</v>
       </c>
@@ -5595,57 +9148,57 @@
       <c r="F183" s="27"/>
       <c r="G183" s="11"/>
     </row>
-    <row r="184" spans="2:7">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B184" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C184" s="35" t="s">
+      <c r="C184" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="D184" s="36" t="s">
+      <c r="D184" s="42" t="s">
         <v>340</v>
       </c>
-      <c r="E184" s="36" t="s">
+      <c r="E184" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="F184" s="36" t="s">
+      <c r="F184" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="G184" s="37">
+      <c r="G184" s="43">
         <v>43791</v>
       </c>
     </row>
-    <row r="185" spans="2:7">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B185" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C185" s="35"/>
-      <c r="D185" s="36"/>
-      <c r="E185" s="36"/>
-      <c r="F185" s="36"/>
-      <c r="G185" s="37"/>
-    </row>
-    <row r="186" spans="2:7">
+      <c r="C185" s="41"/>
+      <c r="D185" s="42"/>
+      <c r="E185" s="42"/>
+      <c r="F185" s="42"/>
+      <c r="G185" s="43"/>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B186" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C186" s="35"/>
-      <c r="D186" s="36"/>
-      <c r="E186" s="36"/>
-      <c r="F186" s="36"/>
-      <c r="G186" s="37"/>
-    </row>
-    <row r="187" spans="2:7">
+      <c r="C186" s="41"/>
+      <c r="D186" s="42"/>
+      <c r="E186" s="42"/>
+      <c r="F186" s="42"/>
+      <c r="G186" s="43"/>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B187" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="C187" s="35"/>
-      <c r="D187" s="36"/>
-      <c r="E187" s="36"/>
-      <c r="F187" s="36"/>
-      <c r="G187" s="37"/>
-    </row>
-    <row r="188" spans="2:7">
+      <c r="C187" s="41"/>
+      <c r="D187" s="42"/>
+      <c r="E187" s="42"/>
+      <c r="F187" s="42"/>
+      <c r="G187" s="43"/>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B188" s="14" t="s">
         <v>241</v>
       </c>
@@ -5661,7 +9214,7 @@
       <c r="F188" s="27"/>
       <c r="G188" s="11"/>
     </row>
-    <row r="189" spans="2:7">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B189" s="14" t="s">
         <v>287</v>
       </c>
@@ -5681,37 +9234,37 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="190" spans="2:7">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B190" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="C190" s="35" t="s">
+      <c r="C190" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="D190" s="36" t="s">
+      <c r="D190" s="42" t="s">
         <v>290</v>
       </c>
-      <c r="E190" s="36" t="s">
+      <c r="E190" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="F190" s="36" t="s">
+      <c r="F190" s="42" t="s">
         <v>344</v>
       </c>
-      <c r="G190" s="37">
+      <c r="G190" s="43">
         <v>43791</v>
       </c>
     </row>
-    <row r="191" spans="2:7">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B191" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C191" s="35"/>
-      <c r="D191" s="36"/>
-      <c r="E191" s="36"/>
-      <c r="F191" s="36"/>
-      <c r="G191" s="37"/>
-    </row>
-    <row r="192" spans="2:7">
+      <c r="C191" s="41"/>
+      <c r="D191" s="42"/>
+      <c r="E191" s="42"/>
+      <c r="F191" s="42"/>
+      <c r="G191" s="43"/>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B192" s="14" t="s">
         <v>287</v>
       </c>
@@ -5727,33 +9280,33 @@
       <c r="F192" s="27"/>
       <c r="G192" s="11"/>
     </row>
-    <row r="193" spans="2:7">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B193" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="C193" s="42" t="s">
+      <c r="C193" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="D193" s="36" t="s">
+      <c r="D193" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="E193" s="36" t="s">
+      <c r="E193" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="F193" s="36"/>
-      <c r="G193" s="37"/>
-    </row>
-    <row r="194" spans="2:7" ht="32">
+      <c r="F193" s="42"/>
+      <c r="G193" s="43"/>
+    </row>
+    <row r="194" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B194" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C194" s="35"/>
-      <c r="D194" s="36"/>
-      <c r="E194" s="36"/>
-      <c r="F194" s="36"/>
-      <c r="G194" s="37"/>
-    </row>
-    <row r="195" spans="2:7">
+      <c r="C194" s="41"/>
+      <c r="D194" s="42"/>
+      <c r="E194" s="42"/>
+      <c r="F194" s="42"/>
+      <c r="G194" s="43"/>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B195" s="14" t="s">
         <v>265</v>
       </c>
@@ -5769,43 +9322,43 @@
       <c r="F195" s="27"/>
       <c r="G195" s="11"/>
     </row>
-    <row r="196" spans="2:7">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B196" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C196" s="36" t="s">
+      <c r="C196" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="D196" s="36" t="s">
+      <c r="D196" s="42" t="s">
         <v>298</v>
       </c>
-      <c r="E196" s="36" t="s">
+      <c r="E196" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="F196" s="36"/>
-      <c r="G196" s="37"/>
-    </row>
-    <row r="197" spans="2:7">
+      <c r="F196" s="42"/>
+      <c r="G196" s="43"/>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B197" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C197" s="36"/>
-      <c r="D197" s="36"/>
-      <c r="E197" s="36"/>
-      <c r="F197" s="36"/>
-      <c r="G197" s="37"/>
-    </row>
-    <row r="198" spans="2:7">
+      <c r="C197" s="42"/>
+      <c r="D197" s="42"/>
+      <c r="E197" s="42"/>
+      <c r="F197" s="42"/>
+      <c r="G197" s="43"/>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B198" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C198" s="36"/>
-      <c r="D198" s="36"/>
-      <c r="E198" s="36"/>
-      <c r="F198" s="36"/>
-      <c r="G198" s="37"/>
-    </row>
-    <row r="199" spans="2:7">
+      <c r="C198" s="42"/>
+      <c r="D198" s="42"/>
+      <c r="E198" s="42"/>
+      <c r="F198" s="42"/>
+      <c r="G198" s="43"/>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B199" s="14" t="s">
         <v>265</v>
       </c>
@@ -5821,85 +9374,85 @@
       <c r="F199" s="27"/>
       <c r="G199" s="11"/>
     </row>
-    <row r="200" spans="2:7">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B200" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C200" s="36" t="s">
+      <c r="C200" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="D200" s="36" t="s">
+      <c r="D200" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="E200" s="36" t="s">
+      <c r="E200" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="F200" s="36"/>
-      <c r="G200" s="37"/>
-    </row>
-    <row r="201" spans="2:7">
+      <c r="F200" s="42"/>
+      <c r="G200" s="43"/>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B201" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C201" s="36"/>
-      <c r="D201" s="36"/>
-      <c r="E201" s="36"/>
-      <c r="F201" s="36"/>
-      <c r="G201" s="37"/>
-    </row>
-    <row r="202" spans="2:7">
+      <c r="C201" s="42"/>
+      <c r="D201" s="42"/>
+      <c r="E201" s="42"/>
+      <c r="F201" s="42"/>
+      <c r="G201" s="43"/>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B202" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C202" s="36" t="s">
+      <c r="C202" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="D202" s="36" t="s">
+      <c r="D202" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="E202" s="36" t="s">
+      <c r="E202" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="F202" s="36"/>
-      <c r="G202" s="37"/>
-    </row>
-    <row r="203" spans="2:7">
+      <c r="F202" s="42"/>
+      <c r="G202" s="43"/>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B203" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C203" s="36"/>
-      <c r="D203" s="36"/>
-      <c r="E203" s="36"/>
-      <c r="F203" s="36"/>
-      <c r="G203" s="37"/>
-    </row>
-    <row r="204" spans="2:7">
+      <c r="C203" s="42"/>
+      <c r="D203" s="42"/>
+      <c r="E203" s="42"/>
+      <c r="F203" s="42"/>
+      <c r="G203" s="43"/>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B204" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C204" s="36" t="s">
+      <c r="C204" s="42" t="s">
         <v>318</v>
       </c>
-      <c r="D204" s="36" t="s">
+      <c r="D204" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="E204" s="36" t="s">
+      <c r="E204" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="F204" s="36"/>
-      <c r="G204" s="37"/>
-    </row>
-    <row r="205" spans="2:7">
+      <c r="F204" s="42"/>
+      <c r="G204" s="43"/>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B205" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C205" s="36"/>
-      <c r="D205" s="36"/>
-      <c r="E205" s="36"/>
-      <c r="F205" s="36"/>
-      <c r="G205" s="37"/>
-    </row>
-    <row r="206" spans="2:7">
+      <c r="C205" s="42"/>
+      <c r="D205" s="42"/>
+      <c r="E205" s="42"/>
+      <c r="F205" s="42"/>
+      <c r="G205" s="43"/>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B206" s="14" t="s">
         <v>265</v>
       </c>
@@ -5919,7 +9472,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="207" spans="2:7">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B207" s="14" t="s">
         <v>266</v>
       </c>
@@ -5935,7 +9488,7 @@
       <c r="F207" s="27"/>
       <c r="G207" s="11"/>
     </row>
-    <row r="208" spans="2:7">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B208" s="14" t="s">
         <v>266</v>
       </c>
@@ -5951,7 +9504,7 @@
       <c r="F208" s="27"/>
       <c r="G208" s="11"/>
     </row>
-    <row r="209" spans="2:7" ht="17">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B209" s="14" t="s">
         <v>266</v>
       </c>
@@ -5967,7 +9520,7 @@
       <c r="F209" s="27"/>
       <c r="G209" s="11"/>
     </row>
-    <row r="210" spans="2:7">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B210" s="14" t="s">
         <v>266</v>
       </c>
@@ -5983,7 +9536,7 @@
       <c r="F210" s="27"/>
       <c r="G210" s="11"/>
     </row>
-    <row r="211" spans="2:7">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B211" s="14" t="s">
         <v>266</v>
       </c>
@@ -5999,7 +9552,7 @@
       <c r="F211" s="27"/>
       <c r="G211" s="11"/>
     </row>
-    <row r="212" spans="2:7">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B212" s="14" t="s">
         <v>266</v>
       </c>
@@ -6015,7 +9568,7 @@
       <c r="F212" s="27"/>
       <c r="G212" s="11"/>
     </row>
-    <row r="213" spans="2:7" ht="32">
+    <row r="213" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B213" s="17" t="s">
         <v>246</v>
       </c>
@@ -6031,7 +9584,7 @@
       <c r="F213" s="27"/>
       <c r="G213" s="11"/>
     </row>
-    <row r="214" spans="2:7" ht="32">
+    <row r="214" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B214" s="17" t="s">
         <v>246</v>
       </c>
@@ -6047,11 +9600,11 @@
       <c r="F214" s="27"/>
       <c r="G214" s="11"/>
     </row>
-    <row r="215" spans="2:7">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B215" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="C215" s="27" t="s">
+      <c r="C215" s="35" t="s">
         <v>350</v>
       </c>
       <c r="D215" s="27" t="s">
@@ -6060,40 +9613,44 @@
       <c r="E215" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F215" s="27"/>
-      <c r="G215" s="26"/>
-    </row>
-    <row r="216" spans="2:7">
-      <c r="B216" s="36" t="s">
+      <c r="F215" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="G215" s="26">
+        <v>43819</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B216" s="42" t="s">
         <v>265</v>
       </c>
-      <c r="C216" s="35" t="s">
+      <c r="C216" s="41" t="s">
         <v>353</v>
       </c>
-      <c r="D216" s="36" t="s">
+      <c r="D216" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="E216" s="36" t="s">
+      <c r="E216" s="42" t="s">
         <v>120</v>
       </c>
       <c r="F216" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="G216" s="37">
+      <c r="G216" s="43">
         <v>43798</v>
       </c>
     </row>
-    <row r="217" spans="2:7">
-      <c r="B217" s="36"/>
-      <c r="C217" s="35"/>
-      <c r="D217" s="36"/>
-      <c r="E217" s="36"/>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B217" s="42"/>
+      <c r="C217" s="41"/>
+      <c r="D217" s="42"/>
+      <c r="E217" s="42"/>
       <c r="F217" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="G217" s="37"/>
-    </row>
-    <row r="218" spans="2:7">
+      <c r="G217" s="43"/>
+    </row>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B218" s="30" t="s">
         <v>356</v>
       </c>
@@ -6109,7 +9666,7 @@
       <c r="F218" s="30"/>
       <c r="G218" s="31"/>
     </row>
-    <row r="219" spans="2:7">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B219" s="30" t="s">
         <v>356</v>
       </c>
@@ -6127,7 +9684,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B3:G219" xr:uid="{C1EE0C99-C2F8-4E13-983A-B3DCF9299796}"/>
-  <mergeCells count="286">
+  <mergeCells count="285">
     <mergeCell ref="G216:G217"/>
     <mergeCell ref="E216:E217"/>
     <mergeCell ref="D216:D217"/>
@@ -6223,7 +9780,6 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E10:E11"/>
@@ -6419,177 +9975,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6C1E58-1F9C-4CD0-8E0F-01EEA3C6893B}">
-  <dimension ref="B1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="0.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="90.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="5.25" customHeight="1"/>
-    <row r="2" spans="2:7" ht="19">
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="G3" s="10">
-        <v>43728</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="G4" s="10">
-        <v>43728</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4BC76C-1F47-4CA9-80AD-987DBFB118FB}">
-  <dimension ref="B2:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" ht="16" thickBot="1"/>
-    <row r="3" spans="2:3">
-      <c r="B3" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="C3" s="19">
-        <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Deep Learning")</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" s="21">
-        <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Control &amp; Robotics")</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="C5" s="21">
-        <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Neuroscience")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" s="21">
-        <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Safety")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="C7" s="21">
-        <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Theory &amp; Foundations")</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="32">
-      <c r="B8" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="21">
-        <f>COUNTIF('DeepMind Papers'!$B$4:$B$1048576, "Unsupervised Learning 
-&amp; Generative Models")</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="16" thickBot="1">
-      <c r="B9" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="C9" s="24">
-        <f>COUNTA('DeepMind Papers'!C4:C1048576)</f>
-        <v>154</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Paper list.xlsx
+++ b/Paper list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - KoreaUniv\0.PhD\5.RLRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="521" documentId="13_ncr:1_{C2C6DA6B-6ED7-8941-921E-4497C5B89435}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{36D37B45-1783-4357-9D2C-859A9EB0DEB2}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="6_{95AB4841-001A-4806-859F-A6F78D95DC0C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{CD02D6DC-3856-43D9-A653-87ED63E721C6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="490">
   <si>
     <t>Title</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1383,291 +1383,296 @@
     <t>Jack Rae, Anna Potapenko, et al.</t>
   </si>
   <si>
+    <t>Victor Bapst, Alvaro Sanchez-Gonzalez, et al.</t>
+  </si>
+  <si>
+    <t>Victor Bapst, Alvaro Sanchez-Gonzalez, et al.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning Transferable Graph Exploration</t>
+  </si>
+  <si>
+    <t>H Dai, Yujia Li, et al.</t>
+  </si>
+  <si>
+    <t>Sparse Orthogonal Variational Inference for Gaussian Processes</t>
+  </si>
+  <si>
+    <t>J Shi, Michalis Titsias, et al.</t>
+  </si>
+  <si>
+    <t>Self-Supervised Sim-to-Real Adaptation for Visual Robotic Manipulation</t>
+  </si>
+  <si>
+    <t>Rae Jeong, Yusuf Aytar, et al.</t>
+  </si>
+  <si>
+    <t>Adaptive Exploration in Linear Contextual Bandit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B Hao, Tor Lattimore, et al. </t>
+  </si>
+  <si>
+    <t>Restoring ancient text using deep learning: a case study on Greek epigraphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yannis Assael, Thea Sommerschield, et al. </t>
+  </si>
+  <si>
+    <t>Reusable neural skill embeddings for vision-guided whole body movement and object manipulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josh Merel, Saran Tunyasuvunakool, et al. </t>
+  </si>
+  <si>
+    <t>Stabilizing Transformers for Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Emilio Parisotto, Francis Song, et al.</t>
+  </si>
+  <si>
+    <t>Meta-Learning Deep Energy-Based Memory Models</t>
+  </si>
+  <si>
+    <t>Sergey Bartunov, Jack Rae, et al.</t>
+  </si>
+  <si>
+    <t>Making sense of sensory input</t>
+  </si>
+  <si>
+    <t>Richard Evans, J Hernández-Orallo, et al.</t>
+  </si>
+  <si>
+    <t>CLEVRER: CoLlision Events for Video REpresentation and Reasoning</t>
+  </si>
+  <si>
+    <t>K Yi, Chuang Gan, et al.</t>
+  </si>
+  <si>
+    <t>Unsupervised Doodling and Painting with Improved SPIRAL</t>
+  </si>
+  <si>
+    <t>John Mellor, E Park, et al.</t>
+  </si>
+  <si>
+    <t>Task-Relevant Adversarial Imitation Learning</t>
+  </si>
+  <si>
+    <t>K Żolna, Scott Reed, et al.</t>
+  </si>
+  <si>
+    <t>Deep RL Workshop NeurIPS 2019</t>
+  </si>
+  <si>
+    <t>Augmenting learning using symmetry in a biologically-inspired domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S Mishra, Abbas Abdolmaleki, et al. </t>
+  </si>
+  <si>
+    <t>Emergent Systematic Generalization in a Situated Agent</t>
+  </si>
+  <si>
+    <t>Felix Hill, A K Lampinen, et al.</t>
+  </si>
+  <si>
+    <t>Gated Linear Networks</t>
+  </si>
+  <si>
+    <t>Joel Veness, Tor Lattimore, et al.</t>
+  </si>
+  <si>
+    <t>Hamiltonian Graph Networks with ODE Integrators</t>
+  </si>
+  <si>
+    <t>Alvaro Sanchez-Gonzalez, Victor Bapst, et al.</t>
+  </si>
+  <si>
+    <t>Automated Curricula Through Setter-Solver Interactions</t>
+  </si>
+  <si>
+    <t>Sébastien Racanière, A K Lampinen, et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Mabona, Laura Rimell, et al. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning Symbolic Physics with Graph Networks</t>
+  </si>
+  <si>
+    <t>M Cranmer, R Xu, et al.</t>
+  </si>
+  <si>
+    <t>Making Efficient Use of Demonstrations to Solve Hard Exploration Problems</t>
+  </si>
+  <si>
+    <t>Caglar Gülçehre, Tom Le Paine, et al.</t>
+  </si>
+  <si>
+    <t>Mogrifier LSTM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A clinically applicable approach to continuous prediction of future acute kidney injury</t>
+  </si>
+  <si>
+    <t>Nenad Tomasev, Xavier Glorot, et al.</t>
+  </si>
+  <si>
+    <t>Alistair Connell, Hugh Montgomery, et al.</t>
+  </si>
+  <si>
+    <t>Nature Medicine 2019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluation of a digitally-enabled care pathway for acute kidney injury management in hospital emergency admissions</t>
+  </si>
+  <si>
+    <t>Wasserstein Fair Classification</t>
+  </si>
+  <si>
+    <t>Ray Jiang, Aldo Pacchiano, et al.</t>
+  </si>
+  <si>
+    <t>A Short Note on the Kinetics-700 Human Action Dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joao Carreira, Eric Noland, et al. </t>
+  </si>
+  <si>
+    <t>Implementation of a Digitally Enabled Care Pathway (Part 1): Impact on Clinical Outcomes and Associated Health Care Costs</t>
+  </si>
+  <si>
+    <t>Alistair Connell, R Raine, et al.</t>
+  </si>
+  <si>
+    <t>JMIR 2019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Causal Bayesian Networks Viewpoint on Fairness</t>
+  </si>
+  <si>
+    <t>Silvia Chiappa, William Isaac</t>
+  </si>
+  <si>
+    <t>Cross-View Policy Learning for Street Navigation</t>
+  </si>
+  <si>
+    <t>Ang Li, Huiyi Hu, et al.</t>
+  </si>
+  <si>
+    <t>ICCV 2019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detecting Out-of-Distribution Inputs to Deep Generative Models Using a Test for Typicality</t>
+  </si>
+  <si>
+    <t>Hamiltonian descent for composite objectives</t>
+  </si>
+  <si>
+    <t>Brendan O'Donoghue, Christopher Maddison</t>
+  </si>
+  <si>
+    <t>Options as responses: Grounding behavioural hierarchies in multi-agent RL</t>
+  </si>
+  <si>
+    <t>Alexander Vezhnevets, Yuhai Wu, et al.</t>
+  </si>
+  <si>
+    <t>Learning Dynamic Polynomial Proofs</t>
+  </si>
+  <si>
+    <t>Alhussein Fawzi, Mateusz Malinowski, et al.</t>
+  </si>
+  <si>
+    <t>Episodic Memory in Lifelong Language Learning</t>
+  </si>
+  <si>
+    <t>Cyprien de Masson d'Autume, Sebastian Ruder, et al.</t>
+  </si>
+  <si>
+    <t>Neural Replicator Dynamics</t>
+  </si>
+  <si>
+    <t>Shayegan Omidshafiei, Daniel Hennes, et al.</t>
+  </si>
+  <si>
+    <t>Object Discovery with a Copy-Pasting GAN</t>
+  </si>
+  <si>
+    <t>Relja Arandjelović, Andrew Zisserman</t>
+  </si>
+  <si>
+    <t>An Explicitly Relational Neural Network Architecture</t>
+  </si>
+  <si>
+    <t>Murray Shanahan, Kyriacos Nikiforou, et al.</t>
+  </si>
+  <si>
+    <t>Action Assembly: Sparse Imitation Learning for Text Based Games with Combinatorial Action Spaces</t>
+  </si>
+  <si>
+    <t>C Tessler, T Zahavy, et al.</t>
+  </si>
+  <si>
+    <t>Structured agents for physical construction</t>
+  </si>
+  <si>
+    <t>Learning Gentle Object Manipulation with Curiosity-Driven Deep Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Sandy Huang, Martina Zambelli, et al.</t>
+  </si>
+  <si>
+    <t>The StreetLearn Environment and Dataset</t>
+  </si>
+  <si>
+    <t>Piotr Mirowski, Andras Gyorgy, et al.</t>
+  </si>
+  <si>
+    <t>A Generalized Framework for Population Based Training</t>
+  </si>
+  <si>
+    <t>Ang Li, Ola Spyra, et al.</t>
+  </si>
+  <si>
+    <t>TF-Replicator: Distributed Machine Learning for Researchers</t>
+  </si>
+  <si>
+    <t>Peter Buchlovsky, David Budden, et al.</t>
+  </si>
+  <si>
+    <t>Learning and Evaluating General Linguistic Intelligence</t>
+  </si>
+  <si>
+    <t>Dani Yogatama, Cyprien de Masson d'Autume, et al.</t>
+  </si>
+  <si>
+    <t>Spatial Broadcast Decoder: A Simple Architecture for Learning Disentangled Representations in VAEs</t>
+  </si>
+  <si>
+    <t>Iterative Budgeted Exponential Search</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>General non-linear Bellman equations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오승상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이효빈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Object-oriented state editing for HRL</t>
-  </si>
-  <si>
-    <t>Victor Bapst, Alvaro Sanchez-Gonzalez, et al.</t>
-  </si>
-  <si>
-    <t>Victor Bapst, Alvaro Sanchez-Gonzalez, et al.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learning Transferable Graph Exploration</t>
-  </si>
-  <si>
-    <t>H Dai, Yujia Li, et al.</t>
-  </si>
-  <si>
-    <t>Sparse Orthogonal Variational Inference for Gaussian Processes</t>
-  </si>
-  <si>
-    <t>J Shi, Michalis Titsias, et al.</t>
-  </si>
-  <si>
-    <t>Self-Supervised Sim-to-Real Adaptation for Visual Robotic Manipulation</t>
-  </si>
-  <si>
-    <t>Rae Jeong, Yusuf Aytar, et al.</t>
-  </si>
-  <si>
-    <t>Adaptive Exploration in Linear Contextual Bandit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B Hao, Tor Lattimore, et al. </t>
-  </si>
-  <si>
-    <t>Restoring ancient text using deep learning: a case study on Greek epigraphy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yannis Assael, Thea Sommerschield, et al. </t>
-  </si>
-  <si>
-    <t>Reusable neural skill embeddings for vision-guided whole body movement and object manipulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Josh Merel, Saran Tunyasuvunakool, et al. </t>
-  </si>
-  <si>
-    <t>Stabilizing Transformers for Reinforcement Learning</t>
-  </si>
-  <si>
-    <t>Emilio Parisotto, Francis Song, et al.</t>
-  </si>
-  <si>
-    <t>Meta-Learning Deep Energy-Based Memory Models</t>
-  </si>
-  <si>
-    <t>Sergey Bartunov, Jack Rae, et al.</t>
-  </si>
-  <si>
-    <t>Making sense of sensory input</t>
-  </si>
-  <si>
-    <t>Richard Evans, J Hernández-Orallo, et al.</t>
-  </si>
-  <si>
-    <t>CLEVRER: CoLlision Events for Video REpresentation and Reasoning</t>
-  </si>
-  <si>
-    <t>K Yi, Chuang Gan, et al.</t>
-  </si>
-  <si>
-    <t>Unsupervised Doodling and Painting with Improved SPIRAL</t>
-  </si>
-  <si>
-    <t>John Mellor, E Park, et al.</t>
-  </si>
-  <si>
-    <t>Task-Relevant Adversarial Imitation Learning</t>
-  </si>
-  <si>
-    <t>K Żolna, Scott Reed, et al.</t>
-  </si>
-  <si>
-    <t>Deep RL Workshop NeurIPS 2019</t>
-  </si>
-  <si>
-    <t>Augmenting learning using symmetry in a biologically-inspired domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S Mishra, Abbas Abdolmaleki, et al. </t>
-  </si>
-  <si>
-    <t>Emergent Systematic Generalization in a Situated Agent</t>
-  </si>
-  <si>
-    <t>Felix Hill, A K Lampinen, et al.</t>
-  </si>
-  <si>
-    <t>Gated Linear Networks</t>
-  </si>
-  <si>
-    <t>Joel Veness, Tor Lattimore, et al.</t>
-  </si>
-  <si>
-    <t>Hamiltonian Graph Networks with ODE Integrators</t>
-  </si>
-  <si>
-    <t>Alvaro Sanchez-Gonzalez, Victor Bapst, et al.</t>
-  </si>
-  <si>
-    <t>Automated Curricula Through Setter-Solver Interactions</t>
-  </si>
-  <si>
-    <t>Sébastien Racanière, A K Lampinen, et al.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Mabona, Laura Rimell, et al. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learning Symbolic Physics with Graph Networks</t>
-  </si>
-  <si>
-    <t>M Cranmer, R Xu, et al.</t>
-  </si>
-  <si>
-    <t>Making Efficient Use of Demonstrations to Solve Hard Exploration Problems</t>
-  </si>
-  <si>
-    <t>Caglar Gülçehre, Tom Le Paine, et al.</t>
-  </si>
-  <si>
-    <t>Mogrifier LSTM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A clinically applicable approach to continuous prediction of future acute kidney injury</t>
-  </si>
-  <si>
-    <t>Nenad Tomasev, Xavier Glorot, et al.</t>
-  </si>
-  <si>
-    <t>Alistair Connell, Hugh Montgomery, et al.</t>
-  </si>
-  <si>
-    <t>Nature Medicine 2019</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Evaluation of a digitally-enabled care pathway for acute kidney injury management in hospital emergency admissions</t>
-  </si>
-  <si>
-    <t>Wasserstein Fair Classification</t>
-  </si>
-  <si>
-    <t>Ray Jiang, Aldo Pacchiano, et al.</t>
-  </si>
-  <si>
-    <t>A Short Note on the Kinetics-700 Human Action Dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joao Carreira, Eric Noland, et al. </t>
-  </si>
-  <si>
-    <t>Implementation of a Digitally Enabled Care Pathway (Part 1): Impact on Clinical Outcomes and Associated Health Care Costs</t>
-  </si>
-  <si>
-    <t>Alistair Connell, R Raine, et al.</t>
-  </si>
-  <si>
-    <t>JMIR 2019</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A Causal Bayesian Networks Viewpoint on Fairness</t>
-  </si>
-  <si>
-    <t>Silvia Chiappa, William Isaac</t>
-  </si>
-  <si>
-    <t>Cross-View Policy Learning for Street Navigation</t>
-  </si>
-  <si>
-    <t>Ang Li, Huiyi Hu, et al.</t>
-  </si>
-  <si>
-    <t>ICCV 2019</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Detecting Out-of-Distribution Inputs to Deep Generative Models Using a Test for Typicality</t>
-  </si>
-  <si>
-    <t>Hamiltonian descent for composite objectives</t>
-  </si>
-  <si>
-    <t>Brendan O'Donoghue, Christopher Maddison</t>
-  </si>
-  <si>
-    <t>Options as responses: Grounding behavioural hierarchies in multi-agent RL</t>
-  </si>
-  <si>
-    <t>Alexander Vezhnevets, Yuhai Wu, et al.</t>
-  </si>
-  <si>
-    <t>Learning Dynamic Polynomial Proofs</t>
-  </si>
-  <si>
-    <t>Alhussein Fawzi, Mateusz Malinowski, et al.</t>
-  </si>
-  <si>
-    <t>Episodic Memory in Lifelong Language Learning</t>
-  </si>
-  <si>
-    <t>Cyprien de Masson d'Autume, Sebastian Ruder, et al.</t>
-  </si>
-  <si>
-    <t>Neural Replicator Dynamics</t>
-  </si>
-  <si>
-    <t>Shayegan Omidshafiei, Daniel Hennes, et al.</t>
-  </si>
-  <si>
-    <t>Object Discovery with a Copy-Pasting GAN</t>
-  </si>
-  <si>
-    <t>Relja Arandjelović, Andrew Zisserman</t>
-  </si>
-  <si>
-    <t>An Explicitly Relational Neural Network Architecture</t>
-  </si>
-  <si>
-    <t>Murray Shanahan, Kyriacos Nikiforou, et al.</t>
-  </si>
-  <si>
-    <t>Action Assembly: Sparse Imitation Learning for Text Based Games with Combinatorial Action Spaces</t>
-  </si>
-  <si>
-    <t>C Tessler, T Zahavy, et al.</t>
-  </si>
-  <si>
-    <t>Structured agents for physical construction</t>
-  </si>
-  <si>
-    <t>Learning Gentle Object Manipulation with Curiosity-Driven Deep Reinforcement Learning</t>
-  </si>
-  <si>
-    <t>Sandy Huang, Martina Zambelli, et al.</t>
-  </si>
-  <si>
-    <t>The StreetLearn Environment and Dataset</t>
-  </si>
-  <si>
-    <t>Piotr Mirowski, Andras Gyorgy, et al.</t>
-  </si>
-  <si>
-    <t>A Generalized Framework for Population Based Training</t>
-  </si>
-  <si>
-    <t>Ang Li, Ola Spyra, et al.</t>
-  </si>
-  <si>
-    <t>TF-Replicator: Distributed Machine Learning for Researchers</t>
-  </si>
-  <si>
-    <t>Peter Buchlovsky, David Budden, et al.</t>
-  </si>
-  <si>
-    <t>Learning and Evaluating General Linguistic Intelligence</t>
-  </si>
-  <si>
-    <t>Dani Yogatama, Cyprien de Masson d'Autume, et al.</t>
-  </si>
-  <si>
-    <t>Spatial Broadcast Decoder: A Simple Architecture for Learning Disentangled Representations in VAEs</t>
-  </si>
-  <si>
-    <t>Iterative Budgeted Exponential Search</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>General non-linear Bellman equations</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오승상</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1675,7 +1680,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1798,7 +1803,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1967,6 +1972,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1979,7 +2010,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2103,10 +2134,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2137,60 +2234,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3421,12 +3464,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07006F96-BC39-4686-922A-D19435B5E7B3}">
   <dimension ref="B1:F211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="180" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="0.625" customWidth="1"/>
     <col min="2" max="2" width="94.625" style="1" customWidth="1"/>
@@ -3436,47 +3479,47 @@
     <col min="6" max="6" width="11.125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="38.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
+    <row r="1" spans="2:6" ht="5.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:6" ht="38.25">
+      <c r="B2" s="56" t="s">
         <v>363</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55"/>
-    </row>
-    <row r="3" spans="2:6" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="56" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
+    </row>
+    <row r="3" spans="2:6" s="3" customFormat="1" ht="21" thickBot="1">
+      <c r="B3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="54" t="s">
         <v>285</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="55" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+    <row r="4" spans="2:6">
+      <c r="B4" s="50" t="s">
         <v>364</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="51" t="s">
         <v>365</v>
       </c>
-      <c r="D4" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="58"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D4" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" s="20" t="s">
         <v>366</v>
       </c>
@@ -3487,10 +3530,10 @@
         <v>299</v>
       </c>
       <c r="E5" s="36"/>
-      <c r="F5" s="58"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="63" t="s">
+      <c r="F5" s="41"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="42" t="s">
         <v>368</v>
       </c>
       <c r="C6" s="36" t="s">
@@ -3502,11 +3545,11 @@
       <c r="E6" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="41">
         <v>43826</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6">
       <c r="B7" s="20" t="s">
         <v>370</v>
       </c>
@@ -3517,9 +3560,9 @@
         <v>11</v>
       </c>
       <c r="E7" s="36"/>
-      <c r="F7" s="58"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F7" s="41"/>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" s="20" t="s">
         <v>372</v>
       </c>
@@ -3530,10 +3573,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="36"/>
-      <c r="F8" s="58"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="63" t="s">
+      <c r="F8" s="41"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="42" t="s">
         <v>374</v>
       </c>
       <c r="C9" s="36" t="s">
@@ -3545,11 +3588,11 @@
       <c r="E9" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="41">
         <v>43826</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6">
       <c r="B10" s="20" t="s">
         <v>376</v>
       </c>
@@ -3560,9 +3603,9 @@
         <v>11</v>
       </c>
       <c r="E10" s="36"/>
-      <c r="F10" s="58"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="41"/>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" s="20" t="s">
         <v>378</v>
       </c>
@@ -3573,9 +3616,9 @@
         <v>11</v>
       </c>
       <c r="E11" s="36"/>
-      <c r="F11" s="58"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="41"/>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" s="20" t="s">
         <v>380</v>
       </c>
@@ -3586,9 +3629,9 @@
         <v>11</v>
       </c>
       <c r="E12" s="36"/>
-      <c r="F12" s="58"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="41"/>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" s="20" t="s">
         <v>382</v>
       </c>
@@ -3599,10 +3642,10 @@
         <v>11</v>
       </c>
       <c r="E13" s="36"/>
-      <c r="F13" s="58"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="63" t="s">
+      <c r="F13" s="41"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="42" t="s">
         <v>384</v>
       </c>
       <c r="C14" s="36" t="s">
@@ -3614,11 +3657,11 @@
       <c r="E14" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="41">
         <v>43819</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6">
       <c r="B15" s="20" t="s">
         <v>386</v>
       </c>
@@ -3629,9 +3672,9 @@
         <v>11</v>
       </c>
       <c r="E15" s="36"/>
-      <c r="F15" s="58"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="41"/>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16" s="20" t="s">
         <v>388</v>
       </c>
@@ -3642,35 +3685,35 @@
         <v>120</v>
       </c>
       <c r="E16" s="36"/>
-      <c r="F16" s="58"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="59" t="s">
+      <c r="F16" s="41"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="61" t="s">
         <v>352</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="61" t="s">
         <v>120</v>
       </c>
       <c r="E17" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F17" s="59">
         <v>43798</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="61"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
+    <row r="18" spans="2:6">
+      <c r="B18" s="63"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="F18" s="62"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="60"/>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="20" t="s">
         <v>390</v>
       </c>
@@ -3681,9 +3724,9 @@
         <v>11</v>
       </c>
       <c r="E19" s="36"/>
-      <c r="F19" s="58"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="41"/>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" s="20" t="s">
         <v>392</v>
       </c>
@@ -3694,9 +3737,9 @@
         <v>11</v>
       </c>
       <c r="E20" s="36"/>
-      <c r="F20" s="58"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="41"/>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" s="20" t="s">
         <v>394</v>
       </c>
@@ -3707,10 +3750,10 @@
         <v>120</v>
       </c>
       <c r="E21" s="36"/>
-      <c r="F21" s="58"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="63" t="s">
+      <c r="F21" s="41"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="42" t="s">
         <v>350</v>
       </c>
       <c r="C22" s="36" t="s">
@@ -3722,12 +3765,12 @@
       <c r="E22" s="36" t="s">
         <v>361</v>
       </c>
-      <c r="F22" s="58">
+      <c r="F22" s="41">
         <v>43819</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="63" t="s">
+    <row r="23" spans="2:6">
+      <c r="B23" s="42" t="s">
         <v>301</v>
       </c>
       <c r="C23" s="36" t="s">
@@ -3739,11 +3782,11 @@
       <c r="E23" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="F23" s="58">
+      <c r="F23" s="41">
         <v>43791</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6">
       <c r="B24" s="20" t="s">
         <v>323</v>
       </c>
@@ -3754,10 +3797,10 @@
         <v>299</v>
       </c>
       <c r="E24" s="36"/>
-      <c r="F24" s="58"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="64" t="s">
+      <c r="F24" s="41"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="42" t="s">
         <v>359</v>
       </c>
       <c r="C25" s="36" t="s">
@@ -3766,24 +3809,32 @@
       <c r="D25" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="58"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="20" t="s">
-        <v>396</v>
+      <c r="E25" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="F25" s="41">
+        <v>43826</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="49" t="s">
+        <v>489</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D26" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="58"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="64" t="s">
+      <c r="E26" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="F26" s="41">
+        <v>43826</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="42" t="s">
         <v>357</v>
       </c>
       <c r="C27" s="36" t="s">
@@ -3792,11 +3843,15 @@
       <c r="D27" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="58"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="63" t="s">
+      <c r="E27" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="F27" s="41">
+        <v>43826</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="42" t="s">
         <v>320</v>
       </c>
       <c r="C28" s="36" t="s">
@@ -3808,12 +3863,12 @@
       <c r="E28" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F28" s="41">
         <v>43812</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="64" t="s">
+    <row r="29" spans="2:6">
+      <c r="B29" s="42" t="s">
         <v>354</v>
       </c>
       <c r="C29" s="36" t="s">
@@ -3822,23 +3877,27 @@
       <c r="D29" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="58"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E29" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="F29" s="41">
+        <v>43826</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="C30" s="36" t="s">
         <v>399</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>400</v>
       </c>
       <c r="D30" s="36" t="s">
         <v>299</v>
       </c>
       <c r="E30" s="36"/>
-      <c r="F30" s="58"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F30" s="41"/>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" s="20" t="s">
         <v>325</v>
       </c>
@@ -3849,9 +3908,9 @@
         <v>120</v>
       </c>
       <c r="E31" s="36"/>
-      <c r="F31" s="58"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F31" s="41"/>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" s="20" t="s">
         <v>302</v>
       </c>
@@ -3862,9 +3921,9 @@
         <v>11</v>
       </c>
       <c r="E32" s="36"/>
-      <c r="F32" s="58"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F32" s="41"/>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="20" t="s">
         <v>336</v>
       </c>
@@ -3875,22 +3934,22 @@
         <v>120</v>
       </c>
       <c r="E33" s="36"/>
-      <c r="F33" s="58"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F33" s="41"/>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="C34" s="36" t="s">
         <v>401</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>402</v>
       </c>
       <c r="D34" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E34" s="36"/>
-      <c r="F34" s="58"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F34" s="41"/>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="20" t="s">
         <v>327</v>
       </c>
@@ -3901,10 +3960,10 @@
         <v>329</v>
       </c>
       <c r="E35" s="36"/>
-      <c r="F35" s="58"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="63" t="s">
+      <c r="F35" s="41"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="42" t="s">
         <v>303</v>
       </c>
       <c r="C36" s="36" t="s">
@@ -3916,11 +3975,11 @@
       <c r="E36" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="F36" s="58">
+      <c r="F36" s="41">
         <v>43791</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6">
       <c r="B37" s="20" t="s">
         <v>292</v>
       </c>
@@ -3931,9 +3990,9 @@
         <v>120</v>
       </c>
       <c r="E37" s="36"/>
-      <c r="F37" s="58"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F37" s="41"/>
+    </row>
+    <row r="38" spans="2:6">
       <c r="B38" s="20" t="s">
         <v>305</v>
       </c>
@@ -3944,9 +4003,9 @@
         <v>11</v>
       </c>
       <c r="E38" s="36"/>
-      <c r="F38" s="58"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F38" s="41"/>
+    </row>
+    <row r="39" spans="2:6">
       <c r="B39" s="20" t="s">
         <v>304</v>
       </c>
@@ -3957,22 +4016,22 @@
         <v>11</v>
       </c>
       <c r="E39" s="36"/>
-      <c r="F39" s="58"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F39" s="41"/>
+    </row>
+    <row r="40" spans="2:6">
       <c r="B40" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="C40" s="36" t="s">
         <v>403</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>404</v>
       </c>
       <c r="D40" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E40" s="36"/>
-      <c r="F40" s="58"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F40" s="41"/>
+    </row>
+    <row r="41" spans="2:6">
       <c r="B41" s="20" t="s">
         <v>318</v>
       </c>
@@ -3983,9 +4042,9 @@
         <v>120</v>
       </c>
       <c r="E41" s="36"/>
-      <c r="F41" s="58"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F41" s="41"/>
+    </row>
+    <row r="42" spans="2:6">
       <c r="B42" s="20" t="s">
         <v>306</v>
       </c>
@@ -3996,9 +4055,9 @@
         <v>11</v>
       </c>
       <c r="E42" s="36"/>
-      <c r="F42" s="58"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F42" s="41"/>
+    </row>
+    <row r="43" spans="2:6">
       <c r="B43" s="20" t="s">
         <v>316</v>
       </c>
@@ -4009,9 +4068,9 @@
         <v>120</v>
       </c>
       <c r="E43" s="36"/>
-      <c r="F43" s="58"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F43" s="41"/>
+    </row>
+    <row r="44" spans="2:6">
       <c r="B44" s="20" t="s">
         <v>330</v>
       </c>
@@ -4022,48 +4081,48 @@
         <v>120</v>
       </c>
       <c r="E44" s="36"/>
-      <c r="F44" s="58"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F44" s="41"/>
+    </row>
+    <row r="45" spans="2:6">
       <c r="B45" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="C45" s="36" t="s">
         <v>405</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>406</v>
       </c>
       <c r="D45" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E45" s="36"/>
-      <c r="F45" s="58"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F45" s="41"/>
+    </row>
+    <row r="46" spans="2:6">
       <c r="B46" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="C46" s="36" t="s">
         <v>407</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>408</v>
       </c>
       <c r="D46" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E46" s="36"/>
-      <c r="F46" s="58"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F46" s="41"/>
+    </row>
+    <row r="47" spans="2:6">
       <c r="B47" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C47" s="36" t="s">
         <v>409</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>410</v>
       </c>
       <c r="D47" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E47" s="36"/>
-      <c r="F47" s="58"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F47" s="41"/>
+    </row>
+    <row r="48" spans="2:6">
       <c r="B48" s="20" t="s">
         <v>314</v>
       </c>
@@ -4074,9 +4133,9 @@
         <v>120</v>
       </c>
       <c r="E48" s="36"/>
-      <c r="F48" s="58"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F48" s="41"/>
+    </row>
+    <row r="49" spans="2:6">
       <c r="B49" s="20" t="s">
         <v>307</v>
       </c>
@@ -4087,9 +4146,9 @@
         <v>11</v>
       </c>
       <c r="E49" s="36"/>
-      <c r="F49" s="58"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F49" s="41"/>
+    </row>
+    <row r="50" spans="2:6">
       <c r="B50" s="20" t="s">
         <v>312</v>
       </c>
@@ -4100,23 +4159,23 @@
         <v>299</v>
       </c>
       <c r="E50" s="36"/>
-      <c r="F50" s="58"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F50" s="41"/>
+    </row>
+    <row r="51" spans="2:6">
       <c r="B51" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="C51" s="36" t="s">
         <v>411</v>
-      </c>
-      <c r="C51" s="36" t="s">
-        <v>412</v>
       </c>
       <c r="D51" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E51" s="36"/>
-      <c r="F51" s="58"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="63" t="s">
+      <c r="F51" s="41"/>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="42" t="s">
         <v>289</v>
       </c>
       <c r="C52" s="36" t="s">
@@ -4128,76 +4187,76 @@
       <c r="E52" s="36" t="s">
         <v>344</v>
       </c>
-      <c r="F52" s="58">
+      <c r="F52" s="41">
         <v>43791</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6">
       <c r="B53" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="C53" s="36" t="s">
         <v>413</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>414</v>
       </c>
       <c r="D53" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E53" s="36"/>
-      <c r="F53" s="58"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F53" s="41"/>
+    </row>
+    <row r="54" spans="2:6">
       <c r="B54" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="C54" s="36" t="s">
         <v>415</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>416</v>
       </c>
       <c r="D54" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E54" s="36"/>
-      <c r="F54" s="58"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F54" s="41"/>
+    </row>
+    <row r="55" spans="2:6">
       <c r="B55" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="C55" s="36" t="s">
         <v>417</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>418</v>
       </c>
       <c r="D55" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E55" s="36"/>
-      <c r="F55" s="58"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F55" s="41"/>
+    </row>
+    <row r="56" spans="2:6">
       <c r="B56" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="C56" s="36" t="s">
         <v>419</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>420</v>
       </c>
       <c r="D56" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E56" s="36"/>
-      <c r="F56" s="58"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F56" s="41"/>
+    </row>
+    <row r="57" spans="2:6">
       <c r="B57" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="C57" s="36" t="s">
         <v>421</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="D57" s="36" t="s">
         <v>422</v>
       </c>
-      <c r="D57" s="36" t="s">
-        <v>423</v>
-      </c>
       <c r="E57" s="36"/>
-      <c r="F57" s="58"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F57" s="41"/>
+    </row>
+    <row r="58" spans="2:6">
       <c r="B58" s="20" t="s">
         <v>308</v>
       </c>
@@ -4208,36 +4267,36 @@
         <v>11</v>
       </c>
       <c r="E58" s="36"/>
-      <c r="F58" s="58"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F58" s="41"/>
+    </row>
+    <row r="59" spans="2:6">
       <c r="B59" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="C59" s="36" t="s">
         <v>424</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>425</v>
       </c>
       <c r="D59" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E59" s="36"/>
-      <c r="F59" s="58"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F59" s="41"/>
+    </row>
+    <row r="60" spans="2:6">
       <c r="B60" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="C60" s="36" t="s">
         <v>426</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>427</v>
       </c>
       <c r="D60" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E60" s="36"/>
-      <c r="F60" s="58"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="63" t="s">
+      <c r="F60" s="41"/>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="42" t="s">
         <v>309</v>
       </c>
       <c r="C61" s="36" t="s">
@@ -4249,11 +4308,11 @@
       <c r="E61" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="F61" s="58">
+      <c r="F61" s="41">
         <v>43770</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6">
       <c r="B62" s="20" t="s">
         <v>338</v>
       </c>
@@ -4264,35 +4323,35 @@
         <v>120</v>
       </c>
       <c r="E62" s="36"/>
-      <c r="F62" s="58"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F62" s="41"/>
+    </row>
+    <row r="63" spans="2:6">
       <c r="B63" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="C63" s="36" t="s">
         <v>428</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>429</v>
       </c>
       <c r="D63" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E63" s="36"/>
-      <c r="F63" s="58"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F63" s="41"/>
+    </row>
+    <row r="64" spans="2:6">
       <c r="B64" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="C64" s="36" t="s">
         <v>430</v>
-      </c>
-      <c r="C64" s="36" t="s">
-        <v>431</v>
       </c>
       <c r="D64" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E64" s="36"/>
-      <c r="F64" s="58"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F64" s="41"/>
+    </row>
+    <row r="65" spans="2:6">
       <c r="B65" s="20" t="s">
         <v>332</v>
       </c>
@@ -4303,23 +4362,23 @@
         <v>120</v>
       </c>
       <c r="E65" s="36"/>
-      <c r="F65" s="58"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F65" s="41"/>
+    </row>
+    <row r="66" spans="2:6">
       <c r="B66" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="C66" s="36" t="s">
         <v>432</v>
-      </c>
-      <c r="C66" s="36" t="s">
-        <v>433</v>
       </c>
       <c r="D66" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E66" s="36"/>
-      <c r="F66" s="58"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="63" t="s">
+      <c r="F66" s="41"/>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="42" t="s">
         <v>286</v>
       </c>
       <c r="C67" s="36" t="s">
@@ -4331,11 +4390,11 @@
       <c r="E67" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="F67" s="58">
+      <c r="F67" s="41">
         <v>43791</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6">
       <c r="B68" s="20" t="s">
         <v>300</v>
       </c>
@@ -4346,22 +4405,22 @@
         <v>11</v>
       </c>
       <c r="E68" s="36"/>
-      <c r="F68" s="58"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F68" s="41"/>
+    </row>
+    <row r="69" spans="2:6">
       <c r="B69" s="20" t="s">
         <v>310</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D69" s="36" t="s">
         <v>270</v>
       </c>
       <c r="E69" s="36"/>
-      <c r="F69" s="58"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F69" s="41"/>
+    </row>
+    <row r="70" spans="2:6">
       <c r="B70" s="20" t="s">
         <v>311</v>
       </c>
@@ -4372,23 +4431,23 @@
         <v>11</v>
       </c>
       <c r="E70" s="36"/>
-      <c r="F70" s="58"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F70" s="41"/>
+    </row>
+    <row r="71" spans="2:6">
       <c r="B71" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="C71" s="36" t="s">
         <v>435</v>
-      </c>
-      <c r="C71" s="36" t="s">
-        <v>436</v>
       </c>
       <c r="D71" s="36" t="s">
         <v>299</v>
       </c>
       <c r="E71" s="36"/>
-      <c r="F71" s="58"/>
-    </row>
-    <row r="72" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="65" t="s">
+      <c r="F71" s="41"/>
+    </row>
+    <row r="72" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B72" s="43" t="s">
         <v>262</v>
       </c>
       <c r="C72" s="13" t="s">
@@ -4398,24 +4457,24 @@
         <v>264</v>
       </c>
       <c r="E72" s="13"/>
-      <c r="F72" s="66"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F72" s="44"/>
+    </row>
+    <row r="73" spans="2:6">
       <c r="B73" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="C73" s="36" t="s">
         <v>437</v>
-      </c>
-      <c r="C73" s="36" t="s">
-        <v>438</v>
       </c>
       <c r="D73" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E73" s="36"/>
-      <c r="F73" s="58"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F73" s="41"/>
+    </row>
+    <row r="74" spans="2:6">
       <c r="B74" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C74" s="36" t="s">
         <v>273</v>
@@ -4424,9 +4483,9 @@
         <v>329</v>
       </c>
       <c r="E74" s="36"/>
-      <c r="F74" s="58"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F74" s="41"/>
+    </row>
+    <row r="75" spans="2:6">
       <c r="B75" s="20" t="s">
         <v>334</v>
       </c>
@@ -4437,9 +4496,9 @@
         <v>120</v>
       </c>
       <c r="E75" s="36"/>
-      <c r="F75" s="58"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F75" s="41"/>
+    </row>
+    <row r="76" spans="2:6">
       <c r="B76" s="20" t="s">
         <v>269</v>
       </c>
@@ -4450,10 +4509,10 @@
         <v>270</v>
       </c>
       <c r="E76" s="36"/>
-      <c r="F76" s="58"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="65" t="s">
+      <c r="F76" s="41"/>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="43" t="s">
         <v>259</v>
       </c>
       <c r="C77" s="13" t="s">
@@ -4463,9 +4522,9 @@
         <v>11</v>
       </c>
       <c r="E77" s="13"/>
-      <c r="F77" s="66"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F77" s="44"/>
+    </row>
+    <row r="78" spans="2:6">
       <c r="B78" s="20" t="s">
         <v>268</v>
       </c>
@@ -4476,10 +4535,10 @@
         <v>11</v>
       </c>
       <c r="E78" s="36"/>
-      <c r="F78" s="58"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="63" t="s">
+      <c r="F78" s="41"/>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="42" t="s">
         <v>111</v>
       </c>
       <c r="C79" s="36" t="s">
@@ -4491,11 +4550,11 @@
       <c r="E79" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="F79" s="58">
+      <c r="F79" s="41">
         <v>43819</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6">
       <c r="B80" s="20" t="s">
         <v>295</v>
       </c>
@@ -4506,9 +4565,9 @@
         <v>120</v>
       </c>
       <c r="E80" s="36"/>
-      <c r="F80" s="58"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F80" s="41"/>
+    </row>
+    <row r="81" spans="2:6">
       <c r="B81" s="20" t="s">
         <v>297</v>
       </c>
@@ -4519,37 +4578,37 @@
         <v>120</v>
       </c>
       <c r="E81" s="36"/>
-      <c r="F81" s="58"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F81" s="41"/>
+    </row>
+    <row r="82" spans="2:6">
       <c r="B82" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="C82" s="36" t="s">
         <v>440</v>
-      </c>
-      <c r="C82" s="36" t="s">
-        <v>441</v>
       </c>
       <c r="D82" s="36" t="s">
         <v>322</v>
       </c>
       <c r="E82" s="36"/>
-      <c r="F82" s="58"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F82" s="41"/>
+    </row>
+    <row r="83" spans="2:6">
       <c r="B83" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C83" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="D83" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="D83" s="36" t="s">
-        <v>443</v>
-      </c>
       <c r="E83" s="36"/>
-      <c r="F83" s="58"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="65" t="s">
-        <v>486</v>
+      <c r="F83" s="41"/>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" s="43" t="s">
+        <v>485</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>212</v>
@@ -4558,22 +4617,22 @@
         <v>11</v>
       </c>
       <c r="E84" s="13"/>
-      <c r="F84" s="66"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F84" s="44"/>
+    </row>
+    <row r="85" spans="2:6">
       <c r="B85" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="C85" s="36" t="s">
         <v>445</v>
-      </c>
-      <c r="C85" s="36" t="s">
-        <v>446</v>
       </c>
       <c r="D85" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E85" s="36"/>
-      <c r="F85" s="58"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F85" s="41"/>
+    </row>
+    <row r="86" spans="2:6">
       <c r="B86" s="20" t="s">
         <v>236</v>
       </c>
@@ -4584,9 +4643,9 @@
         <v>11</v>
       </c>
       <c r="E86" s="36"/>
-      <c r="F86" s="67"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F86" s="45"/>
+    </row>
+    <row r="87" spans="2:6">
       <c r="B87" s="20" t="s">
         <v>98</v>
       </c>
@@ -4597,36 +4656,36 @@
         <v>11</v>
       </c>
       <c r="E87" s="36"/>
-      <c r="F87" s="58"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F87" s="41"/>
+    </row>
+    <row r="88" spans="2:6">
       <c r="B88" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="C88" s="36" t="s">
         <v>447</v>
-      </c>
-      <c r="C88" s="36" t="s">
-        <v>448</v>
       </c>
       <c r="D88" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E88" s="36"/>
-      <c r="F88" s="58"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F88" s="41"/>
+    </row>
+    <row r="89" spans="2:6">
       <c r="B89" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="C89" s="36" t="s">
         <v>449</v>
       </c>
-      <c r="C89" s="36" t="s">
+      <c r="D89" s="36" t="s">
         <v>450</v>
       </c>
-      <c r="D89" s="36" t="s">
-        <v>451</v>
-      </c>
       <c r="E89" s="36"/>
-      <c r="F89" s="58"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B90" s="63" t="s">
+      <c r="F89" s="41"/>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" s="42" t="s">
         <v>4</v>
       </c>
       <c r="C90" s="36" t="s">
@@ -4638,24 +4697,24 @@
       <c r="E90" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="F90" s="58">
+      <c r="F90" s="41">
         <v>43763</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:6">
       <c r="B91" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="C91" s="36" t="s">
         <v>452</v>
-      </c>
-      <c r="C91" s="36" t="s">
-        <v>453</v>
       </c>
       <c r="D91" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E91" s="36"/>
-      <c r="F91" s="58"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F91" s="41"/>
+    </row>
+    <row r="92" spans="2:6">
       <c r="B92" s="20" t="s">
         <v>6</v>
       </c>
@@ -4666,9 +4725,9 @@
         <v>11</v>
       </c>
       <c r="E92" s="36"/>
-      <c r="F92" s="58"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F92" s="41"/>
+    </row>
+    <row r="93" spans="2:6">
       <c r="B93" s="20" t="s">
         <v>213</v>
       </c>
@@ -4679,11 +4738,11 @@
         <v>215</v>
       </c>
       <c r="E93" s="36"/>
-      <c r="F93" s="58"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B94" s="68" t="s">
-        <v>487</v>
+      <c r="F93" s="41"/>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="46" t="s">
+        <v>486</v>
       </c>
       <c r="C94" s="39" t="s">
         <v>114</v>
@@ -4694,11 +4753,11 @@
       <c r="E94" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="F94" s="66">
+      <c r="F94" s="44">
         <v>43763</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:6">
       <c r="B95" s="20" t="s">
         <v>116</v>
       </c>
@@ -4709,9 +4768,9 @@
         <v>115</v>
       </c>
       <c r="E95" s="36"/>
-      <c r="F95" s="58"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F95" s="41"/>
+    </row>
+    <row r="96" spans="2:6">
       <c r="B96" s="20" t="s">
         <v>118</v>
       </c>
@@ -4722,9 +4781,9 @@
         <v>120</v>
       </c>
       <c r="E96" s="36"/>
-      <c r="F96" s="58"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F96" s="41"/>
+    </row>
+    <row r="97" spans="2:6">
       <c r="B97" s="20" t="s">
         <v>12</v>
       </c>
@@ -4735,9 +4794,9 @@
         <v>11</v>
       </c>
       <c r="E97" s="36"/>
-      <c r="F97" s="58"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F97" s="41"/>
+    </row>
+    <row r="98" spans="2:6">
       <c r="B98" s="20" t="s">
         <v>9</v>
       </c>
@@ -4748,9 +4807,9 @@
         <v>11</v>
       </c>
       <c r="E98" s="36"/>
-      <c r="F98" s="58"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F98" s="41"/>
+    </row>
+    <row r="99" spans="2:6">
       <c r="B99" s="20" t="s">
         <v>14</v>
       </c>
@@ -4761,9 +4820,9 @@
         <v>11</v>
       </c>
       <c r="E99" s="36"/>
-      <c r="F99" s="58"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F99" s="41"/>
+    </row>
+    <row r="100" spans="2:6">
       <c r="B100" s="20" t="s">
         <v>100</v>
       </c>
@@ -4774,10 +4833,10 @@
         <v>11</v>
       </c>
       <c r="E100" s="36"/>
-      <c r="F100" s="58"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B101" s="63" t="s">
+      <c r="F100" s="41"/>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" s="42" t="s">
         <v>252</v>
       </c>
       <c r="C101" s="36" t="s">
@@ -4789,11 +4848,11 @@
       <c r="E101" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="F101" s="58">
+      <c r="F101" s="41">
         <v>43728</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:6">
       <c r="B102" s="20" t="s">
         <v>189</v>
       </c>
@@ -4804,9 +4863,9 @@
         <v>83</v>
       </c>
       <c r="E102" s="36"/>
-      <c r="F102" s="58"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F102" s="41"/>
+    </row>
+    <row r="103" spans="2:6">
       <c r="B103" s="20" t="s">
         <v>191</v>
       </c>
@@ -4817,9 +4876,9 @@
         <v>193</v>
       </c>
       <c r="E103" s="36"/>
-      <c r="F103" s="58"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F103" s="41"/>
+    </row>
+    <row r="104" spans="2:6">
       <c r="B104" s="20" t="s">
         <v>122</v>
       </c>
@@ -4830,10 +4889,10 @@
         <v>11</v>
       </c>
       <c r="E104" s="36"/>
-      <c r="F104" s="58"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B105" s="63" t="s">
+      <c r="F104" s="41"/>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105" s="42" t="s">
         <v>194</v>
       </c>
       <c r="C105" s="36" t="s">
@@ -4845,11 +4904,11 @@
       <c r="E105" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="F105" s="58">
+      <c r="F105" s="41">
         <v>43735</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:6">
       <c r="B106" s="20" t="s">
         <v>124</v>
       </c>
@@ -4860,9 +4919,9 @@
         <v>126</v>
       </c>
       <c r="E106" s="36"/>
-      <c r="F106" s="58"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F106" s="41"/>
+    </row>
+    <row r="107" spans="2:6">
       <c r="B107" s="20" t="s">
         <v>16</v>
       </c>
@@ -4873,10 +4932,10 @@
         <v>11</v>
       </c>
       <c r="E107" s="36"/>
-      <c r="F107" s="58"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B108" s="63" t="s">
+      <c r="F107" s="41"/>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108" s="42" t="s">
         <v>127</v>
       </c>
       <c r="C108" s="36" t="s">
@@ -4888,11 +4947,11 @@
       <c r="E108" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="F108" s="58">
+      <c r="F108" s="41">
         <v>43791</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:6">
       <c r="B109" s="20" t="s">
         <v>102</v>
       </c>
@@ -4903,10 +4962,10 @@
         <v>11</v>
       </c>
       <c r="E109" s="36"/>
-      <c r="F109" s="58"/>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B110" s="63" t="s">
+      <c r="F109" s="41"/>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" s="42" t="s">
         <v>18</v>
       </c>
       <c r="C110" s="36" t="s">
@@ -4916,13 +4975,13 @@
         <v>11</v>
       </c>
       <c r="E110" s="36" t="s">
-        <v>488</v>
-      </c>
-      <c r="F110" s="58">
+        <v>487</v>
+      </c>
+      <c r="F110" s="41">
         <v>43826</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:6">
       <c r="B111" s="20" t="s">
         <v>196</v>
       </c>
@@ -4933,9 +4992,9 @@
         <v>193</v>
       </c>
       <c r="E111" s="36"/>
-      <c r="F111" s="58"/>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F111" s="41"/>
+    </row>
+    <row r="112" spans="2:6">
       <c r="B112" s="20" t="s">
         <v>129</v>
       </c>
@@ -4946,23 +5005,23 @@
         <v>11</v>
       </c>
       <c r="E112" s="36"/>
-      <c r="F112" s="58"/>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F112" s="41"/>
+    </row>
+    <row r="113" spans="2:6">
       <c r="B113" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="C113" s="36" t="s">
         <v>454</v>
       </c>
-      <c r="C113" s="36" t="s">
+      <c r="D113" s="36" t="s">
         <v>455</v>
       </c>
-      <c r="D113" s="36" t="s">
-        <v>456</v>
-      </c>
       <c r="E113" s="36"/>
-      <c r="F113" s="58"/>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B114" s="63" t="s">
+      <c r="F113" s="41"/>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" s="42" t="s">
         <v>20</v>
       </c>
       <c r="C114" s="36" t="s">
@@ -4974,12 +5033,12 @@
       <c r="E114" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="F114" s="58">
+      <c r="F114" s="41">
         <v>43812</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B115" s="63" t="s">
+    <row r="115" spans="2:6">
+      <c r="B115" s="42" t="s">
         <v>253</v>
       </c>
       <c r="C115" s="36" t="s">
@@ -4991,11 +5050,11 @@
       <c r="E115" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="F115" s="58">
+      <c r="F115" s="41">
         <v>43728</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:6">
       <c r="B116" s="20" t="s">
         <v>22</v>
       </c>
@@ -5006,9 +5065,9 @@
         <v>24</v>
       </c>
       <c r="E116" s="36"/>
-      <c r="F116" s="58"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F116" s="41"/>
+    </row>
+    <row r="117" spans="2:6">
       <c r="B117" s="20" t="s">
         <v>216</v>
       </c>
@@ -5019,11 +5078,11 @@
         <v>11</v>
       </c>
       <c r="E117" s="36"/>
-      <c r="F117" s="58"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F117" s="41"/>
+    </row>
+    <row r="118" spans="2:6">
       <c r="B118" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C118" s="36" t="s">
         <v>78</v>
@@ -5032,9 +5091,9 @@
         <v>120</v>
       </c>
       <c r="E118" s="36"/>
-      <c r="F118" s="58"/>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F118" s="41"/>
+    </row>
+    <row r="119" spans="2:6">
       <c r="B119" s="20" t="s">
         <v>27</v>
       </c>
@@ -5045,9 +5104,9 @@
         <v>11</v>
       </c>
       <c r="E119" s="36"/>
-      <c r="F119" s="58"/>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F119" s="41"/>
+    </row>
+    <row r="120" spans="2:6">
       <c r="B120" s="20" t="s">
         <v>25</v>
       </c>
@@ -5058,9 +5117,9 @@
         <v>11</v>
       </c>
       <c r="E120" s="36"/>
-      <c r="F120" s="58"/>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F120" s="41"/>
+    </row>
+    <row r="121" spans="2:6">
       <c r="B121" s="20" t="s">
         <v>29</v>
       </c>
@@ -5071,10 +5130,10 @@
         <v>11</v>
       </c>
       <c r="E121" s="36"/>
-      <c r="F121" s="58"/>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B122" s="63" t="s">
+      <c r="F121" s="41"/>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="B122" s="42" t="s">
         <v>132</v>
       </c>
       <c r="C122" s="36" t="s">
@@ -5086,63 +5145,63 @@
       <c r="E122" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="F122" s="58">
+      <c r="F122" s="41">
         <v>43798</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:6">
       <c r="B123" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="C123" s="36" t="s">
         <v>458</v>
-      </c>
-      <c r="C123" s="36" t="s">
-        <v>459</v>
       </c>
       <c r="D123" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E123" s="36"/>
-      <c r="F123" s="58"/>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F123" s="41"/>
+    </row>
+    <row r="124" spans="2:6">
       <c r="B124" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="C124" s="36" t="s">
         <v>460</v>
-      </c>
-      <c r="C124" s="36" t="s">
-        <v>461</v>
       </c>
       <c r="D124" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E124" s="36"/>
-      <c r="F124" s="58"/>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F124" s="41"/>
+    </row>
+    <row r="125" spans="2:6">
       <c r="B125" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="C125" s="36" t="s">
         <v>462</v>
-      </c>
-      <c r="C125" s="36" t="s">
-        <v>463</v>
       </c>
       <c r="D125" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E125" s="36"/>
-      <c r="F125" s="58"/>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F125" s="41"/>
+    </row>
+    <row r="126" spans="2:6">
       <c r="B126" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="C126" s="36" t="s">
         <v>464</v>
-      </c>
-      <c r="C126" s="36" t="s">
-        <v>465</v>
       </c>
       <c r="D126" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E126" s="36"/>
-      <c r="F126" s="58"/>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F126" s="41"/>
+    </row>
+    <row r="127" spans="2:6">
       <c r="B127" s="20" t="s">
         <v>238</v>
       </c>
@@ -5153,22 +5212,22 @@
         <v>11</v>
       </c>
       <c r="E127" s="36"/>
-      <c r="F127" s="58"/>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F127" s="41"/>
+    </row>
+    <row r="128" spans="2:6">
       <c r="B128" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="C128" s="36" t="s">
         <v>466</v>
-      </c>
-      <c r="C128" s="36" t="s">
-        <v>467</v>
       </c>
       <c r="D128" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E128" s="36"/>
-      <c r="F128" s="58"/>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F128" s="41"/>
+    </row>
+    <row r="129" spans="2:6">
       <c r="B129" s="20" t="s">
         <v>34</v>
       </c>
@@ -5179,9 +5238,9 @@
         <v>11</v>
       </c>
       <c r="E129" s="36"/>
-      <c r="F129" s="58"/>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F129" s="41"/>
+    </row>
+    <row r="130" spans="2:6">
       <c r="B130" s="20" t="s">
         <v>218</v>
       </c>
@@ -5192,9 +5251,9 @@
         <v>11</v>
       </c>
       <c r="E130" s="36"/>
-      <c r="F130" s="58"/>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F130" s="41"/>
+    </row>
+    <row r="131" spans="2:6">
       <c r="B131" s="20" t="s">
         <v>32</v>
       </c>
@@ -5205,9 +5264,9 @@
         <v>11</v>
       </c>
       <c r="E131" s="38"/>
-      <c r="F131" s="58"/>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F131" s="41"/>
+    </row>
+    <row r="132" spans="2:6">
       <c r="B132" s="20" t="s">
         <v>38</v>
       </c>
@@ -5218,9 +5277,9 @@
         <v>11</v>
       </c>
       <c r="E132" s="36"/>
-      <c r="F132" s="58"/>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F132" s="41"/>
+    </row>
+    <row r="133" spans="2:6">
       <c r="B133" s="20" t="s">
         <v>36</v>
       </c>
@@ -5231,9 +5290,9 @@
         <v>11</v>
       </c>
       <c r="E133" s="36"/>
-      <c r="F133" s="58"/>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F133" s="41"/>
+    </row>
+    <row r="134" spans="2:6">
       <c r="B134" s="20" t="s">
         <v>40</v>
       </c>
@@ -5244,9 +5303,9 @@
         <v>11</v>
       </c>
       <c r="E134" s="36"/>
-      <c r="F134" s="58"/>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F134" s="41"/>
+    </row>
+    <row r="135" spans="2:6">
       <c r="B135" s="20" t="s">
         <v>198</v>
       </c>
@@ -5257,9 +5316,9 @@
         <v>11</v>
       </c>
       <c r="E135" s="36"/>
-      <c r="F135" s="58"/>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F135" s="41"/>
+    </row>
+    <row r="136" spans="2:6">
       <c r="B136" s="20" t="s">
         <v>177</v>
       </c>
@@ -5270,9 +5329,9 @@
         <v>11</v>
       </c>
       <c r="E136" s="36"/>
-      <c r="F136" s="58"/>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F136" s="41"/>
+    </row>
+    <row r="137" spans="2:6">
       <c r="B137" s="20" t="s">
         <v>220</v>
       </c>
@@ -5283,22 +5342,22 @@
         <v>11</v>
       </c>
       <c r="E137" s="36"/>
-      <c r="F137" s="58"/>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F137" s="41"/>
+    </row>
+    <row r="138" spans="2:6">
       <c r="B138" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="C138" s="36" t="s">
         <v>468</v>
-      </c>
-      <c r="C138" s="36" t="s">
-        <v>469</v>
       </c>
       <c r="D138" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E138" s="36"/>
-      <c r="F138" s="58"/>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F138" s="41"/>
+    </row>
+    <row r="139" spans="2:6">
       <c r="B139" s="20" t="s">
         <v>42</v>
       </c>
@@ -5309,22 +5368,22 @@
         <v>11</v>
       </c>
       <c r="E139" s="36"/>
-      <c r="F139" s="58"/>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F139" s="41"/>
+    </row>
+    <row r="140" spans="2:6">
       <c r="B140" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="C140" s="36" t="s">
         <v>470</v>
-      </c>
-      <c r="C140" s="36" t="s">
-        <v>471</v>
       </c>
       <c r="D140" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E140" s="36"/>
-      <c r="F140" s="58"/>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F140" s="41"/>
+    </row>
+    <row r="141" spans="2:6">
       <c r="B141" s="20" t="s">
         <v>44</v>
       </c>
@@ -5335,22 +5394,22 @@
         <v>11</v>
       </c>
       <c r="E141" s="36"/>
-      <c r="F141" s="58"/>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F141" s="41"/>
+    </row>
+    <row r="142" spans="2:6">
       <c r="B142" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="C142" s="36" t="s">
         <v>472</v>
-      </c>
-      <c r="C142" s="36" t="s">
-        <v>473</v>
       </c>
       <c r="D142" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E142" s="36"/>
-      <c r="F142" s="58"/>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F142" s="41"/>
+    </row>
+    <row r="143" spans="2:6">
       <c r="B143" s="20" t="s">
         <v>46</v>
       </c>
@@ -5361,10 +5420,10 @@
         <v>48</v>
       </c>
       <c r="E143" s="36"/>
-      <c r="F143" s="58"/>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B144" s="63" t="s">
+      <c r="F143" s="41"/>
+    </row>
+    <row r="144" spans="2:6">
+      <c r="B144" s="42" t="s">
         <v>200</v>
       </c>
       <c r="C144" s="36" t="s">
@@ -5376,11 +5435,11 @@
       <c r="E144" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="F144" s="58">
+      <c r="F144" s="41">
         <v>43735</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:6">
       <c r="B145" s="20" t="s">
         <v>134</v>
       </c>
@@ -5391,9 +5450,9 @@
         <v>136</v>
       </c>
       <c r="E145" s="36"/>
-      <c r="F145" s="58"/>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F145" s="41"/>
+    </row>
+    <row r="146" spans="2:6">
       <c r="B146" s="20" t="s">
         <v>49</v>
       </c>
@@ -5404,9 +5463,9 @@
         <v>24</v>
       </c>
       <c r="E146" s="36"/>
-      <c r="F146" s="58"/>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F146" s="41"/>
+    </row>
+    <row r="147" spans="2:6">
       <c r="B147" s="20" t="s">
         <v>137</v>
       </c>
@@ -5417,23 +5476,23 @@
         <v>11</v>
       </c>
       <c r="E147" s="36"/>
-      <c r="F147" s="58"/>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F147" s="41"/>
+    </row>
+    <row r="148" spans="2:6">
       <c r="B148" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C148" s="36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D148" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E148" s="36"/>
-      <c r="F148" s="58"/>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B149" s="63" t="s">
+      <c r="F148" s="41"/>
+    </row>
+    <row r="149" spans="2:6">
+      <c r="B149" s="42" t="s">
         <v>51</v>
       </c>
       <c r="C149" s="36" t="s">
@@ -5445,11 +5504,11 @@
       <c r="E149" s="36" t="s">
         <v>362</v>
       </c>
-      <c r="F149" s="58">
+      <c r="F149" s="41">
         <v>43819</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:6">
       <c r="B150" s="20" t="s">
         <v>202</v>
       </c>
@@ -5460,9 +5519,9 @@
         <v>24</v>
       </c>
       <c r="E150" s="36"/>
-      <c r="F150" s="58"/>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F150" s="41"/>
+    </row>
+    <row r="151" spans="2:6">
       <c r="B151" s="20" t="s">
         <v>53</v>
       </c>
@@ -5473,9 +5532,9 @@
         <v>11</v>
       </c>
       <c r="E151" s="36"/>
-      <c r="F151" s="58"/>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F151" s="41"/>
+    </row>
+    <row r="152" spans="2:6">
       <c r="B152" s="20" t="s">
         <v>222</v>
       </c>
@@ -5486,9 +5545,9 @@
         <v>11</v>
       </c>
       <c r="E152" s="36"/>
-      <c r="F152" s="58"/>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F152" s="41"/>
+    </row>
+    <row r="153" spans="2:6">
       <c r="B153" s="20" t="s">
         <v>185</v>
       </c>
@@ -5499,9 +5558,9 @@
         <v>90</v>
       </c>
       <c r="E153" s="36"/>
-      <c r="F153" s="58"/>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F153" s="41"/>
+    </row>
+    <row r="154" spans="2:6">
       <c r="B154" s="20" t="s">
         <v>139</v>
       </c>
@@ -5512,9 +5571,9 @@
         <v>11</v>
       </c>
       <c r="E154" s="36"/>
-      <c r="F154" s="58"/>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F154" s="41"/>
+    </row>
+    <row r="155" spans="2:6">
       <c r="B155" s="20" t="s">
         <v>141</v>
       </c>
@@ -5525,9 +5584,9 @@
         <v>90</v>
       </c>
       <c r="E155" s="36"/>
-      <c r="F155" s="58"/>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F155" s="41"/>
+    </row>
+    <row r="156" spans="2:6">
       <c r="B156" s="20" t="s">
         <v>55</v>
       </c>
@@ -5538,9 +5597,9 @@
         <v>11</v>
       </c>
       <c r="E156" s="36"/>
-      <c r="F156" s="58"/>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F156" s="41"/>
+    </row>
+    <row r="157" spans="2:6">
       <c r="B157" s="20" t="s">
         <v>57</v>
       </c>
@@ -5551,10 +5610,10 @@
         <v>11</v>
       </c>
       <c r="E157" s="36"/>
-      <c r="F157" s="58"/>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B158" s="63" t="s">
+      <c r="F157" s="41"/>
+    </row>
+    <row r="158" spans="2:6">
+      <c r="B158" s="42" t="s">
         <v>66</v>
       </c>
       <c r="C158" s="36" t="s">
@@ -5566,11 +5625,11 @@
       <c r="E158" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="F158" s="58">
+      <c r="F158" s="41">
         <v>43798</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:6">
       <c r="B159" s="20" t="s">
         <v>104</v>
       </c>
@@ -5581,10 +5640,10 @@
         <v>11</v>
       </c>
       <c r="E159" s="36"/>
-      <c r="F159" s="58"/>
-    </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B160" s="63" t="s">
+      <c r="F159" s="41"/>
+    </row>
+    <row r="160" spans="2:6">
+      <c r="B160" s="42" t="s">
         <v>143</v>
       </c>
       <c r="C160" s="36" t="s">
@@ -5596,11 +5655,11 @@
       <c r="E160" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="F160" s="58">
+      <c r="F160" s="41">
         <v>43735</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:6">
       <c r="B161" s="20" t="s">
         <v>65</v>
       </c>
@@ -5611,9 +5670,9 @@
         <v>11</v>
       </c>
       <c r="E161" s="36"/>
-      <c r="F161" s="58"/>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F161" s="41"/>
+    </row>
+    <row r="162" spans="2:6">
       <c r="B162" s="20" t="s">
         <v>145</v>
       </c>
@@ -5624,9 +5683,9 @@
         <v>115</v>
       </c>
       <c r="E162" s="36"/>
-      <c r="F162" s="58"/>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F162" s="41"/>
+    </row>
+    <row r="163" spans="2:6">
       <c r="B163" s="20" t="s">
         <v>187</v>
       </c>
@@ -5637,9 +5696,9 @@
         <v>11</v>
       </c>
       <c r="E163" s="36"/>
-      <c r="F163" s="58"/>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F163" s="41"/>
+    </row>
+    <row r="164" spans="2:6">
       <c r="B164" s="20" t="s">
         <v>64</v>
       </c>
@@ -5650,9 +5709,9 @@
         <v>11</v>
       </c>
       <c r="E164" s="36"/>
-      <c r="F164" s="58"/>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F164" s="41"/>
+    </row>
+    <row r="165" spans="2:6">
       <c r="B165" s="20" t="s">
         <v>204</v>
       </c>
@@ -5663,9 +5722,9 @@
         <v>48</v>
       </c>
       <c r="E165" s="36"/>
-      <c r="F165" s="58"/>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F165" s="41"/>
+    </row>
+    <row r="166" spans="2:6">
       <c r="B166" s="20" t="s">
         <v>147</v>
       </c>
@@ -5676,9 +5735,9 @@
         <v>149</v>
       </c>
       <c r="E166" s="36"/>
-      <c r="F166" s="58"/>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F166" s="41"/>
+    </row>
+    <row r="167" spans="2:6">
       <c r="B167" s="20" t="s">
         <v>63</v>
       </c>
@@ -5689,9 +5748,9 @@
         <v>11</v>
       </c>
       <c r="E167" s="36"/>
-      <c r="F167" s="58"/>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F167" s="41"/>
+    </row>
+    <row r="168" spans="2:6">
       <c r="B168" s="20" t="s">
         <v>69</v>
       </c>
@@ -5702,9 +5761,9 @@
         <v>24</v>
       </c>
       <c r="E168" s="36"/>
-      <c r="F168" s="58"/>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F168" s="41"/>
+    </row>
+    <row r="169" spans="2:6">
       <c r="B169" s="20" t="s">
         <v>71</v>
       </c>
@@ -5715,9 +5774,9 @@
         <v>11</v>
       </c>
       <c r="E169" s="36"/>
-      <c r="F169" s="58"/>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F169" s="41"/>
+    </row>
+    <row r="170" spans="2:6">
       <c r="B170" s="20" t="s">
         <v>179</v>
       </c>
@@ -5728,22 +5787,22 @@
         <v>90</v>
       </c>
       <c r="E170" s="36"/>
-      <c r="F170" s="58"/>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F170" s="41"/>
+    </row>
+    <row r="171" spans="2:6">
       <c r="B171" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="C171" s="36" t="s">
         <v>475</v>
-      </c>
-      <c r="C171" s="36" t="s">
-        <v>476</v>
       </c>
       <c r="D171" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E171" s="36"/>
-      <c r="F171" s="58"/>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F171" s="41"/>
+    </row>
+    <row r="172" spans="2:6">
       <c r="B172" s="20" t="s">
         <v>150</v>
       </c>
@@ -5754,9 +5813,9 @@
         <v>11</v>
       </c>
       <c r="E172" s="36"/>
-      <c r="F172" s="58"/>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F172" s="41"/>
+    </row>
+    <row r="173" spans="2:6">
       <c r="B173" s="20" t="s">
         <v>106</v>
       </c>
@@ -5767,9 +5826,9 @@
         <v>11</v>
       </c>
       <c r="E173" s="36"/>
-      <c r="F173" s="58"/>
-    </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F173" s="41"/>
+    </row>
+    <row r="174" spans="2:6">
       <c r="B174" s="20" t="s">
         <v>152</v>
       </c>
@@ -5780,9 +5839,9 @@
         <v>126</v>
       </c>
       <c r="E174" s="36"/>
-      <c r="F174" s="58"/>
-    </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F174" s="41"/>
+    </row>
+    <row r="175" spans="2:6">
       <c r="B175" s="20" t="s">
         <v>75</v>
       </c>
@@ -5793,9 +5852,9 @@
         <v>11</v>
       </c>
       <c r="E175" s="36"/>
-      <c r="F175" s="58"/>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F175" s="41"/>
+    </row>
+    <row r="176" spans="2:6">
       <c r="B176" s="20" t="s">
         <v>73</v>
       </c>
@@ -5806,23 +5865,23 @@
         <v>11</v>
       </c>
       <c r="E176" s="36"/>
-      <c r="F176" s="58"/>
-    </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F176" s="41"/>
+    </row>
+    <row r="177" spans="2:6">
       <c r="B177" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="C177" s="36" t="s">
         <v>477</v>
-      </c>
-      <c r="C177" s="36" t="s">
-        <v>478</v>
       </c>
       <c r="D177" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E177" s="36"/>
-      <c r="F177" s="58"/>
-    </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B178" s="63" t="s">
+      <c r="F177" s="41"/>
+    </row>
+    <row r="178" spans="2:6">
+      <c r="B178" s="42" t="s">
         <v>254</v>
       </c>
       <c r="C178" s="36" t="s">
@@ -5834,11 +5893,11 @@
       <c r="E178" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="F178" s="58">
+      <c r="F178" s="41">
         <v>43728</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:6">
       <c r="B179" s="20" t="s">
         <v>154</v>
       </c>
@@ -5849,9 +5908,9 @@
         <v>11</v>
       </c>
       <c r="E179" s="36"/>
-      <c r="F179" s="58"/>
-    </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F179" s="41"/>
+    </row>
+    <row r="180" spans="2:6">
       <c r="B180" s="20" t="s">
         <v>181</v>
       </c>
@@ -5862,9 +5921,9 @@
         <v>11</v>
       </c>
       <c r="E180" s="36"/>
-      <c r="F180" s="58"/>
-    </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F180" s="41"/>
+    </row>
+    <row r="181" spans="2:6">
       <c r="B181" s="20" t="s">
         <v>156</v>
       </c>
@@ -5875,9 +5934,9 @@
         <v>11</v>
       </c>
       <c r="E181" s="36"/>
-      <c r="F181" s="58"/>
-    </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F181" s="41"/>
+    </row>
+    <row r="182" spans="2:6">
       <c r="B182" s="20" t="s">
         <v>158</v>
       </c>
@@ -5888,10 +5947,10 @@
         <v>11</v>
       </c>
       <c r="E182" s="36"/>
-      <c r="F182" s="58"/>
-    </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B183" s="63" t="s">
+      <c r="F182" s="41"/>
+    </row>
+    <row r="183" spans="2:6">
+      <c r="B183" s="42" t="s">
         <v>348</v>
       </c>
       <c r="C183" s="36" t="s">
@@ -5903,11 +5962,11 @@
       <c r="E183" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="F183" s="58">
+      <c r="F183" s="41">
         <v>43791</v>
       </c>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:6">
       <c r="B184" s="20" t="s">
         <v>77</v>
       </c>
@@ -5918,9 +5977,9 @@
         <v>11</v>
       </c>
       <c r="E184" s="36"/>
-      <c r="F184" s="58"/>
-    </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F184" s="41"/>
+    </row>
+    <row r="185" spans="2:6">
       <c r="B185" s="20" t="s">
         <v>79</v>
       </c>
@@ -5931,9 +5990,9 @@
         <v>11</v>
       </c>
       <c r="E185" s="36"/>
-      <c r="F185" s="58"/>
-    </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F185" s="41"/>
+    </row>
+    <row r="186" spans="2:6">
       <c r="B186" s="20" t="s">
         <v>224</v>
       </c>
@@ -5944,9 +6003,9 @@
         <v>11</v>
       </c>
       <c r="E186" s="36"/>
-      <c r="F186" s="58"/>
-    </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F186" s="41"/>
+    </row>
+    <row r="187" spans="2:6">
       <c r="B187" s="20" t="s">
         <v>81</v>
       </c>
@@ -5957,9 +6016,9 @@
         <v>83</v>
       </c>
       <c r="E187" s="36"/>
-      <c r="F187" s="58"/>
-    </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F187" s="41"/>
+    </row>
+    <row r="188" spans="2:6">
       <c r="B188" s="20" t="s">
         <v>160</v>
       </c>
@@ -5970,9 +6029,9 @@
         <v>11</v>
       </c>
       <c r="E188" s="36"/>
-      <c r="F188" s="58"/>
-    </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F188" s="41"/>
+    </row>
+    <row r="189" spans="2:6">
       <c r="B189" s="20" t="s">
         <v>226</v>
       </c>
@@ -5983,22 +6042,22 @@
         <v>11</v>
       </c>
       <c r="E189" s="36"/>
-      <c r="F189" s="58"/>
-    </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F189" s="41"/>
+    </row>
+    <row r="190" spans="2:6">
       <c r="B190" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="C190" s="36" t="s">
         <v>479</v>
-      </c>
-      <c r="C190" s="36" t="s">
-        <v>480</v>
       </c>
       <c r="D190" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E190" s="36"/>
-      <c r="F190" s="58"/>
-    </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F190" s="41"/>
+    </row>
+    <row r="191" spans="2:6">
       <c r="B191" s="20" t="s">
         <v>228</v>
       </c>
@@ -6009,9 +6068,9 @@
         <v>11</v>
       </c>
       <c r="E191" s="36"/>
-      <c r="F191" s="58"/>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F191" s="41"/>
+    </row>
+    <row r="192" spans="2:6">
       <c r="B192" s="20" t="s">
         <v>162</v>
       </c>
@@ -6022,9 +6081,9 @@
         <v>11</v>
       </c>
       <c r="E192" s="36"/>
-      <c r="F192" s="58"/>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F192" s="41"/>
+    </row>
+    <row r="193" spans="2:6">
       <c r="B193" s="20" t="s">
         <v>164</v>
       </c>
@@ -6035,22 +6094,22 @@
         <v>11</v>
       </c>
       <c r="E193" s="36"/>
-      <c r="F193" s="58"/>
-    </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F193" s="41"/>
+    </row>
+    <row r="194" spans="2:6">
       <c r="B194" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="C194" s="36" t="s">
         <v>481</v>
-      </c>
-      <c r="C194" s="36" t="s">
-        <v>482</v>
       </c>
       <c r="D194" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E194" s="36"/>
-      <c r="F194" s="58"/>
-    </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F194" s="41"/>
+    </row>
+    <row r="195" spans="2:6">
       <c r="B195" s="20" t="s">
         <v>86</v>
       </c>
@@ -6061,22 +6120,22 @@
         <v>11</v>
       </c>
       <c r="E195" s="36"/>
-      <c r="F195" s="58"/>
-    </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F195" s="41"/>
+    </row>
+    <row r="196" spans="2:6">
       <c r="B196" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="C196" s="36" t="s">
         <v>483</v>
-      </c>
-      <c r="C196" s="36" t="s">
-        <v>484</v>
       </c>
       <c r="D196" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E196" s="36"/>
-      <c r="F196" s="58"/>
-    </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F196" s="41"/>
+    </row>
+    <row r="197" spans="2:6">
       <c r="B197" s="20" t="s">
         <v>84</v>
       </c>
@@ -6087,9 +6146,9 @@
         <v>11</v>
       </c>
       <c r="E197" s="36"/>
-      <c r="F197" s="58"/>
-    </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F197" s="41"/>
+    </row>
+    <row r="198" spans="2:6">
       <c r="B198" s="20" t="s">
         <v>166</v>
       </c>
@@ -6100,9 +6159,9 @@
         <v>24</v>
       </c>
       <c r="E198" s="36"/>
-      <c r="F198" s="58"/>
-    </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F198" s="41"/>
+    </row>
+    <row r="199" spans="2:6">
       <c r="B199" s="20" t="s">
         <v>109</v>
       </c>
@@ -6113,9 +6172,9 @@
         <v>11</v>
       </c>
       <c r="E199" s="36"/>
-      <c r="F199" s="58"/>
-    </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F199" s="41"/>
+    </row>
+    <row r="200" spans="2:6">
       <c r="B200" s="20" t="s">
         <v>88</v>
       </c>
@@ -6126,9 +6185,9 @@
         <v>90</v>
       </c>
       <c r="E200" s="36"/>
-      <c r="F200" s="58"/>
-    </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F200" s="41"/>
+    </row>
+    <row r="201" spans="2:6">
       <c r="B201" s="20" t="s">
         <v>91</v>
       </c>
@@ -6139,9 +6198,9 @@
         <v>11</v>
       </c>
       <c r="E201" s="36"/>
-      <c r="F201" s="58"/>
-    </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F201" s="41"/>
+    </row>
+    <row r="202" spans="2:6">
       <c r="B202" s="20" t="s">
         <v>230</v>
       </c>
@@ -6152,9 +6211,9 @@
         <v>11</v>
       </c>
       <c r="E202" s="36"/>
-      <c r="F202" s="58"/>
-    </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F202" s="41"/>
+    </row>
+    <row r="203" spans="2:6">
       <c r="B203" s="20" t="s">
         <v>168</v>
       </c>
@@ -6165,9 +6224,9 @@
         <v>11</v>
       </c>
       <c r="E203" s="36"/>
-      <c r="F203" s="58"/>
-    </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F203" s="41"/>
+    </row>
+    <row r="204" spans="2:6">
       <c r="B204" s="20" t="s">
         <v>170</v>
       </c>
@@ -6178,10 +6237,10 @@
         <v>11</v>
       </c>
       <c r="E204" s="36"/>
-      <c r="F204" s="58"/>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B205" s="63" t="s">
+      <c r="F204" s="41"/>
+    </row>
+    <row r="205" spans="2:6">
+      <c r="B205" s="42" t="s">
         <v>255</v>
       </c>
       <c r="C205" s="36" t="s">
@@ -6193,13 +6252,13 @@
       <c r="E205" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="F205" s="58">
+      <c r="F205" s="41">
         <v>43728</v>
       </c>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:6">
       <c r="B206" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C206" s="36" t="s">
         <v>201</v>
@@ -6208,9 +6267,9 @@
         <v>120</v>
       </c>
       <c r="E206" s="36"/>
-      <c r="F206" s="58"/>
-    </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F206" s="41"/>
+    </row>
+    <row r="207" spans="2:6">
       <c r="B207" s="20" t="s">
         <v>207</v>
       </c>
@@ -6221,9 +6280,9 @@
         <v>11</v>
       </c>
       <c r="E207" s="36"/>
-      <c r="F207" s="58"/>
-    </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F207" s="41"/>
+    </row>
+    <row r="208" spans="2:6">
       <c r="B208" s="20" t="s">
         <v>172</v>
       </c>
@@ -6234,9 +6293,9 @@
         <v>11</v>
       </c>
       <c r="E208" s="36"/>
-      <c r="F208" s="58"/>
-    </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F208" s="41"/>
+    </row>
+    <row r="209" spans="2:6">
       <c r="B209" s="20" t="s">
         <v>209</v>
       </c>
@@ -6247,9 +6306,9 @@
         <v>11</v>
       </c>
       <c r="E209" s="36"/>
-      <c r="F209" s="58"/>
-    </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F209" s="41"/>
+    </row>
+    <row r="210" spans="2:6">
       <c r="B210" s="20" t="s">
         <v>174</v>
       </c>
@@ -6260,20 +6319,20 @@
         <v>11</v>
       </c>
       <c r="E210" s="36"/>
-      <c r="F210" s="58"/>
-    </row>
-    <row r="211" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F210" s="41"/>
+    </row>
+    <row r="211" spans="2:6" ht="17.25" thickBot="1">
       <c r="B211" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C211" s="69" t="s">
+      <c r="C211" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="D211" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="E211" s="69"/>
-      <c r="F211" s="70"/>
+      <c r="D211" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211" s="47"/>
+      <c r="F211" s="48"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:F212" xr:uid="{C1EE0C99-C2F8-4E13-983A-B3DCF9299796}"/>
@@ -6298,7 +6357,7 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="0.875" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
@@ -6309,8 +6368,8 @@
     <col min="7" max="7" width="12.875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="5.25" customHeight="1"/>
+    <row r="2" spans="2:7" ht="20.25">
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
@@ -6330,7 +6389,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7">
       <c r="B3" s="4" t="s">
         <v>237</v>
       </c>
@@ -6350,7 +6409,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7">
       <c r="B4" s="4" t="s">
         <v>237</v>
       </c>
@@ -6385,13 +6444,13 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="17.25" thickBot="1"/>
+    <row r="3" spans="2:3">
       <c r="B3" s="18" t="s">
         <v>261</v>
       </c>
@@ -6400,7 +6459,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3">
       <c r="B4" s="20" t="s">
         <v>241</v>
       </c>
@@ -6409,7 +6468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3">
       <c r="B5" s="20" t="s">
         <v>346</v>
       </c>
@@ -6418,7 +6477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3">
       <c r="B6" s="20" t="s">
         <v>243</v>
       </c>
@@ -6427,7 +6486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3">
       <c r="B7" s="20" t="s">
         <v>242</v>
       </c>
@@ -6436,7 +6495,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" ht="33">
       <c r="B8" s="22" t="s">
         <v>246</v>
       </c>
@@ -6446,7 +6505,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" ht="17.25" thickBot="1">
       <c r="B9" s="23" t="s">
         <v>345</v>
       </c>
@@ -6472,7 +6531,7 @@
       <selection pane="bottomLeft" activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="0.625" customWidth="1"/>
     <col min="2" max="2" width="19.375" style="1" bestFit="1" customWidth="1"/>
@@ -6483,18 +6542,18 @@
     <col min="7" max="7" width="11.125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="38.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="49" t="s">
+    <row r="1" spans="2:7" ht="5.25" customHeight="1"/>
+    <row r="2" spans="2:7" ht="38.25">
+      <c r="B2" s="71" t="s">
         <v>347</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-    </row>
-    <row r="3" spans="2:7" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+    </row>
+    <row r="3" spans="2:7" s="3" customFormat="1" ht="20.25">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -6514,7 +6573,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -6530,63 +6589,63 @@
       <c r="F4" s="27"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="49.5">
       <c r="B5" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="50"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="61"/>
+      <c r="G5" s="72"/>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="50"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="72"/>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="7" t="s">
         <v>239</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="42" t="s">
+      <c r="E7" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="65">
         <v>43763</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="33">
       <c r="B8" s="7" t="s">
         <v>266</v>
       </c>
       <c r="C8" s="37"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="43"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="65"/>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
@@ -6602,33 +6661,33 @@
       <c r="F9" s="27"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7">
       <c r="B10" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="61"/>
+      <c r="G10" s="65"/>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="65"/>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
@@ -6644,59 +6703,59 @@
       <c r="F12" s="27"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="49.5">
       <c r="B13" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E13" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="61"/>
+      <c r="G13" s="65"/>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
-    </row>
-    <row r="15" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="65"/>
+    </row>
+    <row r="15" spans="2:7" ht="49.5">
       <c r="B15" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E15" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="61"/>
+      <c r="G15" s="65"/>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="65"/>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
@@ -6712,7 +6771,7 @@
       <c r="F17" s="27"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7">
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
@@ -6732,7 +6791,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7">
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
@@ -6748,33 +6807,33 @@
       <c r="F19" s="27"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E20" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="61"/>
+      <c r="G20" s="65"/>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="65"/>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="6" t="s">
         <v>2</v>
       </c>
@@ -6790,85 +6849,85 @@
       <c r="F22" s="27"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="61"/>
+      <c r="G23" s="65"/>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="65"/>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
-    </row>
-    <row r="26" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E25" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="61"/>
+      <c r="G25" s="65"/>
+    </row>
+    <row r="26" spans="2:7" ht="49.5">
       <c r="B26" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="65"/>
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="43"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E27" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="70"/>
+      <c r="G27" s="65"/>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="43"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="65"/>
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29" s="6" t="s">
         <v>2</v>
       </c>
@@ -6884,59 +6943,59 @@
       <c r="F29" s="27"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7">
       <c r="B30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
-    </row>
-    <row r="31" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="E30" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="61"/>
+      <c r="G30" s="65"/>
+    </row>
+    <row r="31" spans="2:7" ht="33">
       <c r="B31" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
-    </row>
-    <row r="32" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="65"/>
+    </row>
+    <row r="32" spans="2:7" ht="49.5">
       <c r="B32" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="43"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E32" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="61"/>
+      <c r="G32" s="65"/>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="65"/>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" s="6" t="s">
         <v>2</v>
       </c>
@@ -6952,59 +7011,59 @@
       <c r="F34" s="27"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" ht="49.5">
       <c r="B35" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="42"/>
-      <c r="G35" s="43"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E35" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="61"/>
+      <c r="G35" s="65"/>
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="43"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="65"/>
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="42"/>
-      <c r="G37" s="43"/>
-    </row>
-    <row r="38" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E37" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="61"/>
+      <c r="G37" s="65"/>
+    </row>
+    <row r="38" spans="2:7" ht="49.5">
       <c r="B38" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="43"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="65"/>
+    </row>
+    <row r="39" spans="2:7">
       <c r="B39" s="6" t="s">
         <v>2</v>
       </c>
@@ -7020,33 +7079,33 @@
       <c r="F39" s="27"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7">
       <c r="B40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="42" t="s">
+      <c r="D40" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="42"/>
-      <c r="G40" s="43"/>
-    </row>
-    <row r="41" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F40" s="61"/>
+      <c r="G40" s="65"/>
+    </row>
+    <row r="41" spans="2:7" ht="49.5">
       <c r="B41" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="43"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="65"/>
+    </row>
+    <row r="42" spans="2:7">
       <c r="B42" s="6" t="s">
         <v>2</v>
       </c>
@@ -7066,7 +7125,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7">
       <c r="B43" s="6" t="s">
         <v>2</v>
       </c>
@@ -7082,33 +7141,33 @@
       <c r="F43" s="27"/>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7">
       <c r="B44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="42" t="s">
+      <c r="C44" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="42" t="s">
+      <c r="D44" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="42"/>
-      <c r="G44" s="43"/>
-    </row>
-    <row r="45" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="E44" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="61"/>
+      <c r="G44" s="65"/>
+    </row>
+    <row r="45" spans="2:7" ht="33">
       <c r="B45" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="43"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="65"/>
+    </row>
+    <row r="46" spans="2:7">
       <c r="B46" s="6" t="s">
         <v>2</v>
       </c>
@@ -7124,7 +7183,7 @@
       <c r="F46" s="27"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7">
       <c r="B47" s="6" t="s">
         <v>2</v>
       </c>
@@ -7144,33 +7203,33 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7">
       <c r="B48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="42" t="s">
+      <c r="D48" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="42"/>
-      <c r="G48" s="43"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E48" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="61"/>
+      <c r="G48" s="65"/>
+    </row>
+    <row r="49" spans="2:7">
       <c r="B49" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="43"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="65"/>
+    </row>
+    <row r="50" spans="2:7">
       <c r="B50" s="6" t="s">
         <v>2</v>
       </c>
@@ -7186,7 +7245,7 @@
       <c r="F50" s="27"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7">
       <c r="B51" s="6" t="s">
         <v>2</v>
       </c>
@@ -7202,7 +7261,7 @@
       <c r="F51" s="27"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7">
       <c r="B52" s="7" t="s">
         <v>244</v>
       </c>
@@ -7214,7 +7273,7 @@
       <c r="F52" s="27"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7">
       <c r="B53" s="6" t="s">
         <v>245</v>
       </c>
@@ -7226,7 +7285,7 @@
       <c r="F53" s="27"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7">
       <c r="B54" s="6" t="s">
         <v>2</v>
       </c>
@@ -7242,173 +7301,173 @@
       <c r="F54" s="27"/>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7">
       <c r="B55" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="42" t="s">
+      <c r="D55" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="42"/>
-      <c r="G55" s="43"/>
-    </row>
-    <row r="56" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="E55" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="61"/>
+      <c r="G55" s="65"/>
+    </row>
+    <row r="56" spans="2:7" ht="33">
       <c r="B56" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="43"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="65"/>
+    </row>
+    <row r="57" spans="2:7">
       <c r="B57" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="42" t="s">
+      <c r="D57" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="42"/>
-      <c r="G57" s="43"/>
-    </row>
-    <row r="58" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="E57" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="61"/>
+      <c r="G57" s="65"/>
+    </row>
+    <row r="58" spans="2:7" ht="33">
       <c r="B58" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="43"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="65"/>
+    </row>
+    <row r="59" spans="2:7">
       <c r="B59" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="42" t="s">
+      <c r="C59" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="42" t="s">
+      <c r="D59" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="E59" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="42"/>
-      <c r="G59" s="43"/>
-    </row>
-    <row r="60" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E59" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="61"/>
+      <c r="G59" s="65"/>
+    </row>
+    <row r="60" spans="2:7" ht="49.5">
       <c r="B60" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="43"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="65"/>
+    </row>
+    <row r="61" spans="2:7">
       <c r="B61" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="42" t="s">
+      <c r="C61" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="42" t="s">
+      <c r="D61" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="42"/>
-      <c r="G61" s="43"/>
-    </row>
-    <row r="62" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E61" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="61"/>
+      <c r="G61" s="65"/>
+    </row>
+    <row r="62" spans="2:7" ht="49.5">
       <c r="B62" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="43"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="65"/>
+    </row>
+    <row r="63" spans="2:7">
       <c r="B63" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="43"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C63" s="61"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="65"/>
+    </row>
+    <row r="64" spans="2:7">
       <c r="B64" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="42" t="s">
+      <c r="C64" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="42" t="s">
+      <c r="D64" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="E64" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="42"/>
-      <c r="G64" s="43"/>
-    </row>
-    <row r="65" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E64" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="61"/>
+      <c r="G64" s="65"/>
+    </row>
+    <row r="65" spans="2:7" ht="49.5">
       <c r="B65" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="43"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C65" s="61"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="65"/>
+    </row>
+    <row r="66" spans="2:7">
       <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="42" t="s">
+      <c r="C66" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="D66" s="42" t="s">
+      <c r="D66" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="E66" s="42" t="s">
+      <c r="E66" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="F66" s="42"/>
-      <c r="G66" s="43"/>
-    </row>
-    <row r="67" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="F66" s="61"/>
+      <c r="G66" s="65"/>
+    </row>
+    <row r="67" spans="2:7" ht="33">
       <c r="B67" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="43"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="65"/>
+    </row>
+    <row r="68" spans="2:7">
       <c r="B68" s="6" t="s">
         <v>2</v>
       </c>
@@ -7424,7 +7483,7 @@
       <c r="F68" s="27"/>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7">
       <c r="B69" s="6" t="s">
         <v>2</v>
       </c>
@@ -7440,7 +7499,7 @@
       <c r="F69" s="27"/>
       <c r="G69" s="11"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7">
       <c r="B70" s="6" t="s">
         <v>2</v>
       </c>
@@ -7456,163 +7515,163 @@
       <c r="F70" s="27"/>
       <c r="G70" s="11"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7">
       <c r="B71" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="42" t="s">
+      <c r="C71" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="D71" s="42" t="s">
+      <c r="D71" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="42"/>
-      <c r="G71" s="43"/>
-    </row>
-    <row r="72" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E71" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="61"/>
+      <c r="G71" s="65"/>
+    </row>
+    <row r="72" spans="2:7" ht="49.5">
       <c r="B72" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="43"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C72" s="61"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="65"/>
+    </row>
+    <row r="73" spans="2:7">
       <c r="B73" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C73" s="42" t="s">
+      <c r="C73" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="D73" s="42" t="s">
+      <c r="D73" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="E73" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="42"/>
-      <c r="G73" s="43"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E73" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="61"/>
+      <c r="G73" s="65"/>
+    </row>
+    <row r="74" spans="2:7">
       <c r="B74" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="43"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C74" s="61"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="65"/>
+    </row>
+    <row r="75" spans="2:7">
       <c r="B75" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="42" t="s">
+      <c r="C75" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="D75" s="42" t="s">
+      <c r="D75" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="E75" s="42" t="s">
+      <c r="E75" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="F75" s="48"/>
-      <c r="G75" s="43"/>
-    </row>
-    <row r="76" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="F75" s="70"/>
+      <c r="G75" s="65"/>
+    </row>
+    <row r="76" spans="2:7" ht="33">
       <c r="B76" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="43"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C76" s="61"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="65"/>
+    </row>
+    <row r="77" spans="2:7">
       <c r="B77" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C77" s="42" t="s">
+      <c r="C77" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="42" t="s">
+      <c r="D77" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="E77" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="42"/>
-      <c r="G77" s="43"/>
-    </row>
-    <row r="78" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="E77" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="61"/>
+      <c r="G77" s="65"/>
+    </row>
+    <row r="78" spans="2:7" ht="33">
       <c r="B78" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="43"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C78" s="61"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="65"/>
+    </row>
+    <row r="79" spans="2:7">
       <c r="B79" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C79" s="42" t="s">
+      <c r="C79" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="D79" s="42" t="s">
+      <c r="D79" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="E79" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="42"/>
-      <c r="G79" s="43"/>
-    </row>
-    <row r="80" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="E79" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="61"/>
+      <c r="G79" s="65"/>
+    </row>
+    <row r="80" spans="2:7" ht="33">
       <c r="B80" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="43"/>
-    </row>
-    <row r="81" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="C80" s="61"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="65"/>
+    </row>
+    <row r="81" spans="2:7" ht="33">
       <c r="B81" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="42" t="s">
+      <c r="C81" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="42" t="s">
+      <c r="D81" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="E81" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="42"/>
-      <c r="G81" s="43"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E81" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="61"/>
+      <c r="G81" s="65"/>
+    </row>
+    <row r="82" spans="2:7">
       <c r="B82" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="43"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C82" s="61"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="65"/>
+    </row>
+    <row r="83" spans="2:7">
       <c r="B83" s="6" t="s">
         <v>241</v>
       </c>
@@ -7628,33 +7687,33 @@
       <c r="F83" s="27"/>
       <c r="G83" s="11"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:7">
       <c r="B84" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C84" s="42" t="s">
+      <c r="C84" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="D84" s="42" t="s">
+      <c r="D84" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="E84" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="42"/>
-      <c r="G84" s="43"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E84" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="61"/>
+      <c r="G84" s="65"/>
+    </row>
+    <row r="85" spans="2:7">
       <c r="B85" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="43"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C85" s="61"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="65"/>
+    </row>
+    <row r="86" spans="2:7">
       <c r="B86" s="6" t="s">
         <v>241</v>
       </c>
@@ -7674,33 +7733,33 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:7">
       <c r="B87" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C87" s="42" t="s">
+      <c r="C87" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="D87" s="42" t="s">
+      <c r="D87" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="E87" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="42"/>
-      <c r="G87" s="43"/>
-    </row>
-    <row r="88" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="E87" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="61"/>
+      <c r="G87" s="65"/>
+    </row>
+    <row r="88" spans="2:7" ht="33">
       <c r="B88" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C88" s="42"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="43"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C88" s="61"/>
+      <c r="D88" s="61"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="61"/>
+      <c r="G88" s="65"/>
+    </row>
+    <row r="89" spans="2:7">
       <c r="B89" s="6" t="s">
         <v>240</v>
       </c>
@@ -7720,33 +7779,33 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:7" ht="33">
       <c r="B90" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C90" s="42" t="s">
+      <c r="C90" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="D90" s="42" t="s">
+      <c r="D90" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="E90" s="42" t="s">
+      <c r="E90" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="F90" s="42"/>
-      <c r="G90" s="43"/>
-    </row>
-    <row r="91" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="F90" s="61"/>
+      <c r="G90" s="65"/>
+    </row>
+    <row r="91" spans="2:7" ht="33">
       <c r="B91" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C91" s="42"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="42"/>
-      <c r="G91" s="43"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C91" s="61"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="61"/>
+      <c r="G91" s="65"/>
+    </row>
+    <row r="92" spans="2:7">
       <c r="B92" s="6" t="s">
         <v>240</v>
       </c>
@@ -7762,7 +7821,7 @@
       <c r="F92" s="27"/>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:7">
       <c r="B93" s="6" t="s">
         <v>240</v>
       </c>
@@ -7778,7 +7837,7 @@
       <c r="F93" s="27"/>
       <c r="G93" s="11"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:7">
       <c r="B94" s="6" t="s">
         <v>240</v>
       </c>
@@ -7798,7 +7857,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:7">
       <c r="B95" s="6" t="s">
         <v>240</v>
       </c>
@@ -7814,33 +7873,33 @@
       <c r="F95" s="27"/>
       <c r="G95" s="11"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:7">
       <c r="B96" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C96" s="42" t="s">
+      <c r="C96" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="D96" s="42" t="s">
+      <c r="D96" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="E96" s="42" t="s">
+      <c r="E96" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="F96" s="42"/>
-      <c r="G96" s="43"/>
-    </row>
-    <row r="97" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="F96" s="61"/>
+      <c r="G96" s="65"/>
+    </row>
+    <row r="97" spans="2:7" ht="33">
       <c r="B97" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C97" s="42"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="42"/>
-      <c r="F97" s="42"/>
-      <c r="G97" s="43"/>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C97" s="61"/>
+      <c r="D97" s="61"/>
+      <c r="E97" s="61"/>
+      <c r="F97" s="61"/>
+      <c r="G97" s="65"/>
+    </row>
+    <row r="98" spans="2:7">
       <c r="B98" s="6" t="s">
         <v>240</v>
       </c>
@@ -7860,7 +7919,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:7">
       <c r="B99" s="6" t="s">
         <v>240</v>
       </c>
@@ -7876,37 +7935,37 @@
       <c r="F99" s="27"/>
       <c r="G99" s="11"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:7">
       <c r="B100" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C100" s="41" t="s">
+      <c r="C100" s="64" t="s">
         <v>253</v>
       </c>
-      <c r="D100" s="42" t="s">
+      <c r="D100" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="42" t="s">
+      <c r="E100" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="G100" s="51">
+      <c r="G100" s="73">
         <v>43728</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:7" ht="33">
       <c r="B101" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C101" s="41"/>
-      <c r="D101" s="42"/>
-      <c r="E101" s="42"/>
-      <c r="F101" s="42"/>
-      <c r="G101" s="52"/>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C101" s="64"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="74"/>
+    </row>
+    <row r="102" spans="2:7">
       <c r="B102" s="6" t="s">
         <v>240</v>
       </c>
@@ -7926,7 +7985,7 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:7">
       <c r="B103" s="6" t="s">
         <v>240</v>
       </c>
@@ -7942,7 +8001,7 @@
       <c r="F103" s="27"/>
       <c r="G103" s="11"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:7">
       <c r="B104" s="6" t="s">
         <v>240</v>
       </c>
@@ -7958,7 +8017,7 @@
       <c r="F104" s="27"/>
       <c r="G104" s="11"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:7">
       <c r="B105" s="6" t="s">
         <v>240</v>
       </c>
@@ -7974,33 +8033,33 @@
       <c r="F105" s="27"/>
       <c r="G105" s="11"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:7">
       <c r="B106" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C106" s="42" t="s">
+      <c r="C106" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="D106" s="42" t="s">
+      <c r="D106" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="E106" s="42" t="s">
+      <c r="E106" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="F106" s="42"/>
-      <c r="G106" s="43"/>
-    </row>
-    <row r="107" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F106" s="61"/>
+      <c r="G106" s="65"/>
+    </row>
+    <row r="107" spans="2:7" ht="49.5">
       <c r="B107" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C107" s="42"/>
-      <c r="D107" s="42"/>
-      <c r="E107" s="42"/>
-      <c r="F107" s="42"/>
-      <c r="G107" s="43"/>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C107" s="61"/>
+      <c r="D107" s="61"/>
+      <c r="E107" s="61"/>
+      <c r="F107" s="61"/>
+      <c r="G107" s="65"/>
+    </row>
+    <row r="108" spans="2:7">
       <c r="B108" s="6" t="s">
         <v>240</v>
       </c>
@@ -8020,59 +8079,59 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:7">
       <c r="B109" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C109" s="42" t="s">
+      <c r="C109" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="D109" s="42" t="s">
+      <c r="D109" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="E109" s="42" t="s">
+      <c r="E109" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="F109" s="42"/>
-      <c r="G109" s="43"/>
-    </row>
-    <row r="110" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="F109" s="61"/>
+      <c r="G109" s="65"/>
+    </row>
+    <row r="110" spans="2:7" ht="33">
       <c r="B110" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C110" s="42"/>
-      <c r="D110" s="42"/>
-      <c r="E110" s="42"/>
-      <c r="F110" s="42"/>
-      <c r="G110" s="43"/>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C110" s="61"/>
+      <c r="D110" s="61"/>
+      <c r="E110" s="61"/>
+      <c r="F110" s="61"/>
+      <c r="G110" s="65"/>
+    </row>
+    <row r="111" spans="2:7">
       <c r="B111" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C111" s="42" t="s">
+      <c r="C111" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="D111" s="42" t="s">
+      <c r="D111" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="E111" s="42" t="s">
+      <c r="E111" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="F111" s="42"/>
-      <c r="G111" s="43"/>
-    </row>
-    <row r="112" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="F111" s="61"/>
+      <c r="G111" s="65"/>
+    </row>
+    <row r="112" spans="2:7" ht="33">
       <c r="B112" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C112" s="42"/>
-      <c r="D112" s="42"/>
-      <c r="E112" s="42"/>
-      <c r="F112" s="42"/>
-      <c r="G112" s="43"/>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C112" s="61"/>
+      <c r="D112" s="61"/>
+      <c r="E112" s="61"/>
+      <c r="F112" s="61"/>
+      <c r="G112" s="65"/>
+    </row>
+    <row r="113" spans="2:7">
       <c r="B113" s="6" t="s">
         <v>240</v>
       </c>
@@ -8088,7 +8147,7 @@
       <c r="F113" s="27"/>
       <c r="G113" s="11"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:7">
       <c r="B114" s="6" t="s">
         <v>240</v>
       </c>
@@ -8104,7 +8163,7 @@
       <c r="F114" s="27"/>
       <c r="G114" s="11"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:7">
       <c r="B115" s="6" t="s">
         <v>240</v>
       </c>
@@ -8120,7 +8179,7 @@
       <c r="F115" s="27"/>
       <c r="G115" s="11"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:7">
       <c r="B116" s="6" t="s">
         <v>240</v>
       </c>
@@ -8136,59 +8195,59 @@
       <c r="F116" s="27"/>
       <c r="G116" s="11"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:7">
       <c r="B117" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C117" s="42" t="s">
+      <c r="C117" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="D117" s="42" t="s">
+      <c r="D117" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="E117" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="42"/>
-      <c r="G117" s="43"/>
-    </row>
-    <row r="118" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="E117" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="61"/>
+      <c r="G117" s="65"/>
+    </row>
+    <row r="118" spans="2:7" ht="33">
       <c r="B118" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C118" s="42"/>
-      <c r="D118" s="42"/>
-      <c r="E118" s="42"/>
-      <c r="F118" s="42"/>
-      <c r="G118" s="43"/>
-    </row>
-    <row r="119" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="C118" s="61"/>
+      <c r="D118" s="61"/>
+      <c r="E118" s="61"/>
+      <c r="F118" s="61"/>
+      <c r="G118" s="65"/>
+    </row>
+    <row r="119" spans="2:7" ht="33">
       <c r="B119" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C119" s="42" t="s">
+      <c r="C119" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="D119" s="42" t="s">
+      <c r="D119" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="E119" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="42"/>
-      <c r="G119" s="43"/>
-    </row>
-    <row r="120" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="E119" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="61"/>
+      <c r="G119" s="65"/>
+    </row>
+    <row r="120" spans="2:7" ht="33">
       <c r="B120" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C120" s="42"/>
-      <c r="D120" s="42"/>
-      <c r="E120" s="42"/>
-      <c r="F120" s="42"/>
-      <c r="G120" s="43"/>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C120" s="61"/>
+      <c r="D120" s="61"/>
+      <c r="E120" s="61"/>
+      <c r="F120" s="61"/>
+      <c r="G120" s="65"/>
+    </row>
+    <row r="121" spans="2:7">
       <c r="B121" s="6" t="s">
         <v>240</v>
       </c>
@@ -8204,7 +8263,7 @@
       <c r="F121" s="27"/>
       <c r="G121" s="11"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:7">
       <c r="B122" s="6" t="s">
         <v>240</v>
       </c>
@@ -8220,7 +8279,7 @@
       <c r="F122" s="27"/>
       <c r="G122" s="11"/>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:7">
       <c r="B123" s="6" t="s">
         <v>240</v>
       </c>
@@ -8236,7 +8295,7 @@
       <c r="F123" s="27"/>
       <c r="G123" s="11"/>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:7">
       <c r="B124" s="6" t="s">
         <v>240</v>
       </c>
@@ -8252,7 +8311,7 @@
       <c r="F124" s="27"/>
       <c r="G124" s="11"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:7">
       <c r="B125" s="6" t="s">
         <v>240</v>
       </c>
@@ -8268,7 +8327,7 @@
       <c r="F125" s="27"/>
       <c r="G125" s="11"/>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:7">
       <c r="B126" s="6" t="s">
         <v>240</v>
       </c>
@@ -8284,33 +8343,33 @@
       <c r="F126" s="27"/>
       <c r="G126" s="11"/>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:7">
       <c r="B127" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C127" s="42" t="s">
+      <c r="C127" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="D127" s="42" t="s">
+      <c r="D127" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="E127" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="42"/>
-      <c r="G127" s="43"/>
-    </row>
-    <row r="128" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="E127" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="61"/>
+      <c r="G127" s="65"/>
+    </row>
+    <row r="128" spans="2:7" ht="33">
       <c r="B128" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C128" s="42"/>
-      <c r="D128" s="42"/>
-      <c r="E128" s="42"/>
-      <c r="F128" s="42"/>
-      <c r="G128" s="43"/>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C128" s="61"/>
+      <c r="D128" s="61"/>
+      <c r="E128" s="61"/>
+      <c r="F128" s="61"/>
+      <c r="G128" s="65"/>
+    </row>
+    <row r="129" spans="2:7">
       <c r="B129" s="6" t="s">
         <v>244</v>
       </c>
@@ -8322,7 +8381,7 @@
       <c r="F129" s="27"/>
       <c r="G129" s="11"/>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:7">
       <c r="B130" s="6" t="s">
         <v>243</v>
       </c>
@@ -8338,7 +8397,7 @@
       <c r="F130" s="27"/>
       <c r="G130" s="11"/>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:7">
       <c r="B131" s="6" t="s">
         <v>243</v>
       </c>
@@ -8354,33 +8413,33 @@
       <c r="F131" s="27"/>
       <c r="G131" s="11"/>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:7">
       <c r="B132" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C132" s="42" t="s">
+      <c r="C132" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="D132" s="42" t="s">
+      <c r="D132" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="E132" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="42"/>
-      <c r="G132" s="43"/>
-    </row>
-    <row r="133" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="E132" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="61"/>
+      <c r="G132" s="65"/>
+    </row>
+    <row r="133" spans="2:7" ht="33">
       <c r="B133" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C133" s="42"/>
-      <c r="D133" s="42"/>
-      <c r="E133" s="42"/>
-      <c r="F133" s="42"/>
-      <c r="G133" s="43"/>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C133" s="61"/>
+      <c r="D133" s="61"/>
+      <c r="E133" s="61"/>
+      <c r="F133" s="61"/>
+      <c r="G133" s="65"/>
+    </row>
+    <row r="134" spans="2:7">
       <c r="B134" s="6" t="s">
         <v>239</v>
       </c>
@@ -8396,7 +8455,7 @@
       <c r="F134" s="27"/>
       <c r="G134" s="11"/>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:7">
       <c r="B135" s="6" t="s">
         <v>239</v>
       </c>
@@ -8412,33 +8471,33 @@
       <c r="F135" s="27"/>
       <c r="G135" s="11"/>
     </row>
-    <row r="136" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:7" ht="49.5">
       <c r="B136" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C136" s="42" t="s">
+      <c r="C136" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="D136" s="42" t="s">
+      <c r="D136" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="E136" s="42" t="s">
+      <c r="E136" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="F136" s="42"/>
-      <c r="G136" s="43"/>
-    </row>
-    <row r="137" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="F136" s="61"/>
+      <c r="G136" s="65"/>
+    </row>
+    <row r="137" spans="2:7" ht="33">
       <c r="B137" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C137" s="42"/>
-      <c r="D137" s="42"/>
-      <c r="E137" s="42"/>
-      <c r="F137" s="42"/>
-      <c r="G137" s="43"/>
-    </row>
-    <row r="138" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C137" s="61"/>
+      <c r="D137" s="61"/>
+      <c r="E137" s="61"/>
+      <c r="F137" s="61"/>
+      <c r="G137" s="65"/>
+    </row>
+    <row r="138" spans="2:7" ht="49.5">
       <c r="B138" s="7" t="s">
         <v>246</v>
       </c>
@@ -8454,7 +8513,7 @@
       <c r="F138" s="27"/>
       <c r="G138" s="11"/>
     </row>
-    <row r="139" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:7" ht="49.5">
       <c r="B139" s="7" t="s">
         <v>246</v>
       </c>
@@ -8474,7 +8533,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="140" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:7" ht="49.5">
       <c r="B140" s="7" t="s">
         <v>246</v>
       </c>
@@ -8490,7 +8549,7 @@
       <c r="F140" s="27"/>
       <c r="G140" s="11"/>
     </row>
-    <row r="141" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:7" ht="49.5">
       <c r="B141" s="7" t="s">
         <v>246</v>
       </c>
@@ -8506,7 +8565,7 @@
       <c r="F141" s="27"/>
       <c r="G141" s="11"/>
     </row>
-    <row r="142" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:7" ht="49.5">
       <c r="B142" s="7" t="s">
         <v>246</v>
       </c>
@@ -8526,33 +8585,33 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:7">
       <c r="B143" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C143" s="42" t="s">
+      <c r="C143" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="D143" s="42" t="s">
+      <c r="D143" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="E143" s="42" t="s">
+      <c r="E143" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="F143" s="42"/>
-      <c r="G143" s="43"/>
-    </row>
-    <row r="144" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F143" s="61"/>
+      <c r="G143" s="65"/>
+    </row>
+    <row r="144" spans="2:7" ht="49.5">
       <c r="B144" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C144" s="42"/>
-      <c r="D144" s="42"/>
-      <c r="E144" s="42"/>
-      <c r="F144" s="42"/>
-      <c r="G144" s="43"/>
-    </row>
-    <row r="145" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C144" s="61"/>
+      <c r="D144" s="61"/>
+      <c r="E144" s="61"/>
+      <c r="F144" s="61"/>
+      <c r="G144" s="65"/>
+    </row>
+    <row r="145" spans="2:7" ht="49.5">
       <c r="B145" s="7" t="s">
         <v>246</v>
       </c>
@@ -8568,7 +8627,7 @@
       <c r="F145" s="27"/>
       <c r="G145" s="11"/>
     </row>
-    <row r="146" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:7" ht="49.5">
       <c r="B146" s="7" t="s">
         <v>246</v>
       </c>
@@ -8588,7 +8647,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="147" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:7" ht="49.5">
       <c r="B147" s="7" t="s">
         <v>246</v>
       </c>
@@ -8608,7 +8667,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="148" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:7" ht="49.5">
       <c r="B148" s="7" t="s">
         <v>246</v>
       </c>
@@ -8624,33 +8683,33 @@
       <c r="F148" s="27"/>
       <c r="G148" s="11"/>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:7">
       <c r="B149" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C149" s="42" t="s">
+      <c r="C149" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="D149" s="42" t="s">
+      <c r="D149" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="E149" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="42"/>
-      <c r="G149" s="43"/>
-    </row>
-    <row r="150" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E149" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="61"/>
+      <c r="G149" s="65"/>
+    </row>
+    <row r="150" spans="2:7" ht="49.5">
       <c r="B150" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C150" s="42"/>
-      <c r="D150" s="42"/>
-      <c r="E150" s="42"/>
-      <c r="F150" s="42"/>
-      <c r="G150" s="43"/>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C150" s="61"/>
+      <c r="D150" s="61"/>
+      <c r="E150" s="61"/>
+      <c r="F150" s="61"/>
+      <c r="G150" s="65"/>
+    </row>
+    <row r="151" spans="2:7">
       <c r="B151" s="6" t="s">
         <v>242</v>
       </c>
@@ -8666,7 +8725,7 @@
       <c r="F151" s="27"/>
       <c r="G151" s="11"/>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:7">
       <c r="B152" s="6" t="s">
         <v>242</v>
       </c>
@@ -8682,7 +8741,7 @@
       <c r="F152" s="27"/>
       <c r="G152" s="11"/>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:7">
       <c r="B153" s="6" t="s">
         <v>242</v>
       </c>
@@ -8698,7 +8757,7 @@
       <c r="F153" s="27"/>
       <c r="G153" s="11"/>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:7">
       <c r="B154" s="6" t="s">
         <v>242</v>
       </c>
@@ -8714,7 +8773,7 @@
       <c r="F154" s="27"/>
       <c r="G154" s="11"/>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:7">
       <c r="B155" s="6" t="s">
         <v>242</v>
       </c>
@@ -8730,7 +8789,7 @@
       <c r="F155" s="27"/>
       <c r="G155" s="11"/>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:7">
       <c r="B156" s="6" t="s">
         <v>242</v>
       </c>
@@ -8746,7 +8805,7 @@
       <c r="F156" s="27"/>
       <c r="G156" s="11"/>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:7">
       <c r="B157" s="6" t="s">
         <v>242</v>
       </c>
@@ -8762,7 +8821,7 @@
       <c r="F157" s="27"/>
       <c r="G157" s="11"/>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:7">
       <c r="B158" s="6" t="s">
         <v>242</v>
       </c>
@@ -8778,7 +8837,7 @@
       <c r="F158" s="27"/>
       <c r="G158" s="11"/>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:7">
       <c r="B159" s="6" t="s">
         <v>242</v>
       </c>
@@ -8794,7 +8853,7 @@
       <c r="F159" s="27"/>
       <c r="G159" s="11"/>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:7">
       <c r="B160" s="6" t="s">
         <v>242</v>
       </c>
@@ -8810,7 +8869,7 @@
       <c r="F160" s="27"/>
       <c r="G160" s="11"/>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:7">
       <c r="B161" s="13" t="s">
         <v>261</v>
       </c>
@@ -8826,7 +8885,7 @@
       <c r="F161" s="13"/>
       <c r="G161" s="16"/>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:7">
       <c r="B162" s="13" t="s">
         <v>240</v>
       </c>
@@ -8842,7 +8901,7 @@
       <c r="F162" s="13"/>
       <c r="G162" s="16"/>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:7">
       <c r="B163" s="13" t="s">
         <v>242</v>
       </c>
@@ -8858,73 +8917,73 @@
       <c r="F163" s="13"/>
       <c r="G163" s="16"/>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:7">
       <c r="B164" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C164" s="47" t="s">
+      <c r="C164" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="D164" s="46" t="s">
+      <c r="D164" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="E164" s="46" t="s">
+      <c r="E164" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="F164" s="46" t="s">
+      <c r="F164" s="68" t="s">
         <v>249</v>
       </c>
-      <c r="G164" s="45">
+      <c r="G164" s="67">
         <v>43763</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:7">
       <c r="B165" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="C165" s="47"/>
-      <c r="D165" s="46"/>
-      <c r="E165" s="46"/>
-      <c r="F165" s="46"/>
-      <c r="G165" s="45"/>
-    </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C165" s="69"/>
+      <c r="D165" s="68"/>
+      <c r="E165" s="68"/>
+      <c r="F165" s="68"/>
+      <c r="G165" s="67"/>
+    </row>
+    <row r="166" spans="2:7">
       <c r="B166" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C166" s="47"/>
-      <c r="D166" s="46"/>
-      <c r="E166" s="46"/>
-      <c r="F166" s="46"/>
-      <c r="G166" s="45"/>
-    </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C166" s="69"/>
+      <c r="D166" s="68"/>
+      <c r="E166" s="68"/>
+      <c r="F166" s="68"/>
+      <c r="G166" s="67"/>
+    </row>
+    <row r="167" spans="2:7">
       <c r="B167" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C167" s="42" t="s">
+      <c r="C167" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="D167" s="44" t="s">
+      <c r="D167" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="E167" s="42" t="s">
+      <c r="E167" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="F167" s="42"/>
-      <c r="G167" s="43"/>
-    </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F167" s="61"/>
+      <c r="G167" s="65"/>
+    </row>
+    <row r="168" spans="2:7">
       <c r="B168" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C168" s="42"/>
-      <c r="D168" s="44"/>
-      <c r="E168" s="42"/>
-      <c r="F168" s="42"/>
-      <c r="G168" s="43"/>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C168" s="61"/>
+      <c r="D168" s="66"/>
+      <c r="E168" s="61"/>
+      <c r="F168" s="61"/>
+      <c r="G168" s="65"/>
+    </row>
+    <row r="169" spans="2:7">
       <c r="B169" s="14" t="s">
         <v>2</v>
       </c>
@@ -8940,89 +8999,89 @@
       <c r="F169" s="27"/>
       <c r="G169" s="11"/>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:7">
       <c r="B170" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C170" s="42" t="s">
+      <c r="C170" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="D170" s="42" t="s">
+      <c r="D170" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="E170" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F170" s="42"/>
-      <c r="G170" s="43"/>
-    </row>
-    <row r="171" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E170" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" s="61"/>
+      <c r="G170" s="65"/>
+    </row>
+    <row r="171" spans="2:7" ht="49.5">
       <c r="B171" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C171" s="42"/>
-      <c r="D171" s="42"/>
-      <c r="E171" s="42"/>
-      <c r="F171" s="42"/>
-      <c r="G171" s="43"/>
-    </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C171" s="61"/>
+      <c r="D171" s="61"/>
+      <c r="E171" s="61"/>
+      <c r="F171" s="61"/>
+      <c r="G171" s="65"/>
+    </row>
+    <row r="172" spans="2:7">
       <c r="B172" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="42" t="s">
+      <c r="C172" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="D172" s="44" t="s">
+      <c r="D172" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="E172" s="42" t="s">
+      <c r="E172" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="F172" s="42"/>
-      <c r="G172" s="43"/>
-    </row>
-    <row r="173" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F172" s="61"/>
+      <c r="G172" s="65"/>
+    </row>
+    <row r="173" spans="2:7" ht="49.5">
       <c r="B173" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C173" s="42"/>
-      <c r="D173" s="42"/>
-      <c r="E173" s="42"/>
-      <c r="F173" s="42"/>
-      <c r="G173" s="43"/>
-    </row>
-    <row r="174" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C173" s="61"/>
+      <c r="D173" s="61"/>
+      <c r="E173" s="61"/>
+      <c r="F173" s="61"/>
+      <c r="G173" s="65"/>
+    </row>
+    <row r="174" spans="2:7" ht="49.5">
       <c r="B174" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C174" s="41" t="s">
+      <c r="C174" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="D174" s="42" t="s">
+      <c r="D174" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="E174" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F174" s="42" t="s">
+      <c r="E174" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" s="61" t="s">
         <v>249</v>
       </c>
-      <c r="G174" s="43">
+      <c r="G174" s="65">
         <v>43770</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:7">
       <c r="B175" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C175" s="41"/>
-      <c r="D175" s="42"/>
-      <c r="E175" s="42"/>
-      <c r="F175" s="42"/>
-      <c r="G175" s="43"/>
-    </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C175" s="64"/>
+      <c r="D175" s="61"/>
+      <c r="E175" s="61"/>
+      <c r="F175" s="61"/>
+      <c r="G175" s="65"/>
+    </row>
+    <row r="176" spans="2:7">
       <c r="B176" s="14" t="s">
         <v>2</v>
       </c>
@@ -9038,7 +9097,7 @@
       <c r="F176" s="27"/>
       <c r="G176" s="11"/>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:7">
       <c r="B177" s="14" t="s">
         <v>2</v>
       </c>
@@ -9054,7 +9113,7 @@
       <c r="F177" s="27"/>
       <c r="G177" s="11"/>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:7">
       <c r="B178" s="14" t="s">
         <v>2</v>
       </c>
@@ -9070,33 +9129,33 @@
       <c r="F178" s="27"/>
       <c r="G178" s="11"/>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:7">
       <c r="B179" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C179" s="42" t="s">
+      <c r="C179" s="61" t="s">
         <v>305</v>
       </c>
-      <c r="D179" s="42" t="s">
+      <c r="D179" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="E179" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F179" s="42"/>
-      <c r="G179" s="43"/>
-    </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E179" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F179" s="61"/>
+      <c r="G179" s="65"/>
+    </row>
+    <row r="180" spans="2:7">
       <c r="B180" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C180" s="42"/>
-      <c r="D180" s="42"/>
-      <c r="E180" s="42"/>
-      <c r="F180" s="42"/>
-      <c r="G180" s="43"/>
-    </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C180" s="61"/>
+      <c r="D180" s="61"/>
+      <c r="E180" s="61"/>
+      <c r="F180" s="61"/>
+      <c r="G180" s="65"/>
+    </row>
+    <row r="181" spans="2:7">
       <c r="B181" s="14" t="s">
         <v>2</v>
       </c>
@@ -9112,7 +9171,7 @@
       <c r="F181" s="27"/>
       <c r="G181" s="11"/>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:7">
       <c r="B182" s="14" t="s">
         <v>2</v>
       </c>
@@ -9132,7 +9191,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:7">
       <c r="B183" s="14" t="s">
         <v>2</v>
       </c>
@@ -9148,57 +9207,57 @@
       <c r="F183" s="27"/>
       <c r="G183" s="11"/>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:7">
       <c r="B184" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C184" s="41" t="s">
+      <c r="C184" s="64" t="s">
         <v>301</v>
       </c>
-      <c r="D184" s="42" t="s">
+      <c r="D184" s="61" t="s">
         <v>340</v>
       </c>
-      <c r="E184" s="42" t="s">
+      <c r="E184" s="61" t="s">
         <v>341</v>
       </c>
-      <c r="F184" s="42" t="s">
+      <c r="F184" s="61" t="s">
         <v>249</v>
       </c>
-      <c r="G184" s="43">
+      <c r="G184" s="65">
         <v>43791</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:7">
       <c r="B185" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C185" s="41"/>
-      <c r="D185" s="42"/>
-      <c r="E185" s="42"/>
-      <c r="F185" s="42"/>
-      <c r="G185" s="43"/>
-    </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C185" s="64"/>
+      <c r="D185" s="61"/>
+      <c r="E185" s="61"/>
+      <c r="F185" s="61"/>
+      <c r="G185" s="65"/>
+    </row>
+    <row r="186" spans="2:7">
       <c r="B186" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C186" s="41"/>
-      <c r="D186" s="42"/>
-      <c r="E186" s="42"/>
-      <c r="F186" s="42"/>
-      <c r="G186" s="43"/>
-    </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C186" s="64"/>
+      <c r="D186" s="61"/>
+      <c r="E186" s="61"/>
+      <c r="F186" s="61"/>
+      <c r="G186" s="65"/>
+    </row>
+    <row r="187" spans="2:7">
       <c r="B187" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="C187" s="41"/>
-      <c r="D187" s="42"/>
-      <c r="E187" s="42"/>
-      <c r="F187" s="42"/>
-      <c r="G187" s="43"/>
-    </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C187" s="64"/>
+      <c r="D187" s="61"/>
+      <c r="E187" s="61"/>
+      <c r="F187" s="61"/>
+      <c r="G187" s="65"/>
+    </row>
+    <row r="188" spans="2:7">
       <c r="B188" s="14" t="s">
         <v>241</v>
       </c>
@@ -9214,7 +9273,7 @@
       <c r="F188" s="27"/>
       <c r="G188" s="11"/>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:7">
       <c r="B189" s="14" t="s">
         <v>287</v>
       </c>
@@ -9234,37 +9293,37 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:7">
       <c r="B190" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="C190" s="41" t="s">
+      <c r="C190" s="64" t="s">
         <v>289</v>
       </c>
-      <c r="D190" s="42" t="s">
+      <c r="D190" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="E190" s="42" t="s">
+      <c r="E190" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="F190" s="42" t="s">
+      <c r="F190" s="61" t="s">
         <v>344</v>
       </c>
-      <c r="G190" s="43">
+      <c r="G190" s="65">
         <v>43791</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:7">
       <c r="B191" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C191" s="41"/>
-      <c r="D191" s="42"/>
-      <c r="E191" s="42"/>
-      <c r="F191" s="42"/>
-      <c r="G191" s="43"/>
-    </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C191" s="64"/>
+      <c r="D191" s="61"/>
+      <c r="E191" s="61"/>
+      <c r="F191" s="61"/>
+      <c r="G191" s="65"/>
+    </row>
+    <row r="192" spans="2:7">
       <c r="B192" s="14" t="s">
         <v>287</v>
       </c>
@@ -9280,33 +9339,33 @@
       <c r="F192" s="27"/>
       <c r="G192" s="11"/>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:7">
       <c r="B193" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="C193" s="48" t="s">
+      <c r="C193" s="70" t="s">
         <v>359</v>
       </c>
-      <c r="D193" s="42" t="s">
+      <c r="D193" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="E193" s="42" t="s">
+      <c r="E193" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="F193" s="42"/>
-      <c r="G193" s="43"/>
-    </row>
-    <row r="194" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F193" s="61"/>
+      <c r="G193" s="65"/>
+    </row>
+    <row r="194" spans="2:7" ht="49.5">
       <c r="B194" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C194" s="41"/>
-      <c r="D194" s="42"/>
-      <c r="E194" s="42"/>
-      <c r="F194" s="42"/>
-      <c r="G194" s="43"/>
-    </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C194" s="64"/>
+      <c r="D194" s="61"/>
+      <c r="E194" s="61"/>
+      <c r="F194" s="61"/>
+      <c r="G194" s="65"/>
+    </row>
+    <row r="195" spans="2:7">
       <c r="B195" s="14" t="s">
         <v>265</v>
       </c>
@@ -9322,43 +9381,43 @@
       <c r="F195" s="27"/>
       <c r="G195" s="11"/>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:7">
       <c r="B196" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C196" s="42" t="s">
+      <c r="C196" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="D196" s="42" t="s">
+      <c r="D196" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="E196" s="42" t="s">
+      <c r="E196" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="F196" s="42"/>
-      <c r="G196" s="43"/>
-    </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F196" s="61"/>
+      <c r="G196" s="65"/>
+    </row>
+    <row r="197" spans="2:7">
       <c r="B197" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C197" s="42"/>
-      <c r="D197" s="42"/>
-      <c r="E197" s="42"/>
-      <c r="F197" s="42"/>
-      <c r="G197" s="43"/>
-    </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C197" s="61"/>
+      <c r="D197" s="61"/>
+      <c r="E197" s="61"/>
+      <c r="F197" s="61"/>
+      <c r="G197" s="65"/>
+    </row>
+    <row r="198" spans="2:7">
       <c r="B198" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C198" s="42"/>
-      <c r="D198" s="42"/>
-      <c r="E198" s="42"/>
-      <c r="F198" s="42"/>
-      <c r="G198" s="43"/>
-    </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C198" s="61"/>
+      <c r="D198" s="61"/>
+      <c r="E198" s="61"/>
+      <c r="F198" s="61"/>
+      <c r="G198" s="65"/>
+    </row>
+    <row r="199" spans="2:7">
       <c r="B199" s="14" t="s">
         <v>265</v>
       </c>
@@ -9374,85 +9433,85 @@
       <c r="F199" s="27"/>
       <c r="G199" s="11"/>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:7">
       <c r="B200" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C200" s="42" t="s">
+      <c r="C200" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="D200" s="42" t="s">
+      <c r="D200" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="E200" s="42" t="s">
+      <c r="E200" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="F200" s="42"/>
-      <c r="G200" s="43"/>
-    </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F200" s="61"/>
+      <c r="G200" s="65"/>
+    </row>
+    <row r="201" spans="2:7">
       <c r="B201" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C201" s="42"/>
-      <c r="D201" s="42"/>
-      <c r="E201" s="42"/>
-      <c r="F201" s="42"/>
-      <c r="G201" s="43"/>
-    </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C201" s="61"/>
+      <c r="D201" s="61"/>
+      <c r="E201" s="61"/>
+      <c r="F201" s="61"/>
+      <c r="G201" s="65"/>
+    </row>
+    <row r="202" spans="2:7">
       <c r="B202" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C202" s="42" t="s">
+      <c r="C202" s="61" t="s">
         <v>316</v>
       </c>
-      <c r="D202" s="42" t="s">
+      <c r="D202" s="61" t="s">
         <v>317</v>
       </c>
-      <c r="E202" s="42" t="s">
+      <c r="E202" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="F202" s="42"/>
-      <c r="G202" s="43"/>
-    </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F202" s="61"/>
+      <c r="G202" s="65"/>
+    </row>
+    <row r="203" spans="2:7">
       <c r="B203" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C203" s="42"/>
-      <c r="D203" s="42"/>
-      <c r="E203" s="42"/>
-      <c r="F203" s="42"/>
-      <c r="G203" s="43"/>
-    </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C203" s="61"/>
+      <c r="D203" s="61"/>
+      <c r="E203" s="61"/>
+      <c r="F203" s="61"/>
+      <c r="G203" s="65"/>
+    </row>
+    <row r="204" spans="2:7">
       <c r="B204" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C204" s="42" t="s">
+      <c r="C204" s="61" t="s">
         <v>318</v>
       </c>
-      <c r="D204" s="42" t="s">
+      <c r="D204" s="61" t="s">
         <v>319</v>
       </c>
-      <c r="E204" s="42" t="s">
+      <c r="E204" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="F204" s="42"/>
-      <c r="G204" s="43"/>
-    </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F204" s="61"/>
+      <c r="G204" s="65"/>
+    </row>
+    <row r="205" spans="2:7">
       <c r="B205" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C205" s="42"/>
-      <c r="D205" s="42"/>
-      <c r="E205" s="42"/>
-      <c r="F205" s="42"/>
-      <c r="G205" s="43"/>
-    </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C205" s="61"/>
+      <c r="D205" s="61"/>
+      <c r="E205" s="61"/>
+      <c r="F205" s="61"/>
+      <c r="G205" s="65"/>
+    </row>
+    <row r="206" spans="2:7">
       <c r="B206" s="14" t="s">
         <v>265</v>
       </c>
@@ -9472,7 +9531,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:7">
       <c r="B207" s="14" t="s">
         <v>266</v>
       </c>
@@ -9488,7 +9547,7 @@
       <c r="F207" s="27"/>
       <c r="G207" s="11"/>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:7">
       <c r="B208" s="14" t="s">
         <v>266</v>
       </c>
@@ -9504,7 +9563,7 @@
       <c r="F208" s="27"/>
       <c r="G208" s="11"/>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:7">
       <c r="B209" s="14" t="s">
         <v>266</v>
       </c>
@@ -9520,7 +9579,7 @@
       <c r="F209" s="27"/>
       <c r="G209" s="11"/>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:7">
       <c r="B210" s="14" t="s">
         <v>266</v>
       </c>
@@ -9536,7 +9595,7 @@
       <c r="F210" s="27"/>
       <c r="G210" s="11"/>
     </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:7">
       <c r="B211" s="14" t="s">
         <v>266</v>
       </c>
@@ -9552,7 +9611,7 @@
       <c r="F211" s="27"/>
       <c r="G211" s="11"/>
     </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:7">
       <c r="B212" s="14" t="s">
         <v>266</v>
       </c>
@@ -9568,7 +9627,7 @@
       <c r="F212" s="27"/>
       <c r="G212" s="11"/>
     </row>
-    <row r="213" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:7" ht="49.5">
       <c r="B213" s="17" t="s">
         <v>246</v>
       </c>
@@ -9584,7 +9643,7 @@
       <c r="F213" s="27"/>
       <c r="G213" s="11"/>
     </row>
-    <row r="214" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:7" ht="49.5">
       <c r="B214" s="17" t="s">
         <v>246</v>
       </c>
@@ -9600,7 +9659,7 @@
       <c r="F214" s="27"/>
       <c r="G214" s="11"/>
     </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:7">
       <c r="B215" s="27" t="s">
         <v>261</v>
       </c>
@@ -9620,37 +9679,37 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B216" s="42" t="s">
+    <row r="216" spans="2:7">
+      <c r="B216" s="61" t="s">
         <v>265</v>
       </c>
-      <c r="C216" s="41" t="s">
+      <c r="C216" s="64" t="s">
         <v>353</v>
       </c>
-      <c r="D216" s="42" t="s">
+      <c r="D216" s="61" t="s">
         <v>352</v>
       </c>
-      <c r="E216" s="42" t="s">
+      <c r="E216" s="61" t="s">
         <v>120</v>
       </c>
       <c r="F216" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="G216" s="43">
+      <c r="G216" s="65">
         <v>43798</v>
       </c>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B217" s="42"/>
-      <c r="C217" s="41"/>
-      <c r="D217" s="42"/>
-      <c r="E217" s="42"/>
+    <row r="217" spans="2:7">
+      <c r="B217" s="61"/>
+      <c r="C217" s="64"/>
+      <c r="D217" s="61"/>
+      <c r="E217" s="61"/>
       <c r="F217" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="G217" s="43"/>
-    </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G217" s="65"/>
+    </row>
+    <row r="218" spans="2:7">
       <c r="B218" s="30" t="s">
         <v>356</v>
       </c>
@@ -9666,7 +9725,7 @@
       <c r="F218" s="30"/>
       <c r="G218" s="31"/>
     </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:7">
       <c r="B219" s="30" t="s">
         <v>356</v>
       </c>

--- a/Paper list.xlsx
+++ b/Paper list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - KoreaUniv\0.PhD\5.RLRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="6_{95AB4841-001A-4806-859F-A6F78D95DC0C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{CD02D6DC-3856-43D9-A653-87ED63E721C6}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="6_{95AB4841-001A-4806-859F-A6F78D95DC0C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{C1B1F664-9D60-4C31-BCB1-CCC4357D0725}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F9EBDA8-FE8A-455B-82BA-A6E273E36C0B}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="DeepMind Papers with categories" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DeepMind Papers'!$B$3:$F$212</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DeepMind Papers'!$B$3:$F$213</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'DeepMind Papers with categories'!$B$3:$G$219</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="491">
   <si>
     <t>Title</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1675,12 +1675,16 @@
     <t>Object-oriented state editing for HRL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Deep Ensembles: A Loss Landscape Perspective</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2010,7 +2014,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2179,6 +2183,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2203,14 +2210,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2221,20 +2240,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3462,14 +3469,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07006F96-BC39-4686-922A-D19435B5E7B3}">
-  <dimension ref="B1:F211"/>
+  <dimension ref="B1:F212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="180" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="0.625" customWidth="1"/>
     <col min="2" max="2" width="94.625" style="1" customWidth="1"/>
@@ -3479,17 +3486,17 @@
     <col min="6" max="6" width="11.125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="5.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:6" ht="38.25">
-      <c r="B2" s="56" t="s">
+    <row r="1" spans="2:6" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="57" t="s">
         <v>363</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
-    </row>
-    <row r="3" spans="2:6" s="3" customFormat="1" ht="21" thickBot="1">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
+    </row>
+    <row r="3" spans="2:6" s="3" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="53" t="s">
         <v>0</v>
       </c>
@@ -3506,12 +3513,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B4" s="50" t="s">
-        <v>364</v>
+        <v>490</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="D4" s="51" t="s">
         <v>11</v>
@@ -3519,55 +3526,55 @@
       <c r="E4" s="51"/>
       <c r="F4" s="52"/>
     </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="20" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="50" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C6" s="36" t="s">
         <v>367</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D6" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="41"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="42" t="s">
+      <c r="E6" s="36"/>
+      <c r="F6" s="41"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="42" t="s">
         <v>368</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C7" s="36" t="s">
         <v>369</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="36" t="s">
+      <c r="D7" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F7" s="41">
         <v>43826</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="20" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C8" s="36" t="s">
         <v>371</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="41"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>373</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>11</v>
@@ -3575,42 +3582,42 @@
       <c r="E8" s="36"/>
       <c r="F8" s="41"/>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="42" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="41"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="42" t="s">
         <v>374</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C10" s="36" t="s">
         <v>375</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="36" t="s">
+      <c r="D10" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F10" s="41">
         <v>43826</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="20" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C11" s="36" t="s">
         <v>377</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="41"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>379</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>11</v>
@@ -3618,120 +3625,128 @@
       <c r="E11" s="36"/>
       <c r="F11" s="41"/>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="20" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="56" t="s">
+        <v>378</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="F12" s="41">
+        <v>43833</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="56" t="s">
         <v>380</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C13" s="36" t="s">
         <v>381</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="41"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="20" t="s">
+      <c r="D13" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="F13" s="41">
+        <v>43833</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C14" s="36" t="s">
         <v>383</v>
       </c>
-      <c r="D13" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="41"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="42" t="s">
+      <c r="D14" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="41"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C15" s="36" t="s">
         <v>385</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="36" t="s">
+      <c r="D15" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F15" s="41">
         <v>43819</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="20" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C16" s="36" t="s">
         <v>387</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="41"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>389</v>
-      </c>
       <c r="D16" s="36" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="41"/>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="62" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="41"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C18" s="62" t="s">
         <v>352</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D18" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E18" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F18" s="60">
         <v>43798</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="63"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="36" t="s">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="64"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="F18" s="60"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="20" t="s">
+      <c r="F19" s="61"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C20" s="36" t="s">
         <v>391</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="41"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>393</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>11</v>
@@ -3739,209 +3754,209 @@
       <c r="E20" s="36"/>
       <c r="F20" s="41"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="20" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="41"/>
     </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="42" t="s">
-        <v>350</v>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="20" t="s">
+        <v>394</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="D22" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="36"/>
+      <c r="F22" s="41"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="36" t="s">
         <v>361</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F23" s="41">
         <v>43819</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="42" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C24" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D24" s="36" t="s">
         <v>341</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E24" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F24" s="41">
         <v>43791</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="20" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C25" s="36" t="s">
         <v>324</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D25" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="41"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="42" t="s">
+      <c r="E25" s="36"/>
+      <c r="F25" s="41"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="42" t="s">
         <v>359</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C26" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D26" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E26" s="36" t="s">
         <v>343</v>
-      </c>
-      <c r="F25" s="41">
-        <v>43826</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="49" t="s">
-        <v>489</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>397</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>488</v>
       </c>
       <c r="F26" s="41">
         <v>43826</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="42" t="s">
-        <v>357</v>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="49" t="s">
+        <v>489</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>342</v>
+        <v>488</v>
       </c>
       <c r="F27" s="41">
         <v>43826</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="F28" s="41">
+        <v>43833</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="42" t="s">
         <v>320</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C29" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D29" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E29" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F29" s="41">
         <v>43812</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="42" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C30" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D30" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E30" s="36" t="s">
         <v>344</v>
       </c>
-      <c r="F29" s="41">
+      <c r="F30" s="41">
         <v>43826</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="20" t="s">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C31" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D31" s="36" t="s">
         <v>299</v>
-      </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="41"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>120</v>
       </c>
       <c r="E31" s="36"/>
       <c r="F31" s="41"/>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>283</v>
+        <v>325</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>326</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="E32" s="36"/>
       <c r="F32" s="41"/>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>337</v>
+        <v>302</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>283</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="E33" s="36"/>
       <c r="F33" s="41"/>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="20" t="s">
-        <v>400</v>
+        <v>336</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="D34" s="36" t="s">
         <v>120</v>
@@ -3949,68 +3964,68 @@
       <c r="E34" s="36"/>
       <c r="F34" s="41"/>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="20" t="s">
-        <v>327</v>
+        <v>400</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>328</v>
+        <v>401</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>329</v>
+        <v>120</v>
       </c>
       <c r="E35" s="36"/>
       <c r="F35" s="41"/>
     </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="42" t="s">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="E36" s="36"/>
+      <c r="F36" s="41"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C37" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="D36" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="36" t="s">
+      <c r="D37" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="F36" s="41">
+      <c r="F37" s="41">
         <v>43791</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="20" t="s">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C38" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D38" s="36" t="s">
         <v>120</v>
-      </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="41"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>280</v>
-      </c>
-      <c r="D38" s="36" t="s">
-        <v>11</v>
       </c>
       <c r="E38" s="36"/>
       <c r="F38" s="41"/>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="20" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D39" s="36" t="s">
         <v>11</v>
@@ -4018,25 +4033,25 @@
       <c r="E39" s="36"/>
       <c r="F39" s="41"/>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="20" t="s">
-        <v>402</v>
+        <v>304</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>403</v>
+        <v>281</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="E40" s="36"/>
       <c r="F40" s="41"/>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="20" t="s">
-        <v>318</v>
+        <v>402</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>319</v>
+        <v>403</v>
       </c>
       <c r="D41" s="36" t="s">
         <v>120</v>
@@ -4044,38 +4059,38 @@
       <c r="E41" s="36"/>
       <c r="F41" s="41"/>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="20" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="E42" s="36"/>
       <c r="F42" s="41"/>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="20" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="E43" s="36"/>
       <c r="F43" s="41"/>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="20" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="D44" s="36" t="s">
         <v>120</v>
@@ -4083,12 +4098,12 @@
       <c r="E44" s="36"/>
       <c r="F44" s="41"/>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="20" t="s">
-        <v>404</v>
+        <v>330</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>405</v>
+        <v>331</v>
       </c>
       <c r="D45" s="36" t="s">
         <v>120</v>
@@ -4096,12 +4111,12 @@
       <c r="E45" s="36"/>
       <c r="F45" s="41"/>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="20" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D46" s="36" t="s">
         <v>120</v>
@@ -4109,12 +4124,12 @@
       <c r="E46" s="36"/>
       <c r="F46" s="41"/>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C47" s="36" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D47" s="36" t="s">
         <v>120</v>
@@ -4122,12 +4137,12 @@
       <c r="E47" s="36"/>
       <c r="F47" s="41"/>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="20" t="s">
-        <v>314</v>
+        <v>408</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>315</v>
+        <v>409</v>
       </c>
       <c r="D48" s="36" t="s">
         <v>120</v>
@@ -4135,81 +4150,81 @@
       <c r="E48" s="36"/>
       <c r="F48" s="41"/>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="20" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="E49" s="36"/>
       <c r="F49" s="41"/>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="20" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="E50" s="36"/>
       <c r="F50" s="41"/>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="20" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="C51" s="36" t="s">
-        <v>411</v>
+        <v>313</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>120</v>
+        <v>299</v>
       </c>
       <c r="E51" s="36"/>
       <c r="F51" s="41"/>
     </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="42" t="s">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" s="36"/>
+      <c r="F52" s="41"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C53" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="D52" s="36" t="s">
+      <c r="D53" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="E52" s="36" t="s">
+      <c r="E53" s="36" t="s">
         <v>344</v>
       </c>
-      <c r="F52" s="41">
+      <c r="F53" s="41">
         <v>43791</v>
       </c>
     </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="20" t="s">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C54" s="36" t="s">
         <v>413</v>
-      </c>
-      <c r="D53" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="E53" s="36"/>
-      <c r="F53" s="41"/>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>415</v>
       </c>
       <c r="D54" s="36" t="s">
         <v>120</v>
@@ -4217,12 +4232,12 @@
       <c r="E54" s="36"/>
       <c r="F54" s="41"/>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D55" s="36" t="s">
         <v>120</v>
@@ -4230,12 +4245,12 @@
       <c r="E55" s="36"/>
       <c r="F55" s="41"/>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C56" s="36" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D56" s="36" t="s">
         <v>120</v>
@@ -4243,51 +4258,51 @@
       <c r="E56" s="36"/>
       <c r="F56" s="41"/>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C57" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>422</v>
+        <v>120</v>
       </c>
       <c r="E57" s="36"/>
       <c r="F57" s="41"/>
     </row>
-    <row r="58" spans="2:6">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="20" t="s">
-        <v>308</v>
+        <v>420</v>
       </c>
       <c r="C58" s="36" t="s">
-        <v>277</v>
+        <v>421</v>
       </c>
       <c r="D58" s="36" t="s">
-        <v>11</v>
+        <v>422</v>
       </c>
       <c r="E58" s="36"/>
       <c r="F58" s="41"/>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="20" t="s">
-        <v>423</v>
+        <v>308</v>
       </c>
       <c r="C59" s="36" t="s">
-        <v>424</v>
+        <v>277</v>
       </c>
       <c r="D59" s="36" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="E59" s="36"/>
       <c r="F59" s="41"/>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D60" s="36" t="s">
         <v>120</v>
@@ -4295,42 +4310,42 @@
       <c r="E60" s="36"/>
       <c r="F60" s="41"/>
     </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="42" t="s">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="D61" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" s="36"/>
+      <c r="F61" s="41"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C62" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="D61" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="36" t="s">
+      <c r="D62" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="F61" s="41">
+      <c r="F62" s="41">
         <v>43770</v>
       </c>
     </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="20" t="s">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="C62" s="36" t="s">
+      <c r="C63" s="36" t="s">
         <v>339</v>
-      </c>
-      <c r="D62" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="E62" s="36"/>
-      <c r="F62" s="41"/>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>428</v>
       </c>
       <c r="D63" s="36" t="s">
         <v>120</v>
@@ -4338,12 +4353,12 @@
       <c r="E63" s="36"/>
       <c r="F63" s="41"/>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="20" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C64" s="36" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D64" s="36" t="s">
         <v>120</v>
@@ -4351,12 +4366,12 @@
       <c r="E64" s="36"/>
       <c r="F64" s="41"/>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="20" t="s">
-        <v>332</v>
+        <v>429</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>333</v>
+        <v>430</v>
       </c>
       <c r="D65" s="36" t="s">
         <v>120</v>
@@ -4364,12 +4379,12 @@
       <c r="E65" s="36"/>
       <c r="F65" s="41"/>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="20" t="s">
-        <v>431</v>
+        <v>332</v>
       </c>
       <c r="C66" s="36" t="s">
-        <v>432</v>
+        <v>333</v>
       </c>
       <c r="D66" s="36" t="s">
         <v>120</v>
@@ -4377,202 +4392,202 @@
       <c r="E66" s="36"/>
       <c r="F66" s="41"/>
     </row>
-    <row r="67" spans="2:6">
-      <c r="B67" s="42" t="s">
-        <v>286</v>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="20" t="s">
+        <v>431</v>
       </c>
       <c r="C67" s="36" t="s">
-        <v>288</v>
+        <v>432</v>
       </c>
       <c r="D67" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="E67" s="36" t="s">
+      <c r="E67" s="36"/>
+      <c r="F67" s="41"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="D68" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="F67" s="41">
+      <c r="F68" s="41">
         <v>43791</v>
       </c>
     </row>
-    <row r="68" spans="2:6">
-      <c r="B68" s="20" t="s">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C69" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="D68" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="36"/>
-      <c r="F68" s="41"/>
-    </row>
-    <row r="69" spans="2:6">
-      <c r="B69" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="C69" s="40" t="s">
-        <v>433</v>
-      </c>
       <c r="D69" s="36" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="E69" s="36"/>
       <c r="F69" s="41"/>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="C70" s="36" t="s">
-        <v>274</v>
+        <v>310</v>
+      </c>
+      <c r="C70" s="40" t="s">
+        <v>433</v>
       </c>
       <c r="D70" s="36" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="E70" s="36"/>
       <c r="F70" s="41"/>
     </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="20" t="s">
-        <v>434</v>
+        <v>311</v>
       </c>
       <c r="C71" s="36" t="s">
-        <v>435</v>
+        <v>274</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="E71" s="36"/>
       <c r="F71" s="41"/>
     </row>
-    <row r="72" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B72" s="43" t="s">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>435</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="E72" s="36"/>
+      <c r="F72" s="41"/>
+    </row>
+    <row r="73" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C73" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D73" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="44"/>
-    </row>
-    <row r="73" spans="2:6">
-      <c r="B73" s="20" t="s">
+      <c r="E73" s="13"/>
+      <c r="F73" s="44"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C74" s="36" t="s">
         <v>437</v>
       </c>
-      <c r="D73" s="36" t="s">
+      <c r="D74" s="36" t="s">
         <v>120</v>
-      </c>
-      <c r="E73" s="36"/>
-      <c r="F73" s="41"/>
-    </row>
-    <row r="74" spans="2:6">
-      <c r="B74" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="C74" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="D74" s="36" t="s">
-        <v>329</v>
       </c>
       <c r="E74" s="36"/>
       <c r="F74" s="41"/>
     </row>
-    <row r="75" spans="2:6">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="20" t="s">
-        <v>334</v>
+        <v>438</v>
       </c>
       <c r="C75" s="36" t="s">
-        <v>335</v>
+        <v>273</v>
       </c>
       <c r="D75" s="36" t="s">
-        <v>120</v>
+        <v>329</v>
       </c>
       <c r="E75" s="36"/>
       <c r="F75" s="41"/>
     </row>
-    <row r="76" spans="2:6">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C76" s="40" t="s">
-        <v>271</v>
+        <v>334</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>335</v>
       </c>
       <c r="D76" s="36" t="s">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="E76" s="36"/>
       <c r="F76" s="41"/>
     </row>
-    <row r="77" spans="2:6">
-      <c r="B77" s="43" t="s">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C77" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="D77" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="E77" s="36"/>
+      <c r="F77" s="41"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C78" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="D77" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="44"/>
-    </row>
-    <row r="78" spans="2:6">
-      <c r="B78" s="20" t="s">
+      <c r="D78" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="13"/>
+      <c r="F78" s="44"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="C78" s="36" t="s">
+      <c r="C79" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="36"/>
-      <c r="F78" s="41"/>
-    </row>
-    <row r="79" spans="2:6">
-      <c r="B79" s="42" t="s">
+      <c r="D79" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="36"/>
+      <c r="F79" s="41"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C79" s="36" t="s">
+      <c r="C80" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D79" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="36" t="s">
+      <c r="D80" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="F79" s="41">
+      <c r="F80" s="41">
         <v>43819</v>
       </c>
     </row>
-    <row r="80" spans="2:6">
-      <c r="B80" s="20" t="s">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="C80" s="36" t="s">
+      <c r="C81" s="36" t="s">
         <v>296</v>
-      </c>
-      <c r="D80" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="E80" s="36"/>
-      <c r="F80" s="41"/>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="B81" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="C81" s="36" t="s">
-        <v>298</v>
       </c>
       <c r="D81" s="36" t="s">
         <v>120</v>
@@ -4580,228 +4595,228 @@
       <c r="E81" s="36"/>
       <c r="F81" s="41"/>
     </row>
-    <row r="82" spans="2:6">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="20" t="s">
-        <v>439</v>
+        <v>297</v>
       </c>
       <c r="C82" s="36" t="s">
-        <v>440</v>
+        <v>298</v>
       </c>
       <c r="D82" s="36" t="s">
-        <v>322</v>
+        <v>120</v>
       </c>
       <c r="E82" s="36"/>
       <c r="F82" s="41"/>
     </row>
-    <row r="83" spans="2:6">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="20" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C83" s="36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D83" s="36" t="s">
-        <v>442</v>
+        <v>322</v>
       </c>
       <c r="E83" s="36"/>
       <c r="F83" s="41"/>
     </row>
-    <row r="84" spans="2:6">
-      <c r="B84" s="43" t="s">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="C84" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="D84" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="E84" s="36"/>
+      <c r="F84" s="41"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B85" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C85" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="D84" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="13"/>
-      <c r="F84" s="44"/>
-    </row>
-    <row r="85" spans="2:6">
-      <c r="B85" s="20" t="s">
+      <c r="D85" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="13"/>
+      <c r="F85" s="44"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B86" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="C85" s="36" t="s">
+      <c r="C86" s="36" t="s">
         <v>445</v>
       </c>
-      <c r="D85" s="36" t="s">
+      <c r="D86" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="E85" s="36"/>
-      <c r="F85" s="41"/>
-    </row>
-    <row r="86" spans="2:6">
-      <c r="B86" s="20" t="s">
+      <c r="E86" s="36"/>
+      <c r="F86" s="41"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B87" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="C86" s="36" t="s">
+      <c r="C87" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D86" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="36"/>
-      <c r="F86" s="45"/>
-    </row>
-    <row r="87" spans="2:6">
-      <c r="B87" s="20" t="s">
+      <c r="D87" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="36"/>
+      <c r="F87" s="45"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B88" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C87" s="36" t="s">
+      <c r="C88" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D87" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="36"/>
-      <c r="F87" s="41"/>
-    </row>
-    <row r="88" spans="2:6">
-      <c r="B88" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="C88" s="36" t="s">
-        <v>447</v>
-      </c>
       <c r="D88" s="36" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="E88" s="36"/>
       <c r="F88" s="41"/>
     </row>
-    <row r="89" spans="2:6">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="20" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C89" s="36" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D89" s="36" t="s">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="E89" s="36"/>
       <c r="F89" s="41"/>
     </row>
-    <row r="90" spans="2:6">
-      <c r="B90" s="42" t="s">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B90" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="C90" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="D90" s="36" t="s">
+        <v>450</v>
+      </c>
+      <c r="E90" s="36"/>
+      <c r="F90" s="41"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B91" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C90" s="36" t="s">
+      <c r="C91" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="36" t="s">
+      <c r="D91" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="F90" s="41">
+      <c r="F91" s="41">
         <v>43763</v>
       </c>
     </row>
-    <row r="91" spans="2:6">
-      <c r="B91" s="20" t="s">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B92" s="20" t="s">
         <v>451</v>
       </c>
-      <c r="C91" s="36" t="s">
+      <c r="C92" s="36" t="s">
         <v>452</v>
       </c>
-      <c r="D91" s="36" t="s">
+      <c r="D92" s="36" t="s">
         <v>120</v>
-      </c>
-      <c r="E91" s="36"/>
-      <c r="F91" s="41"/>
-    </row>
-    <row r="92" spans="2:6">
-      <c r="B92" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" s="36" t="s">
-        <v>11</v>
       </c>
       <c r="E92" s="36"/>
       <c r="F92" s="41"/>
     </row>
-    <row r="93" spans="2:6">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="20" t="s">
-        <v>213</v>
+        <v>6</v>
       </c>
       <c r="C93" s="36" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="D93" s="36" t="s">
-        <v>215</v>
+        <v>11</v>
       </c>
       <c r="E93" s="36"/>
       <c r="F93" s="41"/>
     </row>
-    <row r="94" spans="2:6">
-      <c r="B94" s="46" t="s">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B94" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C94" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D94" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="E94" s="36"/>
+      <c r="F94" s="41"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B95" s="46" t="s">
         <v>486</v>
       </c>
-      <c r="C94" s="39" t="s">
+      <c r="C95" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="D94" s="39" t="s">
+      <c r="D95" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="E94" s="39" t="s">
+      <c r="E95" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="F94" s="44">
+      <c r="F95" s="44">
         <v>43763</v>
       </c>
     </row>
-    <row r="95" spans="2:6">
-      <c r="B95" s="20" t="s">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B96" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C95" s="36" t="s">
+      <c r="C96" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="D95" s="36" t="s">
+      <c r="D96" s="36" t="s">
         <v>115</v>
-      </c>
-      <c r="E95" s="36"/>
-      <c r="F95" s="41"/>
-    </row>
-    <row r="96" spans="2:6">
-      <c r="B96" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C96" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="D96" s="36" t="s">
-        <v>120</v>
       </c>
       <c r="E96" s="36"/>
       <c r="F96" s="41"/>
     </row>
-    <row r="97" spans="2:6">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="20" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="C97" s="36" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="D97" s="36" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="E97" s="36"/>
       <c r="F97" s="41"/>
     </row>
-    <row r="98" spans="2:6">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C98" s="36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D98" s="36" t="s">
         <v>11</v>
@@ -4809,12 +4824,12 @@
       <c r="E98" s="36"/>
       <c r="F98" s="41"/>
     </row>
-    <row r="99" spans="2:6">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" s="20" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C99" s="36" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D99" s="36" t="s">
         <v>11</v>
@@ -4822,12 +4837,12 @@
       <c r="E99" s="36"/>
       <c r="F99" s="41"/>
     </row>
-    <row r="100" spans="2:6">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="20" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="C100" s="36" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="D100" s="36" t="s">
         <v>11</v>
@@ -4835,283 +4850,283 @@
       <c r="E100" s="36"/>
       <c r="F100" s="41"/>
     </row>
-    <row r="101" spans="2:6">
-      <c r="B101" s="42" t="s">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B101" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C101" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D101" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="36"/>
+      <c r="F101" s="41"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B102" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="C101" s="36" t="s">
+      <c r="C102" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="D101" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" s="36" t="s">
+      <c r="D102" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="F101" s="41">
+      <c r="F102" s="41">
         <v>43728</v>
       </c>
     </row>
-    <row r="102" spans="2:6">
-      <c r="B102" s="20" t="s">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B103" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="C102" s="36" t="s">
+      <c r="C103" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="D102" s="36" t="s">
+      <c r="D103" s="36" t="s">
         <v>83</v>
-      </c>
-      <c r="E102" s="36"/>
-      <c r="F102" s="41"/>
-    </row>
-    <row r="103" spans="2:6">
-      <c r="B103" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="C103" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="D103" s="36" t="s">
-        <v>193</v>
       </c>
       <c r="E103" s="36"/>
       <c r="F103" s="41"/>
     </row>
-    <row r="104" spans="2:6">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" s="20" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="C104" s="36" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="D104" s="36" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E104" s="36"/>
       <c r="F104" s="41"/>
     </row>
-    <row r="105" spans="2:6">
-      <c r="B105" s="42" t="s">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B105" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D105" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="36"/>
+      <c r="F105" s="41"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B106" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="C105" s="36" t="s">
+      <c r="C106" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="D105" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="36" t="s">
+      <c r="D106" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="F105" s="41">
+      <c r="F106" s="41">
         <v>43735</v>
       </c>
     </row>
-    <row r="106" spans="2:6">
-      <c r="B106" s="20" t="s">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B107" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C106" s="36" t="s">
+      <c r="C107" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="D106" s="36" t="s">
+      <c r="D107" s="36" t="s">
         <v>126</v>
-      </c>
-      <c r="E106" s="36"/>
-      <c r="F106" s="41"/>
-    </row>
-    <row r="107" spans="2:6">
-      <c r="B107" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C107" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107" s="36" t="s">
-        <v>11</v>
       </c>
       <c r="E107" s="36"/>
       <c r="F107" s="41"/>
     </row>
-    <row r="108" spans="2:6">
-      <c r="B108" s="42" t="s">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B108" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="36"/>
+      <c r="F108" s="41"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B109" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="C108" s="36" t="s">
+      <c r="C109" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="D108" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="36" t="s">
+      <c r="D109" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="F108" s="41">
+      <c r="F109" s="41">
         <v>43791</v>
       </c>
     </row>
-    <row r="109" spans="2:6">
-      <c r="B109" s="20" t="s">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B110" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C109" s="36" t="s">
+      <c r="C110" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D109" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="36"/>
-      <c r="F109" s="41"/>
-    </row>
-    <row r="110" spans="2:6">
-      <c r="B110" s="42" t="s">
+      <c r="D110" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="36"/>
+      <c r="F110" s="41"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B111" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C110" s="36" t="s">
+      <c r="C111" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D110" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="36" t="s">
+      <c r="D111" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="36" t="s">
         <v>487</v>
       </c>
-      <c r="F110" s="41">
+      <c r="F111" s="41">
         <v>43826</v>
       </c>
     </row>
-    <row r="111" spans="2:6">
-      <c r="B111" s="20" t="s">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B112" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="C111" s="36" t="s">
+      <c r="C112" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="D111" s="36" t="s">
+      <c r="D112" s="36" t="s">
         <v>193</v>
-      </c>
-      <c r="E111" s="36"/>
-      <c r="F111" s="41"/>
-    </row>
-    <row r="112" spans="2:6">
-      <c r="B112" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C112" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="D112" s="36" t="s">
-        <v>11</v>
       </c>
       <c r="E112" s="36"/>
       <c r="F112" s="41"/>
     </row>
-    <row r="113" spans="2:6">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" s="20" t="s">
-        <v>453</v>
+        <v>129</v>
       </c>
       <c r="C113" s="36" t="s">
-        <v>454</v>
+        <v>130</v>
       </c>
       <c r="D113" s="36" t="s">
-        <v>455</v>
+        <v>11</v>
       </c>
       <c r="E113" s="36"/>
       <c r="F113" s="41"/>
     </row>
-    <row r="114" spans="2:6">
-      <c r="B114" s="42" t="s">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B114" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="C114" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="D114" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="E114" s="36"/>
+      <c r="F114" s="41"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B115" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C114" s="36" t="s">
+      <c r="C115" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D114" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E114" s="36" t="s">
+      <c r="D115" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="F114" s="41">
+      <c r="F115" s="41">
         <v>43812</v>
       </c>
     </row>
-    <row r="115" spans="2:6">
-      <c r="B115" s="42" t="s">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B116" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="C115" s="36" t="s">
+      <c r="C116" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D115" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115" s="36" t="s">
+      <c r="D116" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="F115" s="41">
+      <c r="F116" s="41">
         <v>43728</v>
       </c>
     </row>
-    <row r="116" spans="2:6">
-      <c r="B116" s="20" t="s">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B117" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C116" s="36" t="s">
+      <c r="C117" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D116" s="36" t="s">
+      <c r="D117" s="36" t="s">
         <v>24</v>
-      </c>
-      <c r="E116" s="36"/>
-      <c r="F116" s="41"/>
-    </row>
-    <row r="117" spans="2:6">
-      <c r="B117" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C117" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="D117" s="36" t="s">
-        <v>11</v>
       </c>
       <c r="E117" s="36"/>
       <c r="F117" s="41"/>
     </row>
-    <row r="118" spans="2:6">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B118" s="20" t="s">
-        <v>456</v>
+        <v>216</v>
       </c>
       <c r="C118" s="36" t="s">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="D118" s="36" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="E118" s="36"/>
       <c r="F118" s="41"/>
     </row>
-    <row r="119" spans="2:6">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119" s="20" t="s">
-        <v>27</v>
+        <v>456</v>
       </c>
       <c r="C119" s="36" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="D119" s="36" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="E119" s="36"/>
       <c r="F119" s="41"/>
     </row>
-    <row r="120" spans="2:6">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B120" s="20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C120" s="36" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D120" s="36" t="s">
         <v>11</v>
@@ -5119,12 +5134,12 @@
       <c r="E120" s="36"/>
       <c r="F120" s="41"/>
     </row>
-    <row r="121" spans="2:6">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B121" s="20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C121" s="36" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D121" s="36" t="s">
         <v>11</v>
@@ -5132,42 +5147,42 @@
       <c r="E121" s="36"/>
       <c r="F121" s="41"/>
     </row>
-    <row r="122" spans="2:6">
-      <c r="B122" s="42" t="s">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B122" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D122" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="36"/>
+      <c r="F122" s="41"/>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B123" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="C122" s="36" t="s">
+      <c r="C123" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="D122" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E122" s="36" t="s">
+      <c r="D123" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="F122" s="41">
+      <c r="F123" s="41">
         <v>43798</v>
       </c>
     </row>
-    <row r="123" spans="2:6">
-      <c r="B123" s="20" t="s">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B124" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="C123" s="36" t="s">
+      <c r="C124" s="36" t="s">
         <v>458</v>
-      </c>
-      <c r="D123" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="E123" s="36"/>
-      <c r="F123" s="41"/>
-    </row>
-    <row r="124" spans="2:6">
-      <c r="B124" s="20" t="s">
-        <v>459</v>
-      </c>
-      <c r="C124" s="36" t="s">
-        <v>460</v>
       </c>
       <c r="D124" s="36" t="s">
         <v>120</v>
@@ -5175,12 +5190,12 @@
       <c r="E124" s="36"/>
       <c r="F124" s="41"/>
     </row>
-    <row r="125" spans="2:6">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B125" s="20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C125" s="36" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D125" s="36" t="s">
         <v>120</v>
@@ -5188,12 +5203,12 @@
       <c r="E125" s="36"/>
       <c r="F125" s="41"/>
     </row>
-    <row r="126" spans="2:6">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B126" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C126" s="36" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D126" s="36" t="s">
         <v>120</v>
@@ -5201,51 +5216,55 @@
       <c r="E126" s="36"/>
       <c r="F126" s="41"/>
     </row>
-    <row r="127" spans="2:6">
-      <c r="B127" s="20" t="s">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B127" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="C127" s="36" t="s">
+        <v>464</v>
+      </c>
+      <c r="D127" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E127" s="36" t="s">
+        <v>487</v>
+      </c>
+      <c r="F127" s="41">
+        <v>43833</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B128" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C127" s="36" t="s">
+      <c r="C128" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D127" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E127" s="36"/>
-      <c r="F127" s="41"/>
-    </row>
-    <row r="128" spans="2:6">
-      <c r="B128" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="C128" s="36" t="s">
-        <v>466</v>
-      </c>
       <c r="D128" s="36" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="E128" s="36"/>
       <c r="F128" s="41"/>
     </row>
-    <row r="129" spans="2:6">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="20" t="s">
-        <v>34</v>
+        <v>465</v>
       </c>
       <c r="C129" s="36" t="s">
-        <v>35</v>
+        <v>466</v>
       </c>
       <c r="D129" s="36" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="E129" s="36"/>
       <c r="F129" s="41"/>
     </row>
-    <row r="130" spans="2:6">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="20" t="s">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="C130" s="36" t="s">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="D130" s="36" t="s">
         <v>11</v>
@@ -5253,38 +5272,38 @@
       <c r="E130" s="36"/>
       <c r="F130" s="41"/>
     </row>
-    <row r="131" spans="2:6">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C131" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D131" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="36"/>
+      <c r="F131" s="41"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B132" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C131" s="36" t="s">
+      <c r="C132" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D131" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E131" s="38"/>
-      <c r="F131" s="41"/>
-    </row>
-    <row r="132" spans="2:6">
-      <c r="B132" s="20" t="s">
+      <c r="D132" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="38"/>
+      <c r="F132" s="41"/>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B133" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C132" s="36" t="s">
+      <c r="C133" s="36" t="s">
         <v>39</v>
-      </c>
-      <c r="D132" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E132" s="36"/>
-      <c r="F132" s="41"/>
-    </row>
-    <row r="133" spans="2:6">
-      <c r="B133" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C133" s="36" t="s">
-        <v>37</v>
       </c>
       <c r="D133" s="36" t="s">
         <v>11</v>
@@ -5292,12 +5311,12 @@
       <c r="E133" s="36"/>
       <c r="F133" s="41"/>
     </row>
-    <row r="134" spans="2:6">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134" s="20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C134" s="36" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D134" s="36" t="s">
         <v>11</v>
@@ -5305,12 +5324,12 @@
       <c r="E134" s="36"/>
       <c r="F134" s="41"/>
     </row>
-    <row r="135" spans="2:6">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135" s="20" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="C135" s="36" t="s">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="D135" s="36" t="s">
         <v>11</v>
@@ -5318,12 +5337,12 @@
       <c r="E135" s="36"/>
       <c r="F135" s="41"/>
     </row>
-    <row r="136" spans="2:6">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="20" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="C136" s="36" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="D136" s="36" t="s">
         <v>11</v>
@@ -5331,12 +5350,12 @@
       <c r="E136" s="36"/>
       <c r="F136" s="41"/>
     </row>
-    <row r="137" spans="2:6">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137" s="20" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="C137" s="36" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="D137" s="36" t="s">
         <v>11</v>
@@ -5344,202 +5363,206 @@
       <c r="E137" s="36"/>
       <c r="F137" s="41"/>
     </row>
-    <row r="138" spans="2:6">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B138" s="20" t="s">
-        <v>467</v>
+        <v>220</v>
       </c>
       <c r="C138" s="36" t="s">
-        <v>468</v>
+        <v>221</v>
       </c>
       <c r="D138" s="36" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="E138" s="36"/>
       <c r="F138" s="41"/>
     </row>
-    <row r="139" spans="2:6">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B139" s="20" t="s">
-        <v>42</v>
+        <v>467</v>
       </c>
       <c r="C139" s="36" t="s">
-        <v>43</v>
+        <v>468</v>
       </c>
       <c r="D139" s="36" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="E139" s="36"/>
       <c r="F139" s="41"/>
     </row>
-    <row r="140" spans="2:6">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B140" s="20" t="s">
-        <v>469</v>
+        <v>42</v>
       </c>
       <c r="C140" s="36" t="s">
-        <v>470</v>
+        <v>43</v>
       </c>
       <c r="D140" s="36" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="E140" s="36"/>
       <c r="F140" s="41"/>
     </row>
-    <row r="141" spans="2:6">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B141" s="20" t="s">
-        <v>44</v>
+        <v>469</v>
       </c>
       <c r="C141" s="36" t="s">
-        <v>45</v>
+        <v>470</v>
       </c>
       <c r="D141" s="36" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="E141" s="36"/>
       <c r="F141" s="41"/>
     </row>
-    <row r="142" spans="2:6">
-      <c r="B142" s="20" t="s">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B142" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C142" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D142" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="F142" s="41">
+        <v>43833</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B143" s="20" t="s">
         <v>471</v>
       </c>
-      <c r="C142" s="36" t="s">
+      <c r="C143" s="36" t="s">
         <v>472</v>
       </c>
-      <c r="D142" s="36" t="s">
+      <c r="D143" s="36" t="s">
         <v>120</v>
-      </c>
-      <c r="E142" s="36"/>
-      <c r="F142" s="41"/>
-    </row>
-    <row r="143" spans="2:6">
-      <c r="B143" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C143" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D143" s="36" t="s">
-        <v>48</v>
       </c>
       <c r="E143" s="36"/>
       <c r="F143" s="41"/>
     </row>
-    <row r="144" spans="2:6">
-      <c r="B144" s="42" t="s">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B144" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C144" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D144" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E144" s="36"/>
+      <c r="F144" s="41"/>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B145" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="C144" s="36" t="s">
+      <c r="C145" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="D144" s="36" t="s">
+      <c r="D145" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E144" s="36" t="s">
+      <c r="E145" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="F144" s="41">
+      <c r="F145" s="41">
         <v>43735</v>
       </c>
     </row>
-    <row r="145" spans="2:6">
-      <c r="B145" s="20" t="s">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B146" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C145" s="36" t="s">
+      <c r="C146" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="D145" s="36" t="s">
+      <c r="D146" s="36" t="s">
         <v>136</v>
-      </c>
-      <c r="E145" s="36"/>
-      <c r="F145" s="41"/>
-    </row>
-    <row r="146" spans="2:6">
-      <c r="B146" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C146" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D146" s="36" t="s">
-        <v>24</v>
       </c>
       <c r="E146" s="36"/>
       <c r="F146" s="41"/>
     </row>
-    <row r="147" spans="2:6">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="20" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="C147" s="36" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="D147" s="36" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E147" s="36"/>
       <c r="F147" s="41"/>
     </row>
-    <row r="148" spans="2:6">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B148" s="20" t="s">
-        <v>473</v>
+        <v>137</v>
       </c>
       <c r="C148" s="36" t="s">
-        <v>396</v>
+        <v>138</v>
       </c>
       <c r="D148" s="36" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="E148" s="36"/>
       <c r="F148" s="41"/>
     </row>
-    <row r="149" spans="2:6">
-      <c r="B149" s="42" t="s">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B149" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="C149" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="D149" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E149" s="36"/>
+      <c r="F149" s="41"/>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B150" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C149" s="36" t="s">
+      <c r="C150" s="36" t="s">
         <v>52</v>
-      </c>
-      <c r="D149" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E149" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="F149" s="41">
-        <v>43819</v>
-      </c>
-    </row>
-    <row r="150" spans="2:6">
-      <c r="B150" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="C150" s="36" t="s">
-        <v>203</v>
       </c>
       <c r="D150" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E150" s="36"/>
-      <c r="F150" s="41"/>
-    </row>
-    <row r="151" spans="2:6">
+      <c r="E150" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="F150" s="41">
+        <v>43819</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B151" s="20" t="s">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="C151" s="36" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="D151" s="36" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E151" s="36"/>
       <c r="F151" s="41"/>
     </row>
-    <row r="152" spans="2:6">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B152" s="20" t="s">
-        <v>222</v>
+        <v>53</v>
       </c>
       <c r="C152" s="36" t="s">
-        <v>223</v>
+        <v>54</v>
       </c>
       <c r="D152" s="36" t="s">
         <v>11</v>
@@ -5547,64 +5570,64 @@
       <c r="E152" s="36"/>
       <c r="F152" s="41"/>
     </row>
-    <row r="153" spans="2:6">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B153" s="20" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="C153" s="36" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="D153" s="36" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="E153" s="36"/>
       <c r="F153" s="41"/>
     </row>
-    <row r="154" spans="2:6">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B154" s="20" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="C154" s="36" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="D154" s="36" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="E154" s="36"/>
       <c r="F154" s="41"/>
     </row>
-    <row r="155" spans="2:6">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B155" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C155" s="36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D155" s="36" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="E155" s="36"/>
       <c r="F155" s="41"/>
     </row>
-    <row r="156" spans="2:6">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B156" s="20" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="C156" s="36" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="D156" s="36" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="E156" s="36"/>
       <c r="F156" s="41"/>
     </row>
-    <row r="157" spans="2:6">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B157" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C157" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D157" s="36" t="s">
         <v>11</v>
@@ -5612,98 +5635,98 @@
       <c r="E157" s="36"/>
       <c r="F157" s="41"/>
     </row>
-    <row r="158" spans="2:6">
-      <c r="B158" s="42" t="s">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B158" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C158" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D158" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="36"/>
+      <c r="F158" s="41"/>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B159" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C158" s="36" t="s">
+      <c r="C159" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D158" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E158" s="36" t="s">
+      <c r="D159" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="F158" s="41">
+      <c r="F159" s="41">
         <v>43798</v>
       </c>
     </row>
-    <row r="159" spans="2:6">
-      <c r="B159" s="20" t="s">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B160" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C159" s="36" t="s">
+      <c r="C160" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="D159" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E159" s="36"/>
-      <c r="F159" s="41"/>
-    </row>
-    <row r="160" spans="2:6">
-      <c r="B160" s="42" t="s">
+      <c r="D160" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" s="36"/>
+      <c r="F160" s="41"/>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B161" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="C160" s="36" t="s">
+      <c r="C161" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="D160" s="36" t="s">
+      <c r="D161" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E160" s="36" t="s">
+      <c r="E161" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="F160" s="41">
+      <c r="F161" s="41">
         <v>43735</v>
       </c>
     </row>
-    <row r="161" spans="2:6">
-      <c r="B161" s="20" t="s">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B162" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C161" s="36" t="s">
+      <c r="C162" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D161" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E161" s="36"/>
-      <c r="F161" s="41"/>
-    </row>
-    <row r="162" spans="2:6">
-      <c r="B162" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C162" s="36" t="s">
-        <v>146</v>
-      </c>
       <c r="D162" s="36" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="E162" s="36"/>
       <c r="F162" s="41"/>
     </row>
-    <row r="163" spans="2:6">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B163" s="20" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="C163" s="36" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="D163" s="36" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="E163" s="36"/>
       <c r="F163" s="41"/>
     </row>
-    <row r="164" spans="2:6">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B164" s="20" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="C164" s="36" t="s">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="D164" s="36" t="s">
         <v>11</v>
@@ -5711,116 +5734,116 @@
       <c r="E164" s="36"/>
       <c r="F164" s="41"/>
     </row>
-    <row r="165" spans="2:6">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B165" s="20" t="s">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c r="C165" s="36" t="s">
         <v>61</v>
       </c>
       <c r="D165" s="36" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E165" s="36"/>
       <c r="F165" s="41"/>
     </row>
-    <row r="166" spans="2:6">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B166" s="20" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="C166" s="36" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="D166" s="36" t="s">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="E166" s="36"/>
       <c r="F166" s="41"/>
     </row>
-    <row r="167" spans="2:6">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B167" s="20" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="C167" s="36" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="D167" s="36" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="E167" s="36"/>
       <c r="F167" s="41"/>
     </row>
-    <row r="168" spans="2:6">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B168" s="20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C168" s="36" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D168" s="36" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E168" s="36"/>
       <c r="F168" s="41"/>
     </row>
-    <row r="169" spans="2:6">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B169" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C169" s="36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D169" s="36" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E169" s="36"/>
       <c r="F169" s="41"/>
     </row>
-    <row r="170" spans="2:6">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B170" s="20" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="C170" s="36" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="D170" s="36" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="E170" s="36"/>
       <c r="F170" s="41"/>
     </row>
-    <row r="171" spans="2:6">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B171" s="20" t="s">
-        <v>474</v>
+        <v>179</v>
       </c>
       <c r="C171" s="36" t="s">
-        <v>475</v>
+        <v>180</v>
       </c>
       <c r="D171" s="36" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E171" s="36"/>
       <c r="F171" s="41"/>
     </row>
-    <row r="172" spans="2:6">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B172" s="20" t="s">
-        <v>150</v>
+        <v>474</v>
       </c>
       <c r="C172" s="36" t="s">
-        <v>151</v>
+        <v>475</v>
       </c>
       <c r="D172" s="36" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="E172" s="36"/>
       <c r="F172" s="41"/>
     </row>
-    <row r="173" spans="2:6">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B173" s="20" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="C173" s="36" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="D173" s="36" t="s">
         <v>11</v>
@@ -5828,38 +5851,38 @@
       <c r="E173" s="36"/>
       <c r="F173" s="41"/>
     </row>
-    <row r="174" spans="2:6">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B174" s="20" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="C174" s="36" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="D174" s="36" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="E174" s="36"/>
       <c r="F174" s="41"/>
     </row>
-    <row r="175" spans="2:6">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B175" s="20" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="C175" s="36" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="D175" s="36" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="E175" s="36"/>
       <c r="F175" s="41"/>
     </row>
-    <row r="176" spans="2:6">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B176" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C176" s="36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D176" s="36" t="s">
         <v>11</v>
@@ -5867,55 +5890,55 @@
       <c r="E176" s="36"/>
       <c r="F176" s="41"/>
     </row>
-    <row r="177" spans="2:6">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B177" s="20" t="s">
-        <v>476</v>
+        <v>73</v>
       </c>
       <c r="C177" s="36" t="s">
-        <v>477</v>
+        <v>74</v>
       </c>
       <c r="D177" s="36" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="E177" s="36"/>
       <c r="F177" s="41"/>
     </row>
-    <row r="178" spans="2:6">
-      <c r="B178" s="42" t="s">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B178" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="C178" s="36" t="s">
+        <v>477</v>
+      </c>
+      <c r="D178" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E178" s="36"/>
+      <c r="F178" s="41"/>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B179" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="C178" s="36" t="s">
+      <c r="C179" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="D178" s="36" t="s">
+      <c r="D179" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E178" s="38" t="s">
+      <c r="E179" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="F178" s="41">
+      <c r="F179" s="41">
         <v>43728</v>
       </c>
     </row>
-    <row r="179" spans="2:6">
-      <c r="B179" s="20" t="s">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B180" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C179" s="36" t="s">
+      <c r="C180" s="36" t="s">
         <v>155</v>
-      </c>
-      <c r="D179" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E179" s="36"/>
-      <c r="F179" s="41"/>
-    </row>
-    <row r="180" spans="2:6">
-      <c r="B180" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C180" s="36" t="s">
-        <v>182</v>
       </c>
       <c r="D180" s="36" t="s">
         <v>11</v>
@@ -5923,12 +5946,12 @@
       <c r="E180" s="36"/>
       <c r="F180" s="41"/>
     </row>
-    <row r="181" spans="2:6">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B181" s="20" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="C181" s="36" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="D181" s="36" t="s">
         <v>11</v>
@@ -5936,12 +5959,12 @@
       <c r="E181" s="36"/>
       <c r="F181" s="41"/>
     </row>
-    <row r="182" spans="2:6">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B182" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C182" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D182" s="36" t="s">
         <v>11</v>
@@ -5949,42 +5972,42 @@
       <c r="E182" s="36"/>
       <c r="F182" s="41"/>
     </row>
-    <row r="183" spans="2:6">
-      <c r="B183" s="42" t="s">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B183" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C183" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D183" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" s="36"/>
+      <c r="F183" s="41"/>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B184" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="C183" s="36" t="s">
+      <c r="C184" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D183" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E183" s="36" t="s">
+      <c r="D184" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="F183" s="41">
+      <c r="F184" s="41">
         <v>43791</v>
       </c>
     </row>
-    <row r="184" spans="2:6">
-      <c r="B184" s="20" t="s">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B185" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C184" s="36" t="s">
+      <c r="C185" s="36" t="s">
         <v>78</v>
-      </c>
-      <c r="D184" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E184" s="36"/>
-      <c r="F184" s="41"/>
-    </row>
-    <row r="185" spans="2:6">
-      <c r="B185" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C185" s="36" t="s">
-        <v>80</v>
       </c>
       <c r="D185" s="36" t="s">
         <v>11</v>
@@ -5992,12 +6015,12 @@
       <c r="E185" s="36"/>
       <c r="F185" s="41"/>
     </row>
-    <row r="186" spans="2:6">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B186" s="20" t="s">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="C186" s="36" t="s">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="D186" s="36" t="s">
         <v>11</v>
@@ -6005,38 +6028,38 @@
       <c r="E186" s="36"/>
       <c r="F186" s="41"/>
     </row>
-    <row r="187" spans="2:6">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B187" s="20" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="C187" s="36" t="s">
-        <v>82</v>
+        <v>225</v>
       </c>
       <c r="D187" s="36" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="E187" s="36"/>
       <c r="F187" s="41"/>
     </row>
-    <row r="188" spans="2:6">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B188" s="20" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="C188" s="36" t="s">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="D188" s="36" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="E188" s="36"/>
       <c r="F188" s="41"/>
     </row>
-    <row r="189" spans="2:6">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B189" s="20" t="s">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="C189" s="36" t="s">
-        <v>227</v>
+        <v>161</v>
       </c>
       <c r="D189" s="36" t="s">
         <v>11</v>
@@ -6044,38 +6067,38 @@
       <c r="E189" s="36"/>
       <c r="F189" s="41"/>
     </row>
-    <row r="190" spans="2:6">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B190" s="20" t="s">
-        <v>478</v>
+        <v>226</v>
       </c>
       <c r="C190" s="36" t="s">
-        <v>479</v>
+        <v>227</v>
       </c>
       <c r="D190" s="36" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="E190" s="36"/>
       <c r="F190" s="41"/>
     </row>
-    <row r="191" spans="2:6">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B191" s="20" t="s">
-        <v>228</v>
+        <v>478</v>
       </c>
       <c r="C191" s="36" t="s">
-        <v>229</v>
+        <v>479</v>
       </c>
       <c r="D191" s="36" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="E191" s="36"/>
       <c r="F191" s="41"/>
     </row>
-    <row r="192" spans="2:6">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B192" s="20" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="C192" s="36" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="D192" s="36" t="s">
         <v>11</v>
@@ -6083,12 +6106,12 @@
       <c r="E192" s="36"/>
       <c r="F192" s="41"/>
     </row>
-    <row r="193" spans="2:6">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B193" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C193" s="36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D193" s="36" t="s">
         <v>11</v>
@@ -6096,116 +6119,116 @@
       <c r="E193" s="36"/>
       <c r="F193" s="41"/>
     </row>
-    <row r="194" spans="2:6">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B194" s="20" t="s">
-        <v>480</v>
+        <v>164</v>
       </c>
       <c r="C194" s="36" t="s">
-        <v>481</v>
+        <v>165</v>
       </c>
       <c r="D194" s="36" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="E194" s="36"/>
       <c r="F194" s="41"/>
     </row>
-    <row r="195" spans="2:6">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B195" s="20" t="s">
-        <v>86</v>
+        <v>480</v>
       </c>
       <c r="C195" s="36" t="s">
-        <v>87</v>
+        <v>481</v>
       </c>
       <c r="D195" s="36" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="E195" s="36"/>
       <c r="F195" s="41"/>
     </row>
-    <row r="196" spans="2:6">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B196" s="20" t="s">
-        <v>482</v>
+        <v>86</v>
       </c>
       <c r="C196" s="36" t="s">
-        <v>483</v>
+        <v>87</v>
       </c>
       <c r="D196" s="36" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="E196" s="36"/>
       <c r="F196" s="41"/>
     </row>
-    <row r="197" spans="2:6">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B197" s="20" t="s">
-        <v>84</v>
+        <v>482</v>
       </c>
       <c r="C197" s="36" t="s">
-        <v>85</v>
+        <v>483</v>
       </c>
       <c r="D197" s="36" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="E197" s="36"/>
       <c r="F197" s="41"/>
     </row>
-    <row r="198" spans="2:6">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B198" s="20" t="s">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="C198" s="36" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="D198" s="36" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E198" s="36"/>
       <c r="F198" s="41"/>
     </row>
-    <row r="199" spans="2:6">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B199" s="20" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="C199" s="36" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="D199" s="36" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E199" s="36"/>
       <c r="F199" s="41"/>
     </row>
-    <row r="200" spans="2:6">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B200" s="20" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C200" s="36" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D200" s="36" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="E200" s="36"/>
       <c r="F200" s="41"/>
     </row>
-    <row r="201" spans="2:6">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B201" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C201" s="36" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D201" s="36" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="E201" s="36"/>
       <c r="F201" s="41"/>
     </row>
-    <row r="202" spans="2:6">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B202" s="20" t="s">
-        <v>230</v>
+        <v>91</v>
       </c>
       <c r="C202" s="36" t="s">
-        <v>231</v>
+        <v>92</v>
       </c>
       <c r="D202" s="36" t="s">
         <v>11</v>
@@ -6213,12 +6236,12 @@
       <c r="E202" s="36"/>
       <c r="F202" s="41"/>
     </row>
-    <row r="203" spans="2:6">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B203" s="20" t="s">
-        <v>168</v>
+        <v>230</v>
       </c>
       <c r="C203" s="36" t="s">
-        <v>169</v>
+        <v>231</v>
       </c>
       <c r="D203" s="36" t="s">
         <v>11</v>
@@ -6226,12 +6249,12 @@
       <c r="E203" s="36"/>
       <c r="F203" s="41"/>
     </row>
-    <row r="204" spans="2:6">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B204" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C204" s="36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D204" s="36" t="s">
         <v>11</v>
@@ -6239,55 +6262,55 @@
       <c r="E204" s="36"/>
       <c r="F204" s="41"/>
     </row>
-    <row r="205" spans="2:6">
-      <c r="B205" s="42" t="s">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B205" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C205" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D205" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E205" s="36"/>
+      <c r="F205" s="41"/>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B206" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="C205" s="36" t="s">
+      <c r="C206" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="D205" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E205" s="38" t="s">
+      <c r="D206" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E206" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="F205" s="41">
+      <c r="F206" s="41">
         <v>43728</v>
       </c>
     </row>
-    <row r="206" spans="2:6">
-      <c r="B206" s="20" t="s">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B207" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="C206" s="36" t="s">
+      <c r="C207" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="D206" s="36" t="s">
+      <c r="D207" s="36" t="s">
         <v>120</v>
-      </c>
-      <c r="E206" s="36"/>
-      <c r="F206" s="41"/>
-    </row>
-    <row r="207" spans="2:6">
-      <c r="B207" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="C207" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="D207" s="36" t="s">
-        <v>11</v>
       </c>
       <c r="E207" s="36"/>
       <c r="F207" s="41"/>
     </row>
-    <row r="208" spans="2:6">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B208" s="20" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="C208" s="36" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="D208" s="36" t="s">
         <v>11</v>
@@ -6295,12 +6318,12 @@
       <c r="E208" s="36"/>
       <c r="F208" s="41"/>
     </row>
-    <row r="209" spans="2:6">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" s="20" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="C209" s="36" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="D209" s="36" t="s">
         <v>11</v>
@@ -6308,12 +6331,12 @@
       <c r="E209" s="36"/>
       <c r="F209" s="41"/>
     </row>
-    <row r="210" spans="2:6">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B210" s="20" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="C210" s="36" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="D210" s="36" t="s">
         <v>11</v>
@@ -6321,27 +6344,40 @@
       <c r="E210" s="36"/>
       <c r="F210" s="41"/>
     </row>
-    <row r="211" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B211" s="23" t="s">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B211" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C211" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D211" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211" s="36"/>
+      <c r="F211" s="41"/>
+    </row>
+    <row r="212" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B212" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C211" s="47" t="s">
+      <c r="C212" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="D211" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E211" s="47"/>
-      <c r="F211" s="48"/>
+      <c r="D212" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E212" s="47"/>
+      <c r="F212" s="48"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:F212" xr:uid="{C1EE0C99-C2F8-4E13-983A-B3DCF9299796}"/>
+  <autoFilter ref="B3:F213" xr:uid="{C1EE0C99-C2F8-4E13-983A-B3DCF9299796}"/>
   <mergeCells count="5">
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6357,7 +6393,7 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="0.875" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
@@ -6368,8 +6404,8 @@
     <col min="7" max="7" width="12.875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="5.25" customHeight="1"/>
-    <row r="2" spans="2:7" ht="20.25">
+    <row r="1" spans="2:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
@@ -6389,7 +6425,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>237</v>
       </c>
@@ -6409,7 +6445,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>237</v>
       </c>
@@ -6444,13 +6480,13 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="17.25" thickBot="1"/>
-    <row r="3" spans="2:3">
+    <row r="2" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>261</v>
       </c>
@@ -6459,7 +6495,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>241</v>
       </c>
@@ -6468,7 +6504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="20" t="s">
         <v>346</v>
       </c>
@@ -6477,7 +6513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
         <v>243</v>
       </c>
@@ -6486,7 +6522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="20" t="s">
         <v>242</v>
       </c>
@@ -6495,7 +6531,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="33">
+    <row r="8" spans="2:3" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="22" t="s">
         <v>246</v>
       </c>
@@ -6505,7 +6541,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="17.25" thickBot="1">
+    <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="23" t="s">
         <v>345</v>
       </c>
@@ -6531,7 +6567,7 @@
       <selection pane="bottomLeft" activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="0.625" customWidth="1"/>
     <col min="2" max="2" width="19.375" style="1" bestFit="1" customWidth="1"/>
@@ -6542,18 +6578,18 @@
     <col min="7" max="7" width="11.125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="5.25" customHeight="1"/>
-    <row r="2" spans="2:7" ht="38.25">
-      <c r="B2" s="71" t="s">
+    <row r="1" spans="2:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="70" t="s">
         <v>347</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-    </row>
-    <row r="3" spans="2:7" s="3" customFormat="1" ht="20.25">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+    </row>
+    <row r="3" spans="2:7" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -6573,7 +6609,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -6589,63 +6625,63 @@
       <c r="F4" s="27"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="2:7" ht="49.5">
+    <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="72"/>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="E5" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="62"/>
+      <c r="G5" s="71"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="72"/>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="71"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>239</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="61" t="s">
+      <c r="E7" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="62" t="s">
         <v>251</v>
       </c>
       <c r="G7" s="65">
         <v>43763</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="33">
+    <row r="8" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>266</v>
       </c>
       <c r="C8" s="37"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="65"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
@@ -6661,33 +6697,33 @@
       <c r="F9" s="27"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="61"/>
+      <c r="E10" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="62"/>
       <c r="G10" s="65"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="65"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
@@ -6703,59 +6739,59 @@
       <c r="F12" s="27"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="2:7" ht="49.5">
+    <row r="13" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="61"/>
+      <c r="E13" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="62"/>
       <c r="G13" s="65"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="65"/>
     </row>
-    <row r="15" spans="2:7" ht="49.5">
+    <row r="15" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="61"/>
+      <c r="E15" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="62"/>
       <c r="G15" s="65"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="65"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
@@ -6771,7 +6807,7 @@
       <c r="F17" s="27"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
@@ -6791,7 +6827,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
@@ -6807,33 +6843,33 @@
       <c r="F19" s="27"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="61"/>
+      <c r="E20" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="62"/>
       <c r="G20" s="65"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
       <c r="G21" s="65"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
         <v>2</v>
       </c>
@@ -6849,85 +6885,85 @@
       <c r="F22" s="27"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="61"/>
+      <c r="E23" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="62"/>
       <c r="G23" s="65"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
       <c r="G24" s="65"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="62" t="s">
         <v>238</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="61"/>
+      <c r="E25" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="62"/>
       <c r="G25" s="65"/>
     </row>
-    <row r="26" spans="2:7" ht="49.5">
+    <row r="26" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
       <c r="G26" s="65"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="61" t="s">
+      <c r="D27" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="70"/>
+      <c r="E27" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="67"/>
       <c r="G27" s="65"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="70"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="65"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>2</v>
       </c>
@@ -6943,59 +6979,59 @@
       <c r="F29" s="27"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="D30" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="61"/>
+      <c r="E30" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="62"/>
       <c r="G30" s="65"/>
     </row>
-    <row r="31" spans="2:7" ht="33">
+    <row r="31" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
       <c r="G31" s="65"/>
     </row>
-    <row r="32" spans="2:7" ht="49.5">
+    <row r="32" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="61" t="s">
+      <c r="D32" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="61"/>
+      <c r="E32" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="62"/>
       <c r="G32" s="65"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
       <c r="G33" s="65"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
         <v>2</v>
       </c>
@@ -7011,59 +7047,59 @@
       <c r="F34" s="27"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="2:7" ht="49.5">
+    <row r="35" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="61" t="s">
+      <c r="D35" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="61"/>
+      <c r="E35" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="62"/>
       <c r="G35" s="65"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
       <c r="G36" s="65"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="61" t="s">
+      <c r="D37" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="61"/>
+      <c r="E37" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="62"/>
       <c r="G37" s="65"/>
     </row>
-    <row r="38" spans="2:7" ht="49.5">
+    <row r="38" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="65"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
         <v>2</v>
       </c>
@@ -7079,33 +7115,33 @@
       <c r="F39" s="27"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="61" t="s">
+      <c r="C40" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="61" t="s">
+      <c r="D40" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="61" t="s">
+      <c r="E40" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="61"/>
+      <c r="F40" s="62"/>
       <c r="G40" s="65"/>
     </row>
-    <row r="41" spans="2:7" ht="49.5">
+    <row r="41" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
       <c r="G41" s="65"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
         <v>2</v>
       </c>
@@ -7125,7 +7161,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
         <v>2</v>
       </c>
@@ -7141,33 +7177,33 @@
       <c r="F43" s="27"/>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="61" t="s">
+      <c r="C44" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="61" t="s">
+      <c r="D44" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="61"/>
+      <c r="E44" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="62"/>
       <c r="G44" s="65"/>
     </row>
-    <row r="45" spans="2:7" ht="33">
+    <row r="45" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
       <c r="G45" s="65"/>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="6" t="s">
         <v>2</v>
       </c>
@@ -7183,7 +7219,7 @@
       <c r="F46" s="27"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="6" t="s">
         <v>2</v>
       </c>
@@ -7203,33 +7239,33 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="61" t="s">
+      <c r="C48" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="61" t="s">
+      <c r="D48" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="61"/>
+      <c r="E48" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="62"/>
       <c r="G48" s="65"/>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
       <c r="G49" s="65"/>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="6" t="s">
         <v>2</v>
       </c>
@@ -7245,7 +7281,7 @@
       <c r="F50" s="27"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="6" t="s">
         <v>2</v>
       </c>
@@ -7261,7 +7297,7 @@
       <c r="F51" s="27"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>244</v>
       </c>
@@ -7273,7 +7309,7 @@
       <c r="F52" s="27"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="6" t="s">
         <v>245</v>
       </c>
@@ -7285,7 +7321,7 @@
       <c r="F53" s="27"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="6" t="s">
         <v>2</v>
       </c>
@@ -7301,173 +7337,173 @@
       <c r="F54" s="27"/>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="61" t="s">
+      <c r="C55" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="61" t="s">
+      <c r="D55" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="61"/>
+      <c r="E55" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="62"/>
       <c r="G55" s="65"/>
     </row>
-    <row r="56" spans="2:7" ht="33">
+    <row r="56" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
       <c r="G56" s="65"/>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="61" t="s">
+      <c r="C57" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="61" t="s">
+      <c r="D57" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="61"/>
+      <c r="E57" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="62"/>
       <c r="G57" s="65"/>
     </row>
-    <row r="58" spans="2:7" ht="33">
+    <row r="58" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C58" s="61"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="62"/>
       <c r="G58" s="65"/>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="61" t="s">
+      <c r="C59" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="61" t="s">
+      <c r="D59" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="E59" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="61"/>
+      <c r="E59" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="62"/>
       <c r="G59" s="65"/>
     </row>
-    <row r="60" spans="2:7" ht="49.5">
+    <row r="60" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62"/>
       <c r="G60" s="65"/>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="61" t="s">
+      <c r="C61" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="61" t="s">
+      <c r="D61" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="61"/>
+      <c r="E61" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="62"/>
       <c r="G61" s="65"/>
     </row>
-    <row r="62" spans="2:7" ht="49.5">
+    <row r="62" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="62"/>
       <c r="G62" s="65"/>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62"/>
       <c r="G63" s="65"/>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="61" t="s">
+      <c r="C64" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="61" t="s">
+      <c r="D64" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="E64" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="61"/>
+      <c r="E64" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="62"/>
       <c r="G64" s="65"/>
     </row>
-    <row r="65" spans="2:7" ht="49.5">
+    <row r="65" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
       <c r="G65" s="65"/>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="61" t="s">
+      <c r="C66" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="D66" s="61" t="s">
+      <c r="D66" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="E66" s="61" t="s">
+      <c r="E66" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="F66" s="61"/>
+      <c r="F66" s="62"/>
       <c r="G66" s="65"/>
     </row>
-    <row r="67" spans="2:7" ht="33">
+    <row r="67" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="62"/>
       <c r="G67" s="65"/>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
         <v>2</v>
       </c>
@@ -7483,7 +7519,7 @@
       <c r="F68" s="27"/>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="6" t="s">
         <v>2</v>
       </c>
@@ -7499,7 +7535,7 @@
       <c r="F69" s="27"/>
       <c r="G69" s="11"/>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="6" t="s">
         <v>2</v>
       </c>
@@ -7515,163 +7551,163 @@
       <c r="F70" s="27"/>
       <c r="G70" s="11"/>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="61" t="s">
+      <c r="C71" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="D71" s="61" t="s">
+      <c r="D71" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="61"/>
+      <c r="E71" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="62"/>
       <c r="G71" s="65"/>
     </row>
-    <row r="72" spans="2:7" ht="49.5">
+    <row r="72" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
       <c r="G72" s="65"/>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C73" s="61" t="s">
+      <c r="C73" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="D73" s="61" t="s">
+      <c r="D73" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="E73" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="61"/>
+      <c r="E73" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="62"/>
       <c r="G73" s="65"/>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="61"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
       <c r="G74" s="65"/>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="61" t="s">
+      <c r="C75" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="D75" s="61" t="s">
+      <c r="D75" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="E75" s="61" t="s">
+      <c r="E75" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F75" s="70"/>
+      <c r="F75" s="67"/>
       <c r="G75" s="65"/>
     </row>
-    <row r="76" spans="2:7" ht="33">
+    <row r="76" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="61"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="70"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="67"/>
       <c r="G76" s="65"/>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C77" s="61" t="s">
+      <c r="C77" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="61" t="s">
+      <c r="D77" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="E77" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="61"/>
+      <c r="E77" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="62"/>
       <c r="G77" s="65"/>
     </row>
-    <row r="78" spans="2:7" ht="33">
+    <row r="78" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C78" s="61"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="61"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
       <c r="G78" s="65"/>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C79" s="61" t="s">
+      <c r="C79" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="D79" s="61" t="s">
+      <c r="D79" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="E79" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="61"/>
+      <c r="E79" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="62"/>
       <c r="G79" s="65"/>
     </row>
-    <row r="80" spans="2:7" ht="33">
+    <row r="80" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B80" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C80" s="61"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="61"/>
-      <c r="F80" s="61"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="62"/>
       <c r="G80" s="65"/>
     </row>
-    <row r="81" spans="2:7" ht="33">
+    <row r="81" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="61" t="s">
+      <c r="C81" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="61" t="s">
+      <c r="D81" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="E81" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="61"/>
+      <c r="E81" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="62"/>
       <c r="G81" s="65"/>
     </row>
-    <row r="82" spans="2:7">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C82" s="61"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
       <c r="G82" s="65"/>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="6" t="s">
         <v>241</v>
       </c>
@@ -7687,33 +7723,33 @@
       <c r="F83" s="27"/>
       <c r="G83" s="11"/>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C84" s="61" t="s">
+      <c r="C84" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="D84" s="61" t="s">
+      <c r="D84" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="E84" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="61"/>
+      <c r="E84" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="62"/>
       <c r="G84" s="65"/>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="62"/>
+      <c r="E85" s="62"/>
+      <c r="F85" s="62"/>
       <c r="G85" s="65"/>
     </row>
-    <row r="86" spans="2:7">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="6" t="s">
         <v>241</v>
       </c>
@@ -7733,33 +7769,33 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C87" s="61" t="s">
+      <c r="C87" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="D87" s="61" t="s">
+      <c r="D87" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="E87" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="61"/>
+      <c r="E87" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="62"/>
       <c r="G87" s="65"/>
     </row>
-    <row r="88" spans="2:7" ht="33">
+    <row r="88" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C88" s="61"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="61"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="62"/>
+      <c r="E88" s="62"/>
+      <c r="F88" s="62"/>
       <c r="G88" s="65"/>
     </row>
-    <row r="89" spans="2:7">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="6" t="s">
         <v>240</v>
       </c>
@@ -7779,33 +7815,33 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="33">
+    <row r="90" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C90" s="61" t="s">
+      <c r="C90" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="D90" s="61" t="s">
+      <c r="D90" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="E90" s="61" t="s">
+      <c r="E90" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="F90" s="61"/>
+      <c r="F90" s="62"/>
       <c r="G90" s="65"/>
     </row>
-    <row r="91" spans="2:7" ht="33">
+    <row r="91" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C91" s="61"/>
-      <c r="D91" s="61"/>
-      <c r="E91" s="61"/>
-      <c r="F91" s="61"/>
+      <c r="C91" s="62"/>
+      <c r="D91" s="62"/>
+      <c r="E91" s="62"/>
+      <c r="F91" s="62"/>
       <c r="G91" s="65"/>
     </row>
-    <row r="92" spans="2:7">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="6" t="s">
         <v>240</v>
       </c>
@@ -7821,7 +7857,7 @@
       <c r="F92" s="27"/>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="6" t="s">
         <v>240</v>
       </c>
@@ -7837,7 +7873,7 @@
       <c r="F93" s="27"/>
       <c r="G93" s="11"/>
     </row>
-    <row r="94" spans="2:7">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="6" t="s">
         <v>240</v>
       </c>
@@ -7857,7 +7893,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="6" t="s">
         <v>240</v>
       </c>
@@ -7873,33 +7909,33 @@
       <c r="F95" s="27"/>
       <c r="G95" s="11"/>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C96" s="61" t="s">
+      <c r="C96" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="D96" s="61" t="s">
+      <c r="D96" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="E96" s="61" t="s">
+      <c r="E96" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="F96" s="61"/>
+      <c r="F96" s="62"/>
       <c r="G96" s="65"/>
     </row>
-    <row r="97" spans="2:7" ht="33">
+    <row r="97" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C97" s="61"/>
-      <c r="D97" s="61"/>
-      <c r="E97" s="61"/>
-      <c r="F97" s="61"/>
+      <c r="C97" s="62"/>
+      <c r="D97" s="62"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="62"/>
       <c r="G97" s="65"/>
     </row>
-    <row r="98" spans="2:7">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="6" t="s">
         <v>240</v>
       </c>
@@ -7919,7 +7955,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="99" spans="2:7">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="6" t="s">
         <v>240</v>
       </c>
@@ -7935,37 +7971,37 @@
       <c r="F99" s="27"/>
       <c r="G99" s="11"/>
     </row>
-    <row r="100" spans="2:7">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C100" s="64" t="s">
+      <c r="C100" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="D100" s="61" t="s">
+      <c r="D100" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="61" t="s">
+      <c r="E100" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="G100" s="73">
+      <c r="G100" s="68">
         <v>43728</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="33">
+    <row r="101" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C101" s="64"/>
-      <c r="D101" s="61"/>
-      <c r="E101" s="61"/>
-      <c r="F101" s="61"/>
-      <c r="G101" s="74"/>
-    </row>
-    <row r="102" spans="2:7">
+      <c r="C101" s="66"/>
+      <c r="D101" s="62"/>
+      <c r="E101" s="62"/>
+      <c r="F101" s="62"/>
+      <c r="G101" s="69"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="6" t="s">
         <v>240</v>
       </c>
@@ -7985,7 +8021,7 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="103" spans="2:7">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="6" t="s">
         <v>240</v>
       </c>
@@ -8001,7 +8037,7 @@
       <c r="F103" s="27"/>
       <c r="G103" s="11"/>
     </row>
-    <row r="104" spans="2:7">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" s="6" t="s">
         <v>240</v>
       </c>
@@ -8017,7 +8053,7 @@
       <c r="F104" s="27"/>
       <c r="G104" s="11"/>
     </row>
-    <row r="105" spans="2:7">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" s="6" t="s">
         <v>240</v>
       </c>
@@ -8033,33 +8069,33 @@
       <c r="F105" s="27"/>
       <c r="G105" s="11"/>
     </row>
-    <row r="106" spans="2:7">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C106" s="61" t="s">
+      <c r="C106" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="D106" s="61" t="s">
+      <c r="D106" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="E106" s="61" t="s">
+      <c r="E106" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="F106" s="61"/>
+      <c r="F106" s="62"/>
       <c r="G106" s="65"/>
     </row>
-    <row r="107" spans="2:7" ht="49.5">
+    <row r="107" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C107" s="61"/>
-      <c r="D107" s="61"/>
-      <c r="E107" s="61"/>
-      <c r="F107" s="61"/>
+      <c r="C107" s="62"/>
+      <c r="D107" s="62"/>
+      <c r="E107" s="62"/>
+      <c r="F107" s="62"/>
       <c r="G107" s="65"/>
     </row>
-    <row r="108" spans="2:7">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" s="6" t="s">
         <v>240</v>
       </c>
@@ -8079,59 +8115,59 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="109" spans="2:7">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C109" s="61" t="s">
+      <c r="C109" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="D109" s="61" t="s">
+      <c r="D109" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="E109" s="61" t="s">
+      <c r="E109" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="F109" s="61"/>
+      <c r="F109" s="62"/>
       <c r="G109" s="65"/>
     </row>
-    <row r="110" spans="2:7" ht="33">
+    <row r="110" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B110" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C110" s="61"/>
-      <c r="D110" s="61"/>
-      <c r="E110" s="61"/>
-      <c r="F110" s="61"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="62"/>
+      <c r="E110" s="62"/>
+      <c r="F110" s="62"/>
       <c r="G110" s="65"/>
     </row>
-    <row r="111" spans="2:7">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C111" s="61" t="s">
+      <c r="C111" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="D111" s="61" t="s">
+      <c r="D111" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="E111" s="61" t="s">
+      <c r="E111" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="F111" s="61"/>
+      <c r="F111" s="62"/>
       <c r="G111" s="65"/>
     </row>
-    <row r="112" spans="2:7" ht="33">
+    <row r="112" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C112" s="61"/>
-      <c r="D112" s="61"/>
-      <c r="E112" s="61"/>
-      <c r="F112" s="61"/>
+      <c r="C112" s="62"/>
+      <c r="D112" s="62"/>
+      <c r="E112" s="62"/>
+      <c r="F112" s="62"/>
       <c r="G112" s="65"/>
     </row>
-    <row r="113" spans="2:7">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="6" t="s">
         <v>240</v>
       </c>
@@ -8147,7 +8183,7 @@
       <c r="F113" s="27"/>
       <c r="G113" s="11"/>
     </row>
-    <row r="114" spans="2:7">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="6" t="s">
         <v>240</v>
       </c>
@@ -8163,7 +8199,7 @@
       <c r="F114" s="27"/>
       <c r="G114" s="11"/>
     </row>
-    <row r="115" spans="2:7">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="6" t="s">
         <v>240</v>
       </c>
@@ -8179,7 +8215,7 @@
       <c r="F115" s="27"/>
       <c r="G115" s="11"/>
     </row>
-    <row r="116" spans="2:7">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="6" t="s">
         <v>240</v>
       </c>
@@ -8195,59 +8231,59 @@
       <c r="F116" s="27"/>
       <c r="G116" s="11"/>
     </row>
-    <row r="117" spans="2:7">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C117" s="61" t="s">
+      <c r="C117" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D117" s="61" t="s">
+      <c r="D117" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="E117" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="61"/>
+      <c r="E117" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="62"/>
       <c r="G117" s="65"/>
     </row>
-    <row r="118" spans="2:7" ht="33">
+    <row r="118" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C118" s="61"/>
-      <c r="D118" s="61"/>
-      <c r="E118" s="61"/>
-      <c r="F118" s="61"/>
+      <c r="C118" s="62"/>
+      <c r="D118" s="62"/>
+      <c r="E118" s="62"/>
+      <c r="F118" s="62"/>
       <c r="G118" s="65"/>
     </row>
-    <row r="119" spans="2:7" ht="33">
+    <row r="119" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C119" s="61" t="s">
+      <c r="C119" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D119" s="61" t="s">
+      <c r="D119" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="E119" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="61"/>
+      <c r="E119" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="62"/>
       <c r="G119" s="65"/>
     </row>
-    <row r="120" spans="2:7" ht="33">
+    <row r="120" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B120" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C120" s="61"/>
-      <c r="D120" s="61"/>
-      <c r="E120" s="61"/>
-      <c r="F120" s="61"/>
+      <c r="C120" s="62"/>
+      <c r="D120" s="62"/>
+      <c r="E120" s="62"/>
+      <c r="F120" s="62"/>
       <c r="G120" s="65"/>
     </row>
-    <row r="121" spans="2:7">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="6" t="s">
         <v>240</v>
       </c>
@@ -8263,7 +8299,7 @@
       <c r="F121" s="27"/>
       <c r="G121" s="11"/>
     </row>
-    <row r="122" spans="2:7">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="6" t="s">
         <v>240</v>
       </c>
@@ -8279,7 +8315,7 @@
       <c r="F122" s="27"/>
       <c r="G122" s="11"/>
     </row>
-    <row r="123" spans="2:7">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" s="6" t="s">
         <v>240</v>
       </c>
@@ -8295,7 +8331,7 @@
       <c r="F123" s="27"/>
       <c r="G123" s="11"/>
     </row>
-    <row r="124" spans="2:7">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124" s="6" t="s">
         <v>240</v>
       </c>
@@ -8311,7 +8347,7 @@
       <c r="F124" s="27"/>
       <c r="G124" s="11"/>
     </row>
-    <row r="125" spans="2:7">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="6" t="s">
         <v>240</v>
       </c>
@@ -8327,7 +8363,7 @@
       <c r="F125" s="27"/>
       <c r="G125" s="11"/>
     </row>
-    <row r="126" spans="2:7">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126" s="6" t="s">
         <v>240</v>
       </c>
@@ -8343,33 +8379,33 @@
       <c r="F126" s="27"/>
       <c r="G126" s="11"/>
     </row>
-    <row r="127" spans="2:7">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C127" s="61" t="s">
+      <c r="C127" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D127" s="61" t="s">
+      <c r="D127" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="E127" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="61"/>
+      <c r="E127" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="62"/>
       <c r="G127" s="65"/>
     </row>
-    <row r="128" spans="2:7" ht="33">
+    <row r="128" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B128" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C128" s="61"/>
-      <c r="D128" s="61"/>
-      <c r="E128" s="61"/>
-      <c r="F128" s="61"/>
+      <c r="C128" s="62"/>
+      <c r="D128" s="62"/>
+      <c r="E128" s="62"/>
+      <c r="F128" s="62"/>
       <c r="G128" s="65"/>
     </row>
-    <row r="129" spans="2:7">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129" s="6" t="s">
         <v>244</v>
       </c>
@@ -8381,7 +8417,7 @@
       <c r="F129" s="27"/>
       <c r="G129" s="11"/>
     </row>
-    <row r="130" spans="2:7">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B130" s="6" t="s">
         <v>243</v>
       </c>
@@ -8397,7 +8433,7 @@
       <c r="F130" s="27"/>
       <c r="G130" s="11"/>
     </row>
-    <row r="131" spans="2:7">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B131" s="6" t="s">
         <v>243</v>
       </c>
@@ -8413,33 +8449,33 @@
       <c r="F131" s="27"/>
       <c r="G131" s="11"/>
     </row>
-    <row r="132" spans="2:7">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B132" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C132" s="61" t="s">
+      <c r="C132" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D132" s="61" t="s">
+      <c r="D132" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="E132" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="61"/>
+      <c r="E132" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="62"/>
       <c r="G132" s="65"/>
     </row>
-    <row r="133" spans="2:7" ht="33">
+    <row r="133" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B133" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C133" s="61"/>
-      <c r="D133" s="61"/>
-      <c r="E133" s="61"/>
-      <c r="F133" s="61"/>
+      <c r="C133" s="62"/>
+      <c r="D133" s="62"/>
+      <c r="E133" s="62"/>
+      <c r="F133" s="62"/>
       <c r="G133" s="65"/>
     </row>
-    <row r="134" spans="2:7">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B134" s="6" t="s">
         <v>239</v>
       </c>
@@ -8455,7 +8491,7 @@
       <c r="F134" s="27"/>
       <c r="G134" s="11"/>
     </row>
-    <row r="135" spans="2:7">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B135" s="6" t="s">
         <v>239</v>
       </c>
@@ -8471,33 +8507,33 @@
       <c r="F135" s="27"/>
       <c r="G135" s="11"/>
     </row>
-    <row r="136" spans="2:7" ht="49.5">
+    <row r="136" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B136" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C136" s="61" t="s">
+      <c r="C136" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D136" s="61" t="s">
+      <c r="D136" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="E136" s="61" t="s">
+      <c r="E136" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="F136" s="61"/>
+      <c r="F136" s="62"/>
       <c r="G136" s="65"/>
     </row>
-    <row r="137" spans="2:7" ht="33">
+    <row r="137" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B137" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C137" s="61"/>
-      <c r="D137" s="61"/>
-      <c r="E137" s="61"/>
-      <c r="F137" s="61"/>
+      <c r="C137" s="62"/>
+      <c r="D137" s="62"/>
+      <c r="E137" s="62"/>
+      <c r="F137" s="62"/>
       <c r="G137" s="65"/>
     </row>
-    <row r="138" spans="2:7" ht="49.5">
+    <row r="138" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B138" s="7" t="s">
         <v>246</v>
       </c>
@@ -8513,7 +8549,7 @@
       <c r="F138" s="27"/>
       <c r="G138" s="11"/>
     </row>
-    <row r="139" spans="2:7" ht="49.5">
+    <row r="139" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
         <v>246</v>
       </c>
@@ -8533,7 +8569,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="140" spans="2:7" ht="49.5">
+    <row r="140" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B140" s="7" t="s">
         <v>246</v>
       </c>
@@ -8549,7 +8585,7 @@
       <c r="F140" s="27"/>
       <c r="G140" s="11"/>
     </row>
-    <row r="141" spans="2:7" ht="49.5">
+    <row r="141" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B141" s="7" t="s">
         <v>246</v>
       </c>
@@ -8565,7 +8601,7 @@
       <c r="F141" s="27"/>
       <c r="G141" s="11"/>
     </row>
-    <row r="142" spans="2:7" ht="49.5">
+    <row r="142" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B142" s="7" t="s">
         <v>246</v>
       </c>
@@ -8585,33 +8621,33 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="143" spans="2:7">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B143" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C143" s="61" t="s">
+      <c r="C143" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D143" s="61" t="s">
+      <c r="D143" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="E143" s="61" t="s">
+      <c r="E143" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="F143" s="61"/>
+      <c r="F143" s="62"/>
       <c r="G143" s="65"/>
     </row>
-    <row r="144" spans="2:7" ht="49.5">
+    <row r="144" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B144" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C144" s="61"/>
-      <c r="D144" s="61"/>
-      <c r="E144" s="61"/>
-      <c r="F144" s="61"/>
+      <c r="C144" s="62"/>
+      <c r="D144" s="62"/>
+      <c r="E144" s="62"/>
+      <c r="F144" s="62"/>
       <c r="G144" s="65"/>
     </row>
-    <row r="145" spans="2:7" ht="49.5">
+    <row r="145" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B145" s="7" t="s">
         <v>246</v>
       </c>
@@ -8627,7 +8663,7 @@
       <c r="F145" s="27"/>
       <c r="G145" s="11"/>
     </row>
-    <row r="146" spans="2:7" ht="49.5">
+    <row r="146" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B146" s="7" t="s">
         <v>246</v>
       </c>
@@ -8647,7 +8683,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="147" spans="2:7" ht="49.5">
+    <row r="147" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B147" s="7" t="s">
         <v>246</v>
       </c>
@@ -8667,7 +8703,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="148" spans="2:7" ht="49.5">
+    <row r="148" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B148" s="7" t="s">
         <v>246</v>
       </c>
@@ -8683,33 +8719,33 @@
       <c r="F148" s="27"/>
       <c r="G148" s="11"/>
     </row>
-    <row r="149" spans="2:7">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C149" s="61" t="s">
+      <c r="C149" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D149" s="61" t="s">
+      <c r="D149" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="E149" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="61"/>
+      <c r="E149" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="62"/>
       <c r="G149" s="65"/>
     </row>
-    <row r="150" spans="2:7" ht="49.5">
+    <row r="150" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B150" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C150" s="61"/>
-      <c r="D150" s="61"/>
-      <c r="E150" s="61"/>
-      <c r="F150" s="61"/>
+      <c r="C150" s="62"/>
+      <c r="D150" s="62"/>
+      <c r="E150" s="62"/>
+      <c r="F150" s="62"/>
       <c r="G150" s="65"/>
     </row>
-    <row r="151" spans="2:7">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B151" s="6" t="s">
         <v>242</v>
       </c>
@@ -8725,7 +8761,7 @@
       <c r="F151" s="27"/>
       <c r="G151" s="11"/>
     </row>
-    <row r="152" spans="2:7">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B152" s="6" t="s">
         <v>242</v>
       </c>
@@ -8741,7 +8777,7 @@
       <c r="F152" s="27"/>
       <c r="G152" s="11"/>
     </row>
-    <row r="153" spans="2:7">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B153" s="6" t="s">
         <v>242</v>
       </c>
@@ -8757,7 +8793,7 @@
       <c r="F153" s="27"/>
       <c r="G153" s="11"/>
     </row>
-    <row r="154" spans="2:7">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B154" s="6" t="s">
         <v>242</v>
       </c>
@@ -8773,7 +8809,7 @@
       <c r="F154" s="27"/>
       <c r="G154" s="11"/>
     </row>
-    <row r="155" spans="2:7">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B155" s="6" t="s">
         <v>242</v>
       </c>
@@ -8789,7 +8825,7 @@
       <c r="F155" s="27"/>
       <c r="G155" s="11"/>
     </row>
-    <row r="156" spans="2:7">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B156" s="6" t="s">
         <v>242</v>
       </c>
@@ -8805,7 +8841,7 @@
       <c r="F156" s="27"/>
       <c r="G156" s="11"/>
     </row>
-    <row r="157" spans="2:7">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B157" s="6" t="s">
         <v>242</v>
       </c>
@@ -8821,7 +8857,7 @@
       <c r="F157" s="27"/>
       <c r="G157" s="11"/>
     </row>
-    <row r="158" spans="2:7">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B158" s="6" t="s">
         <v>242</v>
       </c>
@@ -8837,7 +8873,7 @@
       <c r="F158" s="27"/>
       <c r="G158" s="11"/>
     </row>
-    <row r="159" spans="2:7">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B159" s="6" t="s">
         <v>242</v>
       </c>
@@ -8853,7 +8889,7 @@
       <c r="F159" s="27"/>
       <c r="G159" s="11"/>
     </row>
-    <row r="160" spans="2:7">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B160" s="6" t="s">
         <v>242</v>
       </c>
@@ -8869,7 +8905,7 @@
       <c r="F160" s="27"/>
       <c r="G160" s="11"/>
     </row>
-    <row r="161" spans="2:7">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B161" s="13" t="s">
         <v>261</v>
       </c>
@@ -8885,7 +8921,7 @@
       <c r="F161" s="13"/>
       <c r="G161" s="16"/>
     </row>
-    <row r="162" spans="2:7">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B162" s="13" t="s">
         <v>240</v>
       </c>
@@ -8901,7 +8937,7 @@
       <c r="F162" s="13"/>
       <c r="G162" s="16"/>
     </row>
-    <row r="163" spans="2:7">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B163" s="13" t="s">
         <v>242</v>
       </c>
@@ -8917,73 +8953,73 @@
       <c r="F163" s="13"/>
       <c r="G163" s="16"/>
     </row>
-    <row r="164" spans="2:7">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B164" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C164" s="69" t="s">
+      <c r="C164" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="D164" s="68" t="s">
+      <c r="D164" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="E164" s="68" t="s">
+      <c r="E164" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="F164" s="68" t="s">
+      <c r="F164" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="G164" s="67">
+      <c r="G164" s="72">
         <v>43763</v>
       </c>
     </row>
-    <row r="165" spans="2:7">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B165" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="C165" s="69"/>
-      <c r="D165" s="68"/>
-      <c r="E165" s="68"/>
-      <c r="F165" s="68"/>
-      <c r="G165" s="67"/>
-    </row>
-    <row r="166" spans="2:7">
+      <c r="C165" s="74"/>
+      <c r="D165" s="73"/>
+      <c r="E165" s="73"/>
+      <c r="F165" s="73"/>
+      <c r="G165" s="72"/>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B166" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C166" s="69"/>
-      <c r="D166" s="68"/>
-      <c r="E166" s="68"/>
-      <c r="F166" s="68"/>
-      <c r="G166" s="67"/>
-    </row>
-    <row r="167" spans="2:7">
+      <c r="C166" s="74"/>
+      <c r="D166" s="73"/>
+      <c r="E166" s="73"/>
+      <c r="F166" s="73"/>
+      <c r="G166" s="72"/>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B167" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C167" s="61" t="s">
+      <c r="C167" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="D167" s="66" t="s">
+      <c r="D167" s="75" t="s">
         <v>271</v>
       </c>
-      <c r="E167" s="61" t="s">
+      <c r="E167" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="F167" s="61"/>
+      <c r="F167" s="62"/>
       <c r="G167" s="65"/>
     </row>
-    <row r="168" spans="2:7">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B168" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C168" s="61"/>
-      <c r="D168" s="66"/>
-      <c r="E168" s="61"/>
-      <c r="F168" s="61"/>
+      <c r="C168" s="62"/>
+      <c r="D168" s="75"/>
+      <c r="E168" s="62"/>
+      <c r="F168" s="62"/>
       <c r="G168" s="65"/>
     </row>
-    <row r="169" spans="2:7">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B169" s="14" t="s">
         <v>2</v>
       </c>
@@ -8999,89 +9035,89 @@
       <c r="F169" s="27"/>
       <c r="G169" s="11"/>
     </row>
-    <row r="170" spans="2:7">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B170" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C170" s="61" t="s">
+      <c r="C170" s="62" t="s">
         <v>311</v>
       </c>
-      <c r="D170" s="61" t="s">
+      <c r="D170" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="E170" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F170" s="61"/>
+      <c r="E170" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" s="62"/>
       <c r="G170" s="65"/>
     </row>
-    <row r="171" spans="2:7" ht="49.5">
+    <row r="171" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B171" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C171" s="61"/>
-      <c r="D171" s="61"/>
-      <c r="E171" s="61"/>
-      <c r="F171" s="61"/>
+      <c r="C171" s="62"/>
+      <c r="D171" s="62"/>
+      <c r="E171" s="62"/>
+      <c r="F171" s="62"/>
       <c r="G171" s="65"/>
     </row>
-    <row r="172" spans="2:7">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B172" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="61" t="s">
+      <c r="C172" s="62" t="s">
         <v>310</v>
       </c>
-      <c r="D172" s="66" t="s">
+      <c r="D172" s="75" t="s">
         <v>275</v>
       </c>
-      <c r="E172" s="61" t="s">
+      <c r="E172" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="F172" s="61"/>
+      <c r="F172" s="62"/>
       <c r="G172" s="65"/>
     </row>
-    <row r="173" spans="2:7" ht="49.5">
+    <row r="173" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B173" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C173" s="61"/>
-      <c r="D173" s="61"/>
-      <c r="E173" s="61"/>
-      <c r="F173" s="61"/>
+      <c r="C173" s="62"/>
+      <c r="D173" s="62"/>
+      <c r="E173" s="62"/>
+      <c r="F173" s="62"/>
       <c r="G173" s="65"/>
     </row>
-    <row r="174" spans="2:7" ht="49.5">
+    <row r="174" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B174" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C174" s="64" t="s">
+      <c r="C174" s="66" t="s">
         <v>309</v>
       </c>
-      <c r="D174" s="61" t="s">
+      <c r="D174" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="E174" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F174" s="61" t="s">
+      <c r="E174" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" s="62" t="s">
         <v>249</v>
       </c>
       <c r="G174" s="65">
         <v>43770</v>
       </c>
     </row>
-    <row r="175" spans="2:7">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B175" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C175" s="64"/>
-      <c r="D175" s="61"/>
-      <c r="E175" s="61"/>
-      <c r="F175" s="61"/>
+      <c r="C175" s="66"/>
+      <c r="D175" s="62"/>
+      <c r="E175" s="62"/>
+      <c r="F175" s="62"/>
       <c r="G175" s="65"/>
     </row>
-    <row r="176" spans="2:7">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B176" s="14" t="s">
         <v>2</v>
       </c>
@@ -9097,7 +9133,7 @@
       <c r="F176" s="27"/>
       <c r="G176" s="11"/>
     </row>
-    <row r="177" spans="2:7">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B177" s="14" t="s">
         <v>2</v>
       </c>
@@ -9113,7 +9149,7 @@
       <c r="F177" s="27"/>
       <c r="G177" s="11"/>
     </row>
-    <row r="178" spans="2:7">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B178" s="14" t="s">
         <v>2</v>
       </c>
@@ -9129,33 +9165,33 @@
       <c r="F178" s="27"/>
       <c r="G178" s="11"/>
     </row>
-    <row r="179" spans="2:7">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B179" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C179" s="61" t="s">
+      <c r="C179" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="D179" s="61" t="s">
+      <c r="D179" s="62" t="s">
         <v>280</v>
       </c>
-      <c r="E179" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F179" s="61"/>
+      <c r="E179" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F179" s="62"/>
       <c r="G179" s="65"/>
     </row>
-    <row r="180" spans="2:7">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B180" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C180" s="61"/>
-      <c r="D180" s="61"/>
-      <c r="E180" s="61"/>
-      <c r="F180" s="61"/>
+      <c r="C180" s="62"/>
+      <c r="D180" s="62"/>
+      <c r="E180" s="62"/>
+      <c r="F180" s="62"/>
       <c r="G180" s="65"/>
     </row>
-    <row r="181" spans="2:7">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B181" s="14" t="s">
         <v>2</v>
       </c>
@@ -9171,7 +9207,7 @@
       <c r="F181" s="27"/>
       <c r="G181" s="11"/>
     </row>
-    <row r="182" spans="2:7">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B182" s="14" t="s">
         <v>2</v>
       </c>
@@ -9191,7 +9227,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="183" spans="2:7">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B183" s="14" t="s">
         <v>2</v>
       </c>
@@ -9207,57 +9243,57 @@
       <c r="F183" s="27"/>
       <c r="G183" s="11"/>
     </row>
-    <row r="184" spans="2:7">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B184" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C184" s="64" t="s">
+      <c r="C184" s="66" t="s">
         <v>301</v>
       </c>
-      <c r="D184" s="61" t="s">
+      <c r="D184" s="62" t="s">
         <v>340</v>
       </c>
-      <c r="E184" s="61" t="s">
+      <c r="E184" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="F184" s="61" t="s">
+      <c r="F184" s="62" t="s">
         <v>249</v>
       </c>
       <c r="G184" s="65">
         <v>43791</v>
       </c>
     </row>
-    <row r="185" spans="2:7">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B185" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C185" s="64"/>
-      <c r="D185" s="61"/>
-      <c r="E185" s="61"/>
-      <c r="F185" s="61"/>
+      <c r="C185" s="66"/>
+      <c r="D185" s="62"/>
+      <c r="E185" s="62"/>
+      <c r="F185" s="62"/>
       <c r="G185" s="65"/>
     </row>
-    <row r="186" spans="2:7">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B186" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C186" s="64"/>
-      <c r="D186" s="61"/>
-      <c r="E186" s="61"/>
-      <c r="F186" s="61"/>
+      <c r="C186" s="66"/>
+      <c r="D186" s="62"/>
+      <c r="E186" s="62"/>
+      <c r="F186" s="62"/>
       <c r="G186" s="65"/>
     </row>
-    <row r="187" spans="2:7">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B187" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="C187" s="64"/>
-      <c r="D187" s="61"/>
-      <c r="E187" s="61"/>
-      <c r="F187" s="61"/>
+      <c r="C187" s="66"/>
+      <c r="D187" s="62"/>
+      <c r="E187" s="62"/>
+      <c r="F187" s="62"/>
       <c r="G187" s="65"/>
     </row>
-    <row r="188" spans="2:7">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B188" s="14" t="s">
         <v>241</v>
       </c>
@@ -9273,7 +9309,7 @@
       <c r="F188" s="27"/>
       <c r="G188" s="11"/>
     </row>
-    <row r="189" spans="2:7">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B189" s="14" t="s">
         <v>287</v>
       </c>
@@ -9293,37 +9329,37 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="190" spans="2:7">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B190" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="C190" s="64" t="s">
+      <c r="C190" s="66" t="s">
         <v>289</v>
       </c>
-      <c r="D190" s="61" t="s">
+      <c r="D190" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="E190" s="61" t="s">
+      <c r="E190" s="62" t="s">
         <v>291</v>
       </c>
-      <c r="F190" s="61" t="s">
+      <c r="F190" s="62" t="s">
         <v>344</v>
       </c>
       <c r="G190" s="65">
         <v>43791</v>
       </c>
     </row>
-    <row r="191" spans="2:7">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B191" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C191" s="64"/>
-      <c r="D191" s="61"/>
-      <c r="E191" s="61"/>
-      <c r="F191" s="61"/>
+      <c r="C191" s="66"/>
+      <c r="D191" s="62"/>
+      <c r="E191" s="62"/>
+      <c r="F191" s="62"/>
       <c r="G191" s="65"/>
     </row>
-    <row r="192" spans="2:7">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B192" s="14" t="s">
         <v>287</v>
       </c>
@@ -9339,33 +9375,33 @@
       <c r="F192" s="27"/>
       <c r="G192" s="11"/>
     </row>
-    <row r="193" spans="2:7">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B193" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="C193" s="70" t="s">
+      <c r="C193" s="67" t="s">
         <v>359</v>
       </c>
-      <c r="D193" s="61" t="s">
+      <c r="D193" s="62" t="s">
         <v>294</v>
       </c>
-      <c r="E193" s="61" t="s">
+      <c r="E193" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="F193" s="61"/>
+      <c r="F193" s="62"/>
       <c r="G193" s="65"/>
     </row>
-    <row r="194" spans="2:7" ht="49.5">
+    <row r="194" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B194" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C194" s="64"/>
-      <c r="D194" s="61"/>
-      <c r="E194" s="61"/>
-      <c r="F194" s="61"/>
+      <c r="C194" s="66"/>
+      <c r="D194" s="62"/>
+      <c r="E194" s="62"/>
+      <c r="F194" s="62"/>
       <c r="G194" s="65"/>
     </row>
-    <row r="195" spans="2:7">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B195" s="14" t="s">
         <v>265</v>
       </c>
@@ -9381,43 +9417,43 @@
       <c r="F195" s="27"/>
       <c r="G195" s="11"/>
     </row>
-    <row r="196" spans="2:7">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B196" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C196" s="61" t="s">
+      <c r="C196" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="D196" s="61" t="s">
+      <c r="D196" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="E196" s="61" t="s">
+      <c r="E196" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="F196" s="61"/>
+      <c r="F196" s="62"/>
       <c r="G196" s="65"/>
     </row>
-    <row r="197" spans="2:7">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B197" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C197" s="61"/>
-      <c r="D197" s="61"/>
-      <c r="E197" s="61"/>
-      <c r="F197" s="61"/>
+      <c r="C197" s="62"/>
+      <c r="D197" s="62"/>
+      <c r="E197" s="62"/>
+      <c r="F197" s="62"/>
       <c r="G197" s="65"/>
     </row>
-    <row r="198" spans="2:7">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B198" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C198" s="61"/>
-      <c r="D198" s="61"/>
-      <c r="E198" s="61"/>
-      <c r="F198" s="61"/>
+      <c r="C198" s="62"/>
+      <c r="D198" s="62"/>
+      <c r="E198" s="62"/>
+      <c r="F198" s="62"/>
       <c r="G198" s="65"/>
     </row>
-    <row r="199" spans="2:7">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B199" s="14" t="s">
         <v>265</v>
       </c>
@@ -9433,85 +9469,85 @@
       <c r="F199" s="27"/>
       <c r="G199" s="11"/>
     </row>
-    <row r="200" spans="2:7">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B200" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C200" s="61" t="s">
+      <c r="C200" s="62" t="s">
         <v>314</v>
       </c>
-      <c r="D200" s="61" t="s">
+      <c r="D200" s="62" t="s">
         <v>315</v>
       </c>
-      <c r="E200" s="61" t="s">
+      <c r="E200" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="F200" s="61"/>
+      <c r="F200" s="62"/>
       <c r="G200" s="65"/>
     </row>
-    <row r="201" spans="2:7">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B201" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C201" s="61"/>
-      <c r="D201" s="61"/>
-      <c r="E201" s="61"/>
-      <c r="F201" s="61"/>
+      <c r="C201" s="62"/>
+      <c r="D201" s="62"/>
+      <c r="E201" s="62"/>
+      <c r="F201" s="62"/>
       <c r="G201" s="65"/>
     </row>
-    <row r="202" spans="2:7">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B202" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C202" s="61" t="s">
+      <c r="C202" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="D202" s="61" t="s">
+      <c r="D202" s="62" t="s">
         <v>317</v>
       </c>
-      <c r="E202" s="61" t="s">
+      <c r="E202" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="F202" s="61"/>
+      <c r="F202" s="62"/>
       <c r="G202" s="65"/>
     </row>
-    <row r="203" spans="2:7">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B203" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C203" s="61"/>
-      <c r="D203" s="61"/>
-      <c r="E203" s="61"/>
-      <c r="F203" s="61"/>
+      <c r="C203" s="62"/>
+      <c r="D203" s="62"/>
+      <c r="E203" s="62"/>
+      <c r="F203" s="62"/>
       <c r="G203" s="65"/>
     </row>
-    <row r="204" spans="2:7">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B204" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C204" s="61" t="s">
+      <c r="C204" s="62" t="s">
         <v>318</v>
       </c>
-      <c r="D204" s="61" t="s">
+      <c r="D204" s="62" t="s">
         <v>319</v>
       </c>
-      <c r="E204" s="61" t="s">
+      <c r="E204" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="F204" s="61"/>
+      <c r="F204" s="62"/>
       <c r="G204" s="65"/>
     </row>
-    <row r="205" spans="2:7">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B205" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C205" s="61"/>
-      <c r="D205" s="61"/>
-      <c r="E205" s="61"/>
-      <c r="F205" s="61"/>
+      <c r="C205" s="62"/>
+      <c r="D205" s="62"/>
+      <c r="E205" s="62"/>
+      <c r="F205" s="62"/>
       <c r="G205" s="65"/>
     </row>
-    <row r="206" spans="2:7">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B206" s="14" t="s">
         <v>265</v>
       </c>
@@ -9531,7 +9567,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="207" spans="2:7">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B207" s="14" t="s">
         <v>266</v>
       </c>
@@ -9547,7 +9583,7 @@
       <c r="F207" s="27"/>
       <c r="G207" s="11"/>
     </row>
-    <row r="208" spans="2:7">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B208" s="14" t="s">
         <v>266</v>
       </c>
@@ -9563,7 +9599,7 @@
       <c r="F208" s="27"/>
       <c r="G208" s="11"/>
     </row>
-    <row r="209" spans="2:7">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B209" s="14" t="s">
         <v>266</v>
       </c>
@@ -9579,7 +9615,7 @@
       <c r="F209" s="27"/>
       <c r="G209" s="11"/>
     </row>
-    <row r="210" spans="2:7">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B210" s="14" t="s">
         <v>266</v>
       </c>
@@ -9595,7 +9631,7 @@
       <c r="F210" s="27"/>
       <c r="G210" s="11"/>
     </row>
-    <row r="211" spans="2:7">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B211" s="14" t="s">
         <v>266</v>
       </c>
@@ -9611,7 +9647,7 @@
       <c r="F211" s="27"/>
       <c r="G211" s="11"/>
     </row>
-    <row r="212" spans="2:7">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B212" s="14" t="s">
         <v>266</v>
       </c>
@@ -9627,7 +9663,7 @@
       <c r="F212" s="27"/>
       <c r="G212" s="11"/>
     </row>
-    <row r="213" spans="2:7" ht="49.5">
+    <row r="213" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B213" s="17" t="s">
         <v>246</v>
       </c>
@@ -9643,7 +9679,7 @@
       <c r="F213" s="27"/>
       <c r="G213" s="11"/>
     </row>
-    <row r="214" spans="2:7" ht="49.5">
+    <row r="214" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B214" s="17" t="s">
         <v>246</v>
       </c>
@@ -9659,7 +9695,7 @@
       <c r="F214" s="27"/>
       <c r="G214" s="11"/>
     </row>
-    <row r="215" spans="2:7">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B215" s="27" t="s">
         <v>261</v>
       </c>
@@ -9679,17 +9715,17 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="216" spans="2:7">
-      <c r="B216" s="61" t="s">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B216" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="C216" s="64" t="s">
+      <c r="C216" s="66" t="s">
         <v>353</v>
       </c>
-      <c r="D216" s="61" t="s">
+      <c r="D216" s="62" t="s">
         <v>352</v>
       </c>
-      <c r="E216" s="61" t="s">
+      <c r="E216" s="62" t="s">
         <v>120</v>
       </c>
       <c r="F216" s="27" t="s">
@@ -9699,17 +9735,17 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="217" spans="2:7">
-      <c r="B217" s="61"/>
-      <c r="C217" s="64"/>
-      <c r="D217" s="61"/>
-      <c r="E217" s="61"/>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B217" s="62"/>
+      <c r="C217" s="66"/>
+      <c r="D217" s="62"/>
+      <c r="E217" s="62"/>
       <c r="F217" s="27" t="s">
         <v>342</v>
       </c>
       <c r="G217" s="65"/>
     </row>
-    <row r="218" spans="2:7">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B218" s="30" t="s">
         <v>356</v>
       </c>
@@ -9725,7 +9761,7 @@
       <c r="F218" s="30"/>
       <c r="G218" s="31"/>
     </row>
-    <row r="219" spans="2:7">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B219" s="30" t="s">
         <v>356</v>
       </c>
@@ -9744,6 +9780,267 @@
   </sheetData>
   <autoFilter ref="B3:G219" xr:uid="{C1EE0C99-C2F8-4E13-983A-B3DCF9299796}"/>
   <mergeCells count="285">
+    <mergeCell ref="C184:C187"/>
+    <mergeCell ref="D184:D187"/>
+    <mergeCell ref="E184:E187"/>
+    <mergeCell ref="F184:F187"/>
+    <mergeCell ref="G184:G187"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="G174:G175"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="G170:G171"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="G172:G173"/>
+    <mergeCell ref="G164:G166"/>
+    <mergeCell ref="F164:F166"/>
+    <mergeCell ref="E164:E166"/>
+    <mergeCell ref="D164:D166"/>
+    <mergeCell ref="C164:C166"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="G190:G191"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="G193:G194"/>
     <mergeCell ref="G216:G217"/>
     <mergeCell ref="E216:E217"/>
     <mergeCell ref="D216:D217"/>
@@ -9768,267 +10065,6 @@
     <mergeCell ref="C204:C205"/>
     <mergeCell ref="D204:D205"/>
     <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="G190:G191"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="E193:E194"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="G193:G194"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G164:G166"/>
-    <mergeCell ref="F164:F166"/>
-    <mergeCell ref="E164:E166"/>
-    <mergeCell ref="D164:D166"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="G170:G171"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="G172:G173"/>
-    <mergeCell ref="C184:C187"/>
-    <mergeCell ref="D184:D187"/>
-    <mergeCell ref="E184:E187"/>
-    <mergeCell ref="F184:F187"/>
-    <mergeCell ref="G184:G187"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="G174:G175"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="E179:E180"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="G179:G180"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
